--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -462,17 +462,17 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>rndbf_deflated</t>
+          <t>household_income_deflated</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>rndbf_deflated_trend</t>
+          <t>household_income_deflated_trend</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>rndbf_deflated_trend_diff</t>
+          <t>household_income_deflated_trend_diff</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>rndbf_deflated_trend_diff_lag</t>
+          <t>household_income_deflated_trend_diff_lag</t>
         </is>
       </c>
     </row>
@@ -580,25 +580,25 @@
         <v>11.30558183538315</v>
       </c>
       <c r="P2">
-        <v>13.72549019607843</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="Q2">
-        <v>7.592705956554813</v>
+        <v>9.162360817989956</v>
       </c>
       <c r="R2">
-        <v>10.38992196902054</v>
+        <v>11.75884799774394</v>
       </c>
       <c r="S2">
-        <v>4.437012269650453</v>
+        <v>5.564394467615775</v>
       </c>
       <c r="T2">
-        <v>1345096.499526963</v>
+        <v>333081</v>
       </c>
       <c r="U2">
-        <v>1284348.582956899</v>
+        <v>317328.1803895239</v>
       </c>
       <c r="V2">
-        <v>4.729862077646141</v>
+        <v>4.964204436914277</v>
       </c>
       <c r="W2">
         <v>100.68</v>
@@ -631,7 +631,7 @@
         <v>2.147821684794038</v>
       </c>
       <c r="AG2">
-        <v>4.977517249433006</v>
+        <v>4.887707845707245</v>
       </c>
     </row>
     <row r="3">
@@ -683,25 +683,25 @@
         <v>11.15534072599755</v>
       </c>
       <c r="P3">
-        <v>14.28571428571428</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="Q3">
-        <v>8.317424211652247</v>
+        <v>9.358937905995045</v>
       </c>
       <c r="R3">
-        <v>10.04952212724348</v>
+        <v>9.527556966390492</v>
       </c>
       <c r="S3">
-        <v>4.302456759779627</v>
+        <v>3.686143187806338</v>
       </c>
       <c r="T3">
-        <v>1355747.32252867</v>
+        <v>323873</v>
       </c>
       <c r="U3">
-        <v>1301008.923906109</v>
+        <v>319671.0472599593</v>
       </c>
       <c r="V3">
-        <v>4.207380719435516</v>
+        <v>1.314461467829986</v>
       </c>
       <c r="W3">
         <v>95.44</v>
@@ -734,7 +734,7 @@
         <v>2.313721403857727</v>
       </c>
       <c r="AG3">
-        <v>4.729862077646141</v>
+        <v>4.964204436914277</v>
       </c>
     </row>
     <row r="4">
@@ -786,25 +786,25 @@
         <v>10.84314470186101</v>
       </c>
       <c r="P4">
-        <v>14.83870967741935</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="Q4">
-        <v>9.037893730933689</v>
+        <v>9.556224254287304</v>
       </c>
       <c r="R4">
-        <v>9.957487082026271</v>
+        <v>10.32920951594311</v>
       </c>
       <c r="S4">
-        <v>4.403234981035209</v>
+        <v>4.567979186570445</v>
       </c>
       <c r="T4">
-        <v>1367880.744398025</v>
+        <v>316315</v>
       </c>
       <c r="U4">
-        <v>1317670.707345804</v>
+        <v>322014.2732658498</v>
       </c>
       <c r="V4">
-        <v>3.810514779778296</v>
+        <v>-1.769882188155236</v>
       </c>
       <c r="W4">
         <v>95.29000000000001</v>
@@ -837,7 +837,7 @@
         <v>-2.640109410945868</v>
       </c>
       <c r="AG4">
-        <v>4.207380719435516</v>
+        <v>1.314461467829986</v>
       </c>
     </row>
     <row r="5">
@@ -889,25 +889,25 @@
         <v>11.04845646564083</v>
       </c>
       <c r="P5">
-        <v>16.98717948717949</v>
+        <v>21.7948717948718</v>
       </c>
       <c r="Q5">
-        <v>11.81035982718102</v>
+        <v>16.40530612144872</v>
       </c>
       <c r="R5">
-        <v>9.904057520039146</v>
+        <v>8.868869965225487</v>
       </c>
       <c r="S5">
-        <v>5.040674299951409</v>
+        <v>3.532924310736676</v>
       </c>
       <c r="T5">
-        <v>1386711.268278696</v>
+        <v>309316</v>
       </c>
       <c r="U5">
-        <v>1334335.311252376</v>
+        <v>324358.1311721649</v>
       </c>
       <c r="V5">
-        <v>3.925247018844247</v>
+        <v>-4.637507041308231</v>
       </c>
       <c r="W5">
         <v>95.14</v>
@@ -940,7 +940,7 @@
         <v>-2.419714768403203</v>
       </c>
       <c r="AG5">
-        <v>3.810514779778296</v>
+        <v>-1.769882188155236</v>
       </c>
     </row>
     <row r="6">
@@ -992,25 +992,25 @@
         <v>11.00450925837091</v>
       </c>
       <c r="P6">
-        <v>17.08860759493671</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="Q6">
-        <v>12.33676253951521</v>
+        <v>17.00203349534215</v>
       </c>
       <c r="R6">
-        <v>9.902690240242158</v>
+        <v>9.647101351046045</v>
       </c>
       <c r="S6">
-        <v>5.442473606679599</v>
+        <v>4.699905261331946</v>
       </c>
       <c r="T6">
-        <v>1403121.94185935</v>
+        <v>313861</v>
       </c>
       <c r="U6">
-        <v>1351004.501025342</v>
+        <v>326702.8497680001</v>
       </c>
       <c r="V6">
-        <v>3.857680769712712</v>
+        <v>-3.930743113235591</v>
       </c>
       <c r="W6">
         <v>99.31</v>
@@ -1043,7 +1043,7 @@
         <v>-2.197684964365376</v>
       </c>
       <c r="AG6">
-        <v>3.925247018844247</v>
+        <v>-4.637507041308231</v>
       </c>
     </row>
     <row r="7">
@@ -1095,25 +1095,25 @@
         <v>10.71806209747188</v>
       </c>
       <c r="P7">
-        <v>17.1875</v>
+        <v>22.09302325581395</v>
       </c>
       <c r="Q7">
-        <v>12.64779390560415</v>
+        <v>17.36328295281549</v>
       </c>
       <c r="R7">
-        <v>9.662780929002121</v>
+        <v>9.229938042995199</v>
       </c>
       <c r="S7">
-        <v>5.414573612421525</v>
+        <v>4.730749223765537</v>
       </c>
       <c r="T7">
-        <v>1415388.83014515</v>
+        <v>324149</v>
       </c>
       <c r="U7">
-        <v>1367680.44619969</v>
+        <v>329048.5417766238</v>
       </c>
       <c r="V7">
-        <v>3.488269798550236</v>
+        <v>-1.489002731988953</v>
       </c>
       <c r="W7">
         <v>102.35</v>
@@ -1146,7 +1146,7 @@
         <v>2.484075628600824</v>
       </c>
       <c r="AG7">
-        <v>3.857680769712712</v>
+        <v>-3.930743113235591</v>
       </c>
     </row>
     <row r="8">
@@ -1198,25 +1198,25 @@
         <v>10.58959315187071</v>
       </c>
       <c r="P8">
-        <v>17.28395061728395</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q8">
-        <v>12.80556950782334</v>
+        <v>12.21185598409795</v>
       </c>
       <c r="R8">
-        <v>9.586483525170873</v>
+        <v>9.093671142468922</v>
       </c>
       <c r="S8">
-        <v>5.402023203973116</v>
+        <v>4.822636751158218</v>
       </c>
       <c r="T8">
-        <v>1426604.789843224</v>
+        <v>334184</v>
       </c>
       <c r="U8">
-        <v>1384365.718451153</v>
+        <v>331395.2208329577</v>
       </c>
       <c r="V8">
-        <v>3.051149766936523</v>
+        <v>0.8415266701893742</v>
       </c>
       <c r="W8">
         <v>100.12</v>
@@ -1249,7 +1249,7 @@
         <v>6.031522959779978</v>
       </c>
       <c r="AG8">
-        <v>3.488269798550236</v>
+        <v>-1.489002731988953</v>
       </c>
     </row>
     <row r="9">
@@ -1301,25 +1301,25 @@
         <v>10.41987673343607</v>
       </c>
       <c r="P9">
-        <v>17.3780487804878</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q9">
-        <v>13.03741215378256</v>
+        <v>12.35233692860811</v>
       </c>
       <c r="R9">
-        <v>9.707077264742344</v>
+        <v>8.716751438339031</v>
       </c>
       <c r="S9">
-        <v>5.650112928295781</v>
+        <v>4.588559477189085</v>
       </c>
       <c r="T9">
-        <v>1438591.101694915</v>
+        <v>337045</v>
       </c>
       <c r="U9">
-        <v>1401063.257575714</v>
+        <v>333742.8627668168</v>
       </c>
       <c r="V9">
-        <v>2.67852603487273</v>
+        <v>0.989425573271463</v>
       </c>
       <c r="W9">
         <v>99.2</v>
@@ -1352,7 +1352,7 @@
         <v>4.125745800514569</v>
       </c>
       <c r="AG9">
-        <v>3.051149766936523</v>
+        <v>0.8415266701893742</v>
       </c>
     </row>
     <row r="10">
@@ -1404,25 +1404,25 @@
         <v>10.09643201542914</v>
       </c>
       <c r="P10">
-        <v>17.46987951807229</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q10">
-        <v>13.27857234143906</v>
+        <v>12.50401800064287</v>
       </c>
       <c r="R10">
-        <v>10.03173137020369</v>
+        <v>10.68330722719081</v>
       </c>
       <c r="S10">
-        <v>6.105816171845402</v>
+        <v>6.59496383437337</v>
       </c>
       <c r="T10">
-        <v>1456593.056894889</v>
+        <v>339247</v>
       </c>
       <c r="U10">
-        <v>1417776.329288115</v>
+        <v>336091.4649263737</v>
       </c>
       <c r="V10">
-        <v>2.737859760027517</v>
+        <v>0.9388917610024805</v>
       </c>
       <c r="W10">
         <v>99.14</v>
@@ -1455,7 +1455,7 @@
         <v>3.572707506505246</v>
       </c>
       <c r="AG10">
-        <v>2.67852603487273</v>
+        <v>0.989425573271463</v>
       </c>
     </row>
     <row r="11">
@@ -1507,25 +1507,25 @@
         <v>10.35250823164826</v>
       </c>
       <c r="P11">
-        <v>17.55952380952381</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q11">
-        <v>13.84807651513056</v>
+        <v>12.98340757957259</v>
       </c>
       <c r="R11">
-        <v>10.25315906031526</v>
+        <v>11.24774263995632</v>
       </c>
       <c r="S11">
-        <v>6.772379488974689</v>
+        <v>7.381215400061055</v>
       </c>
       <c r="T11">
-        <v>1475316.676350959</v>
+        <v>341192</v>
       </c>
       <c r="U11">
-        <v>1434508.488869795</v>
+        <v>338441.0501392561</v>
       </c>
       <c r="V11">
-        <v>2.844750504984161</v>
+        <v>0.8128298442556137</v>
       </c>
       <c r="W11">
         <v>97.72</v>
@@ -1558,7 +1558,7 @@
         <v>3.916593043134031</v>
       </c>
       <c r="AG11">
-        <v>2.737859760027517</v>
+        <v>0.9388917610024805</v>
       </c>
     </row>
     <row r="12">
@@ -1610,25 +1610,25 @@
         <v>10.31838477965443</v>
       </c>
       <c r="P12">
-        <v>17.64705882352941</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q12">
-        <v>14.19827103817648</v>
+        <v>13.246618779525</v>
       </c>
       <c r="R12">
-        <v>9.747547788968948</v>
+        <v>11.05317783970645</v>
       </c>
       <c r="S12">
-        <v>6.530331769529174</v>
+        <v>7.478908799802944</v>
       </c>
       <c r="T12">
-        <v>1489428.266356047</v>
+        <v>349070</v>
       </c>
       <c r="U12">
-        <v>1451263.591113982</v>
+        <v>340791.6655813551</v>
       </c>
       <c r="V12">
-        <v>2.629754889170055</v>
+        <v>2.429148143785409</v>
       </c>
       <c r="W12">
         <v>98.62</v>
@@ -1661,7 +1661,7 @@
         <v>2.831770814488022</v>
       </c>
       <c r="AG12">
-        <v>2.844750504984161</v>
+        <v>0.8128298442556137</v>
       </c>
     </row>
     <row r="13">
@@ -1713,25 +1713,25 @@
         <v>9.74403723094821</v>
       </c>
       <c r="P13">
-        <v>17.73255813953488</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q13">
-        <v>14.14830147327408</v>
+        <v>13.11486006075882</v>
       </c>
       <c r="R13">
-        <v>9.93053728732821</v>
+        <v>9.506955041906025</v>
       </c>
       <c r="S13">
-        <v>6.583805785658514</v>
+        <v>6.171662414000805</v>
       </c>
       <c r="T13">
-        <v>1499111.886755866</v>
+        <v>350771</v>
       </c>
       <c r="U13">
-        <v>1468045.805691897</v>
+        <v>343143.3796550274</v>
       </c>
       <c r="V13">
-        <v>2.116152026286855</v>
+        <v>2.222866823961733</v>
       </c>
       <c r="W13">
         <v>99.29000000000001</v>
@@ -1764,7 +1764,7 @@
         <v>4.188963634368825</v>
       </c>
       <c r="AG13">
-        <v>2.629754889170055</v>
+        <v>2.429148143785409</v>
       </c>
     </row>
     <row r="14">
@@ -1816,25 +1816,25 @@
         <v>9.845616079230979</v>
       </c>
       <c r="P14">
-        <v>17.81609195402299</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q14">
-        <v>14.39566167008737</v>
+        <v>13.27960643428163</v>
       </c>
       <c r="R14">
-        <v>9.675495351910685</v>
+        <v>9.440523597366242</v>
       </c>
       <c r="S14">
-        <v>6.491402419565673</v>
+        <v>6.202695440448419</v>
       </c>
       <c r="T14">
-        <v>1514059.617438586</v>
+        <v>353741</v>
       </c>
       <c r="U14">
-        <v>1484859.596755277</v>
+        <v>345496.3246386665</v>
       </c>
       <c r="V14">
-        <v>1.966517288713154</v>
+        <v>2.386327950074763</v>
       </c>
       <c r="W14">
         <v>97.84999999999999</v>
@@ -1867,7 +1867,7 @@
         <v>5.312380888049084</v>
       </c>
       <c r="AG14">
-        <v>2.116152026286855</v>
+        <v>2.222866823961733</v>
       </c>
     </row>
     <row r="15">
@@ -1919,25 +1919,25 @@
         <v>9.619491360900788</v>
       </c>
       <c r="P15">
-        <v>17.89772727272727</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q15">
-        <v>14.44159121794533</v>
+        <v>13.246618779525</v>
       </c>
       <c r="R15">
-        <v>10.09892698026983</v>
+        <v>10.89869861465431</v>
       </c>
       <c r="S15">
-        <v>6.87141038659469</v>
+        <v>7.61718327863082</v>
       </c>
       <c r="T15">
-        <v>1528741.02116094</v>
+        <v>348543</v>
       </c>
       <c r="U15">
-        <v>1501709.66816327</v>
+        <v>347850.6916657611</v>
       </c>
       <c r="V15">
-        <v>1.800038554105532</v>
+        <v>0.199024567386541</v>
       </c>
       <c r="W15">
         <v>95.84999999999999</v>
@@ -1970,7 +1970,7 @@
         <v>4.197063809179302</v>
       </c>
       <c r="AG15">
-        <v>1.966517288713154</v>
+        <v>2.386327950074763</v>
       </c>
     </row>
     <row r="16">
@@ -2022,25 +2022,25 @@
         <v>9.498834498834485</v>
       </c>
       <c r="P16">
-        <v>17.97752808988764</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q16">
-        <v>14.58578874309211</v>
+        <v>13.31261331261329</v>
       </c>
       <c r="R16">
-        <v>10.46685806148883</v>
+        <v>12.41186971938167</v>
       </c>
       <c r="S16">
-        <v>7.291043183264212</v>
+        <v>9.149739974392615</v>
       </c>
       <c r="T16">
-        <v>1545690.559440559</v>
+        <v>345257</v>
       </c>
       <c r="U16">
-        <v>1518600.949083828</v>
+        <v>350206.7354861226</v>
       </c>
       <c r="V16">
-        <v>1.783853116453971</v>
+        <v>-1.4133752965236</v>
       </c>
       <c r="W16">
         <v>96.14</v>
@@ -2073,7 +2073,7 @@
         <v>2.473136313262159</v>
       </c>
       <c r="AG16">
-        <v>1.800038554105532</v>
+        <v>0.199024567386541</v>
       </c>
     </row>
     <row r="17">
@@ -2125,25 +2125,25 @@
         <v>9.300970873786408</v>
       </c>
       <c r="P17">
-        <v>15.89041095890411</v>
+        <v>13.68421052631578</v>
       </c>
       <c r="Q17">
-        <v>12.51496209602341</v>
+        <v>10.37301992846194</v>
       </c>
       <c r="R17">
-        <v>10.84811250272242</v>
+        <v>13.68796109993293</v>
       </c>
       <c r="S17">
-        <v>7.619526701672252</v>
+        <v>10.38646562091841</v>
       </c>
       <c r="T17">
-        <v>1561468.932038835</v>
+        <v>341443</v>
       </c>
       <c r="U17">
-        <v>1535538.577260165</v>
+        <v>352564.716191447</v>
       </c>
       <c r="V17">
-        <v>1.688681428306205</v>
+        <v>-3.154517647593458</v>
       </c>
       <c r="W17">
         <v>94.59</v>
@@ -2176,7 +2176,7 @@
         <v>3.192150093177903</v>
       </c>
       <c r="AG17">
-        <v>1.783853116453971</v>
+        <v>-1.4133752965236</v>
       </c>
     </row>
     <row r="18">
@@ -2228,25 +2228,25 @@
         <v>8.964915681333597</v>
       </c>
       <c r="P18">
-        <v>15.13513513513514</v>
+        <v>11.00000000000001</v>
       </c>
       <c r="Q18">
-        <v>11.58667875085786</v>
+        <v>7.57898817600311</v>
       </c>
       <c r="R18">
-        <v>11.01072566076388</v>
+        <v>13.35036676831781</v>
       </c>
       <c r="S18">
-        <v>7.589383272692274</v>
+        <v>9.999012301623967</v>
       </c>
       <c r="T18">
-        <v>1573466.757123474</v>
+        <v>345244</v>
       </c>
       <c r="U18">
-        <v>1552527.899460259</v>
+        <v>354924.8556810276</v>
       </c>
       <c r="V18">
-        <v>1.348694453123467</v>
+        <v>-2.727578958214127</v>
       </c>
       <c r="W18">
         <v>92.5</v>
@@ -2279,7 +2279,7 @@
         <v>1.932461953498743</v>
       </c>
       <c r="AG18">
-        <v>1.688681428306205</v>
+        <v>-3.154517647593458</v>
       </c>
     </row>
     <row r="19">
@@ -2331,25 +2331,25 @@
         <v>8.043205709325886</v>
       </c>
       <c r="P19">
-        <v>14.4</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q19">
-        <v>10.32886488571705</v>
+        <v>4.707713927503687</v>
       </c>
       <c r="R19">
-        <v>11.19605767069244</v>
+        <v>12.18996561600013</v>
       </c>
       <c r="S19">
-        <v>7.23894075676772</v>
+        <v>8.615790886289947</v>
       </c>
       <c r="T19">
-        <v>1579017.262995467</v>
+        <v>352077</v>
       </c>
       <c r="U19">
-        <v>1569574.462531988</v>
+        <v>357287.2900384456</v>
       </c>
       <c r="V19">
-        <v>0.6016153224260856</v>
+        <v>-1.45829146004185</v>
       </c>
       <c r="W19">
         <v>90.12</v>
@@ -2382,7 +2382,7 @@
         <v>0.07658804242725026</v>
       </c>
       <c r="AG19">
-        <v>1.348694453123467</v>
+        <v>-2.727578958214127</v>
       </c>
     </row>
     <row r="20">
@@ -2434,25 +2434,25 @@
         <v>7.701947175631374</v>
       </c>
       <c r="P20">
-        <v>13.68421052631579</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q20">
-        <v>9.585705153572178</v>
+        <v>4.657247514390361</v>
       </c>
       <c r="R20">
-        <v>11.38769761623364</v>
+        <v>11.30399801955688</v>
       </c>
       <c r="S20">
-        <v>7.371985363633726</v>
+        <v>7.500059847269767</v>
       </c>
       <c r="T20">
-        <v>1592585.309427415</v>
+        <v>359248</v>
       </c>
       <c r="U20">
-        <v>1586683.974888489</v>
+        <v>359652.0806493226</v>
       </c>
       <c r="V20">
-        <v>0.3719287918906522</v>
+        <v>-0.1123532077426215</v>
       </c>
       <c r="W20">
         <v>88.84</v>
@@ -2485,7 +2485,7 @@
         <v>-2.111277747214257</v>
       </c>
       <c r="AG20">
-        <v>0.6016153224260856</v>
+        <v>-1.45829146004185</v>
       </c>
     </row>
     <row r="21">
@@ -2537,25 +2537,25 @@
         <v>6.959109234018057</v>
       </c>
       <c r="P21">
-        <v>12.98701298701299</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q21">
-        <v>8.453650400281232</v>
+        <v>4.215231878890924</v>
       </c>
       <c r="R21">
-        <v>11.80259105268126</v>
+        <v>11.92400908086882</v>
       </c>
       <c r="S21">
-        <v>7.316750866463106</v>
+        <v>7.75415745671943</v>
       </c>
       <c r="T21">
-        <v>1603133.038971012</v>
+        <v>363180</v>
       </c>
       <c r="U21">
-        <v>1603862.217804014</v>
+        <v>362019.2486964239</v>
       </c>
       <c r="V21">
-        <v>-0.04546393230714374</v>
+        <v>0.3206324823212592</v>
       </c>
       <c r="W21">
         <v>92.25</v>
@@ -2588,7 +2588,7 @@
         <v>-3.119472548182889</v>
       </c>
       <c r="AG21">
-        <v>0.3719287918906522</v>
+        <v>-0.1123532077426215</v>
       </c>
     </row>
     <row r="22">
@@ -2640,25 +2640,25 @@
         <v>6.78828612578013</v>
       </c>
       <c r="P22">
-        <v>12.30769230769231</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q22">
-        <v>7.832637837438594</v>
+        <v>4.245250668678402</v>
       </c>
       <c r="R22">
-        <v>11.40724812593554</v>
+        <v>11.54209020634244</v>
       </c>
       <c r="S22">
-        <v>6.96807309259293</v>
+        <v>7.229245947642868</v>
       </c>
       <c r="T22">
-        <v>1615738.838214114</v>
+        <v>363772</v>
       </c>
       <c r="U22">
-        <v>1621115.018087798</v>
+        <v>364388.8122446092</v>
       </c>
       <c r="V22">
-        <v>-0.3316346967178974</v>
+        <v>-0.1692731016656901</v>
       </c>
       <c r="W22">
         <v>89.92</v>
@@ -2691,7 +2691,7 @@
         <v>0.9962117170522644</v>
       </c>
       <c r="AG22">
-        <v>-0.04546393230714374</v>
+        <v>0.3206324823212592</v>
       </c>
     </row>
     <row r="23">
@@ -2743,25 +2743,25 @@
         <v>6.780637725701122</v>
       </c>
       <c r="P23">
-        <v>11.64556962025316</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q23">
-        <v>7.227784883070654</v>
+        <v>4.275286757038588</v>
       </c>
       <c r="R23">
-        <v>11.44273512352535</v>
+        <v>11.47260015402504</v>
       </c>
       <c r="S23">
-        <v>7.032976492052767</v>
+        <v>7.034748763159746</v>
       </c>
       <c r="T23">
-        <v>1630553.207837111</v>
+        <v>365194</v>
       </c>
       <c r="U23">
-        <v>1638448.196922711</v>
+        <v>366760.798315153</v>
       </c>
       <c r="V23">
-        <v>-0.4818577175908278</v>
+        <v>-0.4271989597445125</v>
       </c>
       <c r="W23">
         <v>86.17</v>
@@ -2794,7 +2794,7 @@
         <v>-1.167746285813553</v>
       </c>
       <c r="AG23">
-        <v>-0.3316346967178974</v>
+        <v>-0.1692731016656901</v>
       </c>
     </row>
     <row r="24">
@@ -2846,25 +2846,25 @@
         <v>6.70889720702561</v>
       </c>
       <c r="P24">
-        <v>11</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q24">
-        <v>6.53613590555715</v>
+        <v>4.20522945717301</v>
       </c>
       <c r="R24">
-        <v>11.62036979710103</v>
+        <v>10.44242317202402</v>
       </c>
       <c r="S24">
-        <v>7.131557536328859</v>
+        <v>6.041768126736757</v>
       </c>
       <c r="T24">
-        <v>1643836.260677608</v>
+        <v>370160</v>
       </c>
       <c r="U24">
-        <v>1655867.534008731</v>
+        <v>369135.2291699749</v>
       </c>
       <c r="V24">
-        <v>-0.7265842879349282</v>
+        <v>0.2776139336062355</v>
       </c>
       <c r="W24">
         <v>86.19</v>
@@ -2897,7 +2897,7 @@
         <v>-4.919011502511717</v>
       </c>
       <c r="AG24">
-        <v>-0.4818577175908278</v>
+        <v>-0.4271989597445125</v>
       </c>
     </row>
     <row r="25">
@@ -2949,25 +2949,25 @@
         <v>6.433084434233183</v>
       </c>
       <c r="P25">
-        <v>10.37037037037037</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q25">
-        <v>5.658022564015286</v>
+        <v>3.935887968053375</v>
       </c>
       <c r="R25">
-        <v>12.40305164197793</v>
+        <v>13.41675178753831</v>
       </c>
       <c r="S25">
-        <v>7.603916946178368</v>
+        <v>8.788639881860245</v>
       </c>
       <c r="T25">
-        <v>1663754.547195099</v>
+        <v>381599</v>
       </c>
       <c r="U25">
-        <v>1673378.748127729</v>
+        <v>371512.1149815018</v>
       </c>
       <c r="V25">
-        <v>-0.5751358407891205</v>
+        <v>2.715089121387182</v>
       </c>
       <c r="W25">
         <v>86.66</v>
@@ -3000,7 +3000,7 @@
         <v>-4.527176116206311</v>
       </c>
       <c r="AG25">
-        <v>-0.7265842879349282</v>
+        <v>0.2776139336062355</v>
       </c>
     </row>
     <row r="26">
@@ -3052,25 +3052,25 @@
         <v>6.331293037490426</v>
       </c>
       <c r="P26">
-        <v>9.75609756097561</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q26">
-        <v>4.969488868568872</v>
+        <v>3.836484861733513</v>
       </c>
       <c r="R26">
-        <v>12.22685384107277</v>
+        <v>12.55088733094598</v>
       </c>
       <c r="S26">
-        <v>7.332492196894358</v>
+        <v>7.80401480179001</v>
       </c>
       <c r="T26">
-        <v>1673667.750573833</v>
+        <v>381347</v>
       </c>
       <c r="U26">
-        <v>1690987.465227681</v>
+        <v>373891.4738293436</v>
       </c>
       <c r="V26">
-        <v>-1.024236726173255</v>
+        <v>1.99403481825835</v>
       </c>
       <c r="W26">
         <v>86.19</v>
@@ -3103,7 +3103,7 @@
         <v>-3.635803900798873</v>
       </c>
       <c r="AG26">
-        <v>-0.5751358407891205</v>
+        <v>2.715089121387182</v>
       </c>
     </row>
     <row r="27">
@@ -3155,25 +3155,25 @@
         <v>6.280470318325193</v>
       </c>
       <c r="P27">
-        <v>9.156626506024097</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="Q27">
-        <v>4.346263747274715</v>
+        <v>3.7868545754981</v>
       </c>
       <c r="R27">
-        <v>12.13314547062719</v>
+        <v>12.92877526061383</v>
       </c>
       <c r="S27">
-        <v>7.191612150489601</v>
+        <v>8.020531182666128</v>
       </c>
       <c r="T27">
-        <v>1688170.347003154</v>
+        <v>376498</v>
       </c>
       <c r="U27">
-        <v>1708699.236995739</v>
+        <v>376273.4016240126</v>
       </c>
       <c r="V27">
-        <v>-1.201433789405726</v>
+        <v>0.0596902079759154</v>
       </c>
       <c r="W27">
         <v>85.36</v>
@@ -3206,7 +3206,7 @@
         <v>-3.790990612836065</v>
       </c>
       <c r="AG27">
-        <v>-1.024236726173255</v>
+        <v>1.99403481825835</v>
       </c>
     </row>
     <row r="28">
@@ -3258,25 +3258,25 @@
         <v>6.158693784016034</v>
       </c>
       <c r="P28">
-        <v>9.404761904761905</v>
+        <v>11.90476190476191</v>
       </c>
       <c r="Q28">
-        <v>4.463632106141446</v>
+        <v>6.850722720101143</v>
       </c>
       <c r="R28">
-        <v>11.82310645118927</v>
+        <v>10.15881147540984</v>
       </c>
       <c r="S28">
-        <v>6.772755133380381</v>
+        <v>5.27983502144779</v>
       </c>
       <c r="T28">
-        <v>1699227.537477323</v>
+        <v>363486</v>
       </c>
       <c r="U28">
-        <v>1726519.48147929</v>
+        <v>378658.0518032289</v>
       </c>
       <c r="V28">
-        <v>-1.580749264328241</v>
+        <v>-4.006794977943073</v>
       </c>
       <c r="W28">
         <v>86.31999999999999</v>
@@ -3309,7 +3309,7 @@
         <v>-4.355101667025618</v>
       </c>
       <c r="AG28">
-        <v>-1.201433789405726</v>
+        <v>0.0596902079759154</v>
       </c>
     </row>
     <row r="29">
@@ -3361,25 +3361,25 @@
         <v>6.026275704493522</v>
       </c>
       <c r="P29">
-        <v>9.456264775413711</v>
+        <v>12.03703703703703</v>
       </c>
       <c r="Q29">
-        <v>4.204364789997816</v>
+        <v>6.661307156356644</v>
       </c>
       <c r="R29">
-        <v>11.65892459987577</v>
+        <v>11.26711747918618</v>
       </c>
       <c r="S29">
-        <v>6.301337204756052</v>
+        <v>6.176433548205703</v>
       </c>
       <c r="T29">
-        <v>1709658.225437928</v>
+        <v>362532</v>
       </c>
       <c r="U29">
-        <v>1744453.45832378</v>
+        <v>381045.5795377253</v>
       </c>
       <c r="V29">
-        <v>-1.994620877950282</v>
+        <v>-4.858625983848297</v>
       </c>
       <c r="W29">
         <v>85.97</v>
@@ -3412,7 +3412,7 @@
         <v>-2.914768319848104</v>
       </c>
       <c r="AG29">
-        <v>-1.580749264328241</v>
+        <v>-4.006794977943073</v>
       </c>
     </row>
     <row r="30">
@@ -3464,25 +3464,25 @@
         <v>5.730251941655617</v>
       </c>
       <c r="P30">
-        <v>9.507042253521126</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="Q30">
-        <v>3.719494462512896</v>
+        <v>6.234288844631708</v>
       </c>
       <c r="R30">
-        <v>11.8412469826049</v>
+        <v>12.05863533244139</v>
       </c>
       <c r="S30">
-        <v>5.930334327149911</v>
+        <v>6.604893930090023</v>
       </c>
       <c r="T30">
-        <v>1719782.155711309</v>
+        <v>368047</v>
       </c>
       <c r="U30">
-        <v>1762506.216588685</v>
+        <v>383436.0229299334</v>
       </c>
       <c r="V30">
-        <v>-2.424051641648572</v>
+        <v>-4.013452573480691</v>
       </c>
       <c r="W30">
         <v>84.12</v>
@@ -3515,7 +3515,7 @@
         <v>-2.947208417488556</v>
       </c>
       <c r="AG30">
-        <v>-1.994620877950282</v>
+        <v>-4.858625983848297</v>
       </c>
     </row>
     <row r="31">
@@ -3567,25 +3567,25 @@
         <v>5.685461059777497</v>
       </c>
       <c r="P31">
-        <v>9.557109557109557</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q31">
-        <v>3.297293566952253</v>
+        <v>2.970513214962733</v>
       </c>
       <c r="R31">
-        <v>12.12985171164667</v>
+        <v>13.34077608459137</v>
       </c>
       <c r="S31">
-        <v>5.723035745471128</v>
+        <v>7.37083081257793</v>
       </c>
       <c r="T31">
-        <v>1730985.291344522</v>
+        <v>378028</v>
       </c>
       <c r="U31">
-        <v>1780682.536851727</v>
+        <v>385829.2772305909</v>
       </c>
       <c r="V31">
-        <v>-2.790909916771034</v>
+        <v>-2.021950559736407</v>
       </c>
       <c r="W31">
         <v>82.11</v>
@@ -3618,7 +3618,7 @@
         <v>-4.68437775826559</v>
       </c>
       <c r="AG31">
-        <v>-2.424051641648572</v>
+        <v>-4.013452573480691</v>
       </c>
     </row>
     <row r="32">
@@ -3670,25 +3670,25 @@
         <v>5.631287017016051</v>
       </c>
       <c r="P32">
-        <v>9.606481481481481</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q32">
-        <v>3.042663797575895</v>
+        <v>2.670420528146522</v>
       </c>
       <c r="R32">
-        <v>12.58476843478913</v>
+        <v>14.88364980955823</v>
       </c>
       <c r="S32">
-        <v>5.842595125307048</v>
+        <v>8.379169821404712</v>
       </c>
       <c r="T32">
-        <v>1748676.318510858</v>
+        <v>389350</v>
       </c>
       <c r="U32">
-        <v>1798986.870029684</v>
+        <v>388225.1189479745</v>
       </c>
       <c r="V32">
-        <v>-2.796604708849015</v>
+        <v>0.289749683140994</v>
       </c>
       <c r="W32">
         <v>81.06</v>
@@ -3721,7 +3721,7 @@
         <v>-6.621183952619347</v>
       </c>
       <c r="AG32">
-        <v>-2.790909916771034</v>
+        <v>-2.021950559736407</v>
       </c>
     </row>
     <row r="33">
@@ -3773,25 +3773,25 @@
         <v>6.357728171799937</v>
       </c>
       <c r="P33">
-        <v>9.655172413793103</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q33">
-        <v>3.28263390203738</v>
+        <v>2.86382812073982</v>
       </c>
       <c r="R33">
-        <v>12.85242470110362</v>
+        <v>15.77252263055828</v>
       </c>
       <c r="S33">
-        <v>6.294079967131583</v>
+        <v>9.016465664408834</v>
       </c>
       <c r="T33">
-        <v>1775264.19892625</v>
+        <v>395926</v>
       </c>
       <c r="U33">
-        <v>1817423.28357291</v>
+        <v>390623.2643953207</v>
       </c>
       <c r="V33">
-        <v>-2.31971742783984</v>
+        <v>1.357506346399462</v>
       </c>
       <c r="W33">
         <v>80.55</v>
@@ -3824,7 +3824,7 @@
         <v>-7.481254246384095</v>
       </c>
       <c r="AG33">
-        <v>-2.796604708849015</v>
+        <v>0.289749683140994</v>
       </c>
     </row>
     <row r="34">
@@ -3876,25 +3876,25 @@
         <v>6.720000000000015</v>
       </c>
       <c r="P34">
-        <v>9.703196347031962</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q34">
-        <v>3.250067150147729</v>
+        <v>2.786377708978316</v>
       </c>
       <c r="R34">
-        <v>13.23544442806954</v>
+        <v>15.83266258304798</v>
       </c>
       <c r="S34">
-        <v>6.574535932300751</v>
+        <v>9.008114973115028</v>
       </c>
       <c r="T34">
-        <v>1793427.764705882</v>
+        <v>396541</v>
       </c>
       <c r="U34">
-        <v>1835995.456733086</v>
+        <v>393023.4385655036</v>
       </c>
       <c r="V34">
-        <v>-2.318507481655085</v>
+        <v>0.8950004221975005</v>
       </c>
       <c r="W34">
         <v>87.61</v>
@@ -3927,7 +3927,7 @@
         <v>-7.733799695745846</v>
       </c>
       <c r="AG34">
-        <v>-2.31971742783984</v>
+        <v>1.357506346399462</v>
       </c>
     </row>
     <row r="35">
@@ -3979,25 +3979,25 @@
         <v>6.813269429564883</v>
       </c>
       <c r="P35">
-        <v>9.750566893424036</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q35">
-        <v>3.139335488604478</v>
+        <v>2.631826252973846</v>
       </c>
       <c r="R35">
-        <v>13.44263994552733</v>
+        <v>14.87459445546969</v>
       </c>
       <c r="S35">
-        <v>6.609002862068714</v>
+        <v>8.092137329748024</v>
       </c>
       <c r="T35">
-        <v>1809935.156470256</v>
+        <v>394746</v>
       </c>
       <c r="U35">
-        <v>1854706.74346029</v>
+        <v>395425.4073675672</v>
       </c>
       <c r="V35">
-        <v>-2.413944260886458</v>
+        <v>-0.171816821809756</v>
       </c>
       <c r="W35">
         <v>100.24</v>
@@ -4030,7 +4030,7 @@
         <v>0.7089100726747288</v>
       </c>
       <c r="AG35">
-        <v>-2.318507481655085</v>
+        <v>0.8950004221975005</v>
       </c>
     </row>
     <row r="36">
@@ -4082,25 +4082,25 @@
         <v>6.814550239684181</v>
       </c>
       <c r="P36">
-        <v>9.797297297297296</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q36">
-        <v>3.202648084685866</v>
+        <v>2.651119762937748</v>
       </c>
       <c r="R36">
-        <v>13.87844898707489</v>
+        <v>14.57308866056317</v>
       </c>
       <c r="S36">
-        <v>7.038677495135715</v>
+        <v>7.732602118003026</v>
       </c>
       <c r="T36">
-        <v>1833265.344487264</v>
+        <v>398783</v>
       </c>
       <c r="U36">
-        <v>1873560.169250189</v>
+        <v>397828.963852233</v>
       </c>
       <c r="V36">
-        <v>-2.150708870964702</v>
+        <v>0.2398106308120207</v>
       </c>
       <c r="W36">
         <v>100.66</v>
@@ -4133,7 +4133,7 @@
         <v>15.63142437122076</v>
       </c>
       <c r="AG36">
-        <v>-2.413944260886458</v>
+        <v>-0.171816821809756</v>
       </c>
     </row>
     <row r="37">
@@ -4185,25 +4185,25 @@
         <v>7.327667610953736</v>
       </c>
       <c r="P37">
-        <v>9.843400447427292</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q37">
-        <v>3.723702027787801</v>
+        <v>3.12608717260574</v>
       </c>
       <c r="R37">
-        <v>13.29583338607722</v>
+        <v>13.61990106079808</v>
       </c>
       <c r="S37">
-        <v>6.98378978855263</v>
+        <v>6.954682795290344</v>
       </c>
       <c r="T37">
-        <v>1859333.333333333</v>
+        <v>408138</v>
       </c>
       <c r="U37">
-        <v>1892558.414138682</v>
+        <v>400233.895827882</v>
       </c>
       <c r="V37">
-        <v>-1.755564349144256</v>
+        <v>1.974871257660071</v>
       </c>
       <c r="W37">
         <v>107.19</v>
@@ -4236,7 +4236,7 @@
         <v>16.51882969367133</v>
       </c>
       <c r="AG37">
-        <v>-2.150708870964702</v>
+        <v>0.2398106308120207</v>
       </c>
     </row>
     <row r="38">
@@ -4288,25 +4288,25 @@
         <v>7.067271352985638</v>
       </c>
       <c r="P38">
-        <v>9.888888888888889</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="Q38">
-        <v>3.825480809607784</v>
+        <v>3.184548673270471</v>
       </c>
       <c r="R38">
-        <v>13.79095958998553</v>
+        <v>13.95016836741226</v>
       </c>
       <c r="S38">
-        <v>7.512244510568333</v>
+        <v>7.457774677655784</v>
       </c>
       <c r="T38">
-        <v>1881450.302343159</v>
+        <v>409787</v>
       </c>
       <c r="U38">
-        <v>1911703.847244835</v>
+        <v>402639.9984642852</v>
       </c>
       <c r="V38">
-        <v>-1.582543496225997</v>
+        <v>1.77503515869617</v>
       </c>
       <c r="W38">
         <v>101.33</v>
@@ -4339,7 +4339,7 @@
         <v>24.50344500620496</v>
       </c>
       <c r="AG38">
-        <v>-1.755564349144256</v>
+        <v>1.974871257660071</v>
       </c>
     </row>
     <row r="39">
@@ -4391,25 +4391,25 @@
         <v>6.383380547686501</v>
       </c>
       <c r="P39">
-        <v>11.03752759381898</v>
+        <v>13.59649122807018</v>
       </c>
       <c r="Q39">
-        <v>4.8513008440217</v>
+        <v>7.267697099216419</v>
       </c>
       <c r="R39">
-        <v>13.93214590075283</v>
+        <v>13.24196792326337</v>
       </c>
       <c r="S39">
-        <v>7.584651464355829</v>
+        <v>6.951696954565496</v>
       </c>
       <c r="T39">
-        <v>1899939.565627951</v>
+        <v>402671</v>
       </c>
       <c r="U39">
-        <v>1930998.581321307</v>
+        <v>405047.1279196716</v>
       </c>
       <c r="V39">
-        <v>-1.608443216571553</v>
+        <v>-0.586629988435039</v>
       </c>
       <c r="W39">
         <v>99.54000000000001</v>
@@ -4442,7 +4442,7 @@
         <v>18.09616708402857</v>
       </c>
       <c r="AG39">
-        <v>-1.582543496225997</v>
+        <v>1.77503515869617</v>
       </c>
     </row>
     <row r="40">
@@ -4494,25 +4494,25 @@
         <v>5.766499384527979</v>
       </c>
       <c r="P40">
-        <v>10.55495103373232</v>
+        <v>14.46808510638297</v>
       </c>
       <c r="Q40">
-        <v>4.682275384653267</v>
+        <v>8.387543893933325</v>
       </c>
       <c r="R40">
-        <v>14.40867924888781</v>
+        <v>14.83381056463882</v>
       </c>
       <c r="S40">
-        <v>8.331293673788288</v>
+        <v>8.556588149199694</v>
       </c>
       <c r="T40">
-        <v>1927864.785531673</v>
+        <v>394588</v>
       </c>
       <c r="U40">
-        <v>1950444.495682917</v>
+        <v>407455.1954988872</v>
       </c>
       <c r="V40">
-        <v>-1.157669967088093</v>
+        <v>-3.157941202132086</v>
       </c>
       <c r="W40">
         <v>97.40000000000001</v>
@@ -4545,7 +4545,7 @@
         <v>16.39844809212296</v>
       </c>
       <c r="AG40">
-        <v>-1.608443216571553</v>
+        <v>-0.586629988435039</v>
       </c>
     </row>
     <row r="41">
@@ -4597,25 +4597,25 @@
         <v>5.287595944281254</v>
       </c>
       <c r="P41">
-        <v>10.79913606911447</v>
+        <v>15.28925619834711</v>
       </c>
       <c r="Q41">
-        <v>4.993021955002819</v>
+        <v>9.247850088455522</v>
       </c>
       <c r="R41">
-        <v>14.4334219648351</v>
+        <v>14.07221345916785</v>
       </c>
       <c r="S41">
-        <v>8.436863417829166</v>
+        <v>7.940264583540212</v>
       </c>
       <c r="T41">
-        <v>1947336.302473231</v>
+        <v>391318</v>
       </c>
       <c r="U41">
-        <v>1970043.229991609</v>
+        <v>409864.0941724573</v>
       </c>
       <c r="V41">
-        <v>-1.152610621568706</v>
+        <v>-4.524937518594585</v>
       </c>
       <c r="W41">
         <v>95.38</v>
@@ -4648,7 +4648,7 @@
         <v>14.2718310905547</v>
       </c>
       <c r="AG41">
-        <v>-1.157669967088093</v>
+        <v>-3.157941202132086</v>
       </c>
     </row>
     <row r="42">
@@ -4700,25 +4700,25 @@
         <v>4.714828897338386</v>
       </c>
       <c r="P42">
-        <v>11.03965702036442</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q42">
-        <v>5.551004772209533</v>
+        <v>6.509688945897651</v>
       </c>
       <c r="R42">
-        <v>14.09883320684721</v>
+        <v>12.91463351328904</v>
       </c>
       <c r="S42">
-        <v>8.458966926660839</v>
+        <v>7.08333446543512</v>
       </c>
       <c r="T42">
-        <v>1969339.353612167</v>
+        <v>394117</v>
       </c>
       <c r="U42">
-        <v>1989796.249683156</v>
+        <v>412273.6176269915</v>
       </c>
       <c r="V42">
-        <v>-1.028089990331749</v>
+        <v>-4.404021225393773</v>
       </c>
       <c r="W42">
         <v>89.91</v>
@@ -4751,7 +4751,7 @@
         <v>12.26497346722946</v>
       </c>
       <c r="AG42">
-        <v>-1.152610621568706</v>
+        <v>-4.524937518594585</v>
       </c>
     </row>
     <row r="43">
@@ -4803,25 +4803,25 @@
         <v>4.522900763358773</v>
       </c>
       <c r="P43">
-        <v>11.27659574468085</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q43">
-        <v>6.17995777164202</v>
+        <v>6.916214476225502</v>
       </c>
       <c r="R43">
-        <v>13.89385924920052</v>
+        <v>11.48942844595019</v>
       </c>
       <c r="S43">
-        <v>8.677346611832547</v>
+        <v>6.002729956511158</v>
       </c>
       <c r="T43">
-        <v>1995188.93129771</v>
+        <v>400720</v>
       </c>
       <c r="U43">
-        <v>2009704.844985563</v>
+        <v>414683.4164465209</v>
       </c>
       <c r="V43">
-        <v>-0.7222908241512283</v>
+        <v>-3.367247372990056</v>
       </c>
       <c r="W43">
         <v>87.38</v>
@@ -4854,7 +4854,7 @@
         <v>6.163297890381725</v>
       </c>
       <c r="AG43">
-        <v>-1.028089990331749</v>
+        <v>-4.404021225393773</v>
       </c>
     </row>
     <row r="44">
@@ -4906,25 +4906,25 @@
         <v>4.315789473684228</v>
       </c>
       <c r="P44">
-        <v>11.51003167898627</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q44">
-        <v>6.708164286111273</v>
+        <v>7.22315097711419</v>
       </c>
       <c r="R44">
-        <v>13.51252401123185</v>
+        <v>11.37092383084276</v>
       </c>
       <c r="S44">
-        <v>8.624424891130955</v>
+        <v>6.238089122897136</v>
       </c>
       <c r="T44">
-        <v>2020487.081339713</v>
+        <v>413638</v>
       </c>
       <c r="U44">
-        <v>2029770.148280398</v>
+        <v>417093.0011177184</v>
       </c>
       <c r="V44">
-        <v>-0.4573457220537591</v>
+        <v>-0.828352695552248</v>
       </c>
       <c r="W44">
         <v>86.38</v>
@@ -4957,7 +4957,7 @@
         <v>3.496773238207385</v>
       </c>
       <c r="AG44">
-        <v>-0.7222908241512283</v>
+        <v>-3.367247372990056</v>
       </c>
     </row>
     <row r="45">
@@ -5009,25 +5009,25 @@
         <v>4.110770410118803</v>
       </c>
       <c r="P45">
-        <v>11.74004192872117</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q45">
-        <v>7.071715148257152</v>
+        <v>7.366991923231425</v>
       </c>
       <c r="R45">
-        <v>12.86222714582677</v>
+        <v>10.94597154153941</v>
       </c>
       <c r="S45">
-        <v>8.147017196077776</v>
+        <v>6.113263589660693</v>
       </c>
       <c r="T45">
-        <v>2038352.81717133</v>
+        <v>420130</v>
       </c>
       <c r="U45">
-        <v>2049993.179943729</v>
+        <v>419501.7743848459</v>
       </c>
       <c r="V45">
-        <v>-0.5678244633340213</v>
+        <v>0.1497551747129844</v>
       </c>
       <c r="W45">
         <v>82.86</v>
@@ -5060,7 +5060,7 @@
         <v>2.622176142211208</v>
       </c>
       <c r="AG45">
-        <v>-0.4573457220537591</v>
+        <v>-0.828352695552248</v>
       </c>
     </row>
     <row r="46">
@@ -5112,25 +5112,25 @@
         <v>4.130726471152002</v>
       </c>
       <c r="P46">
-        <v>11.96670135275754</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q46">
-        <v>7.309470340001467</v>
+        <v>7.38757214019965</v>
       </c>
       <c r="R46">
-        <v>12.59479710755664</v>
+        <v>10.70883854592993</v>
       </c>
       <c r="S46">
-        <v>7.911440586119056</v>
+        <v>6.040989456323558</v>
       </c>
       <c r="T46">
-        <v>2056270.845313398</v>
+        <v>420496</v>
       </c>
       <c r="U46">
-        <v>2070374.888723035</v>
+        <v>421909.1123332062</v>
       </c>
       <c r="V46">
-        <v>-0.6812313792279312</v>
+        <v>-0.3349328781716898</v>
       </c>
       <c r="W46">
         <v>82.13</v>
@@ -5163,7 +5163,7 @@
         <v>-1.27051094750511</v>
       </c>
       <c r="AG46">
-        <v>-0.5678244633340213</v>
+        <v>0.1497551747129844</v>
       </c>
     </row>
     <row r="47">
@@ -5215,25 +5215,25 @@
         <v>4.300662378803866</v>
       </c>
       <c r="P47">
-        <v>12.1900826446281</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q47">
-        <v>7.699032969787933</v>
+        <v>7.562823049903344</v>
       </c>
       <c r="R47">
-        <v>12.32310047187054</v>
+        <v>10.19681371681938</v>
       </c>
       <c r="S47">
-        <v>7.826725997763773</v>
+        <v>5.662121972103581</v>
       </c>
       <c r="T47">
-        <v>2076690.985888451</v>
+        <v>417097</v>
       </c>
       <c r="U47">
-        <v>2090916.13354817</v>
+        <v>424314.3958955219</v>
       </c>
       <c r="V47">
-        <v>-0.6803308574399591</v>
+        <v>-1.700954755562656</v>
       </c>
       <c r="W47">
         <v>79.15000000000001</v>
@@ -5266,7 +5266,7 @@
         <v>-1.862702809012817</v>
       </c>
       <c r="AG47">
-        <v>-0.6812313792279312</v>
+        <v>-0.3349328781716898</v>
       </c>
     </row>
     <row r="48">
@@ -5318,25 +5318,25 @@
         <v>4.250623680675503</v>
       </c>
       <c r="P48">
-        <v>12.41025641025641</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q48">
-        <v>7.858622539106142</v>
+        <v>7.511219315951201</v>
       </c>
       <c r="R48">
-        <v>11.84309358386514</v>
+        <v>10.50195115993696</v>
       </c>
       <c r="S48">
-        <v>7.314424854984791</v>
+        <v>6.005020274184206</v>
       </c>
       <c r="T48">
-        <v>2093072.346958357</v>
+        <v>422730</v>
       </c>
       <c r="U48">
-        <v>2111617.664521492</v>
+        <v>426716.9951008711</v>
       </c>
       <c r="V48">
-        <v>-0.8782516775988958</v>
+        <v>-0.9343417643650653</v>
       </c>
       <c r="W48">
         <v>79.27</v>
@@ -5369,7 +5369,7 @@
         <v>-5.165675410664228</v>
       </c>
       <c r="AG48">
-        <v>-0.6803308574399591</v>
+        <v>-1.700954755562656</v>
       </c>
     </row>
     <row r="49">
@@ -5421,25 +5421,25 @@
         <v>4.160674911322038</v>
       </c>
       <c r="P49">
-        <v>12.62729124236253</v>
+        <v>12.04819277108434</v>
       </c>
       <c r="Q49">
-        <v>7.973627880704193</v>
+        <v>7.418457263047018</v>
       </c>
       <c r="R49">
-        <v>11.85119200582621</v>
+        <v>10.73371796105786</v>
       </c>
       <c r="S49">
-        <v>7.229596400945471</v>
+        <v>6.237351092032597</v>
       </c>
       <c r="T49">
-        <v>2111387.211197393</v>
+        <v>433595</v>
       </c>
       <c r="U49">
-        <v>2132480.121983419</v>
+        <v>429116.2242885491</v>
       </c>
       <c r="V49">
-        <v>-0.9891257868517744</v>
+        <v>1.043720898429434</v>
       </c>
       <c r="W49">
         <v>79.87</v>
@@ -5472,7 +5472,7 @@
         <v>-4.774417514157447</v>
       </c>
       <c r="AG49">
-        <v>-0.8782516775988958</v>
+        <v>-0.9343417643650653</v>
       </c>
     </row>
     <row r="50">
@@ -5524,25 +5524,25 @@
         <v>3.881824266182243</v>
       </c>
       <c r="P50">
-        <v>13.75126390293225</v>
+        <v>15.66265060240964</v>
       </c>
       <c r="Q50">
-        <v>8.759215893424077</v>
+        <v>10.58672014763327</v>
       </c>
       <c r="R50">
-        <v>11.49700676985749</v>
+        <v>10.67096636460165</v>
       </c>
       <c r="S50">
-        <v>6.603888297024074</v>
+        <v>6.03215816997611</v>
       </c>
       <c r="T50">
-        <v>2122832.010708481</v>
+        <v>434506</v>
       </c>
       <c r="U50">
-        <v>2153504.003177768</v>
+        <v>431511.3670339991</v>
       </c>
       <c r="V50">
-        <v>-1.424283048651276</v>
+        <v>0.6939870406160065</v>
       </c>
       <c r="W50">
         <v>79.59</v>
@@ -5575,7 +5575,7 @@
         <v>-3.816128381642248</v>
       </c>
       <c r="AG50">
-        <v>-0.9891257868517744</v>
+        <v>1.043720898429434</v>
       </c>
     </row>
     <row r="51">
@@ -5627,25 +5627,25 @@
         <v>3.643995039587899</v>
       </c>
       <c r="P51">
-        <v>12.72365805168986</v>
+        <v>14.67181467181467</v>
       </c>
       <c r="Q51">
-        <v>7.529960938366753</v>
+        <v>9.388357027391647</v>
       </c>
       <c r="R51">
-        <v>11.46962579198384</v>
+        <v>11.65253031251779</v>
       </c>
       <c r="S51">
-        <v>6.333707709609704</v>
+        <v>6.76308947006365</v>
       </c>
       <c r="T51">
-        <v>2139472.479252122</v>
+        <v>429904</v>
       </c>
       <c r="U51">
-        <v>2174689.642594437</v>
+        <v>433901.7414711204</v>
       </c>
       <c r="V51">
-        <v>-1.619411002495952</v>
+        <v>-0.9213471827898778</v>
       </c>
       <c r="W51">
         <v>81.53</v>
@@ -5678,7 +5678,7 @@
         <v>-3.929395224130827</v>
       </c>
       <c r="AG51">
-        <v>-1.424283048651276</v>
+        <v>0.6939870406160065</v>
       </c>
     </row>
     <row r="52">
@@ -5730,25 +5730,25 @@
         <v>3.308928401635436</v>
       </c>
       <c r="P52">
-        <v>12.5</v>
+        <v>13.7546468401487</v>
       </c>
       <c r="Q52">
-        <v>6.969668156318343</v>
+        <v>8.162638433154612</v>
       </c>
       <c r="R52">
-        <v>11.32264056604608</v>
+        <v>12.37322749914665</v>
       </c>
       <c r="S52">
-        <v>5.850185952311571</v>
+        <v>7.160633369489188</v>
       </c>
       <c r="T52">
-        <v>2155128.839022535</v>
+        <v>422843</v>
       </c>
       <c r="U52">
-        <v>2196037.138056708</v>
+        <v>436286.6888405466</v>
       </c>
       <c r="V52">
-        <v>-1.862823643791967</v>
+        <v>-3.081388725444234</v>
       </c>
       <c r="W52">
         <v>78.75</v>
@@ -5781,7 +5781,7 @@
         <v>-1.37234622135961</v>
       </c>
       <c r="AG52">
-        <v>-1.619411002495952</v>
+        <v>-0.9213471827898778</v>
       </c>
     </row>
     <row r="53">
@@ -5833,25 +5833,25 @@
         <v>3.287098612958395</v>
       </c>
       <c r="P53">
-        <v>12.28070175438596</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q53">
-        <v>6.669866762669541</v>
+        <v>4.196674287325397</v>
       </c>
       <c r="R53">
-        <v>11.31120609783633</v>
+        <v>13.01425176767237</v>
       </c>
       <c r="S53">
-        <v>5.74881825749225</v>
+        <v>7.543992354044536</v>
       </c>
       <c r="T53">
-        <v>2173163.594907847</v>
+        <v>420839</v>
       </c>
       <c r="U53">
-        <v>2217546.315650492</v>
+        <v>438665.5195361435</v>
       </c>
       <c r="V53">
-        <v>-2.001433766204141</v>
+        <v>-4.063806873855436</v>
       </c>
       <c r="W53">
         <v>77.18000000000001</v>
@@ -5884,7 +5884,7 @@
         <v>-4.541828912072421</v>
       </c>
       <c r="AG53">
-        <v>-1.862823643791967</v>
+        <v>-3.081388725444234</v>
       </c>
     </row>
     <row r="54">
@@ -5936,25 +5936,25 @@
         <v>3.972628777798892</v>
       </c>
       <c r="P54">
-        <v>12.06563706563706</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q54">
-        <v>6.506022681654677</v>
+        <v>4.236285264055017</v>
       </c>
       <c r="R54">
-        <v>11.46526237543713</v>
+        <v>12.73223572680516</v>
       </c>
       <c r="S54">
-        <v>5.935432784106753</v>
+        <v>7.144325162324893</v>
       </c>
       <c r="T54">
-        <v>2194712.031933093</v>
+        <v>422274</v>
       </c>
       <c r="U54">
-        <v>2239216.685811233</v>
+        <v>441037.4402196059</v>
       </c>
       <c r="V54">
-        <v>-1.987509925240549</v>
+        <v>-4.254387158211115</v>
       </c>
       <c r="W54">
         <v>77.66</v>
@@ -5987,7 +5987,7 @@
         <v>-6.270357172976226</v>
       </c>
       <c r="AG54">
-        <v>-2.001433766204141</v>
+        <v>-4.063806873855436</v>
       </c>
     </row>
     <row r="55">
@@ -6039,25 +6039,25 @@
         <v>4.864555513162916</v>
       </c>
       <c r="P55">
-        <v>11.8546845124283</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q55">
-        <v>6.6908474937317</v>
+        <v>4.614097057266986</v>
       </c>
       <c r="R55">
-        <v>11.54633426400722</v>
+        <v>12.34981964288729</v>
       </c>
       <c r="S55">
-        <v>6.396732415115625</v>
+        <v>6.891595128768217</v>
       </c>
       <c r="T55">
-        <v>2224710.988172453</v>
+        <v>428336</v>
       </c>
       <c r="U55">
-        <v>2261047.416515119</v>
+        <v>443401.5200023252</v>
       </c>
       <c r="V55">
-        <v>-1.607061757186401</v>
+        <v>-3.397715010594948</v>
       </c>
       <c r="W55">
         <v>76.40000000000001</v>
@@ -6090,7 +6090,7 @@
         <v>-5.527798464134747</v>
       </c>
       <c r="AG55">
-        <v>-1.987509925240549</v>
+        <v>-4.254387158211115</v>
       </c>
     </row>
     <row r="56">
@@ -6142,25 +6142,25 @@
         <v>5.468451242829819</v>
       </c>
       <c r="P56">
-        <v>11.64772727272727</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q56">
-        <v>6.737788979662773</v>
+        <v>4.854129402331453</v>
       </c>
       <c r="R56">
-        <v>11.61707655882872</v>
+        <v>12.53442703099112</v>
       </c>
       <c r="S56">
-        <v>6.708486193908914</v>
+        <v>7.291641483616108</v>
       </c>
       <c r="T56">
-        <v>2253052.58126195</v>
+        <v>443799</v>
       </c>
       <c r="U56">
-        <v>2283037.332338254</v>
+        <v>445756.6832160613</v>
       </c>
       <c r="V56">
-        <v>-1.313371036539024</v>
+        <v>-0.4391820223393905</v>
       </c>
       <c r="W56">
         <v>76.44</v>
@@ -6193,7 +6193,7 @@
         <v>-6.920083496181306</v>
       </c>
       <c r="AG56">
-        <v>-1.607061757186401</v>
+        <v>-3.397715010594948</v>
       </c>
     </row>
     <row r="57">
@@ -6245,25 +6245,25 @@
         <v>5.904871279548285</v>
       </c>
       <c r="P57">
-        <v>11.44465290806754</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q57">
-        <v>6.655807166300631</v>
+        <v>4.964512733121551</v>
       </c>
       <c r="R57">
-        <v>12.14225105477794</v>
+        <v>13.55839970977534</v>
       </c>
       <c r="S57">
-        <v>7.323429088695499</v>
+        <v>8.520457953490586</v>
       </c>
       <c r="T57">
-        <v>2283010.814432003</v>
+        <v>455927</v>
       </c>
       <c r="U57">
-        <v>2305184.977483022</v>
+        <v>448101.7379462784</v>
       </c>
       <c r="V57">
-        <v>-0.9619255403629401</v>
+        <v>1.746313703130453</v>
       </c>
       <c r="W57">
         <v>76.81999999999999</v>
@@ -6296,7 +6296,7 @@
         <v>-6.748098127896252</v>
       </c>
       <c r="AG57">
-        <v>-1.313371036539024</v>
+        <v>-0.4391820223393905</v>
       </c>
     </row>
     <row r="58">
@@ -6348,25 +6348,25 @@
         <v>5.692454632282717</v>
       </c>
       <c r="P58">
-        <v>11.2453531598513</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q58">
-        <v>6.251531193745286</v>
+        <v>4.753982191823036</v>
       </c>
       <c r="R58">
-        <v>12.52236644569387</v>
+        <v>14.50334578027426</v>
       </c>
       <c r="S58">
-        <v>7.471219145839414</v>
+        <v>9.470482477835699</v>
       </c>
       <c r="T58">
-        <v>2305808.978032474</v>
+        <v>460319</v>
       </c>
       <c r="U58">
-        <v>2327488.664788044</v>
+        <v>450435.4771728602</v>
       </c>
       <c r="V58">
-        <v>-0.9314626139132698</v>
+        <v>2.194215004815625</v>
       </c>
       <c r="W58">
         <v>75.56999999999999</v>
@@ -6399,7 +6399,7 @@
         <v>-6.178732443211232</v>
       </c>
       <c r="AG58">
-        <v>-0.9619255403629401</v>
+        <v>1.746313703130453</v>
       </c>
     </row>
     <row r="59">
@@ -6451,25 +6451,25 @@
         <v>5.190114068441054</v>
       </c>
       <c r="P59">
-        <v>11.04972375690608</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q59">
-        <v>5.560573913408806</v>
+        <v>4.256102048325761</v>
       </c>
       <c r="R59">
-        <v>12.97260791322842</v>
+        <v>15.5578503552778</v>
       </c>
       <c r="S59">
-        <v>7.388410563905357</v>
+        <v>10.26955360503672</v>
       </c>
       <c r="T59">
-        <v>2323121.673003802</v>
+        <v>459931</v>
       </c>
       <c r="U59">
-        <v>2349946.535994953</v>
+        <v>452756.7542557991</v>
       </c>
       <c r="V59">
-        <v>-1.141509501610571</v>
+        <v>1.584569567823069</v>
       </c>
       <c r="W59">
         <v>75.18000000000001</v>
@@ -6502,7 +6502,7 @@
         <v>-7.619694015577561</v>
       </c>
       <c r="AG59">
-        <v>-0.9314626139132698</v>
+        <v>2.194215004815625</v>
       </c>
     </row>
     <row r="60">
@@ -6554,25 +6554,25 @@
         <v>4.761904761904767</v>
       </c>
       <c r="P60">
-        <v>10.85766423357664</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q60">
-        <v>4.949033639663569</v>
+        <v>3.831694930264784</v>
       </c>
       <c r="R60">
-        <v>13.14421930870083</v>
+        <v>14.49262395595952</v>
       </c>
       <c r="S60">
-        <v>7.113717039383549</v>
+        <v>8.854351477302297</v>
       </c>
       <c r="T60">
-        <v>2336578.623497113</v>
+        <v>460160</v>
       </c>
       <c r="U60">
-        <v>2372556.565563857</v>
+        <v>455064.4988168365</v>
       </c>
       <c r="V60">
-        <v>-1.51642083434137</v>
+        <v>1.119731641649002</v>
       </c>
       <c r="W60">
         <v>75.73999999999999</v>
@@ -6605,7 +6605,7 @@
         <v>-8.030047935645069</v>
       </c>
       <c r="AG60">
-        <v>-1.141509501610571</v>
+        <v>1.584569567823069</v>
       </c>
     </row>
     <row r="61">
@@ -6657,25 +6657,25 @@
         <v>4.484940043433117</v>
       </c>
       <c r="P61">
-        <v>10.66907775768535</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q61">
-        <v>4.493511243211556</v>
+        <v>3.557189457878107</v>
       </c>
       <c r="R61">
-        <v>13.16362057911685</v>
+        <v>13.31431288635283</v>
       </c>
       <c r="S61">
-        <v>6.848853346347705</v>
+        <v>7.324577082300303</v>
       </c>
       <c r="T61">
-        <v>2353226.32423756</v>
+        <v>465354</v>
       </c>
       <c r="U61">
-        <v>2395316.520972898</v>
+        <v>457357.6958345505</v>
       </c>
       <c r="V61">
-        <v>-1.757187259671289</v>
+        <v>1.748369872919375</v>
       </c>
       <c r="W61">
         <v>73.73999999999999</v>
@@ -6708,7 +6708,7 @@
         <v>-7.297538117934577</v>
       </c>
       <c r="AG61">
-        <v>-1.51642083434137</v>
+        <v>1.119731641649002</v>
       </c>
     </row>
     <row r="62">
@@ -6760,25 +6760,25 @@
         <v>4.585338239456549</v>
       </c>
       <c r="P62">
-        <v>9.333333333333334</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="Q62">
-        <v>3.154385633864809</v>
+        <v>2.210900399408744</v>
       </c>
       <c r="R62">
-        <v>13.49443986542177</v>
+        <v>12.85337908838475</v>
       </c>
       <c r="S62">
-        <v>7.080328205889019</v>
+        <v>6.619701454065076</v>
       </c>
       <c r="T62">
-        <v>2377472.403056892</v>
+        <v>463269</v>
       </c>
       <c r="U62">
-        <v>2418223.892092654</v>
+        <v>459635.3696046542</v>
       </c>
       <c r="V62">
-        <v>-1.685182632138205</v>
+        <v>0.7905462972684685</v>
       </c>
       <c r="W62">
         <v>73.19</v>
@@ -6811,7 +6811,7 @@
         <v>-9.718577281455609</v>
       </c>
       <c r="AG62">
-        <v>-1.757187259671289</v>
+        <v>1.748369872919375</v>
       </c>
     </row>
     <row r="63">
@@ -6863,25 +6863,25 @@
         <v>4.867465333459098</v>
       </c>
       <c r="P63">
-        <v>8.994708994708994</v>
+        <v>7.07070707070707</v>
       </c>
       <c r="Q63">
-        <v>2.815497589575511</v>
+        <v>1.000572654190224</v>
       </c>
       <c r="R63">
-        <v>13.65653517530918</v>
+        <v>13.76057917813807</v>
       </c>
       <c r="S63">
-        <v>7.213031954824234</v>
+        <v>7.349315195950725</v>
       </c>
       <c r="T63">
-        <v>2404583.529855674</v>
+        <v>461499</v>
       </c>
       <c r="U63">
-        <v>2441275.844023666</v>
+        <v>461896.6061227439</v>
       </c>
       <c r="V63">
-        <v>-1.502997469860534</v>
+        <v>-0.08608119598052522</v>
       </c>
       <c r="W63">
         <v>74.67</v>
@@ -6914,7 +6914,7 @@
         <v>-10.38475998876243</v>
       </c>
       <c r="AG63">
-        <v>-1.685182632138205</v>
+        <v>0.7905462972684685</v>
       </c>
     </row>
     <row r="64">
@@ -6966,25 +6966,25 @@
         <v>5.004703668861721</v>
       </c>
       <c r="P64">
-        <v>8.748906386701663</v>
+        <v>6.209150326797378</v>
       </c>
       <c r="Q64">
-        <v>2.303768943275331</v>
+        <v>-0.08546535578796144</v>
       </c>
       <c r="R64">
-        <v>13.35788460783332</v>
+        <v>13.21588171090838</v>
       </c>
       <c r="S64">
-        <v>6.639590411884599</v>
+        <v>6.703906650931907</v>
       </c>
       <c r="T64">
-        <v>2417038.570084666</v>
+        <v>451190</v>
       </c>
       <c r="U64">
-        <v>2464469.227425964</v>
+        <v>464140.5194216825</v>
       </c>
       <c r="V64">
-        <v>-1.92457900522609</v>
+        <v>-2.790215221420189</v>
       </c>
       <c r="W64">
         <v>74.77</v>
@@ -7017,7 +7017,7 @@
         <v>-8.585371099370597</v>
       </c>
       <c r="AG64">
-        <v>-1.502997469860534</v>
+        <v>-0.08608119598052522</v>
       </c>
     </row>
     <row r="65">
@@ -7069,25 +7069,25 @@
         <v>4.910337057553282</v>
       </c>
       <c r="P65">
-        <v>8.506944444444445</v>
+        <v>6.535947712418308</v>
       </c>
       <c r="Q65">
-        <v>1.874889160120596</v>
+        <v>0.02436176172970761</v>
       </c>
       <c r="R65">
-        <v>13.72620080158358</v>
+        <v>13.97858306900611</v>
       </c>
       <c r="S65">
-        <v>6.775139237239314</v>
+        <v>7.248140025045208</v>
       </c>
       <c r="T65">
-        <v>2442451.413012863</v>
+        <v>451342</v>
       </c>
       <c r="U65">
-        <v>2487800.609839856</v>
+        <v>466366.2204663857</v>
       </c>
       <c r="V65">
-        <v>-1.822862999857222</v>
+        <v>-3.221549890847752</v>
       </c>
       <c r="W65">
         <v>72.20999999999999</v>
@@ -7120,7 +7120,7 @@
         <v>-8.495950269179852</v>
       </c>
       <c r="AG65">
-        <v>-1.92457900522609</v>
+        <v>-2.790215221420189</v>
       </c>
     </row>
     <row r="66">
@@ -7172,25 +7172,25 @@
         <v>5.039887376818375</v>
       </c>
       <c r="P66">
-        <v>8.2687338501292</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q66">
-        <v>1.613077287779618</v>
+        <v>0.2935195664375501</v>
       </c>
       <c r="R66">
-        <v>13.98607182510882</v>
+        <v>14.1295094585846</v>
       </c>
       <c r="S66">
-        <v>6.978950563218023</v>
+        <v>7.209536935733671</v>
       </c>
       <c r="T66">
-        <v>2470439.230408259</v>
+        <v>452718</v>
       </c>
       <c r="U66">
-        <v>2511266.192828378</v>
+        <v>468572.7202949261</v>
       </c>
       <c r="V66">
-        <v>-1.625752082224963</v>
+        <v>-3.383620003517684</v>
       </c>
       <c r="W66">
         <v>73.42</v>
@@ -7223,7 +7223,7 @@
         <v>-11.68034194410862</v>
       </c>
       <c r="AG66">
-        <v>-1.822862999857222</v>
+        <v>-3.221549890847752</v>
       </c>
     </row>
     <row r="67">
@@ -7275,25 +7275,25 @@
         <v>5.051073001593109</v>
       </c>
       <c r="P67">
-        <v>8.034188034188034</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q67">
-        <v>1.240922157424817</v>
+        <v>0.1431403786329444</v>
       </c>
       <c r="R67">
-        <v>14.20398930366187</v>
+        <v>15.75565116779949</v>
       </c>
       <c r="S67">
-        <v>7.022761975130609</v>
+        <v>8.596989279444173</v>
       </c>
       <c r="T67">
-        <v>2496184.987348889</v>
+        <v>465160</v>
       </c>
       <c r="U67">
-        <v>2534861.828037934</v>
+        <v>470758.9140177434</v>
       </c>
       <c r="V67">
-        <v>-1.525796801278989</v>
+        <v>-1.189337865099327</v>
       </c>
       <c r="W67">
         <v>72.38</v>
@@ -7326,7 +7326,7 @@
         <v>-10.27254924666832</v>
       </c>
       <c r="AG67">
-        <v>-1.625752082224963</v>
+        <v>-3.383620003517684</v>
       </c>
     </row>
     <row r="68">
@@ -7378,25 +7378,25 @@
         <v>5.034153644614969</v>
       </c>
       <c r="P68">
-        <v>7.803223070398643</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q68">
-        <v>0.8732320299416507</v>
+        <v>-0.00678852995301682</v>
       </c>
       <c r="R68">
-        <v>14.41693932981513</v>
+        <v>15.28632596218364</v>
       </c>
       <c r="S68">
-        <v>7.061794076742878</v>
+        <v>8.034267765362248</v>
       </c>
       <c r="T68">
-        <v>2523117.806681014</v>
+        <v>479455</v>
       </c>
       <c r="U68">
-        <v>2558583.052092039</v>
+        <v>472923.5744094727</v>
       </c>
       <c r="V68">
-        <v>-1.386128364370531</v>
+        <v>1.381074225086554</v>
       </c>
       <c r="W68">
         <v>71.76000000000001</v>
@@ -7429,7 +7429,7 @@
         <v>-11.63407768693601</v>
       </c>
       <c r="AG68">
-        <v>-1.525796801278989</v>
+        <v>-1.189337865099327</v>
       </c>
     </row>
     <row r="69">
@@ -7481,25 +7481,25 @@
         <v>4.840063415089069</v>
       </c>
       <c r="P69">
-        <v>7.575757575757576</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q69">
-        <v>0.3224448155903836</v>
+        <v>-0.3424926811160911</v>
       </c>
       <c r="R69">
-        <v>14.0883028340176</v>
+        <v>13.99121467665782</v>
       </c>
       <c r="S69">
-        <v>6.39588066214456</v>
+        <v>6.596889414314133</v>
       </c>
       <c r="T69">
-        <v>2538092.884453977</v>
+        <v>486004</v>
       </c>
       <c r="U69">
-        <v>2582425.103181821</v>
+        <v>475065.4310432572</v>
       </c>
       <c r="V69">
-        <v>-1.716689427825879</v>
+        <v>2.302539448665275</v>
       </c>
       <c r="W69">
         <v>73.43000000000001</v>
@@ -7532,7 +7532,7 @@
         <v>-12.49975159643335</v>
       </c>
       <c r="AG69">
-        <v>-1.386128364370531</v>
+        <v>1.381074225086554</v>
       </c>
     </row>
     <row r="70">
@@ -7584,25 +7584,25 @@
         <v>4.286646165315444</v>
       </c>
       <c r="P70">
-        <v>7.351712614870509</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q70">
-        <v>0.03887113490868011</v>
+        <v>-0.4167877196540659</v>
       </c>
       <c r="R70">
-        <v>13.68086581707593</v>
+        <v>12.50929091719934</v>
       </c>
       <c r="S70">
-        <v>5.936879896632119</v>
+        <v>5.014783226414726</v>
       </c>
       <c r="T70">
-        <v>2557509.085826111</v>
+        <v>483403</v>
       </c>
       <c r="U70">
-        <v>2606382.945846797</v>
+        <v>477183.2638890363</v>
       </c>
       <c r="V70">
-        <v>-1.875160367303819</v>
+        <v>1.303427127823586</v>
       </c>
       <c r="W70">
         <v>78.12</v>
@@ -7635,7 +7635,7 @@
         <v>-10.59377766216428</v>
       </c>
       <c r="AG70">
-        <v>-1.716689427825879</v>
+        <v>2.302539448665275</v>
       </c>
     </row>
     <row r="71">
@@ -7687,25 +7687,25 @@
         <v>4.421800504814422</v>
       </c>
       <c r="P71">
-        <v>7.131011608623548</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q71">
-        <v>0.1505203408652234</v>
+        <v>-0.1002663381890256</v>
       </c>
       <c r="R71">
-        <v>13.23629540034796</v>
+        <v>10.95090590027457</v>
       </c>
       <c r="S71">
-        <v>5.857993269466166</v>
+        <v>3.529877307683109</v>
       </c>
       <c r="T71">
-        <v>2587088.903430868</v>
+        <v>476166</v>
       </c>
       <c r="U71">
-        <v>2630451.202556923</v>
+        <v>479275.9373192947</v>
       </c>
       <c r="V71">
-        <v>-1.648473808748263</v>
+        <v>-0.6488824239099689</v>
       </c>
       <c r="W71">
         <v>78.22</v>
@@ -7738,7 +7738,7 @@
         <v>-5.041808985789221</v>
       </c>
       <c r="AG71">
-        <v>-1.875160367303819</v>
+        <v>1.303427127823586</v>
       </c>
     </row>
     <row r="72">
@@ -7790,25 +7790,25 @@
         <v>4.463615903975993</v>
       </c>
       <c r="P72">
-        <v>6.91358024691358</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q72">
-        <v>0.2565456178859504</v>
+        <v>0.2088757483488468</v>
       </c>
       <c r="R72">
-        <v>13.50934797546967</v>
+        <v>12.25177435369397</v>
       </c>
       <c r="S72">
-        <v>6.441624133036083</v>
+        <v>4.935674547983311</v>
       </c>
       <c r="T72">
-        <v>2627115.52888222</v>
+        <v>482872</v>
       </c>
       <c r="U72">
-        <v>2654624.118669016</v>
+        <v>481342.363698302</v>
       </c>
       <c r="V72">
-        <v>-1.036251783947029</v>
+        <v>0.3177855134015806</v>
       </c>
       <c r="W72">
         <v>78.06</v>
@@ -7841,7 +7841,7 @@
         <v>-5.098103688251876</v>
       </c>
       <c r="AG72">
-        <v>-1.648473808748263</v>
+        <v>-0.6488824239099689</v>
       </c>
     </row>
     <row r="73">
@@ -7893,25 +7893,25 @@
         <v>4.131455399061035</v>
       </c>
       <c r="P73">
-        <v>6.699346405228758</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="Q73">
-        <v>0.1871797232194883</v>
+        <v>0.3406057258584116</v>
       </c>
       <c r="R73">
-        <v>13.50707097293988</v>
+        <v>12.70604054706501</v>
       </c>
       <c r="S73">
-        <v>6.5794093642628</v>
+        <v>5.625394860686702</v>
       </c>
       <c r="T73">
-        <v>2656280.751173709</v>
+        <v>491532</v>
       </c>
       <c r="U73">
-        <v>2678895.604954263</v>
+        <v>483381.4313939001</v>
       </c>
       <c r="V73">
-        <v>-0.8441857061816993</v>
+        <v>1.686156744291267</v>
       </c>
       <c r="W73">
         <v>79.39</v>
@@ -7944,7 +7944,7 @@
         <v>-5.488230347732303</v>
       </c>
       <c r="AG73">
-        <v>-1.036251783947029</v>
+        <v>0.3177855134015806</v>
       </c>
     </row>
     <row r="74">
@@ -7996,25 +7996,25 @@
         <v>4.217661457352651</v>
       </c>
       <c r="P74">
-        <v>7.512195121951219</v>
+        <v>9.743589743589737</v>
       </c>
       <c r="Q74">
-        <v>1.216527134203749</v>
+        <v>3.317256395772672</v>
       </c>
       <c r="R74">
-        <v>13.32657111461127</v>
+        <v>13.23776151427505</v>
       </c>
       <c r="S74">
-        <v>6.690426581257092</v>
+        <v>6.373834640349344</v>
       </c>
       <c r="T74">
-        <v>2688473.922048579</v>
+        <v>492797</v>
       </c>
       <c r="U74">
-        <v>2703259.359926215</v>
+        <v>485392.0405766787</v>
       </c>
       <c r="V74">
-        <v>-0.5469485502138549</v>
+        <v>1.525562597714569</v>
       </c>
       <c r="W74">
         <v>76.75</v>
@@ -8047,7 +8047,7 @@
         <v>-4.095386363823295</v>
       </c>
       <c r="AG74">
-        <v>-0.8441857061816993</v>
+        <v>1.686156744291267</v>
       </c>
     </row>
     <row r="75">
@@ -8099,25 +8099,25 @@
         <v>4.298535663675018</v>
       </c>
       <c r="P75">
-        <v>8.31715210355987</v>
+        <v>12.51572327044026</v>
       </c>
       <c r="Q75">
-        <v>2.330800286783075</v>
+        <v>6.297329494983717</v>
       </c>
       <c r="R75">
-        <v>13.15107808680636</v>
+        <v>12.3658853583113</v>
       </c>
       <c r="S75">
-        <v>6.897570228442462</v>
+        <v>5.817780753587765</v>
       </c>
       <c r="T75">
-        <v>2724924.893717525</v>
+        <v>488348</v>
       </c>
       <c r="U75">
-        <v>2727708.907601088</v>
+        <v>487373.1543074194</v>
       </c>
       <c r="V75">
-        <v>-0.1020641856543159</v>
+        <v>0.2000203917603693</v>
       </c>
       <c r="W75">
         <v>75.45</v>
@@ -8150,7 +8150,7 @@
         <v>-7.511568088971421</v>
       </c>
       <c r="AG75">
-        <v>-0.5469485502138549</v>
+        <v>1.525562597714569</v>
       </c>
     </row>
     <row r="76">
@@ -8202,25 +8202,25 @@
         <v>4.351957430634745</v>
       </c>
       <c r="P76">
-        <v>8.946098149637972</v>
+        <v>14.83076923076924</v>
       </c>
       <c r="Q76">
-        <v>3.52156798711325</v>
+        <v>9.113235681080623</v>
       </c>
       <c r="R76">
-        <v>13.31523769787398</v>
+        <v>12.50261475357653</v>
       </c>
       <c r="S76">
-        <v>7.67316390904027</v>
+        <v>6.369157117843923</v>
       </c>
       <c r="T76">
-        <v>2766459.521094641</v>
+        <v>479927</v>
       </c>
       <c r="U76">
-        <v>2752237.657909934</v>
+        <v>489323.7927839355</v>
       </c>
       <c r="V76">
-        <v>0.5167381946044269</v>
+        <v>-1.920362942188814</v>
       </c>
       <c r="W76">
         <v>79</v>
@@ -8253,7 +8253,7 @@
         <v>-9.317046894137649</v>
       </c>
       <c r="AG76">
-        <v>-0.1020641856543159</v>
+        <v>0.2000203917603693</v>
       </c>
     </row>
     <row r="77">
@@ -8305,25 +8305,25 @@
         <v>4.043767840152235</v>
       </c>
       <c r="P77">
-        <v>9.568</v>
+        <v>14.47852760736195</v>
       </c>
       <c r="Q77">
-        <v>4.251189343482409</v>
+        <v>8.923432547442388</v>
       </c>
       <c r="R77">
-        <v>12.87998447022916</v>
+        <v>12.15145911325605</v>
       </c>
       <c r="S77">
-        <v>7.402459058258004</v>
+        <v>6.409995081335218</v>
       </c>
       <c r="T77">
-        <v>2794026.641294006</v>
+        <v>480273</v>
       </c>
       <c r="U77">
-        <v>2776838.999302205</v>
+        <v>491242.9837259994</v>
       </c>
       <c r="V77">
-        <v>0.6189642970341636</v>
+        <v>-2.23310746197205</v>
       </c>
       <c r="W77">
         <v>81.09999999999999</v>
@@ -8356,7 +8356,7 @@
         <v>-5.316075856691382</v>
       </c>
       <c r="AG77">
-        <v>0.5167381946044269</v>
+        <v>-1.920362942188814</v>
       </c>
     </row>
     <row r="78">
@@ -8408,25 +8408,25 @@
         <v>3.695590056195819</v>
       </c>
       <c r="P78">
-        <v>10.1829753381066</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q78">
-        <v>4.946161861231158</v>
+        <v>8.70410550240257</v>
       </c>
       <c r="R78">
-        <v>12.58271906233937</v>
+        <v>11.78083782588693</v>
       </c>
       <c r="S78">
-        <v>7.231849759347897</v>
+        <v>6.346113916389452</v>
       </c>
       <c r="T78">
-        <v>2822613.582245928</v>
+        <v>481448</v>
       </c>
       <c r="U78">
-        <v>2801506.429963967</v>
+        <v>493129.6823472661</v>
       </c>
       <c r="V78">
-        <v>0.7534215183733206</v>
+        <v>-2.368886474580478</v>
       </c>
       <c r="W78">
         <v>85.53</v>
@@ -8459,7 +8459,7 @@
         <v>-3.087060128384522</v>
       </c>
       <c r="AG78">
-        <v>0.6189642970341636</v>
+        <v>-2.23310746197205</v>
       </c>
     </row>
     <row r="79">
@@ -8511,25 +8511,25 @@
         <v>3.307281738467416</v>
       </c>
       <c r="P79">
-        <v>10.79113924050633</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q79">
-        <v>5.595824666895099</v>
+        <v>8.77663016295509</v>
       </c>
       <c r="R79">
-        <v>12.07405246653219</v>
+        <v>10.65446442093421</v>
       </c>
       <c r="S79">
-        <v>6.818578408818343</v>
+        <v>5.38244904978932</v>
       </c>
       <c r="T79">
-        <v>2845304.041174228</v>
+        <v>490197</v>
       </c>
       <c r="U79">
-        <v>2826233.58070197</v>
+        <v>494982.7592164527</v>
       </c>
       <c r="V79">
-        <v>0.6747659005425177</v>
+        <v>-0.9668537191130588</v>
       </c>
       <c r="W79">
         <v>87</v>
@@ -8562,7 +8562,7 @@
         <v>1.888217820710536</v>
       </c>
       <c r="AG79">
-        <v>0.7534215183733206</v>
+        <v>-2.368886474580478</v>
       </c>
     </row>
     <row r="80">
@@ -8614,25 +8614,25 @@
         <v>2.728136882129273</v>
       </c>
       <c r="P80">
-        <v>11.39260424862313</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q80">
-        <v>5.886505939755837</v>
+        <v>8.487110614992833</v>
       </c>
       <c r="R80">
-        <v>11.65351854434117</v>
+        <v>10.35146927051494</v>
       </c>
       <c r="S80">
-        <v>6.134523331122765</v>
+        <v>5.062206046448572</v>
       </c>
       <c r="T80">
-        <v>2861870.72243346</v>
+        <v>503726</v>
       </c>
       <c r="U80">
-        <v>2851014.245186792</v>
+        <v>496800.9947658427</v>
       </c>
       <c r="V80">
-        <v>0.3807935111161509</v>
+        <v>1.393919357472551</v>
       </c>
       <c r="W80">
         <v>85.92</v>
@@ -8665,7 +8665,7 @@
         <v>3.301363793839185</v>
       </c>
       <c r="AG80">
-        <v>0.6747659005425177</v>
+        <v>-0.9668537191130588</v>
       </c>
     </row>
     <row r="81">
@@ -8717,25 +8717,25 @@
         <v>2.480045610034209</v>
       </c>
       <c r="P81">
-        <v>11.98748043818466</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q81">
-        <v>6.411516950004437</v>
+        <v>8.445876441440969</v>
       </c>
       <c r="R81">
-        <v>11.75394446716395</v>
+        <v>10.7201734285102</v>
       </c>
       <c r="S81">
-        <v>6.189608957776471</v>
+        <v>5.328351206985951</v>
       </c>
       <c r="T81">
-        <v>2890053.211706575</v>
+        <v>511900</v>
       </c>
       <c r="U81">
-        <v>2875842.364237642</v>
+        <v>498583.1325005573</v>
       </c>
       <c r="V81">
-        <v>0.4941455639450698</v>
+        <v>2.670942242400831</v>
       </c>
       <c r="W81">
         <v>86.89</v>
@@ -8768,7 +8768,7 @@
         <v>1.67236666735322</v>
       </c>
       <c r="AG81">
-        <v>0.3807935111161509</v>
+        <v>1.393919357472551</v>
       </c>
     </row>
     <row r="82">
@@ -8820,25 +8820,25 @@
         <v>2.00417933130701</v>
       </c>
       <c r="P82">
-        <v>12.57587548638132</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q82">
-        <v>6.929972916395633</v>
+        <v>8.404673600847712</v>
       </c>
       <c r="R82">
-        <v>11.91613805688034</v>
+        <v>11.86414084693136</v>
       </c>
       <c r="S82">
-        <v>6.303322622416752</v>
+        <v>6.294127260277657</v>
       </c>
       <c r="T82">
-        <v>2917455.357142857</v>
+        <v>513829</v>
       </c>
       <c r="U82">
-        <v>2900711.962442829</v>
+        <v>500327.9693594039</v>
       </c>
       <c r="V82">
-        <v>0.5772167287484642</v>
+        <v>2.69843611938827</v>
       </c>
       <c r="W82">
         <v>87.63</v>
@@ -8871,7 +8871,7 @@
         <v>2.457692165065861</v>
       </c>
       <c r="AG82">
-        <v>0.4941455639450698</v>
+        <v>2.670942242400831</v>
       </c>
     </row>
     <row r="83">
@@ -8923,25 +8923,25 @@
         <v>1.688003793266946</v>
       </c>
       <c r="P83">
-        <v>13.1578947368421</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q83">
-        <v>7.309525592074073</v>
+        <v>8.229910257916039</v>
       </c>
       <c r="R83">
-        <v>12.21716775510956</v>
+        <v>13.18983073481788</v>
       </c>
       <c r="S83">
-        <v>6.417418449606038</v>
+        <v>7.467773843575559</v>
       </c>
       <c r="T83">
-        <v>2945005.215742058</v>
+        <v>511725</v>
       </c>
       <c r="U83">
-        <v>2925617.174042264</v>
+        <v>502034.4050347959</v>
       </c>
       <c r="V83">
-        <v>0.6626992031566914</v>
+        <v>1.930265110920537</v>
       </c>
       <c r="W83">
         <v>87.34</v>
@@ -8974,7 +8974,7 @@
         <v>2.953602481399353</v>
       </c>
       <c r="AG83">
-        <v>0.5772167287484642</v>
+        <v>2.69843611938827</v>
       </c>
     </row>
     <row r="84">
@@ -9026,25 +9026,25 @@
         <v>1.52563252155784</v>
       </c>
       <c r="P84">
-        <v>13.73364126250962</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q84">
-        <v>7.773752736197892</v>
+        <v>8.147863514614318</v>
       </c>
       <c r="R84">
-        <v>11.76931676539752</v>
+        <v>12.25608832213336</v>
       </c>
       <c r="S84">
-        <v>5.912363086702865</v>
+        <v>6.482049073046273</v>
       </c>
       <c r="T84">
-        <v>2967194.162797309</v>
+        <v>514172</v>
       </c>
       <c r="U84">
-        <v>2950552.262468728</v>
+        <v>503701.4433937657</v>
       </c>
       <c r="V84">
-        <v>0.564026624448144</v>
+        <v>2.078722771903796</v>
       </c>
       <c r="W84">
         <v>87.98999999999999</v>
@@ -9077,7 +9077,7 @@
         <v>2.227383387886328</v>
       </c>
       <c r="AG84">
-        <v>0.6626992031566914</v>
+        <v>1.930265110920537</v>
       </c>
     </row>
     <row r="85">
@@ -9129,25 +9129,25 @@
         <v>1.247165532879824</v>
       </c>
       <c r="P85">
-        <v>14.30321592649311</v>
+        <v>14.12844036697248</v>
       </c>
       <c r="Q85">
-        <v>7.996235758213444</v>
+        <v>7.83110389925592</v>
       </c>
       <c r="R85">
-        <v>11.74553427981303</v>
+        <v>11.97263169694689</v>
       </c>
       <c r="S85">
-        <v>5.579680914411411</v>
+        <v>6.026464197651425</v>
       </c>
       <c r="T85">
-        <v>2986784.769463341</v>
+        <v>521154</v>
       </c>
       <c r="U85">
-        <v>2975511.640754074</v>
+        <v>505328.1630764651</v>
       </c>
       <c r="V85">
-        <v>0.3788635391259731</v>
+        <v>3.131793966753471</v>
       </c>
       <c r="W85">
         <v>88.5</v>
@@ -9180,7 +9180,7 @@
         <v>2.590565591479854</v>
       </c>
       <c r="AG85">
-        <v>0.564026624448144</v>
+        <v>2.078722771903796</v>
       </c>
     </row>
     <row r="86">
@@ -9232,25 +9232,25 @@
         <v>0.904380593499754</v>
       </c>
       <c r="P86">
-        <v>13.73260738052027</v>
+        <v>12.26635514018692</v>
       </c>
       <c r="Q86">
-        <v>7.143294753198548</v>
+        <v>5.761992595559984</v>
       </c>
       <c r="R86">
-        <v>11.739200622475</v>
+        <v>11.31127353618813</v>
       </c>
       <c r="S86">
-        <v>5.265379766815825</v>
+        <v>5.166021708736052</v>
       </c>
       <c r="T86">
-        <v>3006060.292039566</v>
+        <v>518255</v>
       </c>
       <c r="U86">
-        <v>3000489.850339891</v>
+        <v>506913.7235143629</v>
       </c>
       <c r="V86">
-        <v>0.1856510762415553</v>
+        <v>2.23731888870744</v>
       </c>
       <c r="W86">
         <v>86</v>
@@ -9283,7 +9283,7 @@
         <v>2.776877398363986</v>
       </c>
       <c r="AG86">
-        <v>0.3788635391259731</v>
+        <v>3.131793966753471</v>
       </c>
     </row>
     <row r="87">
@@ -9335,25 +9335,25 @@
         <v>0.7619226789577604</v>
       </c>
       <c r="P87">
-        <v>13.17597848819839</v>
+        <v>10.56456120737842</v>
       </c>
       <c r="Q87">
-        <v>6.45845027579568</v>
+        <v>4.00203292952539</v>
       </c>
       <c r="R87">
-        <v>11.44306153277031</v>
+        <v>11.04968849961312</v>
       </c>
       <c r="S87">
-        <v>4.828390116423953</v>
+        <v>4.662044279898761</v>
       </c>
       <c r="T87">
-        <v>3023599.849496755</v>
+        <v>511115</v>
       </c>
       <c r="U87">
-        <v>3025481.519651782</v>
+        <v>508457.4062518745</v>
       </c>
       <c r="V87">
-        <v>-0.06219407201152327</v>
+        <v>0.5226777534260263</v>
       </c>
       <c r="W87">
         <v>83.58</v>
@@ -9386,7 +9386,7 @@
         <v>-0.5305363253667927</v>
       </c>
       <c r="AG87">
-        <v>0.1856510762415553</v>
+        <v>2.23731888870744</v>
       </c>
     </row>
     <row r="88">
@@ -9438,25 +9438,25 @@
         <v>0.5253776151608713</v>
       </c>
       <c r="P88">
-        <v>12.7159946832078</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q88">
-        <v>5.747250852057206</v>
+        <v>2.264016731479113</v>
       </c>
       <c r="R88">
-        <v>11.52852454917219</v>
+        <v>11.56750202101859</v>
       </c>
       <c r="S88">
-        <v>4.633196875102907</v>
+        <v>4.903662431994866</v>
       </c>
       <c r="T88">
-        <v>3046313.913125059</v>
+        <v>503461</v>
       </c>
       <c r="U88">
-        <v>3050481.320097154</v>
+        <v>509958.5803432621</v>
       </c>
       <c r="V88">
-        <v>-0.1366147350137847</v>
+        <v>-1.274138840626715</v>
       </c>
       <c r="W88">
         <v>82.97</v>
@@ -9489,7 +9489,7 @@
         <v>-3.728659369799026</v>
       </c>
       <c r="AG88">
-        <v>-0.06219407201152327</v>
+        <v>0.5226777534260263</v>
       </c>
     </row>
     <row r="89">
@@ -9541,25 +9541,25 @@
         <v>0.7230725889755041</v>
       </c>
       <c r="P89">
-        <v>12.26635514018692</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q89">
-        <v>5.424316968904996</v>
+        <v>2.360048299449335</v>
       </c>
       <c r="R89">
-        <v>11.64690746399993</v>
+        <v>11.74376937957217</v>
       </c>
       <c r="S89">
-        <v>4.842621339092812</v>
+        <v>4.958221678087255</v>
       </c>
       <c r="T89">
-        <v>3078726.640999155</v>
+        <v>504086</v>
       </c>
       <c r="U89">
-        <v>3075483.908564355</v>
+        <v>511416.6353489155</v>
       </c>
       <c r="V89">
-        <v>0.1054381206733179</v>
+        <v>-1.433397907346934</v>
       </c>
       <c r="W89">
         <v>83.3</v>
@@ -9592,7 +9592,7 @@
         <v>-4.833035342824521</v>
       </c>
       <c r="AG89">
-        <v>-0.1366147350137847</v>
+        <v>-1.274138840626715</v>
       </c>
     </row>
     <row r="90">
@@ -9644,25 +9644,25 @@
         <v>0.8638497652582178</v>
       </c>
       <c r="P90">
-        <v>11.82671480144404</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q90">
-        <v>5.001610142200974</v>
+        <v>2.35043702730855</v>
       </c>
       <c r="R90">
-        <v>11.76566461793673</v>
+        <v>13.01860028369928</v>
       </c>
       <c r="S90">
-        <v>4.94428602623167</v>
+        <v>6.092454429138765</v>
       </c>
       <c r="T90">
-        <v>3109984.037558686</v>
+        <v>510780</v>
       </c>
       <c r="U90">
-        <v>3100483.909785811</v>
+        <v>512830.9106935713</v>
       </c>
       <c r="V90">
-        <v>0.306407904356143</v>
+        <v>-0.399919476538102</v>
       </c>
       <c r="W90">
         <v>84.33</v>
@@ -9695,7 +9695,7 @@
         <v>-4.862697700199292</v>
       </c>
       <c r="AG90">
-        <v>0.1054381206733179</v>
+        <v>-1.433397907346934</v>
       </c>
     </row>
     <row r="91">
@@ -9747,25 +9747,25 @@
         <v>1.124648547328966</v>
       </c>
       <c r="P91">
-        <v>11.39674378748929</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q91">
-        <v>4.401821731480138</v>
+        <v>2.158589910106468</v>
       </c>
       <c r="R91">
-        <v>12.17843608650809</v>
+        <v>13.26800350372271</v>
       </c>
       <c r="S91">
-        <v>5.134429321938216</v>
+        <v>6.290532173799514</v>
       </c>
       <c r="T91">
-        <v>3138570.75913777</v>
+        <v>521033</v>
       </c>
       <c r="U91">
-        <v>3125475.973515037</v>
+        <v>514200.6892384294</v>
       </c>
       <c r="V91">
-        <v>0.4189693260705285</v>
+        <v>1.3287245436582</v>
       </c>
       <c r="W91">
         <v>90.18000000000001</v>
@@ -9798,7 +9798,7 @@
         <v>-4.103653176978705</v>
       </c>
       <c r="AG91">
-        <v>0.306407904356143</v>
+        <v>-0.399919476538102</v>
       </c>
     </row>
     <row r="92">
@@ -9850,25 +9850,25 @@
         <v>1.844358708948901</v>
       </c>
       <c r="P92">
-        <v>10.97612657154965</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q92">
-        <v>4.428462003904809</v>
+        <v>2.571953923104919</v>
       </c>
       <c r="R92">
-        <v>12.236771130054</v>
+        <v>12.7191251688497</v>
       </c>
       <c r="S92">
-        <v>5.614727703071409</v>
+        <v>5.849807236473797</v>
       </c>
       <c r="T92">
-        <v>3179729.933189047</v>
+        <v>533193</v>
       </c>
       <c r="U92">
-        <v>3150454.822809</v>
+        <v>515525.2380197464</v>
       </c>
       <c r="V92">
-        <v>0.9292344130154895</v>
+        <v>3.427138125791784</v>
       </c>
       <c r="W92">
         <v>93.45</v>
@@ -9901,7 +9901,7 @@
         <v>2.098901135269804</v>
       </c>
       <c r="AG92">
-        <v>0.4189693260705285</v>
+        <v>1.3287245436582</v>
       </c>
     </row>
     <row r="93">
@@ -9953,25 +9953,25 @@
         <v>2.224526345555677</v>
       </c>
       <c r="P93">
-        <v>10.56456120737842</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q93">
-        <v>4.217703089243496</v>
+        <v>2.745984950592528</v>
       </c>
       <c r="R93">
-        <v>12.08475971661277</v>
+        <v>12.0250737957245</v>
       </c>
       <c r="S93">
-        <v>5.650635985119012</v>
+        <v>5.335026372338348</v>
       </c>
       <c r="T93">
-        <v>3213355.641436516</v>
+        <v>539210</v>
       </c>
       <c r="U93">
-        <v>3175415.281764678</v>
+        <v>516803.8767922422</v>
       </c>
       <c r="V93">
-        <v>1.194815679376404</v>
+        <v>4.335517633271402</v>
       </c>
       <c r="W93">
         <v>98.06</v>
@@ -10004,7 +10004,7 @@
         <v>5.332201034478001</v>
       </c>
       <c r="AG93">
-        <v>0.9292344130154895</v>
+        <v>3.427138125791784</v>
       </c>
     </row>
     <row r="94">
@@ -10056,25 +10056,25 @@
         <v>2.871717362554316</v>
       </c>
       <c r="P94">
-        <v>10.16175860638739</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q94">
-        <v>4.063629894565834</v>
+        <v>2.969219189574535</v>
       </c>
       <c r="R94">
-        <v>12.2445830160342</v>
+        <v>12.14796660342677</v>
       </c>
       <c r="S94">
-        <v>6.03115720388645</v>
+        <v>5.727197180384914</v>
       </c>
       <c r="T94">
-        <v>3256743.812582656</v>
+        <v>543257</v>
       </c>
       <c r="U94">
-        <v>3200352.400367251</v>
+        <v>518036.0616359485</v>
       </c>
       <c r="V94">
-        <v>1.762037587139931</v>
+        <v>4.86856808470133</v>
       </c>
       <c r="W94">
         <v>94.79000000000001</v>
@@ -10107,7 +10107,7 @@
         <v>10.03432342403963</v>
       </c>
       <c r="AG94">
-        <v>1.194815679376404</v>
+        <v>4.335517633271402</v>
       </c>
     </row>
     <row r="95">
@@ -10159,25 +10159,25 @@
         <v>3.221844293272857</v>
       </c>
       <c r="P95">
-        <v>9.767441860465116</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q95">
-        <v>3.710734939970828</v>
+        <v>2.988676713986771</v>
       </c>
       <c r="R95">
-        <v>12.03964053546151</v>
+        <v>12.32680750654426</v>
       </c>
       <c r="S95">
-        <v>5.857559084903174</v>
+        <v>6.040158288143046</v>
       </c>
       <c r="T95">
-        <v>3287414.965986394</v>
+        <v>542634</v>
       </c>
       <c r="U95">
-        <v>3225261.521351582</v>
+        <v>519221.4215176523</v>
       </c>
       <c r="V95">
-        <v>1.927082322576013</v>
+        <v>4.509170367800719</v>
       </c>
       <c r="W95">
         <v>91.47</v>
@@ -10210,7 +10210,7 @@
         <v>5.886284548399434</v>
       </c>
       <c r="AG95">
-        <v>1.762037587139931</v>
+        <v>4.86856808470133</v>
       </c>
     </row>
     <row r="96">
@@ -10262,25 +10262,25 @@
         <v>3.479247423655085</v>
       </c>
       <c r="P96">
-        <v>9.381345607147692</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="Q96">
-        <v>3.414338287933893</v>
+        <v>3.056835997053597</v>
       </c>
       <c r="R96">
-        <v>12.20734012927621</v>
+        <v>12.70437681941881</v>
       </c>
       <c r="S96">
-        <v>6.08616822281951</v>
+        <v>6.502298841632761</v>
       </c>
       <c r="T96">
-        <v>3321854.968327503</v>
+        <v>547605</v>
       </c>
       <c r="U96">
-        <v>3250138.422571463</v>
+        <v>520359.7800101511</v>
       </c>
       <c r="V96">
-        <v>2.206568965124234</v>
+        <v>5.235842783490563</v>
       </c>
       <c r="W96">
         <v>94.70999999999999</v>
@@ -10313,7 +10313,7 @@
         <v>1.715206819062498</v>
       </c>
       <c r="AG96">
-        <v>1.927082322576013</v>
+        <v>4.509170367800719</v>
       </c>
     </row>
     <row r="97">
@@ -10371,19 +10371,19 @@
         <v>2.920607529113028</v>
       </c>
       <c r="R97">
-        <v>12.31182460656716</v>
+        <v>12.25530332555071</v>
       </c>
       <c r="S97">
-        <v>6.044589374532316</v>
+        <v>6.060012971213883</v>
       </c>
       <c r="T97">
-        <v>3352295.345104334</v>
+        <v>552736</v>
       </c>
       <c r="U97">
-        <v>3274979.361459723</v>
+        <v>521451.1413388555</v>
       </c>
       <c r="V97">
-        <v>2.360808271174863</v>
+        <v>5.999576217403391</v>
       </c>
       <c r="W97">
         <v>95.87</v>
@@ -10416,7 +10416,7 @@
         <v>4.839419579430193</v>
       </c>
       <c r="AG97">
-        <v>2.206568965124234</v>
+        <v>5.235842783490563</v>
       </c>
     </row>
     <row r="98">
@@ -10468,25 +10468,25 @@
         <v>4.337531963254082</v>
       </c>
       <c r="P98">
-        <v>8.803191489361701</v>
+        <v>8.220603537981281</v>
       </c>
       <c r="Q98">
-        <v>3.043083141738512</v>
+        <v>2.491337757345646</v>
       </c>
       <c r="R98">
-        <v>12.36171364300034</v>
+        <v>12.60781899612797</v>
       </c>
       <c r="S98">
-        <v>6.413214928497335</v>
+        <v>6.47866397815747</v>
       </c>
       <c r="T98">
-        <v>3395574.391514348</v>
+        <v>551831</v>
       </c>
       <c r="U98">
-        <v>3299781.148817612</v>
+        <v>522495.7199546297</v>
       </c>
       <c r="V98">
-        <v>2.903018060184404</v>
+        <v>5.614453654839036</v>
       </c>
       <c r="W98">
         <v>95.59999999999999</v>
@@ -10519,7 +10519,7 @@
         <v>5.639643280082751</v>
       </c>
       <c r="AG98">
-        <v>2.360808271174863</v>
+        <v>5.999576217403391</v>
       </c>
     </row>
     <row r="99">
@@ -10571,25 +10571,25 @@
         <v>4.494700984102962</v>
       </c>
       <c r="P99">
-        <v>8.606124604012672</v>
+        <v>7.482305358948421</v>
       </c>
       <c r="Q99">
-        <v>2.768853713108133</v>
+        <v>1.705436562214646</v>
       </c>
       <c r="R99">
-        <v>12.59315533994175</v>
+        <v>12.6489623813868</v>
       </c>
       <c r="S99">
-        <v>6.541592865198465</v>
+        <v>6.54940668929693</v>
       </c>
       <c r="T99">
-        <v>3424661.241483725</v>
+        <v>544590</v>
       </c>
       <c r="U99">
-        <v>3324541.192020321</v>
+        <v>523493.9717038648</v>
       </c>
       <c r="V99">
-        <v>3.011544862302062</v>
+        <v>4.029851237345117</v>
       </c>
       <c r="W99">
         <v>94.72</v>
@@ -10622,7 +10622,7 @@
         <v>4.860880721387617</v>
       </c>
       <c r="AG99">
-        <v>2.903018060184404</v>
+        <v>5.614453654839036</v>
       </c>
     </row>
     <row r="100">
@@ -10674,25 +10674,25 @@
         <v>4.239284032030133</v>
       </c>
       <c r="P100">
-        <v>8.411949685534591</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q100">
-        <v>2.130899374031614</v>
+        <v>0.5978905011414293</v>
       </c>
       <c r="R100">
-        <v>12.31108329796807</v>
+        <v>11.64163206747386</v>
       </c>
       <c r="S100">
-        <v>5.804129343351927</v>
+        <v>5.514429121620145</v>
       </c>
       <c r="T100">
-        <v>3435529.910504004</v>
+        <v>531224</v>
       </c>
       <c r="U100">
-        <v>3349257.637588435</v>
+        <v>524446.5787854097</v>
       </c>
       <c r="V100">
-        <v>2.575862541816498</v>
+        <v>1.292299633317562</v>
       </c>
       <c r="W100">
         <v>91.68000000000001</v>
@@ -10725,7 +10725,7 @@
         <v>3.420488609747174</v>
       </c>
       <c r="AG100">
-        <v>3.011544862302062</v>
+        <v>4.029851237345117</v>
       </c>
     </row>
     <row r="101">
@@ -10777,25 +10777,25 @@
         <v>4.318780579601067</v>
       </c>
       <c r="P101">
-        <v>8.220603537981269</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q101">
-        <v>1.825934830618436</v>
+        <v>0.4748407668062171</v>
       </c>
       <c r="R101">
-        <v>12.12666263234566</v>
+        <v>10.88421173862344</v>
       </c>
       <c r="S101">
-        <v>5.501188024412551</v>
+        <v>4.569656764917098</v>
       </c>
       <c r="T101">
-        <v>3458894.429808054</v>
+        <v>527121</v>
       </c>
       <c r="U101">
-        <v>3373929.40457378</v>
+        <v>525354.386176119</v>
       </c>
       <c r="V101">
-        <v>2.5182810618116</v>
+        <v>0.3362708812121307</v>
       </c>
       <c r="W101">
         <v>87.63</v>
@@ -10828,7 +10828,7 @@
         <v>-0.3566399665777986</v>
       </c>
       <c r="AG101">
-        <v>2.575862541816498</v>
+        <v>1.292299633317562</v>
       </c>
     </row>
     <row r="102">
@@ -10880,25 +10880,25 @@
         <v>4.258719563786761</v>
       </c>
       <c r="P102">
-        <v>8.03202479338843</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q102">
-        <v>1.562493930044573</v>
+        <v>0.389828680042914</v>
       </c>
       <c r="R102">
-        <v>11.67709750785974</v>
+        <v>9.394157951676885</v>
       </c>
       <c r="S102">
-        <v>4.989280349590808</v>
+        <v>2.940013312972317</v>
       </c>
       <c r="T102">
-        <v>3477384.600921312</v>
+        <v>525797</v>
       </c>
       <c r="U102">
-        <v>3398556.077709302</v>
+        <v>526218.291147756</v>
       </c>
       <c r="V102">
-        <v>2.319471016795527</v>
+        <v>-0.08006014896159153</v>
       </c>
       <c r="W102">
         <v>86.90000000000001</v>
@@ -10931,7 +10931,7 @@
         <v>-5.193838101703552</v>
       </c>
       <c r="AG102">
-        <v>2.5182810618116</v>
+        <v>0.3362708812121307</v>
       </c>
     </row>
     <row r="103">
@@ -10983,25 +10983,25 @@
         <v>4.111903867818256</v>
       </c>
       <c r="P103">
-        <v>7.846153846153846</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q103">
-        <v>1.244981079753882</v>
+        <v>0.2484611030432404</v>
       </c>
       <c r="R103">
-        <v>11.07127660050973</v>
+        <v>8.377465839023952</v>
       </c>
       <c r="S103">
-        <v>4.272696771038054</v>
+        <v>1.865524832400251</v>
       </c>
       <c r="T103">
-        <v>3491941.419451747</v>
+        <v>530753</v>
       </c>
       <c r="U103">
-        <v>3423137.897322285</v>
+        <v>527039.2046033664</v>
       </c>
       <c r="V103">
-        <v>2.009954731396646</v>
+        <v>0.7046525883076304</v>
       </c>
       <c r="W103">
         <v>87.05</v>
@@ -11034,7 +11034,7 @@
         <v>-6.412856113106069</v>
       </c>
       <c r="AG103">
-        <v>2.319471016795527</v>
+        <v>-0.08006014896159153</v>
       </c>
     </row>
     <row r="104">
@@ -11086,25 +11086,25 @@
         <v>4.131455399061035</v>
       </c>
       <c r="P104">
-        <v>7.662932790224033</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q104">
-        <v>1.091955671571876</v>
+        <v>0.267287105128311</v>
       </c>
       <c r="R104">
-        <v>10.94848064528444</v>
+        <v>8.184967128848854</v>
       </c>
       <c r="S104">
-        <v>4.176977131722492</v>
+        <v>1.613674598128633</v>
       </c>
       <c r="T104">
-        <v>3520243.192488263</v>
+        <v>541797</v>
       </c>
       <c r="U104">
-        <v>3447675.711984782</v>
+        <v>527818.0341952938</v>
       </c>
       <c r="V104">
-        <v>2.104823265460332</v>
+        <v>2.648444141553141</v>
       </c>
       <c r="W104">
         <v>87.48999999999999</v>
@@ -11137,7 +11137,7 @@
         <v>-6.678392995268667</v>
       </c>
       <c r="AG104">
-        <v>2.009954731396646</v>
+        <v>0.7046525883076304</v>
       </c>
     </row>
     <row r="105">
@@ -11189,25 +11189,25 @@
         <v>4.121678715613553</v>
       </c>
       <c r="P105">
-        <v>7.482305358948432</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q105">
-        <v>0.9128770621992688</v>
+        <v>0.2578732203188938</v>
       </c>
       <c r="R105">
-        <v>10.88620316105753</v>
+        <v>9.001435444854994</v>
       </c>
       <c r="S105">
-        <v>4.108725153560733</v>
+        <v>2.336566458337197</v>
       </c>
       <c r="T105">
-        <v>3549117.45376021</v>
+        <v>551809</v>
       </c>
       <c r="U105">
-        <v>3472170.901160222</v>
+        <v>528555.7162317079</v>
       </c>
       <c r="V105">
-        <v>2.216093469773539</v>
+        <v>4.399400678905585</v>
       </c>
       <c r="W105">
         <v>88.77</v>
@@ -11240,7 +11240,7 @@
         <v>-6.632639022833198</v>
       </c>
       <c r="AG105">
-        <v>2.104823265460332</v>
+        <v>2.648444141553141</v>
       </c>
     </row>
     <row r="106">
@@ -11292,25 +11292,25 @@
         <v>3.88758782201406</v>
       </c>
       <c r="P106">
-        <v>7.30421686746988</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q106">
-        <v>0.5191727095736676</v>
+        <v>0.03246910254020019</v>
       </c>
       <c r="R106">
-        <v>10.46363125070883</v>
+        <v>9.732818146512285</v>
       </c>
       <c r="S106">
-        <v>3.478811476073873</v>
+        <v>2.951089447535881</v>
       </c>
       <c r="T106">
-        <v>3567524.12177986</v>
+        <v>559289</v>
       </c>
       <c r="U106">
-        <v>3496625.404246305</v>
+        <v>529253.2948831778</v>
       </c>
       <c r="V106">
-        <v>2.027632626802278</v>
+        <v>5.675109707810488</v>
       </c>
       <c r="W106">
         <v>89.59</v>
@@ -11343,7 +11343,7 @@
         <v>-5.695071212967006</v>
       </c>
       <c r="AG106">
-        <v>2.216093469773539</v>
+        <v>4.399400678905585</v>
       </c>
     </row>
     <row r="107">
@@ -11395,25 +11395,25 @@
         <v>4.062294774369057</v>
       </c>
       <c r="P107">
-        <v>7.128614157527418</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q107">
-        <v>0.5053139670957885</v>
+        <v>0.1826257312708801</v>
       </c>
       <c r="R107">
-        <v>10.37147209288958</v>
+        <v>9.978861959404458</v>
       </c>
       <c r="S107">
-        <v>3.547679982071084</v>
+        <v>3.154612501243932</v>
       </c>
       <c r="T107">
-        <v>3602837.977296181</v>
+        <v>559752</v>
       </c>
       <c r="U107">
-        <v>3521041.754364118</v>
+        <v>529911.9937437464</v>
       </c>
       <c r="V107">
-        <v>2.323068814241736</v>
+        <v>5.631124905371276</v>
       </c>
       <c r="W107">
         <v>92.87</v>
@@ -11446,7 +11446,7 @@
         <v>-5.252072490101634</v>
       </c>
       <c r="AG107">
-        <v>2.027632626802278</v>
+        <v>5.675109707810488</v>
       </c>
     </row>
     <row r="108">
@@ -11498,25 +11498,25 @@
         <v>4.307432432432434</v>
       </c>
       <c r="P108">
-        <v>6.955445544554456</v>
+        <v>6.784660766961652</v>
       </c>
       <c r="Q108">
-        <v>0.3711012993191209</v>
+        <v>0.2108302993258926</v>
       </c>
       <c r="R108">
-        <v>10.16269696026157</v>
+        <v>9.756531758978742</v>
       </c>
       <c r="S108">
-        <v>3.380909309554792</v>
+        <v>2.932953497502762</v>
       </c>
       <c r="T108">
-        <v>3632315.127627628</v>
+        <v>563666</v>
       </c>
       <c r="U108">
-        <v>3545423.031692761</v>
+        <v>530533.2681644473</v>
       </c>
       <c r="V108">
-        <v>2.450824490001113</v>
+        <v>6.245175151821525</v>
       </c>
       <c r="W108">
         <v>94.97</v>
@@ -11549,7 +11549,7 @@
         <v>-2.222139495327757</v>
       </c>
       <c r="AG108">
-        <v>2.323068814241736</v>
+        <v>5.631124905371276</v>
       </c>
     </row>
     <row r="109">
@@ -11607,19 +11607,19 @@
         <v>0.3520916896547766</v>
       </c>
       <c r="R109">
-        <v>9.801104997273558</v>
+        <v>9.562076576877873</v>
       </c>
       <c r="S109">
-        <v>3.186829242809464</v>
+        <v>2.859593006426215</v>
       </c>
       <c r="T109">
-        <v>3663561.695329386</v>
+        <v>568542</v>
       </c>
       <c r="U109">
-        <v>3569772.947555029</v>
+        <v>531118.8037432707</v>
       </c>
       <c r="V109">
-        <v>2.627302888790006</v>
+        <v>7.046106444165501</v>
       </c>
       <c r="W109">
         <v>96.64</v>
@@ -11652,7 +11652,7 @@
         <v>-0.4544541797541379</v>
       </c>
       <c r="AG109">
-        <v>2.450824490001113</v>
+        <v>6.245175151821525</v>
       </c>
     </row>
     <row r="110">
@@ -11704,25 +11704,25 @@
         <v>4.368116483106244</v>
       </c>
       <c r="P110">
-        <v>6.966511855292104</v>
+        <v>7.5</v>
       </c>
       <c r="Q110">
-        <v>-0.1619265864363229</v>
+        <v>0.3360089602389538</v>
       </c>
       <c r="R110">
-        <v>9.105432691087461</v>
+        <v>7.562178333291078</v>
       </c>
       <c r="S110">
-        <v>1.834452763755334</v>
+        <v>0.80658752407893</v>
       </c>
       <c r="T110">
-        <v>3651159.230912825</v>
+        <v>556282</v>
       </c>
       <c r="U110">
-        <v>3594095.883737415</v>
+        <v>531670.5417320078</v>
       </c>
       <c r="V110">
-        <v>1.587696851205611</v>
+        <v>4.629080668606589</v>
       </c>
       <c r="W110">
         <v>93.33</v>
@@ -11755,7 +11755,7 @@
         <v>0.8510857927217286</v>
       </c>
       <c r="AG110">
-        <v>2.627302888790006</v>
+        <v>7.046106444165501</v>
       </c>
     </row>
     <row r="111">
@@ -11807,25 +11807,25 @@
         <v>4.131847725162485</v>
       </c>
       <c r="P111">
-        <v>7.146329606222654</v>
+        <v>8.184383819379116</v>
       </c>
       <c r="Q111">
-        <v>-0.5140857880940986</v>
+        <v>0.4497528499341819</v>
       </c>
       <c r="R111">
-        <v>8.614626177959551</v>
+        <v>6.41555394013595</v>
       </c>
       <c r="S111">
-        <v>0.8492350770283874</v>
+        <v>-0.6250573826181164</v>
       </c>
       <c r="T111">
-        <v>3649917.363045497</v>
+        <v>541186</v>
       </c>
       <c r="U111">
-        <v>3618396.945705031</v>
+        <v>532190.7121416773</v>
       </c>
       <c r="V111">
-        <v>0.8711155192047348</v>
+        <v>1.690237663510374</v>
       </c>
       <c r="W111">
         <v>98.77</v>
@@ -11858,7 +11858,7 @@
         <v>-3.026369440409582</v>
       </c>
       <c r="AG111">
-        <v>1.587696851205611</v>
+        <v>4.629080668606589</v>
       </c>
     </row>
     <row r="112">
@@ -11910,25 +11910,25 @@
         <v>4.115416628132795</v>
       </c>
       <c r="P112">
-        <v>7.324147933284989</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q112">
-        <v>-0.7452622461065372</v>
+        <v>0.6564126565475448</v>
       </c>
       <c r="R112">
-        <v>8.470651787930015</v>
+        <v>6.201180590035404</v>
       </c>
       <c r="S112">
-        <v>0.3150391084158155</v>
+        <v>-1.35385449452585</v>
       </c>
       <c r="T112">
-        <v>3658303.893461574</v>
+        <v>524032</v>
       </c>
       <c r="U112">
-        <v>3642681.679226586</v>
+        <v>532681.7348865272</v>
       </c>
       <c r="V112">
-        <v>0.4288657536034135</v>
+        <v>-1.623809175354918</v>
       </c>
       <c r="W112">
         <v>106.96</v>
@@ -11961,7 +11961,7 @@
         <v>2.185456745371317</v>
       </c>
       <c r="AG112">
-        <v>0.8711155192047348</v>
+        <v>1.690237663510374</v>
       </c>
     </row>
     <row r="113">
@@ -12013,25 +12013,25 @@
         <v>4.169363039659779</v>
       </c>
       <c r="P113">
-        <v>7.5</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q113">
-        <v>-0.6193953961357246</v>
+        <v>0.6191910932096256</v>
       </c>
       <c r="R113">
-        <v>7.856967400077202</v>
+        <v>5.74435075009575</v>
       </c>
       <c r="S113">
-        <v>-0.2893894794516183</v>
+        <v>-2.090601588629556</v>
       </c>
       <c r="T113">
-        <v>3665474.715725247</v>
+        <v>516101</v>
       </c>
       <c r="U113">
-        <v>3666955.87328389</v>
+        <v>533146.099288888</v>
       </c>
       <c r="V113">
-        <v>-0.0403920202431296</v>
+        <v>-3.197078495298544</v>
       </c>
       <c r="W113">
         <v>103.69</v>
@@ -12064,7 +12064,7 @@
         <v>10.19007988772105</v>
       </c>
       <c r="AG113">
-        <v>0.4288657536034135</v>
+        <v>-1.623809175354918</v>
       </c>
     </row>
     <row r="114">
@@ -12116,25 +12116,25 @@
         <v>4.314557020374288</v>
       </c>
       <c r="P114">
-        <v>7.67391824049725</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q114">
-        <v>-0.7339188342424086</v>
+        <v>0.3409044026227104</v>
       </c>
       <c r="R114">
-        <v>7.822689701299902</v>
+        <v>6.171283413645662</v>
       </c>
       <c r="S114">
-        <v>-0.5967643576104797</v>
+        <v>-1.927740173489008</v>
       </c>
       <c r="T114">
-        <v>3676820.318982207</v>
+        <v>515661</v>
       </c>
       <c r="U114">
-        <v>3691225.437400528</v>
+        <v>533586.2279293116</v>
       </c>
       <c r="V114">
-        <v>-0.3902530111643765</v>
+        <v>-3.359387291323845</v>
       </c>
       <c r="W114">
         <v>104.13</v>
@@ -12167,7 +12167,7 @@
         <v>6.375804253296802</v>
       </c>
       <c r="AG114">
-        <v>-0.0403920202431296</v>
+        <v>-3.197078495298544</v>
       </c>
     </row>
     <row r="115">
@@ -12219,25 +12219,25 @@
         <v>4.307098907153994</v>
       </c>
       <c r="P115">
-        <v>7.845934379457916</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q115">
-        <v>-0.9588259900285556</v>
+        <v>-0.04612085083582906</v>
       </c>
       <c r="R115">
-        <v>7.829598539204047</v>
+        <v>5.853327556988316</v>
       </c>
       <c r="S115">
-        <v>-0.9738281392193571</v>
+        <v>-2.452176436120003</v>
       </c>
       <c r="T115">
-        <v>3683393.332721095</v>
+        <v>517738</v>
       </c>
       <c r="U115">
-        <v>3715496.2696714</v>
+        <v>534004.4118675193</v>
       </c>
       <c r="V115">
-        <v>-0.8640282379598352</v>
+        <v>-3.046119377671874</v>
       </c>
       <c r="W115">
         <v>105.07</v>
@@ -12270,7 +12270,7 @@
         <v>6.388958167210745</v>
       </c>
       <c r="AG115">
-        <v>-0.3902530111643765</v>
+        <v>-3.359387291323845</v>
       </c>
     </row>
     <row r="116">
@@ -12322,25 +12322,25 @@
         <v>3.769623950346856</v>
       </c>
       <c r="P116">
-        <v>8.016079451406952</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q116">
-        <v>-1.40920093883995</v>
+        <v>-0.657375862062004</v>
       </c>
       <c r="R116">
-        <v>7.155342180531169</v>
+        <v>5.43213103328106</v>
       </c>
       <c r="S116">
-        <v>-2.194831890716331</v>
+        <v>-3.252140561870959</v>
       </c>
       <c r="T116">
-        <v>3666773.457466229</v>
+        <v>524177</v>
       </c>
       <c r="U116">
-        <v>3739774.157040799</v>
+        <v>534402.803851291</v>
       </c>
       <c r="V116">
-        <v>-1.952008236570468</v>
+        <v>-1.913501160098052</v>
       </c>
       <c r="W116">
         <v>108.32</v>
@@ -12373,7 +12373,7 @@
         <v>6.916744425704624</v>
       </c>
       <c r="AG116">
-        <v>-0.8640282379598352</v>
+        <v>-3.046119377671874</v>
       </c>
     </row>
     <row r="117">
@@ -12425,25 +12425,25 @@
         <v>4.218022459600101</v>
       </c>
       <c r="P117">
-        <v>8.184383819379114</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q117">
-        <v>-1.228536638930777</v>
+        <v>-0.6301661594769747</v>
       </c>
       <c r="R117">
-        <v>6.585294557248162</v>
+        <v>4.151297699684797</v>
       </c>
       <c r="S117">
-        <v>-2.688492141652354</v>
+        <v>-4.73388436941043</v>
       </c>
       <c r="T117">
-        <v>3678535.561033507</v>
+        <v>525687</v>
       </c>
       <c r="U117">
-        <v>3764064.638745168</v>
+        <v>534783.4311159658</v>
       </c>
       <c r="V117">
-        <v>-2.272253160354187</v>
+        <v>-1.700956048130309</v>
       </c>
       <c r="W117">
         <v>116.79</v>
@@ -12476,7 +12476,7 @@
         <v>9.788054415703606</v>
       </c>
       <c r="AG117">
-        <v>-1.952008236570468</v>
+        <v>-1.913501160098052</v>
       </c>
     </row>
     <row r="118">
@@ -12528,25 +12528,25 @@
         <v>4.256096447164115</v>
       </c>
       <c r="P118">
-        <v>8.350877192982455</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q118">
-        <v>-1.040389813697629</v>
+        <v>-0.5938633614714917</v>
       </c>
       <c r="R118">
-        <v>5.929866408705964</v>
+        <v>2.330763924297412</v>
       </c>
       <c r="S118">
-        <v>-3.251560499857553</v>
+        <v>-6.569233437453624</v>
       </c>
       <c r="T118">
-        <v>3684501.780984565</v>
+        <v>522548</v>
       </c>
       <c r="U118">
-        <v>3788372.69074396</v>
+        <v>535148.2419940783</v>
       </c>
       <c r="V118">
-        <v>-2.741834508869234</v>
+        <v>-2.354533006990178</v>
       </c>
       <c r="W118">
         <v>129.34</v>
@@ -12579,7 +12579,7 @@
         <v>17.91416056421728</v>
       </c>
       <c r="AG118">
-        <v>-2.272253160354187</v>
+        <v>-1.700956048130309</v>
       </c>
     </row>
     <row r="119">
@@ -12631,25 +12631,25 @@
         <v>3.838806513235693</v>
       </c>
       <c r="P119">
-        <v>8.515588645881806</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q119">
-        <v>-1.28664727928518</v>
+        <v>-0.991741102952004</v>
       </c>
       <c r="R119">
-        <v>5.463399010224554</v>
+        <v>3.258760960527179</v>
       </c>
       <c r="S119">
-        <v>-4.06313198378554</v>
+        <v>-5.828831339593248</v>
       </c>
       <c r="T119">
-        <v>3684229.964522878</v>
+        <v>527125</v>
       </c>
       <c r="U119">
-        <v>3812702.629050032</v>
+        <v>535499.1146296513</v>
       </c>
       <c r="V119">
-        <v>-3.369595717963547</v>
+        <v>-1.563796167140785</v>
       </c>
       <c r="W119">
         <v>127.47</v>
@@ -12682,7 +12682,7 @@
         <v>30.08954643450668</v>
       </c>
       <c r="AG119">
-        <v>-2.741834508869234</v>
+        <v>-2.354533006990178</v>
       </c>
     </row>
     <row r="120">
@@ -12734,25 +12734,25 @@
         <v>3.321868211440981</v>
       </c>
       <c r="P120">
-        <v>8.678546632723906</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="Q120">
-        <v>-1.63056966625279</v>
+        <v>-1.484631602529995</v>
       </c>
       <c r="R120">
-        <v>5.788024838558413</v>
+        <v>6.441262772969226</v>
       </c>
       <c r="S120">
-        <v>-4.246900037510493</v>
+        <v>-3.206863639105427</v>
       </c>
       <c r="T120">
-        <v>3706214.699493121</v>
+        <v>545590</v>
       </c>
       <c r="U120">
-        <v>3837057.968203173</v>
+        <v>535837.8299426174</v>
       </c>
       <c r="V120">
-        <v>-3.409989366705435</v>
+        <v>1.819985359829279</v>
       </c>
       <c r="W120">
         <v>121.97</v>
@@ -12785,7 +12785,7 @@
         <v>27.73281345900443</v>
       </c>
       <c r="AG120">
-        <v>-3.369595717963547</v>
+        <v>-1.563796167140785</v>
       </c>
     </row>
     <row r="121">
@@ -12843,19 +12843,19 @@
         <v>-1.653764339455266</v>
       </c>
       <c r="R121">
-        <v>6.408379241103264</v>
+        <v>11.05296819582534</v>
       </c>
       <c r="S121">
-        <v>-3.850746145203521</v>
+        <v>0.6266907282135709</v>
       </c>
       <c r="T121">
-        <v>3748278.666305232</v>
+        <v>572105</v>
       </c>
       <c r="U121">
-        <v>3861441.231441744</v>
+        <v>536166.1042378262</v>
       </c>
       <c r="V121">
-        <v>-2.930578464203659</v>
+        <v>6.702940651808253</v>
       </c>
       <c r="W121">
         <v>122.1</v>
@@ -12888,7 +12888,7 @@
         <v>21.77763023190786</v>
       </c>
       <c r="AG121">
-        <v>-3.409989366705435</v>
+        <v>1.819985359829279</v>
       </c>
     </row>
     <row r="122">
@@ -12940,25 +12940,25 @@
         <v>3.10721705356336</v>
       </c>
       <c r="P122">
-        <v>9.095063985374772</v>
+        <v>9.838998211091225</v>
       </c>
       <c r="Q122">
-        <v>-1.458708350307325</v>
+        <v>-0.7867417477271932</v>
       </c>
       <c r="R122">
-        <v>6.393135527622211</v>
+        <v>10.98684171758896</v>
       </c>
       <c r="S122">
-        <v>-3.899254333283153</v>
+        <v>0.3320258430076831</v>
       </c>
       <c r="T122">
-        <v>3759318.941378376</v>
+        <v>558129</v>
       </c>
       <c r="U122">
-        <v>3885853.932410992</v>
+        <v>536485.729068354</v>
       </c>
       <c r="V122">
-        <v>-3.256298183964601</v>
+        <v>4.034267783642842</v>
       </c>
       <c r="W122">
         <v>122.64</v>
@@ -12991,7 +12991,7 @@
         <v>21.47408823244434</v>
       </c>
       <c r="AG122">
-        <v>-2.930578464203659</v>
+        <v>6.702940651808253</v>
       </c>
     </row>
     <row r="123">
@@ -13043,25 +13043,25 @@
         <v>3.434215295396892</v>
       </c>
       <c r="P123">
-        <v>9.346642468239565</v>
+        <v>10.78260869565218</v>
       </c>
       <c r="Q123">
-        <v>-0.9182290066694576</v>
+        <v>0.3829364766692489</v>
       </c>
       <c r="R123">
-        <v>6.74611119265747</v>
+        <v>10.13913939706261</v>
       </c>
       <c r="S123">
-        <v>-3.274636469139658</v>
+        <v>-0.3965364957704005</v>
       </c>
       <c r="T123">
-        <v>3802236.317506343</v>
+        <v>539040</v>
       </c>
       <c r="U123">
-        <v>3910296.711588216</v>
+        <v>536798.7732935729</v>
       </c>
       <c r="V123">
-        <v>-2.763483235469943</v>
+        <v>0.4175171065827543</v>
       </c>
       <c r="W123">
         <v>120.27</v>
@@ -13094,7 +13094,7 @@
         <v>21.58635499540966</v>
       </c>
       <c r="AG123">
-        <v>-3.256298183964601</v>
+        <v>4.034267783642842</v>
       </c>
     </row>
     <row r="124">
@@ -13146,25 +13146,25 @@
         <v>4.351403236127593</v>
       </c>
       <c r="P124">
-        <v>9.594594594594595</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q124">
-        <v>0.1870322649187184</v>
+        <v>2.088972395605904</v>
       </c>
       <c r="R124">
-        <v>6.560619497214669</v>
+        <v>6.82668214875023</v>
       </c>
       <c r="S124">
-        <v>-2.586507452953046</v>
+        <v>-3.011838971665852</v>
       </c>
       <c r="T124">
-        <v>3853408.903921748</v>
+        <v>508249</v>
       </c>
       <c r="U124">
-        <v>3934769.233100478</v>
+        <v>537107.4727734007</v>
       </c>
       <c r="V124">
-        <v>-2.067728101925326</v>
+        <v>-5.372941959713851</v>
       </c>
       <c r="W124">
         <v>112.65</v>
@@ -13197,7 +13197,7 @@
         <v>18.82915354528982</v>
       </c>
       <c r="AG124">
-        <v>-2.763483235469943</v>
+        <v>0.4175171065827543</v>
       </c>
     </row>
     <row r="125">
@@ -13249,25 +13249,25 @@
         <v>4.456442166910679</v>
       </c>
       <c r="P125">
-        <v>9.838998211091235</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q125">
-        <v>0.5115283776457202</v>
+        <v>2.191733989342337</v>
       </c>
       <c r="R125">
-        <v>6.778456391817891</v>
+        <v>7.342414792260092</v>
       </c>
       <c r="S125">
-        <v>-2.289113843504864</v>
+        <v>-2.122065254669144</v>
       </c>
       <c r="T125">
-        <v>3874181.918008785</v>
+        <v>505149</v>
       </c>
       <c r="U125">
-        <v>3959270.327275501</v>
+        <v>537414.0806611712</v>
       </c>
       <c r="V125">
-        <v>-2.149093197313157</v>
+        <v>-6.003765405900063</v>
       </c>
       <c r="W125">
         <v>110.04</v>
@@ -13300,7 +13300,7 @@
         <v>10.92630583781613</v>
       </c>
       <c r="AG125">
-        <v>-2.067728101925326</v>
+        <v>-5.372941959713851</v>
       </c>
     </row>
     <row r="126">
@@ -13352,25 +13352,25 @@
         <v>4.418221734357841</v>
       </c>
       <c r="P126">
-        <v>10.07992895204263</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q126">
-        <v>0.6951417417148109</v>
+        <v>2.154342209617011</v>
       </c>
       <c r="R126">
-        <v>6.640686998573559</v>
+        <v>5.778175530878628</v>
       </c>
       <c r="S126">
-        <v>-2.450890048871601</v>
+        <v>-3.247870209304175</v>
       </c>
       <c r="T126">
-        <v>3890499.45115258</v>
+        <v>498913</v>
       </c>
       <c r="U126">
-        <v>3983798.196660697</v>
+        <v>537720.6274368176</v>
       </c>
       <c r="V126">
-        <v>-2.341954609706931</v>
+        <v>-7.21706132454023</v>
       </c>
       <c r="W126">
         <v>108.67</v>
@@ -13403,7 +13403,7 @@
         <v>7.997094463467169</v>
       </c>
       <c r="AG126">
-        <v>-2.149093197313157</v>
+        <v>-6.003765405900063</v>
       </c>
     </row>
     <row r="127">
@@ -13455,25 +13455,25 @@
         <v>4.878721058434388</v>
       </c>
       <c r="P127">
-        <v>10.31746031746032</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q127">
-        <v>1.357460784142162</v>
+        <v>2.604857500508362</v>
       </c>
       <c r="R127">
-        <v>6.574022893418771</v>
+        <v>5.946150906262131</v>
       </c>
       <c r="S127">
-        <v>-2.081934129530716</v>
+        <v>-2.932757495103701</v>
       </c>
       <c r="T127">
-        <v>3927343.807423741</v>
+        <v>502554</v>
       </c>
       <c r="U127">
-        <v>4008350.3872571</v>
+        <v>538028.894621317</v>
       </c>
       <c r="V127">
-        <v>-2.020945576287092</v>
+        <v>-6.593492464059103</v>
       </c>
       <c r="W127">
         <v>104.88</v>
@@ -13506,7 +13506,7 @@
         <v>6.302938322231699</v>
       </c>
       <c r="AG127">
-        <v>-2.341954609706931</v>
+        <v>-7.21706132454023</v>
       </c>
     </row>
     <row r="128">
@@ -13558,25 +13558,25 @@
         <v>4.975170130586726</v>
       </c>
       <c r="P128">
-        <v>10.55166374781086</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q128">
-        <v>1.666050899219118</v>
+        <v>2.699215471356742</v>
       </c>
       <c r="R128">
-        <v>7.020954532589786</v>
+        <v>6.459647859474327</v>
       </c>
       <c r="S128">
-        <v>-1.580876832269817</v>
+        <v>-2.300177230210406</v>
       </c>
       <c r="T128">
-        <v>3953808.166268163</v>
+        <v>512120</v>
       </c>
       <c r="U128">
-        <v>4032923.725168024</v>
+        <v>538340.3642940774</v>
       </c>
       <c r="V128">
-        <v>-1.961742008809375</v>
+        <v>-4.870592293122955</v>
       </c>
       <c r="W128">
         <v>99.55</v>
@@ -13609,7 +13609,7 @@
         <v>2.261854633758187</v>
       </c>
       <c r="AG128">
-        <v>-2.020945576287092</v>
+        <v>-6.593492464059103</v>
       </c>
     </row>
     <row r="129">
@@ -13661,25 +13661,25 @@
         <v>4.753601908782223</v>
       </c>
       <c r="P129">
-        <v>10.78260869565217</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q129">
-        <v>1.663401574426149</v>
+        <v>2.482451044831868</v>
       </c>
       <c r="R129">
-        <v>7.30262341465836</v>
+        <v>6.852426388807586</v>
       </c>
       <c r="S129">
-        <v>-1.530124424466972</v>
+        <v>-1.836834466136694</v>
       </c>
       <c r="T129">
-        <v>3967449.756813801</v>
+        <v>516031</v>
       </c>
       <c r="U129">
-        <v>4057514.411446011</v>
+        <v>538656.2448084673</v>
       </c>
       <c r="V129">
-        <v>-2.219700178467454</v>
+        <v>-4.200312356262071</v>
       </c>
       <c r="W129">
         <v>98.17</v>
@@ -13712,7 +13712,7 @@
         <v>-3.24931380666833</v>
       </c>
       <c r="AG129">
-        <v>-1.961742008809375</v>
+        <v>-4.870592293122955</v>
       </c>
     </row>
     <row r="130">
@@ -13764,25 +13764,25 @@
         <v>5.226769911504414</v>
       </c>
       <c r="P130">
-        <v>11.01036269430052</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q130">
-        <v>2.332561480734241</v>
+        <v>2.94536034619588</v>
       </c>
       <c r="R130">
-        <v>7.871624360059005</v>
+        <v>7.542037803980878</v>
       </c>
       <c r="S130">
-        <v>-0.5608182521579907</v>
+        <v>-1.091574362546599</v>
       </c>
       <c r="T130">
-        <v>4011536.688790561</v>
+        <v>516844</v>
       </c>
       <c r="U130">
-        <v>4082118.036684042</v>
+        <v>538977.5422002298</v>
       </c>
       <c r="V130">
-        <v>-1.729037408012235</v>
+        <v>-4.106579674892508</v>
       </c>
       <c r="W130">
         <v>99.09999999999999</v>
@@ -13815,7 +13815,7 @@
         <v>-4.899032020207839</v>
       </c>
       <c r="AG130">
-        <v>-2.219700178467454</v>
+        <v>-4.200312356262071</v>
       </c>
     </row>
     <row r="131">
@@ -13867,25 +13867,25 @@
         <v>5.729118383239085</v>
       </c>
       <c r="P131">
-        <v>11.23499142367067</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q131">
-        <v>3.119487738639726</v>
+        <v>3.527511730372956</v>
       </c>
       <c r="R131">
-        <v>7.810598028579231</v>
+        <v>6.458661502666301</v>
       </c>
       <c r="S131">
-        <v>-0.05506811107884868</v>
+        <v>-1.826511738202514</v>
       </c>
       <c r="T131">
-        <v>4047843.700750904</v>
+        <v>517497</v>
       </c>
       <c r="U131">
-        <v>4106729.496531776</v>
+        <v>539305.0879276025</v>
       </c>
       <c r="V131">
-        <v>-1.433885427092352</v>
+        <v>-4.043738584296475</v>
       </c>
       <c r="W131">
         <v>95.95</v>
@@ -13918,7 +13918,7 @@
         <v>-4.309237181560476</v>
       </c>
       <c r="AG131">
-        <v>-1.729037408012235</v>
+        <v>-4.106579674892508</v>
       </c>
     </row>
     <row r="132">
@@ -13970,25 +13970,25 @@
         <v>6.458547527806324</v>
       </c>
       <c r="P132">
-        <v>11.45655877342419</v>
+        <v>11.6751269035533</v>
       </c>
       <c r="Q132">
-        <v>4.1747441568597</v>
+        <v>4.379032529725491</v>
       </c>
       <c r="R132">
-        <v>7.034513042216799</v>
+        <v>5.479626638443828</v>
       </c>
       <c r="S132">
-        <v>0.04160486233928395</v>
+        <v>-2.129437856265694</v>
       </c>
       <c r="T132">
-        <v>4096329.563510608</v>
+        <v>533972</v>
       </c>
       <c r="U132">
-        <v>4131343.142029707</v>
+        <v>539639.5426653177</v>
       </c>
       <c r="V132">
-        <v>-0.8475107807650262</v>
+        <v>-1.050245991486332</v>
       </c>
       <c r="W132">
         <v>98.84</v>
@@ -14021,7 +14021,7 @@
         <v>-7.652754669186357</v>
       </c>
       <c r="AG132">
-        <v>-1.433885427092352</v>
+        <v>-4.043738584296475</v>
       </c>
     </row>
     <row r="133">
@@ -14079,19 +14079,19 @@
         <v>5.066447364336546</v>
       </c>
       <c r="R133">
-        <v>6.175588565698058</v>
+        <v>4.596858638743456</v>
       </c>
       <c r="S133">
-        <v>-0.1076408263260276</v>
+        <v>-2.286468393039739</v>
       </c>
       <c r="T133">
-        <v>4143754.821714178</v>
+        <v>559024</v>
       </c>
       <c r="U133">
-        <v>4155952.869852619</v>
+        <v>539981.3988158237</v>
       </c>
       <c r="V133">
-        <v>-0.2935078553687576</v>
+        <v>3.526529103768494</v>
       </c>
       <c r="W133">
         <v>97.55</v>
@@ -14124,7 +14124,7 @@
         <v>-5.183826056196783</v>
       </c>
       <c r="AG133">
-        <v>-0.8475107807650262</v>
+        <v>-1.050245991486332</v>
       </c>
     </row>
     <row r="134">
@@ -14176,25 +14176,25 @@
         <v>7.422876127195055</v>
       </c>
       <c r="P134">
-        <v>11.19606200251362</v>
+        <v>9.812703583061895</v>
       </c>
       <c r="Q134">
-        <v>5.549180828204658</v>
+        <v>4.236073643153193</v>
       </c>
       <c r="R134">
-        <v>6.417508941739217</v>
+        <v>5.541603839700978</v>
       </c>
       <c r="S134">
-        <v>1.013297524194789</v>
+        <v>-0.6233325987361346</v>
       </c>
       <c r="T134">
-        <v>4204114.855244423</v>
+        <v>554650</v>
       </c>
       <c r="U134">
-        <v>4180552.306508797</v>
+        <v>540331.1050505303</v>
       </c>
       <c r="V134">
-        <v>0.5636228662643905</v>
+        <v>2.650022331794255</v>
       </c>
       <c r="W134">
         <v>93.08</v>
@@ -14227,7 +14227,7 @@
         <v>-6.732174679395952</v>
       </c>
       <c r="AG134">
-        <v>-0.2935078553687576</v>
+        <v>3.526529103768494</v>
       </c>
     </row>
     <row r="135">
@@ -14279,25 +14279,25 @@
         <v>7.693776250477291</v>
       </c>
       <c r="P135">
-        <v>10.72614107883817</v>
+        <v>8.08477237048665</v>
       </c>
       <c r="Q135">
-        <v>5.695056394461795</v>
+        <v>3.173704057356486</v>
       </c>
       <c r="R135">
-        <v>5.872242828422639</v>
+        <v>5.430799739939664</v>
       </c>
       <c r="S135">
-        <v>1.061705639960508</v>
+        <v>-0.02894033837934105</v>
       </c>
       <c r="T135">
-        <v>4240698.73997709</v>
+        <v>538884</v>
       </c>
       <c r="U135">
-        <v>4205134.984385782</v>
+        <v>540689.2569744989</v>
       </c>
       <c r="V135">
-        <v>0.845722092711898</v>
+        <v>-0.3338806812253736</v>
       </c>
       <c r="W135">
         <v>91.5</v>
@@ -14330,7 +14330,7 @@
         <v>-11.30558507221372</v>
       </c>
       <c r="AG135">
-        <v>0.5636228662643905</v>
+        <v>2.650022331794255</v>
       </c>
     </row>
     <row r="136">
@@ -14382,25 +14382,25 @@
         <v>7.248732906187239</v>
       </c>
       <c r="P136">
-        <v>10.26510480887793</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q136">
-        <v>5.446212880250467</v>
+        <v>1.823919601484847</v>
       </c>
       <c r="R136">
-        <v>5.965467242228445</v>
+        <v>5.940772480627916</v>
       </c>
       <c r="S136">
-        <v>1.334481440402069</v>
+        <v>0.9989198207964993</v>
       </c>
       <c r="T136">
-        <v>4271495.648847662</v>
+        <v>513326</v>
       </c>
       <c r="U136">
-        <v>4229694.617680908</v>
+        <v>541056.5606780895</v>
       </c>
       <c r="V136">
-        <v>0.9882753944461475</v>
+        <v>-5.125260960394906</v>
       </c>
       <c r="W136">
         <v>92.12</v>
@@ -14433,7 +14433,7 @@
         <v>-13.10929962203355</v>
       </c>
       <c r="AG136">
-        <v>0.845722092711898</v>
+        <v>-0.3338806812253736</v>
       </c>
     </row>
     <row r="137">
@@ -14485,25 +14485,25 @@
         <v>7.215603382013835</v>
       </c>
       <c r="P137">
-        <v>9.812703583061889</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q137">
-        <v>5.507978077499898</v>
+        <v>2.303298162252809</v>
       </c>
       <c r="R137">
-        <v>6.284848310203873</v>
+        <v>6.743815643113067</v>
       </c>
       <c r="S137">
-        <v>2.118416900657083</v>
+        <v>2.176981445078581</v>
       </c>
       <c r="T137">
-        <v>4323393.543428132</v>
+        <v>516146</v>
       </c>
       <c r="U137">
-        <v>4254225.195003198</v>
+        <v>541433.708322214</v>
       </c>
       <c r="V137">
-        <v>1.625874166374075</v>
+        <v>-4.670508676043672</v>
       </c>
       <c r="W137">
         <v>93.26000000000001</v>
@@ -14536,7 +14536,7 @@
         <v>-12.82491115158944</v>
       </c>
       <c r="AG137">
-        <v>0.9882753944461475</v>
+        <v>-5.125260960394906</v>
       </c>
     </row>
     <row r="138">
@@ -14588,25 +14588,25 @@
         <v>7.287644787644787</v>
       </c>
       <c r="P138">
-        <v>9.368697055264219</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q138">
-        <v>5.56824040083419</v>
+        <v>2.777290277290279</v>
       </c>
       <c r="R138">
-        <v>6.595574892066811</v>
+        <v>8.734251526645064</v>
       </c>
       <c r="S138">
-        <v>2.891481556049036</v>
+        <v>4.470719343853538</v>
       </c>
       <c r="T138">
-        <v>4376071.428571428</v>
+        <v>521218</v>
       </c>
       <c r="U138">
-        <v>4278721.027500502</v>
+        <v>541821.1780974049</v>
       </c>
       <c r="V138">
-        <v>2.275221975100239</v>
+        <v>-3.802578955985547</v>
       </c>
       <c r="W138">
         <v>95.64</v>
@@ -14639,7 +14639,7 @@
         <v>-12.05896596168763</v>
       </c>
       <c r="AG138">
-        <v>1.625874166374075</v>
+        <v>-4.670508676043672</v>
       </c>
     </row>
     <row r="139">
@@ -14691,25 +14691,25 @@
         <v>6.941747572815515</v>
       </c>
       <c r="P139">
-        <v>8.932853717026379</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q139">
-        <v>5.76005215245281</v>
+        <v>3.375992939099737</v>
       </c>
       <c r="R139">
-        <v>6.724145231711343</v>
+        <v>9.017832288997836</v>
       </c>
       <c r="S139">
-        <v>3.615674982244022</v>
+        <v>5.272866199453193</v>
       </c>
       <c r="T139">
-        <v>4429073.786407767</v>
+        <v>529053</v>
       </c>
       <c r="U139">
-        <v>4303176.96002706</v>
+        <v>542219.2530729901</v>
       </c>
       <c r="V139">
-        <v>2.925671603798397</v>
+        <v>-2.428215707644332</v>
       </c>
       <c r="W139">
         <v>99.23</v>
@@ -14742,7 +14742,7 @@
         <v>-10.14075514063294</v>
       </c>
       <c r="AG139">
-        <v>2.275221975100239</v>
+        <v>-3.802578955985547</v>
       </c>
     </row>
     <row r="140">
@@ -14794,25 +14794,25 @@
         <v>7.107389738097569</v>
       </c>
       <c r="P140">
-        <v>8.504950495049506</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q140">
-        <v>5.642050915246344</v>
+        <v>3.667873359237395</v>
       </c>
       <c r="R140">
-        <v>6.635412482430569</v>
+        <v>7.841876195492474</v>
       </c>
       <c r="S140">
-        <v>3.821840602113302</v>
+        <v>4.59833632742326</v>
       </c>
       <c r="T140">
-        <v>4463686.106513485</v>
+        <v>535669</v>
       </c>
       <c r="U140">
-        <v>4327588.58859761</v>
+        <v>542628.0573431586</v>
       </c>
       <c r="V140">
-        <v>3.14488115331637</v>
+        <v>-1.282472818901381</v>
       </c>
       <c r="W140">
         <v>97.45</v>
@@ -14845,7 +14845,7 @@
         <v>-7.111713238286055</v>
       </c>
       <c r="AG140">
-        <v>2.925671603798397</v>
+        <v>-2.428215707644332</v>
       </c>
     </row>
     <row r="141">
@@ -14897,25 +14897,25 @@
         <v>6.529377317977736</v>
       </c>
       <c r="P141">
-        <v>8.084772370486656</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q141">
-        <v>5.489725132233714</v>
+        <v>3.920820541940984</v>
       </c>
       <c r="R141">
-        <v>6.535471499978026</v>
+        <v>6.598698338957795</v>
       </c>
       <c r="S141">
-        <v>3.977621998807357</v>
+        <v>3.774773220988661</v>
       </c>
       <c r="T141">
-        <v>4495295.725161038</v>
+        <v>535510</v>
       </c>
       <c r="U141">
-        <v>4351952.480653021</v>
+        <v>543047.6134106381</v>
       </c>
       <c r="V141">
-        <v>3.293768604902314</v>
+        <v>-1.38802072313654</v>
       </c>
       <c r="W141">
         <v>97.36</v>
@@ -14948,7 +14948,7 @@
         <v>-9.121524204744214</v>
       </c>
       <c r="AG141">
-        <v>3.14488115331637</v>
+        <v>-1.282472818901381</v>
       </c>
     </row>
     <row r="142">
@@ -15000,25 +15000,25 @@
         <v>5.666081529159328</v>
       </c>
       <c r="P142">
-        <v>7.672112018669779</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q142">
-        <v>5.004985389769612</v>
+        <v>3.839743248754357</v>
       </c>
       <c r="R142">
-        <v>6.341706660477536</v>
+        <v>5.972532998285697</v>
       </c>
       <c r="S142">
-        <v>3.707535264752804</v>
+        <v>3.319183351262663</v>
       </c>
       <c r="T142">
-        <v>4513056.368246538</v>
+        <v>533999</v>
       </c>
       <c r="U142">
-        <v>4376266.25376934</v>
+        <v>543477.8900817292</v>
       </c>
       <c r="V142">
-        <v>3.125726510798521</v>
+        <v>-1.744116964961295</v>
       </c>
       <c r="W142">
         <v>97.51000000000001</v>
@@ -15051,7 +15051,7 @@
         <v>-9.554605273304951</v>
       </c>
       <c r="AG142">
-        <v>3.293768604902314</v>
+        <v>-1.38802072313654</v>
       </c>
     </row>
     <row r="143">
@@ -15103,25 +15103,25 @@
         <v>5.170399221032151</v>
       </c>
       <c r="P143">
-        <v>7.266769468003084</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q143">
-        <v>4.446708342748873</v>
+        <v>3.677967602018239</v>
       </c>
       <c r="R143">
-        <v>6.520735918233954</v>
+        <v>6.016056210310834</v>
       </c>
       <c r="S143">
-        <v>3.72028813849461</v>
+        <v>3.364850424253667</v>
       </c>
       <c r="T143">
-        <v>4528851.996105161</v>
+        <v>534910</v>
       </c>
       <c r="U143">
-        <v>4400528.631566157</v>
+        <v>543918.7980021321</v>
       </c>
       <c r="V143">
-        <v>2.916089753819739</v>
+        <v>-1.656276274183266</v>
       </c>
       <c r="W143">
         <v>97.91</v>
@@ -15154,7 +15154,7 @@
         <v>-9.770913312249741</v>
       </c>
       <c r="AG143">
-        <v>3.125726510798521</v>
+        <v>-1.744116964961295</v>
       </c>
     </row>
     <row r="144">
@@ -15206,25 +15206,25 @@
         <v>4.474708171206232</v>
       </c>
       <c r="P144">
-        <v>6.868551776843714</v>
+        <v>6.477272727272728</v>
       </c>
       <c r="Q144">
-        <v>3.957735191482215</v>
+        <v>3.577113547930666</v>
       </c>
       <c r="R144">
-        <v>6.665787444756761</v>
+        <v>6.034435207438635</v>
       </c>
       <c r="S144">
-        <v>3.76049362330424</v>
+        <v>3.265527031379922</v>
       </c>
       <c r="T144">
-        <v>4547472.762645914</v>
+        <v>551409</v>
       </c>
       <c r="U144">
-        <v>4424739.393142343</v>
+        <v>544370.1746779658</v>
       </c>
       <c r="V144">
-        <v>2.773798829684515</v>
+        <v>1.293021853410359</v>
       </c>
       <c r="W144">
         <v>99.87</v>
@@ -15257,7 +15257,7 @@
         <v>-9.763871665671731</v>
       </c>
       <c r="AG144">
-        <v>2.916089753819739</v>
+        <v>-1.656276274183266</v>
       </c>
     </row>
     <row r="145">
@@ -15315,19 +15315,19 @@
         <v>3.426199832222165</v>
       </c>
       <c r="R145">
-        <v>6.80760612633239</v>
+        <v>6.385774351786965</v>
       </c>
       <c r="S145">
-        <v>3.747067631211642</v>
+        <v>3.470155127507942</v>
       </c>
       <c r="T145">
-        <v>4569432.734337056</v>
+        <v>578423</v>
       </c>
       <c r="U145">
-        <v>4448899.307746185</v>
+        <v>544831.7881030173</v>
       </c>
       <c r="V145">
-        <v>2.709286460608462</v>
+        <v>6.165428051461497</v>
       </c>
       <c r="W145">
         <v>100.99</v>
@@ -15360,7 +15360,7 @@
         <v>-8.333857713747939</v>
       </c>
       <c r="AG145">
-        <v>2.773798829684515</v>
+        <v>1.293021853410359</v>
       </c>
     </row>
     <row r="146">
@@ -15412,25 +15412,25 @@
         <v>3.927668675870111</v>
       </c>
       <c r="P146">
-        <v>6.065743618724687</v>
+        <v>4.857248794957355</v>
       </c>
       <c r="Q146">
-        <v>3.116608612409788</v>
+        <v>1.941715725216175</v>
       </c>
       <c r="R146">
-        <v>6.767930260203407</v>
+        <v>6.511038279955026</v>
       </c>
       <c r="S146">
-        <v>3.799271106555913</v>
+        <v>3.540611196249888</v>
       </c>
       <c r="T146">
-        <v>4597306.047054249</v>
+        <v>574288</v>
       </c>
       <c r="U146">
-        <v>4473010.091642715</v>
+        <v>545303.460582998</v>
       </c>
       <c r="V146">
-        <v>2.778798904204716</v>
+        <v>5.315304506964602</v>
       </c>
       <c r="W146">
         <v>99.48</v>
@@ -15463,7 +15463,7 @@
         <v>-7.692361920731338</v>
       </c>
       <c r="AG146">
-        <v>2.709286460608462</v>
+        <v>6.165428051461497</v>
       </c>
     </row>
     <row r="147">
@@ -15515,25 +15515,25 @@
         <v>3.772851030727331</v>
       </c>
       <c r="P147">
-        <v>5.658609705827244</v>
+        <v>3.304284676833701</v>
       </c>
       <c r="Q147">
-        <v>2.740771787074325</v>
+        <v>0.4514631241089972</v>
       </c>
       <c r="R147">
-        <v>6.750865942939155</v>
+        <v>5.81957886425971</v>
       </c>
       <c r="S147">
-        <v>3.80286458862229</v>
+        <v>2.855159923100333</v>
       </c>
       <c r="T147">
-        <v>4611500.388953715</v>
+        <v>554270</v>
       </c>
       <c r="U147">
-        <v>4497074.391138838</v>
+        <v>545785.2736150676</v>
       </c>
       <c r="V147">
-        <v>2.544454190936785</v>
+        <v>1.554590567959613</v>
       </c>
       <c r="W147">
         <v>101.89</v>
@@ -15566,7 +15566,7 @@
         <v>-9.458871728942453</v>
       </c>
       <c r="AG147">
-        <v>2.778798904204716</v>
+        <v>5.315304506964602</v>
       </c>
     </row>
     <row r="148">
@@ -15618,25 +15618,25 @@
         <v>3.798208024931848</v>
       </c>
       <c r="P148">
-        <v>5.255800950517194</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q148">
-        <v>2.508571241251656</v>
+        <v>-0.8431038561430904</v>
       </c>
       <c r="R148">
-        <v>6.552148195212442</v>
+        <v>4.962334962334962</v>
       </c>
       <c r="S148">
-        <v>3.77108316635415</v>
+        <v>2.109965207295169</v>
       </c>
       <c r="T148">
-        <v>4635146.084924036</v>
+        <v>524157</v>
       </c>
       <c r="U148">
-        <v>4521095.81161518</v>
+        <v>546277.5323425266</v>
       </c>
       <c r="V148">
-        <v>2.522624559644315</v>
+        <v>-4.049321275885198</v>
       </c>
       <c r="W148">
         <v>102.57</v>
@@ -15669,7 +15669,7 @@
         <v>-7.666576289816163</v>
       </c>
       <c r="AG148">
-        <v>2.544454190936785</v>
+        <v>1.554590567959613</v>
       </c>
     </row>
     <row r="149">
@@ -15721,25 +15721,25 @@
         <v>3.542234332425065</v>
       </c>
       <c r="P149">
-        <v>4.85724879495736</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q149">
-        <v>2.040919418993159</v>
+        <v>-0.9202987928062845</v>
       </c>
       <c r="R149">
-        <v>5.874787878895628</v>
+        <v>3.157003672678859</v>
       </c>
       <c r="S149">
-        <v>3.031128726056465</v>
+        <v>0.3834186451120419</v>
       </c>
       <c r="T149">
-        <v>4636182.366679641</v>
+        <v>518125</v>
       </c>
       <c r="U149">
-        <v>4545078.841369024</v>
+        <v>546780.6073772402</v>
       </c>
       <c r="V149">
-        <v>2.004443233886244</v>
+        <v>-5.240787070831477</v>
       </c>
       <c r="W149">
         <v>106.74</v>
@@ -15772,7 +15772,7 @@
         <v>-7.459342148204263</v>
       </c>
       <c r="AG149">
-        <v>2.522624559644315</v>
+        <v>-4.049321275885198</v>
       </c>
     </row>
     <row r="150">
@@ -15824,25 +15824,25 @@
         <v>3.441571067470361</v>
       </c>
       <c r="P150">
-        <v>4.46288612263716</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q150">
-        <v>1.558318221502208</v>
+        <v>-1.016623604401834</v>
       </c>
       <c r="R150">
-        <v>5.056367883430644</v>
+        <v>1.797827151345128</v>
       </c>
       <c r="S150">
-        <v>2.135298350603398</v>
+        <v>-0.9424079751658616</v>
       </c>
       <c r="T150">
-        <v>4630416.099552791</v>
+        <v>516306</v>
       </c>
       <c r="U150">
-        <v>4569028.84871519</v>
+        <v>547294.6986479573</v>
       </c>
       <c r="V150">
-        <v>1.343551395059861</v>
+        <v>-5.662159477245465</v>
       </c>
       <c r="W150">
         <v>110</v>
@@ -15875,7 +15875,7 @@
         <v>-4.127660865859461</v>
       </c>
       <c r="AG150">
-        <v>2.004443233886244</v>
+        <v>-5.240787070831477</v>
       </c>
     </row>
     <row r="151">
@@ -15927,25 +15927,25 @@
         <v>1.925471788485478</v>
       </c>
       <c r="P151">
-        <v>4.072647220693451</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q151">
-        <v>-0.3040068773891735</v>
+        <v>-2.467381013016312</v>
       </c>
       <c r="R151">
-        <v>4.828750712963284</v>
+        <v>1.985638577823171</v>
       </c>
       <c r="S151">
-        <v>0.4202995621834349</v>
+        <v>-1.306674378559426</v>
       </c>
       <c r="T151">
-        <v>4581119.839065044</v>
+        <v>522140</v>
       </c>
       <c r="U151">
-        <v>4592951.9049278</v>
+        <v>547819.7849753401</v>
       </c>
       <c r="V151">
-        <v>-0.2576135371690214</v>
+        <v>-4.687633721826256</v>
       </c>
       <c r="W151">
         <v>110.84</v>
@@ -15978,7 +15978,7 @@
         <v>-1.6479447617754</v>
       </c>
       <c r="AG151">
-        <v>1.343551395059861</v>
+        <v>-5.662159477245465</v>
       </c>
     </row>
     <row r="152">
@@ -16030,25 +16030,25 @@
         <v>1.837672281776426</v>
       </c>
       <c r="P152">
-        <v>3.686467743407245</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q152">
-        <v>-0.7595063711645866</v>
+        <v>-2.551396477304479</v>
       </c>
       <c r="R152">
-        <v>4.944104808827366</v>
+        <v>4.042743523435933</v>
       </c>
       <c r="S152">
-        <v>0.4442044494902042</v>
+        <v>0.1278774765760199</v>
       </c>
       <c r="T152">
-        <v>4605017.228177642</v>
+        <v>536354</v>
       </c>
       <c r="U152">
-        <v>4616854.554948038</v>
+        <v>548355.6060697247</v>
       </c>
       <c r="V152">
-        <v>-0.2563937553049067</v>
+        <v>-2.188653847408395</v>
       </c>
       <c r="W152">
         <v>111.84</v>
@@ -16081,7 +16081,7 @@
         <v>-1.352875210301896</v>
       </c>
       <c r="AG152">
-        <v>-0.2576135371690214</v>
+        <v>-4.687633721826256</v>
       </c>
     </row>
     <row r="153">
@@ -16133,25 +16133,25 @@
         <v>2.121124868029556</v>
       </c>
       <c r="P153">
-        <v>3.304284676833697</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q153">
-        <v>-0.8500962886709873</v>
+        <v>-2.280160321996094</v>
       </c>
       <c r="R153">
-        <v>5.057904244140099</v>
+        <v>6.509371418586604</v>
       </c>
       <c r="S153">
-        <v>0.8330014820425058</v>
+        <v>2.063453530279546</v>
       </c>
       <c r="T153">
-        <v>4644247.0486611</v>
+        <v>546560</v>
       </c>
       <c r="U153">
-        <v>4640743.252420279</v>
+        <v>548901.703494959</v>
       </c>
       <c r="V153">
-        <v>0.07550075602638096</v>
+        <v>-0.4266161828336501</v>
       </c>
       <c r="W153">
         <v>113.82</v>
@@ -16184,7 +16184,7 @@
         <v>-0.9267080455887977</v>
       </c>
       <c r="AG153">
-        <v>-0.2563937553049067</v>
+        <v>-2.188653847408395</v>
       </c>
     </row>
     <row r="154">
@@ -16236,25 +16236,25 @@
         <v>1.788960107146287</v>
       </c>
       <c r="P154">
-        <v>2.926036304524519</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q154">
-        <v>-1.534452975677281</v>
+        <v>-2.59800922174277</v>
       </c>
       <c r="R154">
-        <v>5.131936293025804</v>
+        <v>7.110874502027895</v>
       </c>
       <c r="S154">
-        <v>0.5758502755436767</v>
+        <v>2.595697744752331</v>
       </c>
       <c r="T154">
-        <v>4654336.554099302</v>
+        <v>547860</v>
       </c>
       <c r="U154">
-        <v>4664624.3596515</v>
+        <v>549457.5262099042</v>
       </c>
       <c r="V154">
-        <v>-0.2205494967866484</v>
+        <v>-0.2907460783954985</v>
       </c>
       <c r="W154">
         <v>116.32</v>
@@ -16287,7 +16287,7 @@
         <v>0.3519342190114072</v>
       </c>
       <c r="AG154">
-        <v>0.07550075602638096</v>
+        <v>-0.4266161828336501</v>
       </c>
     </row>
     <row r="155">
@@ -16339,25 +16339,25 @@
         <v>1.759755164498844</v>
       </c>
       <c r="P155">
-        <v>2.551662174303684</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q155">
-        <v>-1.920751554797551</v>
+        <v>-2.625955470053309</v>
       </c>
       <c r="R155">
-        <v>5.092008803880174</v>
+        <v>6.542805193474866</v>
       </c>
       <c r="S155">
-        <v>0.508807195753791</v>
+        <v>2.02763081639902</v>
       </c>
       <c r="T155">
-        <v>4674796.289211935</v>
+        <v>545756</v>
       </c>
       <c r="U155">
-        <v>4688504.265984148</v>
+        <v>550022.5051047226</v>
       </c>
       <c r="V155">
-        <v>-0.2923741985619177</v>
+        <v>-0.7756964606221439</v>
       </c>
       <c r="W155">
         <v>106.32</v>
@@ -16390,7 +16390,7 @@
         <v>2.067471019789879</v>
       </c>
       <c r="AG155">
-        <v>-0.2205494967866484</v>
+        <v>-0.2907460783954985</v>
       </c>
     </row>
     <row r="156">
@@ -16442,25 +16442,25 @@
         <v>2.258529553099486</v>
       </c>
       <c r="P156">
-        <v>2.181103066058818</v>
+        <v>1.814300960512273</v>
       </c>
       <c r="Q156">
-        <v>-1.796152747660917</v>
+        <v>-2.14867759681665</v>
       </c>
       <c r="R156">
-        <v>4.853595938394824</v>
+        <v>5.19013398928383</v>
       </c>
       <c r="S156">
-        <v>0.7723170960065584</v>
+        <v>0.7805458380258574</v>
       </c>
       <c r="T156">
-        <v>4710906.295050456</v>
+        <v>555713</v>
       </c>
       <c r="U156">
-        <v>4712389.281379448</v>
+        <v>550596.0587429842</v>
       </c>
       <c r="V156">
-        <v>-0.03146994529615865</v>
+        <v>0.9293457836762942</v>
       </c>
       <c r="W156">
         <v>106.72</v>
@@ -16493,7 +16493,7 @@
         <v>-7.156052154270343</v>
       </c>
       <c r="AG156">
-        <v>-0.2923741985619177</v>
+        <v>-0.7756964606221439</v>
       </c>
     </row>
     <row r="157">
@@ -16551,19 +16551,19 @@
         <v>-1.865734013964082</v>
       </c>
       <c r="R157">
-        <v>4.548012204332653</v>
+        <v>4.156207728047991</v>
       </c>
       <c r="S157">
-        <v>0.7691683897182111</v>
+        <v>0.03959040356279055</v>
       </c>
       <c r="T157">
-        <v>4740414.457831325</v>
+        <v>578652</v>
       </c>
       <c r="U157">
-        <v>4736285.610027205</v>
+        <v>551177.572767696</v>
       </c>
       <c r="V157">
-        <v>0.08717480625277663</v>
+        <v>4.98467800392226</v>
       </c>
       <c r="W157">
         <v>109.46</v>
@@ -16596,7 +16596,7 @@
         <v>-7.259013848612394</v>
       </c>
       <c r="AG157">
-        <v>-0.03146994529615865</v>
+        <v>0.9293457836762942</v>
       </c>
     </row>
     <row r="158">
@@ -16648,25 +16648,25 @@
         <v>2.524571208325299</v>
       </c>
       <c r="P158">
-        <v>2.051327590800106</v>
+        <v>2.758132956152758</v>
       </c>
       <c r="Q158">
-        <v>-1.665708623241369</v>
+        <v>-0.9846473731424776</v>
       </c>
       <c r="R158">
-        <v>4.370273234859918</v>
+        <v>3.737569576131697</v>
       </c>
       <c r="S158">
-        <v>0.5687735930429039</v>
+        <v>-0.113531886440253</v>
       </c>
       <c r="T158">
-        <v>4755685.103102717</v>
+        <v>573636</v>
       </c>
       <c r="U158">
-        <v>4760199.444674423</v>
+        <v>551766.4723044354</v>
       </c>
       <c r="V158">
-        <v>-0.09483513504370267</v>
+        <v>3.963547767632059</v>
       </c>
       <c r="W158">
         <v>106.18</v>
@@ -16699,7 +16699,7 @@
         <v>-5.343135203044048</v>
       </c>
       <c r="AG158">
-        <v>0.08717480625277663</v>
+        <v>4.98467800392226</v>
       </c>
     </row>
     <row r="159">
@@ -16751,25 +16751,25 @@
         <v>2.416016940995291</v>
       </c>
       <c r="P159">
-        <v>2.287639652420642</v>
+        <v>3.690685413005272</v>
       </c>
       <c r="Q159">
-        <v>-1.542362448338963</v>
+        <v>-0.1918515612616356</v>
       </c>
       <c r="R159">
-        <v>4.399081743742234</v>
+        <v>4.014376069793185</v>
       </c>
       <c r="S159">
-        <v>0.4900199670249794</v>
+        <v>0.2024284193624046</v>
       </c>
       <c r="T159">
-        <v>4765706.03522957</v>
+        <v>555392</v>
       </c>
       <c r="U159">
-        <v>4784137.009926504</v>
+        <v>552362.3944728189</v>
       </c>
       <c r="V159">
-        <v>-0.3852518157128948</v>
+        <v>0.5484814964770601</v>
       </c>
       <c r="W159">
         <v>105.64</v>
@@ -16802,7 +16802,7 @@
         <v>-8.631641596439311</v>
       </c>
       <c r="AG159">
-        <v>-0.09483513504370267</v>
+        <v>3.963547767632059</v>
       </c>
     </row>
     <row r="160">
@@ -16854,25 +16854,25 @@
         <v>1.740294511378848</v>
       </c>
       <c r="P160">
-        <v>2.52324037184595</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q160">
-        <v>-1.966685435220938</v>
+        <v>0.03075093625974912</v>
       </c>
       <c r="R160">
-        <v>4.478409738435859</v>
+        <v>4.658790119074261</v>
       </c>
       <c r="S160">
-        <v>-0.09714119484046657</v>
+        <v>0.5549863876662908</v>
       </c>
       <c r="T160">
-        <v>4754744.693057946</v>
+        <v>527066</v>
       </c>
       <c r="U160">
-        <v>4808104.495555967</v>
+        <v>552965.145138818</v>
       </c>
       <c r="V160">
-        <v>-1.109788744136919</v>
+        <v>-4.683684924176578</v>
       </c>
       <c r="W160">
         <v>107.76</v>
@@ -16905,7 +16905,7 @@
         <v>-9.546402178365177</v>
       </c>
       <c r="AG160">
-        <v>-0.3852518157128948</v>
+        <v>0.5484814964770601</v>
       </c>
     </row>
     <row r="161">
@@ -16957,25 +16957,25 @@
         <v>1.391271202591948</v>
       </c>
       <c r="P161">
-        <v>2.758132956152758</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q161">
-        <v>-2.079156702732288</v>
+        <v>-0.3124077290447502</v>
       </c>
       <c r="R161">
-        <v>4.803153391135988</v>
+        <v>4.978939550537288</v>
       </c>
       <c r="S161">
-        <v>-0.1304046206060727</v>
+        <v>0.4881061519903498</v>
       </c>
       <c r="T161">
-        <v>4757928.340003811</v>
+        <v>520654</v>
       </c>
       <c r="U161">
-        <v>4832107.949121015</v>
+        <v>553574.5535449882</v>
       </c>
       <c r="V161">
-        <v>-1.535139734009827</v>
+        <v>-5.946905133946467</v>
       </c>
       <c r="W161">
         <v>108.96</v>
@@ -17008,7 +17008,7 @@
         <v>-8.190033560826359</v>
       </c>
       <c r="AG161">
-        <v>-1.109788744136919</v>
+        <v>-4.683684924176578</v>
       </c>
     </row>
     <row r="162">
@@ -17060,25 +17060,25 @@
         <v>1.662526275558962</v>
       </c>
       <c r="P162">
-        <v>2.992320593167976</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q162">
-        <v>-1.593425766130341</v>
+        <v>-0.04571055881860131</v>
       </c>
       <c r="R162">
-        <v>5.333134852565042</v>
+        <v>5.699384876169281</v>
       </c>
       <c r="S162">
-        <v>0.6431634364275185</v>
+        <v>0.9304559699093172</v>
       </c>
       <c r="T162">
-        <v>4793478.884005351</v>
+        <v>521110</v>
       </c>
       <c r="U162">
-        <v>4856153.006452983</v>
+        <v>554190.2490948043</v>
       </c>
       <c r="V162">
-        <v>-1.290612597345042</v>
+        <v>-5.969114243499673</v>
       </c>
       <c r="W162">
         <v>110.69</v>
@@ -17111,7 +17111,7 @@
         <v>-7.630762015362135</v>
       </c>
       <c r="AG162">
-        <v>-1.535139734009827</v>
+        <v>-5.946905133946467</v>
       </c>
     </row>
     <row r="163">
@@ -17163,25 +17163,25 @@
         <v>2.931217954919219</v>
       </c>
       <c r="P163">
-        <v>3.225806451612903</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q163">
-        <v>-0.1394926462098378</v>
+        <v>1.201663276715137</v>
       </c>
       <c r="R163">
-        <v>4.888952457545442</v>
+        <v>3.705927286569398</v>
       </c>
       <c r="S163">
-        <v>1.469432579612495</v>
+        <v>-0.5856666794346344</v>
       </c>
       <c r="T163">
-        <v>4852502.660346328</v>
+        <v>519082</v>
       </c>
       <c r="U163">
-        <v>4880244.731009682</v>
+        <v>554811.6071751227</v>
       </c>
       <c r="V163">
-        <v>-0.5684565465964631</v>
+        <v>-6.439953078314908</v>
       </c>
       <c r="W163">
         <v>107.71</v>
@@ -17214,7 +17214,7 @@
         <v>-6.633106976397485</v>
       </c>
       <c r="AG163">
-        <v>-1.290612597345042</v>
+        <v>-5.969114243499673</v>
       </c>
     </row>
     <row r="164">
@@ -17266,25 +17266,25 @@
         <v>3.080798294904086</v>
       </c>
       <c r="P164">
-        <v>3.45859368124615</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q164">
-        <v>0.2311506309301992</v>
+        <v>1.348730216179472</v>
       </c>
       <c r="R164">
-        <v>4.999603019710591</v>
+        <v>4.850708470765544</v>
       </c>
       <c r="S164">
-        <v>1.724087405261177</v>
+        <v>1.066086950036729</v>
       </c>
       <c r="T164">
-        <v>4894273.39662856</v>
+        <v>542072</v>
       </c>
       <c r="U164">
-        <v>4904387.702652291</v>
+        <v>555437.7479239656</v>
       </c>
       <c r="V164">
-        <v>-0.2062297403254032</v>
+        <v>-2.406344900742186</v>
       </c>
       <c r="W164">
         <v>106.95</v>
@@ -17317,7 +17317,7 @@
         <v>-9.600874046022511</v>
       </c>
       <c r="AG164">
-        <v>-0.5684565465964631</v>
+        <v>-6.439953078314908</v>
       </c>
     </row>
     <row r="165">
@@ -17369,25 +17369,25 @@
         <v>2.388088562312674</v>
       </c>
       <c r="P165">
-        <v>3.690685413005272</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q165">
-        <v>0.2520404263804288</v>
+        <v>1.142955940385249</v>
       </c>
       <c r="R165">
-        <v>4.663368769504929</v>
+        <v>3.830936032849691</v>
       </c>
       <c r="S165">
-        <v>1.192467146383969</v>
+        <v>0.4762514637002342</v>
       </c>
       <c r="T165">
-        <v>4896542.589190757</v>
+        <v>549163</v>
       </c>
       <c r="U165">
-        <v>4928586.287182817</v>
+        <v>556067.5157879409</v>
       </c>
       <c r="V165">
-        <v>-0.6501600281482833</v>
+        <v>-1.241668608920143</v>
       </c>
       <c r="W165">
         <v>110.62</v>
@@ -17420,7 +17420,7 @@
         <v>-10.68683704370246</v>
       </c>
       <c r="AG165">
-        <v>-0.2062297403254032</v>
+        <v>-2.406344900742186</v>
       </c>
     </row>
     <row r="166">
@@ -17472,25 +17472,25 @@
         <v>2.740791136164833</v>
       </c>
       <c r="P166">
-        <v>3.922084759147144</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q166">
-        <v>1.003095304837354</v>
+        <v>1.673786888075091</v>
       </c>
       <c r="R166">
-        <v>4.882287965620169</v>
+        <v>6.937254487653551</v>
       </c>
       <c r="S166">
-        <v>1.936328083992778</v>
+        <v>3.640528602197642</v>
       </c>
       <c r="T166">
-        <v>4959383.807950239</v>
+        <v>567805</v>
       </c>
       <c r="U166">
-        <v>4952844.772360769</v>
+        <v>556699.652082886</v>
       </c>
       <c r="V166">
-        <v>0.1320258536257946</v>
+        <v>1.994854474143004</v>
       </c>
       <c r="W166">
         <v>112.63</v>
@@ -17523,7 +17523,7 @@
         <v>-8.081864042029762</v>
       </c>
       <c r="AG166">
-        <v>-0.6501600281482833</v>
+        <v>-1.241668608920143</v>
       </c>
     </row>
     <row r="167">
@@ -17575,25 +17575,25 @@
         <v>2.769650867953977</v>
       </c>
       <c r="P167">
-        <v>4.152794813387069</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q167">
-        <v>1.572844561524334</v>
+        <v>2.020830241018579</v>
       </c>
       <c r="R167">
-        <v>5.251876700476906</v>
+        <v>7.435841351411766</v>
       </c>
       <c r="S167">
-        <v>2.644701287767592</v>
+        <v>4.356342394769824</v>
       </c>
       <c r="T167">
-        <v>5017239.126194655</v>
+        <v>569531</v>
       </c>
       <c r="U167">
-        <v>4977167.1986949</v>
+        <v>557332.8448490531</v>
       </c>
       <c r="V167">
-        <v>0.8051151568760462</v>
+        <v>2.188666120018579</v>
       </c>
       <c r="W167">
         <v>112.09</v>
@@ -17626,7 +17626,7 @@
         <v>-6.875318265158947</v>
       </c>
       <c r="AG167">
-        <v>0.1320258536257946</v>
+        <v>1.994854474143004</v>
       </c>
     </row>
     <row r="168">
@@ -17678,25 +17678,25 @@
         <v>1.578386753171301</v>
       </c>
       <c r="P168">
-        <v>4.382818651036654</v>
+        <v>4.612159329140461</v>
       </c>
       <c r="Q168">
-        <v>1.077581728514243</v>
+        <v>1.299660432981953</v>
       </c>
       <c r="R168">
-        <v>5.492627248761552</v>
+        <v>8.355057566273629</v>
       </c>
       <c r="S168">
-        <v>2.152248715756344</v>
+        <v>5.300397867244423</v>
       </c>
       <c r="T168">
-        <v>5007194.732255253</v>
+        <v>585168</v>
       </c>
       <c r="U168">
-        <v>5001557.657149494</v>
+        <v>557965.8678161072</v>
       </c>
       <c r="V168">
-        <v>0.1127063905321801</v>
+        <v>4.875232295187271</v>
       </c>
       <c r="W168">
         <v>113.51</v>
@@ -17729,7 +17729,7 @@
         <v>-7.777875790098832</v>
       </c>
       <c r="AG168">
-        <v>0.8051151568760462</v>
+        <v>2.188666120018579</v>
       </c>
     </row>
     <row r="169">
@@ -17787,19 +17787,19 @@
         <v>0.2896743640499189</v>
       </c>
       <c r="R169">
-        <v>6.472109601519262</v>
+        <v>10.07200581828695</v>
       </c>
       <c r="S169">
-        <v>2.072773081698087</v>
+        <v>6.481615893490387</v>
       </c>
       <c r="T169">
-        <v>5020122.711149459</v>
+        <v>616158</v>
       </c>
       <c r="U169">
-        <v>5026020.54788579</v>
+        <v>558597.5888352818</v>
       </c>
       <c r="V169">
-        <v>-0.117346053008327</v>
+        <v>10.30445034407257</v>
       </c>
       <c r="W169">
         <v>111.81</v>
@@ -17832,7 +17832,7 @@
         <v>-7.065169188921406</v>
       </c>
       <c r="AG169">
-        <v>0.1127063905321801</v>
+        <v>4.875232295187271</v>
       </c>
     </row>
     <row r="170">
@@ -17884,25 +17884,25 @@
         <v>0.201554851713226</v>
       </c>
       <c r="P170">
-        <v>4.568395405499478</v>
+        <v>4.439091534755677</v>
       </c>
       <c r="Q170">
-        <v>0.3631782373543224</v>
+        <v>0.2390743207176138</v>
       </c>
       <c r="R170">
-        <v>6.842942386205918</v>
+        <v>9.750867320457836</v>
       </c>
       <c r="S170">
-        <v>2.546254329787789</v>
+        <v>5.60599404500415</v>
       </c>
       <c r="T170">
-        <v>5061119.109319512</v>
+        <v>605794</v>
       </c>
       <c r="U170">
-        <v>5050560.314560988</v>
+        <v>559227.0856508045</v>
       </c>
       <c r="V170">
-        <v>0.2090618486048523</v>
+        <v>8.327013398323334</v>
       </c>
       <c r="W170">
         <v>113.2</v>
@@ -17935,7 +17935,7 @@
         <v>-8.898782504005997</v>
       </c>
       <c r="AG170">
-        <v>-0.117346053008327</v>
+        <v>10.30445034407257</v>
       </c>
     </row>
     <row r="171">
@@ -17987,25 +17987,25 @@
         <v>0.1730602826651273</v>
       </c>
       <c r="P171">
-        <v>4.576976421636616</v>
+        <v>4.474576271186429</v>
       </c>
       <c r="Q171">
-        <v>0.5451172210716448</v>
+        <v>0.4466650045057641</v>
       </c>
       <c r="R171">
-        <v>7.047616970155271</v>
+        <v>10.08743758644131</v>
       </c>
       <c r="S171">
-        <v>2.92050473046368</v>
+        <v>5.683373185065683</v>
       </c>
       <c r="T171">
-        <v>5095688.876069608</v>
+        <v>586957</v>
       </c>
       <c r="U171">
-        <v>5075181.355324293</v>
+        <v>559853.8801458784</v>
       </c>
       <c r="V171">
-        <v>0.4040746391023253</v>
+        <v>4.841106012708085</v>
       </c>
       <c r="W171">
         <v>118.06</v>
@@ -18038,7 +18038,7 @@
         <v>-8.205498231688901</v>
       </c>
       <c r="AG171">
-        <v>0.2090618486048523</v>
+        <v>8.327013398323334</v>
       </c>
     </row>
     <row r="172">
@@ -18090,25 +18090,25 @@
         <v>0.629235237173309</v>
       </c>
       <c r="P172">
-        <v>4.585492227979274</v>
+        <v>4.509018036072145</v>
       </c>
       <c r="Q172">
-        <v>1.244426164549162</v>
+        <v>1.170395001037905</v>
       </c>
       <c r="R172">
-        <v>6.700778198222548</v>
+        <v>5.670992478985401</v>
       </c>
       <c r="S172">
-        <v>3.292137655588134</v>
+        <v>1.771694626479416</v>
       </c>
       <c r="T172">
-        <v>5136213.939980639</v>
+        <v>536404</v>
       </c>
       <c r="U172">
-        <v>5099888.149797087</v>
+        <v>560477.8535163178</v>
       </c>
       <c r="V172">
-        <v>0.7122860171942857</v>
+        <v>-4.295237245376171</v>
       </c>
       <c r="W172">
         <v>131.08</v>
@@ -18141,7 +18141,7 @@
         <v>-4.713349698497216</v>
       </c>
       <c r="AG172">
-        <v>0.4040746391023253</v>
+        <v>4.841106012708085</v>
       </c>
     </row>
     <row r="173">
@@ -18193,25 +18193,25 @@
         <v>1.220703125</v>
       </c>
       <c r="P173">
-        <v>4.593943565037853</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q173">
-        <v>2.142523012732278</v>
+        <v>2.255291833667328</v>
       </c>
       <c r="R173">
-        <v>7.207353539075941</v>
+        <v>6.567884132540105</v>
       </c>
       <c r="S173">
-        <v>4.694681190503847</v>
+        <v>3.231128542179643</v>
       </c>
       <c r="T173">
-        <v>5227374.0234375</v>
+        <v>537477</v>
       </c>
       <c r="U173">
-        <v>5124685.335837789</v>
+        <v>561099.0960869472</v>
       </c>
       <c r="V173">
-        <v>2.003804738636172</v>
+        <v>-4.209968658243357</v>
       </c>
       <c r="W173">
         <v>141.14</v>
@@ -18244,7 +18244,7 @@
         <v>5.30816276810524</v>
       </c>
       <c r="AG173">
-        <v>0.7122860171942857</v>
+        <v>-4.295237245376171</v>
       </c>
     </row>
     <row r="174">
@@ -18296,25 +18296,25 @@
         <v>1.109148017275241</v>
       </c>
       <c r="P174">
-        <v>4.602331162152897</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q174">
-        <v>2.672095761830495</v>
+        <v>2.777207339689203</v>
       </c>
       <c r="R174">
-        <v>7.987673552454676</v>
+        <v>9.638429752066116</v>
       </c>
       <c r="S174">
-        <v>5.994968151211899</v>
+        <v>6.938458290955844</v>
       </c>
       <c r="T174">
-        <v>5317613.859442482</v>
+        <v>557267</v>
       </c>
       <c r="U174">
-        <v>5149577.831596413</v>
+        <v>561717.5124275498</v>
       </c>
       <c r="V174">
-        <v>3.263102983220212</v>
+        <v>-0.79230437525728</v>
       </c>
       <c r="W174">
         <v>149.83</v>
@@ -18347,7 +18347,7 @@
         <v>12.87930954193179</v>
       </c>
       <c r="AG174">
-        <v>2.003804738636172</v>
+        <v>-4.209968658243357</v>
       </c>
     </row>
     <row r="175">
@@ -18399,25 +18399,25 @@
         <v>0.4406149025751427</v>
       </c>
       <c r="P175">
-        <v>4.610655737704918</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q175">
-        <v>2.428919747091851</v>
+        <v>2.525623066361837</v>
       </c>
       <c r="R175">
-        <v>9.736660372182634</v>
+        <v>16.31771745583631</v>
       </c>
       <c r="S175">
-        <v>7.448017597358891</v>
+        <v>13.88508944636878</v>
       </c>
       <c r="T175">
-        <v>5389626.946049153</v>
+        <v>591157</v>
       </c>
       <c r="U175">
-        <v>5174571.34757397</v>
+        <v>562332.8248386475</v>
       </c>
       <c r="V175">
-        <v>4.156007986555421</v>
+        <v>5.12582120199423</v>
       </c>
       <c r="W175">
         <v>139.5</v>
@@ -18450,7 +18450,7 @@
         <v>19.30226994403761</v>
       </c>
       <c r="AG175">
-        <v>3.263102983220212</v>
+        <v>-0.79230437525728</v>
       </c>
     </row>
     <row r="176">
@@ -18502,25 +18502,25 @@
         <v>-0.1563874499071249</v>
       </c>
       <c r="P176">
-        <v>4.618917999319497</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q176">
-        <v>2.256786237239283</v>
+        <v>2.345243708020095</v>
       </c>
       <c r="R176">
-        <v>10.05390282289584</v>
+        <v>16.25508391104157</v>
       </c>
       <c r="S176">
-        <v>7.569057592508899</v>
+        <v>13.85812216827285</v>
       </c>
       <c r="T176">
-        <v>5434247.874108103</v>
+        <v>617193</v>
       </c>
       <c r="U176">
-        <v>5199672.890845736</v>
+        <v>562944.7212803895</v>
       </c>
       <c r="V176">
-        <v>4.511341159082294</v>
+        <v>9.636519656179665</v>
       </c>
       <c r="W176">
         <v>144.2</v>
@@ -18553,7 +18553,7 @@
         <v>10.60153649099382</v>
       </c>
       <c r="AG176">
-        <v>4.156007986555421</v>
+        <v>5.12582120199423</v>
       </c>
     </row>
     <row r="177">
@@ -18605,25 +18605,25 @@
         <v>-0.4880905896134213</v>
       </c>
       <c r="P177">
-        <v>4.627118644067797</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q177">
-        <v>2.135024057075174</v>
+        <v>2.215363957121586</v>
       </c>
       <c r="R177">
-        <v>10.92507958346875</v>
+        <v>15.50678132689551</v>
       </c>
       <c r="S177">
-        <v>8.282974993624315</v>
+        <v>12.91838670850003</v>
       </c>
       <c r="T177">
-        <v>5483984.771573604</v>
+        <v>620106</v>
       </c>
       <c r="U177">
-        <v>5224891.127866636</v>
+        <v>563553.1121216833</v>
       </c>
       <c r="V177">
-        <v>4.958833349179437</v>
+        <v>10.0350591030195</v>
       </c>
       <c r="W177">
         <v>151.32</v>
@@ -18656,7 +18656,7 @@
         <v>13.85290733998035</v>
       </c>
       <c r="AG177">
-        <v>4.511341159082294</v>
+        <v>9.636519656179665</v>
       </c>
     </row>
     <row r="178">
@@ -18708,25 +18708,25 @@
         <v>-1.202249369788655</v>
       </c>
       <c r="P178">
-        <v>4.635258358662614</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q178">
-        <v>1.449736628526854</v>
+        <v>1.521639361717408</v>
       </c>
       <c r="R178">
-        <v>10.44445010592411</v>
+        <v>9.822214438397012</v>
       </c>
       <c r="S178">
-        <v>7.082073013306278</v>
+        <v>7.011738184764135</v>
       </c>
       <c r="T178">
-        <v>5464087.64785728</v>
+        <v>607618</v>
       </c>
       <c r="U178">
-        <v>5250236.53508372</v>
+        <v>564158.3263138346</v>
       </c>
       <c r="V178">
-        <v>4.073171015144572</v>
+        <v>7.703453385174219</v>
       </c>
       <c r="W178">
         <v>148.88</v>
@@ -18759,7 +18759,7 @@
         <v>18.99402573214228</v>
       </c>
       <c r="AG178">
-        <v>4.958833349179437</v>
+        <v>10.0350591030195</v>
       </c>
     </row>
     <row r="179">
@@ -18811,25 +18811,25 @@
         <v>-1.943802925327176</v>
       </c>
       <c r="P179">
-        <v>4.643337819650068</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q179">
-        <v>0.696052559324567</v>
+        <v>0.7596409138523441</v>
       </c>
       <c r="R179">
-        <v>9.662453055847822</v>
+        <v>6.115107108898708</v>
       </c>
       <c r="S179">
-        <v>5.525840123025261</v>
+        <v>2.860599335242506</v>
       </c>
       <c r="T179">
-        <v>5428963.625866052</v>
+        <v>585823</v>
       </c>
       <c r="U179">
-        <v>5275721.5881234</v>
+        <v>564761.1291730243</v>
       </c>
       <c r="V179">
-        <v>2.904664986257566</v>
+        <v>3.729341439949385</v>
       </c>
       <c r="W179">
         <v>154.27</v>
@@ -18862,7 +18862,7 @@
         <v>16.6207579403111</v>
       </c>
       <c r="AG179">
-        <v>4.073171015144572</v>
+        <v>7.703453385174219</v>
       </c>
     </row>
     <row r="180">
@@ -18914,25 +18914,25 @@
         <v>-2.310420860895412</v>
       </c>
       <c r="P180">
-        <v>4.65135769359705</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q180">
-        <v>0.327253085607393</v>
+        <v>0.3829151928629537</v>
       </c>
       <c r="R180">
-        <v>9.034641737559781</v>
+        <v>1.471355298617752</v>
       </c>
       <c r="S180">
-        <v>4.529423581209668</v>
+        <v>-2.233204823230252</v>
       </c>
       <c r="T180">
-        <v>5405143.322787845</v>
+        <v>572100</v>
       </c>
       <c r="U180">
-        <v>5301360.41269784</v>
+        <v>565362.6213524223</v>
       </c>
       <c r="V180">
-        <v>1.957665618082149</v>
+        <v>1.191691560977448</v>
       </c>
       <c r="W180">
         <v>148.41</v>
@@ -18965,7 +18965,7 @@
         <v>20.39109951756357</v>
       </c>
       <c r="AG180">
-        <v>2.904664986257566</v>
+        <v>3.729341439949385</v>
       </c>
     </row>
     <row r="181">
@@ -19017,25 +19017,25 @@
         <v>-2.506697282816683</v>
       </c>
       <c r="P181">
-        <v>4.659318637274549</v>
+        <v>4.709418837675351</v>
       </c>
       <c r="Q181">
-        <v>0.1332937593518713</v>
+        <v>0.181227360959979</v>
       </c>
       <c r="R181">
-        <v>7.422739277645904</v>
+        <v>-0.7167554146531646</v>
       </c>
       <c r="S181">
-        <v>2.777209412213844</v>
+        <v>-4.76468697963834</v>
       </c>
       <c r="T181">
-        <v>5381918.293149637</v>
+        <v>586800</v>
       </c>
       <c r="U181">
-        <v>5327168.316942324</v>
+        <v>565964.0660196327</v>
       </c>
       <c r="V181">
-        <v>1.02775007189444</v>
+        <v>3.681494149779563</v>
       </c>
       <c r="W181">
         <v>141</v>
@@ -19068,7 +19068,7 @@
         <v>15.40208257343616</v>
       </c>
       <c r="AG181">
-        <v>1.957665618082149</v>
+        <v>1.191691560977448</v>
       </c>
     </row>
     <row r="182">
@@ -19120,25 +19120,25 @@
         <v>-2.543993879112483</v>
       </c>
       <c r="P182">
-        <v>4.809852708662728</v>
+        <v>5.107084019769355</v>
       </c>
       <c r="Q182">
-        <v>0.2389563013224016</v>
+        <v>0.5232249615238604</v>
       </c>
       <c r="R182">
-        <v>6.686743103781778</v>
+        <v>-1.105745896232873</v>
       </c>
       <c r="S182">
-        <v>2.033993021979486</v>
+        <v>-5.331020115748919</v>
       </c>
       <c r="T182">
-        <v>5380436.113236419</v>
+        <v>573499</v>
       </c>
       <c r="U182">
-        <v>5353161.4097862</v>
+        <v>566566.778328207</v>
       </c>
       <c r="V182">
-        <v>0.5095064647286263</v>
+        <v>1.223548915495587</v>
       </c>
       <c r="W182">
         <v>147.01</v>
@@ -19171,7 +19171,7 @@
         <v>9.262749830428586</v>
       </c>
       <c r="AG182">
-        <v>1.02775007189444</v>
+        <v>3.681494149779563</v>
       </c>
     </row>
     <row r="183">
@@ -19223,25 +19223,25 @@
         <v>-3.136882129277585</v>
       </c>
       <c r="P183">
-        <v>4.857427055702917</v>
+        <v>5.288773523685934</v>
       </c>
       <c r="Q183">
-        <v>-0.3256396808907769</v>
+        <v>0.08438547878890645</v>
       </c>
       <c r="R183">
-        <v>6.514496343980198</v>
+        <v>0.5104105003598639</v>
       </c>
       <c r="S183">
-        <v>1.249521239524909</v>
+        <v>-4.054300400199674</v>
       </c>
       <c r="T183">
-        <v>5366250.950570342</v>
+        <v>563160</v>
       </c>
       <c r="U183">
-        <v>5379356.222612322</v>
+        <v>567172.2342027916</v>
       </c>
       <c r="V183">
-        <v>-0.2436215691924537</v>
+        <v>-0.7074101940887756</v>
       </c>
       <c r="W183">
         <v>148.58</v>
@@ -19274,7 +19274,7 @@
         <v>13.54490500629149</v>
       </c>
       <c r="AG183">
-        <v>0.5095064647286263</v>
+        <v>1.223548915495587</v>
       </c>
     </row>
     <row r="184">
@@ -19326,25 +19326,25 @@
         <v>-3.647502356267673</v>
       </c>
       <c r="P184">
-        <v>4.904632152588556</v>
+        <v>5.465004793863854</v>
       </c>
       <c r="Q184">
-        <v>-1.126642646005116</v>
+        <v>-0.5984874704393461</v>
       </c>
       <c r="R184">
-        <v>7.069856262376999</v>
+        <v>4.313230200984805</v>
       </c>
       <c r="S184">
-        <v>0.9140963830131854</v>
+        <v>-0.9231847637228656</v>
       </c>
       <c r="T184">
-        <v>5354208.294062206</v>
+        <v>531452</v>
       </c>
       <c r="U184">
-        <v>5405769.497256529</v>
+        <v>567781.9630573975</v>
       </c>
       <c r="V184">
-        <v>-0.9538180127822815</v>
+        <v>-6.39857646441736</v>
       </c>
       <c r="W184">
         <v>152.43</v>
@@ -19377,7 +19377,7 @@
         <v>14.3968598547122</v>
       </c>
       <c r="AG184">
-        <v>-0.2436215691924537</v>
+        <v>-0.7074101940887756</v>
       </c>
     </row>
     <row r="185">
@@ -19429,25 +19429,25 @@
         <v>-3.8497564630948</v>
       </c>
       <c r="P185">
-        <v>4.951472281625267</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q185">
-        <v>-1.694012475060647</v>
+        <v>-1.40206266884898</v>
       </c>
       <c r="R185">
-        <v>6.505286641778901</v>
+        <v>5.823270799385338</v>
       </c>
       <c r="S185">
-        <v>-0.2385850114472787</v>
+        <v>-0.1828915469871269</v>
       </c>
       <c r="T185">
-        <v>5340059.947545897</v>
+        <v>536494</v>
       </c>
       <c r="U185">
-        <v>5432417.874433734</v>
+        <v>568397.4633474398</v>
       </c>
       <c r="V185">
-        <v>-1.700125598262514</v>
+        <v>-5.612879262259907</v>
       </c>
       <c r="W185">
         <v>150.95</v>
@@ -19480,7 +19480,7 @@
         <v>17.00972332521098</v>
       </c>
       <c r="AG185">
-        <v>-0.9538180127822815</v>
+        <v>-6.39857646441736</v>
       </c>
     </row>
     <row r="186">
@@ -19532,25 +19532,25 @@
         <v>-4.414214325374799</v>
       </c>
       <c r="P186">
-        <v>4.997951659156084</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q186">
-        <v>-2.833655692063586</v>
+        <v>-2.588230710034389</v>
       </c>
       <c r="R186">
-        <v>4.975298034087143</v>
+        <v>3.128014609216908</v>
       </c>
       <c r="S186">
-        <v>-2.85461962420217</v>
+        <v>-3.590738371373148</v>
       </c>
       <c r="T186">
-        <v>5262933.555432167</v>
+        <v>537257</v>
       </c>
       <c r="U186">
-        <v>5459317.597010029</v>
+        <v>569019.9532045425</v>
       </c>
       <c r="V186">
-        <v>-3.597226907725948</v>
+        <v>-5.582045590082297</v>
       </c>
       <c r="W186">
         <v>144.11</v>
@@ -19583,7 +19583,7 @@
         <v>15.54369832517941</v>
       </c>
       <c r="AG186">
-        <v>-1.700125598262514</v>
+        <v>-5.612879262259907</v>
       </c>
     </row>
     <row r="187">
@@ -19635,25 +19635,25 @@
         <v>-4.236271342870312</v>
       </c>
       <c r="P187">
-        <v>5.044074436826641</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q187">
-        <v>-3.051154188438721</v>
+        <v>-2.848954411871851</v>
       </c>
       <c r="R187">
-        <v>3.563514161149591</v>
+        <v>1.395254271748431</v>
       </c>
       <c r="S187">
-        <v>-4.417614987402308</v>
+        <v>-5.871536664540892</v>
       </c>
       <c r="T187">
-        <v>5261261.65205353</v>
+        <v>556447</v>
       </c>
       <c r="U187">
-        <v>5486484.195213173</v>
+        <v>569650.404591632</v>
       </c>
       <c r="V187">
-        <v>-4.105043141400888</v>
+        <v>-2.317808340906413</v>
       </c>
       <c r="W187">
         <v>136.74</v>
@@ -19686,7 +19686,7 @@
         <v>10.00980159659748</v>
       </c>
       <c r="AG187">
-        <v>-3.597226907725948</v>
+        <v>-5.582045590082297</v>
       </c>
     </row>
     <row r="188">
@@ -19738,25 +19738,25 @@
         <v>-4.440774382970913</v>
       </c>
       <c r="P188">
-        <v>5.089844702821368</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q188">
-        <v>-3.578452424239509</v>
+        <v>-3.41943490711365</v>
       </c>
       <c r="R188">
-        <v>2.793816085135758</v>
+        <v>0.9500142897391565</v>
       </c>
       <c r="S188">
-        <v>-5.685093967211897</v>
+        <v>-6.929923054862903</v>
       </c>
       <c r="T188">
-        <v>5243700.339480686</v>
+        <v>574422</v>
       </c>
       <c r="U188">
-        <v>5513931.683962055</v>
+        <v>570289.5443871202</v>
       </c>
       <c r="V188">
-        <v>-4.900883071645035</v>
+        <v>0.7246241235793427</v>
       </c>
       <c r="W188">
         <v>139.21</v>
@@ -19789,7 +19789,7 @@
         <v>4.116013261446883</v>
       </c>
       <c r="AG188">
-        <v>-4.105043141400888</v>
+        <v>-2.317808340906413</v>
       </c>
     </row>
     <row r="189">
@@ -19841,25 +19841,25 @@
         <v>-4.257840991976658</v>
       </c>
       <c r="P189">
-        <v>5.13526648307144</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q189">
-        <v>-4.143630121196729</v>
+        <v>-4.02702598948137</v>
       </c>
       <c r="R189">
-        <v>1.397612657210286</v>
+        <v>0.6157590875258997</v>
       </c>
       <c r="S189">
-        <v>-7.551410779348766</v>
+        <v>-7.69916756167494</v>
       </c>
       <c r="T189">
-        <v>5193571.298322393</v>
+        <v>572363</v>
       </c>
       <c r="U189">
-        <v>5541672.340347161</v>
+        <v>570937.997591294</v>
       </c>
       <c r="V189">
-        <v>-6.281516131698273</v>
+        <v>0.2495896953290666</v>
       </c>
       <c r="W189">
         <v>141</v>
@@ -19892,7 +19892,7 @@
         <v>5.73906501651591</v>
       </c>
       <c r="AG189">
-        <v>-4.900883071645035</v>
+        <v>0.7246241235793427</v>
       </c>
     </row>
     <row r="190">
@@ -19944,25 +19944,25 @@
         <v>-4.371882086167799</v>
       </c>
       <c r="P190">
-        <v>5.180343742435245</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q190">
-        <v>-4.598327671260538</v>
+        <v>-4.523212793889497</v>
       </c>
       <c r="R190">
-        <v>0.9711373645677703</v>
+        <v>-0.694113630183618</v>
       </c>
       <c r="S190">
-        <v>-8.416201936899981</v>
+        <v>-9.427304655227461</v>
       </c>
       <c r="T190">
-        <v>5161351.473922903</v>
+        <v>550336</v>
       </c>
       <c r="U190">
-        <v>5569716.356340701</v>
+        <v>571596.421090676</v>
       </c>
       <c r="V190">
-        <v>-7.331879332650493</v>
+        <v>-3.719481141975745</v>
       </c>
       <c r="W190">
         <v>140.07</v>
@@ -19995,7 +19995,7 @@
         <v>6.852165280179778</v>
       </c>
       <c r="AG190">
-        <v>-6.281516131698273</v>
+        <v>0.2495896953290666</v>
       </c>
     </row>
     <row r="191">
@@ -20047,25 +20047,25 @@
         <v>-3.948676244691429</v>
       </c>
       <c r="P191">
-        <v>5.22508038585209</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q191">
-        <v>-4.919959893510351</v>
+        <v>-4.885553542299781</v>
       </c>
       <c r="R191">
-        <v>1.249676742034738</v>
+        <v>-0.1986051257832463</v>
       </c>
       <c r="S191">
-        <v>-8.512083905272672</v>
+        <v>-9.437833611858872</v>
       </c>
       <c r="T191">
-        <v>5161546.037769946</v>
+        <v>530534</v>
       </c>
       <c r="U191">
-        <v>5598071.237949978</v>
+        <v>572265.4827671757</v>
       </c>
       <c r="V191">
-        <v>-7.79777858525229</v>
+        <v>-7.292329176553524</v>
       </c>
       <c r="W191">
         <v>145.35</v>
@@ -20098,7 +20098,7 @@
         <v>5.916152688917431</v>
       </c>
       <c r="AG191">
-        <v>-7.331879332650493</v>
+        <v>-3.719481141975745</v>
       </c>
     </row>
     <row r="192">
@@ -20150,25 +20150,25 @@
         <v>-2.790319667690078</v>
       </c>
       <c r="P192">
-        <v>5.269480259469848</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q192">
-        <v>-4.939967257115896</v>
+        <v>-4.945676454093517</v>
       </c>
       <c r="R192">
-        <v>1.750712340405154</v>
+        <v>2.891901732742188</v>
       </c>
       <c r="S192">
-        <v>-8.117471247602348</v>
+        <v>-6.930781331934977</v>
       </c>
       <c r="T192">
-        <v>5180433.44771537</v>
+        <v>532449</v>
       </c>
       <c r="U192">
-        <v>5626741.340218721</v>
+        <v>572945.6864562434</v>
       </c>
       <c r="V192">
-        <v>-7.931907040283503</v>
+        <v>-7.068154523812121</v>
       </c>
       <c r="W192">
         <v>144.1</v>
@@ -20201,7 +20201,7 @@
         <v>9.682163536551247</v>
       </c>
       <c r="AG192">
-        <v>-7.79777858525229</v>
+        <v>-7.292329176553524</v>
       </c>
     </row>
     <row r="193">
@@ -20253,25 +20253,25 @@
         <v>-1.181173905142663</v>
       </c>
       <c r="P193">
-        <v>5.313547151747247</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="Q193">
-        <v>-4.312604804881648</v>
+        <v>-4.358388247558754</v>
       </c>
       <c r="R193">
-        <v>2.508612611754182</v>
+        <v>5.229393066331571</v>
       </c>
       <c r="S193">
-        <v>-6.861155177399425</v>
+        <v>-4.759713701431493</v>
       </c>
       <c r="T193">
-        <v>5239228.60258041</v>
+        <v>558870</v>
       </c>
       <c r="U193">
-        <v>5655727.649940671</v>
+        <v>573637.2139911482</v>
       </c>
       <c r="V193">
-        <v>-7.364199147118233</v>
+        <v>-2.574312410522239</v>
       </c>
       <c r="W193">
         <v>145.65</v>
@@ -20304,7 +20304,7 @@
         <v>8.526832463664702</v>
       </c>
       <c r="AG193">
-        <v>-7.931907040283503</v>
+        <v>-7.068154523812121</v>
       </c>
     </row>
     <row r="194">
@@ -20356,25 +20356,25 @@
         <v>-1.114332306577293</v>
       </c>
       <c r="P194">
-        <v>5.692735212385867</v>
+        <v>6.959247648902823</v>
       </c>
       <c r="Q194">
-        <v>-4.246480148228072</v>
+        <v>-3.099068989941278</v>
       </c>
       <c r="R194">
-        <v>3.225861497704142</v>
+        <v>6.640281719090495</v>
       </c>
       <c r="S194">
-        <v>-6.481372080355019</v>
+        <v>-3.398087878095689</v>
       </c>
       <c r="T194">
-        <v>5261156.00652292</v>
+        <v>554011</v>
       </c>
       <c r="U194">
-        <v>5685027.710175801</v>
+        <v>574339.9347307254</v>
       </c>
       <c r="V194">
-        <v>-7.455930300817714</v>
+        <v>-3.539530076427022</v>
       </c>
       <c r="W194">
         <v>142.57</v>
@@ -20407,7 +20407,7 @@
         <v>9.49165346036156</v>
       </c>
       <c r="AG194">
-        <v>-7.364199147118233</v>
+        <v>-2.574312410522239</v>
       </c>
     </row>
     <row r="195">
@@ -20459,25 +20459,25 @@
         <v>-0.04523249502441651</v>
       </c>
       <c r="P195">
-        <v>6.118577075098814</v>
+        <v>8.597842835130971</v>
       </c>
       <c r="Q195">
-        <v>-3.999839809029471</v>
+        <v>-1.756972285931813</v>
       </c>
       <c r="R195">
-        <v>3.784212555019258</v>
+        <v>8.623593541785395</v>
       </c>
       <c r="S195">
-        <v>-6.11162243982335</v>
+        <v>-1.545741885077065</v>
       </c>
       <c r="T195">
-        <v>5300276.82286955</v>
+        <v>554455</v>
       </c>
       <c r="U195">
-        <v>5714635.850256909</v>
+        <v>575053.6040892596</v>
       </c>
       <c r="V195">
-        <v>-7.250838692875439</v>
+        <v>-3.58203199541417</v>
       </c>
       <c r="W195">
         <v>134.34</v>
@@ -20510,7 +20510,7 @@
         <v>6.98870798750626</v>
       </c>
       <c r="AG195">
-        <v>-7.455930300817714</v>
+        <v>-3.539530076427022</v>
       </c>
     </row>
     <row r="196">
@@ -20562,25 +20562,25 @@
         <v>-0.1347708894878785</v>
       </c>
       <c r="P196">
-        <v>6.540731995277451</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q196">
-        <v>-4.276071882050814</v>
+        <v>-1.004655721636849</v>
       </c>
       <c r="R196">
-        <v>4.386007993571345</v>
+        <v>12.16561830372572</v>
       </c>
       <c r="S196">
-        <v>-6.212032350789453</v>
+        <v>1.284217577504648</v>
       </c>
       <c r="T196">
-        <v>5327920.934411501</v>
+        <v>538277</v>
       </c>
       <c r="U196">
-        <v>5744543.128901751</v>
+        <v>575777.820621971</v>
       </c>
       <c r="V196">
-        <v>-7.252486144531756</v>
+        <v>-6.513071410333526</v>
       </c>
       <c r="W196">
         <v>126.99</v>
@@ -20613,7 +20613,7 @@
         <v>0.6451145768360034</v>
       </c>
       <c r="AG196">
-        <v>-7.250838692875439</v>
+        <v>-3.58203199541417</v>
       </c>
     </row>
     <row r="197">
@@ -20665,25 +20665,25 @@
         <v>-0.4280745563185473</v>
       </c>
       <c r="P197">
-        <v>6.959247648902821</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q197">
-        <v>-4.611390663602233</v>
+        <v>-1.737431390512634</v>
       </c>
       <c r="R197">
-        <v>5.108183618169853</v>
+        <v>13.5268582759551</v>
       </c>
       <c r="S197">
-        <v>-6.26221027542152</v>
+        <v>1.975045387273669</v>
       </c>
       <c r="T197">
-        <v>5344036.386337287</v>
+        <v>547090</v>
       </c>
       <c r="U197">
-        <v>5774737.407613409</v>
+        <v>576512.0239442317</v>
       </c>
       <c r="V197">
-        <v>-7.458365478372853</v>
+        <v>-5.103453652699153</v>
       </c>
       <c r="W197">
         <v>119.52</v>
@@ -20716,7 +20716,7 @@
         <v>-5.011957813860213</v>
       </c>
       <c r="AG197">
-        <v>-7.252486144531756</v>
+        <v>-6.513071410333526</v>
       </c>
     </row>
     <row r="198">
@@ -20768,25 +20768,25 @@
         <v>0.6981115188400722</v>
       </c>
       <c r="P198">
-        <v>7.374170893484198</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q198">
-        <v>-3.898531376099346</v>
+        <v>-1.385645590424966</v>
       </c>
       <c r="R198">
-        <v>7.182555828726144</v>
+        <v>17.16247288927949</v>
       </c>
       <c r="S198">
-        <v>-4.070029688779975</v>
+        <v>4.870294849578507</v>
       </c>
       <c r="T198">
-        <v>5455658.283361675</v>
+        <v>563423</v>
       </c>
       <c r="U198">
-        <v>5805203.333217488</v>
+        <v>577255.3643132311</v>
       </c>
       <c r="V198">
-        <v>-6.021236979860955</v>
+        <v>-2.396229670327554</v>
       </c>
       <c r="W198">
         <v>122.21</v>
@@ -20819,7 +20819,7 @@
         <v>-10.73467953673312</v>
       </c>
       <c r="AG198">
-        <v>-7.458365478372853</v>
+        <v>-5.103453652699153</v>
       </c>
     </row>
     <row r="199">
@@ -20871,25 +20871,25 @@
         <v>0.8937349182232657</v>
       </c>
       <c r="P199">
-        <v>7.785547785547786</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q199">
-        <v>-3.668292264234707</v>
+        <v>-1.526661737583179</v>
       </c>
       <c r="R199">
-        <v>8.028766210859006</v>
+        <v>15.89418497785947</v>
       </c>
       <c r="S199">
-        <v>-3.450919464778801</v>
+        <v>3.55487584621716</v>
       </c>
       <c r="T199">
-        <v>5503854.678702297</v>
+        <v>576228</v>
       </c>
       <c r="U199">
-        <v>5835922.229229273</v>
+        <v>578006.7649643694</v>
       </c>
       <c r="V199">
-        <v>-5.690061270244707</v>
+        <v>-0.3077412016932013</v>
       </c>
       <c r="W199">
         <v>124.1</v>
@@ -20922,7 +20922,7 @@
         <v>-8.857943715468808</v>
       </c>
       <c r="AG199">
-        <v>-6.021236979860955</v>
+        <v>-2.396229670327554</v>
       </c>
     </row>
     <row r="200">
@@ -20974,25 +20974,25 @@
         <v>2.798219314981365</v>
       </c>
       <c r="P200">
-        <v>8.193423597678917</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q200">
-        <v>-1.704893615264003</v>
+        <v>0.1015882454966643</v>
       </c>
       <c r="R200">
-        <v>8.729142348816096</v>
+        <v>14.83933275507582</v>
       </c>
       <c r="S200">
-        <v>-1.218186291617973</v>
+        <v>3.250049615091344</v>
       </c>
       <c r="T200">
-        <v>5645488.325610975</v>
+        <v>593091</v>
       </c>
       <c r="U200">
-        <v>5866872.722057175</v>
+        <v>578765.0424018393</v>
       </c>
       <c r="V200">
-        <v>-3.773465130986742</v>
+        <v>2.47526311172992</v>
       </c>
       <c r="W200">
         <v>132.68</v>
@@ -21025,7 +21025,7 @@
         <v>-7.577507900150438</v>
       </c>
       <c r="AG200">
-        <v>-5.690061270244707</v>
+        <v>-0.3077412016932013</v>
       </c>
     </row>
     <row r="201">
@@ -21077,25 +21077,25 @@
         <v>4.460590453416713</v>
       </c>
       <c r="P201">
-        <v>8.597842835130971</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q201">
-        <v>-0.1215461830856523</v>
+        <v>1.335250788023723</v>
       </c>
       <c r="R201">
-        <v>10.83122421905132</v>
+        <v>14.50703859280126</v>
       </c>
       <c r="S201">
-        <v>1.932515606595531</v>
+        <v>3.891586283529858</v>
       </c>
       <c r="T201">
-        <v>5806391.060424906</v>
+        <v>594637</v>
       </c>
       <c r="U201">
-        <v>5898030.875859983</v>
+        <v>579528.9994047966</v>
       </c>
       <c r="V201">
-        <v>-1.553735769850728</v>
+        <v>2.606944710397574</v>
       </c>
       <c r="W201">
         <v>128.18</v>
@@ -21128,7 +21128,7 @@
         <v>-1.320667004136822</v>
       </c>
       <c r="AG201">
-        <v>-3.773465130986742</v>
+        <v>2.47526311172992</v>
       </c>
     </row>
     <row r="202">
@@ -21180,25 +21180,25 @@
         <v>6.046468228048885</v>
       </c>
       <c r="P202">
-        <v>8.998849252013809</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q202">
-        <v>1.70649365681983</v>
+        <v>2.810318355713504</v>
       </c>
       <c r="R202">
-        <v>12.47578812700008</v>
+        <v>16.61087297567725</v>
       </c>
       <c r="S202">
-        <v>4.950814712139651</v>
+        <v>7.331884521455984</v>
       </c>
       <c r="T202">
-        <v>5972110.665298124</v>
+        <v>590686</v>
       </c>
       <c r="U202">
-        <v>5929371.046583577</v>
+        <v>580297.549292193</v>
       </c>
       <c r="V202">
-        <v>0.7208120115736794</v>
+        <v>1.790193792904704</v>
       </c>
       <c r="W202">
         <v>128.54</v>
@@ -21231,7 +21231,7 @@
         <v>-4.791816442904262</v>
       </c>
       <c r="AG202">
-        <v>-1.553735769850728</v>
+        <v>2.606944710397574</v>
       </c>
     </row>
     <row r="203">
@@ -21283,25 +21283,25 @@
         <v>6.743683666760591</v>
       </c>
       <c r="P203">
-        <v>9.396485867074103</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q203">
-        <v>2.748648320723324</v>
+        <v>3.486257332411169</v>
       </c>
       <c r="R203">
-        <v>13.39137084069539</v>
+        <v>18.53724179598873</v>
       </c>
       <c r="S203">
-        <v>6.500770959608704</v>
+        <v>10.32242985369458</v>
       </c>
       <c r="T203">
-        <v>6083625.434394665</v>
+        <v>585298</v>
       </c>
       <c r="U203">
-        <v>5960866.883076474</v>
+        <v>581069.7219570585</v>
       </c>
       <c r="V203">
-        <v>2.059407695661108</v>
+        <v>0.7276713762851994</v>
       </c>
       <c r="W203">
         <v>126.82</v>
@@ -21334,7 +21334,7 @@
         <v>-4.64544483988637</v>
       </c>
       <c r="AG203">
-        <v>0.7208120115736794</v>
+        <v>1.790193792904704</v>
       </c>
     </row>
     <row r="204">
@@ -21386,25 +21386,25 @@
         <v>7.318224740321067</v>
       </c>
       <c r="P204">
-        <v>9.790794979079498</v>
+        <v>10.18181818181818</v>
       </c>
       <c r="Q204">
-        <v>3.674027364569898</v>
+        <v>4.043265516353345</v>
       </c>
       <c r="R204">
-        <v>14.69248077155047</v>
+        <v>18.48511215840397</v>
       </c>
       <c r="S204">
-        <v>8.302625846601019</v>
+        <v>11.24483283845026</v>
       </c>
       <c r="T204">
-        <v>6213118.035882909</v>
+        <v>592322</v>
       </c>
       <c r="U204">
-        <v>5992492.363968211</v>
+        <v>581844.6274502219</v>
       </c>
       <c r="V204">
-        <v>3.681701344189947</v>
+        <v>1.80071655824896</v>
       </c>
       <c r="W204">
         <v>128.07</v>
@@ -21437,7 +21437,7 @@
         <v>-6.037725200986809</v>
       </c>
       <c r="AG204">
-        <v>2.059407695661108</v>
+        <v>0.7276713762851994</v>
       </c>
     </row>
     <row r="205">
@@ -21495,19 +21495,19 @@
         <v>4.151449269135243</v>
       </c>
       <c r="R205">
-        <v>15.69704637032965</v>
+        <v>17.75018462360354</v>
       </c>
       <c r="S205">
-        <v>9.364823112136911</v>
+        <v>11.03279832519191</v>
       </c>
       <c r="T205">
-        <v>6306298.326873995</v>
+        <v>620529</v>
       </c>
       <c r="U205">
-        <v>6024222.415099356</v>
+        <v>582621.4084481144</v>
       </c>
       <c r="V205">
-        <v>4.682362176197752</v>
+        <v>6.506384935777976</v>
       </c>
       <c r="W205">
         <v>129.09</v>
@@ -21540,7 +21540,7 @@
         <v>-5.226463848240314</v>
       </c>
       <c r="AG205">
-        <v>3.681701344189947</v>
+        <v>1.80071655824896</v>
       </c>
     </row>
     <row r="206">
@@ -21592,25 +21592,25 @@
         <v>7.450127635435377</v>
       </c>
       <c r="P206">
-        <v>9.930889423076923</v>
+        <v>9.202813599062141</v>
       </c>
       <c r="Q206">
-        <v>3.933903207976663</v>
+        <v>3.245545616963352</v>
       </c>
       <c r="R206">
-        <v>16.19380486232415</v>
+        <v>17.7302649047</v>
       </c>
       <c r="S206">
-        <v>9.855162014110007</v>
+        <v>11.25555268758202</v>
       </c>
       <c r="T206">
-        <v>6379579.275787084</v>
+        <v>616368</v>
       </c>
       <c r="U206">
-        <v>6056033.664669059</v>
+        <v>583399.288471091</v>
       </c>
       <c r="V206">
-        <v>5.342533232693092</v>
+        <v>5.651140167707402</v>
       </c>
       <c r="W206">
         <v>130</v>
@@ -21643,7 +21643,7 @@
         <v>-4.585262708670934</v>
       </c>
       <c r="AG206">
-        <v>4.682362176197752</v>
+        <v>6.506384935777976</v>
       </c>
     </row>
     <row r="207">
@@ -21695,25 +21695,25 @@
         <v>7.623106060606055</v>
       </c>
       <c r="P207">
-        <v>9.68414779499404</v>
+        <v>8.286038592508506</v>
       </c>
       <c r="Q207">
-        <v>3.867564199804963</v>
+        <v>2.543597151996702</v>
       </c>
       <c r="R207">
-        <v>16.38397549311939</v>
+        <v>15.5483261949899</v>
       </c>
       <c r="S207">
-        <v>10.2120980048479</v>
+        <v>9.29850032915205</v>
       </c>
       <c r="T207">
-        <v>6457245.265151515</v>
+        <v>606011</v>
       </c>
       <c r="U207">
-        <v>6087904.917388136</v>
+        <v>584177.7835363549</v>
       </c>
       <c r="V207">
-        <v>6.066789031288522</v>
+        <v>3.737426701076596</v>
       </c>
       <c r="W207">
         <v>128.63</v>
@@ -21746,7 +21746,7 @@
         <v>-4.025278424845247</v>
       </c>
       <c r="AG207">
-        <v>5.342533232693092</v>
+        <v>5.651140167707402</v>
       </c>
     </row>
     <row r="208">
@@ -21798,25 +21798,25 @@
         <v>8.600095556617294</v>
       </c>
       <c r="P208">
-        <v>9.441489361702128</v>
+        <v>7.425742574257425</v>
       </c>
       <c r="Q208">
-        <v>4.578585152128167</v>
+        <v>2.652405708798322</v>
       </c>
       <c r="R208">
-        <v>16.08896899414095</v>
+        <v>14.08882448010783</v>
       </c>
       <c r="S208">
-        <v>10.9306918243105</v>
+        <v>8.310033681543146</v>
       </c>
       <c r="T208">
-        <v>6578163.401815576</v>
+        <v>583008</v>
       </c>
       <c r="U208">
-        <v>6119817.474461319</v>
+        <v>584956.6640493161</v>
       </c>
       <c r="V208">
-        <v>7.489535909640854</v>
+        <v>-0.3331296434553987</v>
       </c>
       <c r="W208">
         <v>128.04</v>
@@ -21849,7 +21849,7 @@
         <v>-5.146743279290544</v>
       </c>
       <c r="AG208">
-        <v>6.066789031288522</v>
+        <v>3.737426701076596</v>
       </c>
     </row>
     <row r="209">
@@ -21901,25 +21901,25 @@
         <v>9.090036475331154</v>
       </c>
       <c r="P209">
-        <v>9.202813599062134</v>
+        <v>7.425742574257425</v>
       </c>
       <c r="Q209">
-        <v>4.821283930756515</v>
+        <v>3.115514085484183</v>
       </c>
       <c r="R209">
-        <v>15.48597292377444</v>
+        <v>11.11289297300222</v>
       </c>
       <c r="S209">
-        <v>10.85234490667542</v>
+        <v>6.019484911074961</v>
       </c>
       <c r="T209">
-        <v>6642569.59109234</v>
+        <v>580022</v>
       </c>
       <c r="U209">
-        <v>6151755.486941697</v>
+        <v>585735.8688815604</v>
       </c>
       <c r="V209">
-        <v>7.978439734682108</v>
+        <v>-0.9755026429354219</v>
       </c>
       <c r="W209">
         <v>123.68</v>
@@ -21952,7 +21952,7 @@
         <v>-5.690287430297458</v>
       </c>
       <c r="AG209">
-        <v>7.489535909640854</v>
+        <v>-0.3331296434553987</v>
       </c>
     </row>
     <row r="210">
@@ -22004,25 +22004,25 @@
         <v>9.341928035405033</v>
       </c>
       <c r="P210">
-        <v>9.098837209302326</v>
+        <v>7.920792079207921</v>
       </c>
       <c r="Q210">
-        <v>4.963283826536768</v>
+        <v>3.82989424591873</v>
       </c>
       <c r="R210">
-        <v>14.07690817337797</v>
+        <v>8.344674822636437</v>
       </c>
       <c r="S210">
-        <v>9.75265362072153</v>
+        <v>3.922630066575202</v>
       </c>
       <c r="T210">
-        <v>6690090.436790455</v>
+        <v>585524</v>
       </c>
       <c r="U210">
-        <v>6183706.642502178</v>
+        <v>586515.3218686861</v>
       </c>
       <c r="V210">
-        <v>8.189000927174849</v>
+        <v>-0.1690189210279636</v>
       </c>
       <c r="W210">
         <v>121.49</v>
@@ -22055,7 +22055,7 @@
         <v>-9.00574098382706</v>
       </c>
       <c r="AG210">
-        <v>7.978439734682108</v>
+        <v>-0.9755026429354219</v>
       </c>
     </row>
     <row r="211">
@@ -22107,25 +22107,25 @@
         <v>10.1686700271423</v>
       </c>
       <c r="P211">
-        <v>8.996539792387544</v>
+        <v>8.415841584158416</v>
       </c>
       <c r="Q211">
-        <v>5.657754742523791</v>
+        <v>5.094844498020956</v>
       </c>
       <c r="R211">
-        <v>14.14694370799039</v>
+        <v>8.736336520352165</v>
       </c>
       <c r="S211">
-        <v>10.65039134159596</v>
+        <v>4.797233039699563</v>
       </c>
       <c r="T211">
-        <v>6814142.109344707</v>
+        <v>603871</v>
       </c>
       <c r="U211">
-        <v>6215662.415961527</v>
+        <v>587294.9027577966</v>
       </c>
       <c r="V211">
-        <v>9.628574612519358</v>
+        <v>2.82244868197663</v>
       </c>
       <c r="W211">
         <v>117.47</v>
@@ -22158,7 +22158,7 @@
         <v>-10.71866854471381</v>
       </c>
       <c r="AG211">
-        <v>8.189000927174849</v>
+        <v>-0.1690189210279636</v>
       </c>
     </row>
   </sheetData>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -589,16 +589,16 @@
         <v>11.75884799774394</v>
       </c>
       <c r="S2">
-        <v>5.564394467615775</v>
+        <v>5.732117311016038</v>
       </c>
       <c r="T2">
-        <v>333081</v>
+        <v>315683.5</v>
       </c>
       <c r="U2">
-        <v>317328.1803895239</v>
+        <v>308017.9687123555</v>
       </c>
       <c r="V2">
-        <v>4.964204436914277</v>
+        <v>2.488663671048053</v>
       </c>
       <c r="W2">
         <v>100.68</v>
@@ -631,7 +631,7 @@
         <v>2.147821684794038</v>
       </c>
       <c r="AG2">
-        <v>4.887707845707245</v>
+        <v>2.754730049206433</v>
       </c>
     </row>
     <row r="3">
@@ -692,16 +692,16 @@
         <v>9.527556966390492</v>
       </c>
       <c r="S3">
-        <v>3.686143187806338</v>
+        <v>3.807749944451233</v>
       </c>
       <c r="T3">
-        <v>323873</v>
+        <v>316643</v>
       </c>
       <c r="U3">
-        <v>319671.0472599593</v>
+        <v>310239.4551346438</v>
       </c>
       <c r="V3">
-        <v>1.314461467829986</v>
+        <v>2.064065275829319</v>
       </c>
       <c r="W3">
         <v>95.44</v>
@@ -734,7 +734,7 @@
         <v>2.313721403857727</v>
       </c>
       <c r="AG3">
-        <v>4.964204436914277</v>
+        <v>2.488663671048053</v>
       </c>
     </row>
     <row r="4">
@@ -795,16 +795,16 @@
         <v>10.32920951594311</v>
       </c>
       <c r="S4">
-        <v>4.567979186570445</v>
+        <v>4.756180702566581</v>
       </c>
       <c r="T4">
-        <v>316315</v>
+        <v>317794.5</v>
       </c>
       <c r="U4">
-        <v>322014.2732658498</v>
+        <v>312461.1307025342</v>
       </c>
       <c r="V4">
-        <v>-1.769882188155236</v>
+        <v>1.706890481217394</v>
       </c>
       <c r="W4">
         <v>95.29000000000001</v>
@@ -837,7 +837,7 @@
         <v>-2.640109410945868</v>
       </c>
       <c r="AG4">
-        <v>1.314461467829986</v>
+        <v>2.064065275829319</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>8.868869965225487</v>
       </c>
       <c r="S5">
-        <v>3.532924310736676</v>
+        <v>4.051295006427869</v>
       </c>
       <c r="T5">
-        <v>309316</v>
+        <v>318674.0833333333</v>
       </c>
       <c r="U5">
-        <v>324358.1311721649</v>
+        <v>314683.1689727054</v>
       </c>
       <c r="V5">
-        <v>-4.637507041308231</v>
+        <v>1.268232544389436</v>
       </c>
       <c r="W5">
         <v>95.14</v>
@@ -940,7 +940,7 @@
         <v>-2.419714768403203</v>
       </c>
       <c r="AG5">
-        <v>-1.769882188155236</v>
+        <v>1.706890481217394</v>
       </c>
     </row>
     <row r="6">
@@ -1001,16 +1001,16 @@
         <v>9.647101351046045</v>
       </c>
       <c r="S6">
-        <v>4.699905261331946</v>
+        <v>5.197257364526586</v>
       </c>
       <c r="T6">
-        <v>313861</v>
+        <v>319848.1666666667</v>
       </c>
       <c r="U6">
-        <v>326702.8497680001</v>
+        <v>316905.7846543766</v>
       </c>
       <c r="V6">
-        <v>-3.930743113235591</v>
+        <v>0.9284721689441833</v>
       </c>
       <c r="W6">
         <v>99.31</v>
@@ -1043,7 +1043,7 @@
         <v>-2.197684964365376</v>
       </c>
       <c r="AG6">
-        <v>-4.637507041308231</v>
+        <v>1.268232544389436</v>
       </c>
     </row>
     <row r="7">
@@ -1104,16 +1104,16 @@
         <v>9.229938042995199</v>
       </c>
       <c r="S7">
-        <v>4.730749223765537</v>
+        <v>4.998498551374775</v>
       </c>
       <c r="T7">
-        <v>324149</v>
+        <v>321068.3333333333</v>
       </c>
       <c r="U7">
-        <v>329048.5417766238</v>
+        <v>319129.2232508594</v>
       </c>
       <c r="V7">
-        <v>-1.489002731988953</v>
+        <v>0.6076253571267731</v>
       </c>
       <c r="W7">
         <v>102.35</v>
@@ -1146,7 +1146,7 @@
         <v>2.484075628600824</v>
       </c>
       <c r="AG7">
-        <v>-3.930743113235591</v>
+        <v>0.9284721689441833</v>
       </c>
     </row>
     <row r="8">
@@ -1207,16 +1207,16 @@
         <v>9.093671142468922</v>
       </c>
       <c r="S8">
-        <v>4.822636751158218</v>
+        <v>4.928028414416574</v>
       </c>
       <c r="T8">
-        <v>334184</v>
+        <v>322349.5833333333</v>
       </c>
       <c r="U8">
-        <v>331395.2208329577</v>
+        <v>321353.7529690305</v>
       </c>
       <c r="V8">
-        <v>0.8415266701893742</v>
+        <v>0.3098860228337941</v>
       </c>
       <c r="W8">
         <v>100.12</v>
@@ -1249,7 +1249,7 @@
         <v>6.031522959779978</v>
       </c>
       <c r="AG8">
-        <v>-1.489002731988953</v>
+        <v>0.6076253571267731</v>
       </c>
     </row>
     <row r="9">
@@ -1310,16 +1310,16 @@
         <v>8.716751438339031</v>
       </c>
       <c r="S9">
-        <v>4.588559477189085</v>
+        <v>4.696409320434358</v>
       </c>
       <c r="T9">
-        <v>337045</v>
+        <v>323581.8333333333</v>
       </c>
       <c r="U9">
-        <v>333742.8627668168</v>
+        <v>323579.6569780355</v>
       </c>
       <c r="V9">
-        <v>0.989425573271463</v>
+        <v>0.0006725871824597718</v>
       </c>
       <c r="W9">
         <v>99.2</v>
@@ -1352,7 +1352,7 @@
         <v>4.125745800514569</v>
       </c>
       <c r="AG9">
-        <v>0.8415266701893742</v>
+        <v>0.3098860228337941</v>
       </c>
     </row>
     <row r="10">
@@ -1413,16 +1413,16 @@
         <v>10.68330722719081</v>
       </c>
       <c r="S10">
-        <v>6.59496383437337</v>
+        <v>6.734143902787681</v>
       </c>
       <c r="T10">
-        <v>339247</v>
+        <v>325330.9166666667</v>
       </c>
       <c r="U10">
-        <v>336091.4649263737</v>
+        <v>325807.2261308972</v>
       </c>
       <c r="V10">
-        <v>0.9388917610024805</v>
+        <v>-0.1461936464353109</v>
       </c>
       <c r="W10">
         <v>99.14</v>
@@ -1455,7 +1455,7 @@
         <v>3.572707506505246</v>
       </c>
       <c r="AG10">
-        <v>0.989425573271463</v>
+        <v>0.0006725871824597718</v>
       </c>
     </row>
     <row r="11">
@@ -1516,16 +1516,16 @@
         <v>11.24774263995632</v>
       </c>
       <c r="S11">
-        <v>7.381215400061055</v>
+        <v>7.735563277122148</v>
       </c>
       <c r="T11">
-        <v>341192</v>
+        <v>327285.3333333333</v>
       </c>
       <c r="U11">
-        <v>338441.0501392561</v>
+        <v>328036.7512974296</v>
       </c>
       <c r="V11">
-        <v>0.8128298442556137</v>
+        <v>-0.2290651767292373</v>
       </c>
       <c r="W11">
         <v>97.72</v>
@@ -1558,7 +1558,7 @@
         <v>3.916593043134031</v>
       </c>
       <c r="AG11">
-        <v>0.9388917610024805</v>
+        <v>-0.1461936464353109</v>
       </c>
     </row>
     <row r="12">
@@ -1619,16 +1619,16 @@
         <v>11.05317783970645</v>
       </c>
       <c r="S12">
-        <v>7.478908799802944</v>
+        <v>7.797687672011699</v>
       </c>
       <c r="T12">
-        <v>349070</v>
+        <v>329309.5</v>
       </c>
       <c r="U12">
-        <v>340791.6655813551</v>
+        <v>330268.5196722201</v>
       </c>
       <c r="V12">
-        <v>2.429148143785409</v>
+        <v>-0.2903757443100896</v>
       </c>
       <c r="W12">
         <v>98.62</v>
@@ -1661,7 +1661,7 @@
         <v>2.831770814488022</v>
       </c>
       <c r="AG12">
-        <v>0.8128298442556137</v>
+        <v>-0.2290651767292373</v>
       </c>
     </row>
     <row r="13">
@@ -1722,16 +1722,16 @@
         <v>9.506955041906025</v>
       </c>
       <c r="S13">
-        <v>6.171662414000805</v>
+        <v>6.173119102100055</v>
       </c>
       <c r="T13">
-        <v>350771</v>
+        <v>331008.6666666667</v>
       </c>
       <c r="U13">
-        <v>343143.3796550274</v>
+        <v>332502.8126518784</v>
       </c>
       <c r="V13">
-        <v>2.222866823961733</v>
+        <v>-0.4493634123859391</v>
       </c>
       <c r="W13">
         <v>99.29000000000001</v>
@@ -1764,7 +1764,7 @@
         <v>4.188963634368825</v>
       </c>
       <c r="AG13">
-        <v>2.429148143785409</v>
+        <v>-0.2903757443100896</v>
       </c>
     </row>
     <row r="14">
@@ -1825,16 +1825,16 @@
         <v>9.440523597366242</v>
       </c>
       <c r="S14">
-        <v>6.202695440448419</v>
+        <v>6.263252352040238</v>
       </c>
       <c r="T14">
-        <v>353741</v>
+        <v>332730.3333333333</v>
       </c>
       <c r="U14">
-        <v>345496.3246386665</v>
+        <v>334739.9042331704</v>
       </c>
       <c r="V14">
-        <v>2.386327950074763</v>
+        <v>-0.600338016001023</v>
       </c>
       <c r="W14">
         <v>97.84999999999999</v>
@@ -1867,7 +1867,7 @@
         <v>5.312380888049084</v>
       </c>
       <c r="AG14">
-        <v>2.222866823961733</v>
+        <v>-0.4493634123859391</v>
       </c>
     </row>
     <row r="15">
@@ -1928,16 +1928,16 @@
         <v>10.89869861465431</v>
       </c>
       <c r="S15">
-        <v>7.61718327863082</v>
+        <v>7.647736958507378</v>
       </c>
       <c r="T15">
-        <v>348543</v>
+        <v>334786.1666666667</v>
       </c>
       <c r="U15">
-        <v>347850.6916657611</v>
+        <v>336980.0568839583</v>
       </c>
       <c r="V15">
-        <v>0.199024567386541</v>
+        <v>-0.6510445269605758</v>
       </c>
       <c r="W15">
         <v>95.84999999999999</v>
@@ -1970,7 +1970,7 @@
         <v>4.197063809179302</v>
       </c>
       <c r="AG15">
-        <v>2.386327950074763</v>
+        <v>-0.600338016001023</v>
       </c>
     </row>
     <row r="16">
@@ -2031,16 +2031,16 @@
         <v>12.41186971938167</v>
       </c>
       <c r="S16">
-        <v>9.149739974392615</v>
+        <v>9.180137645087072</v>
       </c>
       <c r="T16">
-        <v>345257</v>
+        <v>337198</v>
       </c>
       <c r="U16">
-        <v>350206.7354861226</v>
+        <v>339223.517566156</v>
       </c>
       <c r="V16">
-        <v>-1.4133752965236</v>
+        <v>-0.5971041102010188</v>
       </c>
       <c r="W16">
         <v>96.14</v>
@@ -2073,7 +2073,7 @@
         <v>2.473136313262159</v>
       </c>
       <c r="AG16">
-        <v>0.199024567386541</v>
+        <v>-0.6510445269605758</v>
       </c>
     </row>
     <row r="17">
@@ -2134,16 +2134,16 @@
         <v>13.68796109993293</v>
       </c>
       <c r="S17">
-        <v>10.38646562091841</v>
+        <v>10.3766612620708</v>
       </c>
       <c r="T17">
-        <v>341443</v>
+        <v>339875.25</v>
       </c>
       <c r="U17">
-        <v>352564.716191447</v>
+        <v>341470.5163135114</v>
       </c>
       <c r="V17">
-        <v>-3.154517647593458</v>
+        <v>-0.4671754184618071</v>
       </c>
       <c r="W17">
         <v>94.59</v>
@@ -2176,7 +2176,7 @@
         <v>3.192150093177903</v>
       </c>
       <c r="AG17">
-        <v>-1.4133752965236</v>
+        <v>-0.5971041102010188</v>
       </c>
     </row>
     <row r="18">
@@ -2237,16 +2237,16 @@
         <v>13.35036676831781</v>
       </c>
       <c r="S18">
-        <v>9.999012301623967</v>
+        <v>9.856916813643934</v>
       </c>
       <c r="T18">
-        <v>345244</v>
+        <v>342490.5</v>
       </c>
       <c r="U18">
-        <v>354924.8556810276</v>
+        <v>343721.2675307798</v>
       </c>
       <c r="V18">
-        <v>-2.727578958214127</v>
+        <v>-0.358071393027648</v>
       </c>
       <c r="W18">
         <v>92.5</v>
@@ -2279,7 +2279,7 @@
         <v>1.932461953498743</v>
       </c>
       <c r="AG18">
-        <v>-3.154517647593458</v>
+        <v>-0.4671754184618071</v>
       </c>
     </row>
     <row r="19">
@@ -2340,16 +2340,16 @@
         <v>12.18996561600013</v>
       </c>
       <c r="S19">
-        <v>8.615790886289947</v>
+        <v>8.197478653679369</v>
       </c>
       <c r="T19">
-        <v>352077</v>
+        <v>344817.8333333333</v>
       </c>
       <c r="U19">
-        <v>357287.2900384456</v>
+        <v>345975.9733135627</v>
       </c>
       <c r="V19">
-        <v>-1.45829146004185</v>
+        <v>-0.3347457828176359</v>
       </c>
       <c r="W19">
         <v>90.12</v>
@@ -2382,7 +2382,7 @@
         <v>0.07658804242725026</v>
       </c>
       <c r="AG19">
-        <v>-2.727578958214127</v>
+        <v>-0.358071393027648</v>
       </c>
     </row>
     <row r="20">
@@ -2443,16 +2443,16 @@
         <v>11.30399801955688</v>
       </c>
       <c r="S20">
-        <v>7.500059847269767</v>
+        <v>7.291303276997185</v>
       </c>
       <c r="T20">
-        <v>359248</v>
+        <v>346906.5</v>
       </c>
       <c r="U20">
-        <v>359652.0806493226</v>
+        <v>348234.8262607981</v>
       </c>
       <c r="V20">
-        <v>-0.1123532077426215</v>
+        <v>-0.3814455535826711</v>
       </c>
       <c r="W20">
         <v>88.84</v>
@@ -2485,7 +2485,7 @@
         <v>-2.111277747214257</v>
       </c>
       <c r="AG20">
-        <v>-1.45829146004185</v>
+        <v>-0.3347457828176359</v>
       </c>
     </row>
     <row r="21">
@@ -2546,16 +2546,16 @@
         <v>11.92400908086882</v>
       </c>
       <c r="S21">
-        <v>7.75415745671943</v>
+        <v>7.433297255585347</v>
       </c>
       <c r="T21">
-        <v>363180</v>
+        <v>349084.4166666667</v>
       </c>
       <c r="U21">
-        <v>362019.2486964239</v>
+        <v>350498.0100351587</v>
       </c>
       <c r="V21">
-        <v>0.3206324823212592</v>
+        <v>-0.4033099555544539</v>
       </c>
       <c r="W21">
         <v>92.25</v>
@@ -2588,7 +2588,7 @@
         <v>-3.119472548182889</v>
       </c>
       <c r="AG21">
-        <v>-0.1123532077426215</v>
+        <v>-0.3814455535826711</v>
       </c>
     </row>
     <row r="22">
@@ -2649,16 +2649,16 @@
         <v>11.54209020634244</v>
       </c>
       <c r="S22">
-        <v>7.229245947642868</v>
+        <v>7.097542204841512</v>
       </c>
       <c r="T22">
-        <v>363772</v>
+        <v>351128.1666666667</v>
       </c>
       <c r="U22">
-        <v>364388.8122446092</v>
+        <v>352765.6980498864</v>
       </c>
       <c r="V22">
-        <v>-0.1692731016656901</v>
+        <v>-0.4641980193290207</v>
       </c>
       <c r="W22">
         <v>89.92</v>
@@ -2691,7 +2691,7 @@
         <v>0.9962117170522644</v>
       </c>
       <c r="AG22">
-        <v>0.3206324823212592</v>
+        <v>-0.4033099555544539</v>
       </c>
     </row>
     <row r="23">
@@ -2752,16 +2752,16 @@
         <v>11.47260015402504</v>
       </c>
       <c r="S23">
-        <v>7.034748763159746</v>
+        <v>7.061659771441642</v>
       </c>
       <c r="T23">
-        <v>365194</v>
+        <v>353128.3333333333</v>
       </c>
       <c r="U23">
-        <v>366760.798315153</v>
+        <v>355038.052810867</v>
       </c>
       <c r="V23">
-        <v>-0.4271989597445125</v>
+        <v>-0.537891491465281</v>
       </c>
       <c r="W23">
         <v>86.17</v>
@@ -2794,7 +2794,7 @@
         <v>-1.167746285813553</v>
       </c>
       <c r="AG23">
-        <v>-0.1692731016656901</v>
+        <v>-0.4641980193290207</v>
       </c>
     </row>
     <row r="24">
@@ -2855,16 +2855,16 @@
         <v>10.44242317202402</v>
       </c>
       <c r="S24">
-        <v>6.041768126736757</v>
+        <v>6.00098202516941</v>
       </c>
       <c r="T24">
-        <v>370160</v>
+        <v>354885.8333333333</v>
       </c>
       <c r="U24">
-        <v>369135.2291699749</v>
+        <v>357315.2241887128</v>
       </c>
       <c r="V24">
-        <v>0.2776139336062355</v>
+        <v>-0.6799013002861565</v>
       </c>
       <c r="W24">
         <v>86.19</v>
@@ -2897,7 +2897,7 @@
         <v>-4.919011502511717</v>
       </c>
       <c r="AG24">
-        <v>-0.4271989597445125</v>
+        <v>-0.537891491465281</v>
       </c>
     </row>
     <row r="25">
@@ -2958,16 +2958,16 @@
         <v>13.41675178753831</v>
       </c>
       <c r="S25">
-        <v>8.788639881860245</v>
+        <v>8.574336384777247</v>
       </c>
       <c r="T25">
-        <v>381599</v>
+        <v>357454.8333333333</v>
       </c>
       <c r="U25">
-        <v>371512.1149815018</v>
+        <v>359597.3473185467</v>
       </c>
       <c r="V25">
-        <v>2.715089121387182</v>
+        <v>-0.5958091741192439</v>
       </c>
       <c r="W25">
         <v>86.66</v>
@@ -3000,7 +3000,7 @@
         <v>-4.527176116206311</v>
       </c>
       <c r="AG25">
-        <v>0.2776139336062355</v>
+        <v>-0.6799013002861565</v>
       </c>
     </row>
     <row r="26">
@@ -3061,16 +3061,16 @@
         <v>12.55088733094598</v>
       </c>
       <c r="S26">
-        <v>7.80401480179001</v>
+        <v>7.642394157369914</v>
       </c>
       <c r="T26">
-        <v>381347</v>
+        <v>359755.3333333333</v>
       </c>
       <c r="U26">
-        <v>373891.4738293436</v>
+        <v>361884.5385901919</v>
       </c>
       <c r="V26">
-        <v>1.99403481825835</v>
+        <v>-0.5883659095117455</v>
       </c>
       <c r="W26">
         <v>86.19</v>
@@ -3103,7 +3103,7 @@
         <v>-3.635803900798873</v>
       </c>
       <c r="AG26">
-        <v>2.715089121387182</v>
+        <v>-0.5958091741192439</v>
       </c>
     </row>
     <row r="27">
@@ -3164,16 +3164,16 @@
         <v>12.92877526061383</v>
       </c>
       <c r="S27">
-        <v>8.020531182666128</v>
+        <v>7.952179773075052</v>
       </c>
       <c r="T27">
-        <v>376498</v>
+        <v>362084.9166666667</v>
       </c>
       <c r="U27">
-        <v>376273.4016240126</v>
+        <v>364176.8978617277</v>
       </c>
       <c r="V27">
-        <v>0.0596902079759154</v>
+        <v>-0.5744409399234596</v>
       </c>
       <c r="W27">
         <v>85.36</v>
@@ -3206,7 +3206,7 @@
         <v>-3.790990612836065</v>
       </c>
       <c r="AG27">
-        <v>1.99403481825835</v>
+        <v>-0.5883659095117455</v>
       </c>
     </row>
     <row r="28">
@@ -3267,16 +3267,16 @@
         <v>10.15881147540984</v>
       </c>
       <c r="S28">
-        <v>5.27983502144779</v>
+        <v>5.183625967163041</v>
       </c>
       <c r="T28">
-        <v>363486</v>
+        <v>363604</v>
       </c>
       <c r="U28">
-        <v>378658.0518032289</v>
+        <v>366474.508562181</v>
       </c>
       <c r="V28">
-        <v>-4.006794977943073</v>
+        <v>-0.7832764612859644</v>
       </c>
       <c r="W28">
         <v>86.31999999999999</v>
@@ -3309,7 +3309,7 @@
         <v>-4.355101667025618</v>
       </c>
       <c r="AG28">
-        <v>0.0596902079759154</v>
+        <v>-0.5744409399234596</v>
       </c>
     </row>
     <row r="29">
@@ -3370,16 +3370,16 @@
         <v>11.26711747918618</v>
       </c>
       <c r="S29">
-        <v>6.176433548205703</v>
+        <v>5.928329664114806</v>
       </c>
       <c r="T29">
-        <v>362532</v>
+        <v>365361.4166666667</v>
       </c>
       <c r="U29">
-        <v>381045.5795377253</v>
+        <v>368777.4379787469</v>
       </c>
       <c r="V29">
-        <v>-4.858625983848297</v>
+        <v>-0.9263097359760608</v>
       </c>
       <c r="W29">
         <v>85.97</v>
@@ -3412,7 +3412,7 @@
         <v>-2.914768319848104</v>
       </c>
       <c r="AG29">
-        <v>-4.006794977943073</v>
+        <v>-0.7832764612859644</v>
       </c>
     </row>
     <row r="30">
@@ -3473,16 +3473,16 @@
         <v>12.05863533244139</v>
       </c>
       <c r="S30">
-        <v>6.604893930090023</v>
+        <v>6.136233502975363</v>
       </c>
       <c r="T30">
-        <v>368047</v>
+        <v>367261.6666666667</v>
       </c>
       <c r="U30">
-        <v>383436.0229299334</v>
+        <v>371085.7312496368</v>
       </c>
       <c r="V30">
-        <v>-4.013452573480691</v>
+        <v>-1.030507039462958</v>
       </c>
       <c r="W30">
         <v>84.12</v>
@@ -3515,7 +3515,7 @@
         <v>-2.947208417488556</v>
       </c>
       <c r="AG30">
-        <v>-4.858625983848297</v>
+        <v>-0.9263097359760608</v>
       </c>
     </row>
     <row r="31">
@@ -3576,16 +3576,16 @@
         <v>13.34077608459137</v>
       </c>
       <c r="S31">
-        <v>7.37083081257793</v>
+        <v>6.864770964163092</v>
       </c>
       <c r="T31">
-        <v>378028</v>
+        <v>369424.25</v>
       </c>
       <c r="U31">
-        <v>385829.2772305909</v>
+        <v>373399.4071548713</v>
       </c>
       <c r="V31">
-        <v>-2.021950559736407</v>
+        <v>-1.064585823839459</v>
       </c>
       <c r="W31">
         <v>82.11</v>
@@ -3618,7 +3618,7 @@
         <v>-4.68437775826559</v>
       </c>
       <c r="AG31">
-        <v>-4.013452573480691</v>
+        <v>-1.030507039462958</v>
       </c>
     </row>
     <row r="32">
@@ -3679,16 +3679,16 @@
         <v>14.88364980955823</v>
       </c>
       <c r="S32">
-        <v>8.379169821404712</v>
+        <v>8.003807285473563</v>
       </c>
       <c r="T32">
-        <v>389350</v>
+        <v>371932.75</v>
       </c>
       <c r="U32">
-        <v>388225.1189479745</v>
+        <v>375718.4549678005</v>
       </c>
       <c r="V32">
-        <v>0.289749683140994</v>
+        <v>-1.007590901576816</v>
       </c>
       <c r="W32">
         <v>81.06</v>
@@ -3721,7 +3721,7 @@
         <v>-6.621183952619347</v>
       </c>
       <c r="AG32">
-        <v>-2.021950559736407</v>
+        <v>-1.064585823839459</v>
       </c>
     </row>
     <row r="33">
@@ -3782,16 +3782,16 @@
         <v>15.77252263055828</v>
       </c>
       <c r="S33">
-        <v>9.016465664408834</v>
+        <v>9.044478318318049</v>
       </c>
       <c r="T33">
-        <v>395926</v>
+        <v>374661.5833333333</v>
       </c>
       <c r="U33">
-        <v>390623.2643953207</v>
+        <v>378042.8332892656</v>
       </c>
       <c r="V33">
-        <v>1.357506346399462</v>
+        <v>-0.8944092198528986</v>
       </c>
       <c r="W33">
         <v>80.55</v>
@@ -3824,7 +3824,7 @@
         <v>-7.481254246384095</v>
       </c>
       <c r="AG33">
-        <v>0.289749683140994</v>
+        <v>-1.007590901576816</v>
       </c>
     </row>
     <row r="34">
@@ -3885,16 +3885,16 @@
         <v>15.83266258304798</v>
       </c>
       <c r="S34">
-        <v>9.008114973115028</v>
+        <v>9.018976548751034</v>
       </c>
       <c r="T34">
-        <v>396541</v>
+        <v>377392.3333333333</v>
       </c>
       <c r="U34">
-        <v>393023.4385655036</v>
+        <v>380372.4715094218</v>
       </c>
       <c r="V34">
-        <v>0.8950004221975005</v>
+        <v>-0.7834789316541468</v>
       </c>
       <c r="W34">
         <v>87.61</v>
@@ -3927,7 +3927,7 @@
         <v>-7.733799695745846</v>
       </c>
       <c r="AG34">
-        <v>1.357506346399462</v>
+        <v>-0.8944092198528986</v>
       </c>
     </row>
     <row r="35">
@@ -3988,16 +3988,16 @@
         <v>14.87459445546969</v>
       </c>
       <c r="S35">
-        <v>8.092137329748024</v>
+        <v>7.95469829477462</v>
       </c>
       <c r="T35">
-        <v>394746</v>
+        <v>379855</v>
       </c>
       <c r="U35">
-        <v>395425.4073675672</v>
+        <v>382707.2729285315</v>
       </c>
       <c r="V35">
-        <v>-0.171816821809756</v>
+        <v>-0.7452884045566988</v>
       </c>
       <c r="W35">
         <v>100.24</v>
@@ -4030,7 +4030,7 @@
         <v>0.7089100726747288</v>
       </c>
       <c r="AG35">
-        <v>0.8950004221975005</v>
+        <v>-0.7834789316541468</v>
       </c>
     </row>
     <row r="36">
@@ -4091,16 +4091,16 @@
         <v>14.57308866056317</v>
       </c>
       <c r="S36">
-        <v>7.732602118003026</v>
+        <v>7.691595695613462</v>
       </c>
       <c r="T36">
-        <v>398783</v>
+        <v>382240.25</v>
       </c>
       <c r="U36">
-        <v>397828.963852233</v>
+        <v>385047.1178519648</v>
       </c>
       <c r="V36">
-        <v>0.2398106308120207</v>
+        <v>-0.7289673709605315</v>
       </c>
       <c r="W36">
         <v>100.66</v>
@@ -4133,7 +4133,7 @@
         <v>15.63142437122076</v>
       </c>
       <c r="AG36">
-        <v>-0.171816821809756</v>
+        <v>-0.7452884045566988</v>
       </c>
     </row>
     <row r="37">
@@ -4194,16 +4194,16 @@
         <v>13.61990106079808</v>
       </c>
       <c r="S37">
-        <v>6.954682795290344</v>
+        <v>7.289802701414616</v>
       </c>
       <c r="T37">
-        <v>408138</v>
+        <v>384451.8333333333</v>
       </c>
       <c r="U37">
-        <v>400233.895827882</v>
+        <v>387391.864576812</v>
       </c>
       <c r="V37">
-        <v>1.974871257660071</v>
+        <v>-0.7589295264861406</v>
       </c>
       <c r="W37">
         <v>107.19</v>
@@ -4236,7 +4236,7 @@
         <v>16.51882969367133</v>
       </c>
       <c r="AG37">
-        <v>0.2398106308120207</v>
+        <v>-0.7289673709605315</v>
       </c>
     </row>
     <row r="38">
@@ -4297,16 +4297,16 @@
         <v>13.95016836741226</v>
       </c>
       <c r="S38">
-        <v>7.457774677655784</v>
+        <v>7.662668525521799</v>
       </c>
       <c r="T38">
-        <v>409787</v>
+        <v>386821.8333333333</v>
       </c>
       <c r="U38">
-        <v>402639.9984642852</v>
+        <v>389741.3497422339</v>
       </c>
       <c r="V38">
-        <v>1.77503515869617</v>
+        <v>-0.7490907523236778</v>
       </c>
       <c r="W38">
         <v>101.33</v>
@@ -4339,7 +4339,7 @@
         <v>24.50344500620496</v>
       </c>
       <c r="AG38">
-        <v>1.974871257660071</v>
+        <v>-0.7589295264861406</v>
       </c>
     </row>
     <row r="39">
@@ -4400,16 +4400,16 @@
         <v>13.24196792326337</v>
       </c>
       <c r="S39">
-        <v>6.951696954565496</v>
+        <v>6.932925328860606</v>
       </c>
       <c r="T39">
-        <v>402671</v>
+        <v>389002.9166666667</v>
       </c>
       <c r="U39">
-        <v>405047.1279196716</v>
+        <v>392095.3873019638</v>
       </c>
       <c r="V39">
-        <v>-0.586629988435039</v>
+        <v>-0.7887036510622059</v>
       </c>
       <c r="W39">
         <v>99.54000000000001</v>
@@ -4442,7 +4442,7 @@
         <v>18.09616708402857</v>
       </c>
       <c r="AG39">
-        <v>1.77503515869617</v>
+        <v>-0.7490907523236778</v>
       </c>
     </row>
     <row r="40">
@@ -4503,16 +4503,16 @@
         <v>14.83381056463882</v>
       </c>
       <c r="S40">
-        <v>8.556588149199694</v>
+        <v>8.733842026928151</v>
       </c>
       <c r="T40">
-        <v>394588</v>
+        <v>391594.75</v>
       </c>
       <c r="U40">
-        <v>407455.1954988872</v>
+        <v>394453.7686826026</v>
       </c>
       <c r="V40">
-        <v>-3.157941202132086</v>
+        <v>-0.7248045042518303</v>
       </c>
       <c r="W40">
         <v>97.40000000000001</v>
@@ -4545,7 +4545,7 @@
         <v>16.39844809212296</v>
       </c>
       <c r="AG40">
-        <v>-0.586629988435039</v>
+        <v>-0.7887036510622059</v>
       </c>
     </row>
     <row r="41">
@@ -4606,16 +4606,16 @@
         <v>14.07221345916785</v>
       </c>
       <c r="S41">
-        <v>7.940264583540212</v>
+        <v>8.094583018258184</v>
       </c>
       <c r="T41">
-        <v>391318</v>
+        <v>393993.5833333333</v>
       </c>
       <c r="U41">
-        <v>409864.0941724573</v>
+        <v>396816.2614490953</v>
       </c>
       <c r="V41">
-        <v>-4.524937518594585</v>
+        <v>-0.711331260834458</v>
       </c>
       <c r="W41">
         <v>95.38</v>
@@ -4648,7 +4648,7 @@
         <v>14.2718310905547</v>
       </c>
       <c r="AG41">
-        <v>-3.157941202132086</v>
+        <v>-0.7248045042518303</v>
       </c>
     </row>
     <row r="42">
@@ -4709,16 +4709,16 @@
         <v>12.91463351328904</v>
       </c>
       <c r="S42">
-        <v>7.08333446543512</v>
+        <v>7.333301818715809</v>
       </c>
       <c r="T42">
-        <v>394117</v>
+        <v>396166.0833333333</v>
       </c>
       <c r="U42">
-        <v>412273.6176269915</v>
+        <v>399182.6111060575</v>
       </c>
       <c r="V42">
-        <v>-4.404021225393773</v>
+        <v>-0.7556761464047712</v>
       </c>
       <c r="W42">
         <v>89.91</v>
@@ -4751,7 +4751,7 @@
         <v>12.26497346722946</v>
       </c>
       <c r="AG42">
-        <v>-4.524937518594585</v>
+        <v>-0.711331260834458</v>
       </c>
     </row>
     <row r="43">
@@ -4812,16 +4812,16 @@
         <v>11.48942844595019</v>
       </c>
       <c r="S43">
-        <v>6.002729956511158</v>
+        <v>6.3830424102578</v>
       </c>
       <c r="T43">
-        <v>400720</v>
+        <v>398057.0833333333</v>
       </c>
       <c r="U43">
-        <v>414683.4164465209</v>
+        <v>401552.5413781806</v>
       </c>
       <c r="V43">
-        <v>-3.367247372990056</v>
+        <v>-0.8704858479665845</v>
       </c>
       <c r="W43">
         <v>87.38</v>
@@ -4854,7 +4854,7 @@
         <v>6.163297890381725</v>
       </c>
       <c r="AG43">
-        <v>-4.404021225393773</v>
+        <v>-0.7556761464047712</v>
       </c>
     </row>
     <row r="44">
@@ -4915,16 +4915,16 @@
         <v>11.37092383084276</v>
       </c>
       <c r="S44">
-        <v>6.238089122897136</v>
+        <v>6.575046728079226</v>
       </c>
       <c r="T44">
-        <v>413638</v>
+        <v>400081.0833333333</v>
       </c>
       <c r="U44">
-        <v>417093.0011177184</v>
+        <v>403925.7527144795</v>
       </c>
       <c r="V44">
-        <v>-0.828352695552248</v>
+        <v>-0.9518257638462146</v>
       </c>
       <c r="W44">
         <v>86.38</v>
@@ -4957,7 +4957,7 @@
         <v>3.496773238207385</v>
       </c>
       <c r="AG44">
-        <v>-3.367247372990056</v>
+        <v>-0.8704858479665845</v>
       </c>
     </row>
     <row r="45">
@@ -5018,16 +5018,16 @@
         <v>10.94597154153941</v>
       </c>
       <c r="S45">
-        <v>6.113263589660693</v>
+        <v>6.310819798332101</v>
       </c>
       <c r="T45">
-        <v>420130</v>
+        <v>402098.0833333333</v>
       </c>
       <c r="U45">
-        <v>419501.7743848459</v>
+        <v>406301.9185928412</v>
       </c>
       <c r="V45">
-        <v>0.1497551747129844</v>
+        <v>-1.03465798883432</v>
       </c>
       <c r="W45">
         <v>82.86</v>
@@ -5060,7 +5060,7 @@
         <v>2.622176142211208</v>
       </c>
       <c r="AG45">
-        <v>-0.828352695552248</v>
+        <v>-0.9518257638462146</v>
       </c>
     </row>
     <row r="46">
@@ -5121,16 +5121,16 @@
         <v>10.70883854592993</v>
       </c>
       <c r="S46">
-        <v>6.040989456323558</v>
+        <v>6.103928067787945</v>
       </c>
       <c r="T46">
-        <v>420496</v>
+        <v>404094.3333333333</v>
       </c>
       <c r="U46">
-        <v>421909.1123332062</v>
+        <v>408680.6828254951</v>
       </c>
       <c r="V46">
-        <v>-0.3349328781716898</v>
+        <v>-1.122233001191331</v>
       </c>
       <c r="W46">
         <v>82.13</v>
@@ -5163,7 +5163,7 @@
         <v>-1.27051094750511</v>
       </c>
       <c r="AG46">
-        <v>0.1497551747129844</v>
+        <v>-1.03465798883432</v>
       </c>
     </row>
     <row r="47">
@@ -5224,16 +5224,16 @@
         <v>10.19681371681938</v>
       </c>
       <c r="S47">
-        <v>5.662121972103581</v>
+        <v>5.785556030353622</v>
       </c>
       <c r="T47">
-        <v>417097</v>
+        <v>405956.9166666667</v>
       </c>
       <c r="U47">
-        <v>424314.3958955219</v>
+        <v>411061.6567876693</v>
       </c>
       <c r="V47">
-        <v>-1.700954755562656</v>
+        <v>-1.241842929572845</v>
       </c>
       <c r="W47">
         <v>79.15000000000001</v>
@@ -5266,7 +5266,7 @@
         <v>-1.862702809012817</v>
       </c>
       <c r="AG47">
-        <v>-0.3349328781716898</v>
+        <v>-1.122233001191331</v>
       </c>
     </row>
     <row r="48">
@@ -5327,16 +5327,16 @@
         <v>10.50195115993696</v>
       </c>
       <c r="S48">
-        <v>6.005020274184206</v>
+        <v>6.027586989001099</v>
       </c>
       <c r="T48">
-        <v>422730</v>
+        <v>407952.5</v>
       </c>
       <c r="U48">
-        <v>426716.9951008711</v>
+        <v>413444.4164660929</v>
       </c>
       <c r="V48">
-        <v>-0.9343417643650653</v>
+        <v>-1.328332478894012</v>
       </c>
       <c r="W48">
         <v>79.27</v>
@@ -5369,7 +5369,7 @@
         <v>-5.165675410664228</v>
       </c>
       <c r="AG48">
-        <v>-1.700954755562656</v>
+        <v>-1.241842929572845</v>
       </c>
     </row>
     <row r="49">
@@ -5430,16 +5430,16 @@
         <v>10.73371796105786</v>
       </c>
       <c r="S49">
-        <v>6.237351092032597</v>
+        <v>6.158295428106486</v>
       </c>
       <c r="T49">
-        <v>433595</v>
+        <v>410073.9166666667</v>
       </c>
       <c r="U49">
-        <v>429116.2242885491</v>
+        <v>415828.4984590682</v>
       </c>
       <c r="V49">
-        <v>1.043720898429434</v>
+        <v>-1.383883455252888</v>
       </c>
       <c r="W49">
         <v>79.87</v>
@@ -5472,7 +5472,7 @@
         <v>-4.774417514157447</v>
       </c>
       <c r="AG49">
-        <v>-0.9343417643650653</v>
+        <v>-1.328332478894012</v>
       </c>
     </row>
     <row r="50">
@@ -5533,16 +5533,16 @@
         <v>10.67096636460165</v>
       </c>
       <c r="S50">
-        <v>6.03215816997611</v>
+        <v>5.814099210824786</v>
       </c>
       <c r="T50">
-        <v>434506</v>
+        <v>412133.8333333333</v>
       </c>
       <c r="U50">
-        <v>431511.3670339991</v>
+        <v>418213.3969889989</v>
       </c>
       <c r="V50">
-        <v>0.6939870406160065</v>
+        <v>-1.453698924863822</v>
       </c>
       <c r="W50">
         <v>79.59</v>
@@ -5575,7 +5575,7 @@
         <v>-3.816128381642248</v>
       </c>
       <c r="AG50">
-        <v>1.043720898429434</v>
+        <v>-1.383883455252888</v>
       </c>
     </row>
     <row r="51">
@@ -5636,16 +5636,16 @@
         <v>11.65253031251779</v>
       </c>
       <c r="S51">
-        <v>6.76308947006365</v>
+        <v>6.508184978076681</v>
       </c>
       <c r="T51">
-        <v>429904</v>
+        <v>414403.25</v>
       </c>
       <c r="U51">
-        <v>433901.7414711204</v>
+        <v>420598.5618756511</v>
       </c>
       <c r="V51">
-        <v>-0.9213471827898778</v>
+        <v>-1.472975049658565</v>
       </c>
       <c r="W51">
         <v>81.53</v>
@@ -5678,7 +5678,7 @@
         <v>-3.929395224130827</v>
       </c>
       <c r="AG51">
-        <v>0.6939870406160065</v>
+        <v>-1.453698924863822</v>
       </c>
     </row>
     <row r="52">
@@ -5739,16 +5739,16 @@
         <v>12.37322749914665</v>
       </c>
       <c r="S52">
-        <v>7.160633369489188</v>
+        <v>6.849127602117178</v>
       </c>
       <c r="T52">
-        <v>422843</v>
+        <v>416757.8333333333</v>
       </c>
       <c r="U52">
-        <v>436286.6888405466</v>
+        <v>422983.3960285779</v>
       </c>
       <c r="V52">
-        <v>-3.081388725444234</v>
+        <v>-1.471822003817858</v>
       </c>
       <c r="W52">
         <v>78.75</v>
@@ -5781,7 +5781,7 @@
         <v>-1.37234622135961</v>
       </c>
       <c r="AG52">
-        <v>-0.9213471827898778</v>
+        <v>-1.472975049658565</v>
       </c>
     </row>
     <row r="53">
@@ -5842,16 +5842,16 @@
         <v>13.01425176767237</v>
       </c>
       <c r="S53">
-        <v>7.543992354044536</v>
+        <v>7.366760182094212</v>
       </c>
       <c r="T53">
-        <v>420839</v>
+        <v>419217.9166666667</v>
       </c>
       <c r="U53">
-        <v>438665.5195361435</v>
+        <v>425367.2545540066</v>
       </c>
       <c r="V53">
-        <v>-4.063806873855436</v>
+        <v>-1.445653801862923</v>
       </c>
       <c r="W53">
         <v>77.18000000000001</v>
@@ -5884,7 +5884,7 @@
         <v>-4.541828912072421</v>
       </c>
       <c r="AG53">
-        <v>-3.081388725444234</v>
+        <v>-1.471822003817858</v>
       </c>
     </row>
     <row r="54">
@@ -5945,16 +5945,16 @@
         <v>12.73223572680516</v>
       </c>
       <c r="S54">
-        <v>7.144325162324893</v>
+        <v>7.139551156439028</v>
       </c>
       <c r="T54">
-        <v>422274</v>
+        <v>421564.3333333333</v>
       </c>
       <c r="U54">
-        <v>441037.4402196059</v>
+        <v>427749.444521402</v>
       </c>
       <c r="V54">
-        <v>-4.254387158211115</v>
+        <v>-1.445965919368752</v>
       </c>
       <c r="W54">
         <v>77.66</v>
@@ -5987,7 +5987,7 @@
         <v>-6.270357172976226</v>
       </c>
       <c r="AG54">
-        <v>-4.063806873855436</v>
+        <v>-1.445653801862923</v>
       </c>
     </row>
     <row r="55">
@@ -6048,16 +6048,16 @@
         <v>12.34981964288729</v>
       </c>
       <c r="S55">
-        <v>6.891595128768217</v>
+        <v>7.163124420915001</v>
       </c>
       <c r="T55">
-        <v>428336</v>
+        <v>423865.6666666667</v>
       </c>
       <c r="U55">
-        <v>443401.5200023252</v>
+        <v>430129.2255516404</v>
       </c>
       <c r="V55">
-        <v>-3.397715010594948</v>
+        <v>-1.456203976128512</v>
       </c>
       <c r="W55">
         <v>76.40000000000001</v>
@@ -6090,7 +6090,7 @@
         <v>-5.527798464134747</v>
       </c>
       <c r="AG55">
-        <v>-4.254387158211115</v>
+        <v>-1.445965919368752</v>
       </c>
     </row>
     <row r="56">
@@ -6151,16 +6151,16 @@
         <v>12.53442703099112</v>
       </c>
       <c r="S56">
-        <v>7.291641483616108</v>
+        <v>7.585494293490558</v>
       </c>
       <c r="T56">
-        <v>443799</v>
+        <v>426379.0833333333</v>
       </c>
       <c r="U56">
-        <v>445756.6832160613</v>
+        <v>432505.8095409753</v>
       </c>
       <c r="V56">
-        <v>-0.4391820223393905</v>
+        <v>-1.416565066292252</v>
       </c>
       <c r="W56">
         <v>76.44</v>
@@ -6193,7 +6193,7 @@
         <v>-6.920083496181306</v>
       </c>
       <c r="AG56">
-        <v>-3.397715010594948</v>
+        <v>-1.456203976128512</v>
       </c>
     </row>
     <row r="57">
@@ -6254,16 +6254,16 @@
         <v>13.55839970977534</v>
       </c>
       <c r="S57">
-        <v>8.520457953490586</v>
+        <v>8.678724959111261</v>
       </c>
       <c r="T57">
-        <v>455927</v>
+        <v>429362.1666666667</v>
       </c>
       <c r="U57">
-        <v>448101.7379462784</v>
+        <v>434878.3600557297</v>
       </c>
       <c r="V57">
-        <v>1.746313703130453</v>
+        <v>-1.268445132187335</v>
       </c>
       <c r="W57">
         <v>76.81999999999999</v>
@@ -6296,7 +6296,7 @@
         <v>-6.748098127896252</v>
       </c>
       <c r="AG57">
-        <v>-0.4391820223393905</v>
+        <v>-1.416565066292252</v>
       </c>
     </row>
     <row r="58">
@@ -6357,16 +6357,16 @@
         <v>14.50334578027426</v>
       </c>
       <c r="S58">
-        <v>9.470482477835699</v>
+        <v>9.363271996441513</v>
       </c>
       <c r="T58">
-        <v>460319</v>
+        <v>432680.75</v>
       </c>
       <c r="U58">
-        <v>450435.4771728602</v>
+        <v>437245.9933881055</v>
       </c>
       <c r="V58">
-        <v>2.194215004815625</v>
+        <v>-1.044090387822794</v>
       </c>
       <c r="W58">
         <v>75.56999999999999</v>
@@ -6399,7 +6399,7 @@
         <v>-6.178732443211232</v>
       </c>
       <c r="AG58">
-        <v>1.746313703130453</v>
+        <v>-1.268445132187335</v>
       </c>
     </row>
     <row r="59">
@@ -6460,16 +6460,16 @@
         <v>15.5578503552778</v>
       </c>
       <c r="S59">
-        <v>10.26955360503672</v>
+        <v>9.845865356727934</v>
       </c>
       <c r="T59">
-        <v>459931</v>
+        <v>436250.25</v>
       </c>
       <c r="U59">
-        <v>452756.7542557991</v>
+        <v>439607.7832670835</v>
       </c>
       <c r="V59">
-        <v>1.584569567823069</v>
+        <v>-0.7637565563855531</v>
       </c>
       <c r="W59">
         <v>75.18000000000001</v>
@@ -6502,7 +6502,7 @@
         <v>-7.619694015577561</v>
       </c>
       <c r="AG59">
-        <v>2.194215004815625</v>
+        <v>-1.044090387822794</v>
       </c>
     </row>
     <row r="60">
@@ -6563,16 +6563,16 @@
         <v>14.49262395595952</v>
       </c>
       <c r="S60">
-        <v>8.854351477302297</v>
+        <v>8.390252727406523</v>
       </c>
       <c r="T60">
-        <v>460160</v>
+        <v>439369.4166666667</v>
       </c>
       <c r="U60">
-        <v>455064.4988168365</v>
+        <v>441962.7681960016</v>
       </c>
       <c r="V60">
-        <v>1.119731641649002</v>
+        <v>-0.586780542605525</v>
       </c>
       <c r="W60">
         <v>75.73999999999999</v>
@@ -6605,7 +6605,7 @@
         <v>-8.030047935645069</v>
       </c>
       <c r="AG60">
-        <v>1.584569567823069</v>
+        <v>-0.7637565563855531</v>
       </c>
     </row>
     <row r="61">
@@ -6666,16 +6666,16 @@
         <v>13.31431288635283</v>
       </c>
       <c r="S61">
-        <v>7.324577082300303</v>
+        <v>6.991136706970869</v>
       </c>
       <c r="T61">
-        <v>465354</v>
+        <v>442016</v>
       </c>
       <c r="U61">
-        <v>457357.6958345505</v>
+        <v>444309.9607713051</v>
       </c>
       <c r="V61">
-        <v>1.748369872919375</v>
+        <v>-0.5162973990776254</v>
       </c>
       <c r="W61">
         <v>73.73999999999999</v>
@@ -6708,7 +6708,7 @@
         <v>-7.297538117934577</v>
       </c>
       <c r="AG61">
-        <v>1.119731641649002</v>
+        <v>-0.586780542605525</v>
       </c>
     </row>
     <row r="62">
@@ -6769,16 +6769,16 @@
         <v>12.85337908838475</v>
       </c>
       <c r="S62">
-        <v>6.619701454065076</v>
+        <v>6.475496828365634</v>
       </c>
       <c r="T62">
-        <v>463269</v>
+        <v>444412.9166666667</v>
       </c>
       <c r="U62">
-        <v>459635.3696046542</v>
+        <v>446648.3535790101</v>
       </c>
       <c r="V62">
-        <v>0.7905462972684685</v>
+        <v>-0.5004914703996555</v>
       </c>
       <c r="W62">
         <v>73.19</v>
@@ -6811,7 +6811,7 @@
         <v>-9.718577281455609</v>
       </c>
       <c r="AG62">
-        <v>1.748369872919375</v>
+        <v>-0.5162973990776254</v>
       </c>
     </row>
     <row r="63">
@@ -6872,16 +6872,16 @@
         <v>13.76057917813807</v>
       </c>
       <c r="S63">
-        <v>7.349315195950725</v>
+        <v>7.311177415468406</v>
       </c>
       <c r="T63">
-        <v>461499</v>
+        <v>447045.8333333333</v>
       </c>
       <c r="U63">
-        <v>461896.6061227439</v>
+        <v>448976.9215048196</v>
       </c>
       <c r="V63">
-        <v>-0.08608119598052522</v>
+        <v>-0.4301085599264121</v>
       </c>
       <c r="W63">
         <v>74.67</v>
@@ -6914,7 +6914,7 @@
         <v>-10.38475998876243</v>
       </c>
       <c r="AG63">
-        <v>0.7905462972684685</v>
+        <v>-0.5004914703996555</v>
       </c>
     </row>
     <row r="64">
@@ -6975,16 +6975,16 @@
         <v>13.21588171090838</v>
       </c>
       <c r="S64">
-        <v>6.703906650931907</v>
+        <v>6.506003490976831</v>
       </c>
       <c r="T64">
-        <v>451190</v>
+        <v>449408.0833333333</v>
       </c>
       <c r="U64">
-        <v>464140.5194216825</v>
+        <v>451294.6221856914</v>
       </c>
       <c r="V64">
-        <v>-2.790215221420189</v>
+        <v>-0.4180282147439152</v>
       </c>
       <c r="W64">
         <v>74.77</v>
@@ -7017,7 +7017,7 @@
         <v>-8.585371099370597</v>
       </c>
       <c r="AG64">
-        <v>-0.08608119598052522</v>
+        <v>-0.4301085599264121</v>
       </c>
     </row>
     <row r="65">
@@ -7078,16 +7078,16 @@
         <v>13.97858306900611</v>
       </c>
       <c r="S65">
-        <v>7.248140025045208</v>
+        <v>7.012095642668403</v>
       </c>
       <c r="T65">
-        <v>451342</v>
+        <v>451950</v>
       </c>
       <c r="U65">
-        <v>466366.2204663857</v>
+        <v>453600.3983582167</v>
       </c>
       <c r="V65">
-        <v>-3.221549890847752</v>
+        <v>-0.3638441156996963</v>
       </c>
       <c r="W65">
         <v>72.20999999999999</v>
@@ -7120,7 +7120,7 @@
         <v>-8.495950269179852</v>
       </c>
       <c r="AG65">
-        <v>-2.790215221420189</v>
+        <v>-0.4180282147439152</v>
       </c>
     </row>
     <row r="66">
@@ -7181,16 +7181,16 @@
         <v>14.1295094585846</v>
       </c>
       <c r="S66">
-        <v>7.209536935733671</v>
+        <v>7.113570585250661</v>
       </c>
       <c r="T66">
-        <v>452718</v>
+        <v>454487</v>
       </c>
       <c r="U66">
-        <v>468572.7202949261</v>
+        <v>455893.178202357</v>
       </c>
       <c r="V66">
-        <v>-3.383620003517684</v>
+        <v>-0.3084446685299724</v>
       </c>
       <c r="W66">
         <v>73.42</v>
@@ -7223,7 +7223,7 @@
         <v>-11.68034194410862</v>
       </c>
       <c r="AG66">
-        <v>-3.221549890847752</v>
+        <v>-0.3638441156996963</v>
       </c>
     </row>
     <row r="67">
@@ -7284,16 +7284,16 @@
         <v>15.75565116779949</v>
       </c>
       <c r="S67">
-        <v>8.596989279444173</v>
+        <v>8.476854247773868</v>
       </c>
       <c r="T67">
-        <v>465160</v>
+        <v>457555.6666666667</v>
       </c>
       <c r="U67">
-        <v>470758.9140177434</v>
+        <v>458171.877163519</v>
       </c>
       <c r="V67">
-        <v>-1.189337865099327</v>
+        <v>-0.1344933042741858</v>
       </c>
       <c r="W67">
         <v>72.38</v>
@@ -7326,7 +7326,7 @@
         <v>-10.27254924666832</v>
       </c>
       <c r="AG67">
-        <v>-3.383620003517684</v>
+        <v>-0.3084446685299724</v>
       </c>
     </row>
     <row r="68">
@@ -7387,16 +7387,16 @@
         <v>15.28632596218364</v>
       </c>
       <c r="S68">
-        <v>8.034267765362248</v>
+        <v>7.875293311671805</v>
       </c>
       <c r="T68">
-        <v>479455</v>
+        <v>460527</v>
       </c>
       <c r="U68">
-        <v>472923.5744094727</v>
+        <v>460435.3998369673</v>
       </c>
       <c r="V68">
-        <v>1.381074225086554</v>
+        <v>0.0198942485884368</v>
       </c>
       <c r="W68">
         <v>71.76000000000001</v>
@@ -7429,7 +7429,7 @@
         <v>-11.63407768693601</v>
       </c>
       <c r="AG68">
-        <v>-1.189337865099327</v>
+        <v>-0.1344933042741858</v>
       </c>
     </row>
     <row r="69">
@@ -7490,16 +7490,16 @@
         <v>13.99121467665782</v>
       </c>
       <c r="S69">
-        <v>6.596889414314133</v>
+        <v>6.305338689413253</v>
       </c>
       <c r="T69">
-        <v>486004</v>
+        <v>463033.4166666667</v>
       </c>
       <c r="U69">
-        <v>475065.4310432572</v>
+        <v>462682.6460632581</v>
       </c>
       <c r="V69">
-        <v>2.302539448665275</v>
+        <v>0.07581235354150451</v>
       </c>
       <c r="W69">
         <v>73.43000000000001</v>
@@ -7532,7 +7532,7 @@
         <v>-12.49975159643335</v>
       </c>
       <c r="AG69">
-        <v>1.381074225086554</v>
+        <v>0.0198942485884368</v>
       </c>
     </row>
     <row r="70">
@@ -7593,16 +7593,16 @@
         <v>12.50929091719934</v>
       </c>
       <c r="S70">
-        <v>5.014783226414726</v>
+        <v>4.8451131462113</v>
       </c>
       <c r="T70">
-        <v>483403</v>
+        <v>464957.0833333333</v>
       </c>
       <c r="U70">
-        <v>477183.2638890363</v>
+        <v>464912.5163897381</v>
       </c>
       <c r="V70">
-        <v>1.303427127823586</v>
+        <v>0.009586092441926652</v>
       </c>
       <c r="W70">
         <v>78.12</v>
@@ -7635,7 +7635,7 @@
         <v>-10.59377766216428</v>
       </c>
       <c r="AG70">
-        <v>2.302539448665275</v>
+        <v>0.07581235354150451</v>
       </c>
     </row>
     <row r="71">
@@ -7696,16 +7696,16 @@
         <v>10.95090590027457</v>
       </c>
       <c r="S71">
-        <v>3.529877307683109</v>
+        <v>3.72151621975747</v>
       </c>
       <c r="T71">
-        <v>476166</v>
+        <v>466310</v>
       </c>
       <c r="U71">
-        <v>479275.9373192947</v>
+        <v>467123.9140703179</v>
       </c>
       <c r="V71">
-        <v>-0.6488824239099689</v>
+        <v>-0.1742394353622001</v>
       </c>
       <c r="W71">
         <v>78.22</v>
@@ -7738,7 +7738,7 @@
         <v>-5.041808985789221</v>
       </c>
       <c r="AG71">
-        <v>1.303427127823586</v>
+        <v>0.009586092441926652</v>
       </c>
     </row>
     <row r="72">
@@ -7799,16 +7799,16 @@
         <v>12.25177435369397</v>
       </c>
       <c r="S72">
-        <v>4.935674547983311</v>
+        <v>5.26235404509936</v>
       </c>
       <c r="T72">
-        <v>482872</v>
+        <v>468202.6666666667</v>
       </c>
       <c r="U72">
-        <v>481342.363698302</v>
+        <v>469315.7427027883</v>
       </c>
       <c r="V72">
-        <v>0.3177855134015806</v>
+        <v>-0.2371699763812352</v>
       </c>
       <c r="W72">
         <v>78.06</v>
@@ -7841,7 +7841,7 @@
         <v>-5.098103688251876</v>
       </c>
       <c r="AG72">
-        <v>-0.6488824239099689</v>
+        <v>-0.1742394353622001</v>
       </c>
     </row>
     <row r="73">
@@ -7902,16 +7902,16 @@
         <v>12.70604054706501</v>
       </c>
       <c r="S73">
-        <v>5.625394860686702</v>
+        <v>5.82726811930987</v>
       </c>
       <c r="T73">
-        <v>491532</v>
+        <v>470384.1666666667</v>
       </c>
       <c r="U73">
-        <v>483381.4313939001</v>
+        <v>471486.89960474</v>
       </c>
       <c r="V73">
-        <v>1.686156744291267</v>
+        <v>-0.233884109823157</v>
       </c>
       <c r="W73">
         <v>79.39</v>
@@ -7944,7 +7944,7 @@
         <v>-5.488230347732303</v>
       </c>
       <c r="AG73">
-        <v>0.3177855134015806</v>
+        <v>-0.2371699763812352</v>
       </c>
     </row>
     <row r="74">
@@ -8005,16 +8005,16 @@
         <v>13.23776151427505</v>
       </c>
       <c r="S74">
-        <v>6.373834640349344</v>
+        <v>6.60681746777918</v>
       </c>
       <c r="T74">
-        <v>492797</v>
+        <v>472844.8333333333</v>
       </c>
       <c r="U74">
-        <v>485392.0405766787</v>
+        <v>473636.2735052102</v>
       </c>
       <c r="V74">
-        <v>1.525562597714569</v>
+        <v>-0.1670987245169675</v>
       </c>
       <c r="W74">
         <v>76.75</v>
@@ -8047,7 +8047,7 @@
         <v>-4.095386363823295</v>
       </c>
       <c r="AG74">
-        <v>1.686156744291267</v>
+        <v>-0.233884109823157</v>
       </c>
     </row>
     <row r="75">
@@ -8108,16 +8108,16 @@
         <v>12.3658853583113</v>
       </c>
       <c r="S75">
-        <v>5.817780753587765</v>
+        <v>6.15577265782834</v>
       </c>
       <c r="T75">
-        <v>488348</v>
+        <v>475082.25</v>
       </c>
       <c r="U75">
-        <v>487373.1543074194</v>
+        <v>475762.7446244973</v>
       </c>
       <c r="V75">
-        <v>0.2000203917603693</v>
+        <v>-0.1430323479898354</v>
       </c>
       <c r="W75">
         <v>75.45</v>
@@ -8150,7 +8150,7 @@
         <v>-7.511568088971421</v>
       </c>
       <c r="AG75">
-        <v>1.525562597714569</v>
+        <v>-0.1670987245169675</v>
       </c>
     </row>
     <row r="76">
@@ -8211,16 +8211,16 @@
         <v>12.50261475357653</v>
       </c>
       <c r="S76">
-        <v>6.369157117843923</v>
+        <v>6.901002236389697</v>
       </c>
       <c r="T76">
-        <v>479927</v>
+        <v>477477</v>
       </c>
       <c r="U76">
-        <v>489323.7927839355</v>
+        <v>477865.1870761107</v>
       </c>
       <c r="V76">
-        <v>-1.920362942188814</v>
+        <v>-0.0812335961290378</v>
       </c>
       <c r="W76">
         <v>79</v>
@@ -8253,7 +8253,7 @@
         <v>-9.317046894137649</v>
       </c>
       <c r="AG76">
-        <v>0.2000203917603693</v>
+        <v>-0.1430323479898354</v>
       </c>
     </row>
     <row r="77">
@@ -8314,16 +8314,16 @@
         <v>12.15145911325605</v>
       </c>
       <c r="S77">
-        <v>6.409995081335218</v>
+        <v>6.709285550196076</v>
       </c>
       <c r="T77">
-        <v>480273</v>
+        <v>479887.9166666667</v>
       </c>
       <c r="U77">
-        <v>491242.9837259994</v>
+        <v>479942.4697228262</v>
       </c>
       <c r="V77">
-        <v>-2.23310746197205</v>
+        <v>-0.01136658237204102</v>
       </c>
       <c r="W77">
         <v>81.09999999999999</v>
@@ -8356,7 +8356,7 @@
         <v>-5.316075856691382</v>
       </c>
       <c r="AG77">
-        <v>-1.920362942188814</v>
+        <v>-0.0812335961290378</v>
       </c>
     </row>
     <row r="78">
@@ -8417,16 +8417,16 @@
         <v>11.78083782588693</v>
       </c>
       <c r="S78">
-        <v>6.346113916389452</v>
+        <v>6.468080603759319</v>
       </c>
       <c r="T78">
-        <v>481448</v>
+        <v>482282.0833333333</v>
       </c>
       <c r="U78">
-        <v>493129.6823472661</v>
+        <v>481993.4584321505</v>
       </c>
       <c r="V78">
-        <v>-2.368886474580478</v>
+        <v>0.05988149758746619</v>
       </c>
       <c r="W78">
         <v>85.53</v>
@@ -8459,7 +8459,7 @@
         <v>-3.087060128384522</v>
       </c>
       <c r="AG78">
-        <v>-2.23310746197205</v>
+        <v>-0.01136658237204102</v>
       </c>
     </row>
     <row r="79">
@@ -8520,16 +8520,16 @@
         <v>10.65446442093421</v>
       </c>
       <c r="S79">
-        <v>5.38244904978932</v>
+        <v>5.465558921973135</v>
       </c>
       <c r="T79">
-        <v>490197</v>
+        <v>484368.5</v>
       </c>
       <c r="U79">
-        <v>494982.7592164527</v>
+        <v>484017.0186506554</v>
       </c>
       <c r="V79">
-        <v>-0.9668537191130588</v>
+        <v>0.07261756008589693</v>
       </c>
       <c r="W79">
         <v>87</v>
@@ -8562,7 +8562,7 @@
         <v>1.888217820710536</v>
       </c>
       <c r="AG79">
-        <v>-2.368886474580478</v>
+        <v>0.05988149758746619</v>
       </c>
     </row>
     <row r="80">
@@ -8623,16 +8623,16 @@
         <v>10.35146927051494</v>
       </c>
       <c r="S80">
-        <v>5.062206046448572</v>
+        <v>4.896833907333575</v>
       </c>
       <c r="T80">
-        <v>503726</v>
+        <v>486391.0833333333</v>
       </c>
       <c r="U80">
-        <v>496800.9947658427</v>
+        <v>486012.0180519572</v>
       </c>
       <c r="V80">
-        <v>1.393919357472551</v>
+        <v>0.07799504277599123</v>
       </c>
       <c r="W80">
         <v>85.92</v>
@@ -8665,7 +8665,7 @@
         <v>3.301363793839185</v>
       </c>
       <c r="AG80">
-        <v>-0.9668537191130588</v>
+        <v>0.07261756008589693</v>
       </c>
     </row>
     <row r="81">
@@ -8726,16 +8726,16 @@
         <v>10.7201734285102</v>
       </c>
       <c r="S81">
-        <v>5.328351206985951</v>
+        <v>5.207310365365059</v>
       </c>
       <c r="T81">
-        <v>511900</v>
+        <v>488549.0833333333</v>
       </c>
       <c r="U81">
-        <v>498583.1325005573</v>
+        <v>487977.3270217194</v>
       </c>
       <c r="V81">
-        <v>2.670942242400831</v>
+        <v>0.1171686223832458</v>
       </c>
       <c r="W81">
         <v>86.89</v>
@@ -8768,7 +8768,7 @@
         <v>1.67236666735322</v>
       </c>
       <c r="AG81">
-        <v>1.393919357472551</v>
+        <v>0.07799504277599123</v>
       </c>
     </row>
     <row r="82">
@@ -8829,16 +8829,16 @@
         <v>11.86414084693136</v>
       </c>
       <c r="S82">
-        <v>6.294127260277657</v>
+        <v>6.25393317527676</v>
       </c>
       <c r="T82">
-        <v>513829</v>
+        <v>491084.5833333333</v>
       </c>
       <c r="U82">
-        <v>500327.9693594039</v>
+        <v>489911.8188704914</v>
       </c>
       <c r="V82">
-        <v>2.69843611938827</v>
+        <v>0.2393827659732173</v>
       </c>
       <c r="W82">
         <v>87.63</v>
@@ -8871,7 +8871,7 @@
         <v>2.457692165065861</v>
       </c>
       <c r="AG82">
-        <v>2.670942242400831</v>
+        <v>0.1171686223832458</v>
       </c>
     </row>
     <row r="83">
@@ -8932,16 +8932,16 @@
         <v>13.18983073481788</v>
       </c>
       <c r="S83">
-        <v>7.467773843575559</v>
+        <v>7.339811033492527</v>
       </c>
       <c r="T83">
-        <v>511725</v>
+        <v>494047.8333333333</v>
       </c>
       <c r="U83">
-        <v>502034.4050347959</v>
+        <v>491814.3713205209</v>
       </c>
       <c r="V83">
-        <v>1.930265110920537</v>
+        <v>0.4541270330949532</v>
       </c>
       <c r="W83">
         <v>87.34</v>
@@ -8974,7 +8974,7 @@
         <v>2.953602481399353</v>
       </c>
       <c r="AG83">
-        <v>2.69843611938827</v>
+        <v>0.2393827659732173</v>
       </c>
     </row>
     <row r="84">
@@ -9035,16 +9035,16 @@
         <v>12.25608832213336</v>
       </c>
       <c r="S84">
-        <v>6.482049073046273</v>
+        <v>6.373626762184559</v>
       </c>
       <c r="T84">
-        <v>514172</v>
+        <v>496656.1666666667</v>
       </c>
       <c r="U84">
-        <v>503701.4433937657</v>
+        <v>493683.871143168</v>
       </c>
       <c r="V84">
-        <v>2.078722771903796</v>
+        <v>0.6020645391181301</v>
       </c>
       <c r="W84">
         <v>87.98999999999999</v>
@@ -9077,7 +9077,7 @@
         <v>2.227383387886328</v>
       </c>
       <c r="AG84">
-        <v>1.930265110920537</v>
+        <v>0.4541270330949532</v>
       </c>
     </row>
     <row r="85">
@@ -9138,16 +9138,16 @@
         <v>11.97263169694689</v>
       </c>
       <c r="S85">
-        <v>6.026464197651425</v>
+        <v>5.794247635059424</v>
       </c>
       <c r="T85">
-        <v>521154</v>
+        <v>499124.6666666667</v>
       </c>
       <c r="U85">
-        <v>505328.1630764651</v>
+        <v>495519.2223432933</v>
       </c>
       <c r="V85">
-        <v>3.131793966753471</v>
+        <v>0.7276093763473712</v>
       </c>
       <c r="W85">
         <v>88.5</v>
@@ -9180,7 +9180,7 @@
         <v>2.590565591479854</v>
       </c>
       <c r="AG85">
-        <v>2.078722771903796</v>
+        <v>0.6020645391181301</v>
       </c>
     </row>
     <row r="86">
@@ -9241,16 +9241,16 @@
         <v>11.31127353618813</v>
       </c>
       <c r="S86">
-        <v>5.166021708736052</v>
+        <v>4.862245441533797</v>
       </c>
       <c r="T86">
-        <v>518255</v>
+        <v>501246.1666666667</v>
       </c>
       <c r="U86">
-        <v>506913.7235143629</v>
+        <v>497319.3518601381</v>
       </c>
       <c r="V86">
-        <v>2.23731888870744</v>
+        <v>0.7895962205856311</v>
       </c>
       <c r="W86">
         <v>86</v>
@@ -9283,7 +9283,7 @@
         <v>2.776877398363986</v>
       </c>
       <c r="AG86">
-        <v>3.131793966753471</v>
+        <v>0.7276093763473712</v>
       </c>
     </row>
     <row r="87">
@@ -9344,16 +9344,16 @@
         <v>11.04968849961312</v>
       </c>
       <c r="S87">
-        <v>4.662044279898761</v>
+        <v>4.45836562845745</v>
       </c>
       <c r="T87">
-        <v>511115</v>
+        <v>503143.4166666667</v>
       </c>
       <c r="U87">
-        <v>508457.4062518745</v>
+        <v>499083.2144527247</v>
       </c>
       <c r="V87">
-        <v>0.5226777534260263</v>
+        <v>0.8135321117530125</v>
       </c>
       <c r="W87">
         <v>83.58</v>
@@ -9386,7 +9386,7 @@
         <v>-0.5305363253667927</v>
       </c>
       <c r="AG87">
-        <v>2.23731888870744</v>
+        <v>0.7895962205856311</v>
       </c>
     </row>
     <row r="88">
@@ -9447,16 +9447,16 @@
         <v>11.56750202101859</v>
       </c>
       <c r="S88">
-        <v>4.903662431994866</v>
+        <v>4.669764537966592</v>
       </c>
       <c r="T88">
-        <v>503461</v>
+        <v>505104.5833333333</v>
       </c>
       <c r="U88">
-        <v>509958.5803432621</v>
+        <v>500809.7951795819</v>
       </c>
       <c r="V88">
-        <v>-1.274138840626715</v>
+        <v>0.8575687207178939</v>
       </c>
       <c r="W88">
         <v>82.97</v>
@@ -9489,7 +9489,7 @@
         <v>-3.728659369799026</v>
       </c>
       <c r="AG88">
-        <v>0.5226777534260263</v>
+        <v>0.8135321117530125</v>
       </c>
     </row>
     <row r="89">
@@ -9550,16 +9550,16 @@
         <v>11.74376937957217</v>
       </c>
       <c r="S89">
-        <v>4.958221678087255</v>
+        <v>4.933580035282348</v>
       </c>
       <c r="T89">
-        <v>504086</v>
+        <v>507089</v>
       </c>
       <c r="U89">
-        <v>511416.6353489155</v>
+        <v>502498.1104279524</v>
       </c>
       <c r="V89">
-        <v>-1.433397907346934</v>
+        <v>0.913613300582905</v>
       </c>
       <c r="W89">
         <v>83.3</v>
@@ -9592,7 +9592,7 @@
         <v>-4.833035342824521</v>
       </c>
       <c r="AG89">
-        <v>-1.274138840626715</v>
+        <v>0.8575687207178939</v>
       </c>
     </row>
     <row r="90">
@@ -9653,16 +9653,16 @@
         <v>13.01860028369928</v>
       </c>
       <c r="S90">
-        <v>6.092454429138765</v>
+        <v>6.120751440093231</v>
       </c>
       <c r="T90">
-        <v>510780</v>
+        <v>509533.3333333333</v>
       </c>
       <c r="U90">
-        <v>512830.9106935713</v>
+        <v>504147.209723878</v>
       </c>
       <c r="V90">
-        <v>-0.399919476538102</v>
+        <v>1.068363268816919</v>
       </c>
       <c r="W90">
         <v>84.33</v>
@@ -9695,7 +9695,7 @@
         <v>-4.862697700199292</v>
       </c>
       <c r="AG90">
-        <v>-1.433397907346934</v>
+        <v>0.913613300582905</v>
       </c>
     </row>
     <row r="91">
@@ -9756,16 +9756,16 @@
         <v>13.26800350372271</v>
       </c>
       <c r="S91">
-        <v>6.290532173799514</v>
+        <v>6.155579666094391</v>
       </c>
       <c r="T91">
-        <v>521033</v>
+        <v>512103</v>
       </c>
       <c r="U91">
-        <v>514200.6892384294</v>
+        <v>505756.1780169343</v>
       </c>
       <c r="V91">
-        <v>1.3287245436582</v>
+        <v>1.25491734138603</v>
       </c>
       <c r="W91">
         <v>90.18000000000001</v>
@@ -9798,7 +9798,7 @@
         <v>-4.103653176978705</v>
       </c>
       <c r="AG91">
-        <v>-0.399919476538102</v>
+        <v>1.068363268816919</v>
       </c>
     </row>
     <row r="92">
@@ -9859,16 +9859,16 @@
         <v>12.7191251688497</v>
       </c>
       <c r="S92">
-        <v>5.849807236473797</v>
+        <v>6.068622535851786</v>
       </c>
       <c r="T92">
-        <v>533193</v>
+        <v>514558.5833333333</v>
       </c>
       <c r="U92">
-        <v>515525.2380197464</v>
+        <v>507324.1418162858</v>
       </c>
       <c r="V92">
-        <v>3.427138125791784</v>
+        <v>1.425999853101279</v>
       </c>
       <c r="W92">
         <v>93.45</v>
@@ -9901,7 +9901,7 @@
         <v>2.098901135269804</v>
       </c>
       <c r="AG92">
-        <v>1.3287245436582</v>
+        <v>1.25491734138603</v>
       </c>
     </row>
     <row r="93">
@@ -9962,16 +9962,16 @@
         <v>12.0250737957245</v>
       </c>
       <c r="S93">
-        <v>5.335026372338348</v>
+        <v>5.594376280256874</v>
       </c>
       <c r="T93">
-        <v>539210</v>
+        <v>516834.4166666667</v>
       </c>
       <c r="U93">
-        <v>516803.8767922422</v>
+        <v>508850.2766034974</v>
       </c>
       <c r="V93">
-        <v>4.335517633271402</v>
+        <v>1.569054873363207</v>
       </c>
       <c r="W93">
         <v>98.06</v>
@@ -10004,7 +10004,7 @@
         <v>5.332201034478001</v>
       </c>
       <c r="AG93">
-        <v>3.427138125791784</v>
+        <v>1.425999853101279</v>
       </c>
     </row>
     <row r="94">
@@ -10065,16 +10065,16 @@
         <v>12.14796660342677</v>
       </c>
       <c r="S94">
-        <v>5.727197180384914</v>
+        <v>5.939889102046814</v>
       </c>
       <c r="T94">
-        <v>543257</v>
+        <v>519286.75</v>
       </c>
       <c r="U94">
-        <v>518036.0616359485</v>
+        <v>510333.8136814347</v>
       </c>
       <c r="V94">
-        <v>4.86856808470133</v>
+        <v>1.754329436644775</v>
       </c>
       <c r="W94">
         <v>94.79000000000001</v>
@@ -10107,7 +10107,7 @@
         <v>10.03432342403963</v>
       </c>
       <c r="AG94">
-        <v>4.335517633271402</v>
+        <v>1.569054873363207</v>
       </c>
     </row>
     <row r="95">
@@ -10168,16 +10168,16 @@
         <v>12.32680750654426</v>
       </c>
       <c r="S95">
-        <v>6.040158288143046</v>
+        <v>6.128880864081876</v>
       </c>
       <c r="T95">
-        <v>542634</v>
+        <v>521862.5</v>
       </c>
       <c r="U95">
-        <v>519221.4215176523</v>
+        <v>511774.0459589872</v>
       </c>
       <c r="V95">
-        <v>4.509170367800719</v>
+        <v>1.971271134335972</v>
       </c>
       <c r="W95">
         <v>91.47</v>
@@ -10210,7 +10210,7 @@
         <v>5.886284548399434</v>
       </c>
       <c r="AG95">
-        <v>4.86856808470133</v>
+        <v>1.754329436644775</v>
       </c>
     </row>
     <row r="96">
@@ -10271,16 +10271,16 @@
         <v>12.70437681941881</v>
       </c>
       <c r="S96">
-        <v>6.502298841632761</v>
+        <v>6.556090403156656</v>
       </c>
       <c r="T96">
-        <v>547605</v>
+        <v>524648.5833333334</v>
       </c>
       <c r="U96">
-        <v>520359.7800101511</v>
+        <v>513170.3354263382</v>
       </c>
       <c r="V96">
-        <v>5.235842783490563</v>
+        <v>2.236732545629128</v>
       </c>
       <c r="W96">
         <v>94.70999999999999</v>
@@ -10313,7 +10313,7 @@
         <v>1.715206819062498</v>
       </c>
       <c r="AG96">
-        <v>4.509170367800719</v>
+        <v>1.971271134335972</v>
       </c>
     </row>
     <row r="97">
@@ -10374,16 +10374,16 @@
         <v>12.25530332555071</v>
       </c>
       <c r="S97">
-        <v>6.060012971213883</v>
+        <v>5.991222099471938</v>
       </c>
       <c r="T97">
-        <v>552736</v>
+        <v>527280.4166666666</v>
       </c>
       <c r="U97">
-        <v>521451.1413388555</v>
+        <v>514522.1219166789</v>
       </c>
       <c r="V97">
-        <v>5.999576217403391</v>
+        <v>2.479639690216029</v>
       </c>
       <c r="W97">
         <v>95.87</v>
@@ -10416,7 +10416,7 @@
         <v>4.839419579430193</v>
       </c>
       <c r="AG97">
-        <v>5.235842783490563</v>
+        <v>2.236732545629128</v>
       </c>
     </row>
     <row r="98">
@@ -10477,16 +10477,16 @@
         <v>12.60781899612797</v>
       </c>
       <c r="S98">
-        <v>6.47866397815747</v>
+        <v>6.646291311798436</v>
       </c>
       <c r="T98">
-        <v>551831</v>
+        <v>530078.4166666666</v>
       </c>
       <c r="U98">
-        <v>522495.7199546297</v>
+        <v>515828.9338299395</v>
       </c>
       <c r="V98">
-        <v>5.614453654839036</v>
+        <v>2.762443496708733</v>
       </c>
       <c r="W98">
         <v>95.59999999999999</v>
@@ -10519,7 +10519,7 @@
         <v>5.639643280082751</v>
       </c>
       <c r="AG98">
-        <v>5.999576217403391</v>
+        <v>2.479639690216029</v>
       </c>
     </row>
     <row r="99">
@@ -10580,16 +10580,16 @@
         <v>12.6489623813868</v>
       </c>
       <c r="S99">
-        <v>6.54940668929693</v>
+        <v>6.594400436588566</v>
       </c>
       <c r="T99">
-        <v>544590</v>
+        <v>532868</v>
       </c>
       <c r="U99">
-        <v>523493.9717038648</v>
+        <v>517090.3980096781</v>
       </c>
       <c r="V99">
-        <v>4.029851237345117</v>
+        <v>3.051227029364911</v>
       </c>
       <c r="W99">
         <v>94.72</v>
@@ -10622,7 +10622,7 @@
         <v>4.860880721387617</v>
       </c>
       <c r="AG99">
-        <v>5.614453654839036</v>
+        <v>2.762443496708733</v>
       </c>
     </row>
     <row r="100">
@@ -10683,16 +10683,16 @@
         <v>11.64163206747386</v>
       </c>
       <c r="S100">
-        <v>5.514429121620145</v>
+        <v>5.173464029650354</v>
       </c>
       <c r="T100">
-        <v>531224</v>
+        <v>535181.5833333334</v>
       </c>
       <c r="U100">
-        <v>524446.5787854097</v>
+        <v>518306.2512491562</v>
       </c>
       <c r="V100">
-        <v>1.292299633317562</v>
+        <v>3.255861190851239</v>
       </c>
       <c r="W100">
         <v>91.68000000000001</v>
@@ -10725,7 +10725,7 @@
         <v>3.420488609747174</v>
       </c>
       <c r="AG100">
-        <v>4.029851237345117</v>
+        <v>3.051227029364911</v>
       </c>
     </row>
     <row r="101">
@@ -10786,16 +10786,16 @@
         <v>10.88421173862344</v>
       </c>
       <c r="S101">
-        <v>4.569656764917098</v>
+        <v>4.332152557982161</v>
       </c>
       <c r="T101">
-        <v>527121</v>
+        <v>537101.1666666666</v>
       </c>
       <c r="U101">
-        <v>525354.386176119</v>
+        <v>519476.3520824039</v>
       </c>
       <c r="V101">
-        <v>0.3362708812121307</v>
+        <v>3.392804025363394</v>
       </c>
       <c r="W101">
         <v>87.63</v>
@@ -10828,7 +10828,7 @@
         <v>-0.3566399665777986</v>
       </c>
       <c r="AG101">
-        <v>1.292299633317562</v>
+        <v>3.255861190851239</v>
       </c>
     </row>
     <row r="102">
@@ -10889,16 +10889,16 @@
         <v>9.394157951676885</v>
       </c>
       <c r="S102">
-        <v>2.940013312972317</v>
+        <v>2.843055327326205</v>
       </c>
       <c r="T102">
-        <v>525797</v>
+        <v>538352.5833333334</v>
       </c>
       <c r="U102">
-        <v>526218.291147756</v>
+        <v>520600.6892543417</v>
       </c>
       <c r="V102">
-        <v>-0.08006014896159153</v>
+        <v>3.409886779907612</v>
       </c>
       <c r="W102">
         <v>86.90000000000001</v>
@@ -10931,7 +10931,7 @@
         <v>-5.193838101703552</v>
       </c>
       <c r="AG102">
-        <v>0.3362708812121307</v>
+        <v>3.392804025363394</v>
       </c>
     </row>
     <row r="103">
@@ -10992,16 +10992,16 @@
         <v>8.377465839023952</v>
       </c>
       <c r="S103">
-        <v>1.865524832400251</v>
+        <v>1.743771910461844</v>
       </c>
       <c r="T103">
-        <v>530753</v>
+        <v>539162.5833333334</v>
       </c>
       <c r="U103">
-        <v>527039.2046033664</v>
+        <v>521679.3875038309</v>
       </c>
       <c r="V103">
-        <v>0.7046525883076304</v>
+        <v>3.351329618974841</v>
       </c>
       <c r="W103">
         <v>87.05</v>
@@ -11034,7 +11034,7 @@
         <v>-6.412856113106069</v>
       </c>
       <c r="AG103">
-        <v>-0.08006014896159153</v>
+        <v>3.409886779907612</v>
       </c>
     </row>
     <row r="104">
@@ -11095,16 +11095,16 @@
         <v>8.184967128848854</v>
       </c>
       <c r="S104">
-        <v>1.613674598128633</v>
+        <v>1.582128759482515</v>
       </c>
       <c r="T104">
-        <v>541797</v>
+        <v>539879.5833333334</v>
       </c>
       <c r="U104">
-        <v>527818.0341952938</v>
+        <v>522712.7085442203</v>
       </c>
       <c r="V104">
-        <v>2.648444141553141</v>
+        <v>3.284189289547546</v>
       </c>
       <c r="W104">
         <v>87.48999999999999</v>
@@ -11137,7 +11137,7 @@
         <v>-6.678392995268667</v>
       </c>
       <c r="AG104">
-        <v>0.7046525883076304</v>
+        <v>3.351329618974841</v>
       </c>
     </row>
     <row r="105">
@@ -11198,16 +11198,16 @@
         <v>9.001435444854994</v>
       </c>
       <c r="S105">
-        <v>2.336566458337197</v>
+        <v>2.339156365463335</v>
       </c>
       <c r="T105">
-        <v>551809</v>
+        <v>540929.5</v>
       </c>
       <c r="U105">
-        <v>528555.7162317079</v>
+        <v>523701.0489900715</v>
       </c>
       <c r="V105">
-        <v>4.399400678905585</v>
+        <v>3.289749188616797</v>
       </c>
       <c r="W105">
         <v>88.77</v>
@@ -11240,7 +11240,7 @@
         <v>-6.632639022833198</v>
       </c>
       <c r="AG105">
-        <v>2.648444141553141</v>
+        <v>3.284189289547546</v>
       </c>
     </row>
     <row r="106">
@@ -11301,16 +11301,16 @@
         <v>9.732818146512285</v>
       </c>
       <c r="S106">
-        <v>2.951089447535881</v>
+        <v>2.794209036545481</v>
       </c>
       <c r="T106">
-        <v>559289</v>
+        <v>542265.5</v>
       </c>
       <c r="U106">
-        <v>529253.2948831778</v>
+        <v>524644.9379163831</v>
       </c>
       <c r="V106">
-        <v>5.675109707810488</v>
+        <v>3.358568969253106</v>
       </c>
       <c r="W106">
         <v>89.59</v>
@@ -11343,7 +11343,7 @@
         <v>-5.695071212967006</v>
       </c>
       <c r="AG106">
-        <v>4.399400678905585</v>
+        <v>3.289749188616797</v>
       </c>
     </row>
     <row r="107">
@@ -11404,16 +11404,16 @@
         <v>9.978861959404458</v>
       </c>
       <c r="S107">
-        <v>3.154612501243932</v>
+        <v>3.179343239895349</v>
       </c>
       <c r="T107">
-        <v>559752</v>
+        <v>543692</v>
       </c>
       <c r="U107">
-        <v>529911.9937437464</v>
+        <v>525545.0373337469</v>
       </c>
       <c r="V107">
-        <v>5.631124905371276</v>
+        <v>3.452979550205293</v>
       </c>
       <c r="W107">
         <v>92.87</v>
@@ -11446,7 +11446,7 @@
         <v>-5.252072490101634</v>
       </c>
       <c r="AG107">
-        <v>5.675109707810488</v>
+        <v>3.358568969253106</v>
       </c>
     </row>
     <row r="108">
@@ -11507,16 +11507,16 @@
         <v>9.756531758978742</v>
       </c>
       <c r="S108">
-        <v>2.932953497502762</v>
+        <v>2.999748272314906</v>
       </c>
       <c r="T108">
-        <v>563666</v>
+        <v>545030.4166666666</v>
       </c>
       <c r="U108">
-        <v>530533.2681644473</v>
+        <v>526402.1452138765</v>
       </c>
       <c r="V108">
-        <v>6.245175151821525</v>
+        <v>3.538790945698267</v>
       </c>
       <c r="W108">
         <v>94.97</v>
@@ -11549,7 +11549,7 @@
         <v>-2.222139495327757</v>
       </c>
       <c r="AG108">
-        <v>5.631124905371276</v>
+        <v>3.452979550205293</v>
       </c>
     </row>
     <row r="109">
@@ -11610,16 +11610,16 @@
         <v>9.562076576877873</v>
       </c>
       <c r="S109">
-        <v>2.859593006426215</v>
+        <v>2.962199583570957</v>
       </c>
       <c r="T109">
-        <v>568542</v>
+        <v>546347.5833333334</v>
       </c>
       <c r="U109">
-        <v>531118.8037432707</v>
+        <v>527217.1995513436</v>
       </c>
       <c r="V109">
-        <v>7.046106444165501</v>
+        <v>3.628558362335221</v>
       </c>
       <c r="W109">
         <v>96.64</v>
@@ -11652,7 +11652,7 @@
         <v>-0.4544541797541379</v>
       </c>
       <c r="AG109">
-        <v>6.245175151821525</v>
+        <v>3.538790945698267</v>
       </c>
     </row>
     <row r="110">
@@ -11713,16 +11713,16 @@
         <v>7.562178333291078</v>
       </c>
       <c r="S110">
-        <v>0.80658752407893</v>
+        <v>0.3940436189015184</v>
       </c>
       <c r="T110">
-        <v>556282</v>
+        <v>546718.5</v>
       </c>
       <c r="U110">
-        <v>531670.5417320078</v>
+        <v>527991.2820773859</v>
       </c>
       <c r="V110">
-        <v>4.629080668606589</v>
+        <v>3.546880139560571</v>
       </c>
       <c r="W110">
         <v>93.33</v>
@@ -11755,7 +11755,7 @@
         <v>0.8510857927217286</v>
       </c>
       <c r="AG110">
-        <v>7.046106444165501</v>
+        <v>3.628558362335221</v>
       </c>
     </row>
     <row r="111">
@@ -11816,16 +11816,16 @@
         <v>6.41555394013595</v>
       </c>
       <c r="S111">
-        <v>-0.6250573826181164</v>
+        <v>-1.192614725964758</v>
       </c>
       <c r="T111">
-        <v>541186</v>
+        <v>546434.8333333334</v>
       </c>
       <c r="U111">
-        <v>532190.7121416773</v>
+        <v>528725.6221342249</v>
       </c>
       <c r="V111">
-        <v>1.690237663510374</v>
+        <v>3.349414225023639</v>
       </c>
       <c r="W111">
         <v>98.77</v>
@@ -11858,7 +11858,7 @@
         <v>-3.026369440409582</v>
       </c>
       <c r="AG111">
-        <v>4.629080668606589</v>
+        <v>3.546880139560571</v>
       </c>
     </row>
     <row r="112">
@@ -11919,16 +11919,16 @@
         <v>6.201180590035404</v>
       </c>
       <c r="S112">
-        <v>-1.35385449452585</v>
+        <v>-1.783796735378329</v>
       </c>
       <c r="T112">
-        <v>524032</v>
+        <v>545835.5</v>
       </c>
       <c r="U112">
-        <v>532681.7348865272</v>
+        <v>529421.5935642229</v>
       </c>
       <c r="V112">
-        <v>-1.623809175354918</v>
+        <v>3.100346989111991</v>
       </c>
       <c r="W112">
         <v>106.96</v>
@@ -11961,7 +11961,7 @@
         <v>2.185456745371317</v>
       </c>
       <c r="AG112">
-        <v>1.690237663510374</v>
+        <v>3.349414225023639</v>
       </c>
     </row>
     <row r="113">
@@ -12022,16 +12022,16 @@
         <v>5.74435075009575</v>
       </c>
       <c r="S113">
-        <v>-2.090601588629556</v>
+        <v>-2.242441758254854</v>
       </c>
       <c r="T113">
-        <v>516101</v>
+        <v>544917.1666666666</v>
       </c>
       <c r="U113">
-        <v>533146.099288888</v>
+        <v>530080.7068548867</v>
       </c>
       <c r="V113">
-        <v>-3.197078495298544</v>
+        <v>2.79890583073823</v>
       </c>
       <c r="W113">
         <v>103.69</v>
@@ -12064,7 +12064,7 @@
         <v>10.19007988772105</v>
       </c>
       <c r="AG113">
-        <v>-1.623809175354918</v>
+        <v>3.100346989111991</v>
       </c>
     </row>
     <row r="114">
@@ -12125,16 +12125,16 @@
         <v>6.171283413645662</v>
       </c>
       <c r="S114">
-        <v>-1.927740173489008</v>
+        <v>-2.119218757586749</v>
       </c>
       <c r="T114">
-        <v>515661</v>
+        <v>544072.5</v>
       </c>
       <c r="U114">
-        <v>533586.2279293116</v>
+        <v>530704.5991442404</v>
       </c>
       <c r="V114">
-        <v>-3.359387291323845</v>
+        <v>2.518896741674248</v>
       </c>
       <c r="W114">
         <v>104.13</v>
@@ -12167,7 +12167,7 @@
         <v>6.375804253296802</v>
       </c>
       <c r="AG114">
-        <v>-3.197078495298544</v>
+        <v>2.79890583073823</v>
       </c>
     </row>
     <row r="115">
@@ -12228,16 +12228,16 @@
         <v>5.853327556988316</v>
       </c>
       <c r="S115">
-        <v>-2.452176436120003</v>
+        <v>-2.788752358354019</v>
       </c>
       <c r="T115">
-        <v>517738</v>
+        <v>542987.9166666666</v>
       </c>
       <c r="U115">
-        <v>534004.4118675193</v>
+        <v>531295.022049159</v>
       </c>
       <c r="V115">
-        <v>-3.046119377671874</v>
+        <v>2.200828942911803</v>
       </c>
       <c r="W115">
         <v>105.07</v>
@@ -12270,7 +12270,7 @@
         <v>6.388958167210745</v>
       </c>
       <c r="AG115">
-        <v>-3.359387291323845</v>
+        <v>2.518896741674248</v>
       </c>
     </row>
     <row r="116">
@@ -12331,16 +12331,16 @@
         <v>5.43213103328106</v>
       </c>
       <c r="S116">
-        <v>-3.252140561870959</v>
+        <v>-3.767678867030788</v>
       </c>
       <c r="T116">
-        <v>524177</v>
+        <v>541519.5833333334</v>
       </c>
       <c r="U116">
-        <v>534402.803851291</v>
+        <v>531853.8303339037</v>
       </c>
       <c r="V116">
-        <v>-1.913501160098052</v>
+        <v>1.817370196123513</v>
       </c>
       <c r="W116">
         <v>108.32</v>
@@ -12373,7 +12373,7 @@
         <v>6.916744425704624</v>
       </c>
       <c r="AG116">
-        <v>-3.046119377671874</v>
+        <v>2.200828942911803</v>
       </c>
     </row>
     <row r="117">
@@ -12434,16 +12434,16 @@
         <v>4.151297699684797</v>
       </c>
       <c r="S117">
-        <v>-4.73388436941043</v>
+        <v>-4.91071149485548</v>
       </c>
       <c r="T117">
-        <v>525687</v>
+        <v>539342.75</v>
       </c>
       <c r="U117">
-        <v>534783.4311159658</v>
+        <v>532382.9689856876</v>
       </c>
       <c r="V117">
-        <v>-1.700956048130309</v>
+        <v>1.30728844079524</v>
       </c>
       <c r="W117">
         <v>116.79</v>
@@ -12476,7 +12476,7 @@
         <v>9.788054415703606</v>
       </c>
       <c r="AG117">
-        <v>-1.913501160098052</v>
+        <v>1.817370196123513</v>
       </c>
     </row>
     <row r="118">
@@ -12537,16 +12537,16 @@
         <v>2.330763924297412</v>
       </c>
       <c r="S118">
-        <v>-6.569233437453624</v>
+        <v>-6.538712280301939</v>
       </c>
       <c r="T118">
-        <v>522548</v>
+        <v>536281</v>
       </c>
       <c r="U118">
-        <v>535148.2419940783</v>
+        <v>532884.4575731547</v>
       </c>
       <c r="V118">
-        <v>-2.354533006990178</v>
+        <v>0.6373881577093954</v>
       </c>
       <c r="W118">
         <v>129.34</v>
@@ -12579,7 +12579,7 @@
         <v>17.91416056421728</v>
       </c>
       <c r="AG118">
-        <v>-1.700956048130309</v>
+        <v>1.30728844079524</v>
       </c>
     </row>
     <row r="119">
@@ -12640,16 +12640,16 @@
         <v>3.258760960527179</v>
       </c>
       <c r="S119">
-        <v>-5.828831339593248</v>
+        <v>-6.068624615184959</v>
       </c>
       <c r="T119">
-        <v>527125</v>
+        <v>533562.0833333334</v>
       </c>
       <c r="U119">
-        <v>535499.1146296513</v>
+        <v>533360.3693669594</v>
       </c>
       <c r="V119">
-        <v>-1.563796167140785</v>
+        <v>0.03781945153018551</v>
       </c>
       <c r="W119">
         <v>127.47</v>
@@ -12682,7 +12682,7 @@
         <v>30.08954643450668</v>
       </c>
       <c r="AG119">
-        <v>-2.354533006990178</v>
+        <v>0.6373881577093954</v>
       </c>
     </row>
     <row r="120">
@@ -12743,16 +12743,16 @@
         <v>6.441262772969226</v>
       </c>
       <c r="S120">
-        <v>-3.206863639105427</v>
+        <v>-3.6556274683479</v>
       </c>
       <c r="T120">
-        <v>545590</v>
+        <v>532055.75</v>
       </c>
       <c r="U120">
-        <v>535837.8299426174</v>
+        <v>533812.8038456438</v>
       </c>
       <c r="V120">
-        <v>1.819985359829279</v>
+        <v>-0.3291516863188293</v>
       </c>
       <c r="W120">
         <v>121.97</v>
@@ -12785,7 +12785,7 @@
         <v>27.73281345900443</v>
       </c>
       <c r="AG120">
-        <v>-1.563796167140785</v>
+        <v>0.03781945153018551</v>
       </c>
     </row>
     <row r="121">
@@ -12846,16 +12846,16 @@
         <v>11.05296819582534</v>
       </c>
       <c r="S121">
-        <v>0.6266907282135709</v>
+        <v>0.346045175589893</v>
       </c>
       <c r="T121">
-        <v>572105</v>
+        <v>532352.6666666666</v>
       </c>
       <c r="U121">
-        <v>536166.1042378262</v>
+        <v>534243.8620441875</v>
       </c>
       <c r="V121">
-        <v>6.702940651808253</v>
+        <v>-0.3539947787672415</v>
       </c>
       <c r="W121">
         <v>122.1</v>
@@ -12888,7 +12888,7 @@
         <v>21.77763023190786</v>
       </c>
       <c r="AG121">
-        <v>1.819985359829279</v>
+        <v>-0.3291516863188293</v>
       </c>
     </row>
     <row r="122">
@@ -12949,16 +12949,16 @@
         <v>10.98684171758896</v>
       </c>
       <c r="S122">
-        <v>0.3320258430076831</v>
+        <v>0.2500602633808802</v>
       </c>
       <c r="T122">
-        <v>558129</v>
+        <v>532506.5833333334</v>
       </c>
       <c r="U122">
-        <v>536485.729068354</v>
+        <v>534655.6314400549</v>
       </c>
       <c r="V122">
-        <v>4.034267783642842</v>
+        <v>-0.4019499618723166</v>
       </c>
       <c r="W122">
         <v>122.64</v>
@@ -12991,7 +12991,7 @@
         <v>21.47408823244434</v>
       </c>
       <c r="AG122">
-        <v>6.702940651808253</v>
+        <v>-0.3539947787672415</v>
       </c>
     </row>
     <row r="123">
@@ -13052,16 +13052,16 @@
         <v>10.13913939706261</v>
       </c>
       <c r="S123">
-        <v>-0.3965364957704005</v>
+        <v>-0.2001274038939682</v>
       </c>
       <c r="T123">
-        <v>539040</v>
+        <v>532327.75</v>
       </c>
       <c r="U123">
-        <v>536798.7732935729</v>
+        <v>535050.1849181533</v>
       </c>
       <c r="V123">
-        <v>0.4175171065827543</v>
+        <v>-0.5088186108317627</v>
       </c>
       <c r="W123">
         <v>120.27</v>
@@ -13094,7 +13094,7 @@
         <v>21.58635499540966</v>
       </c>
       <c r="AG123">
-        <v>4.034267783642842</v>
+        <v>-0.4019499618723166</v>
       </c>
     </row>
     <row r="124">
@@ -13155,16 +13155,16 @@
         <v>6.82668214875023</v>
       </c>
       <c r="S124">
-        <v>-3.011838971665852</v>
+        <v>-2.343283527973095</v>
       </c>
       <c r="T124">
-        <v>508249</v>
+        <v>531012.5</v>
       </c>
       <c r="U124">
-        <v>537107.4727734007</v>
+        <v>535429.5787812304</v>
       </c>
       <c r="V124">
-        <v>-5.372941959713851</v>
+        <v>-0.8249597998087332</v>
       </c>
       <c r="W124">
         <v>112.65</v>
@@ -13197,7 +13197,7 @@
         <v>18.82915354528982</v>
       </c>
       <c r="AG124">
-        <v>0.4175171065827543</v>
+        <v>-0.5088186108317627</v>
       </c>
     </row>
     <row r="125">
@@ -13258,16 +13258,16 @@
         <v>7.342414792260092</v>
       </c>
       <c r="S125">
-        <v>-2.122065254669144</v>
+        <v>-1.773046493173414</v>
       </c>
       <c r="T125">
-        <v>505149</v>
+        <v>530099.8333333334</v>
       </c>
       <c r="U125">
-        <v>537414.0806611712</v>
+        <v>535795.8483255883</v>
       </c>
       <c r="V125">
-        <v>-6.003765405900063</v>
+        <v>-1.063094275563259</v>
       </c>
       <c r="W125">
         <v>110.04</v>
@@ -13300,7 +13300,7 @@
         <v>10.92630583781613</v>
       </c>
       <c r="AG125">
-        <v>-5.372941959713851</v>
+        <v>-0.8249597998087332</v>
       </c>
     </row>
     <row r="126">
@@ -13361,16 +13361,16 @@
         <v>5.778175530878628</v>
       </c>
       <c r="S126">
-        <v>-3.247870209304175</v>
+        <v>-3.239868705745852</v>
       </c>
       <c r="T126">
-        <v>498913</v>
+        <v>528704.1666666666</v>
       </c>
       <c r="U126">
-        <v>537720.6274368176</v>
+        <v>536150.9947651338</v>
       </c>
       <c r="V126">
-        <v>-7.21706132454023</v>
+        <v>-1.388942326168652</v>
       </c>
       <c r="W126">
         <v>108.67</v>
@@ -13403,7 +13403,7 @@
         <v>7.997094463467169</v>
       </c>
       <c r="AG126">
-        <v>-6.003765405900063</v>
+        <v>-1.063094275563259</v>
       </c>
     </row>
     <row r="127">
@@ -13464,16 +13464,16 @@
         <v>5.946150906262131</v>
       </c>
       <c r="S127">
-        <v>-2.932757495103701</v>
+        <v>-2.658810266205314</v>
       </c>
       <c r="T127">
-        <v>502554</v>
+        <v>527438.8333333334</v>
       </c>
       <c r="U127">
-        <v>538028.894621317</v>
+        <v>536496.9753630406</v>
       </c>
       <c r="V127">
-        <v>-6.593492464059103</v>
+        <v>-1.688386411419684</v>
       </c>
       <c r="W127">
         <v>104.88</v>
@@ -13506,7 +13506,7 @@
         <v>6.302938322231699</v>
       </c>
       <c r="AG127">
-        <v>-7.21706132454023</v>
+        <v>-1.388942326168652</v>
       </c>
     </row>
     <row r="128">
@@ -13567,16 +13567,16 @@
         <v>6.459647859474327</v>
       </c>
       <c r="S128">
-        <v>-2.300177230210406</v>
+        <v>-2.097068365390531</v>
       </c>
       <c r="T128">
-        <v>512120</v>
+        <v>526434.0833333334</v>
       </c>
       <c r="U128">
-        <v>538340.3642940774</v>
+        <v>536835.6899223878</v>
       </c>
       <c r="V128">
-        <v>-4.870592293122955</v>
+        <v>-1.937577322878492</v>
       </c>
       <c r="W128">
         <v>99.55</v>
@@ -13609,7 +13609,7 @@
         <v>2.261854633758187</v>
       </c>
       <c r="AG128">
-        <v>-6.593492464059103</v>
+        <v>-1.688386411419684</v>
       </c>
     </row>
     <row r="129">
@@ -13670,16 +13670,16 @@
         <v>6.852426388807586</v>
       </c>
       <c r="S129">
-        <v>-1.836834466136694</v>
+        <v>-1.94326292667012</v>
       </c>
       <c r="T129">
-        <v>516031</v>
+        <v>525629.4166666666</v>
       </c>
       <c r="U129">
-        <v>538656.2448084673</v>
+        <v>537168.9683531845</v>
       </c>
       <c r="V129">
-        <v>-4.200312356262071</v>
+        <v>-2.14821636512158</v>
       </c>
       <c r="W129">
         <v>98.17</v>
@@ -13712,7 +13712,7 @@
         <v>-3.24931380666833</v>
       </c>
       <c r="AG129">
-        <v>-4.870592293122955</v>
+        <v>-1.937577322878492</v>
       </c>
     </row>
     <row r="130">
@@ -13773,16 +13773,16 @@
         <v>7.542037803980878</v>
       </c>
       <c r="S130">
-        <v>-1.091574362546599</v>
+        <v>-0.8646406674217455</v>
       </c>
       <c r="T130">
-        <v>516844</v>
+        <v>525154.0833333334</v>
       </c>
       <c r="U130">
-        <v>538977.5422002298</v>
+        <v>537498.5603061289</v>
       </c>
       <c r="V130">
-        <v>-4.106579674892508</v>
+        <v>-2.296653030245299</v>
       </c>
       <c r="W130">
         <v>99.09999999999999</v>
@@ -13815,7 +13815,7 @@
         <v>-4.899032020207839</v>
       </c>
       <c r="AG130">
-        <v>-4.200312356262071</v>
+        <v>-2.14821636512158</v>
       </c>
     </row>
     <row r="131">
@@ -13876,16 +13876,16 @@
         <v>6.458661502666301</v>
       </c>
       <c r="S131">
-        <v>-1.826511738202514</v>
+        <v>-1.30836979450607</v>
       </c>
       <c r="T131">
-        <v>517497</v>
+        <v>524351.75</v>
       </c>
       <c r="U131">
-        <v>539305.0879276025</v>
+        <v>537826.1263921692</v>
       </c>
       <c r="V131">
-        <v>-4.043738584296475</v>
+        <v>-2.505340616782159</v>
       </c>
       <c r="W131">
         <v>95.95</v>
@@ -13918,7 +13918,7 @@
         <v>-4.309237181560476</v>
       </c>
       <c r="AG131">
-        <v>-4.106579674892508</v>
+        <v>-2.296653030245299</v>
       </c>
     </row>
     <row r="132">
@@ -13979,16 +13979,16 @@
         <v>5.479626638443828</v>
       </c>
       <c r="S132">
-        <v>-2.129437856265694</v>
+        <v>-1.411695823493941</v>
       </c>
       <c r="T132">
-        <v>533972</v>
+        <v>523383.5833333333</v>
       </c>
       <c r="U132">
-        <v>539639.5426653177</v>
+        <v>538153.2319716585</v>
       </c>
       <c r="V132">
-        <v>-1.050245991486332</v>
+        <v>-2.744506166805494</v>
       </c>
       <c r="W132">
         <v>98.84</v>
@@ -14021,7 +14021,7 @@
         <v>-7.652754669186357</v>
       </c>
       <c r="AG132">
-        <v>-4.043738584296475</v>
+        <v>-2.505340616782159</v>
       </c>
     </row>
     <row r="133">
@@ -14082,16 +14082,16 @@
         <v>4.596858638743456</v>
       </c>
       <c r="S133">
-        <v>-2.286468393039739</v>
+        <v>-1.592945113610433</v>
       </c>
       <c r="T133">
-        <v>559024</v>
+        <v>522293.5</v>
       </c>
       <c r="U133">
-        <v>539981.3988158237</v>
+        <v>538481.3384359976</v>
       </c>
       <c r="V133">
-        <v>3.526529103768494</v>
+        <v>-3.006202310188633</v>
       </c>
       <c r="W133">
         <v>97.55</v>
@@ -14124,7 +14124,7 @@
         <v>-5.183826056196783</v>
       </c>
       <c r="AG133">
-        <v>-1.050245991486332</v>
+        <v>-2.744506166805494</v>
       </c>
     </row>
     <row r="134">
@@ -14185,16 +14185,16 @@
         <v>5.541603839700978</v>
       </c>
       <c r="S134">
-        <v>-0.6233325987361346</v>
+        <v>0.1818736019942646</v>
       </c>
       <c r="T134">
-        <v>554650</v>
+        <v>522003.5833333333</v>
       </c>
       <c r="U134">
-        <v>540331.1050505303</v>
+        <v>538811.7932132484</v>
       </c>
       <c r="V134">
-        <v>2.650022331794255</v>
+        <v>-3.119495544015083</v>
       </c>
       <c r="W134">
         <v>93.08</v>
@@ -14227,7 +14227,7 @@
         <v>-6.732174679395952</v>
       </c>
       <c r="AG134">
-        <v>3.526529103768494</v>
+        <v>-3.006202310188633</v>
       </c>
     </row>
     <row r="135">
@@ -14288,16 +14288,16 @@
         <v>5.430799739939664</v>
       </c>
       <c r="S135">
-        <v>-0.02894033837934105</v>
+        <v>0.6403204848603128</v>
       </c>
       <c r="T135">
-        <v>538884</v>
+        <v>521990.5833333333</v>
       </c>
       <c r="U135">
-        <v>540689.2569744989</v>
+        <v>539145.8188253118</v>
       </c>
       <c r="V135">
-        <v>-0.3338806812253736</v>
+        <v>-3.181928690341373</v>
       </c>
       <c r="W135">
         <v>91.5</v>
@@ -14330,7 +14330,7 @@
         <v>-11.30558507221372</v>
       </c>
       <c r="AG135">
-        <v>2.650022331794255</v>
+        <v>-3.119495544015083</v>
       </c>
     </row>
     <row r="136">
@@ -14391,16 +14391,16 @@
         <v>5.940772480627916</v>
       </c>
       <c r="S136">
-        <v>0.9989198207964993</v>
+        <v>1.310865908604675</v>
       </c>
       <c r="T136">
-        <v>513326</v>
+        <v>522413.6666666667</v>
       </c>
       <c r="U136">
-        <v>541056.5606780895</v>
+        <v>539484.5081011119</v>
       </c>
       <c r="V136">
-        <v>-5.125260960394906</v>
+        <v>-3.164287607540661</v>
       </c>
       <c r="W136">
         <v>92.12</v>
@@ -14433,7 +14433,7 @@
         <v>-13.10929962203355</v>
       </c>
       <c r="AG136">
-        <v>-0.3338806812253736</v>
+        <v>-3.181928690341373</v>
       </c>
     </row>
     <row r="137">
@@ -14494,16 +14494,16 @@
         <v>6.743815643113067</v>
       </c>
       <c r="S137">
-        <v>2.176981445078581</v>
+        <v>2.559392431891871</v>
       </c>
       <c r="T137">
-        <v>516146</v>
+        <v>523330.0833333333</v>
       </c>
       <c r="U137">
-        <v>541433.708322214</v>
+        <v>539828.8214989282</v>
       </c>
       <c r="V137">
-        <v>-4.670508676043672</v>
+        <v>-3.056290718191612</v>
       </c>
       <c r="W137">
         <v>93.26000000000001</v>
@@ -14536,7 +14536,7 @@
         <v>-12.82491115158944</v>
       </c>
       <c r="AG137">
-        <v>-5.125260960394906</v>
+        <v>-3.164287607540661</v>
       </c>
     </row>
     <row r="138">
@@ -14597,16 +14597,16 @@
         <v>8.734251526645064</v>
       </c>
       <c r="S138">
-        <v>4.470719343853538</v>
+        <v>4.955841241935377</v>
       </c>
       <c r="T138">
-        <v>521218</v>
+        <v>525188.8333333334</v>
       </c>
       <c r="U138">
-        <v>541821.1780974049</v>
+        <v>540179.5877575844</v>
       </c>
       <c r="V138">
-        <v>-3.802578955985547</v>
+        <v>-2.775142705129097</v>
       </c>
       <c r="W138">
         <v>95.64</v>
@@ -14639,7 +14639,7 @@
         <v>-12.05896596168763</v>
       </c>
       <c r="AG138">
-        <v>-4.670508676043672</v>
+        <v>-3.056290718191612</v>
       </c>
     </row>
     <row r="139">
@@ -14700,16 +14700,16 @@
         <v>9.017832288997836</v>
       </c>
       <c r="S139">
-        <v>5.272866199453193</v>
+        <v>5.842555620386247</v>
       </c>
       <c r="T139">
-        <v>529053</v>
+        <v>527397.0833333334</v>
       </c>
       <c r="U139">
-        <v>542219.2530729901</v>
+        <v>540537.5083108266</v>
       </c>
       <c r="V139">
-        <v>-2.428215707644332</v>
+        <v>-2.43099225779112</v>
       </c>
       <c r="W139">
         <v>99.23</v>
@@ -14742,7 +14742,7 @@
         <v>-10.14075514063294</v>
       </c>
       <c r="AG139">
-        <v>-3.802578955985547</v>
+        <v>-2.775142705129097</v>
       </c>
     </row>
     <row r="140">
@@ -14803,16 +14803,16 @@
         <v>7.841876195492474</v>
       </c>
       <c r="S140">
-        <v>4.59833632742326</v>
+        <v>4.996471809456238</v>
       </c>
       <c r="T140">
-        <v>535669</v>
+        <v>529359.5</v>
       </c>
       <c r="U140">
-        <v>542628.0573431586</v>
+        <v>540903.1689229985</v>
       </c>
       <c r="V140">
-        <v>-1.282472818901381</v>
+        <v>-2.134147031525679</v>
       </c>
       <c r="W140">
         <v>97.45</v>
@@ -14845,7 +14845,7 @@
         <v>-7.111713238286055</v>
       </c>
       <c r="AG140">
-        <v>-2.428215707644332</v>
+        <v>-2.43099225779112</v>
       </c>
     </row>
     <row r="141">
@@ -14906,16 +14906,16 @@
         <v>6.598698338957795</v>
       </c>
       <c r="S141">
-        <v>3.774773220988661</v>
+        <v>4.039330801247121</v>
       </c>
       <c r="T141">
-        <v>535510</v>
+        <v>530982.75</v>
       </c>
       <c r="U141">
-        <v>543047.6134106381</v>
+        <v>541277.0539662753</v>
       </c>
       <c r="V141">
-        <v>-1.38802072313654</v>
+        <v>-1.901854861727925</v>
       </c>
       <c r="W141">
         <v>97.36</v>
@@ -14948,7 +14948,7 @@
         <v>-9.121524204744214</v>
       </c>
       <c r="AG141">
-        <v>-1.282472818901381</v>
+        <v>-2.134147031525679</v>
       </c>
     </row>
     <row r="142">
@@ -15009,16 +15009,16 @@
         <v>5.972532998285697</v>
       </c>
       <c r="S142">
-        <v>3.319183351262663</v>
+        <v>3.347506337317818</v>
       </c>
       <c r="T142">
-        <v>533999</v>
+        <v>532412.3333333334</v>
       </c>
       <c r="U142">
-        <v>543477.8900817292</v>
+        <v>541659.5587413156</v>
       </c>
       <c r="V142">
-        <v>-1.744116964961295</v>
+        <v>-1.707202477783376</v>
       </c>
       <c r="W142">
         <v>97.51000000000001</v>
@@ -15051,7 +15051,7 @@
         <v>-9.554605273304951</v>
       </c>
       <c r="AG142">
-        <v>-1.38802072313654</v>
+        <v>-1.901854861727925</v>
       </c>
     </row>
     <row r="143">
@@ -15112,16 +15112,16 @@
         <v>6.016056210310834</v>
       </c>
       <c r="S143">
-        <v>3.364850424253667</v>
+        <v>3.228876543632753</v>
       </c>
       <c r="T143">
-        <v>534910</v>
+        <v>533863.4166666666</v>
       </c>
       <c r="U143">
-        <v>543918.7980021321</v>
+        <v>542050.9991174171</v>
       </c>
       <c r="V143">
-        <v>-1.656276274183266</v>
+        <v>-1.510481940644293</v>
       </c>
       <c r="W143">
         <v>97.91</v>
@@ -15154,7 +15154,7 @@
         <v>-9.770913312249741</v>
       </c>
       <c r="AG143">
-        <v>-1.744116964961295</v>
+        <v>-1.707202477783376</v>
       </c>
     </row>
     <row r="144">
@@ -15215,16 +15215,16 @@
         <v>6.034435207438635</v>
       </c>
       <c r="S144">
-        <v>3.265527031379922</v>
+        <v>3.146337750426675</v>
       </c>
       <c r="T144">
-        <v>551409</v>
+        <v>535316.5</v>
       </c>
       <c r="U144">
-        <v>544370.1746779658</v>
+        <v>542451.6196118318</v>
       </c>
       <c r="V144">
-        <v>1.293021853410359</v>
+        <v>-1.315346724734201</v>
       </c>
       <c r="W144">
         <v>99.87</v>
@@ -15257,7 +15257,7 @@
         <v>-9.763871665671731</v>
       </c>
       <c r="AG144">
-        <v>-1.656276274183266</v>
+        <v>-1.510481940644293</v>
       </c>
     </row>
     <row r="145">
@@ -15318,16 +15318,16 @@
         <v>6.385774351786965</v>
       </c>
       <c r="S145">
-        <v>3.470155127507942</v>
+        <v>3.337323314023255</v>
       </c>
       <c r="T145">
-        <v>578423</v>
+        <v>536933.0833333334</v>
       </c>
       <c r="U145">
-        <v>544831.7881030173</v>
+        <v>542861.6015660181</v>
       </c>
       <c r="V145">
-        <v>6.165428051461497</v>
+        <v>-1.092086494160283</v>
       </c>
       <c r="W145">
         <v>100.99</v>
@@ -15360,7 +15360,7 @@
         <v>-8.333857713747939</v>
       </c>
       <c r="AG145">
-        <v>1.293021853410359</v>
+        <v>-1.315346724734201</v>
       </c>
     </row>
     <row r="146">
@@ -15421,16 +15421,16 @@
         <v>6.511038279955026</v>
       </c>
       <c r="S146">
-        <v>3.540611196249888</v>
+        <v>3.549521952124279</v>
       </c>
       <c r="T146">
-        <v>574288</v>
+        <v>538569.5833333334</v>
       </c>
       <c r="U146">
-        <v>545303.460582998</v>
+        <v>543281.0712665028</v>
       </c>
       <c r="V146">
-        <v>5.315304506964602</v>
+        <v>-0.8672284352160498</v>
       </c>
       <c r="W146">
         <v>99.48</v>
@@ -15463,7 +15463,7 @@
         <v>-7.692361920731338</v>
       </c>
       <c r="AG146">
-        <v>6.165428051461497</v>
+        <v>-1.092086494160283</v>
       </c>
     </row>
     <row r="147">
@@ -15524,16 +15524,16 @@
         <v>5.81957886425971</v>
       </c>
       <c r="S147">
-        <v>2.855159923100333</v>
+        <v>2.897295667308142</v>
       </c>
       <c r="T147">
-        <v>554270</v>
+        <v>539851.75</v>
       </c>
       <c r="U147">
-        <v>545785.2736150676</v>
+        <v>543710.1092550703</v>
       </c>
       <c r="V147">
-        <v>1.554590567959613</v>
+        <v>-0.7096353717529036</v>
       </c>
       <c r="W147">
         <v>101.89</v>
@@ -15566,7 +15566,7 @@
         <v>-9.458871728942453</v>
       </c>
       <c r="AG147">
-        <v>5.315304506964602</v>
+        <v>-0.8672284352160498</v>
       </c>
     </row>
     <row r="148">
@@ -15627,16 +15627,16 @@
         <v>4.962334962334962</v>
       </c>
       <c r="S148">
-        <v>2.109965207295169</v>
+        <v>2.222764863980298</v>
       </c>
       <c r="T148">
-        <v>524157</v>
+        <v>540754.3333333334</v>
       </c>
       <c r="U148">
-        <v>546277.5323425266</v>
+        <v>544148.759719434</v>
       </c>
       <c r="V148">
-        <v>-4.049321275885198</v>
+        <v>-0.6238048558358855</v>
       </c>
       <c r="W148">
         <v>102.57</v>
@@ -15669,7 +15669,7 @@
         <v>-7.666576289816163</v>
       </c>
       <c r="AG148">
-        <v>1.554590567959613</v>
+        <v>-0.7096353717529036</v>
       </c>
     </row>
     <row r="149">
@@ -15730,16 +15730,16 @@
         <v>3.157003672678859</v>
       </c>
       <c r="S149">
-        <v>0.3834186451120419</v>
+        <v>0.3863406701818395</v>
       </c>
       <c r="T149">
-        <v>518125</v>
+        <v>540919.25</v>
       </c>
       <c r="U149">
-        <v>546780.6073772402</v>
+        <v>544597.0370760157</v>
       </c>
       <c r="V149">
-        <v>-5.240787070831477</v>
+        <v>-0.6753226377730681</v>
       </c>
       <c r="W149">
         <v>106.74</v>
@@ -15772,7 +15772,7 @@
         <v>-7.459342148204263</v>
       </c>
       <c r="AG149">
-        <v>-4.049321275885198</v>
+        <v>-0.6238048558358855</v>
       </c>
     </row>
     <row r="150">
@@ -15833,16 +15833,16 @@
         <v>1.797827151345128</v>
       </c>
       <c r="S150">
-        <v>-0.9424079751658616</v>
+        <v>-1.032639362876597</v>
       </c>
       <c r="T150">
-        <v>516306</v>
+        <v>540509.9166666666</v>
       </c>
       <c r="U150">
-        <v>547294.6986479573</v>
+        <v>545054.9295496757</v>
       </c>
       <c r="V150">
-        <v>-5.662159477245465</v>
+        <v>-0.8338632744343988</v>
       </c>
       <c r="W150">
         <v>110</v>
@@ -15875,7 +15875,7 @@
         <v>-4.127660865859461</v>
       </c>
       <c r="AG150">
-        <v>-5.240787070831477</v>
+        <v>-0.6753226377730681</v>
       </c>
     </row>
     <row r="151">
@@ -15936,16 +15936,16 @@
         <v>1.985638577823171</v>
       </c>
       <c r="S151">
-        <v>-1.306674378559426</v>
+        <v>-2.303248799862856</v>
       </c>
       <c r="T151">
-        <v>522140</v>
+        <v>539933.8333333334</v>
       </c>
       <c r="U151">
-        <v>547819.7849753401</v>
+        <v>545522.3969872851</v>
       </c>
       <c r="V151">
-        <v>-4.687633721826256</v>
+        <v>-1.024442568227313</v>
       </c>
       <c r="W151">
         <v>110.84</v>
@@ -15978,7 +15978,7 @@
         <v>-1.6479447617754</v>
       </c>
       <c r="AG151">
-        <v>-5.662159477245465</v>
+        <v>-0.8338632744343988</v>
       </c>
     </row>
     <row r="152">
@@ -16039,16 +16039,16 @@
         <v>4.042743523435933</v>
       </c>
       <c r="S152">
-        <v>0.1278774765760199</v>
+        <v>-0.4185073474005097</v>
       </c>
       <c r="T152">
-        <v>536354</v>
+        <v>539990.9166666666</v>
       </c>
       <c r="U152">
-        <v>548355.6060697247</v>
+        <v>545999.3641661752</v>
       </c>
       <c r="V152">
-        <v>-2.188653847408395</v>
+        <v>-1.100449541490667</v>
       </c>
       <c r="W152">
         <v>111.84</v>
@@ -16081,7 +16081,7 @@
         <v>-1.352875210301896</v>
       </c>
       <c r="AG152">
-        <v>-4.687633721826256</v>
+        <v>-1.024442568227313</v>
       </c>
     </row>
     <row r="153">
@@ -16142,16 +16142,16 @@
         <v>6.509371418586604</v>
       </c>
       <c r="S153">
-        <v>2.063453530279546</v>
+        <v>2.226097915909975</v>
       </c>
       <c r="T153">
-        <v>546560</v>
+        <v>540911.75</v>
       </c>
       <c r="U153">
-        <v>548901.703494959</v>
+        <v>546485.7127420424</v>
       </c>
       <c r="V153">
-        <v>-0.4266161828336501</v>
+        <v>-1.01996495280261</v>
       </c>
       <c r="W153">
         <v>113.82</v>
@@ -16184,7 +16184,7 @@
         <v>-0.9267080455887977</v>
       </c>
       <c r="AG153">
-        <v>-2.188653847408395</v>
+        <v>-1.100449541490667</v>
       </c>
     </row>
     <row r="154">
@@ -16245,16 +16245,16 @@
         <v>7.110874502027895</v>
       </c>
       <c r="S154">
-        <v>2.595697744752331</v>
+        <v>2.469027553838998</v>
       </c>
       <c r="T154">
-        <v>547860</v>
+        <v>542066.8333333334</v>
       </c>
       <c r="U154">
-        <v>549457.5262099042</v>
+        <v>546981.2780091047</v>
       </c>
       <c r="V154">
-        <v>-0.2907460783954985</v>
+        <v>-0.8984667068786756</v>
       </c>
       <c r="W154">
         <v>116.32</v>
@@ -16287,7 +16287,7 @@
         <v>0.3519342190114072</v>
       </c>
       <c r="AG154">
-        <v>-0.4266161828336501</v>
+        <v>-1.01996495280261</v>
       </c>
     </row>
     <row r="155">
@@ -16348,16 +16348,16 @@
         <v>6.542805193474866</v>
       </c>
       <c r="S155">
-        <v>2.02763081639902</v>
+        <v>1.896332434463344</v>
       </c>
       <c r="T155">
-        <v>545756</v>
+        <v>542970.6666666666</v>
       </c>
       <c r="U155">
-        <v>550022.5051047226</v>
+        <v>547485.8522526094</v>
       </c>
       <c r="V155">
-        <v>-0.7756964606221439</v>
+        <v>-0.824712742322975</v>
       </c>
       <c r="W155">
         <v>106.32</v>
@@ -16390,7 +16390,7 @@
         <v>2.067471019789879</v>
       </c>
       <c r="AG155">
-        <v>-0.2907460783954985</v>
+        <v>-0.8984667068786756</v>
       </c>
     </row>
     <row r="156">
@@ -16451,16 +16451,16 @@
         <v>5.19013398928383</v>
       </c>
       <c r="S156">
-        <v>0.7805458380258574</v>
+        <v>1.095755876293936</v>
       </c>
       <c r="T156">
-        <v>555713</v>
+        <v>543329.3333333334</v>
       </c>
       <c r="U156">
-        <v>550596.0587429842</v>
+        <v>547999.1898377056</v>
       </c>
       <c r="V156">
-        <v>0.9293457836762942</v>
+        <v>-0.8521648555274708</v>
       </c>
       <c r="W156">
         <v>106.72</v>
@@ -16493,7 +16493,7 @@
         <v>-7.156052154270343</v>
       </c>
       <c r="AG156">
-        <v>-0.7756964606221439</v>
+        <v>-0.824712742322975</v>
       </c>
     </row>
     <row r="157">
@@ -16554,16 +16554,16 @@
         <v>4.156207728047991</v>
       </c>
       <c r="S157">
-        <v>0.03959040356279055</v>
+        <v>0.3915255210100943</v>
       </c>
       <c r="T157">
-        <v>578652</v>
+        <v>543348.4166666666</v>
       </c>
       <c r="U157">
-        <v>551177.572767696</v>
+        <v>548521.0102901481</v>
       </c>
       <c r="V157">
-        <v>4.98467800392226</v>
+        <v>-0.9430073828430641</v>
       </c>
       <c r="W157">
         <v>109.46</v>
@@ -16596,7 +16596,7 @@
         <v>-7.259013848612394</v>
       </c>
       <c r="AG157">
-        <v>0.9293457836762942</v>
+        <v>-0.8521648555274708</v>
       </c>
     </row>
     <row r="158">
@@ -16657,16 +16657,16 @@
         <v>3.737569576131697</v>
       </c>
       <c r="S158">
-        <v>-0.113531886440253</v>
+        <v>-0.04088497192937801</v>
       </c>
       <c r="T158">
-        <v>573636</v>
+        <v>543294.0833333334</v>
       </c>
       <c r="U158">
-        <v>551766.4723044354</v>
+        <v>549050.9971028458</v>
       </c>
       <c r="V158">
-        <v>3.963547767632059</v>
+        <v>-1.048520774917028</v>
       </c>
       <c r="W158">
         <v>106.18</v>
@@ -16699,7 +16699,7 @@
         <v>-5.343135203044048</v>
       </c>
       <c r="AG158">
-        <v>4.98467800392226</v>
+        <v>-0.9430073828430641</v>
       </c>
     </row>
     <row r="159">
@@ -16760,16 +16760,16 @@
         <v>4.014376069793185</v>
       </c>
       <c r="S159">
-        <v>0.2024284193624046</v>
+        <v>0.1197190006672288</v>
       </c>
       <c r="T159">
-        <v>555392</v>
+        <v>543387.5833333334</v>
       </c>
       <c r="U159">
-        <v>552362.3944728189</v>
+        <v>549588.7938567239</v>
       </c>
       <c r="V159">
-        <v>0.5484814964770601</v>
+        <v>-1.128336420375997</v>
       </c>
       <c r="W159">
         <v>105.64</v>
@@ -16802,7 +16802,7 @@
         <v>-8.631641596439311</v>
       </c>
       <c r="AG159">
-        <v>3.963547767632059</v>
+        <v>-1.048520774917028</v>
       </c>
     </row>
     <row r="160">
@@ -16863,16 +16863,16 @@
         <v>4.658790119074261</v>
       </c>
       <c r="S160">
-        <v>0.5549863876662908</v>
+        <v>0.07533956690979338</v>
       </c>
       <c r="T160">
-        <v>527066</v>
+        <v>543630</v>
       </c>
       <c r="U160">
-        <v>552965.145138818</v>
+        <v>550133.999712073</v>
       </c>
       <c r="V160">
-        <v>-4.683684924176578</v>
+        <v>-1.182257361929462</v>
       </c>
       <c r="W160">
         <v>107.76</v>
@@ -16905,7 +16905,7 @@
         <v>-9.546402178365177</v>
       </c>
       <c r="AG160">
-        <v>0.5484814964770601</v>
+        <v>-1.128336420375997</v>
       </c>
     </row>
     <row r="161">
@@ -16966,16 +16966,16 @@
         <v>4.978939550537288</v>
       </c>
       <c r="S161">
-        <v>0.4881061519903498</v>
+        <v>0.03710648993451304</v>
       </c>
       <c r="T161">
-        <v>520654</v>
+        <v>543840.75</v>
       </c>
       <c r="U161">
-        <v>553574.5535449882</v>
+        <v>550686.1659803392</v>
       </c>
       <c r="V161">
-        <v>-5.946905133946467</v>
+        <v>-1.243070264558555</v>
       </c>
       <c r="W161">
         <v>108.96</v>
@@ -17008,7 +17008,7 @@
         <v>-8.190033560826359</v>
       </c>
       <c r="AG161">
-        <v>-4.683684924176578</v>
+        <v>-1.182257361929462</v>
       </c>
     </row>
     <row r="162">
@@ -17069,16 +17069,16 @@
         <v>5.699384876169281</v>
       </c>
       <c r="S162">
-        <v>0.9304559699093172</v>
+        <v>0.993106130488508</v>
       </c>
       <c r="T162">
-        <v>521110</v>
+        <v>544241.0833333334</v>
       </c>
       <c r="U162">
-        <v>554190.2490948043</v>
+        <v>551244.7937877843</v>
       </c>
       <c r="V162">
-        <v>-5.969114243499673</v>
+        <v>-1.270526367482971</v>
       </c>
       <c r="W162">
         <v>110.69</v>
@@ -17111,7 +17111,7 @@
         <v>-7.630762015362135</v>
       </c>
       <c r="AG162">
-        <v>-5.946905133946467</v>
+        <v>-1.243070264558555</v>
       </c>
     </row>
     <row r="163">
@@ -17172,16 +17172,16 @@
         <v>3.705927286569398</v>
       </c>
       <c r="S163">
-        <v>-0.5856666794346344</v>
+        <v>0.3249756085608846</v>
       </c>
       <c r="T163">
-        <v>519082</v>
+        <v>543986.25</v>
       </c>
       <c r="U163">
-        <v>554811.6071751227</v>
+        <v>551809.3314411034</v>
       </c>
       <c r="V163">
-        <v>-6.439953078314908</v>
+        <v>-1.417714597299868</v>
       </c>
       <c r="W163">
         <v>107.71</v>
@@ -17214,7 +17214,7 @@
         <v>-6.633106976397485</v>
       </c>
       <c r="AG163">
-        <v>-5.969114243499673</v>
+        <v>-1.270526367482971</v>
       </c>
     </row>
     <row r="164">
@@ -17275,16 +17275,16 @@
         <v>4.850708470765544</v>
       </c>
       <c r="S164">
-        <v>1.066086950036729</v>
+        <v>1.57983769692458</v>
       </c>
       <c r="T164">
-        <v>542072</v>
+        <v>544462.75</v>
       </c>
       <c r="U164">
-        <v>555437.7479239656</v>
+        <v>552379.1732060143</v>
       </c>
       <c r="V164">
-        <v>-2.406344900742186</v>
+        <v>-1.433150196461486</v>
       </c>
       <c r="W164">
         <v>106.95</v>
@@ -17317,7 +17317,7 @@
         <v>-9.600874046022511</v>
       </c>
       <c r="AG164">
-        <v>-6.439953078314908</v>
+        <v>-1.417714597299868</v>
       </c>
     </row>
     <row r="165">
@@ -17378,16 +17378,16 @@
         <v>3.830936032849691</v>
       </c>
       <c r="S165">
-        <v>0.4762514637002342</v>
+        <v>0.3876399814847664</v>
       </c>
       <c r="T165">
-        <v>549163</v>
+        <v>544679.6666666666</v>
       </c>
       <c r="U165">
-        <v>556067.5157879409</v>
+        <v>552953.6529849543</v>
       </c>
       <c r="V165">
-        <v>-1.241668608920143</v>
+        <v>-1.496325464823867</v>
       </c>
       <c r="W165">
         <v>110.62</v>
@@ -17420,7 +17420,7 @@
         <v>-10.68683704370246</v>
       </c>
       <c r="AG165">
-        <v>-2.406344900742186</v>
+        <v>-1.433150196461486</v>
       </c>
     </row>
     <row r="166">
@@ -17481,16 +17481,16 @@
         <v>6.937254487653551</v>
       </c>
       <c r="S166">
-        <v>3.640528602197642</v>
+        <v>3.933574193462475</v>
       </c>
       <c r="T166">
-        <v>567805</v>
+        <v>546341.75</v>
       </c>
       <c r="U166">
-        <v>556699.652082886</v>
+        <v>553532.0435968471</v>
       </c>
       <c r="V166">
-        <v>1.994854474143004</v>
+        <v>-1.298984165419692</v>
       </c>
       <c r="W166">
         <v>112.63</v>
@@ -17523,7 +17523,7 @@
         <v>-8.081864042029762</v>
       </c>
       <c r="AG166">
-        <v>-1.241668608920143</v>
+        <v>-1.496325464823867</v>
       </c>
     </row>
     <row r="167">
@@ -17584,16 +17584,16 @@
         <v>7.435841351411766</v>
       </c>
       <c r="S167">
-        <v>4.356342394769824</v>
+        <v>4.774567340951585</v>
       </c>
       <c r="T167">
-        <v>569531</v>
+        <v>548323</v>
       </c>
       <c r="U167">
-        <v>557332.8448490531</v>
+        <v>554113.5540181295</v>
       </c>
       <c r="V167">
-        <v>2.188666120018579</v>
+        <v>-1.045012159716996</v>
       </c>
       <c r="W167">
         <v>112.09</v>
@@ -17626,7 +17626,7 @@
         <v>-6.875318265158947</v>
       </c>
       <c r="AG167">
-        <v>1.994854474143004</v>
+        <v>-1.298984165419692</v>
       </c>
     </row>
     <row r="168">
@@ -17687,16 +17687,16 @@
         <v>8.355057566273629</v>
       </c>
       <c r="S168">
-        <v>5.300397867244423</v>
+        <v>4.924041412098035</v>
       </c>
       <c r="T168">
-        <v>585168</v>
+        <v>550777.5833333334</v>
       </c>
       <c r="U168">
-        <v>557965.8678161072</v>
+        <v>554697.3377445773</v>
       </c>
       <c r="V168">
-        <v>4.875232295187271</v>
+        <v>-0.7066474173432757</v>
       </c>
       <c r="W168">
         <v>113.51</v>
@@ -17729,7 +17729,7 @@
         <v>-7.777875790098832</v>
       </c>
       <c r="AG168">
-        <v>2.188666120018579</v>
+        <v>-1.045012159716996</v>
       </c>
     </row>
     <row r="169">
@@ -17790,16 +17790,16 @@
         <v>10.07200581828695</v>
       </c>
       <c r="S169">
-        <v>6.481615893490387</v>
+        <v>5.52392466521614</v>
       </c>
       <c r="T169">
-        <v>616158</v>
+        <v>553903.0833333334</v>
       </c>
       <c r="U169">
-        <v>558597.5888352818</v>
+        <v>555282.5035917663</v>
       </c>
       <c r="V169">
-        <v>10.30445034407257</v>
+        <v>-0.2484177422321765</v>
       </c>
       <c r="W169">
         <v>111.81</v>
@@ -17832,7 +17832,7 @@
         <v>-7.065169188921406</v>
       </c>
       <c r="AG169">
-        <v>4.875232295187271</v>
+        <v>-0.7066474173432757</v>
       </c>
     </row>
     <row r="170">
@@ -17893,16 +17893,16 @@
         <v>9.750867320457836</v>
       </c>
       <c r="S170">
-        <v>5.60599404500415</v>
+        <v>5.337237086532154</v>
       </c>
       <c r="T170">
-        <v>605794</v>
+        <v>556582.9166666666</v>
       </c>
       <c r="U170">
-        <v>559227.0856508045</v>
+        <v>555868.1301302535</v>
       </c>
       <c r="V170">
-        <v>8.327013398323334</v>
+        <v>0.1285892278525935</v>
       </c>
       <c r="W170">
         <v>113.2</v>
@@ -17935,7 +17935,7 @@
         <v>-8.898782504005997</v>
       </c>
       <c r="AG170">
-        <v>10.30445034407257</v>
+        <v>-0.2484177422321765</v>
       </c>
     </row>
     <row r="171">
@@ -17996,16 +17996,16 @@
         <v>10.08743758644131</v>
       </c>
       <c r="S171">
-        <v>5.683373185065683</v>
+        <v>5.843128147717813</v>
       </c>
       <c r="T171">
-        <v>586957</v>
+        <v>559213.3333333334</v>
       </c>
       <c r="U171">
-        <v>559853.8801458784</v>
+        <v>556453.285286921</v>
       </c>
       <c r="V171">
-        <v>4.841106012708085</v>
+        <v>0.4960071437064562</v>
       </c>
       <c r="W171">
         <v>118.06</v>
@@ -18038,7 +18038,7 @@
         <v>-8.205498231688901</v>
       </c>
       <c r="AG171">
-        <v>8.327013398323334</v>
+        <v>0.1285892278525935</v>
       </c>
     </row>
     <row r="172">
@@ -18099,16 +18099,16 @@
         <v>5.670992478985401</v>
       </c>
       <c r="S172">
-        <v>1.771694626479416</v>
+        <v>2.295249253616061</v>
       </c>
       <c r="T172">
-        <v>536404</v>
+        <v>559991.5</v>
       </c>
       <c r="U172">
-        <v>560477.8535163178</v>
+        <v>557037.0425039792</v>
       </c>
       <c r="V172">
-        <v>-4.295237245376171</v>
+        <v>0.5303879761281216</v>
       </c>
       <c r="W172">
         <v>131.08</v>
@@ -18141,7 +18141,7 @@
         <v>-4.713349698497216</v>
       </c>
       <c r="AG172">
-        <v>4.841106012708085</v>
+        <v>0.4960071437064562</v>
       </c>
     </row>
     <row r="173">
@@ -18202,16 +18202,16 @@
         <v>6.567884132540105</v>
       </c>
       <c r="S173">
-        <v>3.231128542179643</v>
+        <v>4.07019934818369</v>
       </c>
       <c r="T173">
-        <v>537477</v>
+        <v>561393.4166666666</v>
       </c>
       <c r="U173">
-        <v>561099.0960869472</v>
+        <v>557618.4965203053</v>
       </c>
       <c r="V173">
-        <v>-4.209968658243357</v>
+        <v>0.6769718310848605</v>
       </c>
       <c r="W173">
         <v>141.14</v>
@@ -18244,7 +18244,7 @@
         <v>5.30816276810524</v>
       </c>
       <c r="AG173">
-        <v>-4.295237245376171</v>
+        <v>0.5303879761281216</v>
       </c>
     </row>
     <row r="174">
@@ -18305,16 +18305,16 @@
         <v>9.638429752066116</v>
       </c>
       <c r="S174">
-        <v>6.938458290955844</v>
+        <v>7.615262811215295</v>
       </c>
       <c r="T174">
-        <v>557267</v>
+        <v>564406.5</v>
       </c>
       <c r="U174">
-        <v>561717.5124275498</v>
+        <v>558196.7648715167</v>
       </c>
       <c r="V174">
-        <v>-0.79230437525728</v>
+        <v>1.112463475117531</v>
       </c>
       <c r="W174">
         <v>149.83</v>
@@ -18347,7 +18347,7 @@
         <v>12.87930954193179</v>
       </c>
       <c r="AG174">
-        <v>-4.209968658243357</v>
+        <v>0.6769718310848605</v>
       </c>
     </row>
     <row r="175">
@@ -18408,16 +18408,16 @@
         <v>16.31771745583631</v>
       </c>
       <c r="S175">
-        <v>13.88508944636878</v>
+        <v>13.89182165459344</v>
       </c>
       <c r="T175">
-        <v>591157</v>
+        <v>570412.75</v>
       </c>
       <c r="U175">
-        <v>562332.8248386475</v>
+        <v>558770.9942207007</v>
       </c>
       <c r="V175">
-        <v>5.12582120199423</v>
+        <v>2.08345742705125</v>
       </c>
       <c r="W175">
         <v>139.5</v>
@@ -18450,7 +18450,7 @@
         <v>19.30226994403761</v>
       </c>
       <c r="AG175">
-        <v>-0.79230437525728</v>
+        <v>1.112463475117531</v>
       </c>
     </row>
     <row r="176">
@@ -18511,16 +18511,16 @@
         <v>16.25508391104157</v>
       </c>
       <c r="S176">
-        <v>13.85812216827285</v>
+        <v>13.63022569743093</v>
       </c>
       <c r="T176">
-        <v>617193</v>
+        <v>576672.8333333334</v>
       </c>
       <c r="U176">
-        <v>562944.7212803895</v>
+        <v>559340.3791455682</v>
       </c>
       <c r="V176">
-        <v>9.636519656179665</v>
+        <v>3.098731082894757</v>
       </c>
       <c r="W176">
         <v>144.2</v>
@@ -18553,7 +18553,7 @@
         <v>10.60153649099382</v>
       </c>
       <c r="AG176">
-        <v>5.12582120199423</v>
+        <v>2.08345742705125</v>
       </c>
     </row>
     <row r="177">
@@ -18614,16 +18614,16 @@
         <v>15.50678132689551</v>
       </c>
       <c r="S177">
-        <v>12.91838670850003</v>
+        <v>12.75554600438844</v>
       </c>
       <c r="T177">
-        <v>620106</v>
+        <v>582584.75</v>
       </c>
       <c r="U177">
-        <v>563553.1121216833</v>
+        <v>559904.2040521912</v>
       </c>
       <c r="V177">
-        <v>10.0350591030195</v>
+        <v>4.050790435875107</v>
       </c>
       <c r="W177">
         <v>151.32</v>
@@ -18656,7 +18656,7 @@
         <v>13.85290733998035</v>
       </c>
       <c r="AG177">
-        <v>9.636519656179665</v>
+        <v>3.098731082894757</v>
       </c>
     </row>
     <row r="178">
@@ -18717,16 +18717,16 @@
         <v>9.822214438397012</v>
       </c>
       <c r="S178">
-        <v>7.011738184764135</v>
+        <v>6.478780723673649</v>
       </c>
       <c r="T178">
-        <v>607618</v>
+        <v>585902.5</v>
       </c>
       <c r="U178">
-        <v>564158.3263138346</v>
+        <v>560461.8870847155</v>
       </c>
       <c r="V178">
-        <v>7.703453385174219</v>
+        <v>4.539222648593588</v>
       </c>
       <c r="W178">
         <v>148.88</v>
@@ -18759,7 +18759,7 @@
         <v>18.99402573214228</v>
       </c>
       <c r="AG178">
-        <v>10.0350591030195</v>
+        <v>4.050790435875107</v>
       </c>
     </row>
     <row r="179">
@@ -18820,16 +18820,16 @@
         <v>6.115107108898708</v>
       </c>
       <c r="S179">
-        <v>2.860599335242506</v>
+        <v>2.112304762219708</v>
       </c>
       <c r="T179">
-        <v>585823</v>
+        <v>587260.1666666666</v>
       </c>
       <c r="U179">
-        <v>564761.1291730243</v>
+        <v>561013.0213914998</v>
       </c>
       <c r="V179">
-        <v>3.729341439949385</v>
+        <v>4.678526927960625</v>
       </c>
       <c r="W179">
         <v>154.27</v>
@@ -18862,7 +18862,7 @@
         <v>16.6207579403111</v>
       </c>
       <c r="AG179">
-        <v>7.703453385174219</v>
+        <v>4.539222648593588</v>
       </c>
     </row>
     <row r="180">
@@ -18923,16 +18923,16 @@
         <v>1.471355298617752</v>
       </c>
       <c r="S180">
-        <v>-2.233204823230252</v>
+        <v>-2.721354329769188</v>
       </c>
       <c r="T180">
-        <v>572100</v>
+        <v>586171.1666666666</v>
       </c>
       <c r="U180">
-        <v>565362.6213524223</v>
+        <v>561557.3964219267</v>
       </c>
       <c r="V180">
-        <v>1.191691560977448</v>
+        <v>4.383126355662204</v>
       </c>
       <c r="W180">
         <v>148.41</v>
@@ -18965,7 +18965,7 @@
         <v>20.39109951756357</v>
       </c>
       <c r="AG180">
-        <v>3.729341439949385</v>
+        <v>4.678526927960625</v>
       </c>
     </row>
     <row r="181">
@@ -19026,16 +19026,16 @@
         <v>-0.7167554146531646</v>
       </c>
       <c r="S181">
-        <v>-4.76468697963834</v>
+        <v>-5.010290293391851</v>
       </c>
       <c r="T181">
-        <v>586800</v>
+        <v>583724.6666666666</v>
       </c>
       <c r="U181">
-        <v>565964.0660196327</v>
+        <v>562095.0041496493</v>
       </c>
       <c r="V181">
-        <v>3.681494149779563</v>
+        <v>3.848043899578713</v>
       </c>
       <c r="W181">
         <v>141</v>
@@ -19068,7 +19068,7 @@
         <v>15.40208257343616</v>
       </c>
       <c r="AG181">
-        <v>1.191691560977448</v>
+        <v>4.383126355662204</v>
       </c>
     </row>
     <row r="182">
@@ -19129,16 +19129,16 @@
         <v>-1.105745896232873</v>
       </c>
       <c r="S182">
-        <v>-5.331020115748919</v>
+        <v>-5.418655218279333</v>
       </c>
       <c r="T182">
-        <v>573499</v>
+        <v>581033.4166666666</v>
       </c>
       <c r="U182">
-        <v>566566.778328207</v>
+        <v>562626.0264693869</v>
       </c>
       <c r="V182">
-        <v>1.223548915495587</v>
+        <v>3.271691911017793</v>
       </c>
       <c r="W182">
         <v>147.01</v>
@@ -19171,7 +19171,7 @@
         <v>9.262749830428586</v>
       </c>
       <c r="AG182">
-        <v>3.681494149779563</v>
+        <v>3.848043899578713</v>
       </c>
     </row>
     <row r="183">
@@ -19232,16 +19232,16 @@
         <v>0.5104105003598639</v>
       </c>
       <c r="S183">
-        <v>-4.054300400199674</v>
+        <v>-4.457784695475409</v>
       </c>
       <c r="T183">
-        <v>563160</v>
+        <v>579050.3333333334</v>
       </c>
       <c r="U183">
-        <v>567172.2342027916</v>
+        <v>563150.8121714029</v>
       </c>
       <c r="V183">
-        <v>-0.7074101940887756</v>
+        <v>2.82331496613224</v>
       </c>
       <c r="W183">
         <v>148.58</v>
@@ -19274,7 +19274,7 @@
         <v>13.54490500629149</v>
       </c>
       <c r="AG183">
-        <v>1.223548915495587</v>
+        <v>3.271691911017793</v>
       </c>
     </row>
     <row r="184">
@@ -19335,16 +19335,16 @@
         <v>4.313230200984805</v>
       </c>
       <c r="S184">
-        <v>-0.9231847637228656</v>
+        <v>-1.684043165895566</v>
       </c>
       <c r="T184">
-        <v>531452</v>
+        <v>578637.6666666666</v>
       </c>
       <c r="U184">
-        <v>567781.9630573975</v>
+        <v>563669.8520782926</v>
       </c>
       <c r="V184">
-        <v>-6.39857646441736</v>
+        <v>2.65542223576205</v>
       </c>
       <c r="W184">
         <v>152.43</v>
@@ -19377,7 +19377,7 @@
         <v>14.3968598547122</v>
       </c>
       <c r="AG184">
-        <v>-0.7074101940887756</v>
+        <v>2.82331496613224</v>
       </c>
     </row>
     <row r="185">
@@ -19438,16 +19438,16 @@
         <v>5.823270799385338</v>
       </c>
       <c r="S185">
-        <v>-0.1828915469871269</v>
+        <v>-0.8774158866754145</v>
       </c>
       <c r="T185">
-        <v>536494</v>
+        <v>578555.75</v>
       </c>
       <c r="U185">
-        <v>568397.4633474398</v>
+        <v>564183.7596941417</v>
       </c>
       <c r="V185">
-        <v>-5.612879262259907</v>
+        <v>2.547395251796991</v>
       </c>
       <c r="W185">
         <v>150.95</v>
@@ -19480,7 +19480,7 @@
         <v>17.00972332521098</v>
       </c>
       <c r="AG185">
-        <v>-6.39857646441736</v>
+        <v>2.65542223576205</v>
       </c>
     </row>
     <row r="186">
@@ -19541,16 +19541,16 @@
         <v>3.128014609216908</v>
       </c>
       <c r="S186">
-        <v>-3.590738371373148</v>
+        <v>-4.564117518770217</v>
       </c>
       <c r="T186">
-        <v>537257</v>
+        <v>576888.25</v>
       </c>
       <c r="U186">
-        <v>569019.9532045425</v>
+        <v>564693.2640154321</v>
       </c>
       <c r="V186">
-        <v>-5.582045590082297</v>
+        <v>2.159577023790149</v>
       </c>
       <c r="W186">
         <v>144.11</v>
@@ -19583,7 +19583,7 @@
         <v>15.54369832517941</v>
       </c>
       <c r="AG186">
-        <v>-5.612879262259907</v>
+        <v>2.547395251796991</v>
       </c>
     </row>
     <row r="187">
@@ -19644,16 +19644,16 @@
         <v>1.395254271748431</v>
       </c>
       <c r="S187">
-        <v>-5.871536664540892</v>
+        <v>-6.418777783342467</v>
       </c>
       <c r="T187">
-        <v>556447</v>
+        <v>573995.75</v>
       </c>
       <c r="U187">
-        <v>569650.404591632</v>
+        <v>565199.2049336333</v>
       </c>
       <c r="V187">
-        <v>-2.317808340906413</v>
+        <v>1.556361896758074</v>
       </c>
       <c r="W187">
         <v>136.74</v>
@@ -19686,7 +19686,7 @@
         <v>10.00980159659748</v>
       </c>
       <c r="AG187">
-        <v>-5.582045590082297</v>
+        <v>2.159577023790149</v>
       </c>
     </row>
     <row r="188">
@@ -19747,16 +19747,16 @@
         <v>0.9500142897391565</v>
       </c>
       <c r="S188">
-        <v>-6.929923054862903</v>
+        <v>-7.376810450739379</v>
       </c>
       <c r="T188">
-        <v>574422</v>
+        <v>570431.5</v>
       </c>
       <c r="U188">
-        <v>570289.5443871202</v>
+        <v>565702.5164373285</v>
       </c>
       <c r="V188">
-        <v>0.7246241235793427</v>
+        <v>0.8359488291573403</v>
       </c>
       <c r="W188">
         <v>139.21</v>
@@ -19789,7 +19789,7 @@
         <v>4.116013261446883</v>
       </c>
       <c r="AG188">
-        <v>-2.317808340906413</v>
+        <v>1.556361896758074</v>
       </c>
     </row>
     <row r="189">
@@ -19850,16 +19850,16 @@
         <v>0.6157590875258997</v>
       </c>
       <c r="S189">
-        <v>-7.69916756167494</v>
+        <v>-8.264260496420594</v>
       </c>
       <c r="T189">
-        <v>572363</v>
+        <v>566452.9166666666</v>
       </c>
       <c r="U189">
-        <v>570937.997591294</v>
+        <v>566204.200389677</v>
       </c>
       <c r="V189">
-        <v>0.2495896953290666</v>
+        <v>0.04392695723882678</v>
       </c>
       <c r="W189">
         <v>141</v>
@@ -19892,7 +19892,7 @@
         <v>5.73906501651591</v>
       </c>
       <c r="AG189">
-        <v>0.7246241235793427</v>
+        <v>0.8359488291573403</v>
       </c>
     </row>
     <row r="190">
@@ -19953,16 +19953,16 @@
         <v>-0.694113630183618</v>
       </c>
       <c r="S190">
-        <v>-9.427304655227461</v>
+        <v>-9.926633678171083</v>
       </c>
       <c r="T190">
-        <v>550336</v>
+        <v>561679.4166666666</v>
       </c>
       <c r="U190">
-        <v>571596.421090676</v>
+        <v>566705.2951429085</v>
       </c>
       <c r="V190">
-        <v>-3.719481141975745</v>
+        <v>-0.8868592757677374</v>
       </c>
       <c r="W190">
         <v>140.07</v>
@@ -19995,7 +19995,7 @@
         <v>6.852165280179778</v>
       </c>
       <c r="AG190">
-        <v>0.2495896953290666</v>
+        <v>0.04392695723882678</v>
       </c>
     </row>
     <row r="191">
@@ -20056,16 +20056,16 @@
         <v>-0.1986051257832463</v>
       </c>
       <c r="S191">
-        <v>-9.437833611858872</v>
+        <v>-9.820732922908871</v>
       </c>
       <c r="T191">
-        <v>530534</v>
+        <v>557072</v>
       </c>
       <c r="U191">
-        <v>572265.4827671757</v>
+        <v>567206.8409683605</v>
       </c>
       <c r="V191">
-        <v>-7.292329176553524</v>
+        <v>-1.786798084285779</v>
       </c>
       <c r="W191">
         <v>145.35</v>
@@ -20098,7 +20098,7 @@
         <v>5.916152688917431</v>
       </c>
       <c r="AG191">
-        <v>-3.719481141975745</v>
+        <v>-0.8868592757677374</v>
       </c>
     </row>
     <row r="192">
@@ -20159,16 +20159,16 @@
         <v>2.891901732742188</v>
       </c>
       <c r="S192">
-        <v>-6.930781331934977</v>
+        <v>-7.086958883201921</v>
       </c>
       <c r="T192">
-        <v>532449</v>
+        <v>553767.75</v>
       </c>
       <c r="U192">
-        <v>572945.6864562434</v>
+        <v>567709.8393574436</v>
       </c>
       <c r="V192">
-        <v>-7.068154523812121</v>
+        <v>-2.455847757231722</v>
       </c>
       <c r="W192">
         <v>144.1</v>
@@ -20201,7 +20201,7 @@
         <v>9.682163536551247</v>
       </c>
       <c r="AG192">
-        <v>-7.292329176553524</v>
+        <v>-1.786798084285779</v>
       </c>
     </row>
     <row r="193">
@@ -20262,16 +20262,16 @@
         <v>5.229393066331571</v>
       </c>
       <c r="S193">
-        <v>-4.759713701431493</v>
+        <v>-4.389066812346387</v>
       </c>
       <c r="T193">
-        <v>558870</v>
+        <v>551440.25</v>
       </c>
       <c r="U193">
-        <v>573637.2139911482</v>
+        <v>568215.2136006347</v>
       </c>
       <c r="V193">
-        <v>-2.574312410522239</v>
+        <v>-2.952220074210277</v>
       </c>
       <c r="W193">
         <v>145.65</v>
@@ -20304,7 +20304,7 @@
         <v>8.526832463664702</v>
       </c>
       <c r="AG193">
-        <v>-7.068154523812121</v>
+        <v>-2.455847757231722</v>
       </c>
     </row>
     <row r="194">
@@ -20365,16 +20365,16 @@
         <v>6.640281719090495</v>
       </c>
       <c r="S194">
-        <v>-3.398087878095689</v>
+        <v>-3.388039754402528</v>
       </c>
       <c r="T194">
-        <v>554011</v>
+        <v>549816.25</v>
       </c>
       <c r="U194">
-        <v>574339.9347307254</v>
+        <v>568723.7794105608</v>
       </c>
       <c r="V194">
-        <v>-3.539530076427022</v>
+        <v>-3.32455404452352</v>
       </c>
       <c r="W194">
         <v>142.57</v>
@@ -20407,7 +20407,7 @@
         <v>9.49165346036156</v>
       </c>
       <c r="AG194">
-        <v>-2.574312410522239</v>
+        <v>-2.952220074210277</v>
       </c>
     </row>
     <row r="195">
@@ -20468,16 +20468,16 @@
         <v>8.623593541785395</v>
       </c>
       <c r="S195">
-        <v>-1.545741885077065</v>
+        <v>-1.733676911719384</v>
       </c>
       <c r="T195">
-        <v>554455</v>
+        <v>549090.8333333334</v>
       </c>
       <c r="U195">
-        <v>575053.6040892596</v>
+        <v>569236.2230634022</v>
       </c>
       <c r="V195">
-        <v>-3.58203199541417</v>
+        <v>-3.539021045016144</v>
       </c>
       <c r="W195">
         <v>134.34</v>
@@ -20510,7 +20510,7 @@
         <v>6.98870798750626</v>
       </c>
       <c r="AG195">
-        <v>-3.539530076427022</v>
+        <v>-3.32455404452352</v>
       </c>
     </row>
     <row r="196">
@@ -20571,16 +20571,16 @@
         <v>12.16561830372572</v>
       </c>
       <c r="S196">
-        <v>1.284217577504648</v>
+        <v>0.7777343250006341</v>
       </c>
       <c r="T196">
-        <v>538277</v>
+        <v>549659.5833333334</v>
       </c>
       <c r="U196">
-        <v>575777.820621971</v>
+        <v>569753.0849439075</v>
       </c>
       <c r="V196">
-        <v>-6.513071410333526</v>
+        <v>-3.526703433743106</v>
       </c>
       <c r="W196">
         <v>126.99</v>
@@ -20613,7 +20613,7 @@
         <v>0.6451145768360034</v>
       </c>
       <c r="AG196">
-        <v>-3.58203199541417</v>
+        <v>-3.539021045016144</v>
       </c>
     </row>
     <row r="197">
@@ -20674,16 +20674,16 @@
         <v>13.5268582759551</v>
       </c>
       <c r="S197">
-        <v>1.975045387273669</v>
+        <v>1.245748930665402</v>
       </c>
       <c r="T197">
-        <v>547090</v>
+        <v>550542.5833333334</v>
       </c>
       <c r="U197">
-        <v>576512.0239442317</v>
+        <v>570274.7499940033</v>
       </c>
       <c r="V197">
-        <v>-5.103453652699153</v>
+        <v>-3.460115788201645</v>
       </c>
       <c r="W197">
         <v>119.52</v>
@@ -20716,7 +20716,7 @@
         <v>-5.011957813860213</v>
       </c>
       <c r="AG197">
-        <v>-6.513071410333526</v>
+        <v>-3.526703433743106</v>
       </c>
     </row>
     <row r="198">
@@ -20777,16 +20777,16 @@
         <v>17.16247288927949</v>
       </c>
       <c r="S198">
-        <v>4.870294849578507</v>
+        <v>4.862143461272272</v>
       </c>
       <c r="T198">
-        <v>563423</v>
+        <v>552723.0833333334</v>
       </c>
       <c r="U198">
-        <v>577255.3643132311</v>
+        <v>570801.4481131664</v>
       </c>
       <c r="V198">
-        <v>-2.396229670327554</v>
+        <v>-3.167189718875563</v>
       </c>
       <c r="W198">
         <v>122.21</v>
@@ -20819,7 +20819,7 @@
         <v>-10.73467953673312</v>
       </c>
       <c r="AG198">
-        <v>-5.103453652699153</v>
+        <v>-3.460115788201645</v>
       </c>
     </row>
     <row r="199">
@@ -20880,16 +20880,16 @@
         <v>15.89418497785947</v>
       </c>
       <c r="S199">
-        <v>3.55487584621716</v>
+        <v>3.578679933738016</v>
       </c>
       <c r="T199">
-        <v>576228</v>
+        <v>554371.5</v>
       </c>
       <c r="U199">
-        <v>578006.7649643694</v>
+        <v>571333.2569465009</v>
       </c>
       <c r="V199">
-        <v>-0.3077412016932013</v>
+        <v>-2.968802662941983</v>
       </c>
       <c r="W199">
         <v>124.1</v>
@@ -20922,7 +20922,7 @@
         <v>-8.857943715468808</v>
       </c>
       <c r="AG199">
-        <v>-2.396229670327554</v>
+        <v>-3.167189718875563</v>
       </c>
     </row>
     <row r="200">
@@ -20983,16 +20983,16 @@
         <v>14.83933275507582</v>
       </c>
       <c r="S200">
-        <v>3.250049615091344</v>
+        <v>4.332999686631966</v>
       </c>
       <c r="T200">
-        <v>593091</v>
+        <v>555927.25</v>
       </c>
       <c r="U200">
-        <v>578765.0424018393</v>
+        <v>571870.1146455548</v>
       </c>
       <c r="V200">
-        <v>2.47526311172992</v>
+        <v>-2.787847141730104</v>
       </c>
       <c r="W200">
         <v>132.68</v>
@@ -21025,7 +21025,7 @@
         <v>-7.577507900150438</v>
       </c>
       <c r="AG200">
-        <v>-0.3077412016932013</v>
+        <v>-2.968802662941983</v>
       </c>
     </row>
     <row r="201">
@@ -21086,16 +21086,16 @@
         <v>14.50703859280126</v>
       </c>
       <c r="S201">
-        <v>3.891586283529858</v>
+        <v>5.313196535272025</v>
       </c>
       <c r="T201">
-        <v>594637</v>
+        <v>557783.4166666666</v>
       </c>
       <c r="U201">
-        <v>579528.9994047966</v>
+        <v>572411.8284841225</v>
       </c>
       <c r="V201">
-        <v>2.606944710397574</v>
+        <v>-2.555574691074303</v>
       </c>
       <c r="W201">
         <v>128.18</v>
@@ -21128,7 +21128,7 @@
         <v>-1.320667004136822</v>
       </c>
       <c r="AG201">
-        <v>2.47526311172992</v>
+        <v>-2.787847141730104</v>
       </c>
     </row>
     <row r="202">
@@ -21189,16 +21189,16 @@
         <v>16.61087297567725</v>
       </c>
       <c r="S202">
-        <v>7.331884521455984</v>
+        <v>8.809249767357684</v>
       </c>
       <c r="T202">
-        <v>590686</v>
+        <v>561145.9166666666</v>
       </c>
       <c r="U202">
-        <v>580297.549292193</v>
+        <v>572958.0827200682</v>
       </c>
       <c r="V202">
-        <v>1.790193792904704</v>
+        <v>-2.061610859440943</v>
       </c>
       <c r="W202">
         <v>128.54</v>
@@ -21231,7 +21231,7 @@
         <v>-4.791816442904262</v>
       </c>
       <c r="AG202">
-        <v>2.606944710397574</v>
+        <v>-2.555574691074303</v>
       </c>
     </row>
     <row r="203">
@@ -21292,16 +21292,16 @@
         <v>18.53724179598873</v>
       </c>
       <c r="S203">
-        <v>10.32242985369458</v>
+        <v>11.33393612847631</v>
       </c>
       <c r="T203">
-        <v>585298</v>
+        <v>565709.5833333334</v>
       </c>
       <c r="U203">
-        <v>581069.7219570585</v>
+        <v>573508.4487377068</v>
       </c>
       <c r="V203">
-        <v>0.7276713762851994</v>
+        <v>-1.35985187690586</v>
       </c>
       <c r="W203">
         <v>126.82</v>
@@ -21334,7 +21334,7 @@
         <v>-4.64544483988637</v>
       </c>
       <c r="AG203">
-        <v>1.790193792904704</v>
+        <v>-2.061610859440943</v>
       </c>
     </row>
     <row r="204">
@@ -21395,16 +21395,16 @@
         <v>18.48511215840397</v>
       </c>
       <c r="S204">
-        <v>11.24483283845026</v>
+        <v>11.88395860094806</v>
       </c>
       <c r="T204">
-        <v>592322</v>
+        <v>570699</v>
       </c>
       <c r="U204">
-        <v>581844.6274502219</v>
+        <v>574062.406778097</v>
       </c>
       <c r="V204">
-        <v>1.80071655824896</v>
+        <v>-0.5858956689001826</v>
       </c>
       <c r="W204">
         <v>128.07</v>
@@ -21437,7 +21437,7 @@
         <v>-6.037725200986809</v>
       </c>
       <c r="AG204">
-        <v>0.7276713762851994</v>
+        <v>-1.35985187690586</v>
       </c>
     </row>
     <row r="205">
@@ -21498,16 +21498,16 @@
         <v>17.75018462360354</v>
       </c>
       <c r="S205">
-        <v>11.03279832519191</v>
+        <v>11.30559090991921</v>
       </c>
       <c r="T205">
-        <v>620529</v>
+        <v>575837.25</v>
       </c>
       <c r="U205">
-        <v>582621.4084481144</v>
+        <v>574619.3769058677</v>
       </c>
       <c r="V205">
-        <v>6.506384935777976</v>
+        <v>0.211944313588952</v>
       </c>
       <c r="W205">
         <v>129.09</v>
@@ -21540,7 +21540,7 @@
         <v>-5.226463848240314</v>
       </c>
       <c r="AG205">
-        <v>1.80071655824896</v>
+        <v>-0.5858956689001826</v>
       </c>
     </row>
     <row r="206">
@@ -21601,16 +21601,16 @@
         <v>17.7302649047</v>
       </c>
       <c r="S206">
-        <v>11.25555268758202</v>
+        <v>11.30780458041032</v>
       </c>
       <c r="T206">
-        <v>616368</v>
+        <v>581033.6666666666</v>
       </c>
       <c r="U206">
-        <v>583399.288471091</v>
+        <v>575178.7532334341</v>
       </c>
       <c r="V206">
-        <v>5.651140167707402</v>
+        <v>1.017929365491765</v>
       </c>
       <c r="W206">
         <v>130</v>
@@ -21643,7 +21643,7 @@
         <v>-4.585262708670934</v>
       </c>
       <c r="AG206">
-        <v>6.506384935777976</v>
+        <v>0.211944313588952</v>
       </c>
     </row>
     <row r="207">
@@ -21704,16 +21704,16 @@
         <v>15.5483261949899</v>
       </c>
       <c r="S207">
-        <v>9.29850032915205</v>
+        <v>9.420763442225265</v>
       </c>
       <c r="T207">
-        <v>606011</v>
+        <v>585330</v>
       </c>
       <c r="U207">
-        <v>584177.7835363549</v>
+        <v>575739.9392703807</v>
       </c>
       <c r="V207">
-        <v>3.737426701076596</v>
+        <v>1.665693149892045</v>
       </c>
       <c r="W207">
         <v>128.63</v>
@@ -21746,7 +21746,7 @@
         <v>-4.025278424845247</v>
       </c>
       <c r="AG207">
-        <v>5.651140167707402</v>
+        <v>1.017929365491765</v>
       </c>
     </row>
     <row r="208">
@@ -21807,16 +21807,16 @@
         <v>14.08882448010783</v>
       </c>
       <c r="S208">
-        <v>8.310033681543146</v>
+        <v>9.019421385673976</v>
       </c>
       <c r="T208">
-        <v>583008</v>
+        <v>589057.5833333334</v>
       </c>
       <c r="U208">
-        <v>584956.6640493161</v>
+        <v>576302.3837030928</v>
       </c>
       <c r="V208">
-        <v>-0.3331296434553987</v>
+        <v>2.213282469574507</v>
       </c>
       <c r="W208">
         <v>128.04</v>
@@ -21849,7 +21849,7 @@
         <v>-5.146743279290544</v>
       </c>
       <c r="AG208">
-        <v>3.737426701076596</v>
+        <v>1.665693149892045</v>
       </c>
     </row>
     <row r="209">
@@ -21910,16 +21910,16 @@
         <v>11.11289297300222</v>
       </c>
       <c r="S209">
-        <v>6.019484911074961</v>
+        <v>6.65472544922463</v>
       </c>
       <c r="T209">
-        <v>580022</v>
+        <v>591801.9166666666</v>
       </c>
       <c r="U209">
-        <v>585735.8688815604</v>
+        <v>576865.6092153385</v>
       </c>
       <c r="V209">
-        <v>-0.9755026429354219</v>
+        <v>2.589217872017846</v>
       </c>
       <c r="W209">
         <v>123.68</v>
@@ -21952,7 +21952,7 @@
         <v>-5.690287430297458</v>
       </c>
       <c r="AG209">
-        <v>-0.3331296434553987</v>
+        <v>2.213282469574507</v>
       </c>
     </row>
     <row r="210">
@@ -22013,16 +22013,16 @@
         <v>8.344674822636437</v>
       </c>
       <c r="S210">
-        <v>3.922630066575202</v>
+        <v>4.23770908469927</v>
       </c>
       <c r="T210">
-        <v>585524</v>
+        <v>593643.6666666666</v>
       </c>
       <c r="U210">
-        <v>586515.3218686861</v>
+        <v>577429.2369106356</v>
       </c>
       <c r="V210">
-        <v>-0.1690189210279636</v>
+        <v>2.808037542882569</v>
       </c>
       <c r="W210">
         <v>121.49</v>
@@ -22055,7 +22055,7 @@
         <v>-9.00574098382706</v>
       </c>
       <c r="AG210">
-        <v>-0.9755026429354219</v>
+        <v>2.589217872017846</v>
       </c>
     </row>
     <row r="211">
@@ -22116,16 +22116,16 @@
         <v>8.736336520352165</v>
       </c>
       <c r="S211">
-        <v>4.797233039699563</v>
+        <v>5.405522024381693</v>
       </c>
       <c r="T211">
-        <v>603871</v>
+        <v>595947.25</v>
       </c>
       <c r="U211">
-        <v>587294.9027577966</v>
+        <v>577993.0031417882</v>
       </c>
       <c r="V211">
-        <v>2.82244868197663</v>
+        <v>3.106308685506254</v>
       </c>
       <c r="W211">
         <v>117.47</v>
@@ -22158,7 +22158,7 @@
         <v>-10.71866854471381</v>
       </c>
       <c r="AG211">
-        <v>-0.1690189210279636</v>
+        <v>2.808037542882569</v>
       </c>
     </row>
   </sheetData>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -579,18 +579,6 @@
       <c r="O2">
         <v>11.30558183538315</v>
       </c>
-      <c r="P2">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="Q2">
-        <v>9.162360817989956</v>
-      </c>
-      <c r="R2">
-        <v>11.75884799774394</v>
-      </c>
-      <c r="S2">
-        <v>5.732117311016038</v>
-      </c>
       <c r="T2">
         <v>315683.5</v>
       </c>
@@ -682,18 +670,6 @@
       <c r="O3">
         <v>11.15534072599755</v>
       </c>
-      <c r="P3">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="Q3">
-        <v>9.358937905995045</v>
-      </c>
-      <c r="R3">
-        <v>9.527556966390492</v>
-      </c>
-      <c r="S3">
-        <v>3.807749944451233</v>
-      </c>
       <c r="T3">
         <v>316643</v>
       </c>
@@ -785,18 +761,6 @@
       <c r="O4">
         <v>10.84314470186101</v>
       </c>
-      <c r="P4">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="Q4">
-        <v>9.556224254287304</v>
-      </c>
-      <c r="R4">
-        <v>10.32920951594311</v>
-      </c>
-      <c r="S4">
-        <v>4.756180702566581</v>
-      </c>
       <c r="T4">
         <v>317794.5</v>
       </c>
@@ -888,18 +852,6 @@
       <c r="O5">
         <v>11.04845646564083</v>
       </c>
-      <c r="P5">
-        <v>21.7948717948718</v>
-      </c>
-      <c r="Q5">
-        <v>16.40530612144872</v>
-      </c>
-      <c r="R5">
-        <v>8.868869965225487</v>
-      </c>
-      <c r="S5">
-        <v>4.051295006427869</v>
-      </c>
       <c r="T5">
         <v>318674.0833333333</v>
       </c>
@@ -992,16 +944,16 @@
         <v>11.00450925837091</v>
       </c>
       <c r="P6">
-        <v>21.95121951219512</v>
+        <v>17.08860759493671</v>
       </c>
       <c r="Q6">
-        <v>17.00203349534215</v>
+        <v>12.33676253951521</v>
       </c>
       <c r="R6">
-        <v>9.647101351046045</v>
+        <v>9.921467733152371</v>
       </c>
       <c r="S6">
-        <v>5.197257364526586</v>
+        <v>5.460489046486017</v>
       </c>
       <c r="T6">
         <v>319848.1666666667</v>
@@ -1095,16 +1047,16 @@
         <v>10.71806209747188</v>
       </c>
       <c r="P7">
-        <v>22.09302325581395</v>
+        <v>17.18749999999999</v>
       </c>
       <c r="Q7">
-        <v>17.36328295281549</v>
+        <v>12.64779390560415</v>
       </c>
       <c r="R7">
-        <v>9.229938042995199</v>
+        <v>9.822623803506964</v>
       </c>
       <c r="S7">
-        <v>4.998498551374775</v>
+        <v>5.568224361729279</v>
       </c>
       <c r="T7">
         <v>321068.3333333333</v>
@@ -1198,16 +1150,16 @@
         <v>10.58959315187071</v>
       </c>
       <c r="P8">
-        <v>16.66666666666666</v>
+        <v>17.28395061728396</v>
       </c>
       <c r="Q8">
-        <v>12.21185598409795</v>
+        <v>12.80556950782337</v>
       </c>
       <c r="R8">
-        <v>9.093671142468922</v>
+        <v>9.716529214998253</v>
       </c>
       <c r="S8">
-        <v>4.928028414416574</v>
+        <v>5.527103217272522</v>
       </c>
       <c r="T8">
         <v>322349.5833333333</v>
@@ -1301,16 +1253,16 @@
         <v>10.41987673343607</v>
       </c>
       <c r="P9">
-        <v>16.66666666666666</v>
+        <v>17.37804878048781</v>
       </c>
       <c r="Q9">
-        <v>12.35233692860811</v>
+        <v>13.03741215378256</v>
       </c>
       <c r="R9">
-        <v>8.716751438339031</v>
+        <v>9.652382913317883</v>
       </c>
       <c r="S9">
-        <v>4.696409320434358</v>
+        <v>5.59744117230152</v>
       </c>
       <c r="T9">
         <v>323581.8333333333</v>
@@ -1404,16 +1356,16 @@
         <v>10.09643201542914</v>
       </c>
       <c r="P10">
-        <v>16.66666666666666</v>
+        <v>17.46987951807228</v>
       </c>
       <c r="Q10">
-        <v>12.50401800064287</v>
+        <v>13.27857234143906</v>
       </c>
       <c r="R10">
-        <v>10.68330722719081</v>
+        <v>9.77641147275467</v>
       </c>
       <c r="S10">
-        <v>6.734143902787681</v>
+        <v>5.859606048943755</v>
       </c>
       <c r="T10">
         <v>325330.9166666667</v>
@@ -1507,16 +1459,16 @@
         <v>10.35250823164826</v>
       </c>
       <c r="P11">
-        <v>16.66666666666666</v>
+        <v>17.55952380952382</v>
       </c>
       <c r="Q11">
-        <v>12.98340757957259</v>
+        <v>13.84807651513056</v>
       </c>
       <c r="R11">
-        <v>11.24774263995632</v>
+        <v>9.998950478625487</v>
       </c>
       <c r="S11">
-        <v>7.735563277122148</v>
+        <v>6.526196473586565</v>
       </c>
       <c r="T11">
         <v>327285.3333333333</v>
@@ -1610,16 +1562,16 @@
         <v>10.31838477965443</v>
       </c>
       <c r="P12">
-        <v>16.66666666666666</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="Q12">
-        <v>13.246618779525</v>
+        <v>14.19827103817648</v>
       </c>
       <c r="R12">
-        <v>11.05317783970645</v>
+        <v>10.00996235400527</v>
       </c>
       <c r="S12">
-        <v>7.797687672011699</v>
+        <v>6.785053731319413</v>
       </c>
       <c r="T12">
         <v>329309.5</v>
@@ -1713,16 +1665,16 @@
         <v>9.74403723094821</v>
       </c>
       <c r="P13">
-        <v>16.66666666666666</v>
+        <v>17.73255813953488</v>
       </c>
       <c r="Q13">
-        <v>13.11486006075882</v>
+        <v>14.14830147327406</v>
       </c>
       <c r="R13">
-        <v>9.506955041906025</v>
+        <v>9.976086687013645</v>
       </c>
       <c r="S13">
-        <v>6.173119102100055</v>
+        <v>6.62796847684084</v>
       </c>
       <c r="T13">
         <v>331008.6666666667</v>
@@ -1816,16 +1768,16 @@
         <v>9.845616079230979</v>
       </c>
       <c r="P14">
-        <v>16.66666666666666</v>
+        <v>17.81609195402299</v>
       </c>
       <c r="Q14">
-        <v>13.27960643428163</v>
+        <v>14.39566167008737</v>
       </c>
       <c r="R14">
-        <v>9.440523597366242</v>
+        <v>9.784284497444634</v>
       </c>
       <c r="S14">
-        <v>6.263252352040238</v>
+        <v>6.597033204626301</v>
       </c>
       <c r="T14">
         <v>332730.3333333333</v>
@@ -1919,16 +1871,16 @@
         <v>9.619491360900788</v>
       </c>
       <c r="P15">
-        <v>16.66666666666666</v>
+        <v>17.89772727272727</v>
       </c>
       <c r="Q15">
-        <v>13.246618779525</v>
+        <v>14.44159121794533</v>
       </c>
       <c r="R15">
-        <v>10.89869861465431</v>
+        <v>9.90197770459468</v>
       </c>
       <c r="S15">
-        <v>7.647736958507378</v>
+        <v>6.680234619097924</v>
       </c>
       <c r="T15">
         <v>334786.1666666667</v>
@@ -2022,16 +1974,16 @@
         <v>9.498834498834485</v>
       </c>
       <c r="P16">
-        <v>16.66666666666666</v>
+        <v>17.97752808988763</v>
       </c>
       <c r="Q16">
-        <v>13.31261331261329</v>
+        <v>14.58578874309211</v>
       </c>
       <c r="R16">
-        <v>12.41186971938167</v>
+        <v>10.0822877029676</v>
       </c>
       <c r="S16">
-        <v>9.180137645087072</v>
+        <v>6.917528849036114</v>
       </c>
       <c r="T16">
         <v>337198</v>
@@ -2125,16 +2077,16 @@
         <v>9.300970873786408</v>
       </c>
       <c r="P17">
-        <v>13.68421052631578</v>
+        <v>15.8904109589041</v>
       </c>
       <c r="Q17">
-        <v>10.37301992846194</v>
+        <v>12.51496209602341</v>
       </c>
       <c r="R17">
-        <v>13.68796109993293</v>
+        <v>10.47309866506742</v>
       </c>
       <c r="S17">
-        <v>10.3766612620708</v>
+        <v>7.255435597152848</v>
       </c>
       <c r="T17">
         <v>339875.25</v>
@@ -2228,16 +2180,16 @@
         <v>8.964915681333597</v>
       </c>
       <c r="P18">
-        <v>11.00000000000001</v>
+        <v>15.13513513513514</v>
       </c>
       <c r="Q18">
-        <v>7.57898817600311</v>
+        <v>11.58667875085786</v>
       </c>
       <c r="R18">
-        <v>13.35036676831781</v>
+        <v>10.7766095909524</v>
       </c>
       <c r="S18">
-        <v>9.856916813643934</v>
+        <v>7.36248264290793</v>
       </c>
       <c r="T18">
         <v>342490.5</v>
@@ -2331,16 +2283,16 @@
         <v>8.043205709325886</v>
       </c>
       <c r="P19">
-        <v>8.571428571428571</v>
+        <v>14.4</v>
       </c>
       <c r="Q19">
-        <v>4.707713927503687</v>
+        <v>10.32886488571705</v>
       </c>
       <c r="R19">
-        <v>12.18996561600013</v>
+        <v>11.01920121154166</v>
       </c>
       <c r="S19">
-        <v>8.197478653679369</v>
+        <v>7.068378061087532</v>
       </c>
       <c r="T19">
         <v>344817.8333333333</v>
@@ -2434,16 +2386,16 @@
         <v>7.701947175631374</v>
       </c>
       <c r="P20">
-        <v>8.571428571428571</v>
+        <v>13.68421052631578</v>
       </c>
       <c r="Q20">
-        <v>4.657247514390361</v>
+        <v>9.585705153572178</v>
       </c>
       <c r="R20">
-        <v>11.30399801955688</v>
+        <v>11.19911944885428</v>
       </c>
       <c r="S20">
-        <v>7.291303276997185</v>
+        <v>7.190205753667112</v>
       </c>
       <c r="T20">
         <v>346906.5</v>
@@ -2537,16 +2489,16 @@
         <v>6.959109234018057</v>
       </c>
       <c r="P21">
-        <v>8.571428571428571</v>
+        <v>12.98701298701299</v>
       </c>
       <c r="Q21">
-        <v>4.215231878890924</v>
+        <v>8.453650400281232</v>
       </c>
       <c r="R21">
-        <v>11.92400908086882</v>
+        <v>11.46356987205765</v>
       </c>
       <c r="S21">
-        <v>7.433297255585347</v>
+        <v>6.991332186655441</v>
       </c>
       <c r="T21">
         <v>349084.4166666667</v>
@@ -2640,16 +2592,16 @@
         <v>6.78828612578013</v>
       </c>
       <c r="P22">
-        <v>8.571428571428571</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="Q22">
-        <v>4.245250668678402</v>
+        <v>7.832637837438594</v>
       </c>
       <c r="R22">
-        <v>11.54209020634244</v>
+        <v>11.53240891156489</v>
       </c>
       <c r="S22">
-        <v>7.097542204841512</v>
+        <v>7.08824667457022</v>
       </c>
       <c r="T22">
         <v>351128.1666666667</v>
@@ -2743,16 +2695,16 @@
         <v>6.780637725701122</v>
       </c>
       <c r="P23">
-        <v>8.571428571428571</v>
+        <v>11.64556962025316</v>
       </c>
       <c r="Q23">
-        <v>4.275286757038588</v>
+        <v>7.227784883070654</v>
       </c>
       <c r="R23">
-        <v>11.47260015402504</v>
+        <v>11.54961586753641</v>
       </c>
       <c r="S23">
-        <v>7.061659771441642</v>
+        <v>7.135627994176352</v>
       </c>
       <c r="T23">
         <v>353128.3333333333</v>
@@ -2846,16 +2798,16 @@
         <v>6.70889720702561</v>
       </c>
       <c r="P24">
-        <v>8.571428571428571</v>
+        <v>11.00000000000001</v>
       </c>
       <c r="Q24">
-        <v>4.20522945717301</v>
+        <v>6.53613590555715</v>
       </c>
       <c r="R24">
-        <v>10.44242317202402</v>
+        <v>11.49070443993511</v>
       </c>
       <c r="S24">
-        <v>6.00098202516941</v>
+        <v>7.00710667044353</v>
       </c>
       <c r="T24">
         <v>354885.8333333333</v>
@@ -2949,16 +2901,16 @@
         <v>6.433084434233183</v>
       </c>
       <c r="P25">
-        <v>8.571428571428571</v>
+        <v>10.37037037037037</v>
       </c>
       <c r="Q25">
-        <v>3.935887968053375</v>
+        <v>5.658022564015286</v>
       </c>
       <c r="R25">
-        <v>13.41675178753831</v>
+        <v>11.82450417647064</v>
       </c>
       <c r="S25">
-        <v>8.574336384777247</v>
+        <v>7.050071009449188</v>
       </c>
       <c r="T25">
         <v>357454.8333333333</v>
@@ -3052,16 +3004,16 @@
         <v>6.331293037490426</v>
       </c>
       <c r="P26">
-        <v>8.571428571428571</v>
+        <v>9.756097560975602</v>
       </c>
       <c r="Q26">
-        <v>3.836484861733513</v>
+        <v>4.96948886856885</v>
       </c>
       <c r="R26">
-        <v>12.55088733094598</v>
+        <v>12.08515744765591</v>
       </c>
       <c r="S26">
-        <v>7.642394157369914</v>
+        <v>7.196975370749703</v>
       </c>
       <c r="T26">
         <v>359755.3333333333</v>
@@ -3155,16 +3107,16 @@
         <v>6.280470318325193</v>
       </c>
       <c r="P27">
-        <v>8.571428571428571</v>
+        <v>9.156626506024104</v>
       </c>
       <c r="Q27">
-        <v>3.7868545754981</v>
+        <v>4.346263747274737</v>
       </c>
       <c r="R27">
-        <v>12.92877526061383</v>
+        <v>12.25363604956218</v>
       </c>
       <c r="S27">
-        <v>7.952179773075052</v>
+        <v>7.306792897010017</v>
       </c>
       <c r="T27">
         <v>362084.9166666667</v>
@@ -3258,16 +3210,16 @@
         <v>6.158693784016034</v>
       </c>
       <c r="P28">
-        <v>11.90476190476191</v>
+        <v>9.40476190476191</v>
       </c>
       <c r="Q28">
-        <v>6.850722720101143</v>
+        <v>4.463632106141446</v>
       </c>
       <c r="R28">
-        <v>10.15881147540984</v>
+        <v>12.05971453021403</v>
       </c>
       <c r="S28">
-        <v>5.183625967163041</v>
+        <v>6.99867710323121</v>
       </c>
       <c r="T28">
         <v>363604</v>
@@ -3361,16 +3313,16 @@
         <v>6.026275704493522</v>
       </c>
       <c r="P29">
-        <v>12.03703703703703</v>
+        <v>9.456264775413706</v>
       </c>
       <c r="Q29">
-        <v>6.661307156356644</v>
+        <v>4.204364789997816</v>
       </c>
       <c r="R29">
-        <v>11.26711747918618</v>
+        <v>11.87015214679981</v>
       </c>
       <c r="S29">
-        <v>5.928329664114806</v>
+        <v>6.502429690403466</v>
       </c>
       <c r="T29">
         <v>365361.4166666667</v>
@@ -3464,16 +3416,16 @@
         <v>5.730251941655617</v>
       </c>
       <c r="P30">
-        <v>12.16216216216216</v>
+        <v>9.507042253521126</v>
       </c>
       <c r="Q30">
-        <v>6.234288844631708</v>
+        <v>3.719494462512896</v>
       </c>
       <c r="R30">
-        <v>12.05863533244139</v>
+        <v>11.77456984997074</v>
       </c>
       <c r="S30">
-        <v>6.136233502975363</v>
+        <v>5.867181142234079</v>
       </c>
       <c r="T30">
         <v>367261.6666666667</v>
@@ -3567,16 +3519,16 @@
         <v>5.685461059777497</v>
       </c>
       <c r="P31">
-        <v>9.210526315789473</v>
+        <v>9.557109557109563</v>
       </c>
       <c r="Q31">
-        <v>2.970513214962733</v>
+        <v>3.297293566952253</v>
       </c>
       <c r="R31">
-        <v>13.34077608459137</v>
+        <v>11.87819348097051</v>
       </c>
       <c r="S31">
-        <v>6.864770964163092</v>
+        <v>5.485756629238647</v>
       </c>
       <c r="T31">
         <v>369424.25</v>
@@ -3670,16 +3622,16 @@
         <v>5.631287017016051</v>
       </c>
       <c r="P32">
-        <v>9.210526315789473</v>
+        <v>9.606481481481476</v>
       </c>
       <c r="Q32">
-        <v>2.670420528146522</v>
+        <v>3.042663797575873</v>
       </c>
       <c r="R32">
-        <v>14.88364980955823</v>
+        <v>12.18756201740916</v>
       </c>
       <c r="S32">
-        <v>8.003807285473563</v>
+        <v>5.469175535779969</v>
       </c>
       <c r="T32">
         <v>371932.75</v>
@@ -3773,16 +3725,16 @@
         <v>6.357728171799937</v>
       </c>
       <c r="P33">
-        <v>9.210526315789473</v>
+        <v>9.655172413793103</v>
       </c>
       <c r="Q33">
-        <v>2.86382812073982</v>
+        <v>3.28263390203738</v>
       </c>
       <c r="R33">
-        <v>15.77252263055828</v>
+        <v>12.52480050714012</v>
       </c>
       <c r="S33">
-        <v>9.044478318318049</v>
+        <v>5.985495438579735</v>
       </c>
       <c r="T33">
         <v>374661.5833333333</v>
@@ -3876,16 +3828,16 @@
         <v>6.720000000000015</v>
       </c>
       <c r="P34">
-        <v>9.210526315789473</v>
+        <v>9.703196347031968</v>
       </c>
       <c r="Q34">
-        <v>2.786377708978316</v>
+        <v>3.250067150147729</v>
       </c>
       <c r="R34">
-        <v>15.83266258304798</v>
+        <v>12.89288535701485</v>
       </c>
       <c r="S34">
-        <v>9.018976548751034</v>
+        <v>6.252127394837514</v>
       </c>
       <c r="T34">
         <v>377392.3333333333</v>
@@ -3979,16 +3931,16 @@
         <v>6.813269429564883</v>
       </c>
       <c r="P35">
-        <v>9.210526315789473</v>
+        <v>9.750566893424031</v>
       </c>
       <c r="Q35">
-        <v>2.631826252973846</v>
+        <v>3.139335488604478</v>
       </c>
       <c r="R35">
-        <v>14.87459445546969</v>
+        <v>13.17840738389019</v>
       </c>
       <c r="S35">
-        <v>7.95469829477462</v>
+        <v>6.360687326275882</v>
       </c>
       <c r="T35">
         <v>379855</v>
@@ -4082,16 +4034,16 @@
         <v>6.814550239684181</v>
       </c>
       <c r="P36">
-        <v>9.210526315789473</v>
+        <v>9.797297297297296</v>
       </c>
       <c r="Q36">
-        <v>2.651119762937748</v>
+        <v>3.202648084685866</v>
       </c>
       <c r="R36">
-        <v>14.57308866056317</v>
+        <v>13.52068358830852</v>
       </c>
       <c r="S36">
-        <v>7.691595695613462</v>
+        <v>6.702400214595827</v>
       </c>
       <c r="T36">
         <v>382240.25</v>
@@ -4185,16 +4137,16 @@
         <v>7.327667610953736</v>
       </c>
       <c r="P37">
-        <v>9.210526315789473</v>
+        <v>9.8434004474273</v>
       </c>
       <c r="Q37">
-        <v>3.12608717260574</v>
+        <v>3.723702027787823</v>
       </c>
       <c r="R37">
-        <v>13.61990106079808</v>
+        <v>13.53797134958999</v>
       </c>
       <c r="S37">
-        <v>7.289802701414616</v>
+        <v>7.212437535023608</v>
       </c>
       <c r="T37">
         <v>384451.8333333333</v>
@@ -4288,16 +4240,16 @@
         <v>7.067271352985638</v>
       </c>
       <c r="P38">
-        <v>9.210526315789473</v>
+        <v>9.888888888888884</v>
       </c>
       <c r="Q38">
-        <v>3.184548673270471</v>
+        <v>3.825480809607784</v>
       </c>
       <c r="R38">
-        <v>13.95016836741226</v>
+        <v>13.65413846113912</v>
       </c>
       <c r="S38">
-        <v>7.662668525521799</v>
+        <v>7.382972846881253</v>
       </c>
       <c r="T38">
         <v>386821.8333333333</v>
@@ -4391,16 +4343,16 @@
         <v>6.383380547686501</v>
       </c>
       <c r="P39">
-        <v>13.59649122807018</v>
+        <v>11.03752759381899</v>
       </c>
       <c r="Q39">
-        <v>7.267697099216419</v>
+        <v>4.851300844021722</v>
       </c>
       <c r="R39">
-        <v>13.24196792326337</v>
+        <v>13.67452457153625</v>
       </c>
       <c r="S39">
-        <v>6.932925328860606</v>
+        <v>7.341382975954902</v>
       </c>
       <c r="T39">
         <v>389002.9166666667</v>
@@ -4494,16 +4446,16 @@
         <v>5.766499384527979</v>
       </c>
       <c r="P40">
-        <v>14.46808510638297</v>
+        <v>10.55495103373231</v>
       </c>
       <c r="Q40">
-        <v>8.387543893933325</v>
+        <v>4.682275384653245</v>
       </c>
       <c r="R40">
-        <v>14.83381056463882</v>
+        <v>14.04552242357224</v>
       </c>
       <c r="S40">
-        <v>8.733842026928151</v>
+        <v>7.987427728029761</v>
       </c>
       <c r="T40">
         <v>391594.75</v>
@@ -4597,16 +4549,16 @@
         <v>5.287595944281254</v>
       </c>
       <c r="P41">
-        <v>15.28925619834711</v>
+        <v>10.79913606911448</v>
       </c>
       <c r="Q41">
-        <v>9.247850088455522</v>
+        <v>4.993021955002819</v>
       </c>
       <c r="R41">
-        <v>14.07221345916785</v>
+        <v>14.25939707100634</v>
       </c>
       <c r="S41">
-        <v>8.094583018258184</v>
+        <v>8.271957804421826</v>
       </c>
       <c r="T41">
         <v>393993.5833333333</v>
@@ -4700,16 +4652,16 @@
         <v>4.714828897338386</v>
       </c>
       <c r="P42">
-        <v>12.04819277108434</v>
+        <v>11.03965702036442</v>
       </c>
       <c r="Q42">
-        <v>6.509688945897651</v>
+        <v>5.551004772209533</v>
       </c>
       <c r="R42">
-        <v>12.91463351328904</v>
+        <v>14.31249613952576</v>
       </c>
       <c r="S42">
-        <v>7.333301818715809</v>
+        <v>8.662068573693693</v>
       </c>
       <c r="T42">
         <v>396166.0833333333</v>
@@ -4803,16 +4755,16 @@
         <v>4.522900763358773</v>
       </c>
       <c r="P43">
-        <v>12.04819277108434</v>
+        <v>11.27659574468084</v>
       </c>
       <c r="Q43">
-        <v>6.916214476225502</v>
+        <v>6.17995777164202</v>
       </c>
       <c r="R43">
-        <v>11.48942844595019</v>
+        <v>14.13994779218203</v>
       </c>
       <c r="S43">
-        <v>6.3830424102578</v>
+        <v>8.912163923837824</v>
       </c>
       <c r="T43">
         <v>398057.0833333333</v>
@@ -4906,16 +4858,16 @@
         <v>4.315789473684228</v>
       </c>
       <c r="P44">
-        <v>12.04819277108434</v>
+        <v>11.51003167898628</v>
       </c>
       <c r="Q44">
-        <v>7.22315097711419</v>
+        <v>6.708164286111273</v>
       </c>
       <c r="R44">
-        <v>11.37092383084276</v>
+        <v>13.83258746572291</v>
       </c>
       <c r="S44">
-        <v>6.575046728079226</v>
+        <v>8.930705708825769</v>
       </c>
       <c r="T44">
         <v>400081.0833333333</v>
@@ -5009,16 +4961,16 @@
         <v>4.110770410118803</v>
       </c>
       <c r="P45">
-        <v>12.04819277108434</v>
+        <v>11.74004192872118</v>
       </c>
       <c r="Q45">
-        <v>7.366991923231425</v>
+        <v>7.071715148257152</v>
       </c>
       <c r="R45">
-        <v>10.94597154153941</v>
+        <v>13.41824302204381</v>
       </c>
       <c r="S45">
-        <v>6.310819798332101</v>
+        <v>8.679803585706969</v>
       </c>
       <c r="T45">
         <v>402098.0833333333</v>
@@ -5112,16 +5064,16 @@
         <v>4.130726471152002</v>
       </c>
       <c r="P46">
-        <v>12.04819277108434</v>
+        <v>11.96670135275753</v>
       </c>
       <c r="Q46">
-        <v>7.38757214019965</v>
+        <v>7.309470340001445</v>
       </c>
       <c r="R46">
-        <v>10.70883854592993</v>
+        <v>12.98603316658366</v>
       </c>
       <c r="S46">
-        <v>6.103928067787945</v>
+        <v>8.286403264887543</v>
       </c>
       <c r="T46">
         <v>404094.3333333333</v>
@@ -5215,16 +5167,16 @@
         <v>4.300662378803866</v>
       </c>
       <c r="P47">
-        <v>12.04819277108434</v>
+        <v>12.1900826446281</v>
       </c>
       <c r="Q47">
-        <v>7.562823049903344</v>
+        <v>7.699032969787933</v>
       </c>
       <c r="R47">
-        <v>10.19681371681938</v>
+        <v>12.59142982949193</v>
       </c>
       <c r="S47">
-        <v>5.785556030353622</v>
+        <v>8.084313938266231</v>
       </c>
       <c r="T47">
         <v>405956.9166666667</v>
@@ -5318,16 +5270,16 @@
         <v>4.250623680675503</v>
       </c>
       <c r="P48">
-        <v>12.04819277108434</v>
+        <v>12.41025641025642</v>
       </c>
       <c r="Q48">
-        <v>7.511219315951201</v>
+        <v>7.858622539106142</v>
       </c>
       <c r="R48">
-        <v>10.50195115993696</v>
+        <v>12.25069968567327</v>
       </c>
       <c r="S48">
-        <v>6.027586989001099</v>
+        <v>7.705526468694357</v>
       </c>
       <c r="T48">
         <v>407952.5</v>
@@ -5421,16 +5373,16 @@
         <v>4.160674911322038</v>
       </c>
       <c r="P49">
-        <v>12.04819277108434</v>
+        <v>12.62729124236252</v>
       </c>
       <c r="Q49">
-        <v>7.418457263047018</v>
+        <v>7.973627880704193</v>
       </c>
       <c r="R49">
-        <v>10.73371796105786</v>
+        <v>12.00395593251307</v>
       </c>
       <c r="S49">
-        <v>6.158295428106486</v>
+        <v>7.37604825281668</v>
       </c>
       <c r="T49">
         <v>410073.9166666667</v>
@@ -5524,16 +5476,16 @@
         <v>3.881824266182243</v>
       </c>
       <c r="P50">
-        <v>15.66265060240964</v>
+        <v>13.75126390293226</v>
       </c>
       <c r="Q50">
-        <v>10.58672014763327</v>
+        <v>8.759215893424098</v>
       </c>
       <c r="R50">
-        <v>10.67096636460165</v>
+        <v>11.72923126272359</v>
       </c>
       <c r="S50">
-        <v>5.814099210824786</v>
+        <v>6.825921467371243</v>
       </c>
       <c r="T50">
         <v>412133.8333333333</v>
@@ -5627,16 +5579,16 @@
         <v>3.643995039587899</v>
       </c>
       <c r="P51">
-        <v>14.67181467181467</v>
+        <v>12.72365805168986</v>
       </c>
       <c r="Q51">
-        <v>9.388357027391647</v>
+        <v>7.529960938366731</v>
       </c>
       <c r="R51">
-        <v>11.65253031251779</v>
+        <v>11.60458690204285</v>
       </c>
       <c r="S51">
-        <v>6.508184978076681</v>
+        <v>6.462450540916564</v>
       </c>
       <c r="T51">
         <v>414403.25</v>
@@ -5730,16 +5682,16 @@
         <v>3.308928401635436</v>
       </c>
       <c r="P52">
-        <v>13.7546468401487</v>
+        <v>12.50000000000001</v>
       </c>
       <c r="Q52">
-        <v>8.162638433154612</v>
+        <v>6.969668156318343</v>
       </c>
       <c r="R52">
-        <v>12.37322749914665</v>
+        <v>11.42913487325935</v>
       </c>
       <c r="S52">
-        <v>6.849127602117178</v>
+        <v>5.951445158561719</v>
       </c>
       <c r="T52">
         <v>416757.8333333333</v>
@@ -5833,16 +5785,16 @@
         <v>3.287098612958395</v>
       </c>
       <c r="P53">
-        <v>9.67741935483871</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="Q53">
-        <v>4.196674287325397</v>
+        <v>6.669866762669541</v>
       </c>
       <c r="R53">
-        <v>13.01425176767237</v>
+        <v>11.36721130969937</v>
       </c>
       <c r="S53">
-        <v>7.366760182094212</v>
+        <v>5.80202480495855</v>
       </c>
       <c r="T53">
         <v>419217.9166666667</v>
@@ -5936,16 +5888,16 @@
         <v>3.972628777798892</v>
       </c>
       <c r="P54">
-        <v>9.67741935483871</v>
+        <v>12.06563706563706</v>
       </c>
       <c r="Q54">
-        <v>4.236285264055017</v>
+        <v>6.506022681654677</v>
       </c>
       <c r="R54">
-        <v>12.73223572680516</v>
+        <v>11.36675294253948</v>
       </c>
       <c r="S54">
-        <v>7.139551156439028</v>
+        <v>5.841810437691963</v>
       </c>
       <c r="T54">
         <v>421564.3333333333</v>
@@ -6039,16 +5991,16 @@
         <v>4.864555513162916</v>
       </c>
       <c r="P55">
-        <v>9.67741935483871</v>
+        <v>11.8546845124283</v>
       </c>
       <c r="Q55">
-        <v>4.614097057266986</v>
+        <v>6.6908474937317</v>
       </c>
       <c r="R55">
-        <v>12.34981964288729</v>
+        <v>11.44160696640317</v>
       </c>
       <c r="S55">
-        <v>7.163124420915001</v>
+        <v>6.296839914539465</v>
       </c>
       <c r="T55">
         <v>423865.6666666667</v>
@@ -6142,16 +6094,16 @@
         <v>5.468451242829819</v>
       </c>
       <c r="P56">
-        <v>9.67741935483871</v>
+        <v>11.64772727272727</v>
       </c>
       <c r="Q56">
-        <v>4.854129402331453</v>
+        <v>6.737788979662773</v>
       </c>
       <c r="R56">
-        <v>12.53442703099112</v>
+        <v>11.54338469836295</v>
       </c>
       <c r="S56">
-        <v>7.585494293490558</v>
+        <v>6.638035084477001</v>
       </c>
       <c r="T56">
         <v>426379.0833333333</v>
@@ -6245,16 +6197,16 @@
         <v>5.904871279548285</v>
       </c>
       <c r="P57">
-        <v>9.67741935483871</v>
+        <v>11.44465290806754</v>
       </c>
       <c r="Q57">
-        <v>4.964512733121551</v>
+        <v>6.655807166300631</v>
       </c>
       <c r="R57">
-        <v>13.55839970977534</v>
+        <v>11.77023732335354</v>
       </c>
       <c r="S57">
-        <v>8.678724959111261</v>
+        <v>6.967401017660579</v>
       </c>
       <c r="T57">
         <v>429362.1666666667</v>
@@ -6348,16 +6300,16 @@
         <v>5.692454632282717</v>
       </c>
       <c r="P58">
-        <v>9.67741935483871</v>
+        <v>11.24535315985131</v>
       </c>
       <c r="Q58">
-        <v>4.753982191823036</v>
+        <v>6.251531193745286</v>
       </c>
       <c r="R58">
-        <v>14.50334578027426</v>
+        <v>12.09638499865371</v>
       </c>
       <c r="S58">
-        <v>9.363271996441513</v>
+        <v>7.064360075122944</v>
       </c>
       <c r="T58">
         <v>432680.75</v>
@@ -6451,16 +6403,16 @@
         <v>5.190114068441054</v>
       </c>
       <c r="P59">
-        <v>9.67741935483871</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="Q59">
-        <v>4.256102048325761</v>
+        <v>5.560573913408806</v>
       </c>
       <c r="R59">
-        <v>15.5578503552778</v>
+        <v>12.54811002249989</v>
       </c>
       <c r="S59">
-        <v>9.845865356727934</v>
+        <v>6.984895458650087</v>
       </c>
       <c r="T59">
         <v>436250.25</v>
@@ -6554,16 +6506,16 @@
         <v>4.761904761904767</v>
       </c>
       <c r="P60">
-        <v>9.67741935483871</v>
+        <v>10.85766423357664</v>
       </c>
       <c r="Q60">
-        <v>3.831694930264784</v>
+        <v>4.949033639663569</v>
       </c>
       <c r="R60">
-        <v>14.49262395595952</v>
+        <v>12.88152312030918</v>
       </c>
       <c r="S60">
-        <v>8.390252727406523</v>
+        <v>6.865022361364348</v>
       </c>
       <c r="T60">
         <v>439369.4166666667</v>
@@ -6657,16 +6609,16 @@
         <v>4.484940043433117</v>
       </c>
       <c r="P61">
-        <v>9.67741935483871</v>
+        <v>10.66907775768536</v>
       </c>
       <c r="Q61">
-        <v>3.557189457878107</v>
+        <v>4.493511243211556</v>
       </c>
       <c r="R61">
-        <v>13.31431288635283</v>
+        <v>13.09413345833568</v>
       </c>
       <c r="S61">
-        <v>6.991136706970869</v>
+        <v>6.783243752559431</v>
       </c>
       <c r="T61">
         <v>442016</v>
@@ -6760,16 +6712,16 @@
         <v>4.585338239456549</v>
       </c>
       <c r="P62">
-        <v>8.333333333333332</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="Q62">
-        <v>2.210900399408744</v>
+        <v>3.154385633864809</v>
       </c>
       <c r="R62">
-        <v>12.85337908838475</v>
+        <v>13.26852167735024</v>
       </c>
       <c r="S62">
-        <v>6.475496828365634</v>
+        <v>6.867177731248453</v>
       </c>
       <c r="T62">
         <v>444412.9166666667</v>
@@ -6863,16 +6815,16 @@
         <v>4.867465333459098</v>
       </c>
       <c r="P63">
-        <v>7.07070707070707</v>
+        <v>8.994708994708994</v>
       </c>
       <c r="Q63">
-        <v>1.000572654190224</v>
+        <v>2.815497589575511</v>
       </c>
       <c r="R63">
-        <v>13.76057917813807</v>
+        <v>13.43972944739524</v>
       </c>
       <c r="S63">
-        <v>7.311177415468406</v>
+        <v>7.008517543057491</v>
       </c>
       <c r="T63">
         <v>447045.8333333333</v>
@@ -6966,16 +6918,16 @@
         <v>5.004703668861721</v>
       </c>
       <c r="P64">
-        <v>6.209150326797378</v>
+        <v>8.748906386701655</v>
       </c>
       <c r="Q64">
-        <v>-0.08546535578796144</v>
+        <v>2.303768943275308</v>
       </c>
       <c r="R64">
-        <v>13.21588171090838</v>
+        <v>13.50252539887037</v>
       </c>
       <c r="S64">
-        <v>6.506003490976831</v>
+        <v>6.775658888871483</v>
       </c>
       <c r="T64">
         <v>449408.0833333333</v>
@@ -7069,16 +7021,16 @@
         <v>4.910337057553282</v>
       </c>
       <c r="P65">
-        <v>6.535947712418308</v>
+        <v>8.506944444444452</v>
       </c>
       <c r="Q65">
-        <v>0.02436176172970761</v>
+        <v>1.874889160120596</v>
       </c>
       <c r="R65">
-        <v>13.97858306900611</v>
+        <v>13.58049267084801</v>
       </c>
       <c r="S65">
-        <v>7.012095642668403</v>
+        <v>6.638336936295208</v>
       </c>
       <c r="T65">
         <v>451950</v>
@@ -7172,16 +7124,16 @@
         <v>5.039887376818375</v>
       </c>
       <c r="P66">
-        <v>6.862745098039216</v>
+        <v>8.2687338501292</v>
       </c>
       <c r="Q66">
-        <v>0.2935195664375501</v>
+        <v>1.613077287779618</v>
       </c>
       <c r="R66">
-        <v>14.1295094585846</v>
+        <v>13.69209088691763</v>
       </c>
       <c r="S66">
-        <v>7.113570585250661</v>
+        <v>6.703041658299025</v>
       </c>
       <c r="T66">
         <v>454487</v>
@@ -7275,16 +7227,16 @@
         <v>5.051073001593109</v>
       </c>
       <c r="P67">
-        <v>6.862745098039216</v>
+        <v>8.034188034188027</v>
       </c>
       <c r="Q67">
-        <v>0.1431403786329444</v>
+        <v>1.240922157424817</v>
       </c>
       <c r="R67">
-        <v>15.75565116779949</v>
+        <v>13.9737335217551</v>
       </c>
       <c r="S67">
-        <v>8.476854247773868</v>
+        <v>6.806984839054553</v>
       </c>
       <c r="T67">
         <v>457555.6666666667</v>
@@ -7378,16 +7330,16 @@
         <v>5.034153644614969</v>
       </c>
       <c r="P68">
-        <v>6.862745098039216</v>
+        <v>7.80322307039865</v>
       </c>
       <c r="Q68">
-        <v>-0.00678852995301682</v>
+        <v>0.8732320299416507</v>
       </c>
       <c r="R68">
-        <v>15.28632596218364</v>
+        <v>14.20387468031786</v>
       </c>
       <c r="S68">
-        <v>7.875293311671805</v>
+        <v>6.862426013210321</v>
       </c>
       <c r="T68">
         <v>460527</v>
@@ -7481,16 +7433,16 @@
         <v>4.840063415089069</v>
       </c>
       <c r="P69">
-        <v>6.862745098039216</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="Q69">
-        <v>-0.3424926811160911</v>
+        <v>0.3224448155903836</v>
       </c>
       <c r="R69">
-        <v>13.99121467665782</v>
+        <v>14.23598507336104</v>
       </c>
       <c r="S69">
-        <v>6.305338689413253</v>
+        <v>6.533605402742726</v>
       </c>
       <c r="T69">
         <v>463033.4166666667</v>
@@ -7584,16 +7536,16 @@
         <v>4.286646165315444</v>
       </c>
       <c r="P70">
-        <v>6.862745098039216</v>
+        <v>7.351712614870502</v>
       </c>
       <c r="Q70">
-        <v>-0.4167877196540659</v>
+        <v>0.03887113490868011</v>
       </c>
       <c r="R70">
-        <v>12.50929091719934</v>
+        <v>14.05909788695374</v>
       </c>
       <c r="S70">
-        <v>4.8451131462113</v>
+        <v>6.289346647054095</v>
       </c>
       <c r="T70">
         <v>464957.0833333333</v>
@@ -7687,16 +7639,16 @@
         <v>4.421800504814422</v>
       </c>
       <c r="P71">
-        <v>6.862745098039216</v>
+        <v>7.131011608623557</v>
       </c>
       <c r="Q71">
-        <v>-0.1002663381890256</v>
+        <v>0.1505203408652234</v>
       </c>
       <c r="R71">
-        <v>10.95090590027457</v>
+        <v>13.66507036735316</v>
       </c>
       <c r="S71">
-        <v>3.72151621975747</v>
+        <v>6.258829921803444</v>
       </c>
       <c r="T71">
         <v>466310</v>
@@ -7790,16 +7742,16 @@
         <v>4.463615903975993</v>
       </c>
       <c r="P72">
-        <v>6.862745098039216</v>
+        <v>6.91358024691358</v>
       </c>
       <c r="Q72">
-        <v>0.2088757483488468</v>
+        <v>0.2565456178859504</v>
       </c>
       <c r="R72">
-        <v>12.25177435369397</v>
+        <v>13.47478379086681</v>
       </c>
       <c r="S72">
-        <v>5.26235404509936</v>
+        <v>6.40921210696439</v>
       </c>
       <c r="T72">
         <v>468202.6666666667</v>
@@ -7893,16 +7845,16 @@
         <v>4.131455399061035</v>
       </c>
       <c r="P73">
-        <v>6.862745098039216</v>
+        <v>6.699346405228751</v>
       </c>
       <c r="Q73">
-        <v>0.3406057258584116</v>
+        <v>0.1871797232194883</v>
       </c>
       <c r="R73">
-        <v>12.70604054706501</v>
+        <v>13.41847235952872</v>
       </c>
       <c r="S73">
-        <v>5.82726811930987</v>
+        <v>6.496218177961244</v>
       </c>
       <c r="T73">
         <v>470384.1666666667</v>
@@ -7996,16 +7948,16 @@
         <v>4.217661457352651</v>
       </c>
       <c r="P74">
-        <v>9.743589743589737</v>
+        <v>7.512195121951219</v>
       </c>
       <c r="Q74">
-        <v>3.317256395772672</v>
+        <v>1.216527134203749</v>
       </c>
       <c r="R74">
-        <v>13.23776151427505</v>
+        <v>13.4470049409651</v>
       </c>
       <c r="S74">
-        <v>6.60681746777918</v>
+        <v>6.80380807848342</v>
       </c>
       <c r="T74">
         <v>472844.8333333333</v>
@@ -8099,16 +8051,16 @@
         <v>4.298535663675018</v>
       </c>
       <c r="P75">
-        <v>12.51572327044026</v>
+        <v>8.317152103559877</v>
       </c>
       <c r="Q75">
-        <v>6.297329494983717</v>
+        <v>2.330800286783075</v>
       </c>
       <c r="R75">
-        <v>12.3658853583113</v>
+        <v>13.32689263339986</v>
       </c>
       <c r="S75">
-        <v>6.15577265782834</v>
+        <v>7.063668052338068</v>
       </c>
       <c r="T75">
         <v>475082.25</v>
@@ -8202,16 +8154,16 @@
         <v>4.351957430634745</v>
       </c>
       <c r="P76">
-        <v>14.83076923076924</v>
+        <v>8.946098149637981</v>
       </c>
       <c r="Q76">
-        <v>9.113235681080623</v>
+        <v>3.52156798711325</v>
       </c>
       <c r="R76">
-        <v>12.50261475357653</v>
+        <v>13.26416872864381</v>
       </c>
       <c r="S76">
-        <v>6.901002236389697</v>
+        <v>7.624637712508364</v>
       </c>
       <c r="T76">
         <v>477477</v>
@@ -8305,16 +8257,16 @@
         <v>4.043767840152235</v>
       </c>
       <c r="P77">
-        <v>14.47852760736195</v>
+        <v>9.567999999999985</v>
       </c>
       <c r="Q77">
-        <v>8.923432547442388</v>
+        <v>4.251189343482387</v>
       </c>
       <c r="R77">
-        <v>12.15145911325605</v>
+        <v>13.11429605124334</v>
       </c>
       <c r="S77">
-        <v>6.709285550196076</v>
+        <v>7.625400619641631</v>
       </c>
       <c r="T77">
         <v>479887.9166666667</v>
@@ -8408,16 +8360,16 @@
         <v>3.695590056195819</v>
       </c>
       <c r="P78">
-        <v>14.12844036697248</v>
+        <v>10.18297533810661</v>
       </c>
       <c r="Q78">
-        <v>8.70410550240257</v>
+        <v>4.94616186123118</v>
       </c>
       <c r="R78">
-        <v>11.78083782588693</v>
+        <v>12.92294644116957</v>
       </c>
       <c r="S78">
-        <v>6.468080603759319</v>
+        <v>7.555906696989756</v>
       </c>
       <c r="T78">
         <v>482282.0833333333</v>
@@ -8511,16 +8463,16 @@
         <v>3.307281738467416</v>
       </c>
       <c r="P79">
-        <v>14.12844036697248</v>
+        <v>10.79113924050634</v>
       </c>
       <c r="Q79">
-        <v>8.77663016295509</v>
+        <v>5.595824666895122</v>
       </c>
       <c r="R79">
-        <v>10.65446442093421</v>
+        <v>12.50896023308951</v>
       </c>
       <c r="S79">
-        <v>5.465558921973135</v>
+        <v>7.233092101686545</v>
       </c>
       <c r="T79">
         <v>484368.5</v>
@@ -8614,16 +8566,16 @@
         <v>2.728136882129273</v>
       </c>
       <c r="P80">
-        <v>14.12844036697248</v>
+        <v>11.39260424862312</v>
       </c>
       <c r="Q80">
-        <v>8.487110614992833</v>
+        <v>5.886505939755815</v>
       </c>
       <c r="R80">
-        <v>10.35146927051494</v>
+        <v>12.09958815854469</v>
       </c>
       <c r="S80">
-        <v>4.896833907333575</v>
+        <v>6.558543876943612</v>
       </c>
       <c r="T80">
         <v>486391.0833333333</v>
@@ -8717,16 +8669,16 @@
         <v>2.480045610034209</v>
       </c>
       <c r="P81">
-        <v>14.12844036697248</v>
+        <v>11.98748043818467</v>
       </c>
       <c r="Q81">
-        <v>8.445876441440969</v>
+        <v>6.411516950004437</v>
       </c>
       <c r="R81">
-        <v>10.7201734285102</v>
+        <v>11.82588301849391</v>
       </c>
       <c r="S81">
-        <v>5.207310365365059</v>
+        <v>6.257965620005623</v>
       </c>
       <c r="T81">
         <v>488549.0833333333</v>
@@ -8820,16 +8772,16 @@
         <v>2.00417933130701</v>
       </c>
       <c r="P82">
-        <v>14.12844036697248</v>
+        <v>12.57587548638133</v>
       </c>
       <c r="Q82">
-        <v>8.404673600847712</v>
+        <v>6.929972916395633</v>
       </c>
       <c r="R82">
-        <v>11.86414084693136</v>
+        <v>11.7752195001472</v>
       </c>
       <c r="S82">
-        <v>6.25393317527676</v>
+        <v>6.169471409714289</v>
       </c>
       <c r="T82">
         <v>491084.5833333333</v>
@@ -8923,16 +8875,16 @@
         <v>1.688003793266946</v>
       </c>
       <c r="P83">
-        <v>14.12844036697248</v>
+        <v>13.15789473684209</v>
       </c>
       <c r="Q83">
-        <v>8.229910257916039</v>
+        <v>7.309525592074051</v>
       </c>
       <c r="R83">
-        <v>13.18983073481788</v>
+        <v>11.96359836355873</v>
       </c>
       <c r="S83">
-        <v>7.339811033492527</v>
+        <v>6.17695435140706</v>
       </c>
       <c r="T83">
         <v>494047.8333333333</v>
@@ -9026,16 +8978,16 @@
         <v>1.52563252155784</v>
       </c>
       <c r="P84">
-        <v>14.12844036697248</v>
+        <v>13.73364126250963</v>
       </c>
       <c r="Q84">
-        <v>8.147863514614318</v>
+        <v>7.773752736197892</v>
       </c>
       <c r="R84">
-        <v>12.25608832213336</v>
+        <v>11.96675020614222</v>
       </c>
       <c r="S84">
-        <v>6.373626762184559</v>
+        <v>6.099450588593025</v>
       </c>
       <c r="T84">
         <v>496656.1666666667</v>
@@ -9129,16 +9081,16 @@
         <v>1.247165532879824</v>
       </c>
       <c r="P85">
-        <v>14.12844036697248</v>
+        <v>14.30321592649312</v>
       </c>
       <c r="Q85">
-        <v>7.83110389925592</v>
+        <v>7.996235758213466</v>
       </c>
       <c r="R85">
-        <v>11.97263169694689</v>
+        <v>11.90874588826365</v>
       </c>
       <c r="S85">
-        <v>5.794247635059424</v>
+        <v>5.733886893673135</v>
       </c>
       <c r="T85">
         <v>499124.6666666667</v>
@@ -9232,16 +9184,16 @@
         <v>0.904380593499754</v>
       </c>
       <c r="P86">
-        <v>12.26635514018692</v>
+        <v>13.73260738052026</v>
       </c>
       <c r="Q86">
-        <v>5.761992595559984</v>
+        <v>7.143294753198548</v>
       </c>
       <c r="R86">
-        <v>11.31127353618813</v>
+        <v>11.75112674119474</v>
       </c>
       <c r="S86">
-        <v>4.862245441533797</v>
+        <v>5.276614923405298</v>
       </c>
       <c r="T86">
         <v>501246.1666666667</v>
@@ -9335,16 +9287,16 @@
         <v>0.7619226789577604</v>
       </c>
       <c r="P87">
-        <v>10.56456120737842</v>
+        <v>13.17597848819839</v>
       </c>
       <c r="Q87">
-        <v>4.00203292952539</v>
+        <v>6.45845027579568</v>
       </c>
       <c r="R87">
-        <v>11.04968849961312</v>
+        <v>11.64153238864624</v>
       </c>
       <c r="S87">
-        <v>4.45836562845745</v>
+        <v>5.015080790749926</v>
       </c>
       <c r="T87">
         <v>503143.4166666667</v>
@@ -9438,16 +9390,16 @@
         <v>0.5253776151608713</v>
       </c>
       <c r="P88">
-        <v>9.003215434083602</v>
+        <v>12.7159946832078</v>
       </c>
       <c r="Q88">
-        <v>2.264016731479113</v>
+        <v>5.747250852057206</v>
       </c>
       <c r="R88">
-        <v>11.56750202101859</v>
+        <v>11.56951944626207</v>
       </c>
       <c r="S88">
-        <v>4.669764537966592</v>
+        <v>4.671657234507975</v>
       </c>
       <c r="T88">
         <v>505104.5833333333</v>
@@ -9541,16 +9493,16 @@
         <v>0.7230725889755041</v>
       </c>
       <c r="P89">
-        <v>9.003215434083602</v>
+        <v>12.26635514018692</v>
       </c>
       <c r="Q89">
-        <v>2.360048299449335</v>
+        <v>5.424316968904996</v>
       </c>
       <c r="R89">
-        <v>11.74376937957217</v>
+        <v>11.54007887974273</v>
       </c>
       <c r="S89">
-        <v>4.933580035282348</v>
+        <v>4.742303389748082</v>
       </c>
       <c r="T89">
         <v>507089</v>
@@ -9644,16 +9596,16 @@
         <v>0.8638497652582178</v>
       </c>
       <c r="P90">
-        <v>9.003215434083602</v>
+        <v>11.82671480144404</v>
       </c>
       <c r="Q90">
-        <v>2.35043702730855</v>
+        <v>5.001610142200974</v>
       </c>
       <c r="R90">
-        <v>13.01860028369928</v>
+        <v>11.64770715418013</v>
       </c>
       <c r="S90">
-        <v>6.120751440093231</v>
+        <v>4.8335278443006</v>
       </c>
       <c r="T90">
         <v>509533.3333333333</v>
@@ -9747,16 +9699,16 @@
         <v>1.124648547328966</v>
       </c>
       <c r="P91">
-        <v>9.003215434083602</v>
+        <v>11.39674378748929</v>
       </c>
       <c r="Q91">
-        <v>2.158589910106468</v>
+        <v>4.401821731480138</v>
       </c>
       <c r="R91">
-        <v>13.26800350372271</v>
+        <v>11.86511123963834</v>
       </c>
       <c r="S91">
-        <v>6.155579666094391</v>
+        <v>4.840779043709786</v>
       </c>
       <c r="T91">
         <v>512103</v>
@@ -9850,16 +9802,16 @@
         <v>1.844358708948901</v>
       </c>
       <c r="P92">
-        <v>9.003215434083602</v>
+        <v>10.97612657154965</v>
       </c>
       <c r="Q92">
-        <v>2.571953923104919</v>
+        <v>4.428462003904809</v>
       </c>
       <c r="R92">
-        <v>12.7191251688497</v>
+        <v>12.06151989582388</v>
       </c>
       <c r="S92">
-        <v>6.068622535851786</v>
+        <v>5.449816407098784</v>
       </c>
       <c r="T92">
         <v>514558.5833333333</v>
@@ -9953,16 +9905,16 @@
         <v>2.224526345555677</v>
       </c>
       <c r="P93">
-        <v>9.003215434083602</v>
+        <v>10.56456120737842</v>
       </c>
       <c r="Q93">
-        <v>2.745984950592528</v>
+        <v>4.217703089243496</v>
       </c>
       <c r="R93">
-        <v>12.0250737957245</v>
+        <v>12.16630616778402</v>
       </c>
       <c r="S93">
-        <v>5.594376280256874</v>
+        <v>5.727501336397434</v>
       </c>
       <c r="T93">
         <v>516834.4166666667</v>
@@ -10056,16 +10008,16 @@
         <v>2.871717362554316</v>
       </c>
       <c r="P94">
-        <v>9.003215434083602</v>
+        <v>10.16175860638739</v>
       </c>
       <c r="Q94">
-        <v>2.969219189574535</v>
+        <v>4.063629894565834</v>
       </c>
       <c r="R94">
-        <v>12.14796660342677</v>
+        <v>12.18873572697326</v>
       </c>
       <c r="S94">
-        <v>5.939889102046814</v>
+        <v>5.978401404660172</v>
       </c>
       <c r="T94">
         <v>519286.75</v>
@@ -10159,16 +10111,16 @@
         <v>3.221844293272857</v>
       </c>
       <c r="P95">
-        <v>9.003215434083602</v>
+        <v>9.767441860465118</v>
       </c>
       <c r="Q95">
-        <v>2.988676713986771</v>
+        <v>3.710734939970828</v>
       </c>
       <c r="R95">
-        <v>12.32680750654426</v>
+        <v>12.12285604940328</v>
       </c>
       <c r="S95">
-        <v>6.128880864081876</v>
+        <v>5.936182964288816</v>
       </c>
       <c r="T95">
         <v>521862.5</v>
@@ -10262,16 +10214,16 @@
         <v>3.479247423655085</v>
       </c>
       <c r="P96">
-        <v>9.003215434083602</v>
+        <v>9.381345607147692</v>
       </c>
       <c r="Q96">
-        <v>3.056835997053597</v>
+        <v>3.414338287933893</v>
       </c>
       <c r="R96">
-        <v>12.70437681941881</v>
+        <v>12.16374706269675</v>
       </c>
       <c r="S96">
-        <v>6.556090403156656</v>
+        <v>6.04495325961687</v>
       </c>
       <c r="T96">
         <v>524648.5833333334</v>
@@ -10371,10 +10323,10 @@
         <v>2.920607529113028</v>
       </c>
       <c r="R97">
-        <v>12.25530332555071</v>
+        <v>12.18715943544572</v>
       </c>
       <c r="S97">
-        <v>5.991222099471938</v>
+        <v>5.926880781272525</v>
       </c>
       <c r="T97">
         <v>527280.4166666666</v>
@@ -10468,16 +10420,16 @@
         <v>4.337531963254082</v>
       </c>
       <c r="P98">
-        <v>8.220603537981281</v>
+        <v>8.803191489361714</v>
       </c>
       <c r="Q98">
-        <v>2.491337757345646</v>
+        <v>3.043083141738512</v>
       </c>
       <c r="R98">
-        <v>12.60781899612797</v>
+        <v>12.2942001005333</v>
       </c>
       <c r="S98">
-        <v>6.646291311798436</v>
+        <v>6.34927559478482</v>
       </c>
       <c r="T98">
         <v>530078.4166666666</v>
@@ -10571,16 +10523,16 @@
         <v>4.494700984102962</v>
       </c>
       <c r="P99">
-        <v>7.482305358948421</v>
+        <v>8.60612460401266</v>
       </c>
       <c r="Q99">
-        <v>1.705436562214646</v>
+        <v>2.768853713108133</v>
       </c>
       <c r="R99">
-        <v>12.6489623813868</v>
+        <v>12.42302463744712</v>
       </c>
       <c r="S99">
-        <v>6.594400436588566</v>
+        <v>6.380606205002937</v>
       </c>
       <c r="T99">
         <v>532868</v>
@@ -10674,16 +10626,16 @@
         <v>4.239284032030133</v>
       </c>
       <c r="P100">
-        <v>6.784660766961652</v>
+        <v>8.411949685534591</v>
       </c>
       <c r="Q100">
-        <v>0.5978905011414293</v>
+        <v>2.130899374031614</v>
       </c>
       <c r="R100">
-        <v>11.64163206747386</v>
+        <v>12.42177454721313</v>
       </c>
       <c r="S100">
-        <v>5.173464029650354</v>
+        <v>5.908407486776368</v>
       </c>
       <c r="T100">
         <v>535181.5833333334</v>
@@ -10777,16 +10729,16 @@
         <v>4.318780579601067</v>
       </c>
       <c r="P101">
-        <v>6.784660766961652</v>
+        <v>8.220603537981281</v>
       </c>
       <c r="Q101">
-        <v>0.4748407668062171</v>
+        <v>1.825934830618459</v>
       </c>
       <c r="R101">
-        <v>10.88421173862344</v>
+        <v>12.34211486005327</v>
       </c>
       <c r="S101">
-        <v>4.332152557982161</v>
+        <v>5.703909352703507</v>
       </c>
       <c r="T101">
         <v>537101.1666666666</v>
@@ -10880,16 +10832,16 @@
         <v>4.258719563786761</v>
       </c>
       <c r="P102">
-        <v>6.784660766961652</v>
+        <v>8.032024793388418</v>
       </c>
       <c r="Q102">
-        <v>0.389828680042914</v>
+        <v>1.562493930044573</v>
       </c>
       <c r="R102">
-        <v>9.394157951676885</v>
+        <v>12.03621565329823</v>
       </c>
       <c r="S102">
-        <v>2.843055327326205</v>
+        <v>5.326892594996901</v>
       </c>
       <c r="T102">
         <v>538352.5833333334</v>
@@ -10983,16 +10935,16 @@
         <v>4.111903867818256</v>
       </c>
       <c r="P103">
-        <v>6.784660766961652</v>
+        <v>7.846153846153846</v>
       </c>
       <c r="Q103">
-        <v>0.2484611030432404</v>
+        <v>1.244981079753882</v>
       </c>
       <c r="R103">
-        <v>8.377465839023952</v>
+        <v>11.62126962807578</v>
       </c>
       <c r="S103">
-        <v>1.743771910461844</v>
+        <v>4.789025185951745</v>
       </c>
       <c r="T103">
         <v>539162.5833333334</v>
@@ -11086,16 +11038,16 @@
         <v>4.131455399061035</v>
       </c>
       <c r="P104">
-        <v>6.784660766961652</v>
+        <v>7.662932790224045</v>
       </c>
       <c r="Q104">
-        <v>0.267287105128311</v>
+        <v>1.091955671571876</v>
       </c>
       <c r="R104">
-        <v>8.184967128848854</v>
+        <v>11.22979200979116</v>
       </c>
       <c r="S104">
-        <v>1.582128759482515</v>
+        <v>4.441119258019866</v>
       </c>
       <c r="T104">
         <v>539879.5833333334</v>
@@ -11189,16 +11141,16 @@
         <v>4.121678715613553</v>
       </c>
       <c r="P105">
-        <v>6.784660766961652</v>
+        <v>7.482305358948421</v>
       </c>
       <c r="Q105">
-        <v>0.2578732203188938</v>
+        <v>0.9128770621992688</v>
       </c>
       <c r="R105">
-        <v>9.001435444854994</v>
+        <v>10.96809382418057</v>
       </c>
       <c r="S105">
-        <v>2.339156365463335</v>
+        <v>4.18561057570237</v>
       </c>
       <c r="T105">
         <v>540929.5</v>
@@ -11292,16 +11244,16 @@
         <v>3.88758782201406</v>
       </c>
       <c r="P106">
-        <v>6.784660766961652</v>
+        <v>7.30421686746988</v>
       </c>
       <c r="Q106">
-        <v>0.03246910254020019</v>
+        <v>0.5191727095736676</v>
       </c>
       <c r="R106">
-        <v>9.732818146512285</v>
+        <v>10.76440108525628</v>
       </c>
       <c r="S106">
-        <v>2.794209036545481</v>
+        <v>3.760563077523438</v>
       </c>
       <c r="T106">
         <v>542265.5</v>
@@ -11395,16 +11347,16 @@
         <v>4.062294774369057</v>
       </c>
       <c r="P107">
-        <v>6.784660766961652</v>
+        <v>7.12861415752743</v>
       </c>
       <c r="Q107">
-        <v>0.1826257312708801</v>
+        <v>0.5053139670958107</v>
       </c>
       <c r="R107">
-        <v>9.978861959404458</v>
+        <v>10.57193948824312</v>
       </c>
       <c r="S107">
-        <v>3.179343239895349</v>
+        <v>3.73575334294316</v>
       </c>
       <c r="T107">
         <v>543692</v>
@@ -11498,16 +11450,16 @@
         <v>4.307432432432434</v>
       </c>
       <c r="P108">
-        <v>6.784660766961652</v>
+        <v>6.955445544554443</v>
       </c>
       <c r="Q108">
-        <v>0.2108302993258926</v>
+        <v>0.3711012993191209</v>
       </c>
       <c r="R108">
-        <v>9.756531758978742</v>
+        <v>10.33158409079088</v>
       </c>
       <c r="S108">
-        <v>2.999748272314906</v>
+        <v>3.539399484601069</v>
       </c>
       <c r="T108">
         <v>545030.4166666666</v>
@@ -11607,10 +11559,10 @@
         <v>0.3520916896547766</v>
       </c>
       <c r="R109">
-        <v>9.562076576877873</v>
+        <v>10.10974977869931</v>
       </c>
       <c r="S109">
-        <v>2.962199583570957</v>
+        <v>3.476881664034681</v>
       </c>
       <c r="T109">
         <v>546347.5833333334</v>
@@ -11704,16 +11656,16 @@
         <v>4.368116483106244</v>
       </c>
       <c r="P110">
-        <v>7.5</v>
+        <v>6.966511855292104</v>
       </c>
       <c r="Q110">
-        <v>0.3360089602389538</v>
+        <v>-0.1619265864363229</v>
       </c>
       <c r="R110">
-        <v>7.562178333291078</v>
+        <v>9.686098679973796</v>
       </c>
       <c r="S110">
-        <v>0.3940436189015184</v>
+        <v>2.376422139232592</v>
       </c>
       <c r="T110">
         <v>546718.5</v>
@@ -11807,16 +11759,16 @@
         <v>4.131847725162485</v>
       </c>
       <c r="P111">
-        <v>8.184383819379116</v>
+        <v>7.146329606222655</v>
       </c>
       <c r="Q111">
-        <v>0.4497528499341819</v>
+        <v>-0.5140857880940986</v>
       </c>
       <c r="R111">
-        <v>6.41555394013595</v>
+        <v>9.169856814345106</v>
       </c>
       <c r="S111">
-        <v>-1.192614725964758</v>
+        <v>1.364769558352008</v>
       </c>
       <c r="T111">
         <v>546434.8333333334</v>
@@ -11910,16 +11862,16 @@
         <v>4.115416628132795</v>
       </c>
       <c r="P112">
-        <v>8.839779005524861</v>
+        <v>7.324147933284989</v>
       </c>
       <c r="Q112">
-        <v>0.6564126565475448</v>
+        <v>-0.7452622461065372</v>
       </c>
       <c r="R112">
-        <v>6.201180590035404</v>
+        <v>8.728331226229415</v>
       </c>
       <c r="S112">
-        <v>-1.783796735378329</v>
+        <v>0.5533443320349773</v>
       </c>
       <c r="T112">
         <v>545835.5</v>
@@ -12013,16 +11965,16 @@
         <v>4.169363039659779</v>
       </c>
       <c r="P113">
-        <v>8.839779005524861</v>
+        <v>7.5</v>
       </c>
       <c r="Q113">
-        <v>0.6191910932096256</v>
+        <v>-0.6193953961357246</v>
       </c>
       <c r="R113">
-        <v>5.74435075009575</v>
+        <v>8.312041741846388</v>
       </c>
       <c r="S113">
-        <v>-2.242441758254854</v>
+        <v>0.1313134342667777</v>
       </c>
       <c r="T113">
         <v>544917.1666666666</v>
@@ -12116,16 +12068,16 @@
         <v>4.314557020374288</v>
       </c>
       <c r="P114">
-        <v>8.839779005524861</v>
+        <v>7.673918240497252</v>
       </c>
       <c r="Q114">
-        <v>0.3409044026227104</v>
+        <v>-0.7339188342424086</v>
       </c>
       <c r="R114">
-        <v>6.171283413645662</v>
+        <v>8.048439523541743</v>
       </c>
       <c r="S114">
-        <v>-2.119218757586749</v>
+        <v>-0.3886424600887284</v>
       </c>
       <c r="T114">
         <v>544072.5</v>
@@ -12219,16 +12171,16 @@
         <v>4.307098907153994</v>
       </c>
       <c r="P115">
-        <v>8.839779005524861</v>
+        <v>7.845934379457916</v>
       </c>
       <c r="Q115">
-        <v>-0.04612085083582906</v>
+        <v>-0.9588259900285556</v>
       </c>
       <c r="R115">
-        <v>5.853327556988316</v>
+        <v>7.836335868615279</v>
       </c>
       <c r="S115">
-        <v>-2.788752358354019</v>
+        <v>-0.9676408590180263</v>
       </c>
       <c r="T115">
         <v>542987.9166666666</v>
@@ -12322,16 +12274,16 @@
         <v>3.769623950346856</v>
       </c>
       <c r="P116">
-        <v>8.839779005524861</v>
+        <v>8.016079451406952</v>
       </c>
       <c r="Q116">
-        <v>-0.657375862062004</v>
+        <v>-1.40920093883995</v>
       </c>
       <c r="R116">
-        <v>5.43213103328106</v>
+        <v>7.600946992134104</v>
       </c>
       <c r="S116">
-        <v>-3.767678867030788</v>
+        <v>-1.788109718753095</v>
       </c>
       <c r="T116">
         <v>541519.5833333334</v>
@@ -12425,16 +12377,16 @@
         <v>4.218022459600101</v>
       </c>
       <c r="P117">
-        <v>8.839779005524861</v>
+        <v>8.184383819379116</v>
       </c>
       <c r="Q117">
-        <v>-0.6301661594769747</v>
+        <v>-1.228536638930777</v>
       </c>
       <c r="R117">
-        <v>4.151297699684797</v>
+        <v>7.186741671740523</v>
       </c>
       <c r="S117">
-        <v>-4.91071149485548</v>
+        <v>-2.139375813256161</v>
       </c>
       <c r="T117">
         <v>539342.75</v>
@@ -12528,16 +12480,16 @@
         <v>4.256096447164115</v>
       </c>
       <c r="P118">
-        <v>8.839779005524861</v>
+        <v>8.350877192982455</v>
       </c>
       <c r="Q118">
-        <v>-0.5938633614714917</v>
+        <v>-1.040389813697629</v>
       </c>
       <c r="R118">
-        <v>2.330763924297412</v>
+        <v>6.553635241460791</v>
       </c>
       <c r="S118">
-        <v>-6.538712280301939</v>
+        <v>-2.681856570042196</v>
       </c>
       <c r="T118">
         <v>536281</v>
@@ -12631,16 +12583,16 @@
         <v>3.838806513235693</v>
       </c>
       <c r="P119">
-        <v>8.839779005524861</v>
+        <v>8.515588645881806</v>
       </c>
       <c r="Q119">
-        <v>-0.991741102952004</v>
+        <v>-1.28664727928518</v>
       </c>
       <c r="R119">
-        <v>3.258760960527179</v>
+        <v>5.989914392295025</v>
       </c>
       <c r="S119">
-        <v>-6.068624615184959</v>
+        <v>-3.584176846816134</v>
       </c>
       <c r="T119">
         <v>533562.0833333334</v>
@@ -12734,16 +12686,16 @@
         <v>3.321868211440981</v>
       </c>
       <c r="P120">
-        <v>8.839779005524861</v>
+        <v>8.678546632723908</v>
       </c>
       <c r="Q120">
-        <v>-1.484631602529995</v>
+        <v>-1.63056966625279</v>
       </c>
       <c r="R120">
-        <v>6.441262772969226</v>
+        <v>5.726704742260529</v>
       </c>
       <c r="S120">
-        <v>-3.6556274683479</v>
+        <v>-4.302403383181996</v>
       </c>
       <c r="T120">
         <v>532055.75</v>
@@ -12843,10 +12795,10 @@
         <v>-1.653764339455266</v>
       </c>
       <c r="R121">
-        <v>11.05296819582534</v>
+        <v>5.888983554755849</v>
       </c>
       <c r="S121">
-        <v>0.346045175589893</v>
+        <v>-4.320065460598322</v>
       </c>
       <c r="T121">
         <v>532352.6666666666</v>
@@ -12940,16 +12892,16 @@
         <v>3.10721705356336</v>
       </c>
       <c r="P122">
-        <v>9.838998211091225</v>
+        <v>9.095063985374759</v>
       </c>
       <c r="Q122">
-        <v>-0.7867417477271932</v>
+        <v>-1.458708350307325</v>
       </c>
       <c r="R122">
-        <v>10.98684171758896</v>
+        <v>6.197765417364284</v>
       </c>
       <c r="S122">
-        <v>0.2500602633808802</v>
+        <v>-4.075724489780253</v>
       </c>
       <c r="T122">
         <v>532506.5833333334</v>
@@ -13043,16 +12995,16 @@
         <v>3.434215295396892</v>
       </c>
       <c r="P123">
-        <v>10.78260869565218</v>
+        <v>9.346642468239576</v>
       </c>
       <c r="Q123">
-        <v>0.3829364766692489</v>
+        <v>-0.9182290066694576</v>
       </c>
       <c r="R123">
-        <v>10.13913939706261</v>
+        <v>6.516435067780522</v>
       </c>
       <c r="S123">
-        <v>-0.2001274038939682</v>
+        <v>-3.482751841445697</v>
       </c>
       <c r="T123">
         <v>532327.75</v>
@@ -13146,16 +13098,16 @@
         <v>4.351403236127593</v>
       </c>
       <c r="P124">
-        <v>11.6751269035533</v>
+        <v>9.594594594594595</v>
       </c>
       <c r="Q124">
-        <v>2.088972395605904</v>
+        <v>0.1870322649187184</v>
       </c>
       <c r="R124">
-        <v>6.82668214875023</v>
+        <v>6.566952566641336</v>
       </c>
       <c r="S124">
-        <v>-2.343283527973095</v>
+        <v>-2.580718012029148</v>
       </c>
       <c r="T124">
         <v>531012.5</v>
@@ -13249,16 +13201,16 @@
         <v>4.456442166910679</v>
       </c>
       <c r="P125">
-        <v>11.6751269035533</v>
+        <v>9.838998211091225</v>
       </c>
       <c r="Q125">
-        <v>2.191733989342337</v>
+        <v>0.511528377645698</v>
       </c>
       <c r="R125">
-        <v>7.342414792260092</v>
+        <v>6.69505602016129</v>
       </c>
       <c r="S125">
-        <v>-1.773046493173414</v>
+        <v>-2.365431899559578</v>
       </c>
       <c r="T125">
         <v>530099.8333333334</v>
@@ -13352,16 +13304,16 @@
         <v>4.418221734357841</v>
       </c>
       <c r="P126">
-        <v>11.6751269035533</v>
+        <v>10.07992895204264</v>
       </c>
       <c r="Q126">
-        <v>2.154342209617011</v>
+        <v>0.6951417417148109</v>
       </c>
       <c r="R126">
-        <v>5.778175530878628</v>
+        <v>6.660004428616522</v>
       </c>
       <c r="S126">
-        <v>-3.239868705745852</v>
+        <v>-2.433219512791329</v>
       </c>
       <c r="T126">
         <v>528704.1666666666</v>
@@ -13455,16 +13407,16 @@
         <v>4.878721058434388</v>
       </c>
       <c r="P127">
-        <v>11.6751269035533</v>
+        <v>10.31746031746032</v>
       </c>
       <c r="Q127">
-        <v>2.604857500508362</v>
+        <v>1.357460784142162</v>
       </c>
       <c r="R127">
-        <v>5.946150906262131</v>
+        <v>6.664022074156259</v>
       </c>
       <c r="S127">
-        <v>-2.658810266205314</v>
+        <v>-1.999244694821523</v>
       </c>
       <c r="T127">
         <v>527438.8333333334</v>
@@ -13558,16 +13510,16 @@
         <v>4.975170130586726</v>
       </c>
       <c r="P128">
-        <v>11.6751269035533</v>
+        <v>10.55166374781085</v>
       </c>
       <c r="Q128">
-        <v>2.699215471356742</v>
+        <v>1.666050899219096</v>
       </c>
       <c r="R128">
-        <v>6.459647859474327</v>
+        <v>6.745575425605484</v>
       </c>
       <c r="S128">
-        <v>-2.097068365390531</v>
+        <v>-1.834122286550044</v>
       </c>
       <c r="T128">
         <v>526434.0833333334</v>
@@ -13661,16 +13613,16 @@
         <v>4.753601908782223</v>
       </c>
       <c r="P129">
-        <v>11.6751269035533</v>
+        <v>10.78260869565218</v>
       </c>
       <c r="Q129">
-        <v>2.482451044831868</v>
+        <v>1.663401574426149</v>
       </c>
       <c r="R129">
-        <v>6.852426388807586</v>
+        <v>6.966406309093014</v>
       </c>
       <c r="S129">
-        <v>-1.94326292667012</v>
+        <v>-1.838665404154349</v>
       </c>
       <c r="T129">
         <v>525629.4166666666</v>
@@ -13764,16 +13716,16 @@
         <v>5.226769911504414</v>
       </c>
       <c r="P130">
-        <v>11.6751269035533</v>
+        <v>11.01036269430052</v>
       </c>
       <c r="Q130">
-        <v>2.94536034619588</v>
+        <v>2.332561480734241</v>
       </c>
       <c r="R130">
-        <v>7.542037803980878</v>
+        <v>7.398992614342847</v>
       </c>
       <c r="S130">
-        <v>-0.8646406674217455</v>
+        <v>-0.996503858459763</v>
       </c>
       <c r="T130">
         <v>525154.0833333334</v>
@@ -13867,16 +13819,16 @@
         <v>5.729118383239085</v>
       </c>
       <c r="P131">
-        <v>11.6751269035533</v>
+        <v>11.23499142367066</v>
       </c>
       <c r="Q131">
-        <v>3.527511730372956</v>
+        <v>3.119487738639726</v>
       </c>
       <c r="R131">
-        <v>6.458661502666301</v>
+        <v>7.66198636973108</v>
       </c>
       <c r="S131">
-        <v>-1.30836979450607</v>
+        <v>-0.1928373322229726</v>
       </c>
       <c r="T131">
         <v>524351.75</v>
@@ -13970,16 +13922,16 @@
         <v>6.458547527806324</v>
       </c>
       <c r="P132">
-        <v>11.6751269035533</v>
+        <v>11.4565587734242</v>
       </c>
       <c r="Q132">
-        <v>4.379032529725491</v>
+        <v>4.1747441568597</v>
       </c>
       <c r="R132">
-        <v>5.479626638443828</v>
+        <v>7.569920337371467</v>
       </c>
       <c r="S132">
-        <v>-1.411695823493941</v>
+        <v>0.5420322809341682</v>
       </c>
       <c r="T132">
         <v>523383.5833333333</v>
@@ -14079,10 +14031,10 @@
         <v>5.066447364336546</v>
       </c>
       <c r="R133">
-        <v>4.596858638743456</v>
+        <v>7.000370945227015</v>
       </c>
       <c r="S133">
-        <v>-1.592945113610433</v>
+        <v>0.6683328113905374</v>
       </c>
       <c r="T133">
         <v>522293.5</v>
@@ -14176,16 +14128,16 @@
         <v>7.422876127195055</v>
       </c>
       <c r="P134">
-        <v>9.812703583061895</v>
+        <v>11.19606200251362</v>
       </c>
       <c r="Q134">
-        <v>4.236073643153193</v>
+        <v>5.549180828204658</v>
       </c>
       <c r="R134">
-        <v>5.541603839700978</v>
+        <v>6.540255820533843</v>
       </c>
       <c r="S134">
-        <v>0.1818736019942646</v>
+        <v>1.129810935485365</v>
       </c>
       <c r="T134">
         <v>522003.5833333333</v>
@@ -14279,16 +14231,16 @@
         <v>7.693776250477291</v>
       </c>
       <c r="P135">
-        <v>8.08477237048665</v>
+        <v>10.72614107883817</v>
       </c>
       <c r="Q135">
-        <v>3.173704057356486</v>
+        <v>5.695056394461795</v>
       </c>
       <c r="R135">
-        <v>5.430799739939664</v>
+        <v>6.154283840489211</v>
       </c>
       <c r="S135">
-        <v>0.6403204848603128</v>
+        <v>1.330931501039712</v>
       </c>
       <c r="T135">
         <v>521990.5833333333</v>
@@ -14382,16 +14334,16 @@
         <v>7.248732906187239</v>
       </c>
       <c r="P136">
-        <v>6.477272727272728</v>
+        <v>10.26510480887793</v>
       </c>
       <c r="Q136">
-        <v>1.823919601484847</v>
+        <v>5.446212880250467</v>
       </c>
       <c r="R136">
-        <v>5.940772480627916</v>
+        <v>6.083970077630959</v>
       </c>
       <c r="S136">
-        <v>1.310865908604675</v>
+        <v>1.447805372124833</v>
       </c>
       <c r="T136">
         <v>522413.6666666667</v>
@@ -14485,16 +14437,16 @@
         <v>7.215603382013835</v>
       </c>
       <c r="P137">
-        <v>6.477272727272728</v>
+        <v>9.812703583061895</v>
       </c>
       <c r="Q137">
-        <v>2.303298162252809</v>
+        <v>5.507978077499898</v>
       </c>
       <c r="R137">
-        <v>6.743815643113067</v>
+        <v>6.041447362333818</v>
       </c>
       <c r="S137">
-        <v>2.559392431891871</v>
+        <v>1.884557419613575</v>
       </c>
       <c r="T137">
         <v>523330.0833333333</v>
@@ -14588,16 +14540,16 @@
         <v>7.287644787644787</v>
       </c>
       <c r="P138">
-        <v>6.477272727272728</v>
+        <v>9.368697055264215</v>
       </c>
       <c r="Q138">
-        <v>2.777290277290279</v>
+        <v>5.56824040083419</v>
       </c>
       <c r="R138">
-        <v>8.734251526645064</v>
+        <v>6.2828780719955</v>
       </c>
       <c r="S138">
-        <v>4.955841241935377</v>
+        <v>2.589650648644293</v>
       </c>
       <c r="T138">
         <v>525188.8333333334</v>
@@ -14691,16 +14643,16 @@
         <v>6.941747572815515</v>
       </c>
       <c r="P139">
-        <v>6.477272727272728</v>
+        <v>8.932853717026379</v>
       </c>
       <c r="Q139">
-        <v>3.375992939099737</v>
+        <v>5.76005215245281</v>
       </c>
       <c r="R139">
-        <v>9.017832288997836</v>
+        <v>6.535537619064859</v>
       </c>
       <c r="S139">
-        <v>5.842555620386247</v>
+        <v>3.432560795208617</v>
       </c>
       <c r="T139">
         <v>527397.0833333334</v>
@@ -14794,16 +14746,16 @@
         <v>7.107389738097569</v>
       </c>
       <c r="P140">
-        <v>6.477272727272728</v>
+        <v>8.50495049504951</v>
       </c>
       <c r="Q140">
-        <v>3.667873359237395</v>
+        <v>5.642050915246344</v>
       </c>
       <c r="R140">
-        <v>7.841876195492474</v>
+        <v>6.651765270500796</v>
       </c>
       <c r="S140">
-        <v>4.996471809456238</v>
+        <v>3.83776192240366</v>
       </c>
       <c r="T140">
         <v>529359.5</v>
@@ -14897,16 +14849,16 @@
         <v>6.529377317977736</v>
       </c>
       <c r="P141">
-        <v>6.477272727272728</v>
+        <v>8.08477237048665</v>
       </c>
       <c r="Q141">
-        <v>3.920820541940984</v>
+        <v>5.489725132233714</v>
       </c>
       <c r="R141">
-        <v>6.598698338957795</v>
+        <v>6.631311766208252</v>
       </c>
       <c r="S141">
-        <v>4.039330801247121</v>
+        <v>4.071161200671747</v>
       </c>
       <c r="T141">
         <v>530982.75</v>
@@ -15000,16 +14952,16 @@
         <v>5.666081529159328</v>
       </c>
       <c r="P142">
-        <v>6.477272727272728</v>
+        <v>7.672112018669779</v>
       </c>
       <c r="Q142">
-        <v>3.839743248754357</v>
+        <v>5.004985389769612</v>
       </c>
       <c r="R142">
-        <v>5.972532998285697</v>
+        <v>6.503574958044365</v>
       </c>
       <c r="S142">
-        <v>3.347506337317818</v>
+        <v>3.865393951671892</v>
       </c>
       <c r="T142">
         <v>532412.3333333334</v>
@@ -15103,16 +15055,16 @@
         <v>5.170399221032151</v>
       </c>
       <c r="P143">
-        <v>6.477272727272728</v>
+        <v>7.266769468003089</v>
       </c>
       <c r="Q143">
-        <v>3.677967602018239</v>
+        <v>4.446708342748873</v>
       </c>
       <c r="R143">
-        <v>6.016056210310834</v>
+        <v>6.465842464215646</v>
       </c>
       <c r="S143">
-        <v>3.228876543632753</v>
+        <v>3.666837842468995</v>
       </c>
       <c r="T143">
         <v>533863.4166666666</v>
@@ -15206,16 +15158,16 @@
         <v>4.474708171206232</v>
       </c>
       <c r="P144">
-        <v>6.477272727272728</v>
+        <v>6.868551776843709</v>
       </c>
       <c r="Q144">
-        <v>3.577113547930666</v>
+        <v>3.957735191482215</v>
       </c>
       <c r="R144">
-        <v>6.034435207438635</v>
+        <v>6.509744832181882</v>
       </c>
       <c r="S144">
-        <v>3.146337750426675</v>
+        <v>3.60870119862049</v>
       </c>
       <c r="T144">
         <v>535316.5</v>
@@ -15315,10 +15267,10 @@
         <v>3.426199832222165</v>
       </c>
       <c r="R145">
-        <v>6.385774351786965</v>
+        <v>6.665108142566177</v>
       </c>
       <c r="S145">
-        <v>3.337323314023255</v>
+        <v>3.608652882531493</v>
       </c>
       <c r="T145">
         <v>536933.0833333334</v>
@@ -15412,16 +15364,16 @@
         <v>3.927668675870111</v>
       </c>
       <c r="P146">
-        <v>4.857248794957355</v>
+        <v>6.065743618724682</v>
       </c>
       <c r="Q146">
-        <v>1.941715725216175</v>
+        <v>3.116608612409766</v>
       </c>
       <c r="R146">
-        <v>6.511038279955026</v>
+        <v>6.747272927441886</v>
       </c>
       <c r="S146">
-        <v>3.549521952124279</v>
+        <v>3.779188146453327</v>
       </c>
       <c r="T146">
         <v>538569.5833333334</v>
@@ -15515,16 +15467,16 @@
         <v>3.772851030727331</v>
       </c>
       <c r="P147">
-        <v>3.304284676833701</v>
+        <v>5.658609705827248</v>
       </c>
       <c r="Q147">
-        <v>0.4514631241089972</v>
+        <v>2.740771787074348</v>
       </c>
       <c r="R147">
-        <v>5.81957886425971</v>
+        <v>6.775383253990827</v>
       </c>
       <c r="S147">
-        <v>2.897295667308142</v>
+        <v>3.826704836630523</v>
       </c>
       <c r="T147">
         <v>539851.75</v>
@@ -15618,16 +15570,16 @@
         <v>3.798208024931848</v>
       </c>
       <c r="P148">
-        <v>1.814300960512273</v>
+        <v>5.255800950517194</v>
       </c>
       <c r="Q148">
-        <v>-0.8431038561430904</v>
+        <v>2.508571241251656</v>
       </c>
       <c r="R148">
-        <v>4.962334962334962</v>
+        <v>6.689978493501482</v>
       </c>
       <c r="S148">
-        <v>2.222764863980298</v>
+        <v>3.905316024056771</v>
       </c>
       <c r="T148">
         <v>540754.3333333334</v>
@@ -15721,16 +15673,16 @@
         <v>3.542234332425065</v>
       </c>
       <c r="P149">
-        <v>1.814300960512273</v>
+        <v>4.857248794957355</v>
       </c>
       <c r="Q149">
-        <v>-0.9202987928062845</v>
+        <v>2.040919418993137</v>
       </c>
       <c r="R149">
-        <v>3.157003672678859</v>
+        <v>6.390700725465486</v>
       </c>
       <c r="S149">
-        <v>0.3863406701818395</v>
+        <v>3.533184824314395</v>
       </c>
       <c r="T149">
         <v>540919.25</v>
@@ -15824,16 +15776,16 @@
         <v>3.441571067470361</v>
       </c>
       <c r="P150">
-        <v>1.814300960512273</v>
+        <v>4.462886122637165</v>
       </c>
       <c r="Q150">
-        <v>-1.016623604401834</v>
+        <v>1.558318221502208</v>
       </c>
       <c r="R150">
-        <v>1.797827151345128</v>
+        <v>5.824090623335429</v>
       </c>
       <c r="S150">
-        <v>-1.032639362876597</v>
+        <v>2.881674726167049</v>
       </c>
       <c r="T150">
         <v>540509.9166666666</v>
@@ -15927,16 +15879,16 @@
         <v>1.925471788485478</v>
       </c>
       <c r="P151">
-        <v>1.814300960512273</v>
+        <v>4.072647220693451</v>
       </c>
       <c r="Q151">
-        <v>-2.467381013016312</v>
+        <v>-0.3040068773891735</v>
       </c>
       <c r="R151">
-        <v>1.985638577823171</v>
+        <v>5.250893633209538</v>
       </c>
       <c r="S151">
-        <v>-2.303248799862856</v>
+        <v>0.8246897530506114</v>
       </c>
       <c r="T151">
         <v>539933.8333333334</v>
@@ -16030,16 +15982,16 @@
         <v>1.837672281776426</v>
       </c>
       <c r="P152">
-        <v>1.814300960512273</v>
+        <v>3.686467743407241</v>
       </c>
       <c r="Q152">
-        <v>-2.551396477304479</v>
+        <v>-0.7595063711645866</v>
       </c>
       <c r="R152">
-        <v>4.042743523435933</v>
+        <v>4.94286380315737</v>
       </c>
       <c r="S152">
-        <v>-0.4185073474005097</v>
+        <v>0.4430166569270311</v>
       </c>
       <c r="T152">
         <v>539990.9166666666</v>
@@ -16133,16 +16085,16 @@
         <v>2.121124868029556</v>
       </c>
       <c r="P153">
-        <v>1.814300960512273</v>
+        <v>3.304284676833701</v>
       </c>
       <c r="Q153">
-        <v>-2.280160321996094</v>
+        <v>-0.8500962886709873</v>
       </c>
       <c r="R153">
-        <v>6.509371418586604</v>
+        <v>4.943982091371617</v>
       </c>
       <c r="S153">
-        <v>2.226097915909975</v>
+        <v>0.72366070771821</v>
       </c>
       <c r="T153">
         <v>540911.75</v>
@@ -16236,16 +16188,16 @@
         <v>1.788960107146287</v>
       </c>
       <c r="P154">
-        <v>1.814300960512273</v>
+        <v>2.926036304524519</v>
       </c>
       <c r="Q154">
-        <v>-2.59800922174277</v>
+        <v>-1.534452975677281</v>
       </c>
       <c r="R154">
-        <v>7.110874502027895</v>
+        <v>5.044969977679463</v>
       </c>
       <c r="S154">
-        <v>2.469027553838998</v>
+        <v>0.4926528055864132</v>
       </c>
       <c r="T154">
         <v>542066.8333333334</v>
@@ -16339,16 +16291,16 @@
         <v>1.759755164498844</v>
       </c>
       <c r="P155">
-        <v>1.814300960512273</v>
+        <v>2.551662174303679</v>
       </c>
       <c r="Q155">
-        <v>-2.625955470053309</v>
+        <v>-1.920751554797573</v>
       </c>
       <c r="R155">
-        <v>6.542805193474866</v>
+        <v>5.094061836139583</v>
       </c>
       <c r="S155">
-        <v>1.896332434463344</v>
+        <v>0.5107706925588928</v>
       </c>
       <c r="T155">
         <v>542970.6666666666</v>
@@ -16442,16 +16394,16 @@
         <v>2.258529553099486</v>
       </c>
       <c r="P156">
-        <v>1.814300960512273</v>
+        <v>2.181103066058823</v>
       </c>
       <c r="Q156">
-        <v>-2.14867759681665</v>
+        <v>-1.796152747660895</v>
       </c>
       <c r="R156">
-        <v>5.19013398928383</v>
+        <v>5.025427813775605</v>
       </c>
       <c r="S156">
-        <v>1.095755876293936</v>
+        <v>0.9374606571606048</v>
       </c>
       <c r="T156">
         <v>543329.3333333334</v>
@@ -16551,10 +16503,10 @@
         <v>-1.865734013964082</v>
       </c>
       <c r="R157">
-        <v>4.156207728047991</v>
+        <v>4.830200475931743</v>
       </c>
       <c r="S157">
-        <v>0.3915255210100943</v>
+        <v>1.0411570852354</v>
       </c>
       <c r="T157">
         <v>543348.4166666666</v>
@@ -16648,16 +16600,16 @@
         <v>2.524571208325299</v>
       </c>
       <c r="P158">
-        <v>2.758132956152758</v>
+        <v>2.051327590800107</v>
       </c>
       <c r="Q158">
-        <v>-0.9846473731424776</v>
+        <v>-1.665708623241369</v>
       </c>
       <c r="R158">
-        <v>3.737569576131697</v>
+        <v>4.589709495180009</v>
       </c>
       <c r="S158">
-        <v>-0.04088497192937801</v>
+        <v>0.7802172819233011</v>
       </c>
       <c r="T158">
         <v>543294.0833333334</v>
@@ -16751,16 +16703,16 @@
         <v>2.416016940995291</v>
       </c>
       <c r="P159">
-        <v>3.690685413005272</v>
+        <v>2.287639652420642</v>
       </c>
       <c r="Q159">
-        <v>-0.1918515612616356</v>
+        <v>-1.542362448338963</v>
       </c>
       <c r="R159">
-        <v>4.014376069793185</v>
+        <v>4.438895428347219</v>
       </c>
       <c r="S159">
-        <v>0.1197190006672288</v>
+        <v>0.5283428899289788</v>
       </c>
       <c r="T159">
         <v>543387.5833333334</v>
@@ -16854,16 +16806,16 @@
         <v>1.740294511378848</v>
       </c>
       <c r="P160">
-        <v>4.612159329140461</v>
+        <v>2.52324037184595</v>
       </c>
       <c r="Q160">
-        <v>0.03075093625974912</v>
+        <v>-1.966685435220938</v>
       </c>
       <c r="R160">
-        <v>4.658790119074261</v>
+        <v>4.416046999488362</v>
       </c>
       <c r="S160">
-        <v>0.07533956690979338</v>
+        <v>-0.1567728059969742</v>
       </c>
       <c r="T160">
         <v>543630</v>
@@ -16957,16 +16909,16 @@
         <v>1.391271202591948</v>
       </c>
       <c r="P161">
-        <v>4.612159329140461</v>
+        <v>2.758132956152758</v>
       </c>
       <c r="Q161">
-        <v>-0.3124077290447502</v>
+        <v>-2.079156702732288</v>
       </c>
       <c r="R161">
-        <v>4.978939550537288</v>
+        <v>4.560465465459145</v>
       </c>
       <c r="S161">
-        <v>0.03710648993451304</v>
+        <v>-0.361668128969761</v>
       </c>
       <c r="T161">
         <v>543840.75</v>
@@ -17060,16 +17012,16 @@
         <v>1.662526275558962</v>
       </c>
       <c r="P162">
-        <v>4.612159329140461</v>
+        <v>2.992320593167976</v>
       </c>
       <c r="Q162">
-        <v>-0.04571055881860131</v>
+        <v>-1.593425766130341</v>
       </c>
       <c r="R162">
-        <v>5.699384876169281</v>
+        <v>4.871654824249452</v>
       </c>
       <c r="S162">
-        <v>0.993106130488508</v>
+        <v>0.2022308658985672</v>
       </c>
       <c r="T162">
         <v>544241.0833333334</v>
@@ -17163,16 +17115,16 @@
         <v>2.931217954919219</v>
       </c>
       <c r="P163">
-        <v>4.612159329140461</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="Q163">
-        <v>1.201663276715137</v>
+        <v>-0.1394926462098378</v>
       </c>
       <c r="R163">
-        <v>3.705927286569398</v>
+        <v>5.008218477317432</v>
       </c>
       <c r="S163">
-        <v>0.3249756085608846</v>
+        <v>1.584810367918577</v>
       </c>
       <c r="T163">
         <v>543986.25</v>
@@ -17266,16 +17218,16 @@
         <v>3.080798294904086</v>
       </c>
       <c r="P164">
-        <v>4.612159329140461</v>
+        <v>3.45859368124615</v>
       </c>
       <c r="Q164">
-        <v>1.348730216179472</v>
+        <v>0.2311506309301992</v>
       </c>
       <c r="R164">
-        <v>4.850708470765544</v>
+        <v>5.073381552939342</v>
       </c>
       <c r="S164">
-        <v>1.57983769692458</v>
+        <v>1.795564379906356</v>
       </c>
       <c r="T164">
         <v>544462.75</v>
@@ -17369,16 +17321,16 @@
         <v>2.388088562312674</v>
       </c>
       <c r="P165">
-        <v>4.612159329140461</v>
+        <v>3.690685413005272</v>
       </c>
       <c r="Q165">
-        <v>1.142955940385249</v>
+        <v>0.2520404263804288</v>
       </c>
       <c r="R165">
-        <v>3.830936032849691</v>
+        <v>4.850171458005203</v>
       </c>
       <c r="S165">
-        <v>0.3876399814847664</v>
+        <v>1.373074985985867</v>
       </c>
       <c r="T165">
         <v>544679.6666666666</v>
@@ -17472,16 +17424,16 @@
         <v>2.740791136164833</v>
       </c>
       <c r="P166">
-        <v>4.612159329140461</v>
+        <v>3.922084759147144</v>
       </c>
       <c r="Q166">
-        <v>1.673786888075091</v>
+        <v>1.003095304837354</v>
       </c>
       <c r="R166">
-        <v>6.937254487653551</v>
+        <v>4.848145521043116</v>
       </c>
       <c r="S166">
-        <v>3.933574193462475</v>
+        <v>1.903144640920518</v>
       </c>
       <c r="T166">
         <v>546341.75</v>
@@ -17575,16 +17527,16 @@
         <v>2.769650867953977</v>
       </c>
       <c r="P167">
-        <v>4.612159329140461</v>
+        <v>4.152794813387069</v>
       </c>
       <c r="Q167">
-        <v>2.020830241018579</v>
+        <v>1.572844561524334</v>
       </c>
       <c r="R167">
-        <v>7.435841351411766</v>
+        <v>4.933432319140009</v>
       </c>
       <c r="S167">
-        <v>4.774567340951585</v>
+        <v>2.334145035244783</v>
       </c>
       <c r="T167">
         <v>548323</v>
@@ -17678,16 +17630,16 @@
         <v>1.578386753171301</v>
       </c>
       <c r="P168">
-        <v>4.612159329140461</v>
+        <v>4.382818651036654</v>
       </c>
       <c r="Q168">
-        <v>1.299660432981953</v>
+        <v>1.077581728514243</v>
       </c>
       <c r="R168">
-        <v>8.355057566273629</v>
+        <v>5.209655208273418</v>
       </c>
       <c r="S168">
-        <v>4.924041412098035</v>
+        <v>1.878236862857952</v>
       </c>
       <c r="T168">
         <v>550777.5833333334</v>
@@ -17787,10 +17739,10 @@
         <v>0.2896743640499189</v>
       </c>
       <c r="R169">
-        <v>10.07200581828695</v>
+        <v>5.740098755439953</v>
       </c>
       <c r="S169">
-        <v>5.52392466521614</v>
+        <v>1.371008297804588</v>
       </c>
       <c r="T169">
         <v>553903.0833333334</v>
@@ -17884,16 +17836,16 @@
         <v>0.201554851713226</v>
       </c>
       <c r="P170">
-        <v>4.439091534755677</v>
+        <v>4.568395405499478</v>
       </c>
       <c r="Q170">
-        <v>0.2390743207176138</v>
+        <v>0.3631782373543224</v>
       </c>
       <c r="R170">
-        <v>9.750867320457836</v>
+        <v>6.270724292220114</v>
       </c>
       <c r="S170">
-        <v>5.337237086532154</v>
+        <v>1.997047981783373</v>
       </c>
       <c r="T170">
         <v>556582.9166666666</v>
@@ -17987,16 +17939,16 @@
         <v>0.1730602826651273</v>
       </c>
       <c r="P171">
-        <v>4.474576271186429</v>
+        <v>4.576976421636616</v>
       </c>
       <c r="Q171">
-        <v>0.4466650045057641</v>
+        <v>0.5451172210716448</v>
       </c>
       <c r="R171">
-        <v>10.08743758644131</v>
+        <v>6.788172502541583</v>
       </c>
       <c r="S171">
-        <v>5.843128147717813</v>
+        <v>2.671062881012953</v>
       </c>
       <c r="T171">
         <v>559213.3333333334</v>
@@ -18090,16 +18042,16 @@
         <v>0.629235237173309</v>
       </c>
       <c r="P172">
-        <v>4.509018036072145</v>
+        <v>4.585492227979274</v>
       </c>
       <c r="Q172">
-        <v>1.170395001037905</v>
+        <v>1.244426164549162</v>
       </c>
       <c r="R172">
-        <v>5.670992478985401</v>
+        <v>6.863532496752481</v>
       </c>
       <c r="S172">
-        <v>2.295249253616061</v>
+        <v>3.449692639644231</v>
       </c>
       <c r="T172">
         <v>559991.5</v>
@@ -18193,16 +18145,16 @@
         <v>1.220703125</v>
       </c>
       <c r="P173">
-        <v>4.709418837675351</v>
+        <v>4.593943565037853</v>
       </c>
       <c r="Q173">
-        <v>2.255291833667328</v>
+        <v>2.142523012732278</v>
       </c>
       <c r="R173">
-        <v>6.567884132540105</v>
+        <v>6.985451685182653</v>
       </c>
       <c r="S173">
-        <v>4.07019934818369</v>
+        <v>4.477980161311179</v>
       </c>
       <c r="T173">
         <v>561393.4166666666</v>
@@ -18296,16 +18248,16 @@
         <v>1.109148017275241</v>
       </c>
       <c r="P174">
-        <v>4.709418837675351</v>
+        <v>4.602331162152897</v>
       </c>
       <c r="Q174">
-        <v>2.777207339689203</v>
+        <v>2.672095761830495</v>
       </c>
       <c r="R174">
-        <v>9.638429752066116</v>
+        <v>7.30047557994784</v>
       </c>
       <c r="S174">
-        <v>7.615262811215295</v>
+        <v>5.320451099281365</v>
       </c>
       <c r="T174">
         <v>564406.5</v>
@@ -18399,16 +18351,16 @@
         <v>0.4406149025751427</v>
       </c>
       <c r="P175">
-        <v>4.709418837675351</v>
+        <v>4.610655737704918</v>
       </c>
       <c r="Q175">
-        <v>2.525623066361837</v>
+        <v>2.428919747091851</v>
       </c>
       <c r="R175">
-        <v>16.31771745583631</v>
+        <v>8.312211409971482</v>
       </c>
       <c r="S175">
-        <v>13.89182165459344</v>
+        <v>6.053276618007919</v>
       </c>
       <c r="T175">
         <v>570412.75</v>
@@ -18502,16 +18454,16 @@
         <v>-0.1563874499071249</v>
       </c>
       <c r="P176">
-        <v>4.709418837675351</v>
+        <v>4.618917999319509</v>
       </c>
       <c r="Q176">
-        <v>2.345243708020095</v>
+        <v>2.256786237239283</v>
       </c>
       <c r="R176">
-        <v>16.25508391104157</v>
+        <v>9.261210456436954</v>
       </c>
       <c r="S176">
-        <v>13.63022569743093</v>
+        <v>6.794262981562871</v>
       </c>
       <c r="T176">
         <v>576672.8333333334</v>
@@ -18605,16 +18557,16 @@
         <v>-0.4880905896134213</v>
       </c>
       <c r="P177">
-        <v>4.709418837675351</v>
+        <v>4.627118644067785</v>
       </c>
       <c r="Q177">
-        <v>2.215363957121586</v>
+        <v>2.135024057075174</v>
       </c>
       <c r="R177">
-        <v>15.50678132689551</v>
+        <v>10.24031691484618</v>
       </c>
       <c r="S177">
-        <v>12.75554600438844</v>
+        <v>7.614522564277793</v>
       </c>
       <c r="T177">
         <v>582584.75</v>
@@ -18708,16 +18660,16 @@
         <v>-1.202249369788655</v>
       </c>
       <c r="P178">
-        <v>4.709418837675351</v>
+        <v>4.635258358662614</v>
       </c>
       <c r="Q178">
-        <v>1.521639361717408</v>
+        <v>1.449736628526854</v>
       </c>
       <c r="R178">
-        <v>9.822214438397012</v>
+        <v>10.47478002760878</v>
       </c>
       <c r="S178">
-        <v>6.478780723673649</v>
+        <v>7.111479569137846</v>
       </c>
       <c r="T178">
         <v>585902.5</v>
@@ -18811,16 +18763,16 @@
         <v>-1.943802925327176</v>
       </c>
       <c r="P179">
-        <v>4.709418837675351</v>
+        <v>4.643337819650079</v>
       </c>
       <c r="Q179">
-        <v>0.7596409138523441</v>
+        <v>0.696052559324567</v>
       </c>
       <c r="R179">
-        <v>6.115107108898708</v>
+        <v>10.34069826971572</v>
       </c>
       <c r="S179">
-        <v>2.112304762219708</v>
+        <v>6.178501029364636</v>
       </c>
       <c r="T179">
         <v>587260.1666666666</v>
@@ -18914,16 +18866,16 @@
         <v>-2.310420860895412</v>
       </c>
       <c r="P180">
-        <v>4.709418837675351</v>
+        <v>4.651357693597038</v>
       </c>
       <c r="Q180">
-        <v>0.3829151928629537</v>
+        <v>0.3272530856073708</v>
       </c>
       <c r="R180">
-        <v>1.471355298617752</v>
+        <v>9.710711560291227</v>
       </c>
       <c r="S180">
-        <v>-2.721354329769188</v>
+        <v>5.177558777002433</v>
       </c>
       <c r="T180">
         <v>586171.1666666666</v>
@@ -19017,16 +18969,16 @@
         <v>-2.506697282816683</v>
       </c>
       <c r="P181">
-        <v>4.709418837675351</v>
+        <v>4.659318637274549</v>
       </c>
       <c r="Q181">
-        <v>0.181227360959979</v>
+        <v>0.1332937593518713</v>
       </c>
       <c r="R181">
-        <v>-0.7167554146531646</v>
+        <v>8.699600754702278</v>
       </c>
       <c r="S181">
-        <v>-5.010290293391851</v>
+        <v>3.998852616439241</v>
       </c>
       <c r="T181">
         <v>583724.6666666666</v>
@@ -19120,16 +19072,16 @@
         <v>-2.543993879112483</v>
       </c>
       <c r="P182">
-        <v>5.107084019769355</v>
+        <v>4.809852708662724</v>
       </c>
       <c r="Q182">
-        <v>0.5232249615238604</v>
+        <v>0.2389563013224016</v>
       </c>
       <c r="R182">
-        <v>-1.105745896232873</v>
+        <v>7.706818523149153</v>
       </c>
       <c r="S182">
-        <v>-5.418655218279333</v>
+        <v>3.009581602093681</v>
       </c>
       <c r="T182">
         <v>581033.4166666666</v>
@@ -19223,16 +19175,16 @@
         <v>-3.136882129277585</v>
       </c>
       <c r="P183">
-        <v>5.288773523685934</v>
+        <v>4.857427055702921</v>
       </c>
       <c r="Q183">
-        <v>0.08438547878890645</v>
+        <v>-0.3256396808907769</v>
       </c>
       <c r="R183">
-        <v>0.5104105003598639</v>
+        <v>6.872809848086216</v>
       </c>
       <c r="S183">
-        <v>-4.457784695475409</v>
+        <v>1.590123429739743</v>
       </c>
       <c r="T183">
         <v>579050.3333333334</v>
@@ -19326,16 +19278,16 @@
         <v>-3.647502356267673</v>
       </c>
       <c r="P184">
-        <v>5.465004793863854</v>
+        <v>4.904632152588556</v>
       </c>
       <c r="Q184">
-        <v>-0.5984874704393461</v>
+        <v>-1.126642646005116</v>
       </c>
       <c r="R184">
-        <v>4.313230200984805</v>
+        <v>6.757283717837065</v>
       </c>
       <c r="S184">
-        <v>-1.684043165895566</v>
+        <v>0.6194945502705718</v>
       </c>
       <c r="T184">
         <v>578637.6666666666</v>
@@ -19429,16 +19381,16 @@
         <v>-3.8497564630948</v>
       </c>
       <c r="P185">
-        <v>5.263157894736842</v>
+        <v>4.951472281625264</v>
       </c>
       <c r="Q185">
-        <v>-1.40206266884898</v>
+        <v>-1.694012475060647</v>
       </c>
       <c r="R185">
-        <v>5.823270799385338</v>
+        <v>6.696035225728027</v>
       </c>
       <c r="S185">
-        <v>-0.8774158866754145</v>
+        <v>-0.05991455064815465</v>
       </c>
       <c r="T185">
         <v>578555.75</v>
@@ -19532,16 +19484,16 @@
         <v>-4.414214325374799</v>
       </c>
       <c r="P186">
-        <v>5.263157894736842</v>
+        <v>4.997951659156088</v>
       </c>
       <c r="Q186">
-        <v>-2.588230710034389</v>
+        <v>-2.833655692063586</v>
       </c>
       <c r="R186">
-        <v>3.128014609216908</v>
+        <v>6.17600477130024</v>
       </c>
       <c r="S186">
-        <v>-4.564117518770217</v>
+        <v>-1.74347143133422</v>
       </c>
       <c r="T186">
         <v>576888.25</v>
@@ -19635,16 +19587,16 @@
         <v>-4.236271342870312</v>
       </c>
       <c r="P187">
-        <v>5.263157894736842</v>
+        <v>5.044074436826641</v>
       </c>
       <c r="Q187">
-        <v>-2.848954411871851</v>
+        <v>-3.051154188438721</v>
       </c>
       <c r="R187">
-        <v>1.395254271748431</v>
+        <v>5.001026738330676</v>
       </c>
       <c r="S187">
-        <v>-6.418777783342467</v>
+        <v>-3.090884413169648</v>
       </c>
       <c r="T187">
         <v>573995.75</v>
@@ -19738,16 +19690,16 @@
         <v>-4.440774382970913</v>
       </c>
       <c r="P188">
-        <v>5.263157894736842</v>
+        <v>5.089844702821352</v>
       </c>
       <c r="Q188">
-        <v>-3.41943490711365</v>
+        <v>-3.578452424239531</v>
       </c>
       <c r="R188">
-        <v>0.9500142897391565</v>
+        <v>3.767922737989511</v>
       </c>
       <c r="S188">
-        <v>-7.376810450739379</v>
+        <v>-4.791336142775016</v>
       </c>
       <c r="T188">
         <v>570431.5</v>
@@ -19841,16 +19793,16 @@
         <v>-4.257840991976658</v>
       </c>
       <c r="P189">
-        <v>5.263157894736842</v>
+        <v>5.135266483071455</v>
       </c>
       <c r="Q189">
-        <v>-4.02702598948137</v>
+        <v>-4.143630121196706</v>
       </c>
       <c r="R189">
-        <v>0.6157590875258997</v>
+        <v>2.577586929335443</v>
       </c>
       <c r="S189">
-        <v>-8.264260496420594</v>
+        <v>-6.475577197907134</v>
       </c>
       <c r="T189">
         <v>566452.9166666666</v>
@@ -19944,16 +19896,16 @@
         <v>-4.371882086167799</v>
       </c>
       <c r="P190">
-        <v>5.263157894736842</v>
+        <v>5.180343742435245</v>
       </c>
       <c r="Q190">
-        <v>-4.523212793889497</v>
+        <v>-4.598327671260538</v>
       </c>
       <c r="R190">
-        <v>-0.694113630183618</v>
+        <v>1.716344500786974</v>
       </c>
       <c r="S190">
-        <v>-9.926633678171083</v>
+        <v>-7.740277096791869</v>
       </c>
       <c r="T190">
         <v>561679.4166666666</v>
@@ -20047,16 +19999,16 @@
         <v>-3.948676244691429</v>
       </c>
       <c r="P191">
-        <v>5.263157894736842</v>
+        <v>5.225080385852075</v>
       </c>
       <c r="Q191">
-        <v>-4.885553542299781</v>
+        <v>-4.919959893510373</v>
       </c>
       <c r="R191">
-        <v>-0.1986051257832463</v>
+        <v>1.205949702259198</v>
       </c>
       <c r="S191">
-        <v>-9.820732922908871</v>
+        <v>-8.551595100515764</v>
       </c>
       <c r="T191">
         <v>557072</v>
@@ -20150,16 +20102,16 @@
         <v>-2.790319667690078</v>
       </c>
       <c r="P192">
-        <v>5.263157894736842</v>
+        <v>5.269480259469864</v>
       </c>
       <c r="Q192">
-        <v>-4.945676454093517</v>
+        <v>-4.939967257115874</v>
       </c>
       <c r="R192">
-        <v>2.891901732742188</v>
+        <v>1.323894912737638</v>
       </c>
       <c r="S192">
-        <v>-7.086958883201921</v>
+        <v>-8.502894245315485</v>
       </c>
       <c r="T192">
         <v>553767.75</v>
@@ -20253,16 +20205,16 @@
         <v>-1.181173905142663</v>
       </c>
       <c r="P193">
-        <v>5.263157894736842</v>
+        <v>5.313547151747247</v>
       </c>
       <c r="Q193">
-        <v>-4.358388247558754</v>
+        <v>-4.312604804881648</v>
       </c>
       <c r="R193">
-        <v>5.229393066331571</v>
+        <v>1.835716317649926</v>
       </c>
       <c r="S193">
-        <v>-4.389066812346387</v>
+        <v>-7.472545595448022</v>
       </c>
       <c r="T193">
         <v>551440.25</v>
@@ -20356,16 +20308,16 @@
         <v>-1.114332306577293</v>
       </c>
       <c r="P194">
-        <v>6.959247648902823</v>
+        <v>5.692735212385868</v>
       </c>
       <c r="Q194">
-        <v>-3.099068989941278</v>
+        <v>-4.246480148228072</v>
       </c>
       <c r="R194">
-        <v>6.640281719090495</v>
+        <v>2.494524565295788</v>
       </c>
       <c r="S194">
-        <v>-3.388039754402528</v>
+        <v>-7.143934983424726</v>
       </c>
       <c r="T194">
         <v>549816.25</v>
@@ -20459,16 +20411,16 @@
         <v>-0.04523249502441651</v>
       </c>
       <c r="P195">
-        <v>8.597842835130971</v>
+        <v>6.118577075098814</v>
       </c>
       <c r="Q195">
-        <v>-1.756972285931813</v>
+        <v>-3.999839809029471</v>
       </c>
       <c r="R195">
-        <v>8.623593541785395</v>
+        <v>3.173637054967372</v>
       </c>
       <c r="S195">
-        <v>-1.733676911719384</v>
+        <v>-6.663979505186002</v>
       </c>
       <c r="T195">
         <v>549090.8333333334</v>
@@ -20562,16 +20514,16 @@
         <v>-0.1347708894878785</v>
       </c>
       <c r="P196">
-        <v>10.18181818181818</v>
+        <v>6.540731995277451</v>
       </c>
       <c r="Q196">
-        <v>-1.004655721636849</v>
+        <v>-4.276071882050814</v>
       </c>
       <c r="R196">
-        <v>12.16561830372572</v>
+        <v>3.800602092049542</v>
       </c>
       <c r="S196">
-        <v>0.7777343250006341</v>
+        <v>-6.738003511186408</v>
       </c>
       <c r="T196">
         <v>549659.5833333334</v>
@@ -20665,16 +20617,16 @@
         <v>-0.4280745563185473</v>
       </c>
       <c r="P197">
-        <v>10.18181818181818</v>
+        <v>6.959247648902823</v>
       </c>
       <c r="Q197">
-        <v>-1.737431390512634</v>
+        <v>-4.611390663602211</v>
       </c>
       <c r="R197">
-        <v>13.5268582759551</v>
+        <v>4.428320786903089</v>
       </c>
       <c r="S197">
-        <v>1.245748930665402</v>
+        <v>-6.86852690011317</v>
       </c>
       <c r="T197">
         <v>550542.5833333334</v>
@@ -20768,16 +20720,16 @@
         <v>0.6981115188400722</v>
       </c>
       <c r="P198">
-        <v>10.18181818181818</v>
+        <v>7.374170893484197</v>
       </c>
       <c r="Q198">
-        <v>-1.385645590424966</v>
+        <v>-3.898531376099346</v>
       </c>
       <c r="R198">
-        <v>17.16247288927949</v>
+        <v>5.559030669841314</v>
       </c>
       <c r="S198">
-        <v>4.862143461272272</v>
+        <v>-5.523108681785271</v>
       </c>
       <c r="T198">
         <v>552723.0833333334</v>
@@ -20871,16 +20823,16 @@
         <v>0.8937349182232657</v>
       </c>
       <c r="P199">
-        <v>10.18181818181818</v>
+        <v>7.785547785547786</v>
       </c>
       <c r="Q199">
-        <v>-1.526661737583179</v>
+        <v>-3.668292264234707</v>
       </c>
       <c r="R199">
-        <v>15.89418497785947</v>
+        <v>6.772825415462</v>
       </c>
       <c r="S199">
-        <v>3.578679933738016</v>
+        <v>-4.573397608846186</v>
       </c>
       <c r="T199">
         <v>554371.5</v>
@@ -20974,16 +20926,16 @@
         <v>2.798219314981365</v>
       </c>
       <c r="P200">
-        <v>10.18181818181818</v>
+        <v>8.193423597678917</v>
       </c>
       <c r="Q200">
-        <v>0.1015882454966643</v>
+        <v>-1.704893615264003</v>
       </c>
       <c r="R200">
-        <v>14.83933275507582</v>
+        <v>7.981443748886144</v>
       </c>
       <c r="S200">
-        <v>4.332999686631966</v>
+        <v>-1.897480013731134</v>
       </c>
       <c r="T200">
         <v>555927.25</v>
@@ -21077,16 +21029,16 @@
         <v>4.460590453416713</v>
       </c>
       <c r="P201">
-        <v>10.18181818181818</v>
+        <v>8.597842835130971</v>
       </c>
       <c r="Q201">
-        <v>1.335250788023723</v>
+        <v>-0.1215461830856523</v>
       </c>
       <c r="R201">
-        <v>14.50703859280126</v>
+        <v>9.195586884074453</v>
       </c>
       <c r="S201">
-        <v>5.313196535272025</v>
+        <v>0.428204620688355</v>
       </c>
       <c r="T201">
         <v>557783.4166666666</v>
@@ -21180,16 +21132,16 @@
         <v>6.046468228048885</v>
       </c>
       <c r="P202">
-        <v>10.18181818181818</v>
+        <v>8.998849252013809</v>
       </c>
       <c r="Q202">
-        <v>2.810318355713504</v>
+        <v>1.70649365681983</v>
       </c>
       <c r="R202">
-        <v>16.61087297567725</v>
+        <v>10.67594264605738</v>
       </c>
       <c r="S202">
-        <v>8.809249767357684</v>
+        <v>3.271384385609188</v>
       </c>
       <c r="T202">
         <v>561145.9166666666</v>
@@ -21283,16 +21235,16 @@
         <v>6.743683666760591</v>
       </c>
       <c r="P203">
-        <v>10.18181818181818</v>
+        <v>9.396485867074103</v>
       </c>
       <c r="Q203">
-        <v>3.486257332411169</v>
+        <v>2.748648320723324</v>
       </c>
       <c r="R203">
-        <v>18.53724179598873</v>
+        <v>12.23378236596568</v>
       </c>
       <c r="S203">
-        <v>11.33393612847631</v>
+        <v>5.413527158791864</v>
       </c>
       <c r="T203">
         <v>565709.5833333334</v>
@@ -21386,16 +21338,16 @@
         <v>7.318224740321067</v>
       </c>
       <c r="P204">
-        <v>10.18181818181818</v>
+        <v>9.790794979079498</v>
       </c>
       <c r="Q204">
-        <v>4.043265516353345</v>
+        <v>3.674027364569898</v>
       </c>
       <c r="R204">
-        <v>18.48511215840397</v>
+        <v>13.52286177076722</v>
       </c>
       <c r="S204">
-        <v>11.88395860094806</v>
+        <v>7.19816975520986</v>
       </c>
       <c r="T204">
         <v>570699</v>
@@ -21495,10 +21447,10 @@
         <v>4.151449269135243</v>
       </c>
       <c r="R205">
-        <v>17.75018462360354</v>
+        <v>14.59719883230076</v>
       </c>
       <c r="S205">
-        <v>11.30559090991921</v>
+        <v>8.325171407789744</v>
       </c>
       <c r="T205">
         <v>575837.25</v>
@@ -21592,16 +21544,16 @@
         <v>7.450127635435377</v>
       </c>
       <c r="P206">
-        <v>9.202813599062141</v>
+        <v>9.93088942307693</v>
       </c>
       <c r="Q206">
-        <v>3.245545616963352</v>
+        <v>3.933903207976686</v>
       </c>
       <c r="R206">
-        <v>17.7302649047</v>
+        <v>15.53075809116061</v>
       </c>
       <c r="S206">
-        <v>11.30780458041032</v>
+        <v>9.228285989562824</v>
       </c>
       <c r="T206">
         <v>581033.6666666666</v>
@@ -21695,16 +21647,16 @@
         <v>7.623106060606055</v>
       </c>
       <c r="P207">
-        <v>8.286038592508506</v>
+        <v>9.684147794994033</v>
       </c>
       <c r="Q207">
-        <v>2.543597151996702</v>
+        <v>3.86756419980494</v>
       </c>
       <c r="R207">
-        <v>15.5483261949899</v>
+        <v>16.09338357745512</v>
       </c>
       <c r="S207">
-        <v>9.420763442225265</v>
+        <v>9.936916266529483</v>
       </c>
       <c r="T207">
         <v>585330</v>
@@ -21798,16 +21750,16 @@
         <v>8.600095556617294</v>
       </c>
       <c r="P208">
-        <v>7.425742574257425</v>
+        <v>9.441489361702128</v>
       </c>
       <c r="Q208">
-        <v>2.652405708798322</v>
+        <v>4.578585152128167</v>
       </c>
       <c r="R208">
-        <v>14.08882448010783</v>
+        <v>16.22178852928594</v>
       </c>
       <c r="S208">
-        <v>9.019421385673976</v>
+        <v>11.057609679203</v>
       </c>
       <c r="T208">
         <v>589057.5833333334</v>
@@ -21901,16 +21853,16 @@
         <v>9.090036475331154</v>
       </c>
       <c r="P209">
-        <v>7.425742574257425</v>
+        <v>9.202813599062141</v>
       </c>
       <c r="Q209">
-        <v>3.115514085484183</v>
+        <v>4.821283930756515</v>
       </c>
       <c r="R209">
-        <v>11.11289297300222</v>
+        <v>15.98295747788488</v>
       </c>
       <c r="S209">
-        <v>6.65472544922463</v>
+        <v>11.32938901697529</v>
       </c>
       <c r="T209">
         <v>591801.9166666666</v>
@@ -22004,16 +21956,16 @@
         <v>9.341928035405033</v>
       </c>
       <c r="P210">
-        <v>7.920792079207921</v>
+        <v>9.098837209302319</v>
       </c>
       <c r="Q210">
-        <v>3.82989424591873</v>
+        <v>4.963283826536746</v>
       </c>
       <c r="R210">
-        <v>8.344674822636437</v>
+        <v>15.20771647987137</v>
       </c>
       <c r="S210">
-        <v>4.23770908469927</v>
+        <v>10.84059695966071</v>
       </c>
       <c r="T210">
         <v>593643.6666666666</v>
@@ -22107,16 +22059,16 @@
         <v>10.1686700271423</v>
       </c>
       <c r="P211">
-        <v>8.415841584158416</v>
+        <v>8.996539792387544</v>
       </c>
       <c r="Q211">
-        <v>5.094844498020956</v>
+        <v>5.657754742523791</v>
       </c>
       <c r="R211">
-        <v>8.736336520352165</v>
+        <v>14.56330649258489</v>
       </c>
       <c r="S211">
-        <v>5.405522024381693</v>
+        <v>11.05400008974882</v>
       </c>
       <c r="T211">
         <v>595947.25</v>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -579,6 +579,18 @@
       <c r="O2">
         <v>11.30558183538315</v>
       </c>
+      <c r="P2">
+        <v>13.72549019607843</v>
+      </c>
+      <c r="Q2">
+        <v>7.592705956554813</v>
+      </c>
+      <c r="R2">
+        <v>10.41288840053356</v>
+      </c>
+      <c r="S2">
+        <v>4.458740208641032</v>
+      </c>
       <c r="T2">
         <v>315683.5</v>
       </c>
@@ -670,6 +682,18 @@
       <c r="O3">
         <v>11.15534072599755</v>
       </c>
+      <c r="P3">
+        <v>14.28571428571427</v>
+      </c>
+      <c r="Q3">
+        <v>8.317424211652247</v>
+      </c>
+      <c r="R3">
+        <v>10.20218840124054</v>
+      </c>
+      <c r="S3">
+        <v>4.447150413458956</v>
+      </c>
       <c r="T3">
         <v>316643</v>
       </c>
@@ -761,6 +785,18 @@
       <c r="O4">
         <v>10.84314470186101</v>
       </c>
+      <c r="P4">
+        <v>14.83870967741937</v>
+      </c>
+      <c r="Q4">
+        <v>9.037893730933689</v>
+      </c>
+      <c r="R4">
+        <v>10.13115331954663</v>
+      </c>
+      <c r="S4">
+        <v>4.568128863982768</v>
+      </c>
       <c r="T4">
         <v>317794.5</v>
       </c>
@@ -851,6 +887,18 @@
       </c>
       <c r="O5">
         <v>11.04845646564083</v>
+      </c>
+      <c r="P5">
+        <v>16.98717948717949</v>
+      </c>
+      <c r="Q5">
+        <v>11.81035982718102</v>
+      </c>
+      <c r="R5">
+        <v>9.970176870166714</v>
+      </c>
+      <c r="S5">
+        <v>5.1038677914238</v>
       </c>
       <c r="T5">
         <v>318674.0833333333</v>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -601,13 +601,13 @@
         <v>2.488663671048053</v>
       </c>
       <c r="W2">
-        <v>100.68</v>
+        <v>101.7533333333333</v>
       </c>
       <c r="X2">
-        <v>98.40322355453281</v>
+        <v>99.64569999916922</v>
       </c>
       <c r="Y2">
-        <v>2.313721403857727</v>
+        <v>2.115127229957414</v>
       </c>
       <c r="Z2">
         <v>2190643.1</v>
@@ -628,7 +628,7 @@
         <v>-3.74</v>
       </c>
       <c r="AF2">
-        <v>2.147821684794038</v>
+        <v>2.670015544314208</v>
       </c>
       <c r="AG2">
         <v>2.754730049206433</v>
@@ -704,13 +704,13 @@
         <v>2.064065275829319</v>
       </c>
       <c r="W3">
-        <v>95.44</v>
+        <v>99.85666666666667</v>
       </c>
       <c r="X3">
-        <v>98.02804771303843</v>
+        <v>99.25896927362213</v>
       </c>
       <c r="Y3">
-        <v>-2.640109410945868</v>
+        <v>0.6021595805583146</v>
       </c>
       <c r="Z3">
         <v>2207671.2</v>
@@ -731,7 +731,7 @@
         <v>-3.42</v>
       </c>
       <c r="AF3">
-        <v>2.313721403857727</v>
+        <v>2.115127229957414</v>
       </c>
       <c r="AG3">
         <v>2.488663671048053</v>
@@ -807,13 +807,13 @@
         <v>1.706890481217394</v>
       </c>
       <c r="W4">
-        <v>95.29000000000001</v>
+        <v>98.39999999999999</v>
       </c>
       <c r="X4">
-        <v>97.65292217976096</v>
+        <v>98.87229602799276</v>
       </c>
       <c r="Y4">
-        <v>-2.419714768403203</v>
+        <v>-0.4776828767676711</v>
       </c>
       <c r="Z4">
         <v>2225144.6</v>
@@ -834,7 +834,7 @@
         <v>-3.38</v>
       </c>
       <c r="AF4">
-        <v>-2.640109410945868</v>
+        <v>0.6021595805583146</v>
       </c>
       <c r="AG4">
         <v>2.064065275829319</v>
@@ -910,13 +910,13 @@
         <v>1.268232544389436</v>
       </c>
       <c r="W5">
-        <v>95.14</v>
+        <v>97.44333333333333</v>
       </c>
       <c r="X5">
-        <v>97.27786092316465</v>
+        <v>98.48572174540399</v>
       </c>
       <c r="Y5">
-        <v>-2.197684964365376</v>
+        <v>-1.058415771948495</v>
       </c>
       <c r="Z5">
         <v>2235812.9</v>
@@ -937,7 +937,7 @@
         <v>-3.29</v>
       </c>
       <c r="AF5">
-        <v>-2.419714768403203</v>
+        <v>-0.4776828767676711</v>
       </c>
       <c r="AG5">
         <v>1.706890481217394</v>
@@ -1013,13 +1013,13 @@
         <v>0.9284721689441833</v>
       </c>
       <c r="W6">
-        <v>99.31</v>
+        <v>97.79333333333334</v>
       </c>
       <c r="X6">
-        <v>96.90285967928952</v>
+        <v>98.09928426471924</v>
       </c>
       <c r="Y6">
-        <v>2.484075628600824</v>
+        <v>-0.3118788619907775</v>
       </c>
       <c r="Z6">
         <v>2256419.1</v>
@@ -1040,7 +1040,7 @@
         <v>-3.31</v>
       </c>
       <c r="AF6">
-        <v>-2.197684964365376</v>
+        <v>-1.058415771948495</v>
       </c>
       <c r="AG6">
         <v>1.268232544389436</v>
@@ -1116,13 +1116,13 @@
         <v>0.6076253571267731</v>
       </c>
       <c r="W7">
-        <v>102.35</v>
+        <v>98.03500000000001</v>
       </c>
       <c r="X7">
-        <v>96.52789768833513</v>
+        <v>97.71301338168146</v>
       </c>
       <c r="Y7">
-        <v>6.031522959779978</v>
+        <v>0.3295227597380768</v>
       </c>
       <c r="Z7">
         <v>2271564</v>
@@ -1143,7 +1143,7 @@
         <v>-3.29</v>
       </c>
       <c r="AF7">
-        <v>2.484075628600824</v>
+        <v>-0.3118788619907775</v>
       </c>
       <c r="AG7">
         <v>0.9284721689441833</v>
@@ -1219,13 +1219,13 @@
         <v>0.3098860228337941</v>
       </c>
       <c r="W8">
-        <v>100.12</v>
+        <v>97.94166666666666</v>
       </c>
       <c r="X8">
-        <v>96.15297276411464</v>
+        <v>97.32693653130109</v>
       </c>
       <c r="Y8">
-        <v>4.125745800514569</v>
+        <v>0.6316135668853251</v>
       </c>
       <c r="Z8">
         <v>2293390.2</v>
@@ -1246,7 +1246,7 @@
         <v>-3.32</v>
       </c>
       <c r="AF8">
-        <v>6.031522959779978</v>
+        <v>0.3295227597380768</v>
       </c>
       <c r="AG8">
         <v>0.6076253571267731</v>
@@ -1322,13 +1322,13 @@
         <v>0.0006725871824597718</v>
       </c>
       <c r="W9">
-        <v>99.2</v>
+        <v>98.56833333333333</v>
       </c>
       <c r="X9">
-        <v>95.77812764407012</v>
+        <v>96.94108363305325</v>
       </c>
       <c r="Y9">
-        <v>3.572707506505246</v>
+        <v>1.678596565352652</v>
       </c>
       <c r="Z9">
         <v>2315471.6</v>
@@ -1349,7 +1349,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF9">
-        <v>4.125745800514569</v>
+        <v>0.6316135668853251</v>
       </c>
       <c r="AG9">
         <v>0.3098860228337941</v>
@@ -1425,13 +1425,13 @@
         <v>-0.1461936464353109</v>
       </c>
       <c r="W10">
-        <v>99.14</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="X10">
-        <v>95.40343567542544</v>
+        <v>96.55548934970187</v>
       </c>
       <c r="Y10">
-        <v>3.916593043134031</v>
+        <v>2.749207391704145</v>
       </c>
       <c r="Z10">
         <v>2336552.6</v>
@@ -1452,7 +1452,7 @@
         <v>-3.35</v>
       </c>
       <c r="AF10">
-        <v>3.572707506505246</v>
+        <v>1.678596565352652</v>
       </c>
       <c r="AG10">
         <v>0.0006725871824597718</v>
@@ -1528,13 +1528,13 @@
         <v>-0.2290651767292373</v>
       </c>
       <c r="W11">
-        <v>97.72</v>
+        <v>99.63999999999999</v>
       </c>
       <c r="X11">
-        <v>95.02899660873308</v>
+        <v>96.17020089994844</v>
       </c>
       <c r="Y11">
-        <v>2.831770814488022</v>
+        <v>3.607977385491146</v>
       </c>
       <c r="Z11">
         <v>2362641.2</v>
@@ -1555,7 +1555,7 @@
         <v>-3.22</v>
       </c>
       <c r="AF11">
-        <v>3.916593043134031</v>
+        <v>2.749207391704145</v>
       </c>
       <c r="AG11">
         <v>-0.1461936464353109</v>
@@ -1631,13 +1631,13 @@
         <v>-0.2903757443100896</v>
       </c>
       <c r="W12">
-        <v>98.62</v>
+        <v>99.52499999999999</v>
       </c>
       <c r="X12">
-        <v>94.6549390260642</v>
+        <v>95.78528598483047</v>
       </c>
       <c r="Y12">
-        <v>4.188963634368825</v>
+        <v>3.904267734568112</v>
       </c>
       <c r="Z12">
         <v>2387208</v>
@@ -1658,7 +1658,7 @@
         <v>-3.28</v>
       </c>
       <c r="AF12">
-        <v>2.831770814488022</v>
+        <v>3.607977385491146</v>
       </c>
       <c r="AG12">
         <v>-0.2290651767292373</v>
@@ -1734,13 +1734,13 @@
         <v>-0.4493634123859391</v>
       </c>
       <c r="W13">
-        <v>99.29000000000001</v>
+        <v>99.015</v>
       </c>
       <c r="X13">
-        <v>94.28141227340488</v>
+        <v>95.40083907852664</v>
       </c>
       <c r="Y13">
-        <v>5.312380888049084</v>
+        <v>3.788395318513338</v>
       </c>
       <c r="Z13">
         <v>2409449.9</v>
@@ -1761,7 +1761,7 @@
         <v>-3.28</v>
       </c>
       <c r="AF13">
-        <v>4.188963634368825</v>
+        <v>3.904267734568112</v>
       </c>
       <c r="AG13">
         <v>-0.2903757443100896</v>
@@ -1837,13 +1837,13 @@
         <v>-0.600338016001023</v>
       </c>
       <c r="W14">
-        <v>97.84999999999999</v>
+        <v>98.63666666666666</v>
       </c>
       <c r="X14">
-        <v>93.90859629134755</v>
+        <v>95.01698351103369</v>
       </c>
       <c r="Y14">
-        <v>4.197063809179302</v>
+        <v>3.809511754509276</v>
       </c>
       <c r="Z14">
         <v>2434411.5</v>
@@ -1864,7 +1864,7 @@
         <v>-3.15</v>
       </c>
       <c r="AF14">
-        <v>5.312380888049084</v>
+        <v>3.788395318513338</v>
       </c>
       <c r="AG14">
         <v>-0.4493634123859391</v>
@@ -1940,13 +1940,13 @@
         <v>-0.6510445269605758</v>
       </c>
       <c r="W15">
-        <v>95.84999999999999</v>
+        <v>98.07833333333333</v>
       </c>
       <c r="X15">
-        <v>93.53670966699494</v>
+        <v>94.63387049939256</v>
       </c>
       <c r="Y15">
-        <v>2.473136313262159</v>
+        <v>3.639778036937513</v>
       </c>
       <c r="Z15">
         <v>2458966.9</v>
@@ -1967,7 +1967,7 @@
         <v>-3.49</v>
       </c>
       <c r="AF15">
-        <v>4.197063809179302</v>
+        <v>3.809511754509276</v>
       </c>
       <c r="AG15">
         <v>-0.600338016001023</v>
@@ -2043,13 +2043,13 @@
         <v>-0.5971041102010188</v>
       </c>
       <c r="W16">
-        <v>96.14</v>
+        <v>97.57833333333333</v>
       </c>
       <c r="X16">
-        <v>93.16600139951525</v>
+        <v>94.25167919029806</v>
       </c>
       <c r="Y16">
-        <v>3.192150093177903</v>
+        <v>3.529543634250398</v>
       </c>
       <c r="Z16">
         <v>2486602.5</v>
@@ -2070,7 +2070,7 @@
         <v>-3.5</v>
       </c>
       <c r="AF16">
-        <v>2.473136313262159</v>
+        <v>3.639778036937513</v>
       </c>
       <c r="AG16">
         <v>-0.6510445269605758</v>
@@ -2146,13 +2146,13 @@
         <v>-0.4671754184618071</v>
       </c>
       <c r="W17">
-        <v>94.59</v>
+        <v>97.05666666666666</v>
       </c>
       <c r="X17">
-        <v>92.79673833753928</v>
+        <v>93.87061530809034</v>
       </c>
       <c r="Y17">
-        <v>1.932461953498743</v>
+        <v>3.394088073375756</v>
       </c>
       <c r="Z17">
         <v>2516940.7</v>
@@ -2173,7 +2173,7 @@
         <v>-3.41</v>
       </c>
       <c r="AF17">
-        <v>3.192150093177903</v>
+        <v>3.529543634250398</v>
       </c>
       <c r="AG17">
         <v>-0.5971041102010188</v>
@@ -2249,13 +2249,13 @@
         <v>-0.358071393027648</v>
       </c>
       <c r="W18">
-        <v>92.5</v>
+        <v>96.03666666666668</v>
       </c>
       <c r="X18">
-        <v>92.42921027721772</v>
+        <v>93.49091024573717</v>
       </c>
       <c r="Y18">
-        <v>0.07658804242725026</v>
+        <v>2.722998860785597</v>
       </c>
       <c r="Z18">
         <v>2545742</v>
@@ -2276,7 +2276,7 @@
         <v>-3.41</v>
       </c>
       <c r="AF18">
-        <v>1.932461953498743</v>
+        <v>3.394088073375756</v>
       </c>
       <c r="AG18">
         <v>-0.4671754184618071</v>
@@ -2352,13 +2352,13 @@
         <v>-0.3347457828176359</v>
       </c>
       <c r="W19">
-        <v>90.12</v>
+        <v>94.50833333333333</v>
       </c>
       <c r="X19">
-        <v>92.06372085159722</v>
+        <v>93.11281997993611</v>
       </c>
       <c r="Y19">
-        <v>-2.111277747214257</v>
+        <v>1.498733851791756</v>
       </c>
       <c r="Z19">
         <v>2575280.3</v>
@@ -2379,7 +2379,7 @@
         <v>-3.45</v>
       </c>
       <c r="AF19">
-        <v>0.07658804242725026</v>
+        <v>2.722998860785597</v>
       </c>
       <c r="AG19">
         <v>-0.358071393027648</v>
@@ -2455,13 +2455,13 @@
         <v>-0.3814455535826711</v>
       </c>
       <c r="W20">
-        <v>88.84</v>
+        <v>93.00666666666666</v>
       </c>
       <c r="X20">
-        <v>91.70057423994103</v>
+        <v>92.73662013056673</v>
       </c>
       <c r="Y20">
-        <v>-3.119472548182889</v>
+        <v>0.2911973023383085</v>
       </c>
       <c r="Z20">
         <v>2602697.5</v>
@@ -2482,7 +2482,7 @@
         <v>-3.39</v>
       </c>
       <c r="AF20">
-        <v>-2.111277747214257</v>
+        <v>1.498733851791756</v>
       </c>
       <c r="AG20">
         <v>-0.3347457828176359</v>
@@ -2558,13 +2558,13 @@
         <v>-0.4033099555544539</v>
       </c>
       <c r="W21">
-        <v>92.25</v>
+        <v>92.40666666666665</v>
       </c>
       <c r="X21">
-        <v>91.34005962366652</v>
+        <v>92.3625970853589</v>
       </c>
       <c r="Y21">
-        <v>0.9962117170522644</v>
+        <v>0.04771366624416462</v>
       </c>
       <c r="Z21">
         <v>2627804.4</v>
@@ -2585,7 +2585,7 @@
         <v>-3.4</v>
       </c>
       <c r="AF21">
-        <v>-3.119472548182889</v>
+        <v>0.2911973023383085</v>
       </c>
       <c r="AG21">
         <v>-0.3814455535826711</v>
@@ -2661,13 +2661,13 @@
         <v>-0.4641980193290207</v>
       </c>
       <c r="W22">
-        <v>89.92</v>
+        <v>91.37</v>
       </c>
       <c r="X22">
-        <v>90.98244411185863</v>
+        <v>91.99103931573451</v>
       </c>
       <c r="Y22">
-        <v>-1.167746285813553</v>
+        <v>-0.6751084892116066</v>
       </c>
       <c r="Z22">
         <v>2649278.5</v>
@@ -2688,7 +2688,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF22">
-        <v>0.9962117170522644</v>
+        <v>0.04771366624416462</v>
       </c>
       <c r="AG22">
         <v>-0.4033099555544539</v>
@@ -2764,13 +2764,13 @@
         <v>-0.537891491465281</v>
       </c>
       <c r="W23">
-        <v>86.17</v>
+        <v>89.96666666666665</v>
       </c>
       <c r="X23">
-        <v>90.62800183474778</v>
+        <v>91.62223563315858</v>
       </c>
       <c r="Y23">
-        <v>-4.919011502511717</v>
+        <v>-1.806951069302187</v>
       </c>
       <c r="Z23">
         <v>2675926.6</v>
@@ -2791,7 +2791,7 @@
         <v>-3.21</v>
       </c>
       <c r="AF23">
-        <v>-1.167746285813553</v>
+        <v>-0.6751084892116066</v>
       </c>
       <c r="AG23">
         <v>-0.4641980193290207</v>
@@ -2867,13 +2867,13 @@
         <v>-0.6799013002861565</v>
       </c>
       <c r="W24">
-        <v>86.19</v>
+        <v>88.91500000000001</v>
       </c>
       <c r="X24">
-        <v>90.27699872469213</v>
+        <v>91.25647005712652</v>
       </c>
       <c r="Y24">
-        <v>-4.527176116206311</v>
+        <v>-2.56581265488437</v>
       </c>
       <c r="Z24">
         <v>2698213</v>
@@ -2894,7 +2894,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF24">
-        <v>-4.919011502511717</v>
+        <v>-1.806951069302187</v>
       </c>
       <c r="AG24">
         <v>-0.537891491465281</v>
@@ -2970,13 +2970,13 @@
         <v>-0.5958091741192439</v>
       </c>
       <c r="W25">
-        <v>86.66</v>
+        <v>88.33833333333332</v>
       </c>
       <c r="X25">
-        <v>89.92966631588848</v>
+        <v>90.8940138326811</v>
       </c>
       <c r="Y25">
-        <v>-3.635803900798873</v>
+        <v>-2.811714866121218</v>
       </c>
       <c r="Z25">
         <v>2720262.9</v>
@@ -2997,7 +2997,7 @@
         <v>-3.34</v>
       </c>
       <c r="AF25">
-        <v>-4.527176116206311</v>
+        <v>-2.56581265488437</v>
       </c>
       <c r="AG25">
         <v>-0.6799013002861565</v>
@@ -3073,13 +3073,13 @@
         <v>-0.5883659095117455</v>
       </c>
       <c r="W26">
-        <v>86.19</v>
+        <v>87.89666666666666</v>
       </c>
       <c r="X26">
-        <v>89.58620460704935</v>
+        <v>90.5351201379668</v>
       </c>
       <c r="Y26">
-        <v>-3.790990612836065</v>
+        <v>-2.914287259219839</v>
       </c>
       <c r="Z26">
         <v>2746426</v>
@@ -3100,7 +3100,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF26">
-        <v>-3.635803900798873</v>
+        <v>-2.811714866121218</v>
       </c>
       <c r="AG26">
         <v>-0.5958091741192439</v>
@@ -3176,13 +3176,13 @@
         <v>-0.5744409399234596</v>
       </c>
       <c r="W27">
-        <v>85.36</v>
+        <v>86.74833333333333</v>
       </c>
       <c r="X27">
-        <v>89.24678836798076</v>
+        <v>90.18002243137191</v>
       </c>
       <c r="Y27">
-        <v>-4.355101667025618</v>
+        <v>-3.805376185895426</v>
       </c>
       <c r="Z27">
         <v>2776859.2</v>
@@ -3203,7 +3203,7 @@
         <v>-3.39</v>
       </c>
       <c r="AF27">
-        <v>-3.790990612836065</v>
+        <v>-2.914287259219839</v>
       </c>
       <c r="AG27">
         <v>-0.5883659095117455</v>
@@ -3279,13 +3279,13 @@
         <v>-0.7832764612859644</v>
       </c>
       <c r="W28">
-        <v>86.31999999999999</v>
+        <v>86.14833333333333</v>
       </c>
       <c r="X28">
-        <v>88.9115661632059</v>
+        <v>89.82893381284642</v>
       </c>
       <c r="Y28">
-        <v>-2.914768319848104</v>
+        <v>-4.097344055292274</v>
       </c>
       <c r="Z28">
         <v>2800895.2</v>
@@ -3306,7 +3306,7 @@
         <v>-3.43</v>
       </c>
       <c r="AF28">
-        <v>-4.355101667025618</v>
+        <v>-3.805376185895426</v>
       </c>
       <c r="AG28">
         <v>-0.5744409399234596</v>
@@ -3382,13 +3382,13 @@
         <v>-0.9263097359760608</v>
       </c>
       <c r="W29">
-        <v>85.97</v>
+        <v>86.11499999999999</v>
       </c>
       <c r="X29">
-        <v>88.58065656659738</v>
+        <v>89.48204090325858</v>
       </c>
       <c r="Y29">
-        <v>-2.947208417488556</v>
+        <v>-3.762811922113829</v>
       </c>
       <c r="Z29">
         <v>2835166.3</v>
@@ -3409,7 +3409,7 @@
         <v>-3.63</v>
       </c>
       <c r="AF29">
-        <v>-2.914768319848104</v>
+        <v>-4.097344055292274</v>
       </c>
       <c r="AG29">
         <v>-0.7832764612859644</v>
@@ -3485,13 +3485,13 @@
         <v>-1.030507039462958</v>
       </c>
       <c r="W30">
-        <v>84.12</v>
+        <v>85.77</v>
       </c>
       <c r="X30">
-        <v>88.25415815537492</v>
+        <v>89.13950192378066</v>
       </c>
       <c r="Y30">
-        <v>-4.68437775826559</v>
+        <v>-3.780032254007626</v>
       </c>
       <c r="Z30">
         <v>2863373.4</v>
@@ -3512,7 +3512,7 @@
         <v>-3.61</v>
       </c>
       <c r="AF30">
-        <v>-2.947208417488556</v>
+        <v>-3.762811922113829</v>
       </c>
       <c r="AG30">
         <v>-0.9263097359760608</v>
@@ -3588,13 +3588,13 @@
         <v>-1.064585823839459</v>
       </c>
       <c r="W31">
-        <v>82.11</v>
+        <v>85.01166666666666</v>
       </c>
       <c r="X31">
-        <v>87.9321493628032</v>
+        <v>88.80144911533176</v>
       </c>
       <c r="Y31">
-        <v>-6.621183952619347</v>
+        <v>-4.267703383694887</v>
       </c>
       <c r="Z31">
         <v>2899765.6</v>
@@ -3615,7 +3615,7 @@
         <v>-3.6</v>
       </c>
       <c r="AF31">
-        <v>-4.68437775826559</v>
+        <v>-3.780032254007626</v>
       </c>
       <c r="AG31">
         <v>-1.030507039462958</v>
@@ -3691,13 +3691,13 @@
         <v>-1.007590901576816</v>
       </c>
       <c r="W32">
-        <v>81.06</v>
+        <v>84.15666666666665</v>
       </c>
       <c r="X32">
-        <v>87.61467672277857</v>
+        <v>88.46798871958778</v>
       </c>
       <c r="Y32">
-        <v>-7.481254246384095</v>
+        <v>-4.873313065346718</v>
       </c>
       <c r="Z32">
         <v>2940137</v>
@@ -3718,7 +3718,7 @@
         <v>-3.62</v>
       </c>
       <c r="AF32">
-        <v>-6.621183952619347</v>
+        <v>-4.267703383694887</v>
       </c>
       <c r="AG32">
         <v>-1.064585823839459</v>
@@ -3794,13 +3794,13 @@
         <v>-0.8944092198528986</v>
       </c>
       <c r="W33">
-        <v>80.55</v>
+        <v>83.355</v>
       </c>
       <c r="X33">
-        <v>87.30174184520531</v>
+        <v>88.13919773607525</v>
       </c>
       <c r="Y33">
-        <v>-7.733799695745846</v>
+        <v>-5.42800236326303</v>
       </c>
       <c r="Z33">
         <v>2974782.1</v>
@@ -3821,7 +3821,7 @@
         <v>-3.72</v>
       </c>
       <c r="AF33">
-        <v>-7.481254246384095</v>
+        <v>-4.873313065346718</v>
       </c>
       <c r="AG33">
         <v>-1.007590901576816</v>
@@ -3897,13 +3897,13 @@
         <v>-0.7834789316541468</v>
       </c>
       <c r="W34">
-        <v>87.61</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="X34">
-        <v>86.99329576377886</v>
+        <v>87.81511989794814</v>
       </c>
       <c r="Y34">
-        <v>0.7089100726747288</v>
+        <v>-4.834156011950441</v>
       </c>
       <c r="Z34">
         <v>3020522.3</v>
@@ -3924,7 +3924,7 @@
         <v>-3.77</v>
       </c>
       <c r="AF34">
-        <v>-7.733799695745846</v>
+        <v>-5.42800236326303</v>
       </c>
       <c r="AG34">
         <v>-0.8944092198528986</v>
@@ -4000,13 +4000,13 @@
         <v>-0.7452884045566988</v>
       </c>
       <c r="W35">
-        <v>100.24</v>
+        <v>85.94833333333332</v>
       </c>
       <c r="X35">
-        <v>86.68923741542052</v>
+        <v>87.49576202325281</v>
       </c>
       <c r="Y35">
-        <v>15.63142437122076</v>
+        <v>-1.768575590562027</v>
       </c>
       <c r="Z35">
         <v>3059757.6</v>
@@ -4027,7 +4027,7 @@
         <v>-3.85</v>
       </c>
       <c r="AF35">
-        <v>0.7089100726747288</v>
+        <v>-4.834156011950441</v>
       </c>
       <c r="AG35">
         <v>-0.7834789316541468</v>
@@ -4103,13 +4103,13 @@
         <v>-0.7289673709605315</v>
       </c>
       <c r="W36">
-        <v>100.66</v>
+        <v>88.705</v>
       </c>
       <c r="X36">
-        <v>86.38947049557201</v>
+        <v>87.18109817448217</v>
       </c>
       <c r="Y36">
-        <v>16.51882969367133</v>
+        <v>1.747972734259351</v>
       </c>
       <c r="Z36">
         <v>3088601.5</v>
@@ -4130,7 +4130,7 @@
         <v>-3.98</v>
       </c>
       <c r="AF36">
-        <v>15.63142437122076</v>
+        <v>-1.768575590562027</v>
       </c>
       <c r="AG36">
         <v>-0.7452884045566988</v>
@@ -4206,13 +4206,13 @@
         <v>-0.7589295264861406</v>
       </c>
       <c r="W37">
-        <v>107.19</v>
+        <v>92.88499999999999</v>
       </c>
       <c r="X37">
-        <v>86.09400325802865</v>
+        <v>86.87109047409251</v>
       </c>
       <c r="Y37">
-        <v>24.50344500620496</v>
+        <v>6.922797323122132</v>
       </c>
       <c r="Z37">
         <v>3109803.1</v>
@@ -4233,7 +4233,7 @@
         <v>-3.69</v>
       </c>
       <c r="AF37">
-        <v>16.51882969367133</v>
+        <v>1.747972734259351</v>
       </c>
       <c r="AG37">
         <v>-0.7289673709605315</v>
@@ -4309,13 +4309,13 @@
         <v>-0.7490907523236778</v>
       </c>
       <c r="W38">
-        <v>101.33</v>
+        <v>96.26333333333332</v>
       </c>
       <c r="X38">
-        <v>85.80295406869641</v>
+        <v>86.56571280304208</v>
       </c>
       <c r="Y38">
-        <v>18.09616708402857</v>
+        <v>11.20261153784488</v>
       </c>
       <c r="Z38">
         <v>3121758.8</v>
@@ -4336,7 +4336,7 @@
         <v>-3.33</v>
       </c>
       <c r="AF38">
-        <v>24.50344500620496</v>
+        <v>6.922797323122132</v>
       </c>
       <c r="AG38">
         <v>-0.7589295264861406</v>
@@ -4412,13 +4412,13 @@
         <v>-0.7887036510622059</v>
       </c>
       <c r="W39">
-        <v>99.54000000000001</v>
+        <v>99.42833333333333</v>
       </c>
       <c r="X39">
-        <v>85.51660407123262</v>
+        <v>86.26498544591188</v>
       </c>
       <c r="Y39">
-        <v>16.39844809212296</v>
+        <v>15.25920142382087</v>
       </c>
       <c r="Z39">
         <v>3132276.3</v>
@@ -4439,7 +4439,7 @@
         <v>-2.89</v>
       </c>
       <c r="AF39">
-        <v>18.09616708402857</v>
+        <v>11.20261153784488</v>
       </c>
       <c r="AG39">
         <v>-0.7490907523236778</v>
@@ -4515,13 +4515,13 @@
         <v>-0.7248045042518303</v>
       </c>
       <c r="W40">
-        <v>97.40000000000001</v>
+        <v>101.06</v>
       </c>
       <c r="X40">
-        <v>85.23535421674953</v>
+        <v>85.96900351460152</v>
       </c>
       <c r="Y40">
-        <v>14.2718310905547</v>
+        <v>17.55399721811981</v>
       </c>
       <c r="Z40">
         <v>3153874.9</v>
@@ -4542,7 +4542,7 @@
         <v>-2.74</v>
       </c>
       <c r="AF40">
-        <v>16.39844809212296</v>
+        <v>15.25920142382087</v>
       </c>
       <c r="AG40">
         <v>-0.7887036510622059</v>
@@ -4618,13 +4618,13 @@
         <v>-0.711331260834458</v>
       </c>
       <c r="W41">
-        <v>95.38</v>
+        <v>100.25</v>
       </c>
       <c r="X41">
-        <v>84.95971366157384</v>
+        <v>85.6779636900535</v>
       </c>
       <c r="Y41">
-        <v>12.26497346722946</v>
+        <v>17.00791625097666</v>
       </c>
       <c r="Z41">
         <v>3164110.3</v>
@@ -4645,7 +4645,7 @@
         <v>-2.56</v>
       </c>
       <c r="AF41">
-        <v>14.2718310905547</v>
+        <v>17.55399721811981</v>
       </c>
       <c r="AG41">
         <v>-0.7248045042518303</v>
@@ -4721,13 +4721,13 @@
         <v>-0.7556761464047712</v>
       </c>
       <c r="W42">
-        <v>89.91</v>
+        <v>98.45833333333333</v>
       </c>
       <c r="X42">
-        <v>84.69028542504023</v>
+        <v>85.39217909608401</v>
       </c>
       <c r="Y42">
-        <v>6.163297890381725</v>
+        <v>15.30134770603193</v>
       </c>
       <c r="Z42">
         <v>3177111.6</v>
@@ -4748,7 +4748,7 @@
         <v>-2.3</v>
       </c>
       <c r="AF42">
-        <v>12.26497346722946</v>
+        <v>17.00791625097666</v>
       </c>
       <c r="AG42">
         <v>-0.711331260834458</v>
@@ -4824,13 +4824,13 @@
         <v>-0.8704858479665845</v>
       </c>
       <c r="W43">
-        <v>87.38</v>
+        <v>95.15666666666665</v>
       </c>
       <c r="X43">
-        <v>84.42775292992648</v>
+        <v>85.11207529506115</v>
       </c>
       <c r="Y43">
-        <v>3.496773238207385</v>
+        <v>11.80160551459186</v>
       </c>
       <c r="Z43">
         <v>3187927.3</v>
@@ -4851,7 +4851,7 @@
         <v>-2.09</v>
       </c>
       <c r="AF43">
-        <v>6.163297890381725</v>
+        <v>15.30134770603193</v>
       </c>
       <c r="AG43">
         <v>-0.7556761464047712</v>
@@ -4927,13 +4927,13 @@
         <v>-0.9518257638462146</v>
       </c>
       <c r="W44">
-        <v>86.38</v>
+        <v>92.66500000000001</v>
       </c>
       <c r="X44">
-        <v>84.17283987458694</v>
+        <v>84.8381786684444</v>
       </c>
       <c r="Y44">
-        <v>2.622176142211208</v>
+        <v>9.225588590419376</v>
       </c>
       <c r="Z44">
         <v>3198100.6</v>
@@ -4954,7 +4954,7 @@
         <v>-1.87</v>
       </c>
       <c r="AF44">
-        <v>3.496773238207385</v>
+        <v>11.80160551459186</v>
       </c>
       <c r="AG44">
         <v>-0.8704858479665845</v>
@@ -5030,13 +5030,13 @@
         <v>-1.03465798883432</v>
       </c>
       <c r="W45">
-        <v>82.86</v>
+        <v>89.88499999999999</v>
       </c>
       <c r="X45">
-        <v>83.92629273705953</v>
+        <v>84.57109310225638</v>
       </c>
       <c r="Y45">
-        <v>-1.27051094750511</v>
+        <v>6.283360783002379</v>
       </c>
       <c r="Z45">
         <v>3212061.2</v>
@@ -5057,7 +5057,7 @@
         <v>-1.6</v>
       </c>
       <c r="AF45">
-        <v>2.622176142211208</v>
+        <v>9.225588590419376</v>
       </c>
       <c r="AG45">
         <v>-0.9518257638462146</v>
@@ -5133,13 +5133,13 @@
         <v>-1.122233001191331</v>
       </c>
       <c r="W46">
-        <v>82.13</v>
+        <v>87.33999999999999</v>
       </c>
       <c r="X46">
-        <v>83.6888750259394</v>
+        <v>84.31148287465903</v>
       </c>
       <c r="Y46">
-        <v>-1.862702809012817</v>
+        <v>3.592057715131491</v>
       </c>
       <c r="Z46">
         <v>3228167.9</v>
@@ -5160,7 +5160,7 @@
         <v>-1.46</v>
       </c>
       <c r="AF46">
-        <v>-1.27051094750511</v>
+        <v>6.283360783002379</v>
       </c>
       <c r="AG46">
         <v>-1.03465798883432</v>
@@ -5236,13 +5236,13 @@
         <v>-1.241842929572845</v>
       </c>
       <c r="W47">
-        <v>79.15000000000001</v>
+        <v>84.63499999999999</v>
       </c>
       <c r="X47">
-        <v>83.46134202225394</v>
+        <v>84.06005326618319</v>
       </c>
       <c r="Y47">
-        <v>-5.165675410664228</v>
+        <v>0.6839714126711138</v>
       </c>
       <c r="Z47">
         <v>3252378.5</v>
@@ -5263,7 +5263,7 @@
         <v>-1.07</v>
       </c>
       <c r="AF47">
-        <v>-1.862702809012817</v>
+        <v>3.592057715131491</v>
       </c>
       <c r="AG47">
         <v>-1.122233001191331</v>
@@ -5339,13 +5339,13 @@
         <v>-1.328332478894012</v>
       </c>
       <c r="W48">
-        <v>79.27</v>
+        <v>82.86166666666666</v>
       </c>
       <c r="X48">
-        <v>83.24443697867144</v>
+        <v>83.81753292554676</v>
       </c>
       <c r="Y48">
-        <v>-4.774417514157447</v>
+        <v>-1.140413259036355</v>
       </c>
       <c r="Z48">
         <v>3288209.5</v>
@@ -5366,7 +5366,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="AF48">
-        <v>-5.165675410664228</v>
+        <v>0.6839714126711138</v>
       </c>
       <c r="AG48">
         <v>-1.241842929572845</v>
@@ -5442,13 +5442,13 @@
         <v>-1.383883455252888</v>
       </c>
       <c r="W49">
-        <v>79.87</v>
+        <v>81.61</v>
       </c>
       <c r="X49">
-        <v>83.03886988133667</v>
+        <v>83.58465493778475</v>
       </c>
       <c r="Y49">
-        <v>-3.816128381642248</v>
+        <v>-2.36246107524708</v>
       </c>
       <c r="Z49">
         <v>3333039.4</v>
@@ -5469,7 +5469,7 @@
         <v>-1.33</v>
       </c>
       <c r="AF49">
-        <v>-4.774417514157447</v>
+        <v>-1.140413259036355</v>
       </c>
       <c r="AG49">
         <v>-1.328332478894012</v>
@@ -5545,13 +5545,13 @@
         <v>-1.453698924863822</v>
       </c>
       <c r="W50">
-        <v>79.59</v>
+        <v>80.47833333333334</v>
       </c>
       <c r="X50">
-        <v>82.84532004943854</v>
+        <v>83.36214501242299</v>
       </c>
       <c r="Y50">
-        <v>-3.929395224130827</v>
+        <v>-3.459377969052846</v>
       </c>
       <c r="Z50">
         <v>3372644.4</v>
@@ -5572,7 +5572,7 @@
         <v>-1.94</v>
       </c>
       <c r="AF50">
-        <v>-3.816128381642248</v>
+        <v>-2.36246107524708</v>
       </c>
       <c r="AG50">
         <v>-1.383883455252888</v>
@@ -5648,13 +5648,13 @@
         <v>-1.472975049658565</v>
       </c>
       <c r="W51">
-        <v>81.53</v>
+        <v>80.25666666666666</v>
       </c>
       <c r="X51">
-        <v>82.66444235101211</v>
+        <v>83.15071362244805</v>
       </c>
       <c r="Y51">
-        <v>-1.37234622135961</v>
+        <v>-3.480483605855778</v>
       </c>
       <c r="Z51">
         <v>3413499.6</v>
@@ -5675,7 +5675,7 @@
         <v>-2.18</v>
       </c>
       <c r="AF51">
-        <v>-3.929395224130827</v>
+        <v>-3.459377969052846</v>
       </c>
       <c r="AG51">
         <v>-1.453698924863822</v>
@@ -5751,13 +5751,13 @@
         <v>-1.471822003817858</v>
       </c>
       <c r="W52">
-        <v>78.75</v>
+        <v>79.69333333333333</v>
       </c>
       <c r="X52">
-        <v>82.49686653588041</v>
+        <v>82.95104898921828</v>
       </c>
       <c r="Y52">
-        <v>-4.541828912072421</v>
+        <v>-3.927274815184534</v>
       </c>
       <c r="Z52">
         <v>3463309.7</v>
@@ -5778,7 +5778,7 @@
         <v>-2.15</v>
       </c>
       <c r="AF52">
-        <v>-1.37234622135961</v>
+        <v>-3.480483605855778</v>
       </c>
       <c r="AG52">
         <v>-1.472975049658565</v>
@@ -5854,13 +5854,13 @@
         <v>-1.445653801862923</v>
       </c>
       <c r="W53">
-        <v>77.18000000000001</v>
+        <v>79.36499999999999</v>
       </c>
       <c r="X53">
-        <v>82.34321360045529</v>
+        <v>82.76381700347744</v>
       </c>
       <c r="Y53">
-        <v>-6.270357172976226</v>
+        <v>-4.106646027858574</v>
       </c>
       <c r="Z53">
         <v>3511531.8</v>
@@ -5881,7 +5881,7 @@
         <v>-1.88</v>
       </c>
       <c r="AF53">
-        <v>-4.541828912072421</v>
+        <v>-3.927274815184534</v>
       </c>
       <c r="AG53">
         <v>-1.471822003817858</v>
@@ -5957,13 +5957,13 @@
         <v>-1.445965919368752</v>
       </c>
       <c r="W54">
-        <v>77.66</v>
+        <v>79.09666666666666</v>
       </c>
       <c r="X54">
-        <v>82.20407563013899</v>
+        <v>82.58965841927947</v>
       </c>
       <c r="Y54">
-        <v>-5.527798464134747</v>
+        <v>-4.229333090203724</v>
       </c>
       <c r="Z54">
         <v>3558737</v>
@@ -5984,7 +5984,7 @@
         <v>-2.09</v>
       </c>
       <c r="AF54">
-        <v>-6.270357172976226</v>
+        <v>-4.106646027858574</v>
       </c>
       <c r="AG54">
         <v>-1.445653801862923</v>
@@ -6060,13 +6060,13 @@
         <v>-1.456203976128512</v>
       </c>
       <c r="W55">
-        <v>76.40000000000001</v>
+        <v>78.51833333333333</v>
       </c>
       <c r="X55">
-        <v>82.08000487072377</v>
+        <v>82.4291877652354</v>
       </c>
       <c r="Y55">
-        <v>-6.920083496181306</v>
+        <v>-4.744501963358505</v>
       </c>
       <c r="Z55">
         <v>3603877.2</v>
@@ -6087,7 +6087,7 @@
         <v>-2.02</v>
       </c>
       <c r="AF55">
-        <v>-5.527798464134747</v>
+        <v>-4.229333090203724</v>
       </c>
       <c r="AG55">
         <v>-1.445965919368752</v>
@@ -6163,13 +6163,13 @@
         <v>-1.416565066292252</v>
       </c>
       <c r="W56">
-        <v>76.44</v>
+        <v>77.99333333333333</v>
       </c>
       <c r="X56">
-        <v>81.97151850569064</v>
+        <v>82.28299261786202</v>
       </c>
       <c r="Y56">
-        <v>-6.748098127896252</v>
+        <v>-5.213300036923418</v>
       </c>
       <c r="Z56">
         <v>3651309</v>
@@ -6190,7 +6190,7 @@
         <v>-1.96</v>
       </c>
       <c r="AF56">
-        <v>-6.920083496181306</v>
+        <v>-4.744501963358505</v>
       </c>
       <c r="AG56">
         <v>-1.456203976128512</v>
@@ -6266,13 +6266,13 @@
         <v>-1.268445132187335</v>
       </c>
       <c r="W57">
-        <v>76.81999999999999</v>
+        <v>77.20833333333333</v>
       </c>
       <c r="X57">
-        <v>81.87908989132114</v>
+        <v>82.15163037732825</v>
       </c>
       <c r="Y57">
-        <v>-6.178732443211232</v>
+        <v>-6.017284162578395</v>
       </c>
       <c r="Z57">
         <v>3701182.8</v>
@@ -6293,7 +6293,7 @@
         <v>-1.91</v>
       </c>
       <c r="AF57">
-        <v>-6.748098127896252</v>
+        <v>-5.213300036923418</v>
       </c>
       <c r="AG57">
         <v>-1.416565066292252</v>
@@ -6369,13 +6369,13 @@
         <v>-1.044090387822794</v>
       </c>
       <c r="W58">
-        <v>75.56999999999999</v>
+        <v>76.67833333333333</v>
       </c>
       <c r="X58">
-        <v>81.80314970243001</v>
+        <v>82.03562534458031</v>
       </c>
       <c r="Y58">
-        <v>-7.619694015577561</v>
+        <v>-6.530445752981528</v>
       </c>
       <c r="Z58">
         <v>3748968.7</v>
@@ -6396,7 +6396,7 @@
         <v>-1.88</v>
       </c>
       <c r="AF58">
-        <v>-6.178732443211232</v>
+        <v>-6.017284162578395</v>
       </c>
       <c r="AG58">
         <v>-1.268445132187335</v>
@@ -6472,13 +6472,13 @@
         <v>-0.7637565563855531</v>
       </c>
       <c r="W59">
-        <v>75.18000000000001</v>
+        <v>76.34499999999998</v>
       </c>
       <c r="X59">
-        <v>81.74408957764125</v>
+        <v>81.93546367784116</v>
       </c>
       <c r="Y59">
-        <v>-8.030047935645069</v>
+        <v>-6.823008532449515</v>
       </c>
       <c r="Z59">
         <v>3790771.7</v>
@@ -6499,7 +6499,7 @@
         <v>-2.75</v>
       </c>
       <c r="AF59">
-        <v>-7.619694015577561</v>
+        <v>-6.530445752981528</v>
       </c>
       <c r="AG59">
         <v>-1.044090387822794</v>
@@ -6575,13 +6575,13 @@
         <v>-0.586780542605525</v>
       </c>
       <c r="W60">
-        <v>75.73999999999999</v>
+        <v>76.02499999999999</v>
       </c>
       <c r="X60">
-        <v>81.70225306028571</v>
+        <v>81.8515901982003</v>
       </c>
       <c r="Y60">
-        <v>-7.297538117934577</v>
+        <v>-7.118481368647156</v>
       </c>
       <c r="Z60">
         <v>3841254.4</v>
@@ -6602,7 +6602,7 @@
         <v>-2.61</v>
       </c>
       <c r="AF60">
-        <v>-8.030047935645069</v>
+        <v>-6.823008532449515</v>
       </c>
       <c r="AG60">
         <v>-0.7637565563855531</v>
@@ -6678,13 +6678,13 @@
         <v>-0.5162973990776254</v>
       </c>
       <c r="W61">
-        <v>73.73999999999999</v>
+        <v>75.58166666666666</v>
       </c>
       <c r="X61">
-        <v>81.67793304486031</v>
+        <v>81.78440659045872</v>
       </c>
       <c r="Y61">
-        <v>-9.718577281455609</v>
+        <v>-7.584257418229756</v>
       </c>
       <c r="Z61">
         <v>3885847</v>
@@ -6705,7 +6705,7 @@
         <v>-2.37</v>
       </c>
       <c r="AF61">
-        <v>-7.297538117934577</v>
+        <v>-7.118481368647156</v>
       </c>
       <c r="AG61">
         <v>-0.586780542605525</v>
@@ -6781,13 +6781,13 @@
         <v>-0.5004914703996555</v>
       </c>
       <c r="W62">
-        <v>73.19</v>
+        <v>75.03999999999999</v>
       </c>
       <c r="X62">
-        <v>81.67137642082096</v>
+        <v>81.73426958115743</v>
       </c>
       <c r="Y62">
-        <v>-10.38475998876243</v>
+        <v>-8.190284950806859</v>
       </c>
       <c r="Z62">
         <v>3929048.6</v>
@@ -6808,7 +6808,7 @@
         <v>-2.62</v>
       </c>
       <c r="AF62">
-        <v>-9.718577281455609</v>
+        <v>-7.584257418229756</v>
       </c>
       <c r="AG62">
         <v>-0.5162973990776254</v>
@@ -6884,13 +6884,13 @@
         <v>-0.4301085599264121</v>
       </c>
       <c r="W63">
-        <v>74.67</v>
+        <v>74.68166666666666</v>
       </c>
       <c r="X63">
-        <v>81.68276882813653</v>
+        <v>81.70148803618798</v>
       </c>
       <c r="Y63">
-        <v>-8.585371099370597</v>
+        <v>-8.592036128414261</v>
       </c>
       <c r="Z63">
         <v>3978014.6</v>
@@ -6911,7 +6911,7 @@
         <v>-2.63</v>
       </c>
       <c r="AF63">
-        <v>-10.38475998876243</v>
+        <v>-8.190284950806859</v>
       </c>
       <c r="AG63">
         <v>-0.5004914703996555</v>
@@ -6987,13 +6987,13 @@
         <v>-0.4180282147439152</v>
       </c>
       <c r="W64">
-        <v>74.77</v>
+        <v>74.54833333333333</v>
       </c>
       <c r="X64">
-        <v>81.71223046406455</v>
+        <v>81.68631916813162</v>
       </c>
       <c r="Y64">
-        <v>-8.495950269179852</v>
+        <v>-8.73828801137001</v>
       </c>
       <c r="Z64">
         <v>4015980.2</v>
@@ -7014,7 +7014,7 @@
         <v>-2.72</v>
       </c>
       <c r="AF64">
-        <v>-8.585371099370597</v>
+        <v>-8.592036128414261</v>
       </c>
       <c r="AG64">
         <v>-0.4301085599264121</v>
@@ -7090,13 +7090,13 @@
         <v>-0.3638441156996963</v>
       </c>
       <c r="W65">
-        <v>72.20999999999999</v>
+        <v>74.05333333333333</v>
       </c>
       <c r="X65">
-        <v>81.75982741498308</v>
+        <v>81.68896602427607</v>
       </c>
       <c r="Y65">
-        <v>-11.68034194410862</v>
+        <v>-9.347202030533241</v>
       </c>
       <c r="Z65">
         <v>4058947.1</v>
@@ -7117,7 +7117,7 @@
         <v>-3.03</v>
       </c>
       <c r="AF65">
-        <v>-8.495950269179852</v>
+        <v>-8.73828801137001</v>
       </c>
       <c r="AG65">
         <v>-0.4180282147439152</v>
@@ -7193,13 +7193,13 @@
         <v>-0.3084446685299724</v>
       </c>
       <c r="W66">
-        <v>73.42</v>
+        <v>73.66666666666666</v>
       </c>
       <c r="X66">
-        <v>81.82557220068334</v>
+        <v>81.70957657486252</v>
       </c>
       <c r="Y66">
-        <v>-10.27254924666832</v>
+        <v>-9.843289177770897</v>
       </c>
       <c r="Z66">
         <v>4111272.3</v>
@@ -7220,7 +7220,7 @@
         <v>-2.95</v>
       </c>
       <c r="AF66">
-        <v>-11.68034194410862</v>
+        <v>-9.347202030533241</v>
       </c>
       <c r="AG66">
         <v>-0.3638441156996963</v>
@@ -7296,13 +7296,13 @@
         <v>-0.1344933042741858</v>
       </c>
       <c r="W67">
-        <v>72.38</v>
+        <v>73.44</v>
       </c>
       <c r="X67">
-        <v>81.90940365401399</v>
+        <v>81.74823987321007</v>
       </c>
       <c r="Y67">
-        <v>-11.63407768693601</v>
+        <v>-10.1632033742818</v>
       </c>
       <c r="Z67">
         <v>4158547.4</v>
@@ -7323,7 +7323,7 @@
         <v>-3.08</v>
       </c>
       <c r="AF67">
-        <v>-10.27254924666832</v>
+        <v>-9.843289177770897</v>
       </c>
       <c r="AG67">
         <v>-0.3084446685299724</v>
@@ -7399,13 +7399,13 @@
         <v>0.0198942485884368</v>
       </c>
       <c r="W68">
-        <v>71.76000000000001</v>
+        <v>73.20166666666667</v>
       </c>
       <c r="X68">
-        <v>82.01119575001681</v>
+        <v>81.80498291315027</v>
       </c>
       <c r="Y68">
-        <v>-12.49975159643335</v>
+        <v>-10.51686088073323</v>
       </c>
       <c r="Z68">
         <v>4196989.2</v>
@@ -7426,7 +7426,7 @@
         <v>-3.31</v>
       </c>
       <c r="AF68">
-        <v>-11.63407768693601</v>
+        <v>-10.1632033742818</v>
       </c>
       <c r="AG68">
         <v>-0.1344933042741858</v>
@@ -7502,13 +7502,13 @@
         <v>0.07581235354150451</v>
       </c>
       <c r="W69">
-        <v>73.43000000000001</v>
+        <v>72.99499999999999</v>
       </c>
       <c r="X69">
-        <v>82.13074893437842</v>
+        <v>81.87976858172385</v>
       </c>
       <c r="Y69">
-        <v>-10.59377766216428</v>
+        <v>-10.85099376270954</v>
       </c>
       <c r="Z69">
         <v>4239493.9</v>
@@ -7529,7 +7529,7 @@
         <v>-3.58</v>
       </c>
       <c r="AF69">
-        <v>-12.49975159643335</v>
+        <v>-10.51686088073323</v>
       </c>
       <c r="AG69">
         <v>0.0198942485884368</v>
@@ -7605,13 +7605,13 @@
         <v>0.009586092441926652</v>
       </c>
       <c r="W70">
-        <v>78.12</v>
+        <v>73.55333333333333</v>
       </c>
       <c r="X70">
-        <v>82.26778455405612</v>
+        <v>81.97249338235856</v>
       </c>
       <c r="Y70">
-        <v>-5.041808985789221</v>
+        <v>-10.27071362799017</v>
       </c>
       <c r="Z70">
         <v>4272946.9</v>
@@ -7632,7 +7632,7 @@
         <v>-3.53</v>
       </c>
       <c r="AF70">
-        <v>-10.59377766216428</v>
+        <v>-10.85099376270954</v>
       </c>
       <c r="AG70">
         <v>0.07581235354150451</v>
@@ -7708,13 +7708,13 @@
         <v>-0.1742394353622001</v>
       </c>
       <c r="W71">
-        <v>78.22</v>
+        <v>74.55499999999999</v>
       </c>
       <c r="X71">
-        <v>82.4219568206004</v>
+        <v>82.0829852631704</v>
       </c>
       <c r="Y71">
-        <v>-5.098103688251876</v>
+        <v>-9.171188449146372</v>
       </c>
       <c r="Z71">
         <v>4305785.2</v>
@@ -7735,7 +7735,7 @@
         <v>-3.03</v>
       </c>
       <c r="AF71">
-        <v>-5.041808985789221</v>
+        <v>-10.27071362799017</v>
       </c>
       <c r="AG71">
         <v>0.009586092441926652</v>
@@ -7811,13 +7811,13 @@
         <v>-0.2371699763812352</v>
       </c>
       <c r="W72">
-        <v>78.06</v>
+        <v>75.32833333333333</v>
       </c>
       <c r="X72">
-        <v>82.5928879410492</v>
+        <v>82.21100720961763</v>
       </c>
       <c r="Y72">
-        <v>-5.488230347732303</v>
+        <v>-8.371961504783897</v>
       </c>
       <c r="Z72">
         <v>4338896</v>
@@ -7838,7 +7838,7 @@
         <v>-3.1</v>
       </c>
       <c r="AF72">
-        <v>-5.098103688251876</v>
+        <v>-9.171188449146372</v>
       </c>
       <c r="AG72">
         <v>-0.1742394353622001</v>
@@ -7914,13 +7914,13 @@
         <v>-0.233884109823157</v>
       </c>
       <c r="W73">
-        <v>79.39</v>
+        <v>76.49666666666667</v>
       </c>
       <c r="X73">
-        <v>82.78016769993312</v>
+        <v>82.3562641208552</v>
       </c>
       <c r="Y73">
-        <v>-4.095386363823295</v>
+        <v>-7.11493839204479</v>
       </c>
       <c r="Z73">
         <v>4376382</v>
@@ -7941,7 +7941,7 @@
         <v>-3.17</v>
       </c>
       <c r="AF73">
-        <v>-5.488230347732303</v>
+        <v>-8.371961504783897</v>
       </c>
       <c r="AG73">
         <v>-0.2371699763812352</v>
@@ -8017,13 +8017,13 @@
         <v>-0.1670987245169675</v>
       </c>
       <c r="W74">
-        <v>76.75</v>
+        <v>77.32833333333333</v>
       </c>
       <c r="X74">
-        <v>82.98335090579918</v>
+        <v>82.51840778898681</v>
       </c>
       <c r="Y74">
-        <v>-7.511568088971421</v>
+        <v>-6.289595975876495</v>
       </c>
       <c r="Z74">
         <v>4412981.7</v>
@@ -8044,7 +8044,7 @@
         <v>-2.94</v>
       </c>
       <c r="AF74">
-        <v>-4.095386363823295</v>
+        <v>-7.11493839204479</v>
       </c>
       <c r="AG74">
         <v>-0.233884109823157</v>
@@ -8120,13 +8120,13 @@
         <v>-0.1430323479898354</v>
       </c>
       <c r="W75">
-        <v>75.45</v>
+        <v>77.66500000000001</v>
       </c>
       <c r="X75">
-        <v>83.20196620848954</v>
+        <v>82.69704479317157</v>
       </c>
       <c r="Y75">
-        <v>-9.317046894137649</v>
+        <v>-6.084914891163162</v>
       </c>
       <c r="Z75">
         <v>4448184.5</v>
@@ -8147,7 +8147,7 @@
         <v>-3.1</v>
       </c>
       <c r="AF75">
-        <v>-7.511568088971421</v>
+        <v>-6.289595975876495</v>
       </c>
       <c r="AG75">
         <v>-0.1670987245169675</v>
@@ -8223,13 +8223,13 @@
         <v>-0.0812335961290378</v>
       </c>
       <c r="W76">
-        <v>79</v>
+        <v>77.81166666666667</v>
       </c>
       <c r="X76">
-        <v>83.4354941610043</v>
+        <v>82.89174166569671</v>
       </c>
       <c r="Y76">
-        <v>-5.316075856691382</v>
+        <v>-6.128565882374682</v>
       </c>
       <c r="Z76">
         <v>4489325.6</v>
@@ -8250,7 +8250,7 @@
         <v>-3.12</v>
       </c>
       <c r="AF76">
-        <v>-9.317046894137649</v>
+        <v>-6.084914891163162</v>
       </c>
       <c r="AG76">
         <v>-0.1430323479898354</v>
@@ -8326,13 +8326,13 @@
         <v>-0.01136658237204102</v>
       </c>
       <c r="W77">
-        <v>81.09999999999999</v>
+        <v>78.29166666666667</v>
       </c>
       <c r="X77">
-        <v>83.68335550179003</v>
+        <v>83.1020261113473</v>
       </c>
       <c r="Y77">
-        <v>-3.087060128384522</v>
+        <v>-5.788498391405394</v>
       </c>
       <c r="Z77">
         <v>4520587.8</v>
@@ -8353,7 +8353,7 @@
         <v>-3.02</v>
       </c>
       <c r="AF77">
-        <v>-5.316075856691382</v>
+        <v>-6.128565882374682</v>
       </c>
       <c r="AG77">
         <v>-0.0812335961290378</v>
@@ -8429,13 +8429,13 @@
         <v>0.05988149758746619</v>
       </c>
       <c r="W78">
-        <v>85.53</v>
+        <v>79.53666666666666</v>
       </c>
       <c r="X78">
-        <v>83.94493674480049</v>
+        <v>83.32738663679378</v>
       </c>
       <c r="Y78">
-        <v>1.888217820710536</v>
+        <v>-4.549188595881503</v>
       </c>
       <c r="Z78">
         <v>4554177.4</v>
@@ -8456,7 +8456,7 @@
         <v>-2.91</v>
       </c>
       <c r="AF78">
-        <v>-3.087060128384522</v>
+        <v>-5.788498391405394</v>
       </c>
       <c r="AG78">
         <v>-0.01136658237204102</v>
@@ -8532,13 +8532,13 @@
         <v>0.07261756008589693</v>
       </c>
       <c r="W79">
-        <v>87</v>
+        <v>80.80499999999999</v>
       </c>
       <c r="X79">
-        <v>84.21960447069007</v>
+        <v>83.56727463173775</v>
       </c>
       <c r="Y79">
-        <v>3.301363793839185</v>
+        <v>-3.305450182395531</v>
       </c>
       <c r="Z79">
         <v>4585739</v>
@@ -8559,7 +8559,7 @@
         <v>-2.78</v>
       </c>
       <c r="AF79">
-        <v>1.888217820710536</v>
+        <v>-4.549188595881503</v>
       </c>
       <c r="AG79">
         <v>0.05988149758746619</v>
@@ -8635,13 +8635,13 @@
         <v>0.07799504277599123</v>
       </c>
       <c r="W80">
-        <v>85.92</v>
+        <v>82.33333333333333</v>
       </c>
       <c r="X80">
-        <v>84.50673749054052</v>
+        <v>83.82111223650014</v>
       </c>
       <c r="Y80">
-        <v>1.67236666735322</v>
+        <v>-1.774945313263165</v>
       </c>
       <c r="Z80">
         <v>4627426.9</v>
@@ -8662,7 +8662,7 @@
         <v>-2.53</v>
       </c>
       <c r="AF80">
-        <v>3.301363793839185</v>
+        <v>-3.305450182395531</v>
       </c>
       <c r="AG80">
         <v>0.07261756008589693</v>
@@ -8738,13 +8738,13 @@
         <v>0.1171686223832458</v>
       </c>
       <c r="W81">
-        <v>86.89</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="X81">
-        <v>84.80573606910322</v>
+        <v>84.08830027755216</v>
       </c>
       <c r="Y81">
-        <v>2.457692165065861</v>
+        <v>0.1804052667816025</v>
       </c>
       <c r="Z81">
         <v>4671291.7</v>
@@ -8765,7 +8765,7 @@
         <v>-2.33</v>
       </c>
       <c r="AF81">
-        <v>1.67236666735322</v>
+        <v>-1.774945313263165</v>
       </c>
       <c r="AG81">
         <v>0.07799504277599123</v>
@@ -8841,13 +8841,13 @@
         <v>0.2393827659732173</v>
       </c>
       <c r="W82">
-        <v>87.63</v>
+        <v>85.67833333333333</v>
       </c>
       <c r="X82">
-        <v>85.1160113759323</v>
+        <v>84.36822810159032</v>
       </c>
       <c r="Y82">
-        <v>2.953602481399353</v>
+        <v>1.55284194207026</v>
       </c>
       <c r="Z82">
         <v>4703853.6</v>
@@ -8868,7 +8868,7 @@
         <v>-2.28</v>
       </c>
       <c r="AF82">
-        <v>2.457692165065861</v>
+        <v>0.1804052667816025</v>
       </c>
       <c r="AG82">
         <v>0.1171686223832458</v>
@@ -8944,13 +8944,13 @@
         <v>0.4541270330949532</v>
       </c>
       <c r="W83">
-        <v>87.34</v>
+        <v>86.71833333333332</v>
       </c>
       <c r="X83">
-        <v>85.43699066286536</v>
+        <v>84.66028622583393</v>
       </c>
       <c r="Y83">
-        <v>2.227383387886328</v>
+        <v>2.430947495274816</v>
       </c>
       <c r="Z83">
         <v>4751483.1</v>
@@ -8971,7 +8971,7 @@
         <v>-2.12</v>
       </c>
       <c r="AF83">
-        <v>2.953602481399353</v>
+        <v>1.55284194207026</v>
       </c>
       <c r="AG83">
         <v>0.2393827659732173</v>
@@ -9047,13 +9047,13 @@
         <v>0.6020645391181301</v>
       </c>
       <c r="W84">
-        <v>87.98999999999999</v>
+        <v>87.12833333333333</v>
       </c>
       <c r="X84">
-        <v>85.76812057980072</v>
+        <v>84.96387527633881</v>
       </c>
       <c r="Y84">
-        <v>2.590565591479854</v>
+        <v>2.547503924408789</v>
       </c>
       <c r="Z84">
         <v>4786545.6</v>
@@ -9074,7 +9074,7 @@
         <v>-2.07</v>
       </c>
       <c r="AF84">
-        <v>2.227383387886328</v>
+        <v>2.430947495274816</v>
       </c>
       <c r="AG84">
         <v>0.4541270330949532</v>
@@ -9150,13 +9150,13 @@
         <v>0.7276093763473712</v>
       </c>
       <c r="W85">
-        <v>88.5</v>
+        <v>87.37833333333333</v>
       </c>
       <c r="X85">
-        <v>86.10886246035021</v>
+        <v>85.27841175915295</v>
       </c>
       <c r="Y85">
-        <v>2.776877398363986</v>
+        <v>2.462430445012354</v>
       </c>
       <c r="Z85">
         <v>4814760</v>
@@ -9177,7 +9177,7 @@
         <v>-1.77</v>
       </c>
       <c r="AF85">
-        <v>2.590565591479854</v>
+        <v>2.547503924408789</v>
       </c>
       <c r="AG85">
         <v>0.6020645391181301</v>
@@ -9253,13 +9253,13 @@
         <v>0.7895962205856311</v>
       </c>
       <c r="W86">
-        <v>86</v>
+        <v>87.39166666666665</v>
       </c>
       <c r="X86">
-        <v>86.45869478225788</v>
+        <v>85.60332888139138</v>
       </c>
       <c r="Y86">
-        <v>-0.5305363253667927</v>
+        <v>2.089098413162316</v>
       </c>
       <c r="Z86">
         <v>4859459.1</v>
@@ -9280,7 +9280,7 @@
         <v>-2.18</v>
       </c>
       <c r="AF86">
-        <v>2.776877398363986</v>
+        <v>2.462430445012354</v>
       </c>
       <c r="AG86">
         <v>0.7276093763473712</v>
@@ -9356,13 +9356,13 @@
         <v>0.8135321117530125</v>
       </c>
       <c r="W87">
-        <v>83.58</v>
+        <v>86.83999999999999</v>
       </c>
       <c r="X87">
-        <v>86.81711447340163</v>
+        <v>85.93807605326656</v>
       </c>
       <c r="Y87">
-        <v>-3.728659369799026</v>
+        <v>1.049504466651552</v>
       </c>
       <c r="Z87">
         <v>4890027.5</v>
@@ -9383,7 +9383,7 @@
         <v>-2.25</v>
       </c>
       <c r="AF87">
-        <v>-0.5305363253667927</v>
+        <v>2.089098413162316</v>
       </c>
       <c r="AG87">
         <v>0.7895962205856311</v>
@@ -9459,13 +9459,13 @@
         <v>0.8575687207178939</v>
       </c>
       <c r="W88">
-        <v>82.97</v>
+        <v>86.06333333333333</v>
       </c>
       <c r="X88">
-        <v>87.18361492234916</v>
+        <v>86.28211648389372</v>
       </c>
       <c r="Y88">
-        <v>-4.833035342824521</v>
+        <v>-0.2535672042783377</v>
       </c>
       <c r="Z88">
         <v>4926899.2</v>
@@ -9486,7 +9486,7 @@
         <v>-1.98</v>
       </c>
       <c r="AF88">
-        <v>-3.728659369799026</v>
+        <v>1.049504466651552</v>
       </c>
       <c r="AG88">
         <v>0.8135321117530125</v>
@@ -9562,13 +9562,13 @@
         <v>0.913613300582905</v>
       </c>
       <c r="W89">
-        <v>83.3</v>
+        <v>85.38999999999999</v>
       </c>
       <c r="X89">
-        <v>87.55766453993145</v>
+        <v>86.6349203416777</v>
       </c>
       <c r="Y89">
-        <v>-4.862697700199292</v>
+        <v>-1.436972916657508</v>
       </c>
       <c r="Z89">
         <v>4987524.1</v>
@@ -9589,7 +9589,7 @@
         <v>-1.82</v>
       </c>
       <c r="AF89">
-        <v>-4.833035342824521</v>
+        <v>-0.2535672042783377</v>
       </c>
       <c r="AG89">
         <v>0.8575687207178939</v>
@@ -9665,13 +9665,13 @@
         <v>1.068363268816919</v>
       </c>
       <c r="W90">
-        <v>84.33</v>
+        <v>84.77999999999999</v>
       </c>
       <c r="X90">
-        <v>87.93869922452079</v>
+        <v>86.99595610688182</v>
       </c>
       <c r="Y90">
-        <v>-4.103653176978705</v>
+        <v>-2.547194382413986</v>
       </c>
       <c r="Z90">
         <v>5026997</v>
@@ -9692,7 +9692,7 @@
         <v>-1.72</v>
       </c>
       <c r="AF90">
-        <v>-4.862697700199292</v>
+        <v>-1.436972916657508</v>
       </c>
       <c r="AG90">
         <v>0.913613300582905</v>
@@ -9768,13 +9768,13 @@
         <v>1.25491734138603</v>
       </c>
       <c r="W91">
-        <v>90.18000000000001</v>
+        <v>85.05999999999999</v>
       </c>
       <c r="X91">
-        <v>88.32612202213757</v>
+        <v>87.36468265390272</v>
       </c>
       <c r="Y91">
-        <v>2.098901135269804</v>
+        <v>-2.638002661822492</v>
       </c>
       <c r="Z91">
         <v>5066353.2</v>
@@ -9795,7 +9795,7 @@
         <v>-1.77</v>
       </c>
       <c r="AF91">
-        <v>-4.103653176978705</v>
+        <v>-2.547194382413986</v>
       </c>
       <c r="AG91">
         <v>1.068363268816919</v>
@@ -9871,13 +9871,13 @@
         <v>1.425999853101279</v>
       </c>
       <c r="W92">
-        <v>93.45</v>
+        <v>86.30166666666666</v>
       </c>
       <c r="X92">
-        <v>88.71930813390233</v>
+        <v>87.7405417587096</v>
       </c>
       <c r="Y92">
-        <v>5.332201034478001</v>
+        <v>-1.639920455471888</v>
       </c>
       <c r="Z92">
         <v>5109929.7</v>
@@ -9898,7 +9898,7 @@
         <v>-1.81</v>
       </c>
       <c r="AF92">
-        <v>2.098901135269804</v>
+        <v>-2.638002661822492</v>
       </c>
       <c r="AG92">
         <v>1.25491734138603</v>
@@ -9974,13 +9974,13 @@
         <v>1.569054873363207</v>
       </c>
       <c r="W93">
-        <v>98.06</v>
+        <v>88.71499999999999</v>
       </c>
       <c r="X93">
-        <v>89.11764706554868</v>
+        <v>88.12295741422797</v>
       </c>
       <c r="Y93">
-        <v>10.03432342403963</v>
+        <v>0.6718369459493889</v>
       </c>
       <c r="Z93">
         <v>5144959.4</v>
@@ -10001,7 +10001,7 @@
         <v>-1.73</v>
       </c>
       <c r="AF93">
-        <v>5.332201034478001</v>
+        <v>-1.639920455471888</v>
       </c>
       <c r="AG93">
         <v>1.425999853101279</v>
@@ -10077,13 +10077,13 @@
         <v>1.754329436644775</v>
       </c>
       <c r="W94">
-        <v>94.79000000000001</v>
+        <v>90.685</v>
       </c>
       <c r="X94">
-        <v>89.52056482506246</v>
+        <v>88.51134251095081</v>
       </c>
       <c r="Y94">
-        <v>5.886284548399434</v>
+        <v>2.455795412639072</v>
       </c>
       <c r="Z94">
         <v>5190038.5</v>
@@ -10104,7 +10104,7 @@
         <v>-1.65</v>
       </c>
       <c r="AF94">
-        <v>10.03432342403963</v>
+        <v>0.6718369459493889</v>
       </c>
       <c r="AG94">
         <v>1.569054873363207</v>
@@ -10180,13 +10180,13 @@
         <v>1.971271134335972</v>
       </c>
       <c r="W95">
-        <v>91.47</v>
+        <v>92.04666666666667</v>
       </c>
       <c r="X95">
-        <v>89.92755642006674</v>
+        <v>88.90511450760152</v>
       </c>
       <c r="Y95">
-        <v>1.715206819062498</v>
+        <v>3.533601161715549</v>
       </c>
       <c r="Z95">
         <v>5234346.7</v>
@@ -10207,7 +10207,7 @@
         <v>-1.43</v>
       </c>
       <c r="AF95">
-        <v>5.886284548399434</v>
+        <v>2.455795412639072</v>
       </c>
       <c r="AG95">
         <v>1.754329436644775</v>
@@ -10283,13 +10283,13 @@
         <v>2.236732545629128</v>
       </c>
       <c r="W96">
-        <v>94.70999999999999</v>
+        <v>93.77666666666666</v>
       </c>
       <c r="X96">
-        <v>90.33815751740615</v>
+        <v>89.30370763495189</v>
       </c>
       <c r="Y96">
-        <v>4.839419579430193</v>
+        <v>5.008704733737313</v>
       </c>
       <c r="Z96">
         <v>5278071.3</v>
@@ -10310,7 +10310,7 @@
         <v>-1.3</v>
       </c>
       <c r="AF96">
-        <v>1.715206819062498</v>
+        <v>3.533601161715549</v>
       </c>
       <c r="AG96">
         <v>1.971271134335972</v>
@@ -10386,13 +10386,13 @@
         <v>2.479639690216029</v>
       </c>
       <c r="W97">
-        <v>95.87</v>
+        <v>94.72500000000001</v>
       </c>
       <c r="X97">
-        <v>90.75191568549654</v>
+        <v>89.7065803641451</v>
       </c>
       <c r="Y97">
-        <v>5.639643280082751</v>
+        <v>5.594260326816247</v>
       </c>
       <c r="Z97">
         <v>5331619</v>
@@ -10413,7 +10413,7 @@
         <v>-1.95</v>
       </c>
       <c r="AF97">
-        <v>4.839419579430193</v>
+        <v>5.008704733737313</v>
       </c>
       <c r="AG97">
         <v>2.236732545629128</v>
@@ -10489,13 +10489,13 @@
         <v>2.762443496708733</v>
       </c>
       <c r="W98">
-        <v>95.59999999999999</v>
+        <v>95.08333333333333</v>
       </c>
       <c r="X98">
-        <v>91.16841222610601</v>
+        <v>90.11322567989714</v>
       </c>
       <c r="Y98">
-        <v>4.860880721387617</v>
+        <v>5.515403111959549</v>
       </c>
       <c r="Z98">
         <v>5376008.7</v>
@@ -10516,7 +10516,7 @@
         <v>-1.71</v>
       </c>
       <c r="AF98">
-        <v>5.639643280082751</v>
+        <v>5.594260326816247</v>
       </c>
       <c r="AG98">
         <v>2.479639690216029</v>
@@ -10592,13 +10592,13 @@
         <v>3.051227029364911</v>
       </c>
       <c r="W99">
-        <v>94.72</v>
+        <v>94.52666666666666</v>
       </c>
       <c r="X99">
-        <v>91.58726793239384</v>
+        <v>90.52317528929784</v>
       </c>
       <c r="Y99">
-        <v>3.420488609747174</v>
+        <v>4.422614832692617</v>
       </c>
       <c r="Z99">
         <v>5433417.2</v>
@@ -10619,7 +10619,7 @@
         <v>-1.51</v>
       </c>
       <c r="AF99">
-        <v>4.860880721387617</v>
+        <v>5.515403111959549</v>
       </c>
       <c r="AG99">
         <v>2.762443496708733</v>
@@ -10695,13 +10695,13 @@
         <v>3.255861190851239</v>
       </c>
       <c r="W100">
-        <v>91.68000000000001</v>
+        <v>94.00833333333333</v>
       </c>
       <c r="X100">
-        <v>92.00813779186979</v>
+        <v>90.9359992490332</v>
       </c>
       <c r="Y100">
-        <v>-0.3566399665777986</v>
+        <v>3.378567464669713</v>
       </c>
       <c r="Z100">
         <v>5475987.8</v>
@@ -10722,7 +10722,7 @@
         <v>-1.59</v>
       </c>
       <c r="AF100">
-        <v>3.420488609747174</v>
+        <v>4.422614832692617</v>
       </c>
       <c r="AG100">
         <v>3.051227029364911</v>
@@ -10798,13 +10798,13 @@
         <v>3.392804025363394</v>
       </c>
       <c r="W101">
-        <v>87.63</v>
+        <v>93.36833333333333</v>
       </c>
       <c r="X101">
-        <v>92.43070096435852</v>
+        <v>91.35129850692616</v>
       </c>
       <c r="Y101">
-        <v>-5.193838101703552</v>
+        <v>2.207997980733944</v>
       </c>
       <c r="Z101">
         <v>5509204.3</v>
@@ -10825,7 +10825,7 @@
         <v>-1.57</v>
       </c>
       <c r="AF101">
-        <v>-0.3566399665777986</v>
+        <v>3.378567464669713</v>
       </c>
       <c r="AG101">
         <v>3.255861190851239</v>
@@ -10901,13 +10901,13 @@
         <v>3.409886779907612</v>
       </c>
       <c r="W102">
-        <v>86.90000000000001</v>
+        <v>92.06666666666666</v>
       </c>
       <c r="X102">
-        <v>92.85463407775777</v>
+        <v>91.76869771708134</v>
       </c>
       <c r="Y102">
-        <v>-6.412856113106069</v>
+        <v>0.3246956282456415</v>
       </c>
       <c r="Z102">
         <v>5549143</v>
@@ -10928,7 +10928,7 @@
         <v>-1.68</v>
       </c>
       <c r="AF102">
-        <v>-5.193838101703552</v>
+        <v>2.207997980733944</v>
       </c>
       <c r="AG102">
         <v>3.392804025363394</v>
@@ -11004,13 +11004,13 @@
         <v>3.351329618974841</v>
       </c>
       <c r="W103">
-        <v>87.05</v>
+        <v>90.59666666666665</v>
       </c>
       <c r="X103">
-        <v>93.27957671751905</v>
+        <v>92.18783709714374</v>
       </c>
       <c r="Y103">
-        <v>-6.678392995268667</v>
+        <v>-1.726009070806578</v>
       </c>
       <c r="Z103">
         <v>5575730.9</v>
@@ -11031,7 +11031,7 @@
         <v>-1.37</v>
       </c>
       <c r="AF103">
-        <v>-6.412856113106069</v>
+        <v>0.3246956282456415</v>
       </c>
       <c r="AG103">
         <v>3.409886779907612</v>
@@ -11107,13 +11107,13 @@
         <v>3.284189289547546</v>
       </c>
       <c r="W104">
-        <v>87.48999999999999</v>
+        <v>89.245</v>
       </c>
       <c r="X104">
-        <v>93.70512252284379</v>
+        <v>92.60835916390118</v>
       </c>
       <c r="Y104">
-        <v>-6.632639022833198</v>
+        <v>-3.631809476235948</v>
       </c>
       <c r="Z104">
         <v>5610038.7</v>
@@ -11134,7 +11134,7 @@
         <v>-1.23</v>
       </c>
       <c r="AF104">
-        <v>-6.678392995268667</v>
+        <v>-1.726009070806578</v>
       </c>
       <c r="AG104">
         <v>3.351329618974841</v>
@@ -11210,13 +11210,13 @@
         <v>3.289749188616797</v>
       </c>
       <c r="W105">
-        <v>88.77</v>
+        <v>88.25333333333333</v>
       </c>
       <c r="X105">
-        <v>94.13081706521149</v>
+        <v>93.02989415659246</v>
       </c>
       <c r="Y105">
-        <v>-5.695071212967006</v>
+        <v>-5.134436480405958</v>
       </c>
       <c r="Z105">
         <v>5640035.7</v>
@@ -11237,7 +11237,7 @@
         <v>-1.1</v>
       </c>
       <c r="AF105">
-        <v>-6.632639022833198</v>
+        <v>-3.631809476235948</v>
       </c>
       <c r="AG105">
         <v>3.284189289547546</v>
@@ -11313,13 +11313,13 @@
         <v>3.358568969253106</v>
       </c>
       <c r="W106">
-        <v>89.59</v>
+        <v>87.90499999999999</v>
       </c>
       <c r="X106">
-        <v>94.55615795990946</v>
+        <v>93.45204636261036</v>
       </c>
       <c r="Y106">
-        <v>-5.252072490101634</v>
+        <v>-5.935714174825946</v>
       </c>
       <c r="Z106">
         <v>5683722.3</v>
@@ -11340,7 +11340,7 @@
         <v>-0.84</v>
       </c>
       <c r="AF106">
-        <v>-5.695071212967006</v>
+        <v>-5.134436480405958</v>
       </c>
       <c r="AG106">
         <v>3.289749188616797</v>
@@ -11416,13 +11416,13 @@
         <v>3.452979550205293</v>
       </c>
       <c r="W107">
-        <v>92.87</v>
+        <v>88.77833333333332</v>
       </c>
       <c r="X107">
-        <v>94.98060145789576</v>
+        <v>93.87438321316887</v>
       </c>
       <c r="Y107">
-        <v>-2.222139495327757</v>
+        <v>-5.428584141281112</v>
       </c>
       <c r="Z107">
         <v>5716978</v>
@@ -11443,7 +11443,7 @@
         <v>-0.55</v>
       </c>
       <c r="AF107">
-        <v>-5.252072490101634</v>
+        <v>-5.935714174825946</v>
       </c>
       <c r="AG107">
         <v>3.358568969253106</v>
@@ -11519,13 +11519,13 @@
         <v>3.538790945698267</v>
       </c>
       <c r="W108">
-        <v>94.97</v>
+        <v>90.12333333333333</v>
       </c>
       <c r="X108">
-        <v>95.40356549100837</v>
+        <v>94.29642933819815</v>
       </c>
       <c r="Y108">
-        <v>-0.4544541797541379</v>
+        <v>-4.425507979626497</v>
       </c>
       <c r="Z108">
         <v>5745161.4</v>
@@ -11546,7 +11546,7 @@
         <v>-0.5</v>
       </c>
       <c r="AF108">
-        <v>-2.222139495327757</v>
+        <v>-5.428584141281112</v>
       </c>
       <c r="AG108">
         <v>3.452979550205293</v>
@@ -11622,13 +11622,13 @@
         <v>3.628558362335221</v>
       </c>
       <c r="W109">
-        <v>96.64</v>
+        <v>91.72166666666665</v>
       </c>
       <c r="X109">
-        <v>95.82445170558032</v>
+        <v>94.71767004625586</v>
       </c>
       <c r="Y109">
-        <v>0.8510857927217286</v>
+        <v>-3.163088131418457</v>
       </c>
       <c r="Z109">
         <v>5778953</v>
@@ -11649,7 +11649,7 @@
         <v>0.16</v>
       </c>
       <c r="AF109">
-        <v>-0.4544541797541379</v>
+        <v>-4.425507979626497</v>
       </c>
       <c r="AG109">
         <v>3.538790945698267</v>
@@ -11725,13 +11725,13 @@
         <v>3.546880139560571</v>
       </c>
       <c r="W110">
-        <v>93.33</v>
+        <v>92.69499999999999</v>
       </c>
       <c r="X110">
-        <v>96.24265840253202</v>
+        <v>95.13755844608474</v>
       </c>
       <c r="Y110">
-        <v>-3.026369440409582</v>
+        <v>-2.567396605483585</v>
       </c>
       <c r="Z110">
         <v>5800025.9</v>
@@ -11752,7 +11752,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AF110">
-        <v>0.8510857927217286</v>
+        <v>-3.163088131418457</v>
       </c>
       <c r="AG110">
         <v>3.628558362335221</v>
@@ -11828,13 +11828,13 @@
         <v>3.349414225023639</v>
       </c>
       <c r="W111">
-        <v>98.77</v>
+        <v>94.36166666666666</v>
       </c>
       <c r="X111">
-        <v>96.65759017559411</v>
+        <v>95.55552452911742</v>
       </c>
       <c r="Y111">
-        <v>2.185456745371317</v>
+        <v>-1.249386540792796</v>
       </c>
       <c r="Z111">
         <v>5811266.1</v>
@@ -11855,7 +11855,7 @@
         <v>0.54</v>
       </c>
       <c r="AF111">
-        <v>-3.026369440409582</v>
+        <v>-2.567396605483585</v>
       </c>
       <c r="AG111">
         <v>3.546880139560571</v>
@@ -11931,13 +11931,13 @@
         <v>3.100346989111991</v>
       </c>
       <c r="W112">
-        <v>106.96</v>
+        <v>97.25666666666666</v>
       </c>
       <c r="X112">
-        <v>97.06862914428199</v>
+        <v>95.97097943988555</v>
       </c>
       <c r="Y112">
-        <v>10.19007988772105</v>
+        <v>1.339662504524552</v>
       </c>
       <c r="Z112">
         <v>5849624.5</v>
@@ -11958,7 +11958,7 @@
         <v>0.62</v>
       </c>
       <c r="AF112">
-        <v>2.185456745371317</v>
+        <v>-1.249386540792796</v>
       </c>
       <c r="AG112">
         <v>3.349414225023639</v>
@@ -12034,13 +12034,13 @@
         <v>2.79890583073823</v>
       </c>
       <c r="W113">
-        <v>103.69</v>
+        <v>99.05999999999999</v>
       </c>
       <c r="X113">
-        <v>97.4751737275692</v>
+        <v>96.38332511105386</v>
       </c>
       <c r="Y113">
-        <v>6.375804253296802</v>
+        <v>2.777114076384102</v>
       </c>
       <c r="Z113">
         <v>5867021.2</v>
@@ -12061,7 +12061,7 @@
         <v>0.67</v>
       </c>
       <c r="AF113">
-        <v>10.19007988772105</v>
+        <v>1.339662504524552</v>
       </c>
       <c r="AG113">
         <v>3.100346989111991</v>
@@ -12137,13 +12137,13 @@
         <v>2.518896741674248</v>
       </c>
       <c r="W114">
-        <v>104.13</v>
+        <v>100.5866666666667</v>
       </c>
       <c r="X114">
-        <v>97.87669866673536</v>
+        <v>96.79197339571354</v>
       </c>
       <c r="Y114">
-        <v>6.388958167210745</v>
+        <v>3.92046275928204</v>
       </c>
       <c r="Z114">
         <v>5878032.1</v>
@@ -12164,7 +12164,7 @@
         <v>0.73</v>
       </c>
       <c r="AF114">
-        <v>6.375804253296802</v>
+        <v>2.777114076384102</v>
       </c>
       <c r="AG114">
         <v>2.79890583073823</v>
@@ -12240,13 +12240,13 @@
         <v>2.200828942911803</v>
       </c>
       <c r="W115">
-        <v>105.07</v>
+        <v>101.9916666666667</v>
       </c>
       <c r="X115">
-        <v>98.27272665696634</v>
+        <v>97.19635680031128</v>
       </c>
       <c r="Y115">
-        <v>6.916744425704624</v>
+        <v>4.933631284356976</v>
       </c>
       <c r="Z115">
         <v>5907266.7</v>
@@ -12267,7 +12267,7 @@
         <v>0.65</v>
       </c>
       <c r="AF115">
-        <v>6.388958167210745</v>
+        <v>3.92046275928204</v>
       </c>
       <c r="AG115">
         <v>2.518896741674248</v>
@@ -12343,13 +12343,13 @@
         <v>1.817370196123513</v>
       </c>
       <c r="W116">
-        <v>108.32</v>
+        <v>104.49</v>
       </c>
       <c r="X116">
-        <v>98.66282864423033</v>
+        <v>97.59593711133407</v>
       </c>
       <c r="Y116">
-        <v>9.788054415703606</v>
+        <v>7.063883080298128</v>
       </c>
       <c r="Z116">
         <v>5927538.5</v>
@@ -12370,7 +12370,7 @@
         <v>0.77</v>
       </c>
       <c r="AF116">
-        <v>6.916744425704624</v>
+        <v>4.933631284356976</v>
       </c>
       <c r="AG116">
         <v>2.200828942911803</v>
@@ -12446,13 +12446,13 @@
         <v>1.30728844079524</v>
       </c>
       <c r="W117">
-        <v>116.79</v>
+        <v>107.4933333333333</v>
       </c>
       <c r="X117">
-        <v>99.04662802259017</v>
+        <v>97.99021311611746</v>
       </c>
       <c r="Y117">
-        <v>17.91416056421728</v>
+        <v>9.698029951169463</v>
       </c>
       <c r="Z117">
         <v>5945152.7</v>
@@ -12473,7 +12473,7 @@
         <v>0.86</v>
       </c>
       <c r="AF117">
-        <v>9.788054415703606</v>
+        <v>7.063883080298128</v>
       </c>
       <c r="AG117">
         <v>1.817370196123513</v>
@@ -12549,13 +12549,13 @@
         <v>0.6373881577093954</v>
       </c>
       <c r="W118">
-        <v>129.34</v>
+        <v>111.2233333333333</v>
       </c>
       <c r="X118">
-        <v>99.42382270132363</v>
+        <v>98.37873679692586</v>
       </c>
       <c r="Y118">
-        <v>30.08954643450668</v>
+        <v>13.05627308767072</v>
       </c>
       <c r="Z118">
         <v>5953369.4</v>
@@ -12576,7 +12576,7 @@
         <v>0.74</v>
       </c>
       <c r="AF118">
-        <v>17.91416056421728</v>
+        <v>9.698029951169463</v>
       </c>
       <c r="AG118">
         <v>1.30728844079524</v>
@@ -12652,13 +12652,13 @@
         <v>0.03781945153018551</v>
       </c>
       <c r="W119">
-        <v>127.47</v>
+        <v>115.1866666666667</v>
       </c>
       <c r="X119">
-        <v>99.79424749844034</v>
+        <v>98.76113346256935</v>
       </c>
       <c r="Y119">
-        <v>27.73281345900443</v>
+        <v>16.63157623674159</v>
       </c>
       <c r="Z119">
         <v>5965712.9</v>
@@ -12679,7 +12679,7 @@
         <v>0.43</v>
       </c>
       <c r="AF119">
-        <v>30.08954643450668</v>
+        <v>13.05627308767072</v>
       </c>
       <c r="AG119">
         <v>0.6373881577093954</v>
@@ -12755,13 +12755,13 @@
         <v>-0.3291516863188293</v>
       </c>
       <c r="W120">
-        <v>121.97</v>
+        <v>118.16</v>
       </c>
       <c r="X120">
-        <v>100.1579680666521</v>
+        <v>99.13712753139828</v>
       </c>
       <c r="Y120">
-        <v>21.77763023190786</v>
+        <v>19.18844427137236</v>
       </c>
       <c r="Z120">
         <v>5980761.4</v>
@@ -12782,7 +12782,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AF120">
-        <v>27.73281345900443</v>
+        <v>16.63157623674159</v>
       </c>
       <c r="AG120">
         <v>0.03781945153018551</v>
@@ -12858,13 +12858,13 @@
         <v>-0.3539947787672415</v>
       </c>
       <c r="W121">
-        <v>122.1</v>
+        <v>120.9983333333333</v>
       </c>
       <c r="X121">
-        <v>100.5152636061429</v>
+        <v>99.50657016198967</v>
       </c>
       <c r="Y121">
-        <v>21.47408823244434</v>
+        <v>21.59833580471782</v>
       </c>
       <c r="Z121">
         <v>5995787</v>
@@ -12885,7 +12885,7 @@
         <v>0.88</v>
       </c>
       <c r="AF121">
-        <v>21.77763023190786</v>
+        <v>19.18844427137236</v>
       </c>
       <c r="AG121">
         <v>-0.3291516863188293</v>
@@ -12961,13 +12961,13 @@
         <v>-0.4019499618723166</v>
       </c>
       <c r="W122">
-        <v>122.64</v>
+        <v>123.385</v>
       </c>
       <c r="X122">
-        <v>100.8665816198126</v>
+        <v>99.86945929434245</v>
       </c>
       <c r="Y122">
-        <v>21.58635499540966</v>
+        <v>23.54627818335418</v>
       </c>
       <c r="Z122">
         <v>6003128.3</v>
@@ -12988,7 +12988,7 @@
         <v>1.86</v>
       </c>
       <c r="AF122">
-        <v>21.47408823244434</v>
+        <v>21.59833580471782</v>
       </c>
       <c r="AG122">
         <v>-0.3539947787672415</v>
@@ -13064,13 +13064,13 @@
         <v>-0.5088186108317627</v>
       </c>
       <c r="W123">
-        <v>120.27</v>
+        <v>123.965</v>
       </c>
       <c r="X123">
-        <v>101.2125361594543</v>
+        <v>100.2259586999629</v>
       </c>
       <c r="Y123">
-        <v>18.82915354528982</v>
+        <v>23.68552180289185</v>
       </c>
       <c r="Z123">
         <v>6026858.5</v>
@@ -13091,7 +13091,7 @@
         <v>1.74</v>
       </c>
       <c r="AF123">
-        <v>21.58635499540966</v>
+        <v>23.54627818335418</v>
       </c>
       <c r="AG123">
         <v>-0.4019499618723166</v>
@@ -13167,13 +13167,13 @@
         <v>-0.8249597998087332</v>
       </c>
       <c r="W124">
-        <v>112.65</v>
+        <v>121.1833333333333</v>
       </c>
       <c r="X124">
-        <v>101.5539092816307</v>
+        <v>100.57641359743</v>
       </c>
       <c r="Y124">
-        <v>10.92630583781613</v>
+        <v>20.4888193949579</v>
       </c>
       <c r="Z124">
         <v>6039452.6</v>
@@ -13194,7 +13194,7 @@
         <v>2.08</v>
       </c>
       <c r="AF124">
-        <v>18.82915354528982</v>
+        <v>23.68552180289185</v>
       </c>
       <c r="AG124">
         <v>-0.5088186108317627</v>
@@ -13270,13 +13270,13 @@
         <v>-1.063094275563259</v>
       </c>
       <c r="W125">
-        <v>110.04</v>
+        <v>118.2783333333333</v>
       </c>
       <c r="X125">
-        <v>101.8916300912372</v>
+        <v>100.9213523769369</v>
       </c>
       <c r="Y125">
-        <v>7.997094463467169</v>
+        <v>17.19852196546954</v>
       </c>
       <c r="Z125">
         <v>6063168.7</v>
@@ -13297,7 +13297,7 @@
         <v>2.25</v>
       </c>
       <c r="AF125">
-        <v>10.92630583781613</v>
+        <v>20.4888193949579</v>
       </c>
       <c r="AG125">
         <v>-0.8249597998087332</v>
@@ -13373,13 +13373,13 @@
         <v>-1.388942326168652</v>
       </c>
       <c r="W126">
-        <v>108.67</v>
+        <v>116.0616666666667</v>
       </c>
       <c r="X126">
-        <v>102.2267133111534</v>
+        <v>101.2614624326878</v>
       </c>
       <c r="Y126">
-        <v>6.302938322231699</v>
+        <v>14.61583101648081</v>
       </c>
       <c r="Z126">
         <v>6087403.4</v>
@@ -13400,7 +13400,7 @@
         <v>2.3</v>
       </c>
       <c r="AF126">
-        <v>7.997094463467169</v>
+        <v>17.19852196546954</v>
       </c>
       <c r="AG126">
         <v>-1.063094275563259</v>
@@ -13476,13 +13476,13 @@
         <v>-1.688386411419684</v>
       </c>
       <c r="W127">
-        <v>104.88</v>
+        <v>113.1916666666667</v>
       </c>
       <c r="X127">
-        <v>102.5602365374836</v>
+        <v>101.5975650862092</v>
       </c>
       <c r="Y127">
-        <v>2.261854633758187</v>
+        <v>11.41179079500521</v>
       </c>
       <c r="Z127">
         <v>6118558.5</v>
@@ -13503,7 +13503,7 @@
         <v>2.47</v>
       </c>
       <c r="AF127">
-        <v>6.302938322231699</v>
+        <v>14.61583101648081</v>
       </c>
       <c r="AG127">
         <v>-1.388942326168652</v>
@@ -13579,13 +13579,13 @@
         <v>-1.937577322878492</v>
       </c>
       <c r="W128">
-        <v>99.55</v>
+        <v>109.3433333333333</v>
       </c>
       <c r="X128">
-        <v>102.8933270830499</v>
+        <v>101.9305958581345</v>
       </c>
       <c r="Y128">
-        <v>-3.24931380666833</v>
+        <v>7.272338018621771</v>
       </c>
       <c r="Z128">
         <v>6133331.9</v>
@@ -13606,7 +13606,7 @@
         <v>2.47</v>
       </c>
       <c r="AF128">
-        <v>2.261854633758187</v>
+        <v>11.41179079500521</v>
       </c>
       <c r="AG128">
         <v>-1.688386411419684</v>
@@ -13682,13 +13682,13 @@
         <v>-2.14821636512158</v>
       </c>
       <c r="W129">
-        <v>98.17</v>
+        <v>105.66</v>
       </c>
       <c r="X129">
-        <v>103.2271301600841</v>
+        <v>102.2615797297567</v>
       </c>
       <c r="Y129">
-        <v>-4.899032020207839</v>
+        <v>3.323262049368081</v>
       </c>
       <c r="Z129">
         <v>6162708.9</v>
@@ -13709,7 +13709,7 @@
         <v>2.51</v>
       </c>
       <c r="AF129">
-        <v>-3.24931380666833</v>
+        <v>7.272338018621771</v>
       </c>
       <c r="AG129">
         <v>-1.937577322878492</v>
@@ -13785,13 +13785,13 @@
         <v>-2.296653030245299</v>
       </c>
       <c r="W130">
-        <v>99.09999999999999</v>
+        <v>103.4016666666667</v>
       </c>
       <c r="X130">
-        <v>103.5627651835413</v>
+        <v>102.5915988794178</v>
       </c>
       <c r="Y130">
-        <v>-4.309237181560476</v>
+        <v>0.7896044082527087</v>
       </c>
       <c r="Z130">
         <v>6187501.9</v>
@@ -13812,7 +13812,7 @@
         <v>2.74</v>
       </c>
       <c r="AF130">
-        <v>-4.899032020207839</v>
+        <v>3.323262049368081</v>
       </c>
       <c r="AG130">
         <v>-2.14821636512158</v>
@@ -13888,13 +13888,13 @@
         <v>-2.505340616782159</v>
       </c>
       <c r="W131">
-        <v>95.95</v>
+        <v>101.0533333333333</v>
       </c>
       <c r="X131">
-        <v>103.9013125473102</v>
+        <v>102.9217617078385</v>
       </c>
       <c r="Y131">
-        <v>-7.652754669186357</v>
+        <v>-1.815387089670106</v>
       </c>
       <c r="Z131">
         <v>6205866.7</v>
@@ -13915,7 +13915,7 @@
         <v>3.04</v>
       </c>
       <c r="AF131">
-        <v>-4.309237181560476</v>
+        <v>0.7896044082527087</v>
       </c>
       <c r="AG131">
         <v>-2.296653030245299</v>
@@ -13991,13 +13991,13 @@
         <v>-2.744506166805494</v>
       </c>
       <c r="W132">
-        <v>98.84</v>
+        <v>99.41500000000001</v>
       </c>
       <c r="X132">
-        <v>104.2438182103632</v>
+        <v>103.2531828662621</v>
       </c>
       <c r="Y132">
-        <v>-5.183826056196783</v>
+        <v>-3.717253802464804</v>
       </c>
       <c r="Z132">
         <v>6238414.5</v>
@@ -14018,7 +14018,7 @@
         <v>2.21</v>
       </c>
       <c r="AF132">
-        <v>-7.652754669186357</v>
+        <v>-1.815387089670106</v>
       </c>
       <c r="AG132">
         <v>-2.505340616782159</v>
@@ -14094,13 +14094,13 @@
         <v>-3.006202310188633</v>
       </c>
       <c r="W133">
-        <v>97.55</v>
+        <v>98.19333333333333</v>
       </c>
       <c r="X133">
-        <v>104.5912667789521</v>
+        <v>103.5869625890465</v>
       </c>
       <c r="Y133">
-        <v>-6.732174679395952</v>
+        <v>-5.206861096131332</v>
       </c>
       <c r="Z133">
         <v>6269328</v>
@@ -14121,7 +14121,7 @@
         <v>2.51</v>
       </c>
       <c r="AF133">
-        <v>-5.183826056196783</v>
+        <v>-3.717253802464804</v>
       </c>
       <c r="AG133">
         <v>-2.744506166805494</v>
@@ -14197,13 +14197,13 @@
         <v>-3.119495544015083</v>
       </c>
       <c r="W134">
-        <v>93.08</v>
+        <v>97.11499999999999</v>
       </c>
       <c r="X134">
-        <v>104.9446011632011</v>
+        <v>103.9241714949414</v>
       </c>
       <c r="Y134">
-        <v>-11.30558507221372</v>
+        <v>-6.552057521356214</v>
       </c>
       <c r="Z134">
         <v>6301443.4</v>
@@ -14224,7 +14224,7 @@
         <v>2.48</v>
       </c>
       <c r="AF134">
-        <v>-6.732174679395952</v>
+        <v>-5.206861096131332</v>
       </c>
       <c r="AG134">
         <v>-3.006202310188633</v>
@@ -14300,13 +14300,13 @@
         <v>-3.181928690341373</v>
       </c>
       <c r="W135">
-        <v>91.5</v>
+        <v>96.00333333333333</v>
       </c>
       <c r="X135">
-        <v>105.304709942472</v>
+        <v>104.2658385851862</v>
       </c>
       <c r="Y135">
-        <v>-13.10929962203355</v>
+        <v>-7.924460555795898</v>
       </c>
       <c r="Z135">
         <v>6321826.6</v>
@@ -14327,7 +14327,7 @@
         <v>2.33</v>
       </c>
       <c r="AF135">
-        <v>-11.30558507221372</v>
+        <v>-6.552057521356214</v>
       </c>
       <c r="AG135">
         <v>-3.119495544015083</v>
@@ -14403,13 +14403,13 @@
         <v>-3.164287607540661</v>
       </c>
       <c r="W136">
-        <v>92.12</v>
+        <v>94.83999999999999</v>
       </c>
       <c r="X136">
-        <v>105.6723901482775</v>
+        <v>104.6129403211173</v>
       </c>
       <c r="Y136">
-        <v>-12.82491115158944</v>
+        <v>-9.341999461174243</v>
       </c>
       <c r="Z136">
         <v>6354593.3</v>
@@ -14430,7 +14430,7 @@
         <v>2.33</v>
       </c>
       <c r="AF136">
-        <v>-13.10929962203355</v>
+        <v>-7.924460555795898</v>
       </c>
       <c r="AG136">
         <v>-3.181928690341373</v>
@@ -14506,13 +14506,13 @@
         <v>-3.056290718191612</v>
       </c>
       <c r="W137">
-        <v>93.26000000000001</v>
+        <v>94.39166666666667</v>
       </c>
       <c r="X137">
-        <v>106.048332294308</v>
+        <v>104.9663894101725</v>
       </c>
       <c r="Y137">
-        <v>-12.05896596168763</v>
+        <v>-10.07438933827046</v>
       </c>
       <c r="Z137">
         <v>6371360.8</v>
@@ -14533,7 +14533,7 @@
         <v>2.33</v>
       </c>
       <c r="AF137">
-        <v>-12.82491115158944</v>
+        <v>-9.341999461174243</v>
       </c>
       <c r="AG137">
         <v>-3.164287607540661</v>
@@ -14609,13 +14609,13 @@
         <v>-2.775142705129097</v>
       </c>
       <c r="W138">
-        <v>95.64</v>
+        <v>93.85833333333333</v>
       </c>
       <c r="X138">
-        <v>106.4331223233403</v>
+        <v>105.3270231512993</v>
       </c>
       <c r="Y138">
-        <v>-10.14075514063294</v>
+        <v>-10.88864896664886</v>
       </c>
       <c r="Z138">
         <v>6405809.5</v>
@@ -14636,7 +14636,7 @@
         <v>2.28</v>
       </c>
       <c r="AF138">
-        <v>-12.05896596168763</v>
+        <v>-10.07438933827046</v>
       </c>
       <c r="AG138">
         <v>-3.056290718191612</v>
@@ -14712,13 +14712,13 @@
         <v>-2.43099225779112</v>
       </c>
       <c r="W139">
-        <v>99.23</v>
+        <v>94.13833333333332</v>
       </c>
       <c r="X139">
-        <v>106.8272475027497</v>
+        <v>105.6955972483616</v>
       </c>
       <c r="Y139">
-        <v>-7.111713238286055</v>
+        <v>-10.93447997447921</v>
       </c>
       <c r="Z139">
         <v>6426159.9</v>
@@ -14739,7 +14739,7 @@
         <v>2.46</v>
       </c>
       <c r="AF139">
-        <v>-10.14075514063294</v>
+        <v>-10.88864896664886</v>
       </c>
       <c r="AG139">
         <v>-2.775142705129097</v>
@@ -14815,13 +14815,13 @@
         <v>-2.134147031525679</v>
       </c>
       <c r="W140">
-        <v>97.45</v>
+        <v>94.86666666666667</v>
       </c>
       <c r="X140">
-        <v>107.2311118196453</v>
+        <v>106.0727789122476</v>
       </c>
       <c r="Y140">
-        <v>-9.121524204744214</v>
+        <v>-10.56455045346888</v>
       </c>
       <c r="Z140">
         <v>6452587.2</v>
@@ -14842,7 +14842,7 @@
         <v>2.6</v>
       </c>
       <c r="AF140">
-        <v>-7.111713238286055</v>
+        <v>-10.93447997447921</v>
       </c>
       <c r="AG140">
         <v>-2.43099225779112</v>
@@ -14918,13 +14918,13 @@
         <v>-1.901854861727925</v>
       </c>
       <c r="W141">
-        <v>97.36</v>
+        <v>95.84333333333332</v>
       </c>
       <c r="X141">
-        <v>107.6450606404</v>
+        <v>106.459146177426</v>
       </c>
       <c r="Y141">
-        <v>-9.554605273304951</v>
+        <v>-9.971724577238572</v>
       </c>
       <c r="Z141">
         <v>6477780.4</v>
@@ -14945,7 +14945,7 @@
         <v>2.64</v>
       </c>
       <c r="AF141">
-        <v>-9.121524204744214</v>
+        <v>-10.56455045346888</v>
       </c>
       <c r="AG141">
         <v>-2.134147031525679</v>
@@ -15021,13 +15021,13 @@
         <v>-1.707202477783376</v>
       </c>
       <c r="W142">
-        <v>97.51000000000001</v>
+        <v>96.74166666666667</v>
       </c>
       <c r="X142">
-        <v>108.0693638598452</v>
+        <v>106.8551906114503</v>
       </c>
       <c r="Y142">
-        <v>-9.770913312249741</v>
+        <v>-9.464700672856107</v>
       </c>
       <c r="Z142">
         <v>6497619</v>
@@ -15048,7 +15048,7 @@
         <v>2.44</v>
       </c>
       <c r="AF142">
-        <v>-9.554605273304951</v>
+        <v>-9.971724577238572</v>
       </c>
       <c r="AG142">
         <v>-1.901854861727925</v>
@@ -15124,13 +15124,13 @@
         <v>-1.510481940644293</v>
       </c>
       <c r="W143">
-        <v>97.91</v>
+        <v>97.51666666666667</v>
       </c>
       <c r="X143">
-        <v>108.5042120127758</v>
+        <v>107.261321869737</v>
       </c>
       <c r="Y143">
-        <v>-9.763871665671731</v>
+        <v>-9.084966540785988</v>
       </c>
       <c r="Z143">
         <v>6526728.1</v>
@@ -15151,7 +15151,7 @@
         <v>2.35</v>
       </c>
       <c r="AF143">
-        <v>-9.770913312249741</v>
+        <v>-9.464700672856107</v>
       </c>
       <c r="AG143">
         <v>-1.707202477783376</v>
@@ -15227,13 +15227,13 @@
         <v>-1.315346724734201</v>
       </c>
       <c r="W144">
-        <v>99.87</v>
+        <v>98.22166666666665</v>
       </c>
       <c r="X144">
-        <v>108.949714157414</v>
+        <v>107.6778715712518</v>
       </c>
       <c r="Y144">
-        <v>-8.333857713747939</v>
+        <v>-8.781938913352217</v>
       </c>
       <c r="Z144">
         <v>6554679.3</v>
@@ -15254,7 +15254,7 @@
         <v>2.87</v>
       </c>
       <c r="AF144">
-        <v>-9.763871665671731</v>
+        <v>-9.084966540785988</v>
       </c>
       <c r="AG144">
         <v>-1.510481940644293</v>
@@ -15330,13 +15330,13 @@
         <v>-1.092086494160283</v>
       </c>
       <c r="W145">
-        <v>100.99</v>
+        <v>98.51499999999999</v>
       </c>
       <c r="X145">
-        <v>109.4058976065181</v>
+        <v>108.1050961447221</v>
       </c>
       <c r="Y145">
-        <v>-7.692361920731338</v>
+        <v>-8.871086088192982</v>
       </c>
       <c r="Z145">
         <v>6585479</v>
@@ -15357,7 +15357,7 @@
         <v>2.27</v>
       </c>
       <c r="AF145">
-        <v>-8.333857713747939</v>
+        <v>-8.781938913352217</v>
       </c>
       <c r="AG145">
         <v>-1.315346724734201</v>
@@ -15433,13 +15433,13 @@
         <v>-0.8672284352160498</v>
       </c>
       <c r="W146">
-        <v>99.48</v>
+        <v>98.85333333333334</v>
       </c>
       <c r="X146">
-        <v>109.872719613325</v>
+        <v>108.5431790543287</v>
       </c>
       <c r="Y146">
-        <v>-9.458871728942453</v>
+        <v>-8.927180690133818</v>
       </c>
       <c r="Z146">
         <v>6624394</v>
@@ -15460,7 +15460,7 @@
         <v>1.68</v>
       </c>
       <c r="AF146">
-        <v>-7.692361920731338</v>
+        <v>-8.871086088192982</v>
       </c>
       <c r="AG146">
         <v>-1.092086494160283</v>
@@ -15536,13 +15536,13 @@
         <v>-0.7096353717529036</v>
       </c>
       <c r="W147">
-        <v>101.89</v>
+        <v>99.60833333333333</v>
       </c>
       <c r="X147">
-        <v>110.3500724935884</v>
+        <v>108.9922297665989</v>
       </c>
       <c r="Y147">
-        <v>-7.666576289816163</v>
+        <v>-8.609693051844802</v>
       </c>
       <c r="Z147">
         <v>6653661.3</v>
@@ -15563,7 +15563,7 @@
         <v>1.51</v>
       </c>
       <c r="AF147">
-        <v>-9.458871728942453</v>
+        <v>-8.927180690133818</v>
       </c>
       <c r="AG147">
         <v>-0.8672284352160498</v>
@@ -15639,13 +15639,13 @@
         <v>-0.6238048558358855</v>
       </c>
       <c r="W148">
-        <v>102.57</v>
+        <v>100.4516666666667</v>
       </c>
       <c r="X148">
-        <v>110.8377683723259</v>
+        <v>109.4522829807316</v>
       </c>
       <c r="Y148">
-        <v>-7.459342148204263</v>
+        <v>-8.223324419509348</v>
       </c>
       <c r="Z148">
         <v>6682355</v>
@@ -15666,7 +15666,7 @@
         <v>1.42</v>
       </c>
       <c r="AF148">
-        <v>-7.666576289816163</v>
+        <v>-8.609693051844802</v>
       </c>
       <c r="AG148">
         <v>-0.7096353717529036</v>
@@ -15742,13 +15742,13 @@
         <v>-0.6753226377730681</v>
       </c>
       <c r="W149">
-        <v>106.74</v>
+        <v>101.9233333333333</v>
       </c>
       <c r="X149">
-        <v>111.3355540962174</v>
+        <v>109.9233009893152</v>
       </c>
       <c r="Y149">
-        <v>-4.127660865859461</v>
+        <v>-7.277772395826664</v>
       </c>
       <c r="Z149">
         <v>6732545.5</v>
@@ -15769,7 +15769,7 @@
         <v>1.62</v>
       </c>
       <c r="AF149">
-        <v>-7.459342148204263</v>
+        <v>-8.223324419509348</v>
       </c>
       <c r="AG149">
         <v>-0.6238048558358855</v>
@@ -15845,13 +15845,13 @@
         <v>-0.8338632744343988</v>
       </c>
       <c r="W150">
-        <v>110</v>
+        <v>103.6116666666667</v>
       </c>
       <c r="X150">
-        <v>111.8431127174335</v>
+        <v>110.4051766357414</v>
       </c>
       <c r="Y150">
-        <v>-1.6479447617754</v>
+        <v>-6.153253113745317</v>
       </c>
       <c r="Z150">
         <v>6743822.8</v>
@@ -15872,7 +15872,7 @@
         <v>1.76</v>
       </c>
       <c r="AF150">
-        <v>-4.127660865859461</v>
+        <v>-7.277772395826664</v>
       </c>
       <c r="AG150">
         <v>-0.6753226377730681</v>
@@ -15948,13 +15948,13 @@
         <v>-1.024442568227313</v>
       </c>
       <c r="W151">
-        <v>110.84</v>
+        <v>105.2533333333333</v>
       </c>
       <c r="X151">
-        <v>112.3600918286219</v>
+        <v>110.8977410352552</v>
       </c>
       <c r="Y151">
-        <v>-1.352875210301896</v>
+        <v>-5.089740917380348</v>
       </c>
       <c r="Z151">
         <v>6786171.2</v>
@@ -15975,7 +15975,7 @@
         <v>1.42</v>
       </c>
       <c r="AF151">
-        <v>-1.6479447617754</v>
+        <v>-6.153253113745317</v>
       </c>
       <c r="AG151">
         <v>-0.8338632744343988</v>
@@ -16051,13 +16051,13 @@
         <v>-1.100449541490667</v>
       </c>
       <c r="W152">
-        <v>111.84</v>
+        <v>107.3133333333333</v>
       </c>
       <c r="X152">
-        <v>112.8861248008832</v>
+        <v>111.4007728840408</v>
       </c>
       <c r="Y152">
-        <v>-0.9267080455887977</v>
+        <v>-3.669130334456627</v>
       </c>
       <c r="Z152">
         <v>6830095.2</v>
@@ -16078,7 +16078,7 @@
         <v>1.32</v>
       </c>
       <c r="AF152">
-        <v>-1.352875210301896</v>
+        <v>-5.089740917380348</v>
       </c>
       <c r="AG152">
         <v>-1.024442568227313</v>
@@ -16154,13 +16154,13 @@
         <v>-1.01996495280261</v>
       </c>
       <c r="W153">
-        <v>113.82</v>
+        <v>109.3016666666667</v>
       </c>
       <c r="X153">
-        <v>113.4208332762131</v>
+        <v>111.914007325758</v>
       </c>
       <c r="Y153">
-        <v>0.3519342190114072</v>
+        <v>-2.334239226629975</v>
       </c>
       <c r="Z153">
         <v>6873225.6</v>
@@ -16181,7 +16181,7 @@
         <v>1.13</v>
       </c>
       <c r="AF153">
-        <v>-0.9267080455887977</v>
+        <v>-3.669130334456627</v>
       </c>
       <c r="AG153">
         <v>-1.100449541490667</v>
@@ -16257,13 +16257,13 @@
         <v>-0.8984667068786756</v>
       </c>
       <c r="W154">
-        <v>116.32</v>
+        <v>111.5933333333333</v>
       </c>
       <c r="X154">
-        <v>113.9638308246578</v>
+        <v>112.4371479651794</v>
       </c>
       <c r="Y154">
-        <v>2.067471019789879</v>
+        <v>-0.750476730437355</v>
       </c>
       <c r="Z154">
         <v>6905408.5</v>
@@ -16284,7 +16284,7 @@
         <v>1.23</v>
       </c>
       <c r="AF154">
-        <v>0.3519342190114072</v>
+        <v>-2.334239226629975</v>
       </c>
       <c r="AG154">
         <v>-1.01996495280261</v>
@@ -16360,13 +16360,13 @@
         <v>-0.824712742322975</v>
       </c>
       <c r="W155">
-        <v>106.32</v>
+        <v>111.5233333333333</v>
       </c>
       <c r="X155">
-        <v>114.5147340962518</v>
+        <v>112.9698782501266</v>
       </c>
       <c r="Y155">
-        <v>-7.156052154270343</v>
+        <v>-1.280469572243426</v>
       </c>
       <c r="Z155">
         <v>6948683.1</v>
@@ -16387,7 +16387,7 @@
         <v>1.27</v>
       </c>
       <c r="AF155">
-        <v>2.067471019789879</v>
+        <v>-0.750476730437355</v>
       </c>
       <c r="AG155">
         <v>-0.8984667068786756</v>
@@ -16463,13 +16463,13 @@
         <v>-0.8521648555274708</v>
       </c>
       <c r="W156">
-        <v>106.72</v>
+        <v>110.9766666666666</v>
       </c>
       <c r="X156">
-        <v>115.0731779213491</v>
+        <v>113.5118751175067</v>
       </c>
       <c r="Y156">
-        <v>-7.259013848612394</v>
+        <v>-2.233430157166927</v>
       </c>
       <c r="Z156">
         <v>6982118.5</v>
@@ -16490,7 +16490,7 @@
         <v>1.22</v>
       </c>
       <c r="AF156">
-        <v>-7.156052154270343</v>
+        <v>-1.280469572243426</v>
       </c>
       <c r="AG156">
         <v>-0.824712742322975</v>
@@ -16566,13 +16566,13 @@
         <v>-0.9430073828430641</v>
       </c>
       <c r="W157">
-        <v>109.46</v>
+        <v>110.7466666666667</v>
       </c>
       <c r="X157">
-        <v>115.6387338993295</v>
+        <v>114.0628043426161</v>
       </c>
       <c r="Y157">
-        <v>-5.343135203044048</v>
+        <v>-2.907291027133285</v>
       </c>
       <c r="Z157">
         <v>7004141</v>
@@ -16593,7 +16593,7 @@
         <v>1.42</v>
       </c>
       <c r="AF157">
-        <v>-7.259013848612394</v>
+        <v>-2.233430157166927</v>
       </c>
       <c r="AG157">
         <v>-0.8521648555274708</v>
@@ -16669,13 +16669,13 @@
         <v>-1.048520774917028</v>
       </c>
       <c r="W158">
-        <v>106.18</v>
+        <v>109.8033333333333</v>
       </c>
       <c r="X158">
-        <v>116.2109091760393</v>
+        <v>114.6223121389558</v>
       </c>
       <c r="Y158">
-        <v>-8.631641596439311</v>
+        <v>-4.204224043029637</v>
       </c>
       <c r="Z158">
         <v>7029631.6</v>
@@ -16696,7 +16696,7 @@
         <v>1.55</v>
       </c>
       <c r="AF158">
-        <v>-5.343135203044048</v>
+        <v>-2.907291027133285</v>
       </c>
       <c r="AG158">
         <v>-0.9430073828430641</v>
@@ -16772,13 +16772,13 @@
         <v>-1.128336420375997</v>
       </c>
       <c r="W159">
-        <v>105.64</v>
+        <v>108.44</v>
       </c>
       <c r="X159">
-        <v>116.789163221911</v>
+        <v>115.1900191325458</v>
       </c>
       <c r="Y159">
-        <v>-9.546402178365177</v>
+        <v>-5.859899306708815</v>
       </c>
       <c r="Z159">
         <v>7065598.2</v>
@@ -16799,7 +16799,7 @@
         <v>1.54</v>
       </c>
       <c r="AF159">
-        <v>-8.631641596439311</v>
+        <v>-4.204224043029637</v>
       </c>
       <c r="AG159">
         <v>-1.048520774917028</v>
@@ -16875,13 +16875,13 @@
         <v>-1.182257361929462</v>
       </c>
       <c r="W160">
-        <v>107.76</v>
+        <v>107.0133333333333</v>
       </c>
       <c r="X160">
-        <v>117.3728781083845</v>
+        <v>115.7655087659276</v>
       </c>
       <c r="Y160">
-        <v>-8.190033560826359</v>
+        <v>-7.56026170998031</v>
       </c>
       <c r="Z160">
         <v>7077734.5</v>
@@ -16902,7 +16902,7 @@
         <v>1.5</v>
       </c>
       <c r="AF160">
-        <v>-9.546402178365177</v>
+        <v>-5.859899306708815</v>
       </c>
       <c r="AG160">
         <v>-1.128336420375997</v>
@@ -16978,13 +16978,13 @@
         <v>-1.243070264558555</v>
       </c>
       <c r="W161">
-        <v>108.96</v>
+        <v>107.4533333333333</v>
       </c>
       <c r="X161">
-        <v>117.9613498794061</v>
+        <v>116.3483123981619</v>
       </c>
       <c r="Y161">
-        <v>-7.630762015362135</v>
+        <v>-7.6451294234407</v>
       </c>
       <c r="Z161">
         <v>7102860.6</v>
@@ -17005,7 +17005,7 @@
         <v>1.4</v>
       </c>
       <c r="AF161">
-        <v>-8.190033560826359</v>
+        <v>-7.56026170998031</v>
       </c>
       <c r="AG161">
         <v>-1.182257361929462</v>
@@ -17081,13 +17081,13 @@
         <v>-1.270526367482971</v>
       </c>
       <c r="W162">
-        <v>110.69</v>
+        <v>108.115</v>
       </c>
       <c r="X162">
-        <v>118.5538004054803</v>
+        <v>116.9378938560904</v>
       </c>
       <c r="Y162">
-        <v>-6.633106976397485</v>
+        <v>-7.544939937902662</v>
       </c>
       <c r="Z162">
         <v>7155920</v>
@@ -17108,7 +17108,7 @@
         <v>1.35</v>
       </c>
       <c r="AF162">
-        <v>-7.630762015362135</v>
+        <v>-7.6451294234407</v>
       </c>
       <c r="AG162">
         <v>-1.243070264558555</v>
@@ -17184,13 +17184,13 @@
         <v>-1.417714597299868</v>
       </c>
       <c r="W163">
-        <v>107.71</v>
+        <v>107.8233333333333</v>
       </c>
       <c r="X163">
-        <v>119.1493821022512</v>
+        <v>117.5336483324576</v>
       </c>
       <c r="Y163">
-        <v>-9.600874046022511</v>
+        <v>-8.261731969433583</v>
       </c>
       <c r="Z163">
         <v>7168423.2</v>
@@ -17211,7 +17211,7 @@
         <v>1.4</v>
       </c>
       <c r="AF163">
-        <v>-6.633106976397485</v>
+        <v>-7.544939937902662</v>
       </c>
       <c r="AG163">
         <v>-1.270526367482971</v>
@@ -17287,13 +17287,13 @@
         <v>-1.433150196461486</v>
       </c>
       <c r="W164">
-        <v>106.95</v>
+        <v>107.9516666666667</v>
       </c>
       <c r="X164">
-        <v>119.7471867078904</v>
+        <v>118.1349029421239</v>
       </c>
       <c r="Y164">
-        <v>-10.68683704370246</v>
+        <v>-8.620006468745434</v>
       </c>
       <c r="Z164">
         <v>7208033.2</v>
@@ -17314,7 +17314,7 @@
         <v>1.39</v>
       </c>
       <c r="AF164">
-        <v>-9.600874046022511</v>
+        <v>-8.261731969433583</v>
       </c>
       <c r="AG164">
         <v>-1.417714597299868</v>
@@ -17390,13 +17390,13 @@
         <v>-1.496325464823867</v>
       </c>
       <c r="W165">
-        <v>110.62</v>
+        <v>108.7816666666667</v>
       </c>
       <c r="X165">
-        <v>120.3462176937326</v>
+        <v>118.7409098746795</v>
       </c>
       <c r="Y165">
-        <v>-8.081864042029762</v>
+        <v>-8.387373162732125</v>
       </c>
       <c r="Z165">
         <v>7238471.9</v>
@@ -17417,7 +17417,7 @@
         <v>1.37</v>
       </c>
       <c r="AF165">
-        <v>-10.68683704370246</v>
+        <v>-8.620006468745434</v>
       </c>
       <c r="AG165">
         <v>-1.433150196461486</v>
@@ -17493,13 +17493,13 @@
         <v>-1.298984165419692</v>
       </c>
       <c r="W166">
-        <v>112.63</v>
+        <v>109.5933333333333</v>
       </c>
       <c r="X166">
-        <v>120.9453797873881</v>
+        <v>119.3508427453605</v>
       </c>
       <c r="Y166">
-        <v>-6.875318265158947</v>
+        <v>-8.175484301225399</v>
       </c>
       <c r="Z166">
         <v>7281103.7</v>
@@ -17520,7 +17520,7 @@
         <v>1.32</v>
       </c>
       <c r="AF166">
-        <v>-8.081864042029762</v>
+        <v>-8.387373162732125</v>
       </c>
       <c r="AG166">
         <v>-1.496325464823867</v>
@@ -17596,13 +17596,13 @@
         <v>-1.045012159716996</v>
       </c>
       <c r="W167">
-        <v>112.09</v>
+        <v>110.115</v>
       </c>
       <c r="X167">
-        <v>121.5435026684907</v>
+        <v>119.9637983233904</v>
       </c>
       <c r="Y167">
-        <v>-7.777875790098832</v>
+        <v>-8.209808676481478</v>
       </c>
       <c r="Z167">
         <v>7319401.7</v>
@@ -17623,7 +17623,7 @@
         <v>1.26</v>
       </c>
       <c r="AF167">
-        <v>-6.875318265158947</v>
+        <v>-8.175484301225399</v>
       </c>
       <c r="AG167">
         <v>-1.298984165419692</v>
@@ -17699,13 +17699,13 @@
         <v>-0.7066474173432757</v>
       </c>
       <c r="W168">
-        <v>113.51</v>
+        <v>110.585</v>
       </c>
       <c r="X168">
-        <v>122.1393518547932</v>
+        <v>120.578798088568</v>
       </c>
       <c r="Y168">
-        <v>-7.065169188921406</v>
+        <v>-8.28818850991312</v>
       </c>
       <c r="Z168">
         <v>7351034.6</v>
@@ -17726,7 +17726,7 @@
         <v>1.23</v>
       </c>
       <c r="AF168">
-        <v>-7.777875790098832</v>
+        <v>-8.209808676481478</v>
       </c>
       <c r="AG168">
         <v>-1.045012159716996</v>
@@ -17802,13 +17802,13 @@
         <v>-0.2484177422321765</v>
       </c>
       <c r="W169">
-        <v>111.81</v>
+        <v>111.2683333333333</v>
       </c>
       <c r="X169">
-        <v>122.7316199203558</v>
+        <v>121.1947875268784</v>
       </c>
       <c r="Y169">
-        <v>-8.898782504005997</v>
+        <v>-8.19049597437813</v>
       </c>
       <c r="Z169">
         <v>7389131</v>
@@ -17829,7 +17829,7 @@
         <v>1.22</v>
       </c>
       <c r="AF169">
-        <v>-7.065169188921406</v>
+        <v>-8.28818850991312</v>
       </c>
       <c r="AG169">
         <v>-0.7066474173432757</v>
@@ -17905,13 +17905,13 @@
         <v>0.1285892278525935</v>
       </c>
       <c r="W170">
-        <v>113.2</v>
+        <v>112.31</v>
       </c>
       <c r="X170">
-        <v>123.3189328547327</v>
+        <v>121.8106350116671</v>
       </c>
       <c r="Y170">
-        <v>-8.205498231688901</v>
+        <v>-7.799511931578951</v>
       </c>
       <c r="Z170">
         <v>7426459.3</v>
@@ -17932,7 +17932,7 @@
         <v>0.84</v>
       </c>
       <c r="AF170">
-        <v>-8.898782504005997</v>
+        <v>-8.19049597437813</v>
       </c>
       <c r="AG170">
         <v>-0.2484177422321765</v>
@@ -18008,13 +18008,13 @@
         <v>0.4960071437064562</v>
       </c>
       <c r="W171">
-        <v>118.06</v>
+        <v>113.55</v>
       </c>
       <c r="X171">
-        <v>123.8998323757195</v>
+        <v>122.4251323232686</v>
       </c>
       <c r="Y171">
-        <v>-4.713349698497216</v>
+        <v>-7.249436577967883</v>
       </c>
       <c r="Z171">
         <v>7470417.9</v>
@@ -18035,7 +18035,7 @@
         <v>0.71</v>
       </c>
       <c r="AF171">
-        <v>-8.205498231688901</v>
+        <v>-7.799511931578951</v>
       </c>
       <c r="AG171">
         <v>0.1285892278525935</v>
@@ -18111,13 +18111,13 @@
         <v>0.5303879761281216</v>
       </c>
       <c r="W172">
-        <v>131.08</v>
+        <v>116.625</v>
       </c>
       <c r="X172">
-        <v>124.4727821229261</v>
+        <v>123.0369979346484</v>
       </c>
       <c r="Y172">
-        <v>5.30816276810524</v>
+        <v>-5.211438869838291</v>
       </c>
       <c r="Z172">
         <v>7506475</v>
@@ -18138,7 +18138,7 @@
         <v>0.78</v>
       </c>
       <c r="AF172">
-        <v>-4.713349698497216</v>
+        <v>-7.249436577967883</v>
       </c>
       <c r="AG172">
         <v>0.4960071437064562</v>
@@ -18214,13 +18214,13 @@
         <v>0.6769718310848605</v>
       </c>
       <c r="W173">
-        <v>141.14</v>
+        <v>121.4666666666667</v>
       </c>
       <c r="X173">
-        <v>125.0362006755278</v>
+        <v>123.6448818378132</v>
       </c>
       <c r="Y173">
-        <v>12.87930954193179</v>
+        <v>-1.761670308362384</v>
       </c>
       <c r="Z173">
         <v>7462835.4</v>
@@ -18241,7 +18241,7 @@
         <v>0.85</v>
       </c>
       <c r="AF173">
-        <v>5.30816276810524</v>
+        <v>-5.211438869838291</v>
       </c>
       <c r="AG173">
         <v>0.5303879761281216</v>
@@ -18317,13 +18317,13 @@
         <v>1.112463475117531</v>
       </c>
       <c r="W174">
-        <v>149.83</v>
+        <v>127.52</v>
       </c>
       <c r="X174">
-        <v>125.588557594321</v>
+        <v>124.2473845494764</v>
       </c>
       <c r="Y174">
-        <v>19.30226994403761</v>
+        <v>2.633951179246274</v>
       </c>
       <c r="Z174">
         <v>7426871.7</v>
@@ -18344,7 +18344,7 @@
         <v>2.2</v>
       </c>
       <c r="AF174">
-        <v>12.87930954193179</v>
+        <v>-1.761670308362384</v>
       </c>
       <c r="AG174">
         <v>0.6769718310848605</v>
@@ -18420,13 +18420,13 @@
         <v>2.08345742705125</v>
       </c>
       <c r="W175">
-        <v>139.5</v>
+        <v>132.135</v>
       </c>
       <c r="X175">
-        <v>126.1284466978082</v>
+        <v>124.8430897791359</v>
       </c>
       <c r="Y175">
-        <v>10.60153649099382</v>
+        <v>5.840860101880252</v>
       </c>
       <c r="Z175">
         <v>7438850</v>
@@ -18447,7 +18447,7 @@
         <v>3.81</v>
       </c>
       <c r="AF175">
-        <v>19.30226994403761</v>
+        <v>2.633951179246274</v>
       </c>
       <c r="AG175">
         <v>1.112463475117531</v>
@@ -18523,13 +18523,13 @@
         <v>3.098731082894757</v>
       </c>
       <c r="W176">
-        <v>144.2</v>
+        <v>137.3016666666666</v>
       </c>
       <c r="X176">
-        <v>126.6546488526631</v>
+        <v>125.4306064879517</v>
       </c>
       <c r="Y176">
-        <v>13.85290733998035</v>
+        <v>9.46424521981022</v>
       </c>
       <c r="Z176">
         <v>7452106.2</v>
@@ -18550,7 +18550,7 @@
         <v>6.17</v>
       </c>
       <c r="AF176">
-        <v>10.60153649099382</v>
+        <v>5.840860101880252</v>
       </c>
       <c r="AG176">
         <v>2.08345742705125</v>
@@ -18626,13 +18626,13 @@
         <v>4.050790435875107</v>
       </c>
       <c r="W177">
-        <v>151.32</v>
+        <v>142.845</v>
       </c>
       <c r="X177">
-        <v>127.1660481011241</v>
+        <v>126.0085999018235</v>
       </c>
       <c r="Y177">
-        <v>18.99402573214228</v>
+        <v>13.36131034809855</v>
       </c>
       <c r="Z177">
         <v>7460272.4</v>
@@ -18653,7 +18653,7 @@
         <v>7.21</v>
       </c>
       <c r="AF177">
-        <v>13.85290733998035</v>
+        <v>9.46424521981022</v>
       </c>
       <c r="AG177">
         <v>3.098731082894757</v>
@@ -18729,13 +18729,13 @@
         <v>4.539222648593588</v>
       </c>
       <c r="W178">
-        <v>148.88</v>
+        <v>145.8116666666666</v>
       </c>
       <c r="X178">
-        <v>127.6616638662217</v>
+        <v>126.5758268443381</v>
       </c>
       <c r="Y178">
-        <v>16.6207579403111</v>
+        <v>15.19708802375408</v>
       </c>
       <c r="Z178">
         <v>7488004.3</v>
@@ -18756,7 +18756,7 @@
         <v>8.19</v>
       </c>
       <c r="AF178">
-        <v>18.99402573214228</v>
+        <v>13.36131034809855</v>
       </c>
       <c r="AG178">
         <v>4.050790435875107</v>
@@ -18832,13 +18832,13 @@
         <v>4.678526927960625</v>
       </c>
       <c r="W179">
-        <v>154.27</v>
+        <v>148</v>
       </c>
       <c r="X179">
-        <v>128.1407019440784</v>
+        <v>127.1311740495755</v>
       </c>
       <c r="Y179">
-        <v>20.39109951756357</v>
+        <v>16.41519171551626</v>
       </c>
       <c r="Z179">
         <v>7507801.8</v>
@@ -18859,7 +18859,7 @@
         <v>8.75</v>
       </c>
       <c r="AF179">
-        <v>16.6207579403111</v>
+        <v>15.19708802375408</v>
       </c>
       <c r="AG179">
         <v>4.539222648593588</v>
@@ -18935,13 +18935,13 @@
         <v>4.383126355662204</v>
       </c>
       <c r="W180">
-        <v>148.41</v>
+        <v>147.7633333333333</v>
       </c>
       <c r="X180">
-        <v>128.6025318525419</v>
+        <v>127.6736766763057</v>
       </c>
       <c r="Y180">
-        <v>15.40208257343616</v>
+        <v>15.73515949412303</v>
       </c>
       <c r="Z180">
         <v>7544891</v>
@@ -18962,7 +18962,7 @@
         <v>8.81</v>
       </c>
       <c r="AF180">
-        <v>20.39109951756357</v>
+        <v>16.41519171551626</v>
       </c>
       <c r="AG180">
         <v>4.678526927960625</v>
@@ -19038,13 +19038,13 @@
         <v>3.848043899578713</v>
       </c>
       <c r="W181">
-        <v>141</v>
+        <v>148.0133333333333</v>
       </c>
       <c r="X181">
-        <v>129.0467247244156</v>
+        <v>128.2025309081931</v>
       </c>
       <c r="Y181">
-        <v>9.262749830428586</v>
+        <v>15.45273894735111</v>
       </c>
       <c r="Z181">
         <v>7609597</v>
@@ -19065,7 +19065,7 @@
         <v>8.81</v>
       </c>
       <c r="AF181">
-        <v>15.40208257343616</v>
+        <v>15.73515949412303</v>
       </c>
       <c r="AG181">
         <v>4.383126355662204</v>
@@ -19141,13 +19141,13 @@
         <v>3.271691911017793</v>
       </c>
       <c r="W182">
-        <v>147.01</v>
+        <v>148.4816666666667</v>
       </c>
       <c r="X182">
-        <v>129.4730045279039</v>
+        <v>128.7170879416817</v>
       </c>
       <c r="Y182">
-        <v>13.54490500629149</v>
+        <v>15.35505428303328</v>
       </c>
       <c r="Z182">
         <v>7671366.9</v>
@@ -19168,7 +19168,7 @@
         <v>9.24</v>
       </c>
       <c r="AF182">
-        <v>9.262749830428586</v>
+        <v>15.45273894735111</v>
       </c>
       <c r="AG182">
         <v>3.848043899578713</v>
@@ -19244,13 +19244,13 @@
         <v>2.82331496613224</v>
       </c>
       <c r="W183">
-        <v>148.58</v>
+        <v>148.025</v>
       </c>
       <c r="X183">
-        <v>129.8811874632761</v>
+        <v>129.216851834347</v>
       </c>
       <c r="Y183">
-        <v>14.3968598547122</v>
+        <v>14.55549171695085</v>
       </c>
       <c r="Z183">
         <v>7757774.9</v>
@@ -19271,7 +19271,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="AF183">
-        <v>13.54490500629149</v>
+        <v>15.35505428303328</v>
       </c>
       <c r="AG183">
         <v>3.271691911017793</v>
@@ -19347,13 +19347,13 @@
         <v>2.65542223576205</v>
       </c>
       <c r="W184">
-        <v>152.43</v>
+        <v>148.6166666666667</v>
       </c>
       <c r="X184">
-        <v>130.2712250471217</v>
+        <v>129.7014791482305</v>
       </c>
       <c r="Y184">
-        <v>17.00972332521098</v>
+        <v>14.58363284879645</v>
       </c>
       <c r="Z184">
         <v>7888820.7</v>
@@ -19374,7 +19374,7 @@
         <v>8.92</v>
       </c>
       <c r="AF184">
-        <v>14.3968598547122</v>
+        <v>14.55549171695085</v>
       </c>
       <c r="AG184">
         <v>2.82331496613224</v>
@@ -19450,13 +19450,13 @@
         <v>2.547395251796991</v>
       </c>
       <c r="W185">
-        <v>150.95</v>
+        <v>148.0633333333333</v>
       </c>
       <c r="X185">
-        <v>130.6432130769911</v>
+        <v>130.1707715699704</v>
       </c>
       <c r="Y185">
-        <v>15.54369832517941</v>
+        <v>13.74545264467848</v>
       </c>
       <c r="Z185">
         <v>8053159.9</v>
@@ -19477,7 +19477,7 @@
         <v>8.41</v>
       </c>
       <c r="AF185">
-        <v>17.00972332521098</v>
+        <v>14.58363284879645</v>
       </c>
       <c r="AG185">
         <v>2.65542223576205</v>
@@ -19553,13 +19553,13 @@
         <v>2.159577023790149</v>
       </c>
       <c r="W186">
-        <v>144.11</v>
+        <v>147.3466666666667</v>
       </c>
       <c r="X186">
-        <v>130.9974183286385</v>
+        <v>130.624676736729</v>
       </c>
       <c r="Y186">
-        <v>10.00980159659748</v>
+        <v>12.80155507189533</v>
       </c>
       <c r="Z186">
         <v>8198139.6</v>
@@ -19580,7 +19580,7 @@
         <v>6.76</v>
       </c>
       <c r="AF186">
-        <v>15.54369832517941</v>
+        <v>13.74545264467848</v>
       </c>
       <c r="AG186">
         <v>2.547395251796991</v>
@@ -19656,13 +19656,13 @@
         <v>1.556361896758074</v>
       </c>
       <c r="W187">
-        <v>136.74</v>
+        <v>146.6366666666667</v>
       </c>
       <c r="X187">
-        <v>131.3342642659883</v>
+        <v>131.0632803455596</v>
       </c>
       <c r="Y187">
-        <v>4.116013261446883</v>
+        <v>11.88234132401269</v>
       </c>
       <c r="Z187">
         <v>8313352.1</v>
@@ -19683,7 +19683,7 @@
         <v>5.23</v>
       </c>
       <c r="AF187">
-        <v>10.00980159659748</v>
+        <v>12.80155507189533</v>
       </c>
       <c r="AG187">
         <v>2.159577023790149</v>
@@ -19759,13 +19759,13 @@
         <v>0.8359488291573403</v>
       </c>
       <c r="W188">
-        <v>139.21</v>
+        <v>145.3366666666667</v>
       </c>
       <c r="X188">
-        <v>131.6542755302935</v>
+        <v>131.4867971212126</v>
       </c>
       <c r="Y188">
-        <v>5.73906501651591</v>
+        <v>10.53327775007431</v>
       </c>
       <c r="Z188">
         <v>8422611.300000001</v>
@@ -19786,7 +19786,7 @@
         <v>3.67</v>
       </c>
       <c r="AF188">
-        <v>4.116013261446883</v>
+        <v>11.88234132401269</v>
       </c>
       <c r="AG188">
         <v>1.556361896758074</v>
@@ -19862,13 +19862,13 @@
         <v>0.04392695723882678</v>
       </c>
       <c r="W189">
-        <v>141</v>
+        <v>144.0733333333334</v>
       </c>
       <c r="X189">
-        <v>131.9580184737299</v>
+        <v>131.8955619534591</v>
       </c>
       <c r="Y189">
-        <v>6.852165280179778</v>
+        <v>9.232889416075519</v>
       </c>
       <c r="Z189">
         <v>8538598.6</v>
@@ -19889,7 +19889,7 @@
         <v>2.79</v>
       </c>
       <c r="AF189">
-        <v>5.73906501651591</v>
+        <v>10.53327775007431</v>
       </c>
       <c r="AG189">
         <v>0.8359488291573403</v>
@@ -19965,13 +19965,13 @@
         <v>-0.8868592757677374</v>
       </c>
       <c r="W190">
-        <v>140.07</v>
+        <v>142.0133333333333</v>
       </c>
       <c r="X190">
-        <v>132.2461177488146</v>
+        <v>132.2900165983453</v>
       </c>
       <c r="Y190">
-        <v>5.916152688917431</v>
+        <v>7.350000389303513</v>
       </c>
       <c r="Z190">
         <v>8638141.9</v>
@@ -19992,7 +19992,7 @@
         <v>1.53</v>
       </c>
       <c r="AF190">
-        <v>6.852165280179778</v>
+        <v>9.232889416075519</v>
       </c>
       <c r="AG190">
         <v>0.04392695723882678</v>
@@ -20068,13 +20068,13 @@
         <v>-1.786798084285779</v>
       </c>
       <c r="W191">
-        <v>145.35</v>
+        <v>141.08</v>
       </c>
       <c r="X191">
-        <v>132.5192677764444</v>
+        <v>132.6706967762026</v>
       </c>
       <c r="Y191">
-        <v>9.682163536551247</v>
+        <v>6.338478223252797</v>
       </c>
       <c r="Z191">
         <v>8723377.800000001</v>
@@ -20095,7 +20095,7 @@
         <v>0.61</v>
       </c>
       <c r="AF191">
-        <v>5.916152688917431</v>
+        <v>7.350000389303513</v>
       </c>
       <c r="AG191">
         <v>-0.8868592757677374</v>
@@ -20171,13 +20171,13 @@
         <v>-2.455847757231722</v>
       </c>
       <c r="W192">
-        <v>144.1</v>
+        <v>141.0783333333333</v>
       </c>
       <c r="X192">
-        <v>132.7782233469731</v>
+        <v>133.0382132329578</v>
       </c>
       <c r="Y192">
-        <v>8.526832463664702</v>
+        <v>6.043466689000732</v>
       </c>
       <c r="Z192">
         <v>8818704.5</v>
@@ -20198,7 +20198,7 @@
         <v>0.23</v>
       </c>
       <c r="AF192">
-        <v>9.682163536551247</v>
+        <v>6.338478223252797</v>
       </c>
       <c r="AG192">
         <v>-1.786798084285779</v>
@@ -20274,13 +20274,13 @@
         <v>-2.952220074210277</v>
       </c>
       <c r="W193">
-        <v>145.65</v>
+        <v>142.5633333333333</v>
       </c>
       <c r="X193">
-        <v>133.0238382533227</v>
+        <v>133.3932416011312</v>
       </c>
       <c r="Y193">
-        <v>9.49165346036156</v>
+        <v>6.874480012729789</v>
       </c>
       <c r="Z193">
         <v>8898727.5</v>
@@ -20301,7 +20301,7 @@
         <v>-0.14</v>
       </c>
       <c r="AF193">
-        <v>8.526832463664702</v>
+        <v>6.043466689000732</v>
       </c>
       <c r="AG193">
         <v>-2.455847757231722</v>
@@ -20377,13 +20377,13 @@
         <v>-3.32455404452352</v>
       </c>
       <c r="W194">
-        <v>142.57</v>
+        <v>143.1233333333333</v>
       </c>
       <c r="X194">
-        <v>133.2570536478007</v>
+        <v>133.7365195512122</v>
       </c>
       <c r="Y194">
-        <v>6.98870798750626</v>
+        <v>7.018885950988629</v>
       </c>
       <c r="Z194">
         <v>8944243</v>
@@ -20404,7 +20404,7 @@
         <v>-0.73</v>
       </c>
       <c r="AF194">
-        <v>9.49165346036156</v>
+        <v>6.874480012729789</v>
       </c>
       <c r="AG194">
         <v>-2.952220074210277</v>
@@ -20480,13 +20480,13 @@
         <v>-3.539021045016144</v>
       </c>
       <c r="W195">
-        <v>134.34</v>
+        <v>142.0133333333333</v>
       </c>
       <c r="X195">
-        <v>133.4789081068015</v>
+        <v>134.0688555105668</v>
       </c>
       <c r="Y195">
-        <v>0.6451145768360034</v>
+        <v>5.925669904849995</v>
       </c>
       <c r="Z195">
         <v>8991855.1</v>
@@ -20507,7 +20507,7 @@
         <v>-1.21</v>
       </c>
       <c r="AF195">
-        <v>6.98870798750626</v>
+        <v>7.018885950988629</v>
       </c>
       <c r="AG195">
         <v>-3.32455404452352</v>
@@ -20583,13 +20583,13 @@
         <v>-3.526703433743106</v>
       </c>
       <c r="W196">
-        <v>126.99</v>
+        <v>139.8333333333333</v>
       </c>
       <c r="X196">
-        <v>133.6905120658754</v>
+        <v>134.3911303356833</v>
       </c>
       <c r="Y196">
-        <v>-5.011957813860213</v>
+        <v>4.049525429287204</v>
       </c>
       <c r="Z196">
         <v>9061814.300000001</v>
@@ -20610,7 +20610,7 @@
         <v>-1.37</v>
       </c>
       <c r="AF196">
-        <v>0.6451145768360034</v>
+        <v>5.925669904849995</v>
       </c>
       <c r="AG196">
         <v>-3.539021045016144</v>
@@ -20686,13 +20686,13 @@
         <v>-3.460115788201645</v>
       </c>
       <c r="W197">
-        <v>119.52</v>
+        <v>135.5283333333333</v>
       </c>
       <c r="X197">
-        <v>133.892982604799</v>
+        <v>134.7042861830301</v>
       </c>
       <c r="Y197">
-        <v>-10.73467953673312</v>
+        <v>0.6117453079284907</v>
       </c>
       <c r="Z197">
         <v>9147953.5</v>
@@ -20713,7 +20713,7 @@
         <v>-1.35</v>
       </c>
       <c r="AF197">
-        <v>-5.011957813860213</v>
+        <v>4.049525429287204</v>
       </c>
       <c r="AG197">
         <v>-3.526703433743106</v>
@@ -20789,13 +20789,13 @@
         <v>-3.167189718875563</v>
       </c>
       <c r="W198">
-        <v>122.21</v>
+        <v>131.88</v>
       </c>
       <c r="X198">
-        <v>134.0873851018673</v>
+        <v>135.0093072013849</v>
       </c>
       <c r="Y198">
-        <v>-8.857943715468808</v>
+        <v>-2.317845536913343</v>
       </c>
       <c r="Z198">
         <v>9249687.1</v>
@@ -20816,7 +20816,7 @@
         <v>-1.5</v>
       </c>
       <c r="AF198">
-        <v>-10.73467953673312</v>
+        <v>0.6117453079284907</v>
       </c>
       <c r="AG198">
         <v>-3.460115788201645</v>
@@ -20892,13 +20892,13 @@
         <v>-2.968802662941983</v>
       </c>
       <c r="W199">
-        <v>124.1</v>
+        <v>128.2883333333333</v>
       </c>
       <c r="X199">
-        <v>134.2746740327315</v>
+        <v>135.3071838979126</v>
       </c>
       <c r="Y199">
-        <v>-7.577507900150438</v>
+        <v>-5.187345093128892</v>
       </c>
       <c r="Z199">
         <v>9351602.699999999</v>
@@ -20919,7 +20919,7 @@
         <v>-1.3</v>
       </c>
       <c r="AF199">
-        <v>-8.857943715468808</v>
+        <v>-2.317845536913343</v>
       </c>
       <c r="AG199">
         <v>-3.167189718875563</v>
@@ -20995,13 +20995,13 @@
         <v>-2.787847141730104</v>
       </c>
       <c r="W200">
-        <v>132.68</v>
+        <v>126.64</v>
       </c>
       <c r="X200">
-        <v>134.4557122265533</v>
+        <v>135.59888263389</v>
       </c>
       <c r="Y200">
-        <v>-1.320667004136822</v>
+        <v>-6.606900042147512</v>
       </c>
       <c r="Z200">
         <v>9450085.5</v>
@@ -21022,7 +21022,7 @@
         <v>-2.14</v>
       </c>
       <c r="AF200">
-        <v>-7.577507900150438</v>
+        <v>-5.187345093128892</v>
       </c>
       <c r="AG200">
         <v>-2.968802662941983</v>
@@ -21098,13 +21098,13 @@
         <v>-2.555574691074303</v>
       </c>
       <c r="W201">
-        <v>128.18</v>
+        <v>125.6133333333333</v>
       </c>
       <c r="X201">
-        <v>134.6312840042067</v>
+        <v>135.8853156127959</v>
       </c>
       <c r="Y201">
-        <v>-4.791816442904262</v>
+        <v>-7.559302661321055</v>
       </c>
       <c r="Z201">
         <v>9550426.699999999</v>
@@ -21125,7 +21125,7 @@
         <v>-2.44</v>
       </c>
       <c r="AF201">
-        <v>-1.320667004136822</v>
+        <v>-6.606900042147512</v>
       </c>
       <c r="AG201">
         <v>-2.787847141730104</v>
@@ -21201,13 +21201,13 @@
         <v>-2.061610859440943</v>
       </c>
       <c r="W202">
-        <v>128.54</v>
+        <v>125.8716666666667</v>
       </c>
       <c r="X202">
-        <v>134.8021599850824</v>
+        <v>136.1673259109279</v>
       </c>
       <c r="Y202">
-        <v>-4.64544483988637</v>
+        <v>-7.56103505403053</v>
       </c>
       <c r="Z202">
         <v>9640755</v>
@@ -21228,7 +21228,7 @@
         <v>-1.92</v>
       </c>
       <c r="AF202">
-        <v>-4.791816442904262</v>
+        <v>-7.559302661321055</v>
       </c>
       <c r="AG202">
         <v>-2.555574691074303</v>
@@ -21304,13 +21304,13 @@
         <v>-1.35985187690586</v>
       </c>
       <c r="W203">
-        <v>126.82</v>
+        <v>127.0883333333333</v>
       </c>
       <c r="X203">
-        <v>134.9690610101448</v>
+        <v>136.4456773454611</v>
       </c>
       <c r="Y203">
-        <v>-6.037725200986809</v>
+        <v>-6.857926314833929</v>
       </c>
       <c r="Z203">
         <v>9741807.699999999</v>
@@ -21331,7 +21331,7 @@
         <v>-1.88</v>
       </c>
       <c r="AF203">
-        <v>-4.64544483988637</v>
+        <v>-7.56103505403053</v>
       </c>
       <c r="AG203">
         <v>-2.061610859440943</v>
@@ -21407,13 +21407,13 @@
         <v>-0.5858956689001826</v>
       </c>
       <c r="W204">
-        <v>128.07</v>
+        <v>128.065</v>
       </c>
       <c r="X204">
-        <v>135.1326596012236</v>
+        <v>136.7210542917562</v>
       </c>
       <c r="Y204">
-        <v>-5.226463848240314</v>
+        <v>-6.33117871756943</v>
       </c>
       <c r="Z204">
         <v>9830020.4</v>
@@ -21434,7 +21434,7 @@
         <v>-1.78</v>
       </c>
       <c r="AF204">
-        <v>-6.037725200986809</v>
+        <v>-6.857926314833929</v>
       </c>
       <c r="AG204">
         <v>-1.35985187690586</v>
@@ -21510,13 +21510,13 @@
         <v>0.211944313588952</v>
       </c>
       <c r="W205">
-        <v>129.09</v>
+        <v>128.8966666666667</v>
       </c>
       <c r="X205">
-        <v>135.2935654015905</v>
+        <v>136.9940689234449</v>
       </c>
       <c r="Y205">
-        <v>-4.585262708670934</v>
+        <v>-5.910768488308237</v>
       </c>
       <c r="Z205">
         <v>9915316.4</v>
@@ -21537,7 +21537,7 @@
         <v>-1.4</v>
       </c>
       <c r="AF205">
-        <v>-5.226463848240314</v>
+        <v>-6.33117871756943</v>
       </c>
       <c r="AG205">
         <v>-0.5858956689001826</v>
@@ -21613,13 +21613,13 @@
         <v>1.017929365491765</v>
       </c>
       <c r="W206">
-        <v>130</v>
+        <v>128.45</v>
       </c>
       <c r="X206">
-        <v>135.4523335586873</v>
+        <v>137.2652666236168</v>
       </c>
       <c r="Y206">
-        <v>-4.025278424845247</v>
+        <v>-6.422066441460661</v>
       </c>
       <c r="Z206">
         <v>9996690.4</v>
@@ -21640,7 +21640,7 @@
         <v>-1.27</v>
       </c>
       <c r="AF206">
-        <v>-4.585262708670934</v>
+        <v>-5.910768488308237</v>
       </c>
       <c r="AG206">
         <v>0.211944313588952</v>
@@ -21716,13 +21716,13 @@
         <v>1.665693149892045</v>
       </c>
       <c r="W207">
-        <v>128.63</v>
+        <v>128.525</v>
       </c>
       <c r="X207">
-        <v>135.6094713529388</v>
+        <v>137.5351302954056</v>
       </c>
       <c r="Y207">
-        <v>-5.146743279290544</v>
+        <v>-6.55114826012314</v>
       </c>
       <c r="Z207">
         <v>10067360.7</v>
@@ -21743,7 +21743,7 @@
         <v>-1.23</v>
       </c>
       <c r="AF207">
-        <v>-4.025278424845247</v>
+        <v>-6.422066441460661</v>
       </c>
       <c r="AG207">
         <v>1.017929365491765</v>
@@ -21819,13 +21819,13 @@
         <v>2.213282469574507</v>
       </c>
       <c r="W208">
-        <v>128.04</v>
+        <v>128.4416666666667</v>
       </c>
       <c r="X208">
-        <v>135.7654439942949</v>
+        <v>137.8040748229124</v>
       </c>
       <c r="Y208">
-        <v>-5.690287430297458</v>
+        <v>-6.793999501304315</v>
       </c>
       <c r="Z208">
         <v>10156139.2</v>
@@ -21846,7 +21846,7 @@
         <v>-0.93</v>
       </c>
       <c r="AF208">
-        <v>-5.146743279290544</v>
+        <v>-6.55114826012314</v>
       </c>
       <c r="AG208">
         <v>1.665693149892045</v>
@@ -21922,13 +21922,13 @@
         <v>2.589217872017846</v>
       </c>
       <c r="W209">
-        <v>123.68</v>
+        <v>127.9183333333333</v>
       </c>
       <c r="X209">
-        <v>135.9206628387596</v>
+        <v>138.072445567628</v>
       </c>
       <c r="Y209">
-        <v>-9.00574098382706</v>
+        <v>-7.354191629293039</v>
       </c>
       <c r="Z209">
         <v>10222611</v>
@@ -21949,7 +21949,7 @@
         <v>-0.74</v>
       </c>
       <c r="AF209">
-        <v>-5.690287430297458</v>
+        <v>-6.793999501304315</v>
       </c>
       <c r="AG209">
         <v>2.213282469574507</v>
@@ -22025,13 +22025,13 @@
         <v>2.808037542882569</v>
       </c>
       <c r="W210">
-        <v>121.49</v>
+        <v>126.8216666666667</v>
       </c>
       <c r="X210">
-        <v>136.0754796324297</v>
+        <v>138.3405156502398</v>
       </c>
       <c r="Y210">
-        <v>-10.71866854471381</v>
+        <v>-8.326446471181093</v>
       </c>
       <c r="Z210">
         <v>10280787.4</v>
@@ -22052,7 +22052,7 @@
         <v>-0.55</v>
       </c>
       <c r="AF210">
-        <v>-9.00574098382706</v>
+        <v>-7.354191629293039</v>
       </c>
       <c r="AG210">
         <v>2.589217872017846</v>
@@ -22128,13 +22128,13 @@
         <v>3.106308685506254</v>
       </c>
       <c r="W211">
-        <v>117.47</v>
+        <v>124.885</v>
       </c>
       <c r="X211">
-        <v>136.2301516718431</v>
+        <v>138.6084798418034</v>
       </c>
       <c r="Y211">
-        <v>-13.7709247487541</v>
+        <v>-9.900894849627006</v>
       </c>
       <c r="Z211">
         <v>10335458.3</v>
@@ -22155,7 +22155,7 @@
         <v>-0.38</v>
       </c>
       <c r="AF211">
-        <v>-10.71866854471381</v>
+        <v>-8.326446471181093</v>
       </c>
       <c r="AG211">
         <v>2.808037542882569</v>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -601,13 +601,13 @@
         <v>2.488663671048053</v>
       </c>
       <c r="W2">
-        <v>101.7533333333333</v>
+        <v>100.68</v>
       </c>
       <c r="X2">
-        <v>99.64569999916922</v>
+        <v>98.40322355453281</v>
       </c>
       <c r="Y2">
-        <v>2.115127229957414</v>
+        <v>2.313721403857727</v>
       </c>
       <c r="Z2">
         <v>2190643.1</v>
@@ -628,7 +628,7 @@
         <v>-3.74</v>
       </c>
       <c r="AF2">
-        <v>2.670015544314208</v>
+        <v>2.147821684794038</v>
       </c>
       <c r="AG2">
         <v>2.754730049206433</v>
@@ -704,13 +704,13 @@
         <v>2.064065275829319</v>
       </c>
       <c r="W3">
-        <v>99.85666666666667</v>
+        <v>95.44</v>
       </c>
       <c r="X3">
-        <v>99.25896927362213</v>
+        <v>98.02804771303843</v>
       </c>
       <c r="Y3">
-        <v>0.6021595805583146</v>
+        <v>-2.640109410945868</v>
       </c>
       <c r="Z3">
         <v>2207671.2</v>
@@ -731,7 +731,7 @@
         <v>-3.42</v>
       </c>
       <c r="AF3">
-        <v>2.115127229957414</v>
+        <v>2.313721403857727</v>
       </c>
       <c r="AG3">
         <v>2.488663671048053</v>
@@ -807,13 +807,13 @@
         <v>1.706890481217394</v>
       </c>
       <c r="W4">
-        <v>98.39999999999999</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="X4">
-        <v>98.87229602799276</v>
+        <v>97.65292217976096</v>
       </c>
       <c r="Y4">
-        <v>-0.4776828767676711</v>
+        <v>-2.419714768403203</v>
       </c>
       <c r="Z4">
         <v>2225144.6</v>
@@ -834,7 +834,7 @@
         <v>-3.38</v>
       </c>
       <c r="AF4">
-        <v>0.6021595805583146</v>
+        <v>-2.640109410945868</v>
       </c>
       <c r="AG4">
         <v>2.064065275829319</v>
@@ -910,13 +910,13 @@
         <v>1.268232544389436</v>
       </c>
       <c r="W5">
-        <v>97.44333333333333</v>
+        <v>95.14</v>
       </c>
       <c r="X5">
-        <v>98.48572174540399</v>
+        <v>97.27786092316465</v>
       </c>
       <c r="Y5">
-        <v>-1.058415771948495</v>
+        <v>-2.197684964365376</v>
       </c>
       <c r="Z5">
         <v>2235812.9</v>
@@ -937,7 +937,7 @@
         <v>-3.29</v>
       </c>
       <c r="AF5">
-        <v>-0.4776828767676711</v>
+        <v>-2.419714768403203</v>
       </c>
       <c r="AG5">
         <v>1.706890481217394</v>
@@ -1013,13 +1013,13 @@
         <v>0.9284721689441833</v>
       </c>
       <c r="W6">
-        <v>97.79333333333334</v>
+        <v>99.31</v>
       </c>
       <c r="X6">
-        <v>98.09928426471924</v>
+        <v>96.90285967928952</v>
       </c>
       <c r="Y6">
-        <v>-0.3118788619907775</v>
+        <v>2.484075628600824</v>
       </c>
       <c r="Z6">
         <v>2256419.1</v>
@@ -1040,7 +1040,7 @@
         <v>-3.31</v>
       </c>
       <c r="AF6">
-        <v>-1.058415771948495</v>
+        <v>-2.197684964365376</v>
       </c>
       <c r="AG6">
         <v>1.268232544389436</v>
@@ -1116,13 +1116,13 @@
         <v>0.6076253571267731</v>
       </c>
       <c r="W7">
-        <v>98.03500000000001</v>
+        <v>102.35</v>
       </c>
       <c r="X7">
-        <v>97.71301338168146</v>
+        <v>96.52789768833513</v>
       </c>
       <c r="Y7">
-        <v>0.3295227597380768</v>
+        <v>6.031522959779978</v>
       </c>
       <c r="Z7">
         <v>2271564</v>
@@ -1143,7 +1143,7 @@
         <v>-3.29</v>
       </c>
       <c r="AF7">
-        <v>-0.3118788619907775</v>
+        <v>2.484075628600824</v>
       </c>
       <c r="AG7">
         <v>0.9284721689441833</v>
@@ -1219,13 +1219,13 @@
         <v>0.3098860228337941</v>
       </c>
       <c r="W8">
-        <v>97.94166666666666</v>
+        <v>100.12</v>
       </c>
       <c r="X8">
-        <v>97.32693653130109</v>
+        <v>96.15297276411464</v>
       </c>
       <c r="Y8">
-        <v>0.6316135668853251</v>
+        <v>4.125745800514569</v>
       </c>
       <c r="Z8">
         <v>2293390.2</v>
@@ -1246,7 +1246,7 @@
         <v>-3.32</v>
       </c>
       <c r="AF8">
-        <v>0.3295227597380768</v>
+        <v>6.031522959779978</v>
       </c>
       <c r="AG8">
         <v>0.6076253571267731</v>
@@ -1322,13 +1322,13 @@
         <v>0.0006725871824597718</v>
       </c>
       <c r="W9">
-        <v>98.56833333333333</v>
+        <v>99.2</v>
       </c>
       <c r="X9">
-        <v>96.94108363305325</v>
+        <v>95.77812764407012</v>
       </c>
       <c r="Y9">
-        <v>1.678596565352652</v>
+        <v>3.572707506505246</v>
       </c>
       <c r="Z9">
         <v>2315471.6</v>
@@ -1349,7 +1349,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF9">
-        <v>0.6316135668853251</v>
+        <v>4.125745800514569</v>
       </c>
       <c r="AG9">
         <v>0.3098860228337941</v>
@@ -1425,13 +1425,13 @@
         <v>-0.1461936464353109</v>
       </c>
       <c r="W10">
-        <v>99.20999999999999</v>
+        <v>99.14</v>
       </c>
       <c r="X10">
-        <v>96.55548934970187</v>
+        <v>95.40343567542544</v>
       </c>
       <c r="Y10">
-        <v>2.749207391704145</v>
+        <v>3.916593043134031</v>
       </c>
       <c r="Z10">
         <v>2336552.6</v>
@@ -1452,7 +1452,7 @@
         <v>-3.35</v>
       </c>
       <c r="AF10">
-        <v>1.678596565352652</v>
+        <v>3.572707506505246</v>
       </c>
       <c r="AG10">
         <v>0.0006725871824597718</v>
@@ -1528,13 +1528,13 @@
         <v>-0.2290651767292373</v>
       </c>
       <c r="W11">
-        <v>99.63999999999999</v>
+        <v>97.72</v>
       </c>
       <c r="X11">
-        <v>96.17020089994844</v>
+        <v>95.02899660873308</v>
       </c>
       <c r="Y11">
-        <v>3.607977385491146</v>
+        <v>2.831770814488022</v>
       </c>
       <c r="Z11">
         <v>2362641.2</v>
@@ -1555,7 +1555,7 @@
         <v>-3.22</v>
       </c>
       <c r="AF11">
-        <v>2.749207391704145</v>
+        <v>3.916593043134031</v>
       </c>
       <c r="AG11">
         <v>-0.1461936464353109</v>
@@ -1631,13 +1631,13 @@
         <v>-0.2903757443100896</v>
       </c>
       <c r="W12">
-        <v>99.52499999999999</v>
+        <v>98.62</v>
       </c>
       <c r="X12">
-        <v>95.78528598483047</v>
+        <v>94.6549390260642</v>
       </c>
       <c r="Y12">
-        <v>3.904267734568112</v>
+        <v>4.188963634368825</v>
       </c>
       <c r="Z12">
         <v>2387208</v>
@@ -1658,7 +1658,7 @@
         <v>-3.28</v>
       </c>
       <c r="AF12">
-        <v>3.607977385491146</v>
+        <v>2.831770814488022</v>
       </c>
       <c r="AG12">
         <v>-0.2290651767292373</v>
@@ -1734,13 +1734,13 @@
         <v>-0.4493634123859391</v>
       </c>
       <c r="W13">
-        <v>99.015</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="X13">
-        <v>95.40083907852664</v>
+        <v>94.28141227340488</v>
       </c>
       <c r="Y13">
-        <v>3.788395318513338</v>
+        <v>5.312380888049084</v>
       </c>
       <c r="Z13">
         <v>2409449.9</v>
@@ -1761,7 +1761,7 @@
         <v>-3.28</v>
       </c>
       <c r="AF13">
-        <v>3.904267734568112</v>
+        <v>4.188963634368825</v>
       </c>
       <c r="AG13">
         <v>-0.2903757443100896</v>
@@ -1837,13 +1837,13 @@
         <v>-0.600338016001023</v>
       </c>
       <c r="W14">
-        <v>98.63666666666666</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="X14">
-        <v>95.01698351103369</v>
+        <v>93.90859629134755</v>
       </c>
       <c r="Y14">
-        <v>3.809511754509276</v>
+        <v>4.197063809179302</v>
       </c>
       <c r="Z14">
         <v>2434411.5</v>
@@ -1864,7 +1864,7 @@
         <v>-3.15</v>
       </c>
       <c r="AF14">
-        <v>3.788395318513338</v>
+        <v>5.312380888049084</v>
       </c>
       <c r="AG14">
         <v>-0.4493634123859391</v>
@@ -1940,13 +1940,13 @@
         <v>-0.6510445269605758</v>
       </c>
       <c r="W15">
-        <v>98.07833333333333</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="X15">
-        <v>94.63387049939256</v>
+        <v>93.53670966699494</v>
       </c>
       <c r="Y15">
-        <v>3.639778036937513</v>
+        <v>2.473136313262159</v>
       </c>
       <c r="Z15">
         <v>2458966.9</v>
@@ -1967,7 +1967,7 @@
         <v>-3.49</v>
       </c>
       <c r="AF15">
-        <v>3.809511754509276</v>
+        <v>4.197063809179302</v>
       </c>
       <c r="AG15">
         <v>-0.600338016001023</v>
@@ -2043,13 +2043,13 @@
         <v>-0.5971041102010188</v>
       </c>
       <c r="W16">
-        <v>97.57833333333333</v>
+        <v>96.14</v>
       </c>
       <c r="X16">
-        <v>94.25167919029806</v>
+        <v>93.16600139951525</v>
       </c>
       <c r="Y16">
-        <v>3.529543634250398</v>
+        <v>3.192150093177903</v>
       </c>
       <c r="Z16">
         <v>2486602.5</v>
@@ -2070,7 +2070,7 @@
         <v>-3.5</v>
       </c>
       <c r="AF16">
-        <v>3.639778036937513</v>
+        <v>2.473136313262159</v>
       </c>
       <c r="AG16">
         <v>-0.6510445269605758</v>
@@ -2146,13 +2146,13 @@
         <v>-0.4671754184618071</v>
       </c>
       <c r="W17">
-        <v>97.05666666666666</v>
+        <v>94.59</v>
       </c>
       <c r="X17">
-        <v>93.87061530809034</v>
+        <v>92.79673833753928</v>
       </c>
       <c r="Y17">
-        <v>3.394088073375756</v>
+        <v>1.932461953498743</v>
       </c>
       <c r="Z17">
         <v>2516940.7</v>
@@ -2173,7 +2173,7 @@
         <v>-3.41</v>
       </c>
       <c r="AF17">
-        <v>3.529543634250398</v>
+        <v>3.192150093177903</v>
       </c>
       <c r="AG17">
         <v>-0.5971041102010188</v>
@@ -2249,13 +2249,13 @@
         <v>-0.358071393027648</v>
       </c>
       <c r="W18">
-        <v>96.03666666666668</v>
+        <v>92.5</v>
       </c>
       <c r="X18">
-        <v>93.49091024573717</v>
+        <v>92.42921027721772</v>
       </c>
       <c r="Y18">
-        <v>2.722998860785597</v>
+        <v>0.07658804242725026</v>
       </c>
       <c r="Z18">
         <v>2545742</v>
@@ -2276,7 +2276,7 @@
         <v>-3.41</v>
       </c>
       <c r="AF18">
-        <v>3.394088073375756</v>
+        <v>1.932461953498743</v>
       </c>
       <c r="AG18">
         <v>-0.4671754184618071</v>
@@ -2352,13 +2352,13 @@
         <v>-0.3347457828176359</v>
       </c>
       <c r="W19">
-        <v>94.50833333333333</v>
+        <v>90.12</v>
       </c>
       <c r="X19">
-        <v>93.11281997993611</v>
+        <v>92.06372085159722</v>
       </c>
       <c r="Y19">
-        <v>1.498733851791756</v>
+        <v>-2.111277747214257</v>
       </c>
       <c r="Z19">
         <v>2575280.3</v>
@@ -2379,7 +2379,7 @@
         <v>-3.45</v>
       </c>
       <c r="AF19">
-        <v>2.722998860785597</v>
+        <v>0.07658804242725026</v>
       </c>
       <c r="AG19">
         <v>-0.358071393027648</v>
@@ -2455,13 +2455,13 @@
         <v>-0.3814455535826711</v>
       </c>
       <c r="W20">
-        <v>93.00666666666666</v>
+        <v>88.84</v>
       </c>
       <c r="X20">
-        <v>92.73662013056673</v>
+        <v>91.70057423994103</v>
       </c>
       <c r="Y20">
-        <v>0.2911973023383085</v>
+        <v>-3.119472548182889</v>
       </c>
       <c r="Z20">
         <v>2602697.5</v>
@@ -2482,7 +2482,7 @@
         <v>-3.39</v>
       </c>
       <c r="AF20">
-        <v>1.498733851791756</v>
+        <v>-2.111277747214257</v>
       </c>
       <c r="AG20">
         <v>-0.3347457828176359</v>
@@ -2558,13 +2558,13 @@
         <v>-0.4033099555544539</v>
       </c>
       <c r="W21">
-        <v>92.40666666666665</v>
+        <v>92.25</v>
       </c>
       <c r="X21">
-        <v>92.3625970853589</v>
+        <v>91.34005962366652</v>
       </c>
       <c r="Y21">
-        <v>0.04771366624416462</v>
+        <v>0.9962117170522644</v>
       </c>
       <c r="Z21">
         <v>2627804.4</v>
@@ -2585,7 +2585,7 @@
         <v>-3.4</v>
       </c>
       <c r="AF21">
-        <v>0.2911973023383085</v>
+        <v>-3.119472548182889</v>
       </c>
       <c r="AG21">
         <v>-0.3814455535826711</v>
@@ -2661,13 +2661,13 @@
         <v>-0.4641980193290207</v>
       </c>
       <c r="W22">
-        <v>91.37</v>
+        <v>89.92</v>
       </c>
       <c r="X22">
-        <v>91.99103931573451</v>
+        <v>90.98244411185863</v>
       </c>
       <c r="Y22">
-        <v>-0.6751084892116066</v>
+        <v>-1.167746285813553</v>
       </c>
       <c r="Z22">
         <v>2649278.5</v>
@@ -2688,7 +2688,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF22">
-        <v>0.04771366624416462</v>
+        <v>0.9962117170522644</v>
       </c>
       <c r="AG22">
         <v>-0.4033099555544539</v>
@@ -2764,13 +2764,13 @@
         <v>-0.537891491465281</v>
       </c>
       <c r="W23">
-        <v>89.96666666666665</v>
+        <v>86.17</v>
       </c>
       <c r="X23">
-        <v>91.62223563315858</v>
+        <v>90.62800183474778</v>
       </c>
       <c r="Y23">
-        <v>-1.806951069302187</v>
+        <v>-4.919011502511717</v>
       </c>
       <c r="Z23">
         <v>2675926.6</v>
@@ -2791,7 +2791,7 @@
         <v>-3.21</v>
       </c>
       <c r="AF23">
-        <v>-0.6751084892116066</v>
+        <v>-1.167746285813553</v>
       </c>
       <c r="AG23">
         <v>-0.4641980193290207</v>
@@ -2867,13 +2867,13 @@
         <v>-0.6799013002861565</v>
       </c>
       <c r="W24">
-        <v>88.91500000000001</v>
+        <v>86.19</v>
       </c>
       <c r="X24">
-        <v>91.25647005712652</v>
+        <v>90.27699872469213</v>
       </c>
       <c r="Y24">
-        <v>-2.56581265488437</v>
+        <v>-4.527176116206311</v>
       </c>
       <c r="Z24">
         <v>2698213</v>
@@ -2894,7 +2894,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF24">
-        <v>-1.806951069302187</v>
+        <v>-4.919011502511717</v>
       </c>
       <c r="AG24">
         <v>-0.537891491465281</v>
@@ -2970,13 +2970,13 @@
         <v>-0.5958091741192439</v>
       </c>
       <c r="W25">
-        <v>88.33833333333332</v>
+        <v>86.66</v>
       </c>
       <c r="X25">
-        <v>90.8940138326811</v>
+        <v>89.92966631588848</v>
       </c>
       <c r="Y25">
-        <v>-2.811714866121218</v>
+        <v>-3.635803900798873</v>
       </c>
       <c r="Z25">
         <v>2720262.9</v>
@@ -2997,7 +2997,7 @@
         <v>-3.34</v>
       </c>
       <c r="AF25">
-        <v>-2.56581265488437</v>
+        <v>-4.527176116206311</v>
       </c>
       <c r="AG25">
         <v>-0.6799013002861565</v>
@@ -3073,13 +3073,13 @@
         <v>-0.5883659095117455</v>
       </c>
       <c r="W26">
-        <v>87.89666666666666</v>
+        <v>86.19</v>
       </c>
       <c r="X26">
-        <v>90.5351201379668</v>
+        <v>89.58620460704935</v>
       </c>
       <c r="Y26">
-        <v>-2.914287259219839</v>
+        <v>-3.790990612836065</v>
       </c>
       <c r="Z26">
         <v>2746426</v>
@@ -3100,7 +3100,7 @@
         <v>-3.24</v>
       </c>
       <c r="AF26">
-        <v>-2.811714866121218</v>
+        <v>-3.635803900798873</v>
       </c>
       <c r="AG26">
         <v>-0.5958091741192439</v>
@@ -3176,13 +3176,13 @@
         <v>-0.5744409399234596</v>
       </c>
       <c r="W27">
-        <v>86.74833333333333</v>
+        <v>85.36</v>
       </c>
       <c r="X27">
-        <v>90.18002243137191</v>
+        <v>89.24678836798076</v>
       </c>
       <c r="Y27">
-        <v>-3.805376185895426</v>
+        <v>-4.355101667025618</v>
       </c>
       <c r="Z27">
         <v>2776859.2</v>
@@ -3203,7 +3203,7 @@
         <v>-3.39</v>
       </c>
       <c r="AF27">
-        <v>-2.914287259219839</v>
+        <v>-3.790990612836065</v>
       </c>
       <c r="AG27">
         <v>-0.5883659095117455</v>
@@ -3279,13 +3279,13 @@
         <v>-0.7832764612859644</v>
       </c>
       <c r="W28">
-        <v>86.14833333333333</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="X28">
-        <v>89.82893381284642</v>
+        <v>88.9115661632059</v>
       </c>
       <c r="Y28">
-        <v>-4.097344055292274</v>
+        <v>-2.914768319848104</v>
       </c>
       <c r="Z28">
         <v>2800895.2</v>
@@ -3306,7 +3306,7 @@
         <v>-3.43</v>
       </c>
       <c r="AF28">
-        <v>-3.805376185895426</v>
+        <v>-4.355101667025618</v>
       </c>
       <c r="AG28">
         <v>-0.5744409399234596</v>
@@ -3382,13 +3382,13 @@
         <v>-0.9263097359760608</v>
       </c>
       <c r="W29">
-        <v>86.11499999999999</v>
+        <v>85.97</v>
       </c>
       <c r="X29">
-        <v>89.48204090325858</v>
+        <v>88.58065656659738</v>
       </c>
       <c r="Y29">
-        <v>-3.762811922113829</v>
+        <v>-2.947208417488556</v>
       </c>
       <c r="Z29">
         <v>2835166.3</v>
@@ -3409,7 +3409,7 @@
         <v>-3.63</v>
       </c>
       <c r="AF29">
-        <v>-4.097344055292274</v>
+        <v>-2.914768319848104</v>
       </c>
       <c r="AG29">
         <v>-0.7832764612859644</v>
@@ -3485,13 +3485,13 @@
         <v>-1.030507039462958</v>
       </c>
       <c r="W30">
-        <v>85.77</v>
+        <v>84.12</v>
       </c>
       <c r="X30">
-        <v>89.13950192378066</v>
+        <v>88.25415815537492</v>
       </c>
       <c r="Y30">
-        <v>-3.780032254007626</v>
+        <v>-4.68437775826559</v>
       </c>
       <c r="Z30">
         <v>2863373.4</v>
@@ -3512,7 +3512,7 @@
         <v>-3.61</v>
       </c>
       <c r="AF30">
-        <v>-3.762811922113829</v>
+        <v>-2.947208417488556</v>
       </c>
       <c r="AG30">
         <v>-0.9263097359760608</v>
@@ -3588,13 +3588,13 @@
         <v>-1.064585823839459</v>
       </c>
       <c r="W31">
-        <v>85.01166666666666</v>
+        <v>82.11</v>
       </c>
       <c r="X31">
-        <v>88.80144911533176</v>
+        <v>87.9321493628032</v>
       </c>
       <c r="Y31">
-        <v>-4.267703383694887</v>
+        <v>-6.621183952619347</v>
       </c>
       <c r="Z31">
         <v>2899765.6</v>
@@ -3615,7 +3615,7 @@
         <v>-3.6</v>
       </c>
       <c r="AF31">
-        <v>-3.780032254007626</v>
+        <v>-4.68437775826559</v>
       </c>
       <c r="AG31">
         <v>-1.030507039462958</v>
@@ -3691,13 +3691,13 @@
         <v>-1.007590901576816</v>
       </c>
       <c r="W32">
-        <v>84.15666666666665</v>
+        <v>81.06</v>
       </c>
       <c r="X32">
-        <v>88.46798871958778</v>
+        <v>87.61467672277857</v>
       </c>
       <c r="Y32">
-        <v>-4.873313065346718</v>
+        <v>-7.481254246384095</v>
       </c>
       <c r="Z32">
         <v>2940137</v>
@@ -3718,7 +3718,7 @@
         <v>-3.62</v>
       </c>
       <c r="AF32">
-        <v>-4.267703383694887</v>
+        <v>-6.621183952619347</v>
       </c>
       <c r="AG32">
         <v>-1.064585823839459</v>
@@ -3794,13 +3794,13 @@
         <v>-0.8944092198528986</v>
       </c>
       <c r="W33">
-        <v>83.355</v>
+        <v>80.55</v>
       </c>
       <c r="X33">
-        <v>88.13919773607525</v>
+        <v>87.30174184520531</v>
       </c>
       <c r="Y33">
-        <v>-5.42800236326303</v>
+        <v>-7.733799695745846</v>
       </c>
       <c r="Z33">
         <v>2974782.1</v>
@@ -3821,7 +3821,7 @@
         <v>-3.72</v>
       </c>
       <c r="AF33">
-        <v>-4.873313065346718</v>
+        <v>-7.481254246384095</v>
       </c>
       <c r="AG33">
         <v>-1.007590901576816</v>
@@ -3897,13 +3897,13 @@
         <v>-0.7834789316541468</v>
       </c>
       <c r="W34">
-        <v>83.56999999999999</v>
+        <v>87.61</v>
       </c>
       <c r="X34">
-        <v>87.81511989794814</v>
+        <v>86.99329576377886</v>
       </c>
       <c r="Y34">
-        <v>-4.834156011950441</v>
+        <v>0.7089100726747288</v>
       </c>
       <c r="Z34">
         <v>3020522.3</v>
@@ -3924,7 +3924,7 @@
         <v>-3.77</v>
       </c>
       <c r="AF34">
-        <v>-5.42800236326303</v>
+        <v>-7.733799695745846</v>
       </c>
       <c r="AG34">
         <v>-0.8944092198528986</v>
@@ -4000,13 +4000,13 @@
         <v>-0.7452884045566988</v>
       </c>
       <c r="W35">
-        <v>85.94833333333332</v>
+        <v>100.24</v>
       </c>
       <c r="X35">
-        <v>87.49576202325281</v>
+        <v>86.68923741542052</v>
       </c>
       <c r="Y35">
-        <v>-1.768575590562027</v>
+        <v>15.63142437122076</v>
       </c>
       <c r="Z35">
         <v>3059757.6</v>
@@ -4027,7 +4027,7 @@
         <v>-3.85</v>
       </c>
       <c r="AF35">
-        <v>-4.834156011950441</v>
+        <v>0.7089100726747288</v>
       </c>
       <c r="AG35">
         <v>-0.7834789316541468</v>
@@ -4103,13 +4103,13 @@
         <v>-0.7289673709605315</v>
       </c>
       <c r="W36">
-        <v>88.705</v>
+        <v>100.66</v>
       </c>
       <c r="X36">
-        <v>87.18109817448217</v>
+        <v>86.38947049557201</v>
       </c>
       <c r="Y36">
-        <v>1.747972734259351</v>
+        <v>16.51882969367133</v>
       </c>
       <c r="Z36">
         <v>3088601.5</v>
@@ -4130,7 +4130,7 @@
         <v>-3.98</v>
       </c>
       <c r="AF36">
-        <v>-1.768575590562027</v>
+        <v>15.63142437122076</v>
       </c>
       <c r="AG36">
         <v>-0.7452884045566988</v>
@@ -4206,13 +4206,13 @@
         <v>-0.7589295264861406</v>
       </c>
       <c r="W37">
-        <v>92.88499999999999</v>
+        <v>107.19</v>
       </c>
       <c r="X37">
-        <v>86.87109047409251</v>
+        <v>86.09400325802865</v>
       </c>
       <c r="Y37">
-        <v>6.922797323122132</v>
+        <v>24.50344500620496</v>
       </c>
       <c r="Z37">
         <v>3109803.1</v>
@@ -4233,7 +4233,7 @@
         <v>-3.69</v>
       </c>
       <c r="AF37">
-        <v>1.747972734259351</v>
+        <v>16.51882969367133</v>
       </c>
       <c r="AG37">
         <v>-0.7289673709605315</v>
@@ -4309,13 +4309,13 @@
         <v>-0.7490907523236778</v>
       </c>
       <c r="W38">
-        <v>96.26333333333332</v>
+        <v>101.33</v>
       </c>
       <c r="X38">
-        <v>86.56571280304208</v>
+        <v>85.80295406869641</v>
       </c>
       <c r="Y38">
-        <v>11.20261153784488</v>
+        <v>18.09616708402857</v>
       </c>
       <c r="Z38">
         <v>3121758.8</v>
@@ -4336,7 +4336,7 @@
         <v>-3.33</v>
       </c>
       <c r="AF38">
-        <v>6.922797323122132</v>
+        <v>24.50344500620496</v>
       </c>
       <c r="AG38">
         <v>-0.7589295264861406</v>
@@ -4412,13 +4412,13 @@
         <v>-0.7887036510622059</v>
       </c>
       <c r="W39">
-        <v>99.42833333333333</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="X39">
-        <v>86.26498544591188</v>
+        <v>85.51660407123262</v>
       </c>
       <c r="Y39">
-        <v>15.25920142382087</v>
+        <v>16.39844809212296</v>
       </c>
       <c r="Z39">
         <v>3132276.3</v>
@@ -4439,7 +4439,7 @@
         <v>-2.89</v>
       </c>
       <c r="AF39">
-        <v>11.20261153784488</v>
+        <v>18.09616708402857</v>
       </c>
       <c r="AG39">
         <v>-0.7490907523236778</v>
@@ -4515,13 +4515,13 @@
         <v>-0.7248045042518303</v>
       </c>
       <c r="W40">
-        <v>101.06</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="X40">
-        <v>85.96900351460152</v>
+        <v>85.23535421674953</v>
       </c>
       <c r="Y40">
-        <v>17.55399721811981</v>
+        <v>14.2718310905547</v>
       </c>
       <c r="Z40">
         <v>3153874.9</v>
@@ -4542,7 +4542,7 @@
         <v>-2.74</v>
       </c>
       <c r="AF40">
-        <v>15.25920142382087</v>
+        <v>16.39844809212296</v>
       </c>
       <c r="AG40">
         <v>-0.7887036510622059</v>
@@ -4618,13 +4618,13 @@
         <v>-0.711331260834458</v>
       </c>
       <c r="W41">
-        <v>100.25</v>
+        <v>95.38</v>
       </c>
       <c r="X41">
-        <v>85.6779636900535</v>
+        <v>84.95971366157384</v>
       </c>
       <c r="Y41">
-        <v>17.00791625097666</v>
+        <v>12.26497346722946</v>
       </c>
       <c r="Z41">
         <v>3164110.3</v>
@@ -4645,7 +4645,7 @@
         <v>-2.56</v>
       </c>
       <c r="AF41">
-        <v>17.55399721811981</v>
+        <v>14.2718310905547</v>
       </c>
       <c r="AG41">
         <v>-0.7248045042518303</v>
@@ -4721,13 +4721,13 @@
         <v>-0.7556761464047712</v>
       </c>
       <c r="W42">
-        <v>98.45833333333333</v>
+        <v>89.91</v>
       </c>
       <c r="X42">
-        <v>85.39217909608401</v>
+        <v>84.69028542504023</v>
       </c>
       <c r="Y42">
-        <v>15.30134770603193</v>
+        <v>6.163297890381725</v>
       </c>
       <c r="Z42">
         <v>3177111.6</v>
@@ -4748,7 +4748,7 @@
         <v>-2.3</v>
       </c>
       <c r="AF42">
-        <v>17.00791625097666</v>
+        <v>12.26497346722946</v>
       </c>
       <c r="AG42">
         <v>-0.711331260834458</v>
@@ -4824,13 +4824,13 @@
         <v>-0.8704858479665845</v>
       </c>
       <c r="W43">
-        <v>95.15666666666665</v>
+        <v>87.38</v>
       </c>
       <c r="X43">
-        <v>85.11207529506115</v>
+        <v>84.42775292992648</v>
       </c>
       <c r="Y43">
-        <v>11.80160551459186</v>
+        <v>3.496773238207385</v>
       </c>
       <c r="Z43">
         <v>3187927.3</v>
@@ -4851,7 +4851,7 @@
         <v>-2.09</v>
       </c>
       <c r="AF43">
-        <v>15.30134770603193</v>
+        <v>6.163297890381725</v>
       </c>
       <c r="AG43">
         <v>-0.7556761464047712</v>
@@ -4927,13 +4927,13 @@
         <v>-0.9518257638462146</v>
       </c>
       <c r="W44">
-        <v>92.66500000000001</v>
+        <v>86.38</v>
       </c>
       <c r="X44">
-        <v>84.8381786684444</v>
+        <v>84.17283987458694</v>
       </c>
       <c r="Y44">
-        <v>9.225588590419376</v>
+        <v>2.622176142211208</v>
       </c>
       <c r="Z44">
         <v>3198100.6</v>
@@ -4954,7 +4954,7 @@
         <v>-1.87</v>
       </c>
       <c r="AF44">
-        <v>11.80160551459186</v>
+        <v>3.496773238207385</v>
       </c>
       <c r="AG44">
         <v>-0.8704858479665845</v>
@@ -5030,13 +5030,13 @@
         <v>-1.03465798883432</v>
       </c>
       <c r="W45">
-        <v>89.88499999999999</v>
+        <v>82.86</v>
       </c>
       <c r="X45">
-        <v>84.57109310225638</v>
+        <v>83.92629273705953</v>
       </c>
       <c r="Y45">
-        <v>6.283360783002379</v>
+        <v>-1.27051094750511</v>
       </c>
       <c r="Z45">
         <v>3212061.2</v>
@@ -5057,7 +5057,7 @@
         <v>-1.6</v>
       </c>
       <c r="AF45">
-        <v>9.225588590419376</v>
+        <v>2.622176142211208</v>
       </c>
       <c r="AG45">
         <v>-0.9518257638462146</v>
@@ -5133,13 +5133,13 @@
         <v>-1.122233001191331</v>
       </c>
       <c r="W46">
-        <v>87.33999999999999</v>
+        <v>82.13</v>
       </c>
       <c r="X46">
-        <v>84.31148287465903</v>
+        <v>83.6888750259394</v>
       </c>
       <c r="Y46">
-        <v>3.592057715131491</v>
+        <v>-1.862702809012817</v>
       </c>
       <c r="Z46">
         <v>3228167.9</v>
@@ -5160,7 +5160,7 @@
         <v>-1.46</v>
       </c>
       <c r="AF46">
-        <v>6.283360783002379</v>
+        <v>-1.27051094750511</v>
       </c>
       <c r="AG46">
         <v>-1.03465798883432</v>
@@ -5236,13 +5236,13 @@
         <v>-1.241842929572845</v>
       </c>
       <c r="W47">
-        <v>84.63499999999999</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="X47">
-        <v>84.06005326618319</v>
+        <v>83.46134202225394</v>
       </c>
       <c r="Y47">
-        <v>0.6839714126711138</v>
+        <v>-5.165675410664228</v>
       </c>
       <c r="Z47">
         <v>3252378.5</v>
@@ -5263,7 +5263,7 @@
         <v>-1.07</v>
       </c>
       <c r="AF47">
-        <v>3.592057715131491</v>
+        <v>-1.862702809012817</v>
       </c>
       <c r="AG47">
         <v>-1.122233001191331</v>
@@ -5339,13 +5339,13 @@
         <v>-1.328332478894012</v>
       </c>
       <c r="W48">
-        <v>82.86166666666666</v>
+        <v>79.27</v>
       </c>
       <c r="X48">
-        <v>83.81753292554676</v>
+        <v>83.24443697867144</v>
       </c>
       <c r="Y48">
-        <v>-1.140413259036355</v>
+        <v>-4.774417514157447</v>
       </c>
       <c r="Z48">
         <v>3288209.5</v>
@@ -5366,7 +5366,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="AF48">
-        <v>0.6839714126711138</v>
+        <v>-5.165675410664228</v>
       </c>
       <c r="AG48">
         <v>-1.241842929572845</v>
@@ -5442,13 +5442,13 @@
         <v>-1.383883455252888</v>
       </c>
       <c r="W49">
-        <v>81.61</v>
+        <v>79.87</v>
       </c>
       <c r="X49">
-        <v>83.58465493778475</v>
+        <v>83.03886988133667</v>
       </c>
       <c r="Y49">
-        <v>-2.36246107524708</v>
+        <v>-3.816128381642248</v>
       </c>
       <c r="Z49">
         <v>3333039.4</v>
@@ -5469,7 +5469,7 @@
         <v>-1.33</v>
       </c>
       <c r="AF49">
-        <v>-1.140413259036355</v>
+        <v>-4.774417514157447</v>
       </c>
       <c r="AG49">
         <v>-1.328332478894012</v>
@@ -5545,13 +5545,13 @@
         <v>-1.453698924863822</v>
       </c>
       <c r="W50">
-        <v>80.47833333333334</v>
+        <v>79.59</v>
       </c>
       <c r="X50">
-        <v>83.36214501242299</v>
+        <v>82.84532004943854</v>
       </c>
       <c r="Y50">
-        <v>-3.459377969052846</v>
+        <v>-3.929395224130827</v>
       </c>
       <c r="Z50">
         <v>3372644.4</v>
@@ -5572,7 +5572,7 @@
         <v>-1.94</v>
       </c>
       <c r="AF50">
-        <v>-2.36246107524708</v>
+        <v>-3.816128381642248</v>
       </c>
       <c r="AG50">
         <v>-1.383883455252888</v>
@@ -5648,13 +5648,13 @@
         <v>-1.472975049658565</v>
       </c>
       <c r="W51">
-        <v>80.25666666666666</v>
+        <v>81.53</v>
       </c>
       <c r="X51">
-        <v>83.15071362244805</v>
+        <v>82.66444235101211</v>
       </c>
       <c r="Y51">
-        <v>-3.480483605855778</v>
+        <v>-1.37234622135961</v>
       </c>
       <c r="Z51">
         <v>3413499.6</v>
@@ -5675,7 +5675,7 @@
         <v>-2.18</v>
       </c>
       <c r="AF51">
-        <v>-3.459377969052846</v>
+        <v>-3.929395224130827</v>
       </c>
       <c r="AG51">
         <v>-1.453698924863822</v>
@@ -5751,13 +5751,13 @@
         <v>-1.471822003817858</v>
       </c>
       <c r="W52">
-        <v>79.69333333333333</v>
+        <v>78.75</v>
       </c>
       <c r="X52">
-        <v>82.95104898921828</v>
+        <v>82.49686653588041</v>
       </c>
       <c r="Y52">
-        <v>-3.927274815184534</v>
+        <v>-4.541828912072421</v>
       </c>
       <c r="Z52">
         <v>3463309.7</v>
@@ -5778,7 +5778,7 @@
         <v>-2.15</v>
       </c>
       <c r="AF52">
-        <v>-3.480483605855778</v>
+        <v>-1.37234622135961</v>
       </c>
       <c r="AG52">
         <v>-1.472975049658565</v>
@@ -5854,13 +5854,13 @@
         <v>-1.445653801862923</v>
       </c>
       <c r="W53">
-        <v>79.36499999999999</v>
+        <v>77.18000000000001</v>
       </c>
       <c r="X53">
-        <v>82.76381700347744</v>
+        <v>82.34321360045529</v>
       </c>
       <c r="Y53">
-        <v>-4.106646027858574</v>
+        <v>-6.270357172976226</v>
       </c>
       <c r="Z53">
         <v>3511531.8</v>
@@ -5881,7 +5881,7 @@
         <v>-1.88</v>
       </c>
       <c r="AF53">
-        <v>-3.927274815184534</v>
+        <v>-4.541828912072421</v>
       </c>
       <c r="AG53">
         <v>-1.471822003817858</v>
@@ -5957,13 +5957,13 @@
         <v>-1.445965919368752</v>
       </c>
       <c r="W54">
-        <v>79.09666666666666</v>
+        <v>77.66</v>
       </c>
       <c r="X54">
-        <v>82.58965841927947</v>
+        <v>82.20407563013899</v>
       </c>
       <c r="Y54">
-        <v>-4.229333090203724</v>
+        <v>-5.527798464134747</v>
       </c>
       <c r="Z54">
         <v>3558737</v>
@@ -5984,7 +5984,7 @@
         <v>-2.09</v>
       </c>
       <c r="AF54">
-        <v>-4.106646027858574</v>
+        <v>-6.270357172976226</v>
       </c>
       <c r="AG54">
         <v>-1.445653801862923</v>
@@ -6060,13 +6060,13 @@
         <v>-1.456203976128512</v>
       </c>
       <c r="W55">
-        <v>78.51833333333333</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="X55">
-        <v>82.4291877652354</v>
+        <v>82.08000487072377</v>
       </c>
       <c r="Y55">
-        <v>-4.744501963358505</v>
+        <v>-6.920083496181306</v>
       </c>
       <c r="Z55">
         <v>3603877.2</v>
@@ -6087,7 +6087,7 @@
         <v>-2.02</v>
       </c>
       <c r="AF55">
-        <v>-4.229333090203724</v>
+        <v>-5.527798464134747</v>
       </c>
       <c r="AG55">
         <v>-1.445965919368752</v>
@@ -6163,13 +6163,13 @@
         <v>-1.416565066292252</v>
       </c>
       <c r="W56">
-        <v>77.99333333333333</v>
+        <v>76.44</v>
       </c>
       <c r="X56">
-        <v>82.28299261786202</v>
+        <v>81.97151850569064</v>
       </c>
       <c r="Y56">
-        <v>-5.213300036923418</v>
+        <v>-6.748098127896252</v>
       </c>
       <c r="Z56">
         <v>3651309</v>
@@ -6190,7 +6190,7 @@
         <v>-1.96</v>
       </c>
       <c r="AF56">
-        <v>-4.744501963358505</v>
+        <v>-6.920083496181306</v>
       </c>
       <c r="AG56">
         <v>-1.456203976128512</v>
@@ -6266,13 +6266,13 @@
         <v>-1.268445132187335</v>
       </c>
       <c r="W57">
-        <v>77.20833333333333</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="X57">
-        <v>82.15163037732825</v>
+        <v>81.87908989132114</v>
       </c>
       <c r="Y57">
-        <v>-6.017284162578395</v>
+        <v>-6.178732443211232</v>
       </c>
       <c r="Z57">
         <v>3701182.8</v>
@@ -6293,7 +6293,7 @@
         <v>-1.91</v>
       </c>
       <c r="AF57">
-        <v>-5.213300036923418</v>
+        <v>-6.748098127896252</v>
       </c>
       <c r="AG57">
         <v>-1.416565066292252</v>
@@ -6369,13 +6369,13 @@
         <v>-1.044090387822794</v>
       </c>
       <c r="W58">
-        <v>76.67833333333333</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="X58">
-        <v>82.03562534458031</v>
+        <v>81.80314970243001</v>
       </c>
       <c r="Y58">
-        <v>-6.530445752981528</v>
+        <v>-7.619694015577561</v>
       </c>
       <c r="Z58">
         <v>3748968.7</v>
@@ -6396,7 +6396,7 @@
         <v>-1.88</v>
       </c>
       <c r="AF58">
-        <v>-6.017284162578395</v>
+        <v>-6.178732443211232</v>
       </c>
       <c r="AG58">
         <v>-1.268445132187335</v>
@@ -6472,13 +6472,13 @@
         <v>-0.7637565563855531</v>
       </c>
       <c r="W59">
-        <v>76.34499999999998</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="X59">
-        <v>81.93546367784116</v>
+        <v>81.74408957764125</v>
       </c>
       <c r="Y59">
-        <v>-6.823008532449515</v>
+        <v>-8.030047935645069</v>
       </c>
       <c r="Z59">
         <v>3790771.7</v>
@@ -6499,7 +6499,7 @@
         <v>-2.75</v>
       </c>
       <c r="AF59">
-        <v>-6.530445752981528</v>
+        <v>-7.619694015577561</v>
       </c>
       <c r="AG59">
         <v>-1.044090387822794</v>
@@ -6575,13 +6575,13 @@
         <v>-0.586780542605525</v>
       </c>
       <c r="W60">
-        <v>76.02499999999999</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="X60">
-        <v>81.8515901982003</v>
+        <v>81.70225306028571</v>
       </c>
       <c r="Y60">
-        <v>-7.118481368647156</v>
+        <v>-7.297538117934577</v>
       </c>
       <c r="Z60">
         <v>3841254.4</v>
@@ -6602,7 +6602,7 @@
         <v>-2.61</v>
       </c>
       <c r="AF60">
-        <v>-6.823008532449515</v>
+        <v>-8.030047935645069</v>
       </c>
       <c r="AG60">
         <v>-0.7637565563855531</v>
@@ -6678,13 +6678,13 @@
         <v>-0.5162973990776254</v>
       </c>
       <c r="W61">
-        <v>75.58166666666666</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="X61">
-        <v>81.78440659045872</v>
+        <v>81.67793304486031</v>
       </c>
       <c r="Y61">
-        <v>-7.584257418229756</v>
+        <v>-9.718577281455609</v>
       </c>
       <c r="Z61">
         <v>3885847</v>
@@ -6705,7 +6705,7 @@
         <v>-2.37</v>
       </c>
       <c r="AF61">
-        <v>-7.118481368647156</v>
+        <v>-7.297538117934577</v>
       </c>
       <c r="AG61">
         <v>-0.586780542605525</v>
@@ -6781,13 +6781,13 @@
         <v>-0.5004914703996555</v>
       </c>
       <c r="W62">
-        <v>75.03999999999999</v>
+        <v>73.19</v>
       </c>
       <c r="X62">
-        <v>81.73426958115743</v>
+        <v>81.67137642082096</v>
       </c>
       <c r="Y62">
-        <v>-8.190284950806859</v>
+        <v>-10.38475998876243</v>
       </c>
       <c r="Z62">
         <v>3929048.6</v>
@@ -6808,7 +6808,7 @@
         <v>-2.62</v>
       </c>
       <c r="AF62">
-        <v>-7.584257418229756</v>
+        <v>-9.718577281455609</v>
       </c>
       <c r="AG62">
         <v>-0.5162973990776254</v>
@@ -6884,13 +6884,13 @@
         <v>-0.4301085599264121</v>
       </c>
       <c r="W63">
-        <v>74.68166666666666</v>
+        <v>74.67</v>
       </c>
       <c r="X63">
-        <v>81.70148803618798</v>
+        <v>81.68276882813653</v>
       </c>
       <c r="Y63">
-        <v>-8.592036128414261</v>
+        <v>-8.585371099370597</v>
       </c>
       <c r="Z63">
         <v>3978014.6</v>
@@ -6911,7 +6911,7 @@
         <v>-2.63</v>
       </c>
       <c r="AF63">
-        <v>-8.190284950806859</v>
+        <v>-10.38475998876243</v>
       </c>
       <c r="AG63">
         <v>-0.5004914703996555</v>
@@ -6987,13 +6987,13 @@
         <v>-0.4180282147439152</v>
       </c>
       <c r="W64">
-        <v>74.54833333333333</v>
+        <v>74.77</v>
       </c>
       <c r="X64">
-        <v>81.68631916813162</v>
+        <v>81.71223046406455</v>
       </c>
       <c r="Y64">
-        <v>-8.73828801137001</v>
+        <v>-8.495950269179852</v>
       </c>
       <c r="Z64">
         <v>4015980.2</v>
@@ -7014,7 +7014,7 @@
         <v>-2.72</v>
       </c>
       <c r="AF64">
-        <v>-8.592036128414261</v>
+        <v>-8.585371099370597</v>
       </c>
       <c r="AG64">
         <v>-0.4301085599264121</v>
@@ -7090,13 +7090,13 @@
         <v>-0.3638441156996963</v>
       </c>
       <c r="W65">
-        <v>74.05333333333333</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="X65">
-        <v>81.68896602427607</v>
+        <v>81.75982741498308</v>
       </c>
       <c r="Y65">
-        <v>-9.347202030533241</v>
+        <v>-11.68034194410862</v>
       </c>
       <c r="Z65">
         <v>4058947.1</v>
@@ -7117,7 +7117,7 @@
         <v>-3.03</v>
       </c>
       <c r="AF65">
-        <v>-8.73828801137001</v>
+        <v>-8.495950269179852</v>
       </c>
       <c r="AG65">
         <v>-0.4180282147439152</v>
@@ -7193,13 +7193,13 @@
         <v>-0.3084446685299724</v>
       </c>
       <c r="W66">
-        <v>73.66666666666666</v>
+        <v>73.42</v>
       </c>
       <c r="X66">
-        <v>81.70957657486252</v>
+        <v>81.82557220068334</v>
       </c>
       <c r="Y66">
-        <v>-9.843289177770897</v>
+        <v>-10.27254924666832</v>
       </c>
       <c r="Z66">
         <v>4111272.3</v>
@@ -7220,7 +7220,7 @@
         <v>-2.95</v>
       </c>
       <c r="AF66">
-        <v>-9.347202030533241</v>
+        <v>-11.68034194410862</v>
       </c>
       <c r="AG66">
         <v>-0.3638441156996963</v>
@@ -7296,13 +7296,13 @@
         <v>-0.1344933042741858</v>
       </c>
       <c r="W67">
-        <v>73.44</v>
+        <v>72.38</v>
       </c>
       <c r="X67">
-        <v>81.74823987321007</v>
+        <v>81.90940365401399</v>
       </c>
       <c r="Y67">
-        <v>-10.1632033742818</v>
+        <v>-11.63407768693601</v>
       </c>
       <c r="Z67">
         <v>4158547.4</v>
@@ -7323,7 +7323,7 @@
         <v>-3.08</v>
       </c>
       <c r="AF67">
-        <v>-9.843289177770897</v>
+        <v>-10.27254924666832</v>
       </c>
       <c r="AG67">
         <v>-0.3084446685299724</v>
@@ -7399,13 +7399,13 @@
         <v>0.0198942485884368</v>
       </c>
       <c r="W68">
-        <v>73.20166666666667</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="X68">
-        <v>81.80498291315027</v>
+        <v>82.01119575001681</v>
       </c>
       <c r="Y68">
-        <v>-10.51686088073323</v>
+        <v>-12.49975159643335</v>
       </c>
       <c r="Z68">
         <v>4196989.2</v>
@@ -7426,7 +7426,7 @@
         <v>-3.31</v>
       </c>
       <c r="AF68">
-        <v>-10.1632033742818</v>
+        <v>-11.63407768693601</v>
       </c>
       <c r="AG68">
         <v>-0.1344933042741858</v>
@@ -7502,13 +7502,13 @@
         <v>0.07581235354150451</v>
       </c>
       <c r="W69">
-        <v>72.99499999999999</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="X69">
-        <v>81.87976858172385</v>
+        <v>82.13074893437842</v>
       </c>
       <c r="Y69">
-        <v>-10.85099376270954</v>
+        <v>-10.59377766216428</v>
       </c>
       <c r="Z69">
         <v>4239493.9</v>
@@ -7529,7 +7529,7 @@
         <v>-3.58</v>
       </c>
       <c r="AF69">
-        <v>-10.51686088073323</v>
+        <v>-12.49975159643335</v>
       </c>
       <c r="AG69">
         <v>0.0198942485884368</v>
@@ -7605,13 +7605,13 @@
         <v>0.009586092441926652</v>
       </c>
       <c r="W70">
-        <v>73.55333333333333</v>
+        <v>78.12</v>
       </c>
       <c r="X70">
-        <v>81.97249338235856</v>
+        <v>82.26778455405612</v>
       </c>
       <c r="Y70">
-        <v>-10.27071362799017</v>
+        <v>-5.041808985789221</v>
       </c>
       <c r="Z70">
         <v>4272946.9</v>
@@ -7632,7 +7632,7 @@
         <v>-3.53</v>
       </c>
       <c r="AF70">
-        <v>-10.85099376270954</v>
+        <v>-10.59377766216428</v>
       </c>
       <c r="AG70">
         <v>0.07581235354150451</v>
@@ -7708,13 +7708,13 @@
         <v>-0.1742394353622001</v>
       </c>
       <c r="W71">
-        <v>74.55499999999999</v>
+        <v>78.22</v>
       </c>
       <c r="X71">
-        <v>82.0829852631704</v>
+        <v>82.4219568206004</v>
       </c>
       <c r="Y71">
-        <v>-9.171188449146372</v>
+        <v>-5.098103688251876</v>
       </c>
       <c r="Z71">
         <v>4305785.2</v>
@@ -7735,7 +7735,7 @@
         <v>-3.03</v>
       </c>
       <c r="AF71">
-        <v>-10.27071362799017</v>
+        <v>-5.041808985789221</v>
       </c>
       <c r="AG71">
         <v>0.009586092441926652</v>
@@ -7811,13 +7811,13 @@
         <v>-0.2371699763812352</v>
       </c>
       <c r="W72">
-        <v>75.32833333333333</v>
+        <v>78.06</v>
       </c>
       <c r="X72">
-        <v>82.21100720961763</v>
+        <v>82.5928879410492</v>
       </c>
       <c r="Y72">
-        <v>-8.371961504783897</v>
+        <v>-5.488230347732303</v>
       </c>
       <c r="Z72">
         <v>4338896</v>
@@ -7838,7 +7838,7 @@
         <v>-3.1</v>
       </c>
       <c r="AF72">
-        <v>-9.171188449146372</v>
+        <v>-5.098103688251876</v>
       </c>
       <c r="AG72">
         <v>-0.1742394353622001</v>
@@ -7914,13 +7914,13 @@
         <v>-0.233884109823157</v>
       </c>
       <c r="W73">
-        <v>76.49666666666667</v>
+        <v>79.39</v>
       </c>
       <c r="X73">
-        <v>82.3562641208552</v>
+        <v>82.78016769993312</v>
       </c>
       <c r="Y73">
-        <v>-7.11493839204479</v>
+        <v>-4.095386363823295</v>
       </c>
       <c r="Z73">
         <v>4376382</v>
@@ -7941,7 +7941,7 @@
         <v>-3.17</v>
       </c>
       <c r="AF73">
-        <v>-8.371961504783897</v>
+        <v>-5.488230347732303</v>
       </c>
       <c r="AG73">
         <v>-0.2371699763812352</v>
@@ -8017,13 +8017,13 @@
         <v>-0.1670987245169675</v>
       </c>
       <c r="W74">
-        <v>77.32833333333333</v>
+        <v>76.75</v>
       </c>
       <c r="X74">
-        <v>82.51840778898681</v>
+        <v>82.98335090579918</v>
       </c>
       <c r="Y74">
-        <v>-6.289595975876495</v>
+        <v>-7.511568088971421</v>
       </c>
       <c r="Z74">
         <v>4412981.7</v>
@@ -8044,7 +8044,7 @@
         <v>-2.94</v>
       </c>
       <c r="AF74">
-        <v>-7.11493839204479</v>
+        <v>-4.095386363823295</v>
       </c>
       <c r="AG74">
         <v>-0.233884109823157</v>
@@ -8120,13 +8120,13 @@
         <v>-0.1430323479898354</v>
       </c>
       <c r="W75">
-        <v>77.66500000000001</v>
+        <v>75.45</v>
       </c>
       <c r="X75">
-        <v>82.69704479317157</v>
+        <v>83.20196620848954</v>
       </c>
       <c r="Y75">
-        <v>-6.084914891163162</v>
+        <v>-9.317046894137649</v>
       </c>
       <c r="Z75">
         <v>4448184.5</v>
@@ -8147,7 +8147,7 @@
         <v>-3.1</v>
       </c>
       <c r="AF75">
-        <v>-6.289595975876495</v>
+        <v>-7.511568088971421</v>
       </c>
       <c r="AG75">
         <v>-0.1670987245169675</v>
@@ -8223,13 +8223,13 @@
         <v>-0.0812335961290378</v>
       </c>
       <c r="W76">
-        <v>77.81166666666667</v>
+        <v>79</v>
       </c>
       <c r="X76">
-        <v>82.89174166569671</v>
+        <v>83.4354941610043</v>
       </c>
       <c r="Y76">
-        <v>-6.128565882374682</v>
+        <v>-5.316075856691382</v>
       </c>
       <c r="Z76">
         <v>4489325.6</v>
@@ -8250,7 +8250,7 @@
         <v>-3.12</v>
       </c>
       <c r="AF76">
-        <v>-6.084914891163162</v>
+        <v>-9.317046894137649</v>
       </c>
       <c r="AG76">
         <v>-0.1430323479898354</v>
@@ -8326,13 +8326,13 @@
         <v>-0.01136658237204102</v>
       </c>
       <c r="W77">
-        <v>78.29166666666667</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="X77">
-        <v>83.1020261113473</v>
+        <v>83.68335550179003</v>
       </c>
       <c r="Y77">
-        <v>-5.788498391405394</v>
+        <v>-3.087060128384522</v>
       </c>
       <c r="Z77">
         <v>4520587.8</v>
@@ -8353,7 +8353,7 @@
         <v>-3.02</v>
       </c>
       <c r="AF77">
-        <v>-6.128565882374682</v>
+        <v>-5.316075856691382</v>
       </c>
       <c r="AG77">
         <v>-0.0812335961290378</v>
@@ -8429,13 +8429,13 @@
         <v>0.05988149758746619</v>
       </c>
       <c r="W78">
-        <v>79.53666666666666</v>
+        <v>85.53</v>
       </c>
       <c r="X78">
-        <v>83.32738663679378</v>
+        <v>83.94493674480049</v>
       </c>
       <c r="Y78">
-        <v>-4.549188595881503</v>
+        <v>1.888217820710536</v>
       </c>
       <c r="Z78">
         <v>4554177.4</v>
@@ -8456,7 +8456,7 @@
         <v>-2.91</v>
       </c>
       <c r="AF78">
-        <v>-5.788498391405394</v>
+        <v>-3.087060128384522</v>
       </c>
       <c r="AG78">
         <v>-0.01136658237204102</v>
@@ -8532,13 +8532,13 @@
         <v>0.07261756008589693</v>
       </c>
       <c r="W79">
-        <v>80.80499999999999</v>
+        <v>87</v>
       </c>
       <c r="X79">
-        <v>83.56727463173775</v>
+        <v>84.21960447069007</v>
       </c>
       <c r="Y79">
-        <v>-3.305450182395531</v>
+        <v>3.301363793839185</v>
       </c>
       <c r="Z79">
         <v>4585739</v>
@@ -8559,7 +8559,7 @@
         <v>-2.78</v>
       </c>
       <c r="AF79">
-        <v>-4.549188595881503</v>
+        <v>1.888217820710536</v>
       </c>
       <c r="AG79">
         <v>0.05988149758746619</v>
@@ -8635,13 +8635,13 @@
         <v>0.07799504277599123</v>
       </c>
       <c r="W80">
-        <v>82.33333333333333</v>
+        <v>85.92</v>
       </c>
       <c r="X80">
-        <v>83.82111223650014</v>
+        <v>84.50673749054052</v>
       </c>
       <c r="Y80">
-        <v>-1.774945313263165</v>
+        <v>1.67236666735322</v>
       </c>
       <c r="Z80">
         <v>4627426.9</v>
@@ -8662,7 +8662,7 @@
         <v>-2.53</v>
       </c>
       <c r="AF80">
-        <v>-3.305450182395531</v>
+        <v>3.301363793839185</v>
       </c>
       <c r="AG80">
         <v>0.07261756008589693</v>
@@ -8738,13 +8738,13 @@
         <v>0.1171686223832458</v>
       </c>
       <c r="W81">
-        <v>84.23999999999999</v>
+        <v>86.89</v>
       </c>
       <c r="X81">
-        <v>84.08830027755216</v>
+        <v>84.80573606910322</v>
       </c>
       <c r="Y81">
-        <v>0.1804052667816025</v>
+        <v>2.457692165065861</v>
       </c>
       <c r="Z81">
         <v>4671291.7</v>
@@ -8765,7 +8765,7 @@
         <v>-2.33</v>
       </c>
       <c r="AF81">
-        <v>-1.774945313263165</v>
+        <v>1.67236666735322</v>
       </c>
       <c r="AG81">
         <v>0.07799504277599123</v>
@@ -8841,13 +8841,13 @@
         <v>0.2393827659732173</v>
       </c>
       <c r="W82">
-        <v>85.67833333333333</v>
+        <v>87.63</v>
       </c>
       <c r="X82">
-        <v>84.36822810159032</v>
+        <v>85.1160113759323</v>
       </c>
       <c r="Y82">
-        <v>1.55284194207026</v>
+        <v>2.953602481399353</v>
       </c>
       <c r="Z82">
         <v>4703853.6</v>
@@ -8868,7 +8868,7 @@
         <v>-2.28</v>
       </c>
       <c r="AF82">
-        <v>0.1804052667816025</v>
+        <v>2.457692165065861</v>
       </c>
       <c r="AG82">
         <v>0.1171686223832458</v>
@@ -8944,13 +8944,13 @@
         <v>0.4541270330949532</v>
       </c>
       <c r="W83">
-        <v>86.71833333333332</v>
+        <v>87.34</v>
       </c>
       <c r="X83">
-        <v>84.66028622583393</v>
+        <v>85.43699066286536</v>
       </c>
       <c r="Y83">
-        <v>2.430947495274816</v>
+        <v>2.227383387886328</v>
       </c>
       <c r="Z83">
         <v>4751483.1</v>
@@ -8971,7 +8971,7 @@
         <v>-2.12</v>
       </c>
       <c r="AF83">
-        <v>1.55284194207026</v>
+        <v>2.953602481399353</v>
       </c>
       <c r="AG83">
         <v>0.2393827659732173</v>
@@ -9047,13 +9047,13 @@
         <v>0.6020645391181301</v>
       </c>
       <c r="W84">
-        <v>87.12833333333333</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="X84">
-        <v>84.96387527633881</v>
+        <v>85.76812057980072</v>
       </c>
       <c r="Y84">
-        <v>2.547503924408789</v>
+        <v>2.590565591479854</v>
       </c>
       <c r="Z84">
         <v>4786545.6</v>
@@ -9074,7 +9074,7 @@
         <v>-2.07</v>
       </c>
       <c r="AF84">
-        <v>2.430947495274816</v>
+        <v>2.227383387886328</v>
       </c>
       <c r="AG84">
         <v>0.4541270330949532</v>
@@ -9150,13 +9150,13 @@
         <v>0.7276093763473712</v>
       </c>
       <c r="W85">
-        <v>87.37833333333333</v>
+        <v>88.5</v>
       </c>
       <c r="X85">
-        <v>85.27841175915295</v>
+        <v>86.10886246035021</v>
       </c>
       <c r="Y85">
-        <v>2.462430445012354</v>
+        <v>2.776877398363986</v>
       </c>
       <c r="Z85">
         <v>4814760</v>
@@ -9177,7 +9177,7 @@
         <v>-1.77</v>
       </c>
       <c r="AF85">
-        <v>2.547503924408789</v>
+        <v>2.590565591479854</v>
       </c>
       <c r="AG85">
         <v>0.6020645391181301</v>
@@ -9253,13 +9253,13 @@
         <v>0.7895962205856311</v>
       </c>
       <c r="W86">
-        <v>87.39166666666665</v>
+        <v>86</v>
       </c>
       <c r="X86">
-        <v>85.60332888139138</v>
+        <v>86.45869478225788</v>
       </c>
       <c r="Y86">
-        <v>2.089098413162316</v>
+        <v>-0.5305363253667927</v>
       </c>
       <c r="Z86">
         <v>4859459.1</v>
@@ -9280,7 +9280,7 @@
         <v>-2.18</v>
       </c>
       <c r="AF86">
-        <v>2.462430445012354</v>
+        <v>2.776877398363986</v>
       </c>
       <c r="AG86">
         <v>0.7276093763473712</v>
@@ -9356,13 +9356,13 @@
         <v>0.8135321117530125</v>
       </c>
       <c r="W87">
-        <v>86.83999999999999</v>
+        <v>83.58</v>
       </c>
       <c r="X87">
-        <v>85.93807605326656</v>
+        <v>86.81711447340163</v>
       </c>
       <c r="Y87">
-        <v>1.049504466651552</v>
+        <v>-3.728659369799026</v>
       </c>
       <c r="Z87">
         <v>4890027.5</v>
@@ -9383,7 +9383,7 @@
         <v>-2.25</v>
       </c>
       <c r="AF87">
-        <v>2.089098413162316</v>
+        <v>-0.5305363253667927</v>
       </c>
       <c r="AG87">
         <v>0.7895962205856311</v>
@@ -9459,13 +9459,13 @@
         <v>0.8575687207178939</v>
       </c>
       <c r="W88">
-        <v>86.06333333333333</v>
+        <v>82.97</v>
       </c>
       <c r="X88">
-        <v>86.28211648389372</v>
+        <v>87.18361492234916</v>
       </c>
       <c r="Y88">
-        <v>-0.2535672042783377</v>
+        <v>-4.833035342824521</v>
       </c>
       <c r="Z88">
         <v>4926899.2</v>
@@ -9486,7 +9486,7 @@
         <v>-1.98</v>
       </c>
       <c r="AF88">
-        <v>1.049504466651552</v>
+        <v>-3.728659369799026</v>
       </c>
       <c r="AG88">
         <v>0.8135321117530125</v>
@@ -9562,13 +9562,13 @@
         <v>0.913613300582905</v>
       </c>
       <c r="W89">
-        <v>85.38999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="X89">
-        <v>86.6349203416777</v>
+        <v>87.55766453993145</v>
       </c>
       <c r="Y89">
-        <v>-1.436972916657508</v>
+        <v>-4.862697700199292</v>
       </c>
       <c r="Z89">
         <v>4987524.1</v>
@@ -9589,7 +9589,7 @@
         <v>-1.82</v>
       </c>
       <c r="AF89">
-        <v>-0.2535672042783377</v>
+        <v>-4.833035342824521</v>
       </c>
       <c r="AG89">
         <v>0.8575687207178939</v>
@@ -9665,13 +9665,13 @@
         <v>1.068363268816919</v>
       </c>
       <c r="W90">
-        <v>84.77999999999999</v>
+        <v>84.33</v>
       </c>
       <c r="X90">
-        <v>86.99595610688182</v>
+        <v>87.93869922452079</v>
       </c>
       <c r="Y90">
-        <v>-2.547194382413986</v>
+        <v>-4.103653176978705</v>
       </c>
       <c r="Z90">
         <v>5026997</v>
@@ -9692,7 +9692,7 @@
         <v>-1.72</v>
       </c>
       <c r="AF90">
-        <v>-1.436972916657508</v>
+        <v>-4.862697700199292</v>
       </c>
       <c r="AG90">
         <v>0.913613300582905</v>
@@ -9768,13 +9768,13 @@
         <v>1.25491734138603</v>
       </c>
       <c r="W91">
-        <v>85.05999999999999</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="X91">
-        <v>87.36468265390272</v>
+        <v>88.32612202213757</v>
       </c>
       <c r="Y91">
-        <v>-2.638002661822492</v>
+        <v>2.098901135269804</v>
       </c>
       <c r="Z91">
         <v>5066353.2</v>
@@ -9795,7 +9795,7 @@
         <v>-1.77</v>
       </c>
       <c r="AF91">
-        <v>-2.547194382413986</v>
+        <v>-4.103653176978705</v>
       </c>
       <c r="AG91">
         <v>1.068363268816919</v>
@@ -9871,13 +9871,13 @@
         <v>1.425999853101279</v>
       </c>
       <c r="W92">
-        <v>86.30166666666666</v>
+        <v>93.45</v>
       </c>
       <c r="X92">
-        <v>87.7405417587096</v>
+        <v>88.71930813390233</v>
       </c>
       <c r="Y92">
-        <v>-1.639920455471888</v>
+        <v>5.332201034478001</v>
       </c>
       <c r="Z92">
         <v>5109929.7</v>
@@ -9898,7 +9898,7 @@
         <v>-1.81</v>
       </c>
       <c r="AF92">
-        <v>-2.638002661822492</v>
+        <v>2.098901135269804</v>
       </c>
       <c r="AG92">
         <v>1.25491734138603</v>
@@ -9974,13 +9974,13 @@
         <v>1.569054873363207</v>
       </c>
       <c r="W93">
-        <v>88.71499999999999</v>
+        <v>98.06</v>
       </c>
       <c r="X93">
-        <v>88.12295741422797</v>
+        <v>89.11764706554868</v>
       </c>
       <c r="Y93">
-        <v>0.6718369459493889</v>
+        <v>10.03432342403963</v>
       </c>
       <c r="Z93">
         <v>5144959.4</v>
@@ -10001,7 +10001,7 @@
         <v>-1.73</v>
       </c>
       <c r="AF93">
-        <v>-1.639920455471888</v>
+        <v>5.332201034478001</v>
       </c>
       <c r="AG93">
         <v>1.425999853101279</v>
@@ -10077,13 +10077,13 @@
         <v>1.754329436644775</v>
       </c>
       <c r="W94">
-        <v>90.685</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="X94">
-        <v>88.51134251095081</v>
+        <v>89.52056482506246</v>
       </c>
       <c r="Y94">
-        <v>2.455795412639072</v>
+        <v>5.886284548399434</v>
       </c>
       <c r="Z94">
         <v>5190038.5</v>
@@ -10104,7 +10104,7 @@
         <v>-1.65</v>
       </c>
       <c r="AF94">
-        <v>0.6718369459493889</v>
+        <v>10.03432342403963</v>
       </c>
       <c r="AG94">
         <v>1.569054873363207</v>
@@ -10180,13 +10180,13 @@
         <v>1.971271134335972</v>
       </c>
       <c r="W95">
-        <v>92.04666666666667</v>
+        <v>91.47</v>
       </c>
       <c r="X95">
-        <v>88.90511450760152</v>
+        <v>89.92755642006674</v>
       </c>
       <c r="Y95">
-        <v>3.533601161715549</v>
+        <v>1.715206819062498</v>
       </c>
       <c r="Z95">
         <v>5234346.7</v>
@@ -10207,7 +10207,7 @@
         <v>-1.43</v>
       </c>
       <c r="AF95">
-        <v>2.455795412639072</v>
+        <v>5.886284548399434</v>
       </c>
       <c r="AG95">
         <v>1.754329436644775</v>
@@ -10283,13 +10283,13 @@
         <v>2.236732545629128</v>
       </c>
       <c r="W96">
-        <v>93.77666666666666</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="X96">
-        <v>89.30370763495189</v>
+        <v>90.33815751740615</v>
       </c>
       <c r="Y96">
-        <v>5.008704733737313</v>
+        <v>4.839419579430193</v>
       </c>
       <c r="Z96">
         <v>5278071.3</v>
@@ -10310,7 +10310,7 @@
         <v>-1.3</v>
       </c>
       <c r="AF96">
-        <v>3.533601161715549</v>
+        <v>1.715206819062498</v>
       </c>
       <c r="AG96">
         <v>1.971271134335972</v>
@@ -10386,13 +10386,13 @@
         <v>2.479639690216029</v>
       </c>
       <c r="W97">
-        <v>94.72500000000001</v>
+        <v>95.87</v>
       </c>
       <c r="X97">
-        <v>89.7065803641451</v>
+        <v>90.75191568549654</v>
       </c>
       <c r="Y97">
-        <v>5.594260326816247</v>
+        <v>5.639643280082751</v>
       </c>
       <c r="Z97">
         <v>5331619</v>
@@ -10413,7 +10413,7 @@
         <v>-1.95</v>
       </c>
       <c r="AF97">
-        <v>5.008704733737313</v>
+        <v>4.839419579430193</v>
       </c>
       <c r="AG97">
         <v>2.236732545629128</v>
@@ -10489,13 +10489,13 @@
         <v>2.762443496708733</v>
       </c>
       <c r="W98">
-        <v>95.08333333333333</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="X98">
-        <v>90.11322567989714</v>
+        <v>91.16841222610601</v>
       </c>
       <c r="Y98">
-        <v>5.515403111959549</v>
+        <v>4.860880721387617</v>
       </c>
       <c r="Z98">
         <v>5376008.7</v>
@@ -10516,7 +10516,7 @@
         <v>-1.71</v>
       </c>
       <c r="AF98">
-        <v>5.594260326816247</v>
+        <v>5.639643280082751</v>
       </c>
       <c r="AG98">
         <v>2.479639690216029</v>
@@ -10592,13 +10592,13 @@
         <v>3.051227029364911</v>
       </c>
       <c r="W99">
-        <v>94.52666666666666</v>
+        <v>94.72</v>
       </c>
       <c r="X99">
-        <v>90.52317528929784</v>
+        <v>91.58726793239384</v>
       </c>
       <c r="Y99">
-        <v>4.422614832692617</v>
+        <v>3.420488609747174</v>
       </c>
       <c r="Z99">
         <v>5433417.2</v>
@@ -10619,7 +10619,7 @@
         <v>-1.51</v>
       </c>
       <c r="AF99">
-        <v>5.515403111959549</v>
+        <v>4.860880721387617</v>
       </c>
       <c r="AG99">
         <v>2.762443496708733</v>
@@ -10695,13 +10695,13 @@
         <v>3.255861190851239</v>
       </c>
       <c r="W100">
-        <v>94.00833333333333</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="X100">
-        <v>90.9359992490332</v>
+        <v>92.00813779186979</v>
       </c>
       <c r="Y100">
-        <v>3.378567464669713</v>
+        <v>-0.3566399665777986</v>
       </c>
       <c r="Z100">
         <v>5475987.8</v>
@@ -10722,7 +10722,7 @@
         <v>-1.59</v>
       </c>
       <c r="AF100">
-        <v>4.422614832692617</v>
+        <v>3.420488609747174</v>
       </c>
       <c r="AG100">
         <v>3.051227029364911</v>
@@ -10798,13 +10798,13 @@
         <v>3.392804025363394</v>
       </c>
       <c r="W101">
-        <v>93.36833333333333</v>
+        <v>87.63</v>
       </c>
       <c r="X101">
-        <v>91.35129850692616</v>
+        <v>92.43070096435852</v>
       </c>
       <c r="Y101">
-        <v>2.207997980733944</v>
+        <v>-5.193838101703552</v>
       </c>
       <c r="Z101">
         <v>5509204.3</v>
@@ -10825,7 +10825,7 @@
         <v>-1.57</v>
       </c>
       <c r="AF101">
-        <v>3.378567464669713</v>
+        <v>-0.3566399665777986</v>
       </c>
       <c r="AG101">
         <v>3.255861190851239</v>
@@ -10901,13 +10901,13 @@
         <v>3.409886779907612</v>
       </c>
       <c r="W102">
-        <v>92.06666666666666</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="X102">
-        <v>91.76869771708134</v>
+        <v>92.85463407775777</v>
       </c>
       <c r="Y102">
-        <v>0.3246956282456415</v>
+        <v>-6.412856113106069</v>
       </c>
       <c r="Z102">
         <v>5549143</v>
@@ -10928,7 +10928,7 @@
         <v>-1.68</v>
       </c>
       <c r="AF102">
-        <v>2.207997980733944</v>
+        <v>-5.193838101703552</v>
       </c>
       <c r="AG102">
         <v>3.392804025363394</v>
@@ -11004,13 +11004,13 @@
         <v>3.351329618974841</v>
       </c>
       <c r="W103">
-        <v>90.59666666666665</v>
+        <v>87.05</v>
       </c>
       <c r="X103">
-        <v>92.18783709714374</v>
+        <v>93.27957671751905</v>
       </c>
       <c r="Y103">
-        <v>-1.726009070806578</v>
+        <v>-6.678392995268667</v>
       </c>
       <c r="Z103">
         <v>5575730.9</v>
@@ -11031,7 +11031,7 @@
         <v>-1.37</v>
       </c>
       <c r="AF103">
-        <v>0.3246956282456415</v>
+        <v>-6.412856113106069</v>
       </c>
       <c r="AG103">
         <v>3.409886779907612</v>
@@ -11107,13 +11107,13 @@
         <v>3.284189289547546</v>
       </c>
       <c r="W104">
-        <v>89.245</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="X104">
-        <v>92.60835916390118</v>
+        <v>93.70512252284379</v>
       </c>
       <c r="Y104">
-        <v>-3.631809476235948</v>
+        <v>-6.632639022833198</v>
       </c>
       <c r="Z104">
         <v>5610038.7</v>
@@ -11134,7 +11134,7 @@
         <v>-1.23</v>
       </c>
       <c r="AF104">
-        <v>-1.726009070806578</v>
+        <v>-6.678392995268667</v>
       </c>
       <c r="AG104">
         <v>3.351329618974841</v>
@@ -11210,13 +11210,13 @@
         <v>3.289749188616797</v>
       </c>
       <c r="W105">
-        <v>88.25333333333333</v>
+        <v>88.77</v>
       </c>
       <c r="X105">
-        <v>93.02989415659246</v>
+        <v>94.13081706521149</v>
       </c>
       <c r="Y105">
-        <v>-5.134436480405958</v>
+        <v>-5.695071212967006</v>
       </c>
       <c r="Z105">
         <v>5640035.7</v>
@@ -11237,7 +11237,7 @@
         <v>-1.1</v>
       </c>
       <c r="AF105">
-        <v>-3.631809476235948</v>
+        <v>-6.632639022833198</v>
       </c>
       <c r="AG105">
         <v>3.284189289547546</v>
@@ -11313,13 +11313,13 @@
         <v>3.358568969253106</v>
       </c>
       <c r="W106">
-        <v>87.90499999999999</v>
+        <v>89.59</v>
       </c>
       <c r="X106">
-        <v>93.45204636261036</v>
+        <v>94.55615795990946</v>
       </c>
       <c r="Y106">
-        <v>-5.935714174825946</v>
+        <v>-5.252072490101634</v>
       </c>
       <c r="Z106">
         <v>5683722.3</v>
@@ -11340,7 +11340,7 @@
         <v>-0.84</v>
       </c>
       <c r="AF106">
-        <v>-5.134436480405958</v>
+        <v>-5.695071212967006</v>
       </c>
       <c r="AG106">
         <v>3.289749188616797</v>
@@ -11416,13 +11416,13 @@
         <v>3.452979550205293</v>
       </c>
       <c r="W107">
-        <v>88.77833333333332</v>
+        <v>92.87</v>
       </c>
       <c r="X107">
-        <v>93.87438321316887</v>
+        <v>94.98060145789576</v>
       </c>
       <c r="Y107">
-        <v>-5.428584141281112</v>
+        <v>-2.222139495327757</v>
       </c>
       <c r="Z107">
         <v>5716978</v>
@@ -11443,7 +11443,7 @@
         <v>-0.55</v>
       </c>
       <c r="AF107">
-        <v>-5.935714174825946</v>
+        <v>-5.252072490101634</v>
       </c>
       <c r="AG107">
         <v>3.358568969253106</v>
@@ -11519,13 +11519,13 @@
         <v>3.538790945698267</v>
       </c>
       <c r="W108">
-        <v>90.12333333333333</v>
+        <v>94.97</v>
       </c>
       <c r="X108">
-        <v>94.29642933819815</v>
+        <v>95.40356549100837</v>
       </c>
       <c r="Y108">
-        <v>-4.425507979626497</v>
+        <v>-0.4544541797541379</v>
       </c>
       <c r="Z108">
         <v>5745161.4</v>
@@ -11546,7 +11546,7 @@
         <v>-0.5</v>
       </c>
       <c r="AF108">
-        <v>-5.428584141281112</v>
+        <v>-2.222139495327757</v>
       </c>
       <c r="AG108">
         <v>3.452979550205293</v>
@@ -11622,13 +11622,13 @@
         <v>3.628558362335221</v>
       </c>
       <c r="W109">
-        <v>91.72166666666665</v>
+        <v>96.64</v>
       </c>
       <c r="X109">
-        <v>94.71767004625586</v>
+        <v>95.82445170558032</v>
       </c>
       <c r="Y109">
-        <v>-3.163088131418457</v>
+        <v>0.8510857927217286</v>
       </c>
       <c r="Z109">
         <v>5778953</v>
@@ -11649,7 +11649,7 @@
         <v>0.16</v>
       </c>
       <c r="AF109">
-        <v>-4.425507979626497</v>
+        <v>-0.4544541797541379</v>
       </c>
       <c r="AG109">
         <v>3.538790945698267</v>
@@ -11725,13 +11725,13 @@
         <v>3.546880139560571</v>
       </c>
       <c r="W110">
-        <v>92.69499999999999</v>
+        <v>93.33</v>
       </c>
       <c r="X110">
-        <v>95.13755844608474</v>
+        <v>96.24265840253202</v>
       </c>
       <c r="Y110">
-        <v>-2.567396605483585</v>
+        <v>-3.026369440409582</v>
       </c>
       <c r="Z110">
         <v>5800025.9</v>
@@ -11752,7 +11752,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AF110">
-        <v>-3.163088131418457</v>
+        <v>0.8510857927217286</v>
       </c>
       <c r="AG110">
         <v>3.628558362335221</v>
@@ -11828,13 +11828,13 @@
         <v>3.349414225023639</v>
       </c>
       <c r="W111">
-        <v>94.36166666666666</v>
+        <v>98.77</v>
       </c>
       <c r="X111">
-        <v>95.55552452911742</v>
+        <v>96.65759017559411</v>
       </c>
       <c r="Y111">
-        <v>-1.249386540792796</v>
+        <v>2.185456745371317</v>
       </c>
       <c r="Z111">
         <v>5811266.1</v>
@@ -11855,7 +11855,7 @@
         <v>0.54</v>
       </c>
       <c r="AF111">
-        <v>-2.567396605483585</v>
+        <v>-3.026369440409582</v>
       </c>
       <c r="AG111">
         <v>3.546880139560571</v>
@@ -11931,13 +11931,13 @@
         <v>3.100346989111991</v>
       </c>
       <c r="W112">
-        <v>97.25666666666666</v>
+        <v>106.96</v>
       </c>
       <c r="X112">
-        <v>95.97097943988555</v>
+        <v>97.06862914428199</v>
       </c>
       <c r="Y112">
-        <v>1.339662504524552</v>
+        <v>10.19007988772105</v>
       </c>
       <c r="Z112">
         <v>5849624.5</v>
@@ -11958,7 +11958,7 @@
         <v>0.62</v>
       </c>
       <c r="AF112">
-        <v>-1.249386540792796</v>
+        <v>2.185456745371317</v>
       </c>
       <c r="AG112">
         <v>3.349414225023639</v>
@@ -12034,13 +12034,13 @@
         <v>2.79890583073823</v>
       </c>
       <c r="W113">
-        <v>99.05999999999999</v>
+        <v>103.69</v>
       </c>
       <c r="X113">
-        <v>96.38332511105386</v>
+        <v>97.4751737275692</v>
       </c>
       <c r="Y113">
-        <v>2.777114076384102</v>
+        <v>6.375804253296802</v>
       </c>
       <c r="Z113">
         <v>5867021.2</v>
@@ -12061,7 +12061,7 @@
         <v>0.67</v>
       </c>
       <c r="AF113">
-        <v>1.339662504524552</v>
+        <v>10.19007988772105</v>
       </c>
       <c r="AG113">
         <v>3.100346989111991</v>
@@ -12137,13 +12137,13 @@
         <v>2.518896741674248</v>
       </c>
       <c r="W114">
-        <v>100.5866666666667</v>
+        <v>104.13</v>
       </c>
       <c r="X114">
-        <v>96.79197339571354</v>
+        <v>97.87669866673536</v>
       </c>
       <c r="Y114">
-        <v>3.92046275928204</v>
+        <v>6.388958167210745</v>
       </c>
       <c r="Z114">
         <v>5878032.1</v>
@@ -12164,7 +12164,7 @@
         <v>0.73</v>
       </c>
       <c r="AF114">
-        <v>2.777114076384102</v>
+        <v>6.375804253296802</v>
       </c>
       <c r="AG114">
         <v>2.79890583073823</v>
@@ -12240,13 +12240,13 @@
         <v>2.200828942911803</v>
       </c>
       <c r="W115">
-        <v>101.9916666666667</v>
+        <v>105.07</v>
       </c>
       <c r="X115">
-        <v>97.19635680031128</v>
+        <v>98.27272665696634</v>
       </c>
       <c r="Y115">
-        <v>4.933631284356976</v>
+        <v>6.916744425704624</v>
       </c>
       <c r="Z115">
         <v>5907266.7</v>
@@ -12267,7 +12267,7 @@
         <v>0.65</v>
       </c>
       <c r="AF115">
-        <v>3.92046275928204</v>
+        <v>6.388958167210745</v>
       </c>
       <c r="AG115">
         <v>2.518896741674248</v>
@@ -12343,13 +12343,13 @@
         <v>1.817370196123513</v>
       </c>
       <c r="W116">
-        <v>104.49</v>
+        <v>108.32</v>
       </c>
       <c r="X116">
-        <v>97.59593711133407</v>
+        <v>98.66282864423033</v>
       </c>
       <c r="Y116">
-        <v>7.063883080298128</v>
+        <v>9.788054415703606</v>
       </c>
       <c r="Z116">
         <v>5927538.5</v>
@@ -12370,7 +12370,7 @@
         <v>0.77</v>
       </c>
       <c r="AF116">
-        <v>4.933631284356976</v>
+        <v>6.916744425704624</v>
       </c>
       <c r="AG116">
         <v>2.200828942911803</v>
@@ -12446,13 +12446,13 @@
         <v>1.30728844079524</v>
       </c>
       <c r="W117">
-        <v>107.4933333333333</v>
+        <v>116.79</v>
       </c>
       <c r="X117">
-        <v>97.99021311611746</v>
+        <v>99.04662802259017</v>
       </c>
       <c r="Y117">
-        <v>9.698029951169463</v>
+        <v>17.91416056421728</v>
       </c>
       <c r="Z117">
         <v>5945152.7</v>
@@ -12473,7 +12473,7 @@
         <v>0.86</v>
       </c>
       <c r="AF117">
-        <v>7.063883080298128</v>
+        <v>9.788054415703606</v>
       </c>
       <c r="AG117">
         <v>1.817370196123513</v>
@@ -12549,13 +12549,13 @@
         <v>0.6373881577093954</v>
       </c>
       <c r="W118">
-        <v>111.2233333333333</v>
+        <v>129.34</v>
       </c>
       <c r="X118">
-        <v>98.37873679692586</v>
+        <v>99.42382270132363</v>
       </c>
       <c r="Y118">
-        <v>13.05627308767072</v>
+        <v>30.08954643450668</v>
       </c>
       <c r="Z118">
         <v>5953369.4</v>
@@ -12576,7 +12576,7 @@
         <v>0.74</v>
       </c>
       <c r="AF118">
-        <v>9.698029951169463</v>
+        <v>17.91416056421728</v>
       </c>
       <c r="AG118">
         <v>1.30728844079524</v>
@@ -12652,13 +12652,13 @@
         <v>0.03781945153018551</v>
       </c>
       <c r="W119">
-        <v>115.1866666666667</v>
+        <v>127.47</v>
       </c>
       <c r="X119">
-        <v>98.76113346256935</v>
+        <v>99.79424749844034</v>
       </c>
       <c r="Y119">
-        <v>16.63157623674159</v>
+        <v>27.73281345900443</v>
       </c>
       <c r="Z119">
         <v>5965712.9</v>
@@ -12679,7 +12679,7 @@
         <v>0.43</v>
       </c>
       <c r="AF119">
-        <v>13.05627308767072</v>
+        <v>30.08954643450668</v>
       </c>
       <c r="AG119">
         <v>0.6373881577093954</v>
@@ -12755,13 +12755,13 @@
         <v>-0.3291516863188293</v>
       </c>
       <c r="W120">
-        <v>118.16</v>
+        <v>121.97</v>
       </c>
       <c r="X120">
-        <v>99.13712753139828</v>
+        <v>100.1579680666521</v>
       </c>
       <c r="Y120">
-        <v>19.18844427137236</v>
+        <v>21.77763023190786</v>
       </c>
       <c r="Z120">
         <v>5980761.4</v>
@@ -12782,7 +12782,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AF120">
-        <v>16.63157623674159</v>
+        <v>27.73281345900443</v>
       </c>
       <c r="AG120">
         <v>0.03781945153018551</v>
@@ -12858,13 +12858,13 @@
         <v>-0.3539947787672415</v>
       </c>
       <c r="W121">
-        <v>120.9983333333333</v>
+        <v>122.1</v>
       </c>
       <c r="X121">
-        <v>99.50657016198967</v>
+        <v>100.5152636061429</v>
       </c>
       <c r="Y121">
-        <v>21.59833580471782</v>
+        <v>21.47408823244434</v>
       </c>
       <c r="Z121">
         <v>5995787</v>
@@ -12885,7 +12885,7 @@
         <v>0.88</v>
       </c>
       <c r="AF121">
-        <v>19.18844427137236</v>
+        <v>21.77763023190786</v>
       </c>
       <c r="AG121">
         <v>-0.3291516863188293</v>
@@ -12961,13 +12961,13 @@
         <v>-0.4019499618723166</v>
       </c>
       <c r="W122">
-        <v>123.385</v>
+        <v>122.64</v>
       </c>
       <c r="X122">
-        <v>99.86945929434245</v>
+        <v>100.8665816198126</v>
       </c>
       <c r="Y122">
-        <v>23.54627818335418</v>
+        <v>21.58635499540966</v>
       </c>
       <c r="Z122">
         <v>6003128.3</v>
@@ -12988,7 +12988,7 @@
         <v>1.86</v>
       </c>
       <c r="AF122">
-        <v>21.59833580471782</v>
+        <v>21.47408823244434</v>
       </c>
       <c r="AG122">
         <v>-0.3539947787672415</v>
@@ -13064,13 +13064,13 @@
         <v>-0.5088186108317627</v>
       </c>
       <c r="W123">
-        <v>123.965</v>
+        <v>120.27</v>
       </c>
       <c r="X123">
-        <v>100.2259586999629</v>
+        <v>101.2125361594543</v>
       </c>
       <c r="Y123">
-        <v>23.68552180289185</v>
+        <v>18.82915354528982</v>
       </c>
       <c r="Z123">
         <v>6026858.5</v>
@@ -13091,7 +13091,7 @@
         <v>1.74</v>
       </c>
       <c r="AF123">
-        <v>23.54627818335418</v>
+        <v>21.58635499540966</v>
       </c>
       <c r="AG123">
         <v>-0.4019499618723166</v>
@@ -13167,13 +13167,13 @@
         <v>-0.8249597998087332</v>
       </c>
       <c r="W124">
-        <v>121.1833333333333</v>
+        <v>112.65</v>
       </c>
       <c r="X124">
-        <v>100.57641359743</v>
+        <v>101.5539092816307</v>
       </c>
       <c r="Y124">
-        <v>20.4888193949579</v>
+        <v>10.92630583781613</v>
       </c>
       <c r="Z124">
         <v>6039452.6</v>
@@ -13194,7 +13194,7 @@
         <v>2.08</v>
       </c>
       <c r="AF124">
-        <v>23.68552180289185</v>
+        <v>18.82915354528982</v>
       </c>
       <c r="AG124">
         <v>-0.5088186108317627</v>
@@ -13270,13 +13270,13 @@
         <v>-1.063094275563259</v>
       </c>
       <c r="W125">
-        <v>118.2783333333333</v>
+        <v>110.04</v>
       </c>
       <c r="X125">
-        <v>100.9213523769369</v>
+        <v>101.8916300912372</v>
       </c>
       <c r="Y125">
-        <v>17.19852196546954</v>
+        <v>7.997094463467169</v>
       </c>
       <c r="Z125">
         <v>6063168.7</v>
@@ -13297,7 +13297,7 @@
         <v>2.25</v>
       </c>
       <c r="AF125">
-        <v>20.4888193949579</v>
+        <v>10.92630583781613</v>
       </c>
       <c r="AG125">
         <v>-0.8249597998087332</v>
@@ -13373,13 +13373,13 @@
         <v>-1.388942326168652</v>
       </c>
       <c r="W126">
-        <v>116.0616666666667</v>
+        <v>108.67</v>
       </c>
       <c r="X126">
-        <v>101.2614624326878</v>
+        <v>102.2267133111534</v>
       </c>
       <c r="Y126">
-        <v>14.61583101648081</v>
+        <v>6.302938322231699</v>
       </c>
       <c r="Z126">
         <v>6087403.4</v>
@@ -13400,7 +13400,7 @@
         <v>2.3</v>
       </c>
       <c r="AF126">
-        <v>17.19852196546954</v>
+        <v>7.997094463467169</v>
       </c>
       <c r="AG126">
         <v>-1.063094275563259</v>
@@ -13476,13 +13476,13 @@
         <v>-1.688386411419684</v>
       </c>
       <c r="W127">
-        <v>113.1916666666667</v>
+        <v>104.88</v>
       </c>
       <c r="X127">
-        <v>101.5975650862092</v>
+        <v>102.5602365374836</v>
       </c>
       <c r="Y127">
-        <v>11.41179079500521</v>
+        <v>2.261854633758187</v>
       </c>
       <c r="Z127">
         <v>6118558.5</v>
@@ -13503,7 +13503,7 @@
         <v>2.47</v>
       </c>
       <c r="AF127">
-        <v>14.61583101648081</v>
+        <v>6.302938322231699</v>
       </c>
       <c r="AG127">
         <v>-1.388942326168652</v>
@@ -13579,13 +13579,13 @@
         <v>-1.937577322878492</v>
       </c>
       <c r="W128">
-        <v>109.3433333333333</v>
+        <v>99.55</v>
       </c>
       <c r="X128">
-        <v>101.9305958581345</v>
+        <v>102.8933270830499</v>
       </c>
       <c r="Y128">
-        <v>7.272338018621771</v>
+        <v>-3.24931380666833</v>
       </c>
       <c r="Z128">
         <v>6133331.9</v>
@@ -13606,7 +13606,7 @@
         <v>2.47</v>
       </c>
       <c r="AF128">
-        <v>11.41179079500521</v>
+        <v>2.261854633758187</v>
       </c>
       <c r="AG128">
         <v>-1.688386411419684</v>
@@ -13682,13 +13682,13 @@
         <v>-2.14821636512158</v>
       </c>
       <c r="W129">
-        <v>105.66</v>
+        <v>98.17</v>
       </c>
       <c r="X129">
-        <v>102.2615797297567</v>
+        <v>103.2271301600841</v>
       </c>
       <c r="Y129">
-        <v>3.323262049368081</v>
+        <v>-4.899032020207839</v>
       </c>
       <c r="Z129">
         <v>6162708.9</v>
@@ -13709,7 +13709,7 @@
         <v>2.51</v>
       </c>
       <c r="AF129">
-        <v>7.272338018621771</v>
+        <v>-3.24931380666833</v>
       </c>
       <c r="AG129">
         <v>-1.937577322878492</v>
@@ -13785,13 +13785,13 @@
         <v>-2.296653030245299</v>
       </c>
       <c r="W130">
-        <v>103.4016666666667</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="X130">
-        <v>102.5915988794178</v>
+        <v>103.5627651835413</v>
       </c>
       <c r="Y130">
-        <v>0.7896044082527087</v>
+        <v>-4.309237181560476</v>
       </c>
       <c r="Z130">
         <v>6187501.9</v>
@@ -13812,7 +13812,7 @@
         <v>2.74</v>
       </c>
       <c r="AF130">
-        <v>3.323262049368081</v>
+        <v>-4.899032020207839</v>
       </c>
       <c r="AG130">
         <v>-2.14821636512158</v>
@@ -13888,13 +13888,13 @@
         <v>-2.505340616782159</v>
       </c>
       <c r="W131">
-        <v>101.0533333333333</v>
+        <v>95.95</v>
       </c>
       <c r="X131">
-        <v>102.9217617078385</v>
+        <v>103.9013125473102</v>
       </c>
       <c r="Y131">
-        <v>-1.815387089670106</v>
+        <v>-7.652754669186357</v>
       </c>
       <c r="Z131">
         <v>6205866.7</v>
@@ -13915,7 +13915,7 @@
         <v>3.04</v>
       </c>
       <c r="AF131">
-        <v>0.7896044082527087</v>
+        <v>-4.309237181560476</v>
       </c>
       <c r="AG131">
         <v>-2.296653030245299</v>
@@ -13991,13 +13991,13 @@
         <v>-2.744506166805494</v>
       </c>
       <c r="W132">
-        <v>99.41500000000001</v>
+        <v>98.84</v>
       </c>
       <c r="X132">
-        <v>103.2531828662621</v>
+        <v>104.2438182103632</v>
       </c>
       <c r="Y132">
-        <v>-3.717253802464804</v>
+        <v>-5.183826056196783</v>
       </c>
       <c r="Z132">
         <v>6238414.5</v>
@@ -14018,7 +14018,7 @@
         <v>2.21</v>
       </c>
       <c r="AF132">
-        <v>-1.815387089670106</v>
+        <v>-7.652754669186357</v>
       </c>
       <c r="AG132">
         <v>-2.505340616782159</v>
@@ -14094,13 +14094,13 @@
         <v>-3.006202310188633</v>
       </c>
       <c r="W133">
-        <v>98.19333333333333</v>
+        <v>97.55</v>
       </c>
       <c r="X133">
-        <v>103.5869625890465</v>
+        <v>104.5912667789521</v>
       </c>
       <c r="Y133">
-        <v>-5.206861096131332</v>
+        <v>-6.732174679395952</v>
       </c>
       <c r="Z133">
         <v>6269328</v>
@@ -14121,7 +14121,7 @@
         <v>2.51</v>
       </c>
       <c r="AF133">
-        <v>-3.717253802464804</v>
+        <v>-5.183826056196783</v>
       </c>
       <c r="AG133">
         <v>-2.744506166805494</v>
@@ -14197,13 +14197,13 @@
         <v>-3.119495544015083</v>
       </c>
       <c r="W134">
-        <v>97.11499999999999</v>
+        <v>93.08</v>
       </c>
       <c r="X134">
-        <v>103.9241714949414</v>
+        <v>104.9446011632011</v>
       </c>
       <c r="Y134">
-        <v>-6.552057521356214</v>
+        <v>-11.30558507221372</v>
       </c>
       <c r="Z134">
         <v>6301443.4</v>
@@ -14224,7 +14224,7 @@
         <v>2.48</v>
       </c>
       <c r="AF134">
-        <v>-5.206861096131332</v>
+        <v>-6.732174679395952</v>
       </c>
       <c r="AG134">
         <v>-3.006202310188633</v>
@@ -14300,13 +14300,13 @@
         <v>-3.181928690341373</v>
       </c>
       <c r="W135">
-        <v>96.00333333333333</v>
+        <v>91.5</v>
       </c>
       <c r="X135">
-        <v>104.2658385851862</v>
+        <v>105.304709942472</v>
       </c>
       <c r="Y135">
-        <v>-7.924460555795898</v>
+        <v>-13.10929962203355</v>
       </c>
       <c r="Z135">
         <v>6321826.6</v>
@@ -14327,7 +14327,7 @@
         <v>2.33</v>
       </c>
       <c r="AF135">
-        <v>-6.552057521356214</v>
+        <v>-11.30558507221372</v>
       </c>
       <c r="AG135">
         <v>-3.119495544015083</v>
@@ -14403,13 +14403,13 @@
         <v>-3.164287607540661</v>
       </c>
       <c r="W136">
-        <v>94.83999999999999</v>
+        <v>92.12</v>
       </c>
       <c r="X136">
-        <v>104.6129403211173</v>
+        <v>105.6723901482775</v>
       </c>
       <c r="Y136">
-        <v>-9.341999461174243</v>
+        <v>-12.82491115158944</v>
       </c>
       <c r="Z136">
         <v>6354593.3</v>
@@ -14430,7 +14430,7 @@
         <v>2.33</v>
       </c>
       <c r="AF136">
-        <v>-7.924460555795898</v>
+        <v>-13.10929962203355</v>
       </c>
       <c r="AG136">
         <v>-3.181928690341373</v>
@@ -14506,13 +14506,13 @@
         <v>-3.056290718191612</v>
       </c>
       <c r="W137">
-        <v>94.39166666666667</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="X137">
-        <v>104.9663894101725</v>
+        <v>106.048332294308</v>
       </c>
       <c r="Y137">
-        <v>-10.07438933827046</v>
+        <v>-12.05896596168763</v>
       </c>
       <c r="Z137">
         <v>6371360.8</v>
@@ -14533,7 +14533,7 @@
         <v>2.33</v>
       </c>
       <c r="AF137">
-        <v>-9.341999461174243</v>
+        <v>-12.82491115158944</v>
       </c>
       <c r="AG137">
         <v>-3.164287607540661</v>
@@ -14609,13 +14609,13 @@
         <v>-2.775142705129097</v>
       </c>
       <c r="W138">
-        <v>93.85833333333333</v>
+        <v>95.64</v>
       </c>
       <c r="X138">
-        <v>105.3270231512993</v>
+        <v>106.4331223233403</v>
       </c>
       <c r="Y138">
-        <v>-10.88864896664886</v>
+        <v>-10.14075514063294</v>
       </c>
       <c r="Z138">
         <v>6405809.5</v>
@@ -14636,7 +14636,7 @@
         <v>2.28</v>
       </c>
       <c r="AF138">
-        <v>-10.07438933827046</v>
+        <v>-12.05896596168763</v>
       </c>
       <c r="AG138">
         <v>-3.056290718191612</v>
@@ -14712,13 +14712,13 @@
         <v>-2.43099225779112</v>
       </c>
       <c r="W139">
-        <v>94.13833333333332</v>
+        <v>99.23</v>
       </c>
       <c r="X139">
-        <v>105.6955972483616</v>
+        <v>106.8272475027497</v>
       </c>
       <c r="Y139">
-        <v>-10.93447997447921</v>
+        <v>-7.111713238286055</v>
       </c>
       <c r="Z139">
         <v>6426159.9</v>
@@ -14739,7 +14739,7 @@
         <v>2.46</v>
       </c>
       <c r="AF139">
-        <v>-10.88864896664886</v>
+        <v>-10.14075514063294</v>
       </c>
       <c r="AG139">
         <v>-2.775142705129097</v>
@@ -14815,13 +14815,13 @@
         <v>-2.134147031525679</v>
       </c>
       <c r="W140">
-        <v>94.86666666666667</v>
+        <v>97.45</v>
       </c>
       <c r="X140">
-        <v>106.0727789122476</v>
+        <v>107.2311118196453</v>
       </c>
       <c r="Y140">
-        <v>-10.56455045346888</v>
+        <v>-9.121524204744214</v>
       </c>
       <c r="Z140">
         <v>6452587.2</v>
@@ -14842,7 +14842,7 @@
         <v>2.6</v>
       </c>
       <c r="AF140">
-        <v>-10.93447997447921</v>
+        <v>-7.111713238286055</v>
       </c>
       <c r="AG140">
         <v>-2.43099225779112</v>
@@ -14918,13 +14918,13 @@
         <v>-1.901854861727925</v>
       </c>
       <c r="W141">
-        <v>95.84333333333332</v>
+        <v>97.36</v>
       </c>
       <c r="X141">
-        <v>106.459146177426</v>
+        <v>107.6450606404</v>
       </c>
       <c r="Y141">
-        <v>-9.971724577238572</v>
+        <v>-9.554605273304951</v>
       </c>
       <c r="Z141">
         <v>6477780.4</v>
@@ -14945,7 +14945,7 @@
         <v>2.64</v>
       </c>
       <c r="AF141">
-        <v>-10.56455045346888</v>
+        <v>-9.121524204744214</v>
       </c>
       <c r="AG141">
         <v>-2.134147031525679</v>
@@ -15021,13 +15021,13 @@
         <v>-1.707202477783376</v>
       </c>
       <c r="W142">
-        <v>96.74166666666667</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="X142">
-        <v>106.8551906114503</v>
+        <v>108.0693638598452</v>
       </c>
       <c r="Y142">
-        <v>-9.464700672856107</v>
+        <v>-9.770913312249741</v>
       </c>
       <c r="Z142">
         <v>6497619</v>
@@ -15048,7 +15048,7 @@
         <v>2.44</v>
       </c>
       <c r="AF142">
-        <v>-9.971724577238572</v>
+        <v>-9.554605273304951</v>
       </c>
       <c r="AG142">
         <v>-1.901854861727925</v>
@@ -15124,13 +15124,13 @@
         <v>-1.510481940644293</v>
       </c>
       <c r="W143">
-        <v>97.51666666666667</v>
+        <v>97.91</v>
       </c>
       <c r="X143">
-        <v>107.261321869737</v>
+        <v>108.5042120127758</v>
       </c>
       <c r="Y143">
-        <v>-9.084966540785988</v>
+        <v>-9.763871665671731</v>
       </c>
       <c r="Z143">
         <v>6526728.1</v>
@@ -15151,7 +15151,7 @@
         <v>2.35</v>
       </c>
       <c r="AF143">
-        <v>-9.464700672856107</v>
+        <v>-9.770913312249741</v>
       </c>
       <c r="AG143">
         <v>-1.707202477783376</v>
@@ -15227,13 +15227,13 @@
         <v>-1.315346724734201</v>
       </c>
       <c r="W144">
-        <v>98.22166666666665</v>
+        <v>99.87</v>
       </c>
       <c r="X144">
-        <v>107.6778715712518</v>
+        <v>108.949714157414</v>
       </c>
       <c r="Y144">
-        <v>-8.781938913352217</v>
+        <v>-8.333857713747939</v>
       </c>
       <c r="Z144">
         <v>6554679.3</v>
@@ -15254,7 +15254,7 @@
         <v>2.87</v>
       </c>
       <c r="AF144">
-        <v>-9.084966540785988</v>
+        <v>-9.763871665671731</v>
       </c>
       <c r="AG144">
         <v>-1.510481940644293</v>
@@ -15330,13 +15330,13 @@
         <v>-1.092086494160283</v>
       </c>
       <c r="W145">
-        <v>98.51499999999999</v>
+        <v>100.99</v>
       </c>
       <c r="X145">
-        <v>108.1050961447221</v>
+        <v>109.4058976065181</v>
       </c>
       <c r="Y145">
-        <v>-8.871086088192982</v>
+        <v>-7.692361920731338</v>
       </c>
       <c r="Z145">
         <v>6585479</v>
@@ -15357,7 +15357,7 @@
         <v>2.27</v>
       </c>
       <c r="AF145">
-        <v>-8.781938913352217</v>
+        <v>-8.333857713747939</v>
       </c>
       <c r="AG145">
         <v>-1.315346724734201</v>
@@ -15433,13 +15433,13 @@
         <v>-0.8672284352160498</v>
       </c>
       <c r="W146">
-        <v>98.85333333333334</v>
+        <v>99.48</v>
       </c>
       <c r="X146">
-        <v>108.5431790543287</v>
+        <v>109.872719613325</v>
       </c>
       <c r="Y146">
-        <v>-8.927180690133818</v>
+        <v>-9.458871728942453</v>
       </c>
       <c r="Z146">
         <v>6624394</v>
@@ -15460,7 +15460,7 @@
         <v>1.68</v>
       </c>
       <c r="AF146">
-        <v>-8.871086088192982</v>
+        <v>-7.692361920731338</v>
       </c>
       <c r="AG146">
         <v>-1.092086494160283</v>
@@ -15536,13 +15536,13 @@
         <v>-0.7096353717529036</v>
       </c>
       <c r="W147">
-        <v>99.60833333333333</v>
+        <v>101.89</v>
       </c>
       <c r="X147">
-        <v>108.9922297665989</v>
+        <v>110.3500724935884</v>
       </c>
       <c r="Y147">
-        <v>-8.609693051844802</v>
+        <v>-7.666576289816163</v>
       </c>
       <c r="Z147">
         <v>6653661.3</v>
@@ -15563,7 +15563,7 @@
         <v>1.51</v>
       </c>
       <c r="AF147">
-        <v>-8.927180690133818</v>
+        <v>-9.458871728942453</v>
       </c>
       <c r="AG147">
         <v>-0.8672284352160498</v>
@@ -15639,13 +15639,13 @@
         <v>-0.6238048558358855</v>
       </c>
       <c r="W148">
-        <v>100.4516666666667</v>
+        <v>102.57</v>
       </c>
       <c r="X148">
-        <v>109.4522829807316</v>
+        <v>110.8377683723259</v>
       </c>
       <c r="Y148">
-        <v>-8.223324419509348</v>
+        <v>-7.459342148204263</v>
       </c>
       <c r="Z148">
         <v>6682355</v>
@@ -15666,7 +15666,7 @@
         <v>1.42</v>
       </c>
       <c r="AF148">
-        <v>-8.609693051844802</v>
+        <v>-7.666576289816163</v>
       </c>
       <c r="AG148">
         <v>-0.7096353717529036</v>
@@ -15742,13 +15742,13 @@
         <v>-0.6753226377730681</v>
       </c>
       <c r="W149">
-        <v>101.9233333333333</v>
+        <v>106.74</v>
       </c>
       <c r="X149">
-        <v>109.9233009893152</v>
+        <v>111.3355540962174</v>
       </c>
       <c r="Y149">
-        <v>-7.277772395826664</v>
+        <v>-4.127660865859461</v>
       </c>
       <c r="Z149">
         <v>6732545.5</v>
@@ -15769,7 +15769,7 @@
         <v>1.62</v>
       </c>
       <c r="AF149">
-        <v>-8.223324419509348</v>
+        <v>-7.459342148204263</v>
       </c>
       <c r="AG149">
         <v>-0.6238048558358855</v>
@@ -15845,13 +15845,13 @@
         <v>-0.8338632744343988</v>
       </c>
       <c r="W150">
-        <v>103.6116666666667</v>
+        <v>110</v>
       </c>
       <c r="X150">
-        <v>110.4051766357414</v>
+        <v>111.8431127174335</v>
       </c>
       <c r="Y150">
-        <v>-6.153253113745317</v>
+        <v>-1.6479447617754</v>
       </c>
       <c r="Z150">
         <v>6743822.8</v>
@@ -15872,7 +15872,7 @@
         <v>1.76</v>
       </c>
       <c r="AF150">
-        <v>-7.277772395826664</v>
+        <v>-4.127660865859461</v>
       </c>
       <c r="AG150">
         <v>-0.6753226377730681</v>
@@ -15948,13 +15948,13 @@
         <v>-1.024442568227313</v>
       </c>
       <c r="W151">
-        <v>105.2533333333333</v>
+        <v>110.84</v>
       </c>
       <c r="X151">
-        <v>110.8977410352552</v>
+        <v>112.3600918286219</v>
       </c>
       <c r="Y151">
-        <v>-5.089740917380348</v>
+        <v>-1.352875210301896</v>
       </c>
       <c r="Z151">
         <v>6786171.2</v>
@@ -15975,7 +15975,7 @@
         <v>1.42</v>
       </c>
       <c r="AF151">
-        <v>-6.153253113745317</v>
+        <v>-1.6479447617754</v>
       </c>
       <c r="AG151">
         <v>-0.8338632744343988</v>
@@ -16051,13 +16051,13 @@
         <v>-1.100449541490667</v>
       </c>
       <c r="W152">
-        <v>107.3133333333333</v>
+        <v>111.84</v>
       </c>
       <c r="X152">
-        <v>111.4007728840408</v>
+        <v>112.8861248008832</v>
       </c>
       <c r="Y152">
-        <v>-3.669130334456627</v>
+        <v>-0.9267080455887977</v>
       </c>
       <c r="Z152">
         <v>6830095.2</v>
@@ -16078,7 +16078,7 @@
         <v>1.32</v>
       </c>
       <c r="AF152">
-        <v>-5.089740917380348</v>
+        <v>-1.352875210301896</v>
       </c>
       <c r="AG152">
         <v>-1.024442568227313</v>
@@ -16154,13 +16154,13 @@
         <v>-1.01996495280261</v>
       </c>
       <c r="W153">
-        <v>109.3016666666667</v>
+        <v>113.82</v>
       </c>
       <c r="X153">
-        <v>111.914007325758</v>
+        <v>113.4208332762131</v>
       </c>
       <c r="Y153">
-        <v>-2.334239226629975</v>
+        <v>0.3519342190114072</v>
       </c>
       <c r="Z153">
         <v>6873225.6</v>
@@ -16181,7 +16181,7 @@
         <v>1.13</v>
       </c>
       <c r="AF153">
-        <v>-3.669130334456627</v>
+        <v>-0.9267080455887977</v>
       </c>
       <c r="AG153">
         <v>-1.100449541490667</v>
@@ -16257,13 +16257,13 @@
         <v>-0.8984667068786756</v>
       </c>
       <c r="W154">
-        <v>111.5933333333333</v>
+        <v>116.32</v>
       </c>
       <c r="X154">
-        <v>112.4371479651794</v>
+        <v>113.9638308246578</v>
       </c>
       <c r="Y154">
-        <v>-0.750476730437355</v>
+        <v>2.067471019789879</v>
       </c>
       <c r="Z154">
         <v>6905408.5</v>
@@ -16284,7 +16284,7 @@
         <v>1.23</v>
       </c>
       <c r="AF154">
-        <v>-2.334239226629975</v>
+        <v>0.3519342190114072</v>
       </c>
       <c r="AG154">
         <v>-1.01996495280261</v>
@@ -16360,13 +16360,13 @@
         <v>-0.824712742322975</v>
       </c>
       <c r="W155">
-        <v>111.5233333333333</v>
+        <v>106.32</v>
       </c>
       <c r="X155">
-        <v>112.9698782501266</v>
+        <v>114.5147340962518</v>
       </c>
       <c r="Y155">
-        <v>-1.280469572243426</v>
+        <v>-7.156052154270343</v>
       </c>
       <c r="Z155">
         <v>6948683.1</v>
@@ -16387,7 +16387,7 @@
         <v>1.27</v>
       </c>
       <c r="AF155">
-        <v>-0.750476730437355</v>
+        <v>2.067471019789879</v>
       </c>
       <c r="AG155">
         <v>-0.8984667068786756</v>
@@ -16463,13 +16463,13 @@
         <v>-0.8521648555274708</v>
       </c>
       <c r="W156">
-        <v>110.9766666666666</v>
+        <v>106.72</v>
       </c>
       <c r="X156">
-        <v>113.5118751175067</v>
+        <v>115.0731779213491</v>
       </c>
       <c r="Y156">
-        <v>-2.233430157166927</v>
+        <v>-7.259013848612394</v>
       </c>
       <c r="Z156">
         <v>6982118.5</v>
@@ -16490,7 +16490,7 @@
         <v>1.22</v>
       </c>
       <c r="AF156">
-        <v>-1.280469572243426</v>
+        <v>-7.156052154270343</v>
       </c>
       <c r="AG156">
         <v>-0.824712742322975</v>
@@ -16566,13 +16566,13 @@
         <v>-0.9430073828430641</v>
       </c>
       <c r="W157">
-        <v>110.7466666666667</v>
+        <v>109.46</v>
       </c>
       <c r="X157">
-        <v>114.0628043426161</v>
+        <v>115.6387338993295</v>
       </c>
       <c r="Y157">
-        <v>-2.907291027133285</v>
+        <v>-5.343135203044048</v>
       </c>
       <c r="Z157">
         <v>7004141</v>
@@ -16593,7 +16593,7 @@
         <v>1.42</v>
       </c>
       <c r="AF157">
-        <v>-2.233430157166927</v>
+        <v>-7.259013848612394</v>
       </c>
       <c r="AG157">
         <v>-0.8521648555274708</v>
@@ -16669,13 +16669,13 @@
         <v>-1.048520774917028</v>
       </c>
       <c r="W158">
-        <v>109.8033333333333</v>
+        <v>106.18</v>
       </c>
       <c r="X158">
-        <v>114.6223121389558</v>
+        <v>116.2109091760393</v>
       </c>
       <c r="Y158">
-        <v>-4.204224043029637</v>
+        <v>-8.631641596439311</v>
       </c>
       <c r="Z158">
         <v>7029631.6</v>
@@ -16696,7 +16696,7 @@
         <v>1.55</v>
       </c>
       <c r="AF158">
-        <v>-2.907291027133285</v>
+        <v>-5.343135203044048</v>
       </c>
       <c r="AG158">
         <v>-0.9430073828430641</v>
@@ -16772,13 +16772,13 @@
         <v>-1.128336420375997</v>
       </c>
       <c r="W159">
-        <v>108.44</v>
+        <v>105.64</v>
       </c>
       <c r="X159">
-        <v>115.1900191325458</v>
+        <v>116.789163221911</v>
       </c>
       <c r="Y159">
-        <v>-5.859899306708815</v>
+        <v>-9.546402178365177</v>
       </c>
       <c r="Z159">
         <v>7065598.2</v>
@@ -16799,7 +16799,7 @@
         <v>1.54</v>
       </c>
       <c r="AF159">
-        <v>-4.204224043029637</v>
+        <v>-8.631641596439311</v>
       </c>
       <c r="AG159">
         <v>-1.048520774917028</v>
@@ -16875,13 +16875,13 @@
         <v>-1.182257361929462</v>
       </c>
       <c r="W160">
-        <v>107.0133333333333</v>
+        <v>107.76</v>
       </c>
       <c r="X160">
-        <v>115.7655087659276</v>
+        <v>117.3728781083845</v>
       </c>
       <c r="Y160">
-        <v>-7.56026170998031</v>
+        <v>-8.190033560826359</v>
       </c>
       <c r="Z160">
         <v>7077734.5</v>
@@ -16902,7 +16902,7 @@
         <v>1.5</v>
       </c>
       <c r="AF160">
-        <v>-5.859899306708815</v>
+        <v>-9.546402178365177</v>
       </c>
       <c r="AG160">
         <v>-1.128336420375997</v>
@@ -16978,13 +16978,13 @@
         <v>-1.243070264558555</v>
       </c>
       <c r="W161">
-        <v>107.4533333333333</v>
+        <v>108.96</v>
       </c>
       <c r="X161">
-        <v>116.3483123981619</v>
+        <v>117.9613498794061</v>
       </c>
       <c r="Y161">
-        <v>-7.6451294234407</v>
+        <v>-7.630762015362135</v>
       </c>
       <c r="Z161">
         <v>7102860.6</v>
@@ -17005,7 +17005,7 @@
         <v>1.4</v>
       </c>
       <c r="AF161">
-        <v>-7.56026170998031</v>
+        <v>-8.190033560826359</v>
       </c>
       <c r="AG161">
         <v>-1.182257361929462</v>
@@ -17081,13 +17081,13 @@
         <v>-1.270526367482971</v>
       </c>
       <c r="W162">
-        <v>108.115</v>
+        <v>110.69</v>
       </c>
       <c r="X162">
-        <v>116.9378938560904</v>
+        <v>118.5538004054803</v>
       </c>
       <c r="Y162">
-        <v>-7.544939937902662</v>
+        <v>-6.633106976397485</v>
       </c>
       <c r="Z162">
         <v>7155920</v>
@@ -17108,7 +17108,7 @@
         <v>1.35</v>
       </c>
       <c r="AF162">
-        <v>-7.6451294234407</v>
+        <v>-7.630762015362135</v>
       </c>
       <c r="AG162">
         <v>-1.243070264558555</v>
@@ -17184,13 +17184,13 @@
         <v>-1.417714597299868</v>
       </c>
       <c r="W163">
-        <v>107.8233333333333</v>
+        <v>107.71</v>
       </c>
       <c r="X163">
-        <v>117.5336483324576</v>
+        <v>119.1493821022512</v>
       </c>
       <c r="Y163">
-        <v>-8.261731969433583</v>
+        <v>-9.600874046022511</v>
       </c>
       <c r="Z163">
         <v>7168423.2</v>
@@ -17211,7 +17211,7 @@
         <v>1.4</v>
       </c>
       <c r="AF163">
-        <v>-7.544939937902662</v>
+        <v>-6.633106976397485</v>
       </c>
       <c r="AG163">
         <v>-1.270526367482971</v>
@@ -17287,13 +17287,13 @@
         <v>-1.433150196461486</v>
       </c>
       <c r="W164">
-        <v>107.9516666666667</v>
+        <v>106.95</v>
       </c>
       <c r="X164">
-        <v>118.1349029421239</v>
+        <v>119.7471867078904</v>
       </c>
       <c r="Y164">
-        <v>-8.620006468745434</v>
+        <v>-10.68683704370246</v>
       </c>
       <c r="Z164">
         <v>7208033.2</v>
@@ -17314,7 +17314,7 @@
         <v>1.39</v>
       </c>
       <c r="AF164">
-        <v>-8.261731969433583</v>
+        <v>-9.600874046022511</v>
       </c>
       <c r="AG164">
         <v>-1.417714597299868</v>
@@ -17390,13 +17390,13 @@
         <v>-1.496325464823867</v>
       </c>
       <c r="W165">
-        <v>108.7816666666667</v>
+        <v>110.62</v>
       </c>
       <c r="X165">
-        <v>118.7409098746795</v>
+        <v>120.3462176937326</v>
       </c>
       <c r="Y165">
-        <v>-8.387373162732125</v>
+        <v>-8.081864042029762</v>
       </c>
       <c r="Z165">
         <v>7238471.9</v>
@@ -17417,7 +17417,7 @@
         <v>1.37</v>
       </c>
       <c r="AF165">
-        <v>-8.620006468745434</v>
+        <v>-10.68683704370246</v>
       </c>
       <c r="AG165">
         <v>-1.433150196461486</v>
@@ -17493,13 +17493,13 @@
         <v>-1.298984165419692</v>
       </c>
       <c r="W166">
-        <v>109.5933333333333</v>
+        <v>112.63</v>
       </c>
       <c r="X166">
-        <v>119.3508427453605</v>
+        <v>120.9453797873881</v>
       </c>
       <c r="Y166">
-        <v>-8.175484301225399</v>
+        <v>-6.875318265158947</v>
       </c>
       <c r="Z166">
         <v>7281103.7</v>
@@ -17520,7 +17520,7 @@
         <v>1.32</v>
       </c>
       <c r="AF166">
-        <v>-8.387373162732125</v>
+        <v>-8.081864042029762</v>
       </c>
       <c r="AG166">
         <v>-1.496325464823867</v>
@@ -17596,13 +17596,13 @@
         <v>-1.045012159716996</v>
       </c>
       <c r="W167">
-        <v>110.115</v>
+        <v>112.09</v>
       </c>
       <c r="X167">
-        <v>119.9637983233904</v>
+        <v>121.5435026684907</v>
       </c>
       <c r="Y167">
-        <v>-8.209808676481478</v>
+        <v>-7.777875790098832</v>
       </c>
       <c r="Z167">
         <v>7319401.7</v>
@@ -17623,7 +17623,7 @@
         <v>1.26</v>
       </c>
       <c r="AF167">
-        <v>-8.175484301225399</v>
+        <v>-6.875318265158947</v>
       </c>
       <c r="AG167">
         <v>-1.298984165419692</v>
@@ -17699,13 +17699,13 @@
         <v>-0.7066474173432757</v>
       </c>
       <c r="W168">
-        <v>110.585</v>
+        <v>113.51</v>
       </c>
       <c r="X168">
-        <v>120.578798088568</v>
+        <v>122.1393518547932</v>
       </c>
       <c r="Y168">
-        <v>-8.28818850991312</v>
+        <v>-7.065169188921406</v>
       </c>
       <c r="Z168">
         <v>7351034.6</v>
@@ -17726,7 +17726,7 @@
         <v>1.23</v>
       </c>
       <c r="AF168">
-        <v>-8.209808676481478</v>
+        <v>-7.777875790098832</v>
       </c>
       <c r="AG168">
         <v>-1.045012159716996</v>
@@ -17802,13 +17802,13 @@
         <v>-0.2484177422321765</v>
       </c>
       <c r="W169">
-        <v>111.2683333333333</v>
+        <v>111.81</v>
       </c>
       <c r="X169">
-        <v>121.1947875268784</v>
+        <v>122.7316199203558</v>
       </c>
       <c r="Y169">
-        <v>-8.19049597437813</v>
+        <v>-8.898782504005997</v>
       </c>
       <c r="Z169">
         <v>7389131</v>
@@ -17829,7 +17829,7 @@
         <v>1.22</v>
       </c>
       <c r="AF169">
-        <v>-8.28818850991312</v>
+        <v>-7.065169188921406</v>
       </c>
       <c r="AG169">
         <v>-0.7066474173432757</v>
@@ -17905,13 +17905,13 @@
         <v>0.1285892278525935</v>
       </c>
       <c r="W170">
-        <v>112.31</v>
+        <v>113.2</v>
       </c>
       <c r="X170">
-        <v>121.8106350116671</v>
+        <v>123.3189328547327</v>
       </c>
       <c r="Y170">
-        <v>-7.799511931578951</v>
+        <v>-8.205498231688901</v>
       </c>
       <c r="Z170">
         <v>7426459.3</v>
@@ -17932,7 +17932,7 @@
         <v>0.84</v>
       </c>
       <c r="AF170">
-        <v>-8.19049597437813</v>
+        <v>-8.898782504005997</v>
       </c>
       <c r="AG170">
         <v>-0.2484177422321765</v>
@@ -18008,13 +18008,13 @@
         <v>0.4960071437064562</v>
       </c>
       <c r="W171">
-        <v>113.55</v>
+        <v>118.06</v>
       </c>
       <c r="X171">
-        <v>122.4251323232686</v>
+        <v>123.8998323757195</v>
       </c>
       <c r="Y171">
-        <v>-7.249436577967883</v>
+        <v>-4.713349698497216</v>
       </c>
       <c r="Z171">
         <v>7470417.9</v>
@@ -18035,7 +18035,7 @@
         <v>0.71</v>
       </c>
       <c r="AF171">
-        <v>-7.799511931578951</v>
+        <v>-8.205498231688901</v>
       </c>
       <c r="AG171">
         <v>0.1285892278525935</v>
@@ -18111,13 +18111,13 @@
         <v>0.5303879761281216</v>
       </c>
       <c r="W172">
-        <v>116.625</v>
+        <v>131.08</v>
       </c>
       <c r="X172">
-        <v>123.0369979346484</v>
+        <v>124.4727821229261</v>
       </c>
       <c r="Y172">
-        <v>-5.211438869838291</v>
+        <v>5.30816276810524</v>
       </c>
       <c r="Z172">
         <v>7506475</v>
@@ -18138,7 +18138,7 @@
         <v>0.78</v>
       </c>
       <c r="AF172">
-        <v>-7.249436577967883</v>
+        <v>-4.713349698497216</v>
       </c>
       <c r="AG172">
         <v>0.4960071437064562</v>
@@ -18214,13 +18214,13 @@
         <v>0.6769718310848605</v>
       </c>
       <c r="W173">
-        <v>121.4666666666667</v>
+        <v>141.14</v>
       </c>
       <c r="X173">
-        <v>123.6448818378132</v>
+        <v>125.0362006755278</v>
       </c>
       <c r="Y173">
-        <v>-1.761670308362384</v>
+        <v>12.87930954193179</v>
       </c>
       <c r="Z173">
         <v>7462835.4</v>
@@ -18241,7 +18241,7 @@
         <v>0.85</v>
       </c>
       <c r="AF173">
-        <v>-5.211438869838291</v>
+        <v>5.30816276810524</v>
       </c>
       <c r="AG173">
         <v>0.5303879761281216</v>
@@ -18317,13 +18317,13 @@
         <v>1.112463475117531</v>
       </c>
       <c r="W174">
-        <v>127.52</v>
+        <v>149.83</v>
       </c>
       <c r="X174">
-        <v>124.2473845494764</v>
+        <v>125.588557594321</v>
       </c>
       <c r="Y174">
-        <v>2.633951179246274</v>
+        <v>19.30226994403761</v>
       </c>
       <c r="Z174">
         <v>7426871.7</v>
@@ -18344,7 +18344,7 @@
         <v>2.2</v>
       </c>
       <c r="AF174">
-        <v>-1.761670308362384</v>
+        <v>12.87930954193179</v>
       </c>
       <c r="AG174">
         <v>0.6769718310848605</v>
@@ -18420,13 +18420,13 @@
         <v>2.08345742705125</v>
       </c>
       <c r="W175">
-        <v>132.135</v>
+        <v>139.5</v>
       </c>
       <c r="X175">
-        <v>124.8430897791359</v>
+        <v>126.1284466978082</v>
       </c>
       <c r="Y175">
-        <v>5.840860101880252</v>
+        <v>10.60153649099382</v>
       </c>
       <c r="Z175">
         <v>7438850</v>
@@ -18447,7 +18447,7 @@
         <v>3.81</v>
       </c>
       <c r="AF175">
-        <v>2.633951179246274</v>
+        <v>19.30226994403761</v>
       </c>
       <c r="AG175">
         <v>1.112463475117531</v>
@@ -18523,13 +18523,13 @@
         <v>3.098731082894757</v>
       </c>
       <c r="W176">
-        <v>137.3016666666666</v>
+        <v>144.2</v>
       </c>
       <c r="X176">
-        <v>125.4306064879517</v>
+        <v>126.6546488526631</v>
       </c>
       <c r="Y176">
-        <v>9.46424521981022</v>
+        <v>13.85290733998035</v>
       </c>
       <c r="Z176">
         <v>7452106.2</v>
@@ -18550,7 +18550,7 @@
         <v>6.17</v>
       </c>
       <c r="AF176">
-        <v>5.840860101880252</v>
+        <v>10.60153649099382</v>
       </c>
       <c r="AG176">
         <v>2.08345742705125</v>
@@ -18626,13 +18626,13 @@
         <v>4.050790435875107</v>
       </c>
       <c r="W177">
-        <v>142.845</v>
+        <v>151.32</v>
       </c>
       <c r="X177">
-        <v>126.0085999018235</v>
+        <v>127.1660481011241</v>
       </c>
       <c r="Y177">
-        <v>13.36131034809855</v>
+        <v>18.99402573214228</v>
       </c>
       <c r="Z177">
         <v>7460272.4</v>
@@ -18653,7 +18653,7 @@
         <v>7.21</v>
       </c>
       <c r="AF177">
-        <v>9.46424521981022</v>
+        <v>13.85290733998035</v>
       </c>
       <c r="AG177">
         <v>3.098731082894757</v>
@@ -18729,13 +18729,13 @@
         <v>4.539222648593588</v>
       </c>
       <c r="W178">
-        <v>145.8116666666666</v>
+        <v>148.88</v>
       </c>
       <c r="X178">
-        <v>126.5758268443381</v>
+        <v>127.6616638662217</v>
       </c>
       <c r="Y178">
-        <v>15.19708802375408</v>
+        <v>16.6207579403111</v>
       </c>
       <c r="Z178">
         <v>7488004.3</v>
@@ -18756,7 +18756,7 @@
         <v>8.19</v>
       </c>
       <c r="AF178">
-        <v>13.36131034809855</v>
+        <v>18.99402573214228</v>
       </c>
       <c r="AG178">
         <v>4.050790435875107</v>
@@ -18832,13 +18832,13 @@
         <v>4.678526927960625</v>
       </c>
       <c r="W179">
-        <v>148</v>
+        <v>154.27</v>
       </c>
       <c r="X179">
-        <v>127.1311740495755</v>
+        <v>128.1407019440784</v>
       </c>
       <c r="Y179">
-        <v>16.41519171551626</v>
+        <v>20.39109951756357</v>
       </c>
       <c r="Z179">
         <v>7507801.8</v>
@@ -18859,7 +18859,7 @@
         <v>8.75</v>
       </c>
       <c r="AF179">
-        <v>15.19708802375408</v>
+        <v>16.6207579403111</v>
       </c>
       <c r="AG179">
         <v>4.539222648593588</v>
@@ -18935,13 +18935,13 @@
         <v>4.383126355662204</v>
       </c>
       <c r="W180">
-        <v>147.7633333333333</v>
+        <v>148.41</v>
       </c>
       <c r="X180">
-        <v>127.6736766763057</v>
+        <v>128.6025318525419</v>
       </c>
       <c r="Y180">
-        <v>15.73515949412303</v>
+        <v>15.40208257343616</v>
       </c>
       <c r="Z180">
         <v>7544891</v>
@@ -18962,7 +18962,7 @@
         <v>8.81</v>
       </c>
       <c r="AF180">
-        <v>16.41519171551626</v>
+        <v>20.39109951756357</v>
       </c>
       <c r="AG180">
         <v>4.678526927960625</v>
@@ -19038,13 +19038,13 @@
         <v>3.848043899578713</v>
       </c>
       <c r="W181">
-        <v>148.0133333333333</v>
+        <v>141</v>
       </c>
       <c r="X181">
-        <v>128.2025309081931</v>
+        <v>129.0467247244156</v>
       </c>
       <c r="Y181">
-        <v>15.45273894735111</v>
+        <v>9.262749830428586</v>
       </c>
       <c r="Z181">
         <v>7609597</v>
@@ -19065,7 +19065,7 @@
         <v>8.81</v>
       </c>
       <c r="AF181">
-        <v>15.73515949412303</v>
+        <v>15.40208257343616</v>
       </c>
       <c r="AG181">
         <v>4.383126355662204</v>
@@ -19141,13 +19141,13 @@
         <v>3.271691911017793</v>
       </c>
       <c r="W182">
-        <v>148.4816666666667</v>
+        <v>147.01</v>
       </c>
       <c r="X182">
-        <v>128.7170879416817</v>
+        <v>129.4730045279039</v>
       </c>
       <c r="Y182">
-        <v>15.35505428303328</v>
+        <v>13.54490500629149</v>
       </c>
       <c r="Z182">
         <v>7671366.9</v>
@@ -19168,7 +19168,7 @@
         <v>9.24</v>
       </c>
       <c r="AF182">
-        <v>15.45273894735111</v>
+        <v>9.262749830428586</v>
       </c>
       <c r="AG182">
         <v>3.848043899578713</v>
@@ -19244,13 +19244,13 @@
         <v>2.82331496613224</v>
       </c>
       <c r="W183">
-        <v>148.025</v>
+        <v>148.58</v>
       </c>
       <c r="X183">
-        <v>129.216851834347</v>
+        <v>129.8811874632761</v>
       </c>
       <c r="Y183">
-        <v>14.55549171695085</v>
+        <v>14.3968598547122</v>
       </c>
       <c r="Z183">
         <v>7757774.9</v>
@@ -19271,7 +19271,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="AF183">
-        <v>15.35505428303328</v>
+        <v>13.54490500629149</v>
       </c>
       <c r="AG183">
         <v>3.271691911017793</v>
@@ -19347,13 +19347,13 @@
         <v>2.65542223576205</v>
       </c>
       <c r="W184">
-        <v>148.6166666666667</v>
+        <v>152.43</v>
       </c>
       <c r="X184">
-        <v>129.7014791482305</v>
+        <v>130.2712250471217</v>
       </c>
       <c r="Y184">
-        <v>14.58363284879645</v>
+        <v>17.00972332521098</v>
       </c>
       <c r="Z184">
         <v>7888820.7</v>
@@ -19374,7 +19374,7 @@
         <v>8.92</v>
       </c>
       <c r="AF184">
-        <v>14.55549171695085</v>
+        <v>14.3968598547122</v>
       </c>
       <c r="AG184">
         <v>2.82331496613224</v>
@@ -19450,13 +19450,13 @@
         <v>2.547395251796991</v>
       </c>
       <c r="W185">
-        <v>148.0633333333333</v>
+        <v>150.95</v>
       </c>
       <c r="X185">
-        <v>130.1707715699704</v>
+        <v>130.6432130769911</v>
       </c>
       <c r="Y185">
-        <v>13.74545264467848</v>
+        <v>15.54369832517941</v>
       </c>
       <c r="Z185">
         <v>8053159.9</v>
@@ -19477,7 +19477,7 @@
         <v>8.41</v>
       </c>
       <c r="AF185">
-        <v>14.58363284879645</v>
+        <v>17.00972332521098</v>
       </c>
       <c r="AG185">
         <v>2.65542223576205</v>
@@ -19553,13 +19553,13 @@
         <v>2.159577023790149</v>
       </c>
       <c r="W186">
-        <v>147.3466666666667</v>
+        <v>144.11</v>
       </c>
       <c r="X186">
-        <v>130.624676736729</v>
+        <v>130.9974183286385</v>
       </c>
       <c r="Y186">
-        <v>12.80155507189533</v>
+        <v>10.00980159659748</v>
       </c>
       <c r="Z186">
         <v>8198139.6</v>
@@ -19580,7 +19580,7 @@
         <v>6.76</v>
       </c>
       <c r="AF186">
-        <v>13.74545264467848</v>
+        <v>15.54369832517941</v>
       </c>
       <c r="AG186">
         <v>2.547395251796991</v>
@@ -19656,13 +19656,13 @@
         <v>1.556361896758074</v>
       </c>
       <c r="W187">
-        <v>146.6366666666667</v>
+        <v>136.74</v>
       </c>
       <c r="X187">
-        <v>131.0632803455596</v>
+        <v>131.3342642659883</v>
       </c>
       <c r="Y187">
-        <v>11.88234132401269</v>
+        <v>4.116013261446883</v>
       </c>
       <c r="Z187">
         <v>8313352.1</v>
@@ -19683,7 +19683,7 @@
         <v>5.23</v>
       </c>
       <c r="AF187">
-        <v>12.80155507189533</v>
+        <v>10.00980159659748</v>
       </c>
       <c r="AG187">
         <v>2.159577023790149</v>
@@ -19759,13 +19759,13 @@
         <v>0.8359488291573403</v>
       </c>
       <c r="W188">
-        <v>145.3366666666667</v>
+        <v>139.21</v>
       </c>
       <c r="X188">
-        <v>131.4867971212126</v>
+        <v>131.6542755302935</v>
       </c>
       <c r="Y188">
-        <v>10.53327775007431</v>
+        <v>5.73906501651591</v>
       </c>
       <c r="Z188">
         <v>8422611.300000001</v>
@@ -19786,7 +19786,7 @@
         <v>3.67</v>
       </c>
       <c r="AF188">
-        <v>11.88234132401269</v>
+        <v>4.116013261446883</v>
       </c>
       <c r="AG188">
         <v>1.556361896758074</v>
@@ -19862,13 +19862,13 @@
         <v>0.04392695723882678</v>
       </c>
       <c r="W189">
-        <v>144.0733333333334</v>
+        <v>141</v>
       </c>
       <c r="X189">
-        <v>131.8955619534591</v>
+        <v>131.9580184737299</v>
       </c>
       <c r="Y189">
-        <v>9.232889416075519</v>
+        <v>6.852165280179778</v>
       </c>
       <c r="Z189">
         <v>8538598.6</v>
@@ -19889,7 +19889,7 @@
         <v>2.79</v>
       </c>
       <c r="AF189">
-        <v>10.53327775007431</v>
+        <v>5.73906501651591</v>
       </c>
       <c r="AG189">
         <v>0.8359488291573403</v>
@@ -19965,13 +19965,13 @@
         <v>-0.8868592757677374</v>
       </c>
       <c r="W190">
-        <v>142.0133333333333</v>
+        <v>140.07</v>
       </c>
       <c r="X190">
-        <v>132.2900165983453</v>
+        <v>132.2461177488146</v>
       </c>
       <c r="Y190">
-        <v>7.350000389303513</v>
+        <v>5.916152688917431</v>
       </c>
       <c r="Z190">
         <v>8638141.9</v>
@@ -19992,7 +19992,7 @@
         <v>1.53</v>
       </c>
       <c r="AF190">
-        <v>9.232889416075519</v>
+        <v>6.852165280179778</v>
       </c>
       <c r="AG190">
         <v>0.04392695723882678</v>
@@ -20068,13 +20068,13 @@
         <v>-1.786798084285779</v>
       </c>
       <c r="W191">
-        <v>141.08</v>
+        <v>145.35</v>
       </c>
       <c r="X191">
-        <v>132.6706967762026</v>
+        <v>132.5192677764444</v>
       </c>
       <c r="Y191">
-        <v>6.338478223252797</v>
+        <v>9.682163536551247</v>
       </c>
       <c r="Z191">
         <v>8723377.800000001</v>
@@ -20095,7 +20095,7 @@
         <v>0.61</v>
       </c>
       <c r="AF191">
-        <v>7.350000389303513</v>
+        <v>5.916152688917431</v>
       </c>
       <c r="AG191">
         <v>-0.8868592757677374</v>
@@ -20171,13 +20171,13 @@
         <v>-2.455847757231722</v>
       </c>
       <c r="W192">
-        <v>141.0783333333333</v>
+        <v>144.1</v>
       </c>
       <c r="X192">
-        <v>133.0382132329578</v>
+        <v>132.7782233469731</v>
       </c>
       <c r="Y192">
-        <v>6.043466689000732</v>
+        <v>8.526832463664702</v>
       </c>
       <c r="Z192">
         <v>8818704.5</v>
@@ -20198,7 +20198,7 @@
         <v>0.23</v>
       </c>
       <c r="AF192">
-        <v>6.338478223252797</v>
+        <v>9.682163536551247</v>
       </c>
       <c r="AG192">
         <v>-1.786798084285779</v>
@@ -20274,13 +20274,13 @@
         <v>-2.952220074210277</v>
       </c>
       <c r="W193">
-        <v>142.5633333333333</v>
+        <v>145.65</v>
       </c>
       <c r="X193">
-        <v>133.3932416011312</v>
+        <v>133.0238382533227</v>
       </c>
       <c r="Y193">
-        <v>6.874480012729789</v>
+        <v>9.49165346036156</v>
       </c>
       <c r="Z193">
         <v>8898727.5</v>
@@ -20301,7 +20301,7 @@
         <v>-0.14</v>
       </c>
       <c r="AF193">
-        <v>6.043466689000732</v>
+        <v>8.526832463664702</v>
       </c>
       <c r="AG193">
         <v>-2.455847757231722</v>
@@ -20377,13 +20377,13 @@
         <v>-3.32455404452352</v>
       </c>
       <c r="W194">
-        <v>143.1233333333333</v>
+        <v>142.57</v>
       </c>
       <c r="X194">
-        <v>133.7365195512122</v>
+        <v>133.2570536478007</v>
       </c>
       <c r="Y194">
-        <v>7.018885950988629</v>
+        <v>6.98870798750626</v>
       </c>
       <c r="Z194">
         <v>8944243</v>
@@ -20404,7 +20404,7 @@
         <v>-0.73</v>
       </c>
       <c r="AF194">
-        <v>6.874480012729789</v>
+        <v>9.49165346036156</v>
       </c>
       <c r="AG194">
         <v>-2.952220074210277</v>
@@ -20480,13 +20480,13 @@
         <v>-3.539021045016144</v>
       </c>
       <c r="W195">
-        <v>142.0133333333333</v>
+        <v>134.34</v>
       </c>
       <c r="X195">
-        <v>134.0688555105668</v>
+        <v>133.4789081068015</v>
       </c>
       <c r="Y195">
-        <v>5.925669904849995</v>
+        <v>0.6451145768360034</v>
       </c>
       <c r="Z195">
         <v>8991855.1</v>
@@ -20507,7 +20507,7 @@
         <v>-1.21</v>
       </c>
       <c r="AF195">
-        <v>7.018885950988629</v>
+        <v>6.98870798750626</v>
       </c>
       <c r="AG195">
         <v>-3.32455404452352</v>
@@ -20583,13 +20583,13 @@
         <v>-3.526703433743106</v>
       </c>
       <c r="W196">
-        <v>139.8333333333333</v>
+        <v>126.99</v>
       </c>
       <c r="X196">
-        <v>134.3911303356833</v>
+        <v>133.6905120658754</v>
       </c>
       <c r="Y196">
-        <v>4.049525429287204</v>
+        <v>-5.011957813860213</v>
       </c>
       <c r="Z196">
         <v>9061814.300000001</v>
@@ -20610,7 +20610,7 @@
         <v>-1.37</v>
       </c>
       <c r="AF196">
-        <v>5.925669904849995</v>
+        <v>0.6451145768360034</v>
       </c>
       <c r="AG196">
         <v>-3.539021045016144</v>
@@ -20686,13 +20686,13 @@
         <v>-3.460115788201645</v>
       </c>
       <c r="W197">
-        <v>135.5283333333333</v>
+        <v>119.52</v>
       </c>
       <c r="X197">
-        <v>134.7042861830301</v>
+        <v>133.892982604799</v>
       </c>
       <c r="Y197">
-        <v>0.6117453079284907</v>
+        <v>-10.73467953673312</v>
       </c>
       <c r="Z197">
         <v>9147953.5</v>
@@ -20713,7 +20713,7 @@
         <v>-1.35</v>
       </c>
       <c r="AF197">
-        <v>4.049525429287204</v>
+        <v>-5.011957813860213</v>
       </c>
       <c r="AG197">
         <v>-3.526703433743106</v>
@@ -20789,13 +20789,13 @@
         <v>-3.167189718875563</v>
       </c>
       <c r="W198">
-        <v>131.88</v>
+        <v>122.21</v>
       </c>
       <c r="X198">
-        <v>135.0093072013849</v>
+        <v>134.0873851018673</v>
       </c>
       <c r="Y198">
-        <v>-2.317845536913343</v>
+        <v>-8.857943715468808</v>
       </c>
       <c r="Z198">
         <v>9249687.1</v>
@@ -20816,7 +20816,7 @@
         <v>-1.5</v>
       </c>
       <c r="AF198">
-        <v>0.6117453079284907</v>
+        <v>-10.73467953673312</v>
       </c>
       <c r="AG198">
         <v>-3.460115788201645</v>
@@ -20892,13 +20892,13 @@
         <v>-2.968802662941983</v>
       </c>
       <c r="W199">
-        <v>128.2883333333333</v>
+        <v>124.1</v>
       </c>
       <c r="X199">
-        <v>135.3071838979126</v>
+        <v>134.2746740327315</v>
       </c>
       <c r="Y199">
-        <v>-5.187345093128892</v>
+        <v>-7.577507900150438</v>
       </c>
       <c r="Z199">
         <v>9351602.699999999</v>
@@ -20919,7 +20919,7 @@
         <v>-1.3</v>
       </c>
       <c r="AF199">
-        <v>-2.317845536913343</v>
+        <v>-8.857943715468808</v>
       </c>
       <c r="AG199">
         <v>-3.167189718875563</v>
@@ -20995,13 +20995,13 @@
         <v>-2.787847141730104</v>
       </c>
       <c r="W200">
-        <v>126.64</v>
+        <v>132.68</v>
       </c>
       <c r="X200">
-        <v>135.59888263389</v>
+        <v>134.4557122265533</v>
       </c>
       <c r="Y200">
-        <v>-6.606900042147512</v>
+        <v>-1.320667004136822</v>
       </c>
       <c r="Z200">
         <v>9450085.5</v>
@@ -21022,7 +21022,7 @@
         <v>-2.14</v>
       </c>
       <c r="AF200">
-        <v>-5.187345093128892</v>
+        <v>-7.577507900150438</v>
       </c>
       <c r="AG200">
         <v>-2.968802662941983</v>
@@ -21098,13 +21098,13 @@
         <v>-2.555574691074303</v>
       </c>
       <c r="W201">
-        <v>125.6133333333333</v>
+        <v>128.18</v>
       </c>
       <c r="X201">
-        <v>135.8853156127959</v>
+        <v>134.6312840042067</v>
       </c>
       <c r="Y201">
-        <v>-7.559302661321055</v>
+        <v>-4.791816442904262</v>
       </c>
       <c r="Z201">
         <v>9550426.699999999</v>
@@ -21125,7 +21125,7 @@
         <v>-2.44</v>
       </c>
       <c r="AF201">
-        <v>-6.606900042147512</v>
+        <v>-1.320667004136822</v>
       </c>
       <c r="AG201">
         <v>-2.787847141730104</v>
@@ -21201,13 +21201,13 @@
         <v>-2.061610859440943</v>
       </c>
       <c r="W202">
-        <v>125.8716666666667</v>
+        <v>128.54</v>
       </c>
       <c r="X202">
-        <v>136.1673259109279</v>
+        <v>134.8021599850824</v>
       </c>
       <c r="Y202">
-        <v>-7.56103505403053</v>
+        <v>-4.64544483988637</v>
       </c>
       <c r="Z202">
         <v>9640755</v>
@@ -21228,7 +21228,7 @@
         <v>-1.92</v>
       </c>
       <c r="AF202">
-        <v>-7.559302661321055</v>
+        <v>-4.791816442904262</v>
       </c>
       <c r="AG202">
         <v>-2.555574691074303</v>
@@ -21304,13 +21304,13 @@
         <v>-1.35985187690586</v>
       </c>
       <c r="W203">
-        <v>127.0883333333333</v>
+        <v>126.82</v>
       </c>
       <c r="X203">
-        <v>136.4456773454611</v>
+        <v>134.9690610101448</v>
       </c>
       <c r="Y203">
-        <v>-6.857926314833929</v>
+        <v>-6.037725200986809</v>
       </c>
       <c r="Z203">
         <v>9741807.699999999</v>
@@ -21331,7 +21331,7 @@
         <v>-1.88</v>
       </c>
       <c r="AF203">
-        <v>-7.56103505403053</v>
+        <v>-4.64544483988637</v>
       </c>
       <c r="AG203">
         <v>-2.061610859440943</v>
@@ -21407,13 +21407,13 @@
         <v>-0.5858956689001826</v>
       </c>
       <c r="W204">
-        <v>128.065</v>
+        <v>128.07</v>
       </c>
       <c r="X204">
-        <v>136.7210542917562</v>
+        <v>135.1326596012236</v>
       </c>
       <c r="Y204">
-        <v>-6.33117871756943</v>
+        <v>-5.226463848240314</v>
       </c>
       <c r="Z204">
         <v>9830020.4</v>
@@ -21434,7 +21434,7 @@
         <v>-1.78</v>
       </c>
       <c r="AF204">
-        <v>-6.857926314833929</v>
+        <v>-6.037725200986809</v>
       </c>
       <c r="AG204">
         <v>-1.35985187690586</v>
@@ -21510,13 +21510,13 @@
         <v>0.211944313588952</v>
       </c>
       <c r="W205">
-        <v>128.8966666666667</v>
+        <v>129.09</v>
       </c>
       <c r="X205">
-        <v>136.9940689234449</v>
+        <v>135.2935654015905</v>
       </c>
       <c r="Y205">
-        <v>-5.910768488308237</v>
+        <v>-4.585262708670934</v>
       </c>
       <c r="Z205">
         <v>9915316.4</v>
@@ -21537,7 +21537,7 @@
         <v>-1.4</v>
       </c>
       <c r="AF205">
-        <v>-6.33117871756943</v>
+        <v>-5.226463848240314</v>
       </c>
       <c r="AG205">
         <v>-0.5858956689001826</v>
@@ -21613,13 +21613,13 @@
         <v>1.017929365491765</v>
       </c>
       <c r="W206">
-        <v>128.45</v>
+        <v>130</v>
       </c>
       <c r="X206">
-        <v>137.2652666236168</v>
+        <v>135.4523335586873</v>
       </c>
       <c r="Y206">
-        <v>-6.422066441460661</v>
+        <v>-4.025278424845247</v>
       </c>
       <c r="Z206">
         <v>9996690.4</v>
@@ -21640,7 +21640,7 @@
         <v>-1.27</v>
       </c>
       <c r="AF206">
-        <v>-5.910768488308237</v>
+        <v>-4.585262708670934</v>
       </c>
       <c r="AG206">
         <v>0.211944313588952</v>
@@ -21716,13 +21716,13 @@
         <v>1.665693149892045</v>
       </c>
       <c r="W207">
-        <v>128.525</v>
+        <v>128.63</v>
       </c>
       <c r="X207">
-        <v>137.5351302954056</v>
+        <v>135.6094713529388</v>
       </c>
       <c r="Y207">
-        <v>-6.55114826012314</v>
+        <v>-5.146743279290544</v>
       </c>
       <c r="Z207">
         <v>10067360.7</v>
@@ -21743,7 +21743,7 @@
         <v>-1.23</v>
       </c>
       <c r="AF207">
-        <v>-6.422066441460661</v>
+        <v>-4.025278424845247</v>
       </c>
       <c r="AG207">
         <v>1.017929365491765</v>
@@ -21819,13 +21819,13 @@
         <v>2.213282469574507</v>
       </c>
       <c r="W208">
-        <v>128.4416666666667</v>
+        <v>128.04</v>
       </c>
       <c r="X208">
-        <v>137.8040748229124</v>
+        <v>135.7654439942949</v>
       </c>
       <c r="Y208">
-        <v>-6.793999501304315</v>
+        <v>-5.690287430297458</v>
       </c>
       <c r="Z208">
         <v>10156139.2</v>
@@ -21846,7 +21846,7 @@
         <v>-0.93</v>
       </c>
       <c r="AF208">
-        <v>-6.55114826012314</v>
+        <v>-5.146743279290544</v>
       </c>
       <c r="AG208">
         <v>1.665693149892045</v>
@@ -21922,13 +21922,13 @@
         <v>2.589217872017846</v>
       </c>
       <c r="W209">
-        <v>127.9183333333333</v>
+        <v>123.68</v>
       </c>
       <c r="X209">
-        <v>138.072445567628</v>
+        <v>135.9206628387596</v>
       </c>
       <c r="Y209">
-        <v>-7.354191629293039</v>
+        <v>-9.00574098382706</v>
       </c>
       <c r="Z209">
         <v>10222611</v>
@@ -21949,7 +21949,7 @@
         <v>-0.74</v>
       </c>
       <c r="AF209">
-        <v>-6.793999501304315</v>
+        <v>-5.690287430297458</v>
       </c>
       <c r="AG209">
         <v>2.213282469574507</v>
@@ -22025,13 +22025,13 @@
         <v>2.808037542882569</v>
       </c>
       <c r="W210">
-        <v>126.8216666666667</v>
+        <v>121.49</v>
       </c>
       <c r="X210">
-        <v>138.3405156502398</v>
+        <v>136.0754796324297</v>
       </c>
       <c r="Y210">
-        <v>-8.326446471181093</v>
+        <v>-10.71866854471381</v>
       </c>
       <c r="Z210">
         <v>10280787.4</v>
@@ -22052,7 +22052,7 @@
         <v>-0.55</v>
       </c>
       <c r="AF210">
-        <v>-7.354191629293039</v>
+        <v>-9.00574098382706</v>
       </c>
       <c r="AG210">
         <v>2.589217872017846</v>
@@ -22128,13 +22128,13 @@
         <v>3.106308685506254</v>
       </c>
       <c r="W211">
-        <v>124.885</v>
+        <v>117.47</v>
       </c>
       <c r="X211">
-        <v>138.6084798418034</v>
+        <v>136.2301516718431</v>
       </c>
       <c r="Y211">
-        <v>-9.900894849627006</v>
+        <v>-13.7709247487541</v>
       </c>
       <c r="Z211">
         <v>10335458.3</v>
@@ -22155,7 +22155,7 @@
         <v>-0.38</v>
       </c>
       <c r="AF211">
-        <v>-8.326446471181093</v>
+        <v>-10.71866854471381</v>
       </c>
       <c r="AG211">
         <v>2.808037542882569</v>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -610,13 +610,13 @@
         <v>2.313721403857727</v>
       </c>
       <c r="Z2">
-        <v>2190643.1</v>
+        <v>181703.8</v>
       </c>
       <c r="AA2">
-        <v>-74923.44</v>
+        <v>1047626.16</v>
       </c>
       <c r="AB2">
-        <v>-3.42</v>
+        <v>47.82</v>
       </c>
       <c r="AC2">
         <v>5.69</v>
@@ -625,7 +625,7 @@
         <v>11.8743495127259</v>
       </c>
       <c r="AE2">
-        <v>-3.74</v>
+        <v>47.92</v>
       </c>
       <c r="AF2">
         <v>2.147821684794038</v>
@@ -713,13 +713,13 @@
         <v>-2.640109410945868</v>
       </c>
       <c r="Z3">
-        <v>2207671.2</v>
+        <v>176995.3</v>
       </c>
       <c r="AA3">
-        <v>-74569.5</v>
+        <v>1054868.66</v>
       </c>
       <c r="AB3">
-        <v>-3.38</v>
+        <v>47.78</v>
       </c>
       <c r="AC3">
         <v>5.7</v>
@@ -728,7 +728,7 @@
         <v>11.30558183538315</v>
       </c>
       <c r="AE3">
-        <v>-3.42</v>
+        <v>47.82</v>
       </c>
       <c r="AF3">
         <v>2.313721403857727</v>
@@ -816,13 +816,13 @@
         <v>-2.419714768403203</v>
       </c>
       <c r="Z4">
-        <v>2225144.6</v>
+        <v>195571.4</v>
       </c>
       <c r="AA4">
-        <v>-73223.35000000001</v>
+        <v>1060502.67</v>
       </c>
       <c r="AB4">
-        <v>-3.29</v>
+        <v>47.66</v>
       </c>
       <c r="AC4">
         <v>5.51</v>
@@ -831,7 +831,7 @@
         <v>11.15534072599755</v>
       </c>
       <c r="AE4">
-        <v>-3.38</v>
+        <v>47.78</v>
       </c>
       <c r="AF4">
         <v>-2.640109410945868</v>
@@ -919,13 +919,13 @@
         <v>-2.197684964365376</v>
       </c>
       <c r="Z5">
-        <v>2235812.9</v>
+        <v>188584.2</v>
       </c>
       <c r="AA5">
-        <v>-74002.58</v>
+        <v>1054018.55</v>
       </c>
       <c r="AB5">
-        <v>-3.31</v>
+        <v>47.14</v>
       </c>
       <c r="AC5">
         <v>5.32</v>
@@ -934,7 +934,7 @@
         <v>10.84314470186101</v>
       </c>
       <c r="AE5">
-        <v>-3.29</v>
+        <v>47.66</v>
       </c>
       <c r="AF5">
         <v>-2.419714768403203</v>
@@ -1022,13 +1022,13 @@
         <v>2.484075628600824</v>
       </c>
       <c r="Z6">
-        <v>2256419.1</v>
+        <v>198732.6</v>
       </c>
       <c r="AA6">
-        <v>-74308.97</v>
+        <v>1061011.12</v>
       </c>
       <c r="AB6">
-        <v>-3.29</v>
+        <v>47.02</v>
       </c>
       <c r="AC6">
         <v>4.63</v>
@@ -1037,7 +1037,7 @@
         <v>11.04845646564083</v>
       </c>
       <c r="AE6">
-        <v>-3.31</v>
+        <v>47.14</v>
       </c>
       <c r="AF6">
         <v>-2.197684964365376</v>
@@ -1125,13 +1125,13 @@
         <v>6.031522959779978</v>
       </c>
       <c r="Z7">
-        <v>2271564</v>
+        <v>194660.1</v>
       </c>
       <c r="AA7">
-        <v>-75458.8</v>
+        <v>1066702.33</v>
       </c>
       <c r="AB7">
-        <v>-3.32</v>
+        <v>46.96</v>
       </c>
       <c r="AC7">
         <v>4.23</v>
@@ -1140,7 +1140,7 @@
         <v>11.00450925837091</v>
       </c>
       <c r="AE7">
-        <v>-3.29</v>
+        <v>47.02</v>
       </c>
       <c r="AF7">
         <v>2.484075628600824</v>
@@ -1228,13 +1228,13 @@
         <v>4.125745800514569</v>
       </c>
       <c r="Z8">
-        <v>2293390.2</v>
+        <v>203497.8</v>
       </c>
       <c r="AA8">
-        <v>-74262.97</v>
+        <v>1074058.79</v>
       </c>
       <c r="AB8">
-        <v>-3.24</v>
+        <v>46.83</v>
       </c>
       <c r="AC8">
         <v>4.03</v>
@@ -1243,7 +1243,7 @@
         <v>10.71806209747188</v>
       </c>
       <c r="AE8">
-        <v>-3.32</v>
+        <v>46.96</v>
       </c>
       <c r="AF8">
         <v>6.031522959779978</v>
@@ -1331,13 +1331,13 @@
         <v>3.572707506505246</v>
       </c>
       <c r="Z9">
-        <v>2315471.6</v>
+        <v>208796.1</v>
       </c>
       <c r="AA9">
-        <v>-77675.61</v>
+        <v>1079411.75</v>
       </c>
       <c r="AB9">
-        <v>-3.35</v>
+        <v>46.62</v>
       </c>
       <c r="AC9">
         <v>3.97</v>
@@ -1346,7 +1346,7 @@
         <v>10.58959315187071</v>
       </c>
       <c r="AE9">
-        <v>-3.24</v>
+        <v>46.83</v>
       </c>
       <c r="AF9">
         <v>4.125745800514569</v>
@@ -1434,13 +1434,13 @@
         <v>3.916593043134031</v>
       </c>
       <c r="Z10">
-        <v>2336552.6</v>
+        <v>205553.8</v>
       </c>
       <c r="AA10">
-        <v>-75299.78</v>
+        <v>1088215.74</v>
       </c>
       <c r="AB10">
-        <v>-3.22</v>
+        <v>46.57</v>
       </c>
       <c r="AC10">
         <v>3.84</v>
@@ -1449,7 +1449,7 @@
         <v>10.41987673343607</v>
       </c>
       <c r="AE10">
-        <v>-3.35</v>
+        <v>46.62</v>
       </c>
       <c r="AF10">
         <v>3.572707506505246</v>
@@ -1537,13 +1537,13 @@
         <v>2.831770814488022</v>
       </c>
       <c r="Z11">
-        <v>2362641.2</v>
+        <v>219040.8</v>
       </c>
       <c r="AA11">
-        <v>-77597.24000000001</v>
+        <v>1090807.28</v>
       </c>
       <c r="AB11">
-        <v>-3.28</v>
+        <v>46.17</v>
       </c>
       <c r="AC11">
         <v>3.7</v>
@@ -1552,7 +1552,7 @@
         <v>10.09643201542914</v>
       </c>
       <c r="AE11">
-        <v>-3.22</v>
+        <v>46.57</v>
       </c>
       <c r="AF11">
         <v>3.916593043134031</v>
@@ -1640,13 +1640,13 @@
         <v>4.188963634368825</v>
       </c>
       <c r="Z12">
-        <v>2387208</v>
+        <v>220983.2</v>
       </c>
       <c r="AA12">
-        <v>-78382.00999999999</v>
+        <v>1098243.73</v>
       </c>
       <c r="AB12">
-        <v>-3.28</v>
+        <v>46.01</v>
       </c>
       <c r="AC12">
         <v>3.26</v>
@@ -1655,7 +1655,7 @@
         <v>10.35250823164826</v>
       </c>
       <c r="AE12">
-        <v>-3.28</v>
+        <v>46.17</v>
       </c>
       <c r="AF12">
         <v>2.831770814488022</v>
@@ -1743,13 +1743,13 @@
         <v>5.312380888049084</v>
       </c>
       <c r="Z13">
-        <v>2409449.9</v>
+        <v>215330.9</v>
       </c>
       <c r="AA13">
-        <v>-75915.39</v>
+        <v>1120052.63</v>
       </c>
       <c r="AB13">
-        <v>-3.15</v>
+        <v>46.49</v>
       </c>
       <c r="AC13">
         <v>3.02</v>
@@ -1758,7 +1758,7 @@
         <v>10.31838477965443</v>
       </c>
       <c r="AE13">
-        <v>-3.28</v>
+        <v>46.01</v>
       </c>
       <c r="AF13">
         <v>4.188963634368825</v>
@@ -1846,13 +1846,13 @@
         <v>4.197063809179302</v>
       </c>
       <c r="Z14">
-        <v>2434411.5</v>
+        <v>206665.4</v>
       </c>
       <c r="AA14">
-        <v>-84976.77</v>
+        <v>1118604.96</v>
       </c>
       <c r="AB14">
-        <v>-3.49</v>
+        <v>45.95</v>
       </c>
       <c r="AC14">
         <v>3.14</v>
@@ -1861,7 +1861,7 @@
         <v>9.74403723094821</v>
       </c>
       <c r="AE14">
-        <v>-3.15</v>
+        <v>46.49</v>
       </c>
       <c r="AF14">
         <v>5.312380888049084</v>
@@ -1949,13 +1949,13 @@
         <v>2.473136313262159</v>
       </c>
       <c r="Z15">
-        <v>2458966.9</v>
+        <v>201550.6</v>
       </c>
       <c r="AA15">
-        <v>-86031.62</v>
+        <v>1127618.55</v>
       </c>
       <c r="AB15">
-        <v>-3.5</v>
+        <v>45.86</v>
       </c>
       <c r="AC15">
         <v>2.99</v>
@@ -1964,7 +1964,7 @@
         <v>9.845616079230979</v>
       </c>
       <c r="AE15">
-        <v>-3.49</v>
+        <v>45.95</v>
       </c>
       <c r="AF15">
         <v>4.197063809179302</v>
@@ -2052,13 +2052,13 @@
         <v>3.192150093177903</v>
       </c>
       <c r="Z16">
-        <v>2486602.5</v>
+        <v>223206.9</v>
       </c>
       <c r="AA16">
-        <v>-84858.36</v>
+        <v>1139113.87</v>
       </c>
       <c r="AB16">
-        <v>-3.41</v>
+        <v>45.81</v>
       </c>
       <c r="AC16">
         <v>3.02</v>
@@ -2067,7 +2067,7 @@
         <v>9.619491360900788</v>
       </c>
       <c r="AE16">
-        <v>-3.5</v>
+        <v>45.86</v>
       </c>
       <c r="AF16">
         <v>2.473136313262159</v>
@@ -2155,13 +2155,13 @@
         <v>1.932461953498743</v>
       </c>
       <c r="Z17">
-        <v>2516940.7</v>
+        <v>218922.4</v>
       </c>
       <c r="AA17">
-        <v>-85832.42</v>
+        <v>1134706.67</v>
       </c>
       <c r="AB17">
-        <v>-3.41</v>
+        <v>45.08</v>
       </c>
       <c r="AC17">
         <v>2.96</v>
@@ -2170,7 +2170,7 @@
         <v>9.498834498834485</v>
       </c>
       <c r="AE17">
-        <v>-3.41</v>
+        <v>45.81</v>
       </c>
       <c r="AF17">
         <v>3.192150093177903</v>
@@ -2258,13 +2258,13 @@
         <v>0.07658804242725026</v>
       </c>
       <c r="Z18">
-        <v>2545742</v>
+        <v>227533.9</v>
       </c>
       <c r="AA18">
-        <v>-87824.34</v>
+        <v>1151502.63</v>
       </c>
       <c r="AB18">
-        <v>-3.45</v>
+        <v>45.23</v>
       </c>
       <c r="AC18">
         <v>3</v>
@@ -2273,7 +2273,7 @@
         <v>9.300970873786408</v>
       </c>
       <c r="AE18">
-        <v>-3.41</v>
+        <v>45.08</v>
       </c>
       <c r="AF18">
         <v>1.932461953498743</v>
@@ -2361,13 +2361,13 @@
         <v>-2.111277747214257</v>
       </c>
       <c r="Z19">
-        <v>2575280.3</v>
+        <v>224198.4</v>
       </c>
       <c r="AA19">
-        <v>-87416.42999999999</v>
+        <v>1153731.32</v>
       </c>
       <c r="AB19">
-        <v>-3.39</v>
+        <v>44.8</v>
       </c>
       <c r="AC19">
         <v>3.18</v>
@@ -2376,7 +2376,7 @@
         <v>8.964915681333597</v>
       </c>
       <c r="AE19">
-        <v>-3.45</v>
+        <v>45.23</v>
       </c>
       <c r="AF19">
         <v>0.07658804242725026</v>
@@ -2464,13 +2464,13 @@
         <v>-3.119472548182889</v>
       </c>
       <c r="Z20">
-        <v>2602697.5</v>
+        <v>230915</v>
       </c>
       <c r="AA20">
-        <v>-88381.67</v>
+        <v>1164162.36</v>
       </c>
       <c r="AB20">
-        <v>-3.4</v>
+        <v>44.73</v>
       </c>
       <c r="AC20">
         <v>3.69</v>
@@ -2479,7 +2479,7 @@
         <v>8.043205709325886</v>
       </c>
       <c r="AE20">
-        <v>-3.39</v>
+        <v>44.8</v>
       </c>
       <c r="AF20">
         <v>-2.111277747214257</v>
@@ -2567,13 +2567,13 @@
         <v>0.9962117170522644</v>
       </c>
       <c r="Z21">
-        <v>2627804.4</v>
+        <v>233903</v>
       </c>
       <c r="AA21">
-        <v>-85026.17</v>
+        <v>1158709.12</v>
       </c>
       <c r="AB21">
-        <v>-3.24</v>
+        <v>44.09</v>
       </c>
       <c r="AC21">
         <v>3.74</v>
@@ -2582,7 +2582,7 @@
         <v>7.701947175631374</v>
       </c>
       <c r="AE21">
-        <v>-3.4</v>
+        <v>44.73</v>
       </c>
       <c r="AF21">
         <v>-3.119472548182889</v>
@@ -2670,13 +2670,13 @@
         <v>-1.167746285813553</v>
       </c>
       <c r="Z22">
-        <v>2649278.5</v>
+        <v>227028</v>
       </c>
       <c r="AA22">
-        <v>-85114.23</v>
+        <v>1181191.02</v>
       </c>
       <c r="AB22">
-        <v>-3.21</v>
+        <v>44.59</v>
       </c>
       <c r="AC22">
         <v>4.18</v>
@@ -2685,7 +2685,7 @@
         <v>6.959109234018057</v>
       </c>
       <c r="AE22">
-        <v>-3.24</v>
+        <v>44.09</v>
       </c>
       <c r="AF22">
         <v>0.9962117170522644</v>
@@ -2773,13 +2773,13 @@
         <v>-4.919011502511717</v>
       </c>
       <c r="Z23">
-        <v>2675926.6</v>
+        <v>245688.9</v>
       </c>
       <c r="AA23">
-        <v>-86729.2</v>
+        <v>1193567.43</v>
       </c>
       <c r="AB23">
-        <v>-3.24</v>
+        <v>44.6</v>
       </c>
       <c r="AC23">
         <v>4.15</v>
@@ -2788,7 +2788,7 @@
         <v>6.78828612578013</v>
       </c>
       <c r="AE23">
-        <v>-3.21</v>
+        <v>44.59</v>
       </c>
       <c r="AF23">
         <v>-1.167746285813553</v>
@@ -2876,13 +2876,13 @@
         <v>-4.527176116206311</v>
       </c>
       <c r="Z24">
-        <v>2698213</v>
+        <v>243269.5</v>
       </c>
       <c r="AA24">
-        <v>-90241</v>
+        <v>1190210.54</v>
       </c>
       <c r="AB24">
-        <v>-3.34</v>
+        <v>44.11</v>
       </c>
       <c r="AC24">
         <v>4.12</v>
@@ -2891,7 +2891,7 @@
         <v>6.780637725701122</v>
       </c>
       <c r="AE24">
-        <v>-3.24</v>
+        <v>44.6</v>
       </c>
       <c r="AF24">
         <v>-4.919011502511717</v>
@@ -2979,13 +2979,13 @@
         <v>-3.635803900798873</v>
       </c>
       <c r="Z25">
-        <v>2720262.9</v>
+        <v>237380.9</v>
       </c>
       <c r="AA25">
-        <v>-88077.96000000001</v>
+        <v>1211762.25</v>
       </c>
       <c r="AB25">
-        <v>-3.24</v>
+        <v>44.55</v>
       </c>
       <c r="AC25">
         <v>4.19</v>
@@ -2994,7 +2994,7 @@
         <v>6.70889720702561</v>
       </c>
       <c r="AE25">
-        <v>-3.34</v>
+        <v>44.11</v>
       </c>
       <c r="AF25">
         <v>-4.527176116206311</v>
@@ -3082,13 +3082,13 @@
         <v>-3.790990612836065</v>
       </c>
       <c r="Z26">
-        <v>2746426</v>
+        <v>232828.5</v>
       </c>
       <c r="AA26">
-        <v>-93114.94</v>
+        <v>1200436.07</v>
       </c>
       <c r="AB26">
-        <v>-3.39</v>
+        <v>43.71</v>
       </c>
       <c r="AC26">
         <v>4.46</v>
@@ -3097,7 +3097,7 @@
         <v>6.433084434233183</v>
       </c>
       <c r="AE26">
-        <v>-3.24</v>
+        <v>44.55</v>
       </c>
       <c r="AF26">
         <v>-3.635803900798873</v>
@@ -3185,13 +3185,13 @@
         <v>-4.355101667025618</v>
       </c>
       <c r="Z27">
-        <v>2776859.2</v>
+        <v>231983.8</v>
       </c>
       <c r="AA27">
-        <v>-95332.25</v>
+        <v>1216003.85</v>
       </c>
       <c r="AB27">
-        <v>-3.43</v>
+        <v>43.79</v>
       </c>
       <c r="AC27">
         <v>4.56</v>
@@ -3200,7 +3200,7 @@
         <v>6.331293037490426</v>
       </c>
       <c r="AE27">
-        <v>-3.39</v>
+        <v>43.71</v>
       </c>
       <c r="AF27">
         <v>-3.790990612836065</v>
@@ -3288,13 +3288,13 @@
         <v>-2.914768319848104</v>
       </c>
       <c r="Z28">
-        <v>2800895.2</v>
+        <v>247243</v>
       </c>
       <c r="AA28">
-        <v>-101723.71</v>
+        <v>1204373.19</v>
       </c>
       <c r="AB28">
-        <v>-3.63</v>
+        <v>43</v>
       </c>
       <c r="AC28">
         <v>4.61</v>
@@ -3303,7 +3303,7 @@
         <v>6.280470318325193</v>
       </c>
       <c r="AE28">
-        <v>-3.43</v>
+        <v>43.79</v>
       </c>
       <c r="AF28">
         <v>-4.355101667025618</v>
@@ -3391,13 +3391,13 @@
         <v>-2.947208417488556</v>
       </c>
       <c r="Z29">
-        <v>2835166.3</v>
+        <v>253193.5</v>
       </c>
       <c r="AA29">
-        <v>-102347.32</v>
+        <v>1213886.26</v>
       </c>
       <c r="AB29">
-        <v>-3.61</v>
+        <v>42.82</v>
       </c>
       <c r="AC29">
         <v>4.73</v>
@@ -3406,7 +3406,7 @@
         <v>6.158693784016034</v>
       </c>
       <c r="AE29">
-        <v>-3.63</v>
+        <v>43</v>
       </c>
       <c r="AF29">
         <v>-2.914768319848104</v>
@@ -3494,13 +3494,13 @@
         <v>-4.68437775826559</v>
       </c>
       <c r="Z30">
-        <v>2863373.4</v>
+        <v>255741</v>
       </c>
       <c r="AA30">
-        <v>-102965.22</v>
+        <v>1232019.4</v>
       </c>
       <c r="AB30">
-        <v>-3.6</v>
+        <v>43.03</v>
       </c>
       <c r="AC30">
         <v>5.04</v>
@@ -3509,7 +3509,7 @@
         <v>6.026275704493522</v>
       </c>
       <c r="AE30">
-        <v>-3.61</v>
+        <v>42.82</v>
       </c>
       <c r="AF30">
         <v>-2.947208417488556</v>
@@ -3597,13 +3597,13 @@
         <v>-6.621183952619347</v>
       </c>
       <c r="Z31">
-        <v>2899765.6</v>
+        <v>260590.7</v>
       </c>
       <c r="AA31">
-        <v>-104976.58</v>
+        <v>1243642.84</v>
       </c>
       <c r="AB31">
-        <v>-3.62</v>
+        <v>42.89</v>
       </c>
       <c r="AC31">
         <v>5.58</v>
@@ -3612,7 +3612,7 @@
         <v>5.730251941655617</v>
       </c>
       <c r="AE31">
-        <v>-3.6</v>
+        <v>43.03</v>
       </c>
       <c r="AF31">
         <v>-4.68437775826559</v>
@@ -3700,13 +3700,13 @@
         <v>-7.481254246384095</v>
       </c>
       <c r="Z32">
-        <v>2940137</v>
+        <v>271286.3</v>
       </c>
       <c r="AA32">
-        <v>-109473.23</v>
+        <v>1256659.75</v>
       </c>
       <c r="AB32">
-        <v>-3.72</v>
+        <v>42.74</v>
       </c>
       <c r="AC32">
         <v>6.06</v>
@@ -3715,7 +3715,7 @@
         <v>5.685461059777497</v>
       </c>
       <c r="AE32">
-        <v>-3.62</v>
+        <v>42.89</v>
       </c>
       <c r="AF32">
         <v>-6.621183952619347</v>
@@ -3803,13 +3803,13 @@
         <v>-7.733799695745846</v>
       </c>
       <c r="Z33">
-        <v>2974782.1</v>
+        <v>268548.1</v>
       </c>
       <c r="AA33">
-        <v>-112119.39</v>
+        <v>1250139.55</v>
       </c>
       <c r="AB33">
-        <v>-3.77</v>
+        <v>42.02</v>
       </c>
       <c r="AC33">
         <v>6.37</v>
@@ -3818,7 +3818,7 @@
         <v>5.631287017016051</v>
       </c>
       <c r="AE33">
-        <v>-3.72</v>
+        <v>42.74</v>
       </c>
       <c r="AF33">
         <v>-7.481254246384095</v>
@@ -3906,13 +3906,13 @@
         <v>0.7089100726747288</v>
       </c>
       <c r="Z34">
-        <v>3020522.3</v>
+        <v>272768.2</v>
       </c>
       <c r="AA34">
-        <v>-116302.59</v>
+        <v>1206972.42</v>
       </c>
       <c r="AB34">
-        <v>-3.85</v>
+        <v>39.96</v>
       </c>
       <c r="AC34">
         <v>6.17</v>
@@ -3921,7 +3921,7 @@
         <v>6.357728171799937</v>
       </c>
       <c r="AE34">
-        <v>-3.77</v>
+        <v>42.02</v>
       </c>
       <c r="AF34">
         <v>-7.733799695745846</v>
@@ -4009,13 +4009,13 @@
         <v>15.63142437122076</v>
       </c>
       <c r="Z35">
-        <v>3059757.6</v>
+        <v>284924.2</v>
       </c>
       <c r="AA35">
-        <v>-121798.13</v>
+        <v>1172000.25</v>
       </c>
       <c r="AB35">
-        <v>-3.98</v>
+        <v>38.3</v>
       </c>
       <c r="AC35">
         <v>6.25</v>
@@ -4024,7 +4024,7 @@
         <v>6.720000000000015</v>
       </c>
       <c r="AE35">
-        <v>-3.85</v>
+        <v>39.96</v>
       </c>
       <c r="AF35">
         <v>0.7089100726747288</v>
@@ -4112,13 +4112,13 @@
         <v>16.51882969367133</v>
       </c>
       <c r="Z36">
-        <v>3088601.5</v>
+        <v>272113.4</v>
       </c>
       <c r="AA36">
-        <v>-113879.32</v>
+        <v>1141380.13</v>
       </c>
       <c r="AB36">
-        <v>-3.69</v>
+        <v>36.95</v>
       </c>
       <c r="AC36">
         <v>6.41</v>
@@ -4127,7 +4127,7 @@
         <v>6.813269429564883</v>
       </c>
       <c r="AE36">
-        <v>-3.98</v>
+        <v>38.3</v>
       </c>
       <c r="AF36">
         <v>15.63142437122076</v>
@@ -4215,13 +4215,13 @@
         <v>24.50344500620496</v>
       </c>
       <c r="Z37">
-        <v>3109803.1</v>
+        <v>258582.5</v>
       </c>
       <c r="AA37">
-        <v>-103583.68</v>
+        <v>1168238.34</v>
       </c>
       <c r="AB37">
-        <v>-3.33</v>
+        <v>37.57</v>
       </c>
       <c r="AC37">
         <v>6.39</v>
@@ -4230,7 +4230,7 @@
         <v>6.814550239684181</v>
       </c>
       <c r="AE37">
-        <v>-3.69</v>
+        <v>36.95</v>
       </c>
       <c r="AF37">
         <v>16.51882969367133</v>
@@ -4318,13 +4318,13 @@
         <v>18.09616708402857</v>
       </c>
       <c r="Z38">
-        <v>3121758.8</v>
+        <v>244784.2</v>
       </c>
       <c r="AA38">
-        <v>-90273.17999999999</v>
+        <v>1187934.97</v>
       </c>
       <c r="AB38">
-        <v>-2.89</v>
+        <v>38.05</v>
       </c>
       <c r="AC38">
         <v>5.9</v>
@@ -4333,7 +4333,7 @@
         <v>7.327667610953736</v>
       </c>
       <c r="AE38">
-        <v>-3.33</v>
+        <v>37.57</v>
       </c>
       <c r="AF38">
         <v>24.50344500620496</v>
@@ -4421,13 +4421,13 @@
         <v>16.39844809212296</v>
       </c>
       <c r="Z39">
-        <v>3132276.3</v>
+        <v>242501.2</v>
       </c>
       <c r="AA39">
-        <v>-85853.05</v>
+        <v>1190973.6</v>
       </c>
       <c r="AB39">
-        <v>-2.74</v>
+        <v>38.02</v>
       </c>
       <c r="AC39">
         <v>5.84</v>
@@ -4436,7 +4436,7 @@
         <v>7.067271352985638</v>
       </c>
       <c r="AE39">
-        <v>-2.89</v>
+        <v>38.05</v>
       </c>
       <c r="AF39">
         <v>18.09616708402857</v>
@@ -4524,13 +4524,13 @@
         <v>14.2718310905547</v>
       </c>
       <c r="Z40">
-        <v>3153874.9</v>
+        <v>268841.6</v>
       </c>
       <c r="AA40">
-        <v>-80808.81</v>
+        <v>1199737.6</v>
       </c>
       <c r="AB40">
-        <v>-2.56</v>
+        <v>38.04</v>
       </c>
       <c r="AC40">
         <v>5.9</v>
@@ -4539,7 +4539,7 @@
         <v>6.383380547686501</v>
       </c>
       <c r="AE40">
-        <v>-2.74</v>
+        <v>38.02</v>
       </c>
       <c r="AF40">
         <v>16.39844809212296</v>
@@ -4627,13 +4627,13 @@
         <v>12.26497346722946</v>
       </c>
       <c r="Z41">
-        <v>3164110.3</v>
+        <v>263428.8</v>
       </c>
       <c r="AA41">
-        <v>-72890.05</v>
+        <v>1223041.86</v>
       </c>
       <c r="AB41">
-        <v>-2.3</v>
+        <v>38.65</v>
       </c>
       <c r="AC41">
         <v>5.61</v>
@@ -4642,7 +4642,7 @@
         <v>5.766499384527979</v>
       </c>
       <c r="AE41">
-        <v>-2.56</v>
+        <v>38.04</v>
       </c>
       <c r="AF41">
         <v>14.2718310905547</v>
@@ -4730,13 +4730,13 @@
         <v>6.163297890381725</v>
       </c>
       <c r="Z42">
-        <v>3177111.6</v>
+        <v>268742.3</v>
       </c>
       <c r="AA42">
-        <v>-66478.7</v>
+        <v>1260118.99</v>
       </c>
       <c r="AB42">
-        <v>-2.09</v>
+        <v>39.66</v>
       </c>
       <c r="AC42">
         <v>5.53</v>
@@ -4745,7 +4745,7 @@
         <v>5.287595944281254</v>
       </c>
       <c r="AE42">
-        <v>-2.3</v>
+        <v>38.65</v>
       </c>
       <c r="AF42">
         <v>12.26497346722946</v>
@@ -4833,13 +4833,13 @@
         <v>3.496773238207385</v>
       </c>
       <c r="Z43">
-        <v>3187927.3</v>
+        <v>271406.4</v>
       </c>
       <c r="AA43">
-        <v>-59463.45</v>
+        <v>1274406.16</v>
       </c>
       <c r="AB43">
-        <v>-1.87</v>
+        <v>39.98</v>
       </c>
       <c r="AC43">
         <v>5.2</v>
@@ -4848,7 +4848,7 @@
         <v>4.714828897338386</v>
       </c>
       <c r="AE43">
-        <v>-2.09</v>
+        <v>39.66</v>
       </c>
       <c r="AF43">
         <v>6.163297890381725</v>
@@ -4936,13 +4936,13 @@
         <v>2.622176142211208</v>
       </c>
       <c r="Z44">
-        <v>3198100.6</v>
+        <v>281459.6</v>
       </c>
       <c r="AA44">
-        <v>-51103.4</v>
+        <v>1299768.72</v>
       </c>
       <c r="AB44">
-        <v>-1.6</v>
+        <v>40.64</v>
       </c>
       <c r="AC44">
         <v>4.8</v>
@@ -4951,7 +4951,7 @@
         <v>4.522900763358773</v>
       </c>
       <c r="AE44">
-        <v>-1.87</v>
+        <v>39.98</v>
       </c>
       <c r="AF44">
         <v>3.496773238207385</v>
@@ -5039,13 +5039,13 @@
         <v>-1.27051094750511</v>
       </c>
       <c r="Z45">
-        <v>3212061.2</v>
+        <v>282508.7</v>
       </c>
       <c r="AA45">
-        <v>-46802.27</v>
+        <v>1305138.63</v>
       </c>
       <c r="AB45">
-        <v>-1.46</v>
+        <v>40.63</v>
       </c>
       <c r="AC45">
         <v>4.5</v>
@@ -5054,7 +5054,7 @@
         <v>4.315789473684228</v>
       </c>
       <c r="AE45">
-        <v>-1.6</v>
+        <v>40.64</v>
       </c>
       <c r="AF45">
         <v>2.622176142211208</v>
@@ -5142,13 +5142,13 @@
         <v>-1.862702809012817</v>
       </c>
       <c r="Z46">
-        <v>3228167.9</v>
+        <v>288874.9</v>
       </c>
       <c r="AA46">
-        <v>-34523.39</v>
+        <v>1341606.53</v>
       </c>
       <c r="AB46">
-        <v>-1.07</v>
+        <v>41.56</v>
       </c>
       <c r="AC46">
         <v>4.36</v>
@@ -5157,7 +5157,7 @@
         <v>4.110770410118803</v>
       </c>
       <c r="AE46">
-        <v>-1.46</v>
+        <v>40.63</v>
       </c>
       <c r="AF46">
         <v>-1.27051094750511</v>
@@ -5245,13 +5245,13 @@
         <v>-5.165675410664228</v>
       </c>
       <c r="Z47">
-        <v>3252378.5</v>
+        <v>309134.7</v>
       </c>
       <c r="AA47">
-        <v>-30420.55</v>
+        <v>1347192.92</v>
       </c>
       <c r="AB47">
-        <v>-0.9399999999999999</v>
+        <v>41.42</v>
       </c>
       <c r="AC47">
         <v>4.34</v>
@@ -5260,7 +5260,7 @@
         <v>4.130726471152002</v>
       </c>
       <c r="AE47">
-        <v>-1.07</v>
+        <v>41.56</v>
       </c>
       <c r="AF47">
         <v>-1.862702809012817</v>
@@ -5348,13 +5348,13 @@
         <v>-4.774417514157447</v>
       </c>
       <c r="Z48">
-        <v>3288209.5</v>
+        <v>307944.4</v>
       </c>
       <c r="AA48">
-        <v>-43661.51</v>
+        <v>1346061.96</v>
       </c>
       <c r="AB48">
-        <v>-1.33</v>
+        <v>40.94</v>
       </c>
       <c r="AC48">
         <v>4.17</v>
@@ -5363,7 +5363,7 @@
         <v>4.300662378803866</v>
       </c>
       <c r="AE48">
-        <v>-0.9399999999999999</v>
+        <v>41.42</v>
       </c>
       <c r="AF48">
         <v>-5.165675410664228</v>
@@ -5451,13 +5451,13 @@
         <v>-3.816128381642248</v>
       </c>
       <c r="Z49">
-        <v>3333039.4</v>
+        <v>303412.3</v>
       </c>
       <c r="AA49">
-        <v>-64768.83</v>
+        <v>1362710.72</v>
       </c>
       <c r="AB49">
-        <v>-1.94</v>
+        <v>40.88</v>
       </c>
       <c r="AC49">
         <v>4.22</v>
@@ -5466,7 +5466,7 @@
         <v>4.250623680675503</v>
       </c>
       <c r="AE49">
-        <v>-1.33</v>
+        <v>40.94</v>
       </c>
       <c r="AF49">
         <v>-4.774417514157447</v>
@@ -5554,13 +5554,13 @@
         <v>-3.929395224130827</v>
       </c>
       <c r="Z50">
-        <v>3372644.4</v>
+        <v>284389.3</v>
       </c>
       <c r="AA50">
-        <v>-73640.46000000001</v>
+        <v>1335186.19</v>
       </c>
       <c r="AB50">
-        <v>-2.18</v>
+        <v>39.59</v>
       </c>
       <c r="AC50">
         <v>4.31</v>
@@ -5569,7 +5569,7 @@
         <v>4.160674911322038</v>
       </c>
       <c r="AE50">
-        <v>-1.94</v>
+        <v>40.88</v>
       </c>
       <c r="AF50">
         <v>-3.816128381642248</v>
@@ -5657,13 +5657,13 @@
         <v>-1.37234622135961</v>
       </c>
       <c r="Z51">
-        <v>3413499.6</v>
+        <v>283356.4</v>
       </c>
       <c r="AA51">
-        <v>-73431.31</v>
+        <v>1359154.98</v>
       </c>
       <c r="AB51">
-        <v>-2.15</v>
+        <v>39.82</v>
       </c>
       <c r="AC51">
         <v>4.59</v>
@@ -5672,7 +5672,7 @@
         <v>3.881824266182243</v>
       </c>
       <c r="AE51">
-        <v>-2.18</v>
+        <v>39.59</v>
       </c>
       <c r="AF51">
         <v>-3.929395224130827</v>
@@ -5760,13 +5760,13 @@
         <v>-4.541828912072421</v>
       </c>
       <c r="Z52">
-        <v>3463309.7</v>
+        <v>318651.7</v>
       </c>
       <c r="AA52">
-        <v>-65124.44</v>
+        <v>1382153.06</v>
       </c>
       <c r="AB52">
-        <v>-1.88</v>
+        <v>39.91</v>
       </c>
       <c r="AC52">
         <v>4.83</v>
@@ -5775,7 +5775,7 @@
         <v>3.643995039587899</v>
       </c>
       <c r="AE52">
-        <v>-2.15</v>
+        <v>39.82</v>
       </c>
       <c r="AF52">
         <v>-1.37234622135961</v>
@@ -5863,13 +5863,13 @@
         <v>-6.270357172976226</v>
       </c>
       <c r="Z53">
-        <v>3511531.8</v>
+        <v>311651</v>
       </c>
       <c r="AA53">
-        <v>-73538.60000000001</v>
+        <v>1385977.88</v>
       </c>
       <c r="AB53">
-        <v>-2.09</v>
+        <v>39.47</v>
       </c>
       <c r="AC53">
         <v>5.17</v>
@@ -5878,7 +5878,7 @@
         <v>3.308928401635436</v>
       </c>
       <c r="AE53">
-        <v>-1.88</v>
+        <v>39.91</v>
       </c>
       <c r="AF53">
         <v>-4.541828912072421</v>
@@ -5966,13 +5966,13 @@
         <v>-5.527798464134747</v>
       </c>
       <c r="Z54">
-        <v>3558737</v>
+        <v>315947.5</v>
       </c>
       <c r="AA54">
-        <v>-71913.23</v>
+        <v>1387015.11</v>
       </c>
       <c r="AB54">
-        <v>-2.02</v>
+        <v>38.97</v>
       </c>
       <c r="AC54">
         <v>5.26</v>
@@ -5981,7 +5981,7 @@
         <v>3.287098612958395</v>
       </c>
       <c r="AE54">
-        <v>-2.09</v>
+        <v>39.47</v>
       </c>
       <c r="AF54">
         <v>-6.270357172976226</v>
@@ -6069,13 +6069,13 @@
         <v>-6.920083496181306</v>
       </c>
       <c r="Z55">
-        <v>3603877.2</v>
+        <v>316546.6</v>
       </c>
       <c r="AA55">
-        <v>-70730.88</v>
+        <v>1401395.51</v>
       </c>
       <c r="AB55">
-        <v>-1.96</v>
+        <v>38.89</v>
       </c>
       <c r="AC55">
         <v>5.22</v>
@@ -6084,7 +6084,7 @@
         <v>3.972628777798892</v>
       </c>
       <c r="AE55">
-        <v>-2.02</v>
+        <v>38.97</v>
       </c>
       <c r="AF55">
         <v>-5.527798464134747</v>
@@ -6172,13 +6172,13 @@
         <v>-6.748098127896252</v>
       </c>
       <c r="Z56">
-        <v>3651309</v>
+        <v>328891.3</v>
       </c>
       <c r="AA56">
-        <v>-69846.99000000001</v>
+        <v>1423734.54</v>
       </c>
       <c r="AB56">
-        <v>-1.91</v>
+        <v>38.99</v>
       </c>
       <c r="AC56">
         <v>4.84</v>
@@ -6187,7 +6187,7 @@
         <v>4.864555513162916</v>
       </c>
       <c r="AE56">
-        <v>-1.96</v>
+        <v>38.89</v>
       </c>
       <c r="AF56">
         <v>-6.920083496181306</v>
@@ -6275,13 +6275,13 @@
         <v>-6.178732443211232</v>
       </c>
       <c r="Z57">
-        <v>3701182.8</v>
+        <v>332382.6</v>
       </c>
       <c r="AA57">
-        <v>-69555.08</v>
+        <v>1434610.95</v>
       </c>
       <c r="AB57">
-        <v>-1.88</v>
+        <v>38.76</v>
       </c>
       <c r="AC57">
         <v>4.6</v>
@@ -6290,7 +6290,7 @@
         <v>5.468451242829819</v>
       </c>
       <c r="AE57">
-        <v>-1.91</v>
+        <v>38.99</v>
       </c>
       <c r="AF57">
         <v>-6.748098127896252</v>
@@ -6378,13 +6378,13 @@
         <v>-7.619694015577561</v>
       </c>
       <c r="Z58">
-        <v>3748968.7</v>
+        <v>336660.8</v>
       </c>
       <c r="AA58">
-        <v>-103130.8</v>
+        <v>1432956.2</v>
       </c>
       <c r="AB58">
-        <v>-2.75</v>
+        <v>38.22</v>
       </c>
       <c r="AC58">
         <v>4.49</v>
@@ -6393,7 +6393,7 @@
         <v>5.904871279548285</v>
       </c>
       <c r="AE58">
-        <v>-1.88</v>
+        <v>38.76</v>
       </c>
       <c r="AF58">
         <v>-6.178732443211232</v>
@@ -6481,13 +6481,13 @@
         <v>-8.030047935645069</v>
       </c>
       <c r="Z59">
-        <v>3790771.7</v>
+        <v>350937.7</v>
       </c>
       <c r="AA59">
-        <v>-99105.86</v>
+        <v>1436288.01</v>
       </c>
       <c r="AB59">
-        <v>-2.61</v>
+        <v>37.89</v>
       </c>
       <c r="AC59">
         <v>4.7</v>
@@ -6496,7 +6496,7 @@
         <v>5.692454632282717</v>
       </c>
       <c r="AE59">
-        <v>-2.75</v>
+        <v>38.22</v>
       </c>
       <c r="AF59">
         <v>-7.619694015577561</v>
@@ -6584,13 +6584,13 @@
         <v>-7.297538117934577</v>
       </c>
       <c r="Z60">
-        <v>3841254.4</v>
+        <v>358427.1</v>
       </c>
       <c r="AA60">
-        <v>-90998.42999999999</v>
+        <v>1450709.17</v>
       </c>
       <c r="AB60">
-        <v>-2.37</v>
+        <v>37.77</v>
       </c>
       <c r="AC60">
         <v>5.2</v>
@@ -6599,7 +6599,7 @@
         <v>5.190114068441054</v>
       </c>
       <c r="AE60">
-        <v>-2.61</v>
+        <v>37.89</v>
       </c>
       <c r="AF60">
         <v>-8.030047935645069</v>
@@ -6687,13 +6687,13 @@
         <v>-9.718577281455609</v>
       </c>
       <c r="Z61">
-        <v>3885847</v>
+        <v>348004.9</v>
       </c>
       <c r="AA61">
-        <v>-101696.05</v>
+        <v>1475820.18</v>
       </c>
       <c r="AB61">
-        <v>-2.62</v>
+        <v>37.98</v>
       </c>
       <c r="AC61">
         <v>5.63</v>
@@ -6702,7 +6702,7 @@
         <v>4.761904761904767</v>
       </c>
       <c r="AE61">
-        <v>-2.37</v>
+        <v>37.77</v>
       </c>
       <c r="AF61">
         <v>-7.297538117934577</v>
@@ -6790,13 +6790,13 @@
         <v>-10.38475998876243</v>
       </c>
       <c r="Z62">
-        <v>3929048.6</v>
+        <v>327590.9</v>
       </c>
       <c r="AA62">
-        <v>-103360.28</v>
+        <v>1476104.91</v>
       </c>
       <c r="AB62">
-        <v>-2.63</v>
+        <v>37.57</v>
       </c>
       <c r="AC62">
         <v>5.91</v>
@@ -6805,7 +6805,7 @@
         <v>4.484940043433117</v>
       </c>
       <c r="AE62">
-        <v>-2.62</v>
+        <v>37.98</v>
       </c>
       <c r="AF62">
         <v>-9.718577281455609</v>
@@ -6893,13 +6893,13 @@
         <v>-8.585371099370597</v>
       </c>
       <c r="Z63">
-        <v>3978014.6</v>
+        <v>332322.4</v>
       </c>
       <c r="AA63">
-        <v>-108098.65</v>
+        <v>1491400.01</v>
       </c>
       <c r="AB63">
-        <v>-2.72</v>
+        <v>37.49</v>
       </c>
       <c r="AC63">
         <v>5.99</v>
@@ -6908,7 +6908,7 @@
         <v>4.585338239456549</v>
       </c>
       <c r="AE63">
-        <v>-2.63</v>
+        <v>37.57</v>
       </c>
       <c r="AF63">
         <v>-10.38475998876243</v>
@@ -6996,13 +6996,13 @@
         <v>-8.495950269179852</v>
       </c>
       <c r="Z64">
-        <v>4015980.2</v>
+        <v>356617.3</v>
       </c>
       <c r="AA64">
-        <v>-121857.63</v>
+        <v>1507304.97</v>
       </c>
       <c r="AB64">
-        <v>-3.03</v>
+        <v>37.53</v>
       </c>
       <c r="AC64">
         <v>6.01</v>
@@ -7011,7 +7011,7 @@
         <v>4.867465333459098</v>
       </c>
       <c r="AE64">
-        <v>-2.72</v>
+        <v>37.49</v>
       </c>
       <c r="AF64">
         <v>-8.585371099370597</v>
@@ -7099,13 +7099,13 @@
         <v>-11.68034194410862</v>
       </c>
       <c r="Z65">
-        <v>4058947.1</v>
+        <v>354617.8</v>
       </c>
       <c r="AA65">
-        <v>-119620.34</v>
+        <v>1518660.03</v>
       </c>
       <c r="AB65">
-        <v>-2.95</v>
+        <v>37.42</v>
       </c>
       <c r="AC65">
         <v>6.3</v>
@@ -7114,7 +7114,7 @@
         <v>5.004703668861721</v>
       </c>
       <c r="AE65">
-        <v>-3.03</v>
+        <v>37.53</v>
       </c>
       <c r="AF65">
         <v>-8.495950269179852</v>
@@ -7202,13 +7202,13 @@
         <v>-10.27254924666832</v>
       </c>
       <c r="Z66">
-        <v>4111272.3</v>
+        <v>368272.7</v>
       </c>
       <c r="AA66">
-        <v>-126638.9</v>
+        <v>1531599.69</v>
       </c>
       <c r="AB66">
-        <v>-3.08</v>
+        <v>37.25</v>
       </c>
       <c r="AC66">
         <v>6.51</v>
@@ -7217,7 +7217,7 @@
         <v>4.910337057553282</v>
       </c>
       <c r="AE66">
-        <v>-2.95</v>
+        <v>37.42</v>
       </c>
       <c r="AF66">
         <v>-11.68034194410862</v>
@@ -7305,13 +7305,13 @@
         <v>-11.63407768693601</v>
       </c>
       <c r="Z67">
-        <v>4158547.4</v>
+        <v>363821.7</v>
       </c>
       <c r="AA67">
-        <v>-137829.5</v>
+        <v>1542174.82</v>
       </c>
       <c r="AB67">
-        <v>-3.31</v>
+        <v>37.08</v>
       </c>
       <c r="AC67">
         <v>6.55</v>
@@ -7320,7 +7320,7 @@
         <v>5.039887376818375</v>
       </c>
       <c r="AE67">
-        <v>-3.08</v>
+        <v>37.25</v>
       </c>
       <c r="AF67">
         <v>-10.27254924666832</v>
@@ -7408,13 +7408,13 @@
         <v>-12.49975159643335</v>
       </c>
       <c r="Z68">
-        <v>4196989.2</v>
+        <v>367333.1</v>
       </c>
       <c r="AA68">
-        <v>-150086.98</v>
+        <v>1545332.34</v>
       </c>
       <c r="AB68">
-        <v>-3.58</v>
+        <v>36.82</v>
       </c>
       <c r="AC68">
         <v>6.71</v>
@@ -7423,7 +7423,7 @@
         <v>5.051073001593109</v>
       </c>
       <c r="AE68">
-        <v>-3.31</v>
+        <v>37.08</v>
       </c>
       <c r="AF68">
         <v>-11.63407768693601</v>
@@ -7511,13 +7511,13 @@
         <v>-10.59377766216428</v>
       </c>
       <c r="Z69">
-        <v>4239493.9</v>
+        <v>374887.3</v>
       </c>
       <c r="AA69">
-        <v>-149454.94</v>
+        <v>1549401.33</v>
       </c>
       <c r="AB69">
-        <v>-3.53</v>
+        <v>36.55</v>
       </c>
       <c r="AC69">
         <v>6.87</v>
@@ -7526,7 +7526,7 @@
         <v>5.034153644614969</v>
       </c>
       <c r="AE69">
-        <v>-3.58</v>
+        <v>36.82</v>
       </c>
       <c r="AF69">
         <v>-12.49975159643335</v>
@@ -7614,13 +7614,13 @@
         <v>-5.041808985789221</v>
       </c>
       <c r="Z70">
-        <v>4272946.9</v>
+        <v>370113.8</v>
       </c>
       <c r="AA70">
-        <v>-129394.4</v>
+        <v>1481259.56</v>
       </c>
       <c r="AB70">
-        <v>-3.03</v>
+        <v>34.67</v>
       </c>
       <c r="AC70">
         <v>7.23</v>
@@ -7629,7 +7629,7 @@
         <v>4.840063415089069</v>
       </c>
       <c r="AE70">
-        <v>-3.53</v>
+        <v>36.55</v>
       </c>
       <c r="AF70">
         <v>-10.59377766216428</v>
@@ -7717,13 +7717,13 @@
         <v>-5.098103688251876</v>
       </c>
       <c r="Z71">
-        <v>4305785.2</v>
+        <v>383776.1</v>
       </c>
       <c r="AA71">
-        <v>-133591.98</v>
+        <v>1534974.06</v>
       </c>
       <c r="AB71">
-        <v>-3.1</v>
+        <v>35.65</v>
       </c>
       <c r="AC71">
         <v>7.31</v>
@@ -7732,7 +7732,7 @@
         <v>4.286646165315444</v>
       </c>
       <c r="AE71">
-        <v>-3.03</v>
+        <v>34.67</v>
       </c>
       <c r="AF71">
         <v>-5.041808985789221</v>
@@ -7820,13 +7820,13 @@
         <v>-5.488230347732303</v>
       </c>
       <c r="Z72">
-        <v>4338896</v>
+        <v>391538</v>
       </c>
       <c r="AA72">
-        <v>-137629.95</v>
+        <v>1508404.43</v>
       </c>
       <c r="AB72">
-        <v>-3.17</v>
+        <v>34.76</v>
       </c>
       <c r="AC72">
         <v>6.97</v>
@@ -7835,7 +7835,7 @@
         <v>4.421800504814422</v>
       </c>
       <c r="AE72">
-        <v>-3.1</v>
+        <v>35.65</v>
       </c>
       <c r="AF72">
         <v>-5.098103688251876</v>
@@ -7923,13 +7923,13 @@
         <v>-4.095386363823295</v>
       </c>
       <c r="Z73">
-        <v>4376382</v>
+        <v>385490.9</v>
       </c>
       <c r="AA73">
-        <v>-128710.48</v>
+        <v>1508546.91</v>
       </c>
       <c r="AB73">
-        <v>-2.94</v>
+        <v>34.47</v>
       </c>
       <c r="AC73">
         <v>6.64</v>
@@ -7938,7 +7938,7 @@
         <v>4.463615903975993</v>
       </c>
       <c r="AE73">
-        <v>-3.17</v>
+        <v>34.76</v>
       </c>
       <c r="AF73">
         <v>-5.488230347732303</v>
@@ -8026,13 +8026,13 @@
         <v>-7.511568088971421</v>
       </c>
       <c r="Z74">
-        <v>4412981.7</v>
+        <v>364190.6</v>
       </c>
       <c r="AA74">
-        <v>-136978.3</v>
+        <v>1544574.63</v>
       </c>
       <c r="AB74">
-        <v>-3.1</v>
+        <v>35</v>
       </c>
       <c r="AC74">
         <v>6.5</v>
@@ -8041,7 +8041,7 @@
         <v>4.131455399061035</v>
       </c>
       <c r="AE74">
-        <v>-2.94</v>
+        <v>34.47</v>
       </c>
       <c r="AF74">
         <v>-4.095386363823295</v>
@@ -8129,13 +8129,13 @@
         <v>-9.317046894137649</v>
       </c>
       <c r="Z75">
-        <v>4448184.5</v>
+        <v>367525.2</v>
       </c>
       <c r="AA75">
-        <v>-138579.46</v>
+        <v>1563593.42</v>
       </c>
       <c r="AB75">
-        <v>-3.12</v>
+        <v>35.15</v>
       </c>
       <c r="AC75">
         <v>6.22</v>
@@ -8144,7 +8144,7 @@
         <v>4.217661457352651</v>
       </c>
       <c r="AE75">
-        <v>-3.1</v>
+        <v>35</v>
       </c>
       <c r="AF75">
         <v>-7.511568088971421</v>
@@ -8232,13 +8232,13 @@
         <v>-5.316075856691382</v>
       </c>
       <c r="Z76">
-        <v>4489325.6</v>
+        <v>397758.4</v>
       </c>
       <c r="AA76">
-        <v>-135421</v>
+        <v>1538168.37</v>
       </c>
       <c r="AB76">
-        <v>-3.02</v>
+        <v>34.26</v>
       </c>
       <c r="AC76">
         <v>5.85</v>
@@ -8247,7 +8247,7 @@
         <v>4.298535663675018</v>
       </c>
       <c r="AE76">
-        <v>-3.12</v>
+        <v>35.15</v>
       </c>
       <c r="AF76">
         <v>-9.317046894137649</v>
@@ -8335,13 +8335,13 @@
         <v>-3.087060128384522</v>
       </c>
       <c r="Z77">
-        <v>4520587.8</v>
+        <v>385880</v>
       </c>
       <c r="AA77">
-        <v>-131608.34</v>
+        <v>1514599.94</v>
       </c>
       <c r="AB77">
-        <v>-2.91</v>
+        <v>33.5</v>
       </c>
       <c r="AC77">
         <v>5.24</v>
@@ -8350,7 +8350,7 @@
         <v>4.351957430634745</v>
       </c>
       <c r="AE77">
-        <v>-3.02</v>
+        <v>34.26</v>
       </c>
       <c r="AF77">
         <v>-5.316075856691382</v>
@@ -8438,13 +8438,13 @@
         <v>1.888217820710536</v>
       </c>
       <c r="Z78">
-        <v>4554177.4</v>
+        <v>401862.3</v>
       </c>
       <c r="AA78">
-        <v>-126755.57</v>
+        <v>1492214.36</v>
       </c>
       <c r="AB78">
-        <v>-2.78</v>
+        <v>32.77</v>
       </c>
       <c r="AC78">
         <v>5.1</v>
@@ -8453,7 +8453,7 @@
         <v>4.043767840152235</v>
       </c>
       <c r="AE78">
-        <v>-2.91</v>
+        <v>33.5</v>
       </c>
       <c r="AF78">
         <v>-3.087060128384522</v>
@@ -8541,13 +8541,13 @@
         <v>3.301363793839185</v>
       </c>
       <c r="Z79">
-        <v>4585739</v>
+        <v>395383.3</v>
       </c>
       <c r="AA79">
-        <v>-116179.86</v>
+        <v>1503397.4</v>
       </c>
       <c r="AB79">
-        <v>-2.53</v>
+        <v>32.78</v>
       </c>
       <c r="AC79">
         <v>4.99</v>
@@ -8556,7 +8556,7 @@
         <v>3.695590056195819</v>
       </c>
       <c r="AE79">
-        <v>-2.78</v>
+        <v>32.77</v>
       </c>
       <c r="AF79">
         <v>1.888217820710536</v>
@@ -8644,13 +8644,13 @@
         <v>1.67236666735322</v>
       </c>
       <c r="Z80">
-        <v>4627426.9</v>
+        <v>409021</v>
       </c>
       <c r="AA80">
-        <v>-107960.14</v>
+        <v>1504539.2</v>
       </c>
       <c r="AB80">
-        <v>-2.33</v>
+        <v>32.51</v>
       </c>
       <c r="AC80">
         <v>4.92</v>
@@ -8659,7 +8659,7 @@
         <v>3.307281738467416</v>
       </c>
       <c r="AE80">
-        <v>-2.53</v>
+        <v>32.78</v>
       </c>
       <c r="AF80">
         <v>3.301363793839185</v>
@@ -8747,13 +8747,13 @@
         <v>2.457692165065861</v>
       </c>
       <c r="Z81">
-        <v>4671291.7</v>
+        <v>418752</v>
       </c>
       <c r="AA81">
-        <v>-106395.37</v>
+        <v>1522821.31</v>
       </c>
       <c r="AB81">
-        <v>-2.28</v>
+        <v>32.6</v>
       </c>
       <c r="AC81">
         <v>5.2</v>
@@ -8762,7 +8762,7 @@
         <v>2.728136882129273</v>
       </c>
       <c r="AE81">
-        <v>-2.33</v>
+        <v>32.51</v>
       </c>
       <c r="AF81">
         <v>1.67236666735322</v>
@@ -8850,13 +8850,13 @@
         <v>2.953602481399353</v>
       </c>
       <c r="Z82">
-        <v>4703853.6</v>
+        <v>402675.8</v>
       </c>
       <c r="AA82">
-        <v>-99889.48</v>
+        <v>1534581.04</v>
       </c>
       <c r="AB82">
-        <v>-2.12</v>
+        <v>32.62</v>
       </c>
       <c r="AC82">
         <v>5.24</v>
@@ -8865,7 +8865,7 @@
         <v>2.480045610034209</v>
       </c>
       <c r="AE82">
-        <v>-2.28</v>
+        <v>32.6</v>
       </c>
       <c r="AF82">
         <v>2.457692165065861</v>
@@ -8953,13 +8953,13 @@
         <v>2.227383387886328</v>
       </c>
       <c r="Z83">
-        <v>4751483.1</v>
+        <v>431405.5</v>
       </c>
       <c r="AA83">
-        <v>-98352.28</v>
+        <v>1541195.67</v>
       </c>
       <c r="AB83">
-        <v>-2.07</v>
+        <v>32.44</v>
       </c>
       <c r="AC83">
         <v>5.28</v>
@@ -8968,7 +8968,7 @@
         <v>2.00417933130701</v>
       </c>
       <c r="AE83">
-        <v>-2.12</v>
+        <v>32.62</v>
       </c>
       <c r="AF83">
         <v>2.953602481399353</v>
@@ -9056,13 +9056,13 @@
         <v>2.590565591479854</v>
       </c>
       <c r="Z84">
-        <v>4786545.6</v>
+        <v>426600.4</v>
       </c>
       <c r="AA84">
-        <v>-84632.57000000001</v>
+        <v>1535545.95</v>
       </c>
       <c r="AB84">
-        <v>-1.77</v>
+        <v>32.08</v>
       </c>
       <c r="AC84">
         <v>5.45</v>
@@ -9071,7 +9071,7 @@
         <v>1.688003793266946</v>
       </c>
       <c r="AE84">
-        <v>-2.07</v>
+        <v>32.44</v>
       </c>
       <c r="AF84">
         <v>2.227383387886328</v>
@@ -9159,13 +9159,13 @@
         <v>2.776877398363986</v>
       </c>
       <c r="Z85">
-        <v>4814760</v>
+        <v>413705.3</v>
       </c>
       <c r="AA85">
-        <v>-104951.19</v>
+        <v>1550083.08</v>
       </c>
       <c r="AB85">
-        <v>-2.18</v>
+        <v>32.19</v>
       </c>
       <c r="AC85">
         <v>5.53</v>
@@ -9174,7 +9174,7 @@
         <v>1.52563252155784</v>
       </c>
       <c r="AE85">
-        <v>-1.77</v>
+        <v>32.08</v>
       </c>
       <c r="AF85">
         <v>2.590565591479854</v>
@@ -9262,13 +9262,13 @@
         <v>-0.5305363253667927</v>
       </c>
       <c r="Z86">
-        <v>4859459.1</v>
+        <v>408889.7</v>
       </c>
       <c r="AA86">
-        <v>-109186.59</v>
+        <v>1563259.53</v>
       </c>
       <c r="AB86">
-        <v>-2.25</v>
+        <v>32.17</v>
       </c>
       <c r="AC86">
         <v>5.84</v>
@@ -9277,7 +9277,7 @@
         <v>1.247165532879824</v>
       </c>
       <c r="AE86">
-        <v>-2.18</v>
+        <v>32.19</v>
       </c>
       <c r="AF86">
         <v>2.776877398363986</v>
@@ -9365,13 +9365,13 @@
         <v>-3.728659369799026</v>
       </c>
       <c r="Z87">
-        <v>4890027.5</v>
+        <v>398093.6</v>
       </c>
       <c r="AA87">
-        <v>-96640.99000000001</v>
+        <v>1593717.75</v>
       </c>
       <c r="AB87">
-        <v>-1.98</v>
+        <v>32.59</v>
       </c>
       <c r="AC87">
         <v>6.15</v>
@@ -9380,7 +9380,7 @@
         <v>0.904380593499754</v>
       </c>
       <c r="AE87">
-        <v>-2.25</v>
+        <v>32.17</v>
       </c>
       <c r="AF87">
         <v>-0.5305363253667927</v>
@@ -9468,13 +9468,13 @@
         <v>-4.833035342824521</v>
       </c>
       <c r="Z88">
-        <v>4926899.2</v>
+        <v>434630.1</v>
       </c>
       <c r="AA88">
-        <v>-89699.09</v>
+        <v>1596279.86</v>
       </c>
       <c r="AB88">
-        <v>-1.82</v>
+        <v>32.4</v>
       </c>
       <c r="AC88">
         <v>6.31</v>
@@ -9483,7 +9483,7 @@
         <v>0.7619226789577604</v>
       </c>
       <c r="AE88">
-        <v>-1.98</v>
+        <v>32.59</v>
       </c>
       <c r="AF88">
         <v>-3.728659369799026</v>
@@ -9571,13 +9571,13 @@
         <v>-4.862697700199292</v>
       </c>
       <c r="Z89">
-        <v>4987524.1</v>
+        <v>446504.9</v>
       </c>
       <c r="AA89">
-        <v>-85787.73</v>
+        <v>1602821.35</v>
       </c>
       <c r="AB89">
-        <v>-1.72</v>
+        <v>32.14</v>
       </c>
       <c r="AC89">
         <v>6.59</v>
@@ -9586,7 +9586,7 @@
         <v>0.5253776151608713</v>
       </c>
       <c r="AE89">
-        <v>-1.82</v>
+        <v>32.4</v>
       </c>
       <c r="AF89">
         <v>-4.833035342824521</v>
@@ -9674,13 +9674,13 @@
         <v>-4.103653176978705</v>
       </c>
       <c r="Z90">
-        <v>5026997</v>
+        <v>441335.2</v>
       </c>
       <c r="AA90">
-        <v>-88815.71000000001</v>
+        <v>1583776.42</v>
       </c>
       <c r="AB90">
-        <v>-1.77</v>
+        <v>31.51</v>
       </c>
       <c r="AC90">
         <v>6.49</v>
@@ -9689,7 +9689,7 @@
         <v>0.7230725889755041</v>
       </c>
       <c r="AE90">
-        <v>-1.72</v>
+        <v>32.14</v>
       </c>
       <c r="AF90">
         <v>-4.862697700199292</v>
@@ -9777,13 +9777,13 @@
         <v>2.098901135269804</v>
       </c>
       <c r="Z91">
-        <v>5066353.2</v>
+        <v>434739.6</v>
       </c>
       <c r="AA91">
-        <v>-91450.05</v>
+        <v>1580271.02</v>
       </c>
       <c r="AB91">
-        <v>-1.81</v>
+        <v>31.19</v>
       </c>
       <c r="AC91">
         <v>6.5</v>
@@ -9792,7 +9792,7 @@
         <v>0.8638497652582178</v>
       </c>
       <c r="AE91">
-        <v>-1.77</v>
+        <v>31.51</v>
       </c>
       <c r="AF91">
         <v>-4.103653176978705</v>
@@ -9880,13 +9880,13 @@
         <v>5.332201034478001</v>
       </c>
       <c r="Z92">
-        <v>5109929.7</v>
+        <v>452597.5</v>
       </c>
       <c r="AA92">
-        <v>-88167.31</v>
+        <v>1573789.35</v>
       </c>
       <c r="AB92">
-        <v>-1.73</v>
+        <v>30.8</v>
       </c>
       <c r="AC92">
         <v>6.7</v>
@@ -9895,7 +9895,7 @@
         <v>1.124648547328966</v>
       </c>
       <c r="AE92">
-        <v>-1.81</v>
+        <v>31.19</v>
       </c>
       <c r="AF92">
         <v>2.098901135269804</v>
@@ -9983,13 +9983,13 @@
         <v>10.03432342403963</v>
       </c>
       <c r="Z93">
-        <v>5144959.4</v>
+        <v>453781.6</v>
       </c>
       <c r="AA93">
-        <v>-84738.83</v>
+        <v>1573100.16</v>
       </c>
       <c r="AB93">
-        <v>-1.65</v>
+        <v>30.58</v>
       </c>
       <c r="AC93">
         <v>6.27</v>
@@ -9998,7 +9998,7 @@
         <v>1.844358708948901</v>
       </c>
       <c r="AE93">
-        <v>-1.73</v>
+        <v>30.8</v>
       </c>
       <c r="AF93">
         <v>5.332201034478001</v>
@@ -10086,13 +10086,13 @@
         <v>5.886284548399434</v>
       </c>
       <c r="Z94">
-        <v>5190038.5</v>
+        <v>447755</v>
       </c>
       <c r="AA94">
-        <v>-74100.37</v>
+        <v>1635596.72</v>
       </c>
       <c r="AB94">
-        <v>-1.43</v>
+        <v>31.51</v>
       </c>
       <c r="AC94">
         <v>6.09</v>
@@ -10101,7 +10101,7 @@
         <v>2.224526345555677</v>
       </c>
       <c r="AE94">
-        <v>-1.65</v>
+        <v>30.58</v>
       </c>
       <c r="AF94">
         <v>10.03432342403963</v>
@@ -10189,13 +10189,13 @@
         <v>1.715206819062498</v>
       </c>
       <c r="Z95">
-        <v>5234346.7</v>
+        <v>475713.7</v>
       </c>
       <c r="AA95">
-        <v>-67890.37</v>
+        <v>1654964.48</v>
       </c>
       <c r="AB95">
-        <v>-1.3</v>
+        <v>31.62</v>
       </c>
       <c r="AC95">
         <v>5.86</v>
@@ -10204,7 +10204,7 @@
         <v>2.871717362554316</v>
       </c>
       <c r="AE95">
-        <v>-1.43</v>
+        <v>31.51</v>
       </c>
       <c r="AF95">
         <v>5.886284548399434</v>
@@ -10292,13 +10292,13 @@
         <v>4.839419579430193</v>
       </c>
       <c r="Z96">
-        <v>5278071.3</v>
+        <v>470325</v>
       </c>
       <c r="AA96">
-        <v>-103151.09</v>
+        <v>1614086.67</v>
       </c>
       <c r="AB96">
-        <v>-1.95</v>
+        <v>30.58</v>
       </c>
       <c r="AC96">
         <v>5.84</v>
@@ -10307,7 +10307,7 @@
         <v>3.221844293272857</v>
       </c>
       <c r="AE96">
-        <v>-1.3</v>
+        <v>31.62</v>
       </c>
       <c r="AF96">
         <v>1.715206819062498</v>
@@ -10395,13 +10395,13 @@
         <v>5.639643280082751</v>
       </c>
       <c r="Z97">
-        <v>5331619</v>
+        <v>467253</v>
       </c>
       <c r="AA97">
-        <v>-91306.12</v>
+        <v>1626334.87</v>
       </c>
       <c r="AB97">
-        <v>-1.71</v>
+        <v>30.5</v>
       </c>
       <c r="AC97">
         <v>5.77</v>
@@ -10410,7 +10410,7 @@
         <v>3.479247423655085</v>
       </c>
       <c r="AE97">
-        <v>-1.95</v>
+        <v>30.58</v>
       </c>
       <c r="AF97">
         <v>4.839419579430193</v>
@@ -10498,13 +10498,13 @@
         <v>4.860880721387617</v>
       </c>
       <c r="Z98">
-        <v>5376008.7</v>
+        <v>453279.4</v>
       </c>
       <c r="AA98">
-        <v>-80976.00999999999</v>
+        <v>1613202.98</v>
       </c>
       <c r="AB98">
-        <v>-1.51</v>
+        <v>30.01</v>
       </c>
       <c r="AC98">
         <v>5.91</v>
@@ -10513,7 +10513,7 @@
         <v>3.767349636483819</v>
       </c>
       <c r="AE98">
-        <v>-1.71</v>
+        <v>30.5</v>
       </c>
       <c r="AF98">
         <v>5.639643280082751</v>
@@ -10601,13 +10601,13 @@
         <v>3.420488609747174</v>
       </c>
       <c r="Z99">
-        <v>5433417.2</v>
+        <v>455502.1</v>
       </c>
       <c r="AA99">
-        <v>-86137.56</v>
+        <v>1649536.16</v>
       </c>
       <c r="AB99">
-        <v>-1.59</v>
+        <v>30.36</v>
       </c>
       <c r="AC99">
         <v>5.59</v>
@@ -10616,7 +10616,7 @@
         <v>4.337531963254082</v>
       </c>
       <c r="AE99">
-        <v>-1.51</v>
+        <v>30.01</v>
       </c>
       <c r="AF99">
         <v>4.860880721387617</v>
@@ -10704,13 +10704,13 @@
         <v>-0.3566399665777986</v>
       </c>
       <c r="Z100">
-        <v>5475987.8</v>
+        <v>477200.7</v>
       </c>
       <c r="AA100">
-        <v>-86217.11</v>
+        <v>1685681.28</v>
       </c>
       <c r="AB100">
-        <v>-1.57</v>
+        <v>30.78</v>
       </c>
       <c r="AC100">
         <v>5.68</v>
@@ -10719,7 +10719,7 @@
         <v>4.494700984102962</v>
       </c>
       <c r="AE100">
-        <v>-1.59</v>
+        <v>30.36</v>
       </c>
       <c r="AF100">
         <v>3.420488609747174</v>
@@ -10807,13 +10807,13 @@
         <v>-5.193838101703552</v>
       </c>
       <c r="Z101">
-        <v>5509204.3</v>
+        <v>479721.5</v>
       </c>
       <c r="AA101">
-        <v>-92784.57000000001</v>
+        <v>1695977.59</v>
       </c>
       <c r="AB101">
-        <v>-1.68</v>
+        <v>30.78</v>
       </c>
       <c r="AC101">
         <v>6.15</v>
@@ -10822,7 +10822,7 @@
         <v>4.239284032030133</v>
       </c>
       <c r="AE101">
-        <v>-1.57</v>
+        <v>30.78</v>
       </c>
       <c r="AF101">
         <v>-0.3566399665777986</v>
@@ -10910,13 +10910,13 @@
         <v>-6.412856113106069</v>
       </c>
       <c r="Z102">
-        <v>5549143</v>
+        <v>481273.9</v>
       </c>
       <c r="AA102">
-        <v>-76057.25</v>
+        <v>1725869.16</v>
       </c>
       <c r="AB102">
-        <v>-1.37</v>
+        <v>31.1</v>
       </c>
       <c r="AC102">
         <v>6.28</v>
@@ -10925,7 +10925,7 @@
         <v>4.318780579601067</v>
       </c>
       <c r="AE102">
-        <v>-1.68</v>
+        <v>30.78</v>
       </c>
       <c r="AF102">
         <v>-5.193838101703552</v>
@@ -11013,13 +11013,13 @@
         <v>-6.678392995268667</v>
       </c>
       <c r="Z103">
-        <v>5575730.9</v>
+        <v>461327.5</v>
       </c>
       <c r="AA103">
-        <v>-68528.21000000001</v>
+        <v>1755147</v>
       </c>
       <c r="AB103">
-        <v>-1.23</v>
+        <v>31.48</v>
       </c>
       <c r="AC103">
         <v>6.37</v>
@@ -11028,7 +11028,7 @@
         <v>4.258719563786761</v>
       </c>
       <c r="AE103">
-        <v>-1.37</v>
+        <v>31.1</v>
       </c>
       <c r="AF103">
         <v>-6.412856113106069</v>
@@ -11116,13 +11116,13 @@
         <v>-6.632639022833198</v>
       </c>
       <c r="Z104">
-        <v>5610038.7</v>
+        <v>486905.3</v>
       </c>
       <c r="AA104">
-        <v>-61526.28</v>
+        <v>1772880.41</v>
       </c>
       <c r="AB104">
-        <v>-1.1</v>
+        <v>31.6</v>
       </c>
       <c r="AC104">
         <v>6.52</v>
@@ -11131,7 +11131,7 @@
         <v>4.111903867818256</v>
       </c>
       <c r="AE104">
-        <v>-1.23</v>
+        <v>31.48</v>
       </c>
       <c r="AF104">
         <v>-6.678392995268667</v>
@@ -11219,13 +11219,13 @@
         <v>-5.695071212967006</v>
       </c>
       <c r="Z105">
-        <v>5640035.7</v>
+        <v>483778.7</v>
       </c>
       <c r="AA105">
-        <v>-47498.13</v>
+        <v>1812495.49</v>
       </c>
       <c r="AB105">
-        <v>-0.84</v>
+        <v>32.14</v>
       </c>
       <c r="AC105">
         <v>6.5</v>
@@ -11234,7 +11234,7 @@
         <v>4.131455399061035</v>
       </c>
       <c r="AE105">
-        <v>-1.1</v>
+        <v>31.6</v>
       </c>
       <c r="AF105">
         <v>-6.632639022833198</v>
@@ -11322,13 +11322,13 @@
         <v>-5.252072490101634</v>
       </c>
       <c r="Z106">
-        <v>5683722.3</v>
+        <v>491441.5</v>
       </c>
       <c r="AA106">
-        <v>-31055.01</v>
+        <v>1822791.46</v>
       </c>
       <c r="AB106">
-        <v>-0.55</v>
+        <v>32.07</v>
       </c>
       <c r="AC106">
         <v>6.51</v>
@@ -11337,7 +11337,7 @@
         <v>4.121678715613553</v>
       </c>
       <c r="AE106">
-        <v>-0.84</v>
+        <v>32.14</v>
       </c>
       <c r="AF106">
         <v>-5.695071212967006</v>
@@ -11425,13 +11425,13 @@
         <v>-2.222139495327757</v>
       </c>
       <c r="Z107">
-        <v>5716978</v>
+        <v>508969.4</v>
       </c>
       <c r="AA107">
-        <v>-28595.24</v>
+        <v>1842091.09</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>32.22</v>
       </c>
       <c r="AC107">
         <v>6.75</v>
@@ -11440,7 +11440,7 @@
         <v>3.88758782201406</v>
       </c>
       <c r="AE107">
-        <v>-0.55</v>
+        <v>32.07</v>
       </c>
       <c r="AF107">
         <v>-5.252072490101634</v>
@@ -11528,13 +11528,13 @@
         <v>-0.4544541797541379</v>
       </c>
       <c r="Z108">
-        <v>5745161.4</v>
+        <v>498508.4</v>
       </c>
       <c r="AA108">
-        <v>9234.34</v>
+        <v>1848901.91</v>
       </c>
       <c r="AB108">
-        <v>0.16</v>
+        <v>32.18</v>
       </c>
       <c r="AC108">
         <v>6.59</v>
@@ -11543,7 +11543,7 @@
         <v>4.062294774369057</v>
       </c>
       <c r="AE108">
-        <v>-0.5</v>
+        <v>32.22</v>
       </c>
       <c r="AF108">
         <v>-2.222139495327757</v>
@@ -11631,13 +11631,13 @@
         <v>0.8510857927217286</v>
       </c>
       <c r="Z109">
-        <v>5778953</v>
+        <v>501044.7</v>
       </c>
       <c r="AA109">
-        <v>32535.92</v>
+        <v>1883146.99</v>
       </c>
       <c r="AB109">
-        <v>0.5600000000000001</v>
+        <v>32.59</v>
       </c>
       <c r="AC109">
         <v>6.56</v>
@@ -11646,7 +11646,7 @@
         <v>4.307432432432434</v>
       </c>
       <c r="AE109">
-        <v>0.16</v>
+        <v>32.18</v>
       </c>
       <c r="AF109">
         <v>-0.4544541797541379</v>
@@ -11734,13 +11734,13 @@
         <v>-3.026369440409582</v>
       </c>
       <c r="Z110">
-        <v>5800025.9</v>
+        <v>474352.3</v>
       </c>
       <c r="AA110">
-        <v>31394.41</v>
+        <v>1885008.87</v>
       </c>
       <c r="AB110">
-        <v>0.54</v>
+        <v>32.5</v>
       </c>
       <c r="AC110">
         <v>6.41</v>
@@ -11749,7 +11749,7 @@
         <v>4.85856592425522</v>
       </c>
       <c r="AE110">
-        <v>0.5600000000000001</v>
+        <v>32.59</v>
       </c>
       <c r="AF110">
         <v>0.8510857927217286</v>
@@ -11837,13 +11837,13 @@
         <v>2.185456745371317</v>
       </c>
       <c r="Z111">
-        <v>5811266.1</v>
+        <v>466742.3</v>
       </c>
       <c r="AA111">
-        <v>35824.28</v>
+        <v>1877063.34</v>
       </c>
       <c r="AB111">
-        <v>0.62</v>
+        <v>32.3</v>
       </c>
       <c r="AC111">
         <v>7.14</v>
@@ -11852,7 +11852,7 @@
         <v>4.368116483106244</v>
       </c>
       <c r="AE111">
-        <v>0.54</v>
+        <v>32.5</v>
       </c>
       <c r="AF111">
         <v>-3.026369440409582</v>
@@ -11940,13 +11940,13 @@
         <v>10.19007988772105</v>
       </c>
       <c r="Z112">
-        <v>5849624.5</v>
+        <v>515559.1</v>
       </c>
       <c r="AA112">
-        <v>39164.49</v>
+        <v>1847658.07</v>
       </c>
       <c r="AB112">
-        <v>0.67</v>
+        <v>31.59</v>
       </c>
       <c r="AC112">
         <v>7.7</v>
@@ -11955,7 +11955,7 @@
         <v>4.131847725162485</v>
       </c>
       <c r="AE112">
-        <v>0.62</v>
+        <v>32.3</v>
       </c>
       <c r="AF112">
         <v>2.185456745371317</v>
@@ -12043,13 +12043,13 @@
         <v>6.375804253296802</v>
       </c>
       <c r="Z113">
-        <v>5867021.2</v>
+        <v>497118.1</v>
       </c>
       <c r="AA113">
-        <v>42615.28</v>
+        <v>1897703.27</v>
       </c>
       <c r="AB113">
-        <v>0.73</v>
+        <v>32.35</v>
       </c>
       <c r="AC113">
         <v>8.130000000000001</v>
@@ -12058,7 +12058,7 @@
         <v>4.115416628132795</v>
       </c>
       <c r="AE113">
-        <v>0.67</v>
+        <v>31.59</v>
       </c>
       <c r="AF113">
         <v>10.19007988772105</v>
@@ -12146,13 +12146,13 @@
         <v>6.388958167210745</v>
       </c>
       <c r="Z114">
-        <v>5878032.1</v>
+        <v>492284.8</v>
       </c>
       <c r="AA114">
-        <v>38469.33</v>
+        <v>1903666.05</v>
       </c>
       <c r="AB114">
-        <v>0.65</v>
+        <v>32.39</v>
       </c>
       <c r="AC114">
         <v>8.17</v>
@@ -12161,7 +12161,7 @@
         <v>4.169363039659779</v>
       </c>
       <c r="AE114">
-        <v>0.73</v>
+        <v>32.35</v>
       </c>
       <c r="AF114">
         <v>6.375804253296802</v>
@@ -12249,13 +12249,13 @@
         <v>6.916744425704624</v>
       </c>
       <c r="Z115">
-        <v>5907266.7</v>
+        <v>490562.1</v>
       </c>
       <c r="AA115">
-        <v>45692</v>
+        <v>1962809.11</v>
       </c>
       <c r="AB115">
-        <v>0.77</v>
+        <v>33.23</v>
       </c>
       <c r="AC115">
         <v>8.470000000000001</v>
@@ -12264,7 +12264,7 @@
         <v>4.314557020374288</v>
       </c>
       <c r="AE115">
-        <v>0.65</v>
+        <v>32.39</v>
       </c>
       <c r="AF115">
         <v>6.388958167210745</v>
@@ -12352,13 +12352,13 @@
         <v>9.788054415703606</v>
       </c>
       <c r="Z116">
-        <v>5927538.5</v>
+        <v>507177.1</v>
       </c>
       <c r="AA116">
-        <v>50995.51</v>
+        <v>1950817.79</v>
       </c>
       <c r="AB116">
-        <v>0.86</v>
+        <v>32.91</v>
       </c>
       <c r="AC116">
         <v>8.890000000000001</v>
@@ -12367,7 +12367,7 @@
         <v>4.307098907153994</v>
       </c>
       <c r="AE116">
-        <v>0.77</v>
+        <v>33.23</v>
       </c>
       <c r="AF116">
         <v>6.916744425704624</v>
@@ -12455,13 +12455,13 @@
         <v>17.91416056421728</v>
       </c>
       <c r="Z117">
-        <v>5945152.7</v>
+        <v>501392.9</v>
       </c>
       <c r="AA117">
-        <v>43845.47</v>
+        <v>1929929.33</v>
       </c>
       <c r="AB117">
-        <v>0.74</v>
+        <v>32.46</v>
       </c>
       <c r="AC117">
         <v>9.56</v>
@@ -12470,7 +12470,7 @@
         <v>3.769623950346856</v>
       </c>
       <c r="AE117">
-        <v>0.86</v>
+        <v>32.91</v>
       </c>
       <c r="AF117">
         <v>9.788054415703606</v>
@@ -12558,13 +12558,13 @@
         <v>30.08954643450668</v>
       </c>
       <c r="Z118">
-        <v>5953369.4</v>
+        <v>499658.2</v>
       </c>
       <c r="AA118">
-        <v>25672.81</v>
+        <v>1906018.88</v>
       </c>
       <c r="AB118">
-        <v>0.43</v>
+        <v>32.02</v>
       </c>
       <c r="AC118">
         <v>9.529999999999999</v>
@@ -12573,7 +12573,7 @@
         <v>4.218022459600101</v>
       </c>
       <c r="AE118">
-        <v>0.74</v>
+        <v>32.46</v>
       </c>
       <c r="AF118">
         <v>17.91416056421728</v>
@@ -12661,13 +12661,13 @@
         <v>27.73281345900443</v>
       </c>
       <c r="Z119">
-        <v>5965712.9</v>
+        <v>521312.9</v>
       </c>
       <c r="AA119">
-        <v>40931.64</v>
+        <v>1972513.56</v>
       </c>
       <c r="AB119">
-        <v>0.6899999999999999</v>
+        <v>33.06</v>
       </c>
       <c r="AC119">
         <v>9.49</v>
@@ -12676,7 +12676,7 @@
         <v>4.256096447164115</v>
       </c>
       <c r="AE119">
-        <v>0.43</v>
+        <v>32.02</v>
       </c>
       <c r="AF119">
         <v>30.08954643450668</v>
@@ -12764,13 +12764,13 @@
         <v>21.77763023190786</v>
       </c>
       <c r="Z120">
-        <v>5980761.4</v>
+        <v>513557</v>
       </c>
       <c r="AA120">
-        <v>52414.38</v>
+        <v>2027509.99</v>
       </c>
       <c r="AB120">
-        <v>0.88</v>
+        <v>33.9</v>
       </c>
       <c r="AC120">
         <v>9.93</v>
@@ -12779,7 +12779,7 @@
         <v>3.838806513235693</v>
       </c>
       <c r="AE120">
-        <v>0.6899999999999999</v>
+        <v>33.06</v>
       </c>
       <c r="AF120">
         <v>27.73281345900443</v>
@@ -12867,13 +12867,13 @@
         <v>21.47408823244434</v>
       </c>
       <c r="Z121">
-        <v>5995787</v>
+        <v>516070.2</v>
       </c>
       <c r="AA121">
-        <v>111248.87</v>
+        <v>2136888</v>
       </c>
       <c r="AB121">
-        <v>1.86</v>
+        <v>35.64</v>
       </c>
       <c r="AC121">
         <v>10.48</v>
@@ -12882,7 +12882,7 @@
         <v>3.321868211440981</v>
       </c>
       <c r="AE121">
-        <v>0.88</v>
+        <v>33.9</v>
       </c>
       <c r="AF121">
         <v>21.77763023190786</v>
@@ -12970,13 +12970,13 @@
         <v>21.58635499540966</v>
       </c>
       <c r="Z122">
-        <v>6003128.3</v>
+        <v>481693.6</v>
       </c>
       <c r="AA122">
-        <v>104398.84</v>
+        <v>2121404.93</v>
       </c>
       <c r="AB122">
-        <v>1.74</v>
+        <v>35.34</v>
       </c>
       <c r="AC122">
         <v>10.67</v>
@@ -12985,7 +12985,7 @@
         <v>3.144483599891568</v>
       </c>
       <c r="AE122">
-        <v>1.86</v>
+        <v>35.64</v>
       </c>
       <c r="AF122">
         <v>21.47408823244434</v>
@@ -13073,13 +13073,13 @@
         <v>18.82915354528982</v>
       </c>
       <c r="Z123">
-        <v>6026858.5</v>
+        <v>490472.5</v>
       </c>
       <c r="AA123">
-        <v>125139.15</v>
+        <v>2186771.34</v>
       </c>
       <c r="AB123">
-        <v>2.08</v>
+        <v>36.28</v>
       </c>
       <c r="AC123">
         <v>10.71</v>
@@ -13088,7 +13088,7 @@
         <v>3.10721705356336</v>
       </c>
       <c r="AE123">
-        <v>1.74</v>
+        <v>35.34</v>
       </c>
       <c r="AF123">
         <v>21.58635499540966</v>
@@ -13176,13 +13176,13 @@
         <v>10.92630583781613</v>
       </c>
       <c r="Z124">
-        <v>6039452.6</v>
+        <v>528153.1</v>
       </c>
       <c r="AA124">
-        <v>136022.04</v>
+        <v>2314842.91</v>
       </c>
       <c r="AB124">
-        <v>2.25</v>
+        <v>38.33</v>
       </c>
       <c r="AC124">
         <v>10.36</v>
@@ -13191,7 +13191,7 @@
         <v>3.434215295396892</v>
       </c>
       <c r="AE124">
-        <v>2.08</v>
+        <v>36.28</v>
       </c>
       <c r="AF124">
         <v>18.82915354528982</v>
@@ -13279,13 +13279,13 @@
         <v>7.997094463467169</v>
       </c>
       <c r="Z125">
-        <v>6063168.7</v>
+        <v>520834.3</v>
       </c>
       <c r="AA125">
-        <v>139285.34</v>
+        <v>2356611.04</v>
       </c>
       <c r="AB125">
-        <v>2.3</v>
+        <v>38.87</v>
       </c>
       <c r="AC125">
         <v>9.390000000000001</v>
@@ -13294,7 +13294,7 @@
         <v>4.351403236127593</v>
       </c>
       <c r="AE125">
-        <v>2.25</v>
+        <v>38.33</v>
       </c>
       <c r="AF125">
         <v>10.92630583781613</v>
@@ -13382,13 +13382,13 @@
         <v>6.302938322231699</v>
       </c>
       <c r="Z126">
-        <v>6087403.4</v>
+        <v>516519.5</v>
       </c>
       <c r="AA126">
-        <v>150510.26</v>
+        <v>2379130.3</v>
       </c>
       <c r="AB126">
-        <v>2.47</v>
+        <v>39.08</v>
       </c>
       <c r="AC126">
         <v>9.279999999999999</v>
@@ -13397,7 +13397,7 @@
         <v>4.456442166910679</v>
       </c>
       <c r="AE126">
-        <v>2.3</v>
+        <v>38.87</v>
       </c>
       <c r="AF126">
         <v>7.997094463467169</v>
@@ -13485,13 +13485,13 @@
         <v>2.261854633758187</v>
       </c>
       <c r="Z127">
-        <v>6118558.5</v>
+        <v>521717.1</v>
       </c>
       <c r="AA127">
-        <v>151248.52</v>
+        <v>2529703.02</v>
       </c>
       <c r="AB127">
-        <v>2.47</v>
+        <v>41.34</v>
       </c>
       <c r="AC127">
         <v>9.32</v>
@@ -13500,7 +13500,7 @@
         <v>4.418221734357841</v>
       </c>
       <c r="AE127">
-        <v>2.47</v>
+        <v>39.08</v>
       </c>
       <c r="AF127">
         <v>6.302938322231699</v>
@@ -13588,13 +13588,13 @@
         <v>-3.24931380666833</v>
       </c>
       <c r="Z128">
-        <v>6133331.9</v>
+        <v>521950.5</v>
       </c>
       <c r="AA128">
-        <v>154045.94</v>
+        <v>2571874.66</v>
       </c>
       <c r="AB128">
-        <v>2.51</v>
+        <v>41.93</v>
       </c>
       <c r="AC128">
         <v>8.84</v>
@@ -13603,7 +13603,7 @@
         <v>4.878721058434388</v>
       </c>
       <c r="AE128">
-        <v>2.47</v>
+        <v>41.34</v>
       </c>
       <c r="AF128">
         <v>2.261854633758187</v>
@@ -13691,13 +13691,13 @@
         <v>-4.899032020207839</v>
       </c>
       <c r="Z129">
-        <v>6162708.9</v>
+        <v>530769.9</v>
       </c>
       <c r="AA129">
-        <v>169002.91</v>
+        <v>2638317.45</v>
       </c>
       <c r="AB129">
-        <v>2.74</v>
+        <v>42.81</v>
       </c>
       <c r="AC129">
         <v>8.74</v>
@@ -13706,7 +13706,7 @@
         <v>4.975170130586726</v>
       </c>
       <c r="AE129">
-        <v>2.51</v>
+        <v>41.93</v>
       </c>
       <c r="AF129">
         <v>-3.24931380666833</v>
@@ -13794,13 +13794,13 @@
         <v>-4.309237181560476</v>
       </c>
       <c r="Z130">
-        <v>6187501.9</v>
+        <v>524451.1</v>
       </c>
       <c r="AA130">
-        <v>188327.22</v>
+        <v>2699869.47</v>
       </c>
       <c r="AB130">
-        <v>3.04</v>
+        <v>43.63</v>
       </c>
       <c r="AC130">
         <v>8.970000000000001</v>
@@ -13809,7 +13809,7 @@
         <v>4.753601908782223</v>
       </c>
       <c r="AE130">
-        <v>2.74</v>
+        <v>42.81</v>
       </c>
       <c r="AF130">
         <v>-4.899032020207839</v>
@@ -13897,13 +13897,13 @@
         <v>-7.652754669186357</v>
       </c>
       <c r="Z131">
-        <v>6205866.7</v>
+        <v>539677.7</v>
       </c>
       <c r="AA131">
-        <v>137208.12</v>
+        <v>2722939.68</v>
       </c>
       <c r="AB131">
-        <v>2.21</v>
+        <v>43.88</v>
       </c>
       <c r="AC131">
         <v>8.48</v>
@@ -13912,7 +13912,7 @@
         <v>5.226769911504414</v>
       </c>
       <c r="AE131">
-        <v>3.04</v>
+        <v>43.63</v>
       </c>
       <c r="AF131">
         <v>-4.309237181560476</v>
@@ -14000,13 +14000,13 @@
         <v>-5.183826056196783</v>
       </c>
       <c r="Z132">
-        <v>6238414.5</v>
+        <v>546104.7</v>
       </c>
       <c r="AA132">
-        <v>156781.98</v>
+        <v>2744106.91</v>
       </c>
       <c r="AB132">
-        <v>2.51</v>
+        <v>43.99</v>
       </c>
       <c r="AC132">
         <v>7.87</v>
@@ -14015,7 +14015,7 @@
         <v>5.729118383239085</v>
       </c>
       <c r="AE132">
-        <v>2.21</v>
+        <v>43.88</v>
       </c>
       <c r="AF132">
         <v>-7.652754669186357</v>
@@ -14103,13 +14103,13 @@
         <v>-6.732174679395952</v>
       </c>
       <c r="Z133">
-        <v>6269328</v>
+        <v>546983.8</v>
       </c>
       <c r="AA133">
-        <v>155790.61</v>
+        <v>2892913.46</v>
       </c>
       <c r="AB133">
-        <v>2.48</v>
+        <v>46.14</v>
       </c>
       <c r="AC133">
         <v>6.99</v>
@@ -14118,7 +14118,7 @@
         <v>6.458547527806324</v>
       </c>
       <c r="AE133">
-        <v>2.51</v>
+        <v>43.99</v>
       </c>
       <c r="AF133">
         <v>-5.183826056196783</v>
@@ -14206,13 +14206,13 @@
         <v>-11.30558507221372</v>
       </c>
       <c r="Z134">
-        <v>6301443.4</v>
+        <v>513809</v>
       </c>
       <c r="AA134">
-        <v>146991.41</v>
+        <v>2927556.63</v>
       </c>
       <c r="AB134">
-        <v>2.33</v>
+        <v>46.46</v>
       </c>
       <c r="AC134">
         <v>6.29</v>
@@ -14221,7 +14221,7 @@
         <v>6.924451971022694</v>
       </c>
       <c r="AE134">
-        <v>2.48</v>
+        <v>46.14</v>
       </c>
       <c r="AF134">
         <v>-6.732174679395952</v>
@@ -14309,13 +14309,13 @@
         <v>-13.10929962203355</v>
       </c>
       <c r="Z135">
-        <v>6321826.6</v>
+        <v>510855.7</v>
       </c>
       <c r="AA135">
-        <v>147419.2</v>
+        <v>2987815.94</v>
       </c>
       <c r="AB135">
-        <v>2.33</v>
+        <v>47.26</v>
       </c>
       <c r="AC135">
         <v>5.35</v>
@@ -14324,7 +14324,7 @@
         <v>7.422876127195055</v>
       </c>
       <c r="AE135">
-        <v>2.33</v>
+        <v>46.46</v>
       </c>
       <c r="AF135">
         <v>-11.30558507221372</v>
@@ -14412,13 +14412,13 @@
         <v>-12.82491115158944</v>
       </c>
       <c r="Z136">
-        <v>6354593.3</v>
+        <v>560919.8</v>
       </c>
       <c r="AA136">
-        <v>147822.63</v>
+        <v>3020614.7</v>
       </c>
       <c r="AB136">
-        <v>2.33</v>
+        <v>47.53</v>
       </c>
       <c r="AC136">
         <v>4.76</v>
@@ -14427,7 +14427,7 @@
         <v>7.693776250477291</v>
       </c>
       <c r="AE136">
-        <v>2.33</v>
+        <v>47.26</v>
       </c>
       <c r="AF136">
         <v>-13.10929962203355</v>
@@ -14515,13 +14515,13 @@
         <v>-12.05896596168763</v>
       </c>
       <c r="Z137">
-        <v>6371360.8</v>
+        <v>537601.8</v>
       </c>
       <c r="AA137">
-        <v>145096.15</v>
+        <v>3025028.72</v>
       </c>
       <c r="AB137">
-        <v>2.28</v>
+        <v>47.48</v>
       </c>
       <c r="AC137">
         <v>4.57</v>
@@ -14530,7 +14530,7 @@
         <v>7.248732906187239</v>
       </c>
       <c r="AE137">
-        <v>2.33</v>
+        <v>47.53</v>
       </c>
       <c r="AF137">
         <v>-12.82491115158944</v>
@@ -14618,13 +14618,13 @@
         <v>-10.14075514063294</v>
       </c>
       <c r="Z138">
-        <v>6405809.5</v>
+        <v>550968.2</v>
       </c>
       <c r="AA138">
-        <v>157707.25</v>
+        <v>3075139.11</v>
       </c>
       <c r="AB138">
-        <v>2.46</v>
+        <v>48.01</v>
       </c>
       <c r="AC138">
         <v>4.08</v>
@@ -14633,7 +14633,7 @@
         <v>7.215603382013835</v>
       </c>
       <c r="AE138">
-        <v>2.28</v>
+        <v>47.48</v>
       </c>
       <c r="AF138">
         <v>-12.05896596168763</v>
@@ -14721,13 +14721,13 @@
         <v>-7.111713238286055</v>
       </c>
       <c r="Z139">
-        <v>6426159.9</v>
+        <v>542067.6</v>
       </c>
       <c r="AA139">
-        <v>167198.22</v>
+        <v>3112891.52</v>
       </c>
       <c r="AB139">
-        <v>2.6</v>
+        <v>48.44</v>
       </c>
       <c r="AC139">
         <v>3.6</v>
@@ -14736,7 +14736,7 @@
         <v>7.287644787644787</v>
       </c>
       <c r="AE139">
-        <v>2.46</v>
+        <v>48.01</v>
       </c>
       <c r="AF139">
         <v>-10.14075514063294</v>
@@ -14824,13 +14824,13 @@
         <v>-9.121524204744214</v>
       </c>
       <c r="Z140">
-        <v>6452587.2</v>
+        <v>548377.8</v>
       </c>
       <c r="AA140">
-        <v>170520</v>
+        <v>3206073.41</v>
       </c>
       <c r="AB140">
-        <v>2.64</v>
+        <v>49.69</v>
       </c>
       <c r="AC140">
         <v>3</v>
@@ -14839,7 +14839,7 @@
         <v>6.941747572815515</v>
       </c>
       <c r="AE140">
-        <v>2.6</v>
+        <v>48.44</v>
       </c>
       <c r="AF140">
         <v>-7.111713238286055</v>
@@ -14927,13 +14927,13 @@
         <v>-9.554605273304951</v>
       </c>
       <c r="Z141">
-        <v>6477780.4</v>
+        <v>555963.1</v>
       </c>
       <c r="AA141">
-        <v>157782.08</v>
+        <v>3245655.22</v>
       </c>
       <c r="AB141">
-        <v>2.44</v>
+        <v>50.1</v>
       </c>
       <c r="AC141">
         <v>2.71</v>
@@ -14942,7 +14942,7 @@
         <v>7.107389738097569</v>
       </c>
       <c r="AE141">
-        <v>2.64</v>
+        <v>49.69</v>
       </c>
       <c r="AF141">
         <v>-9.121524204744214</v>
@@ -15030,13 +15030,13 @@
         <v>-9.770913312249741</v>
       </c>
       <c r="Z142">
-        <v>6497619</v>
+        <v>544289.7</v>
       </c>
       <c r="AA142">
-        <v>152398.89</v>
+        <v>3298061.18</v>
       </c>
       <c r="AB142">
-        <v>2.35</v>
+        <v>50.76</v>
       </c>
       <c r="AC142">
         <v>2.46</v>
@@ -15045,7 +15045,7 @@
         <v>6.529377317977736</v>
       </c>
       <c r="AE142">
-        <v>2.44</v>
+        <v>50.1</v>
       </c>
       <c r="AF142">
         <v>-9.554605273304951</v>
@@ -15133,13 +15133,13 @@
         <v>-9.763871665671731</v>
       </c>
       <c r="Z143">
-        <v>6526728.1</v>
+        <v>568786.8</v>
       </c>
       <c r="AA143">
-        <v>187230.22</v>
+        <v>3298564.73</v>
       </c>
       <c r="AB143">
-        <v>2.87</v>
+        <v>50.54</v>
       </c>
       <c r="AC143">
         <v>2.54</v>
@@ -15148,7 +15148,7 @@
         <v>5.666081529159328</v>
       </c>
       <c r="AE143">
-        <v>2.35</v>
+        <v>50.76</v>
       </c>
       <c r="AF143">
         <v>-9.770913312249741</v>
@@ -15236,13 +15236,13 @@
         <v>-8.333857713747939</v>
       </c>
       <c r="Z144">
-        <v>6554679.3</v>
+        <v>574055.9</v>
       </c>
       <c r="AA144">
-        <v>148998.58</v>
+        <v>3333547.33</v>
       </c>
       <c r="AB144">
-        <v>2.27</v>
+        <v>50.86</v>
       </c>
       <c r="AC144">
         <v>2.7</v>
@@ -15251,7 +15251,7 @@
         <v>5.170399221032151</v>
       </c>
       <c r="AE144">
-        <v>2.87</v>
+        <v>50.54</v>
       </c>
       <c r="AF144">
         <v>-9.763871665671731</v>
@@ -15339,13 +15339,13 @@
         <v>-7.692361920731338</v>
       </c>
       <c r="Z145">
-        <v>6585479</v>
+        <v>577783.5</v>
       </c>
       <c r="AA145">
-        <v>110582.68</v>
+        <v>3382942.2</v>
       </c>
       <c r="AB145">
-        <v>1.68</v>
+        <v>51.37</v>
       </c>
       <c r="AC145">
         <v>2.8</v>
@@ -15354,7 +15354,7 @@
         <v>4.474708171206232</v>
       </c>
       <c r="AE145">
-        <v>2.27</v>
+        <v>50.86</v>
       </c>
       <c r="AF145">
         <v>-8.333857713747939</v>
@@ -15442,13 +15442,13 @@
         <v>-9.458871728942453</v>
       </c>
       <c r="Z146">
-        <v>6624394</v>
+        <v>552723.9</v>
       </c>
       <c r="AA146">
-        <v>100354.58</v>
+        <v>3406935.83</v>
       </c>
       <c r="AB146">
-        <v>1.51</v>
+        <v>51.43</v>
       </c>
       <c r="AC146">
         <v>2.95</v>
@@ -15457,7 +15457,7 @@
         <v>3.933948518698394</v>
       </c>
       <c r="AE146">
-        <v>1.68</v>
+        <v>51.37</v>
       </c>
       <c r="AF146">
         <v>-7.692361920731338</v>
@@ -15545,13 +15545,13 @@
         <v>-7.666576289816163</v>
       </c>
       <c r="Z147">
-        <v>6653661.3</v>
+        <v>540123</v>
       </c>
       <c r="AA147">
-        <v>94300.37</v>
+        <v>3431816.32</v>
       </c>
       <c r="AB147">
-        <v>1.42</v>
+        <v>51.58</v>
       </c>
       <c r="AC147">
         <v>2.86</v>
@@ -15560,7 +15560,7 @@
         <v>3.927668675870111</v>
       </c>
       <c r="AE147">
-        <v>1.51</v>
+        <v>51.43</v>
       </c>
       <c r="AF147">
         <v>-9.458871728942453</v>
@@ -15648,13 +15648,13 @@
         <v>-7.459342148204263</v>
       </c>
       <c r="Z148">
-        <v>6682355</v>
+        <v>589613.5</v>
       </c>
       <c r="AA148">
-        <v>108388.69</v>
+        <v>3463387.26</v>
       </c>
       <c r="AB148">
-        <v>1.62</v>
+        <v>51.83</v>
       </c>
       <c r="AC148">
         <v>2.84</v>
@@ -15663,7 +15663,7 @@
         <v>3.772851030727331</v>
       </c>
       <c r="AE148">
-        <v>1.42</v>
+        <v>51.58</v>
       </c>
       <c r="AF148">
         <v>-7.666576289816163</v>
@@ -15751,13 +15751,13 @@
         <v>-4.127660865859461</v>
       </c>
       <c r="Z149">
-        <v>6732545.5</v>
+        <v>587792.3</v>
       </c>
       <c r="AA149">
-        <v>118396.97</v>
+        <v>3448113.19</v>
       </c>
       <c r="AB149">
-        <v>1.76</v>
+        <v>51.22</v>
       </c>
       <c r="AC149">
         <v>2.68</v>
@@ -15766,7 +15766,7 @@
         <v>3.798208024931848</v>
       </c>
       <c r="AE149">
-        <v>1.62</v>
+        <v>51.83</v>
       </c>
       <c r="AF149">
         <v>-7.459342148204263</v>
@@ -15854,13 +15854,13 @@
         <v>-1.6479447617754</v>
       </c>
       <c r="Z150">
-        <v>6743822.8</v>
+        <v>562245.6</v>
       </c>
       <c r="AA150">
-        <v>95884.59</v>
+        <v>3416686.82</v>
       </c>
       <c r="AB150">
-        <v>1.42</v>
+        <v>50.66</v>
       </c>
       <c r="AC150">
         <v>2.76</v>
@@ -15869,7 +15869,7 @@
         <v>3.542234332425065</v>
       </c>
       <c r="AE150">
-        <v>1.76</v>
+        <v>51.22</v>
       </c>
       <c r="AF150">
         <v>-4.127660865859461</v>
@@ -15957,13 +15957,13 @@
         <v>-1.352875210301896</v>
       </c>
       <c r="Z151">
-        <v>6786171.2</v>
+        <v>584415.9</v>
       </c>
       <c r="AA151">
-        <v>89823.41</v>
+        <v>3440673.55</v>
       </c>
       <c r="AB151">
-        <v>1.32</v>
+        <v>50.7</v>
       </c>
       <c r="AC151">
         <v>2.86</v>
@@ -15972,7 +15972,7 @@
         <v>3.441571067470361</v>
       </c>
       <c r="AE151">
-        <v>1.42</v>
+        <v>50.66</v>
       </c>
       <c r="AF151">
         <v>-1.6479447617754</v>
@@ -16060,13 +16060,13 @@
         <v>-0.9267080455887977</v>
       </c>
       <c r="Z152">
-        <v>6830095.2</v>
+        <v>592301.8</v>
       </c>
       <c r="AA152">
-        <v>77086.21000000001</v>
+        <v>3503518.19</v>
       </c>
       <c r="AB152">
-        <v>1.13</v>
+        <v>51.3</v>
       </c>
       <c r="AC152">
         <v>4.39</v>
@@ -16075,7 +16075,7 @@
         <v>1.925471788485478</v>
       </c>
       <c r="AE152">
-        <v>1.32</v>
+        <v>50.7</v>
       </c>
       <c r="AF152">
         <v>-1.352875210301896</v>
@@ -16163,13 +16163,13 @@
         <v>0.3519342190114072</v>
       </c>
       <c r="Z153">
-        <v>6873225.6</v>
+        <v>599093.6</v>
       </c>
       <c r="AA153">
-        <v>84432.73</v>
+        <v>3459099.37</v>
       </c>
       <c r="AB153">
-        <v>1.23</v>
+        <v>50.33</v>
       </c>
       <c r="AC153">
         <v>4.48</v>
@@ -16178,7 +16178,7 @@
         <v>1.837672281776426</v>
       </c>
       <c r="AE153">
-        <v>1.13</v>
+        <v>51.3</v>
       </c>
       <c r="AF153">
         <v>-0.9267080455887977</v>
@@ -16266,13 +16266,13 @@
         <v>2.067471019789879</v>
       </c>
       <c r="Z154">
-        <v>6905408.5</v>
+        <v>576472.5</v>
       </c>
       <c r="AA154">
-        <v>87794.46000000001</v>
+        <v>3543584.89</v>
       </c>
       <c r="AB154">
-        <v>1.27</v>
+        <v>51.32</v>
       </c>
       <c r="AC154">
         <v>4.19</v>
@@ -16281,7 +16281,7 @@
         <v>2.121124868029556</v>
       </c>
       <c r="AE154">
-        <v>1.23</v>
+        <v>50.33</v>
       </c>
       <c r="AF154">
         <v>0.3519342190114072</v>
@@ -16369,13 +16369,13 @@
         <v>-7.156052154270343</v>
       </c>
       <c r="Z155">
-        <v>6948683.1</v>
+        <v>612061.4</v>
       </c>
       <c r="AA155">
-        <v>84753.94</v>
+        <v>3642499.34</v>
       </c>
       <c r="AB155">
-        <v>1.22</v>
+        <v>52.42</v>
       </c>
       <c r="AC155">
         <v>4.53</v>
@@ -16384,7 +16384,7 @@
         <v>1.788960107146287</v>
       </c>
       <c r="AE155">
-        <v>1.27</v>
+        <v>51.32</v>
       </c>
       <c r="AF155">
         <v>2.067471019789879</v>
@@ -16472,13 +16472,13 @@
         <v>-7.259013848612394</v>
       </c>
       <c r="Z156">
-        <v>6982118.5</v>
+        <v>607491.4</v>
       </c>
       <c r="AA156">
-        <v>99446.69</v>
+        <v>3644411.63</v>
       </c>
       <c r="AB156">
-        <v>1.42</v>
+        <v>52.2</v>
       </c>
       <c r="AC156">
         <v>4.56</v>
@@ -16487,7 +16487,7 @@
         <v>1.759755164498844</v>
       </c>
       <c r="AE156">
-        <v>1.22</v>
+        <v>52.42</v>
       </c>
       <c r="AF156">
         <v>-7.156052154270343</v>
@@ -16575,13 +16575,13 @@
         <v>-5.343135203044048</v>
       </c>
       <c r="Z157">
-        <v>7004141</v>
+        <v>599806</v>
       </c>
       <c r="AA157">
-        <v>108258.2</v>
+        <v>3695837.31</v>
       </c>
       <c r="AB157">
-        <v>1.55</v>
+        <v>52.77</v>
       </c>
       <c r="AC157">
         <v>4.05</v>
@@ -16590,7 +16590,7 @@
         <v>2.258529553099486</v>
       </c>
       <c r="AE157">
-        <v>1.42</v>
+        <v>52.2</v>
       </c>
       <c r="AF157">
         <v>-7.259013848612394</v>
@@ -16678,13 +16678,13 @@
         <v>-8.631641596439311</v>
       </c>
       <c r="Z158">
-        <v>7029631.6</v>
+        <v>578214.5</v>
       </c>
       <c r="AA158">
-        <v>108300.96</v>
+        <v>3733471.76</v>
       </c>
       <c r="AB158">
-        <v>1.54</v>
+        <v>53.11</v>
       </c>
       <c r="AC158">
         <v>3.75</v>
@@ -16693,7 +16693,7 @@
         <v>2.554216867469883</v>
       </c>
       <c r="AE158">
-        <v>1.55</v>
+        <v>52.77</v>
       </c>
       <c r="AF158">
         <v>-5.343135203044048</v>
@@ -16781,13 +16781,13 @@
         <v>-9.546402178365177</v>
       </c>
       <c r="Z159">
-        <v>7065598.2</v>
+        <v>576089.7</v>
       </c>
       <c r="AA159">
-        <v>105818.21</v>
+        <v>3752832.97</v>
       </c>
       <c r="AB159">
-        <v>1.5</v>
+        <v>53.11</v>
       </c>
       <c r="AC159">
         <v>3.78</v>
@@ -16796,7 +16796,7 @@
         <v>2.524571208325299</v>
       </c>
       <c r="AE159">
-        <v>1.54</v>
+        <v>53.11</v>
       </c>
       <c r="AF159">
         <v>-8.631641596439311</v>
@@ -16884,13 +16884,13 @@
         <v>-8.190033560826359</v>
       </c>
       <c r="Z160">
-        <v>7077734.5</v>
+        <v>601749.8</v>
       </c>
       <c r="AA160">
-        <v>99312.17</v>
+        <v>3755155.04</v>
       </c>
       <c r="AB160">
-        <v>1.4</v>
+        <v>53.06</v>
       </c>
       <c r="AC160">
         <v>3.89</v>
@@ -16899,7 +16899,7 @@
         <v>2.416016940995291</v>
       </c>
       <c r="AE160">
-        <v>1.5</v>
+        <v>53.11</v>
       </c>
       <c r="AF160">
         <v>-9.546402178365177</v>
@@ -16987,13 +16987,13 @@
         <v>-7.630762015362135</v>
       </c>
       <c r="Z161">
-        <v>7102860.6</v>
+        <v>612918.4</v>
       </c>
       <c r="AA161">
-        <v>95575</v>
+        <v>3769698.56</v>
       </c>
       <c r="AB161">
-        <v>1.35</v>
+        <v>53.07</v>
       </c>
       <c r="AC161">
         <v>4.58</v>
@@ -17002,7 +17002,7 @@
         <v>1.740294511378848</v>
       </c>
       <c r="AE161">
-        <v>1.4</v>
+        <v>53.06</v>
       </c>
       <c r="AF161">
         <v>-8.190033560826359</v>
@@ -17090,13 +17090,13 @@
         <v>-6.633106976397485</v>
       </c>
       <c r="Z162">
-        <v>7155920</v>
+        <v>615304.9</v>
       </c>
       <c r="AA162">
-        <v>100358.94</v>
+        <v>3811585.12</v>
       </c>
       <c r="AB162">
-        <v>1.4</v>
+        <v>53.26</v>
       </c>
       <c r="AC162">
         <v>4.94</v>
@@ -17105,7 +17105,7 @@
         <v>1.391271202591948</v>
       </c>
       <c r="AE162">
-        <v>1.35</v>
+        <v>53.07</v>
       </c>
       <c r="AF162">
         <v>-7.630762015362135</v>
@@ -17193,13 +17193,13 @@
         <v>-9.600874046022511</v>
       </c>
       <c r="Z163">
-        <v>7168423.2</v>
+        <v>596919.2</v>
       </c>
       <c r="AA163">
-        <v>99573.96000000001</v>
+        <v>3859838.72</v>
       </c>
       <c r="AB163">
-        <v>1.39</v>
+        <v>53.85</v>
       </c>
       <c r="AC163">
         <v>4.66</v>
@@ -17208,7 +17208,7 @@
         <v>1.662526275558962</v>
       </c>
       <c r="AE163">
-        <v>1.4</v>
+        <v>53.26</v>
       </c>
       <c r="AF163">
         <v>-6.633106976397485</v>
@@ -17296,13 +17296,13 @@
         <v>-10.68683704370246</v>
       </c>
       <c r="Z164">
-        <v>7208033.2</v>
+        <v>631911.8</v>
       </c>
       <c r="AA164">
-        <v>98936.28999999999</v>
+        <v>3913722.79</v>
       </c>
       <c r="AB164">
-        <v>1.37</v>
+        <v>54.3</v>
       </c>
       <c r="AC164">
         <v>3.37</v>
@@ -17311,7 +17311,7 @@
         <v>2.931217954919219</v>
       </c>
       <c r="AE164">
-        <v>1.39</v>
+        <v>53.85</v>
       </c>
       <c r="AF164">
         <v>-9.600874046022511</v>
@@ -17399,13 +17399,13 @@
         <v>-8.081864042029762</v>
       </c>
       <c r="Z165">
-        <v>7238471.9</v>
+        <v>629532.3</v>
       </c>
       <c r="AA165">
-        <v>95508.39</v>
+        <v>3861651.68</v>
       </c>
       <c r="AB165">
-        <v>1.32</v>
+        <v>53.35</v>
       </c>
       <c r="AC165">
         <v>3.22</v>
@@ -17414,7 +17414,7 @@
         <v>3.080798294904086</v>
       </c>
       <c r="AE165">
-        <v>1.37</v>
+        <v>54.3</v>
       </c>
       <c r="AF165">
         <v>-10.68683704370246</v>
@@ -17502,13 +17502,13 @@
         <v>-6.875318265158947</v>
       </c>
       <c r="Z166">
-        <v>7281103.7</v>
+        <v>619104.3</v>
       </c>
       <c r="AA166">
-        <v>91427.89999999999</v>
+        <v>3907735.44</v>
       </c>
       <c r="AB166">
-        <v>1.26</v>
+        <v>53.67</v>
       </c>
       <c r="AC166">
         <v>3.43</v>
@@ -17517,7 +17517,7 @@
         <v>2.388088562312674</v>
       </c>
       <c r="AE166">
-        <v>1.32</v>
+        <v>53.35</v>
       </c>
       <c r="AF166">
         <v>-8.081864042029762</v>
@@ -17605,13 +17605,13 @@
         <v>-7.777875790098832</v>
       </c>
       <c r="Z167">
-        <v>7319401.7</v>
+        <v>650359.4</v>
       </c>
       <c r="AA167">
-        <v>89781.64999999999</v>
+        <v>3961846.89</v>
       </c>
       <c r="AB167">
-        <v>1.23</v>
+        <v>54.13</v>
       </c>
       <c r="AC167">
         <v>2.89</v>
@@ -17620,7 +17620,7 @@
         <v>2.740791136164833</v>
       </c>
       <c r="AE167">
-        <v>1.26</v>
+        <v>53.67</v>
       </c>
       <c r="AF167">
         <v>-6.875318265158947</v>
@@ -17708,13 +17708,13 @@
         <v>-7.065169188921406</v>
       </c>
       <c r="Z168">
-        <v>7351034.6</v>
+        <v>639124.2</v>
       </c>
       <c r="AA168">
-        <v>89492.17999999999</v>
+        <v>3954511.42</v>
       </c>
       <c r="AB168">
-        <v>1.22</v>
+        <v>53.8</v>
       </c>
       <c r="AC168">
         <v>2.54</v>
@@ -17723,7 +17723,7 @@
         <v>2.769650867953977</v>
       </c>
       <c r="AE168">
-        <v>1.23</v>
+        <v>54.13</v>
       </c>
       <c r="AF168">
         <v>-7.777875790098832</v>
@@ -17811,13 +17811,13 @@
         <v>-8.898782504005997</v>
       </c>
       <c r="Z169">
-        <v>7389131</v>
+        <v>637902.4</v>
       </c>
       <c r="AA169">
-        <v>61871.86</v>
+        <v>4041768.78</v>
       </c>
       <c r="AB169">
-        <v>0.84</v>
+        <v>54.7</v>
       </c>
       <c r="AC169">
         <v>3.27</v>
@@ -17826,7 +17826,7 @@
         <v>1.578386753171301</v>
       </c>
       <c r="AE169">
-        <v>1.22</v>
+        <v>53.8</v>
       </c>
       <c r="AF169">
         <v>-7.065169188921406</v>
@@ -17914,13 +17914,13 @@
         <v>-8.205498231688901</v>
       </c>
       <c r="Z170">
-        <v>7426459.3</v>
+        <v>615542.8</v>
       </c>
       <c r="AA170">
-        <v>52493.41</v>
+        <v>3949023.95</v>
       </c>
       <c r="AB170">
-        <v>0.71</v>
+        <v>53.18</v>
       </c>
       <c r="AC170">
         <v>4.31</v>
@@ -17929,7 +17929,7 @@
         <v>0.2684306394401537</v>
       </c>
       <c r="AE170">
-        <v>0.84</v>
+        <v>54.7</v>
       </c>
       <c r="AF170">
         <v>-8.898782504005997</v>
@@ -18017,13 +18017,13 @@
         <v>-4.713349698497216</v>
       </c>
       <c r="Z171">
-        <v>7470417.9</v>
+        <v>620048.3</v>
       </c>
       <c r="AA171">
-        <v>58463.62</v>
+        <v>3923142.28</v>
       </c>
       <c r="AB171">
-        <v>0.78</v>
+        <v>52.52</v>
       </c>
       <c r="AC171">
         <v>4.19</v>
@@ -18032,7 +18032,7 @@
         <v>0.201554851713226</v>
       </c>
       <c r="AE171">
-        <v>0.71</v>
+        <v>53.18</v>
       </c>
       <c r="AF171">
         <v>-8.205498231688901</v>
@@ -18120,13 +18120,13 @@
         <v>5.30816276810524</v>
       </c>
       <c r="Z172">
-        <v>7506475</v>
+        <v>637806.9</v>
       </c>
       <c r="AA172">
-        <v>63489.7</v>
+        <v>3797395.57</v>
       </c>
       <c r="AB172">
-        <v>0.85</v>
+        <v>50.59</v>
       </c>
       <c r="AC172">
         <v>4.01</v>
@@ -18135,7 +18135,7 @@
         <v>0.1730602826651273</v>
       </c>
       <c r="AE172">
-        <v>0.78</v>
+        <v>52.52</v>
       </c>
       <c r="AF172">
         <v>-4.713349698497216</v>
@@ -18223,13 +18223,13 @@
         <v>12.87930954193179</v>
       </c>
       <c r="Z173">
-        <v>7462835.4</v>
+        <v>569278.8</v>
       </c>
       <c r="AA173">
-        <v>164429.33</v>
+        <v>3845300.44</v>
       </c>
       <c r="AB173">
-        <v>2.2</v>
+        <v>51.53</v>
       </c>
       <c r="AC173">
         <v>3.3</v>
@@ -18238,7 +18238,7 @@
         <v>0.629235237173309</v>
       </c>
       <c r="AE173">
-        <v>0.85</v>
+        <v>50.59</v>
       </c>
       <c r="AF173">
         <v>5.30816276810524</v>
@@ -18326,13 +18326,13 @@
         <v>19.30226994403761</v>
       </c>
       <c r="Z174">
-        <v>7426871.7</v>
+        <v>579341.2</v>
       </c>
       <c r="AA174">
-        <v>282859.4</v>
+        <v>3983438.99</v>
       </c>
       <c r="AB174">
-        <v>3.81</v>
+        <v>53.64</v>
       </c>
       <c r="AC174">
         <v>2.4</v>
@@ -18341,7 +18341,7 @@
         <v>1.220703125</v>
       </c>
       <c r="AE174">
-        <v>2.2</v>
+        <v>51.53</v>
       </c>
       <c r="AF174">
         <v>12.87930954193179</v>
@@ -18429,13 +18429,13 @@
         <v>10.60153649099382</v>
       </c>
       <c r="Z175">
-        <v>7438850</v>
+        <v>608897.5</v>
       </c>
       <c r="AA175">
-        <v>458834.69</v>
+        <v>4176167.86</v>
       </c>
       <c r="AB175">
-        <v>6.17</v>
+        <v>56.14</v>
       </c>
       <c r="AC175">
         <v>1.88</v>
@@ -18444,7 +18444,7 @@
         <v>1.109148017275241</v>
       </c>
       <c r="AE175">
-        <v>3.81</v>
+        <v>53.64</v>
       </c>
       <c r="AF175">
         <v>19.30226994403761</v>
@@ -18532,13 +18532,13 @@
         <v>13.85290733998035</v>
       </c>
       <c r="Z176">
-        <v>7452106.2</v>
+        <v>645168</v>
       </c>
       <c r="AA176">
-        <v>537142.59</v>
+        <v>4322531.54</v>
       </c>
       <c r="AB176">
-        <v>7.21</v>
+        <v>58</v>
       </c>
       <c r="AC176">
         <v>2.13</v>
@@ -18547,7 +18547,7 @@
         <v>0.4406149025751427</v>
       </c>
       <c r="AE176">
-        <v>6.17</v>
+        <v>56.14</v>
       </c>
       <c r="AF176">
         <v>10.60153649099382</v>
@@ -18635,13 +18635,13 @@
         <v>18.99402573214228</v>
       </c>
       <c r="Z177">
-        <v>7460272.4</v>
+        <v>637698.5</v>
       </c>
       <c r="AA177">
-        <v>611288.59</v>
+        <v>4367482.2</v>
       </c>
       <c r="AB177">
-        <v>8.19</v>
+        <v>58.54</v>
       </c>
       <c r="AC177">
         <v>2.31</v>
@@ -18650,7 +18650,7 @@
         <v>-0.1563874499071249</v>
       </c>
       <c r="AE177">
-        <v>7.21</v>
+        <v>58</v>
       </c>
       <c r="AF177">
         <v>13.85290733998035</v>
@@ -18738,13 +18738,13 @@
         <v>16.6207579403111</v>
       </c>
       <c r="Z178">
-        <v>7488004.3</v>
+        <v>646836.2</v>
       </c>
       <c r="AA178">
-        <v>655306.48</v>
+        <v>4432443.19</v>
       </c>
       <c r="AB178">
-        <v>8.75</v>
+        <v>59.19</v>
       </c>
       <c r="AC178">
         <v>2.44</v>
@@ -18753,7 +18753,7 @@
         <v>-0.4880905896134213</v>
       </c>
       <c r="AE178">
-        <v>8.19</v>
+        <v>58.54</v>
       </c>
       <c r="AF178">
         <v>18.99402573214228</v>
@@ -18841,13 +18841,13 @@
         <v>20.39109951756357</v>
       </c>
       <c r="Z179">
-        <v>7507801.8</v>
+        <v>670157</v>
       </c>
       <c r="AA179">
-        <v>661798.3199999999</v>
+        <v>4435610.16</v>
       </c>
       <c r="AB179">
-        <v>8.81</v>
+        <v>59.08</v>
       </c>
       <c r="AC179">
         <v>3.14</v>
@@ -18856,7 +18856,7 @@
         <v>-1.202249369788655</v>
       </c>
       <c r="AE179">
-        <v>8.75</v>
+        <v>59.19</v>
       </c>
       <c r="AF179">
         <v>16.6207579403111</v>
@@ -18944,13 +18944,13 @@
         <v>15.40208257343616</v>
       </c>
       <c r="Z180">
-        <v>7544891</v>
+        <v>676213.4</v>
       </c>
       <c r="AA180">
-        <v>664625.67</v>
+        <v>4568216.62</v>
       </c>
       <c r="AB180">
-        <v>8.81</v>
+        <v>60.55</v>
       </c>
       <c r="AC180">
         <v>3.92</v>
@@ -18959,7 +18959,7 @@
         <v>-1.943802925327176</v>
       </c>
       <c r="AE180">
-        <v>8.81</v>
+        <v>59.08</v>
       </c>
       <c r="AF180">
         <v>20.39109951756357</v>
@@ -19047,13 +19047,13 @@
         <v>9.262749830428586</v>
       </c>
       <c r="Z181">
-        <v>7609597</v>
+        <v>702608.4</v>
       </c>
       <c r="AA181">
-        <v>702950.23</v>
+        <v>4670004.31</v>
       </c>
       <c r="AB181">
-        <v>9.24</v>
+        <v>61.37</v>
       </c>
       <c r="AC181">
         <v>4.31</v>
@@ -19062,7 +19062,7 @@
         <v>-2.310420860895412</v>
       </c>
       <c r="AE181">
-        <v>8.81</v>
+        <v>60.55</v>
       </c>
       <c r="AF181">
         <v>15.40208257343616</v>
@@ -19150,13 +19150,13 @@
         <v>13.54490500629149</v>
       </c>
       <c r="Z182">
-        <v>7671366.9</v>
+        <v>677312.8</v>
       </c>
       <c r="AA182">
-        <v>700851.4399999999</v>
+        <v>4582208.56</v>
       </c>
       <c r="AB182">
-        <v>9.140000000000001</v>
+        <v>59.73</v>
       </c>
       <c r="AC182">
         <v>4.52</v>
@@ -19165,7 +19165,7 @@
         <v>-2.506697282816683</v>
       </c>
       <c r="AE182">
-        <v>9.24</v>
+        <v>61.37</v>
       </c>
       <c r="AF182">
         <v>9.262749830428586</v>
@@ -19253,13 +19253,13 @@
         <v>14.3968598547122</v>
       </c>
       <c r="Z183">
-        <v>7757774.9</v>
+        <v>706456.2</v>
       </c>
       <c r="AA183">
-        <v>691720.22</v>
+        <v>4619592.61</v>
       </c>
       <c r="AB183">
-        <v>8.92</v>
+        <v>59.55</v>
       </c>
       <c r="AC183">
         <v>4.56</v>
@@ -19268,7 +19268,7 @@
         <v>-2.543993879112483</v>
       </c>
       <c r="AE183">
-        <v>9.140000000000001</v>
+        <v>59.73</v>
       </c>
       <c r="AF183">
         <v>13.54490500629149</v>
@@ -19356,13 +19356,13 @@
         <v>17.00972332521098</v>
       </c>
       <c r="Z184">
-        <v>7888820.7</v>
+        <v>768852.8</v>
       </c>
       <c r="AA184">
-        <v>663083.73</v>
+        <v>4622703.9</v>
       </c>
       <c r="AB184">
-        <v>8.41</v>
+        <v>58.6</v>
       </c>
       <c r="AC184">
         <v>5.2</v>
@@ -19371,7 +19371,7 @@
         <v>-3.136882129277585</v>
       </c>
       <c r="AE184">
-        <v>8.92</v>
+        <v>59.55</v>
       </c>
       <c r="AF184">
         <v>14.3968598547122</v>
@@ -19459,13 +19459,13 @@
         <v>15.54369832517941</v>
       </c>
       <c r="Z185">
-        <v>8053159.9</v>
+        <v>733617.9</v>
       </c>
       <c r="AA185">
-        <v>544525.75</v>
+        <v>4655456.01</v>
       </c>
       <c r="AB185">
-        <v>6.76</v>
+        <v>57.81</v>
       </c>
       <c r="AC185">
         <v>6.1</v>
@@ -19474,7 +19474,7 @@
         <v>-3.647502356267673</v>
       </c>
       <c r="AE185">
-        <v>8.41</v>
+        <v>58.6</v>
       </c>
       <c r="AF185">
         <v>17.00972332521098</v>
@@ -19562,13 +19562,13 @@
         <v>10.00980159659748</v>
       </c>
       <c r="Z186">
-        <v>8198139.6</v>
+        <v>724321</v>
       </c>
       <c r="AA186">
-        <v>428629.11</v>
+        <v>4730677.54</v>
       </c>
       <c r="AB186">
-        <v>5.23</v>
+        <v>57.7</v>
       </c>
       <c r="AC186">
         <v>6.76</v>
@@ -19577,7 +19577,7 @@
         <v>-3.8497564630948</v>
       </c>
       <c r="AE186">
-        <v>6.76</v>
+        <v>57.81</v>
       </c>
       <c r="AF186">
         <v>15.54369832517941</v>
@@ -19665,13 +19665,13 @@
         <v>4.116013261446883</v>
       </c>
       <c r="Z187">
-        <v>8313352.1</v>
+        <v>724110</v>
       </c>
       <c r="AA187">
-        <v>305455.69</v>
+        <v>4878735.48</v>
       </c>
       <c r="AB187">
-        <v>3.67</v>
+        <v>58.69</v>
       </c>
       <c r="AC187">
         <v>8.06</v>
@@ -19680,7 +19680,7 @@
         <v>-4.414214325374799</v>
       </c>
       <c r="AE187">
-        <v>5.23</v>
+        <v>57.7</v>
       </c>
       <c r="AF187">
         <v>10.00980159659748</v>
@@ -19768,13 +19768,13 @@
         <v>5.73906501651591</v>
       </c>
       <c r="Z188">
-        <v>8422611.300000001</v>
+        <v>754427.1</v>
       </c>
       <c r="AA188">
-        <v>234667.95</v>
+        <v>4893317.28</v>
       </c>
       <c r="AB188">
-        <v>2.79</v>
+        <v>58.1</v>
       </c>
       <c r="AC188">
         <v>8.35</v>
@@ -19783,7 +19783,7 @@
         <v>-4.236271342870312</v>
       </c>
       <c r="AE188">
-        <v>3.67</v>
+        <v>58.69</v>
       </c>
       <c r="AF188">
         <v>4.116013261446883</v>
@@ -19871,13 +19871,13 @@
         <v>6.852165280179778</v>
       </c>
       <c r="Z189">
-        <v>8538598.6</v>
+        <v>753685.9</v>
       </c>
       <c r="AA189">
-        <v>130345.7</v>
+        <v>4918228.96</v>
       </c>
       <c r="AB189">
-        <v>1.53</v>
+        <v>57.6</v>
       </c>
       <c r="AC189">
         <v>8.99</v>
@@ -19886,7 +19886,7 @@
         <v>-4.440774382970913</v>
       </c>
       <c r="AE189">
-        <v>2.79</v>
+        <v>58.1</v>
       </c>
       <c r="AF189">
         <v>5.73906501651591</v>
@@ -19974,13 +19974,13 @@
         <v>5.916152688917431</v>
       </c>
       <c r="Z190">
-        <v>8638141.9</v>
+        <v>746379.5</v>
       </c>
       <c r="AA190">
-        <v>52853.65</v>
+        <v>4895512.26</v>
       </c>
       <c r="AB190">
-        <v>0.61</v>
+        <v>56.67</v>
       </c>
       <c r="AC190">
         <v>9.68</v>
@@ -19989,7 +19989,7 @@
         <v>-4.257840991976658</v>
       </c>
       <c r="AE190">
-        <v>1.53</v>
+        <v>57.6</v>
       </c>
       <c r="AF190">
         <v>6.852165280179778</v>
@@ -20077,13 +20077,13 @@
         <v>9.682163536551247</v>
       </c>
       <c r="Z191">
-        <v>8723377.800000001</v>
+        <v>755392.8</v>
       </c>
       <c r="AA191">
-        <v>20406.8</v>
+        <v>4865837.1</v>
       </c>
       <c r="AB191">
-        <v>0.23</v>
+        <v>55.78</v>
       </c>
       <c r="AC191">
         <v>10.25</v>
@@ -20092,7 +20092,7 @@
         <v>-4.371882086167799</v>
       </c>
       <c r="AE191">
-        <v>0.61</v>
+        <v>56.67</v>
       </c>
       <c r="AF191">
         <v>5.916152688917431</v>
@@ -20180,13 +20180,13 @@
         <v>8.526832463664702</v>
       </c>
       <c r="Z192">
-        <v>8818704.5</v>
+        <v>771540.1</v>
       </c>
       <c r="AA192">
-        <v>-12767.09</v>
+        <v>4905588.37</v>
       </c>
       <c r="AB192">
-        <v>-0.14</v>
+        <v>55.63</v>
       </c>
       <c r="AC192">
         <v>10.67</v>
@@ -20195,7 +20195,7 @@
         <v>-3.948676244691429</v>
       </c>
       <c r="AE192">
-        <v>0.23</v>
+        <v>55.78</v>
       </c>
       <c r="AF192">
         <v>9.682163536551247</v>
@@ -20283,13 +20283,13 @@
         <v>9.49165346036156</v>
       </c>
       <c r="Z193">
-        <v>8898727.5</v>
+        <v>782631.4</v>
       </c>
       <c r="AA193">
-        <v>-64727.49</v>
+        <v>4966921.42</v>
       </c>
       <c r="AB193">
-        <v>-0.73</v>
+        <v>55.82</v>
       </c>
       <c r="AC193">
         <v>10.74</v>
@@ -20298,7 +20298,7 @@
         <v>-2.790319667690078</v>
       </c>
       <c r="AE193">
-        <v>-0.14</v>
+        <v>55.63</v>
       </c>
       <c r="AF193">
         <v>8.526832463664702</v>
@@ -20386,13 +20386,13 @@
         <v>6.98870798750626</v>
       </c>
       <c r="Z194">
-        <v>8944243</v>
+        <v>722828.3</v>
       </c>
       <c r="AA194">
-        <v>-108185.99</v>
+        <v>4964732.29</v>
       </c>
       <c r="AB194">
-        <v>-1.21</v>
+        <v>55.51</v>
       </c>
       <c r="AC194">
         <v>10.06</v>
@@ -20401,7 +20401,7 @@
         <v>-1.181173905142663</v>
       </c>
       <c r="AE194">
-        <v>-0.73</v>
+        <v>55.82</v>
       </c>
       <c r="AF194">
         <v>9.49165346036156</v>
@@ -20489,13 +20489,13 @@
         <v>0.6451145768360034</v>
       </c>
       <c r="Z195">
-        <v>8991855.1</v>
+        <v>754068.3</v>
       </c>
       <c r="AA195">
-        <v>-123426.67</v>
+        <v>5047568.76</v>
       </c>
       <c r="AB195">
-        <v>-1.37</v>
+        <v>56.13</v>
       </c>
       <c r="AC195">
         <v>10.38</v>
@@ -20504,7 +20504,7 @@
         <v>-1.114332306577293</v>
       </c>
       <c r="AE195">
-        <v>-1.21</v>
+        <v>55.51</v>
       </c>
       <c r="AF195">
         <v>6.98870798750626</v>
@@ -20592,13 +20592,13 @@
         <v>-5.011957813860213</v>
       </c>
       <c r="Z196">
-        <v>9061814.300000001</v>
+        <v>838811.9</v>
       </c>
       <c r="AA196">
-        <v>-122757.75</v>
+        <v>5198239.31</v>
       </c>
       <c r="AB196">
-        <v>-1.35</v>
+        <v>57.36</v>
       </c>
       <c r="AC196">
         <v>10.54</v>
@@ -20607,7 +20607,7 @@
         <v>-0.04523249502441651</v>
       </c>
       <c r="AE196">
-        <v>-1.37</v>
+        <v>56.13</v>
       </c>
       <c r="AF196">
         <v>0.6451145768360034</v>
@@ -20695,13 +20695,13 @@
         <v>-10.73467953673312</v>
       </c>
       <c r="Z197">
-        <v>9147953.5</v>
+        <v>819757.1</v>
       </c>
       <c r="AA197">
-        <v>-137378.77</v>
+        <v>5227617.62</v>
       </c>
       <c r="AB197">
-        <v>-1.5</v>
+        <v>57.15</v>
       </c>
       <c r="AC197">
         <v>11.3</v>
@@ -20710,7 +20710,7 @@
         <v>-0.1347708894878785</v>
       </c>
       <c r="AE197">
-        <v>-1.35</v>
+        <v>57.36</v>
       </c>
       <c r="AF197">
         <v>-5.011957813860213</v>
@@ -20798,13 +20798,13 @@
         <v>-8.857943715468808</v>
       </c>
       <c r="Z198">
-        <v>9249687.1</v>
+        <v>826054.6</v>
       </c>
       <c r="AA198">
-        <v>-119927.61</v>
+        <v>5338287.55</v>
       </c>
       <c r="AB198">
-        <v>-1.3</v>
+        <v>57.71</v>
       </c>
       <c r="AC198">
         <v>12.13</v>
@@ -20813,7 +20813,7 @@
         <v>-0.4280745563185473</v>
       </c>
       <c r="AE198">
-        <v>-1.5</v>
+        <v>57.15</v>
       </c>
       <c r="AF198">
         <v>-10.73467953673312</v>
@@ -20901,13 +20901,13 @@
         <v>-7.577507900150438</v>
       </c>
       <c r="Z199">
-        <v>9351602.699999999</v>
+        <v>826025.7</v>
       </c>
       <c r="AA199">
-        <v>-199830.32</v>
+        <v>5316565.83</v>
       </c>
       <c r="AB199">
-        <v>-2.14</v>
+        <v>56.85</v>
       </c>
       <c r="AC199">
         <v>11.73</v>
@@ -20916,7 +20916,7 @@
         <v>0.6981115188400722</v>
       </c>
       <c r="AE199">
-        <v>-1.3</v>
+        <v>57.71</v>
       </c>
       <c r="AF199">
         <v>-8.857943715468808</v>
@@ -21004,13 +21004,13 @@
         <v>-1.320667004136822</v>
       </c>
       <c r="Z200">
-        <v>9450085.5</v>
+        <v>852909.9</v>
       </c>
       <c r="AA200">
-        <v>-230553.94</v>
+        <v>5331801.65</v>
       </c>
       <c r="AB200">
-        <v>-2.44</v>
+        <v>56.42</v>
       </c>
       <c r="AC200">
         <v>11.89</v>
@@ -21019,7 +21019,7 @@
         <v>0.8937349182232657</v>
       </c>
       <c r="AE200">
-        <v>-2.14</v>
+        <v>56.85</v>
       </c>
       <c r="AF200">
         <v>-7.577507900150438</v>
@@ -21107,13 +21107,13 @@
         <v>-4.791816442904262</v>
       </c>
       <c r="Z201">
-        <v>9550426.699999999</v>
+        <v>854027.1</v>
       </c>
       <c r="AA201">
-        <v>-183546.17</v>
+        <v>5435609.41</v>
       </c>
       <c r="AB201">
-        <v>-1.92</v>
+        <v>56.91</v>
       </c>
       <c r="AC201">
         <v>10.07</v>
@@ -21122,7 +21122,7 @@
         <v>2.798219314981365</v>
       </c>
       <c r="AE201">
-        <v>-2.44</v>
+        <v>56.42</v>
       </c>
       <c r="AF201">
         <v>-1.320667004136822</v>
@@ -21210,13 +21210,13 @@
         <v>-4.64544483988637</v>
       </c>
       <c r="Z202">
-        <v>9640755</v>
+        <v>836707.8</v>
       </c>
       <c r="AA202">
-        <v>-181358.5</v>
+        <v>5487491.33</v>
       </c>
       <c r="AB202">
-        <v>-1.88</v>
+        <v>56.92</v>
       </c>
       <c r="AC202">
         <v>8.73</v>
@@ -21225,7 +21225,7 @@
         <v>4.460590453416713</v>
       </c>
       <c r="AE202">
-        <v>-1.92</v>
+        <v>56.91</v>
       </c>
       <c r="AF202">
         <v>-4.791816442904262</v>
@@ -21313,13 +21313,13 @@
         <v>-6.037725200986809</v>
       </c>
       <c r="Z203">
-        <v>9741807.699999999</v>
+        <v>856445.6</v>
       </c>
       <c r="AA203">
-        <v>-173053.76</v>
+        <v>5542541.46</v>
       </c>
       <c r="AB203">
-        <v>-1.78</v>
+        <v>56.89</v>
       </c>
       <c r="AC203">
         <v>7.17</v>
@@ -21328,7 +21328,7 @@
         <v>6.046468228048885</v>
       </c>
       <c r="AE203">
-        <v>-1.88</v>
+        <v>56.92</v>
       </c>
       <c r="AF203">
         <v>-4.64544483988637</v>
@@ -21416,13 +21416,13 @@
         <v>-5.226463848240314</v>
       </c>
       <c r="Z204">
-        <v>9830020.4</v>
+        <v>859752.7</v>
       </c>
       <c r="AA204">
-        <v>-137930.49</v>
+        <v>5578208.16</v>
       </c>
       <c r="AB204">
-        <v>-1.4</v>
+        <v>56.75</v>
       </c>
       <c r="AC204">
         <v>6.47</v>
@@ -21431,7 +21431,7 @@
         <v>6.743683666760591</v>
       </c>
       <c r="AE204">
-        <v>-1.78</v>
+        <v>56.89</v>
       </c>
       <c r="AF204">
         <v>-6.037725200986809</v>
@@ -21519,13 +21519,13 @@
         <v>-4.585262708670934</v>
       </c>
       <c r="Z205">
-        <v>9915316.4</v>
+        <v>867927.4</v>
       </c>
       <c r="AA205">
-        <v>-125993.91</v>
+        <v>5658016.87</v>
       </c>
       <c r="AB205">
-        <v>-1.27</v>
+        <v>57.06</v>
       </c>
       <c r="AC205">
         <v>5.9</v>
@@ -21534,7 +21534,7 @@
         <v>7.318224740321067</v>
       </c>
       <c r="AE205">
-        <v>-1.4</v>
+        <v>56.75</v>
       </c>
       <c r="AF205">
         <v>-5.226463848240314</v>
@@ -21622,13 +21622,13 @@
         <v>-4.025278424845247</v>
       </c>
       <c r="Z206">
-        <v>9996690.4</v>
+        <v>804202.3</v>
       </c>
       <c r="AA206">
-        <v>-123173.49</v>
+        <v>5613859.03</v>
       </c>
       <c r="AB206">
-        <v>-1.23</v>
+        <v>56.16</v>
       </c>
       <c r="AC206">
         <v>5.79</v>
@@ -21637,7 +21637,7 @@
         <v>7.429813782020989</v>
       </c>
       <c r="AE206">
-        <v>-1.27</v>
+        <v>57.06</v>
       </c>
       <c r="AF206">
         <v>-4.585262708670934</v>
@@ -21725,13 +21725,13 @@
         <v>-5.146743279290544</v>
       </c>
       <c r="Z207">
-        <v>10067360.7</v>
+        <v>824738.6</v>
       </c>
       <c r="AA207">
-        <v>-93249.56</v>
+        <v>5706730.79</v>
       </c>
       <c r="AB207">
-        <v>-0.93</v>
+        <v>56.69</v>
       </c>
       <c r="AC207">
         <v>5.77</v>
@@ -21740,7 +21740,7 @@
         <v>7.450127635435377</v>
       </c>
       <c r="AE207">
-        <v>-1.23</v>
+        <v>56.16</v>
       </c>
       <c r="AF207">
         <v>-4.025278424845247</v>
@@ -21828,13 +21828,13 @@
         <v>-5.690287430297458</v>
       </c>
       <c r="Z208">
-        <v>10156139.2</v>
+        <v>927590.5</v>
       </c>
       <c r="AA208">
-        <v>-74754.83</v>
+        <v>5788870.98</v>
       </c>
       <c r="AB208">
-        <v>-0.74</v>
+        <v>57</v>
       </c>
       <c r="AC208">
         <v>5.6</v>
@@ -21843,7 +21843,7 @@
         <v>7.623106060606055</v>
       </c>
       <c r="AE208">
-        <v>-0.93</v>
+        <v>56.69</v>
       </c>
       <c r="AF208">
         <v>-5.146743279290544</v>
@@ -21931,13 +21931,13 @@
         <v>-9.00574098382706</v>
       </c>
       <c r="Z209">
-        <v>10222611</v>
+        <v>886228.9</v>
       </c>
       <c r="AA209">
-        <v>-56202.87</v>
+        <v>5826094.39</v>
       </c>
       <c r="AB209">
-        <v>-0.55</v>
+        <v>56.99</v>
       </c>
       <c r="AC209">
         <v>4.65</v>
@@ -21946,7 +21946,7 @@
         <v>8.600095556617294</v>
       </c>
       <c r="AE209">
-        <v>-0.74</v>
+        <v>57</v>
       </c>
       <c r="AF209">
         <v>-5.690287430297458</v>
@@ -22034,13 +22034,13 @@
         <v>-10.71866854471381</v>
       </c>
       <c r="Z210">
-        <v>10280787.4</v>
+        <v>884231</v>
       </c>
       <c r="AA210">
-        <v>-39023.18</v>
+        <v>5935725.65</v>
       </c>
       <c r="AB210">
-        <v>-0.38</v>
+        <v>57.74</v>
       </c>
       <c r="AC210">
         <v>4.18</v>
@@ -22049,7 +22049,7 @@
         <v>9.090036475331154</v>
       </c>
       <c r="AE210">
-        <v>-0.55</v>
+        <v>56.99</v>
       </c>
       <c r="AF210">
         <v>-9.00574098382706</v>
@@ -22137,13 +22137,13 @@
         <v>-13.7709247487541</v>
       </c>
       <c r="Z211">
-        <v>10335458.3</v>
+        <v>880696.5</v>
       </c>
       <c r="AA211">
-        <v>24270.03</v>
+        <v>6096513.02</v>
       </c>
       <c r="AB211">
-        <v>0.23</v>
+        <v>58.99</v>
       </c>
       <c r="AC211">
         <v>3.94</v>
@@ -22152,7 +22152,7 @@
         <v>9.341928035405033</v>
       </c>
       <c r="AE211">
-        <v>-0.38</v>
+        <v>57.74</v>
       </c>
       <c r="AF211">
         <v>-10.71866854471381</v>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -610,7 +610,7 @@
         <v>2.313721403857727</v>
       </c>
       <c r="Z2">
-        <v>181703.8</v>
+        <v>2190643.1</v>
       </c>
       <c r="AA2">
         <v>1047626.16</v>
@@ -713,7 +713,7 @@
         <v>-2.640109410945868</v>
       </c>
       <c r="Z3">
-        <v>176995.3</v>
+        <v>2207671.2</v>
       </c>
       <c r="AA3">
         <v>1054868.66</v>
@@ -816,7 +816,7 @@
         <v>-2.419714768403203</v>
       </c>
       <c r="Z4">
-        <v>195571.4</v>
+        <v>2225144.6</v>
       </c>
       <c r="AA4">
         <v>1060502.67</v>
@@ -919,7 +919,7 @@
         <v>-2.197684964365376</v>
       </c>
       <c r="Z5">
-        <v>188584.2</v>
+        <v>2235812.9</v>
       </c>
       <c r="AA5">
         <v>1054018.55</v>
@@ -1022,7 +1022,7 @@
         <v>2.484075628600824</v>
       </c>
       <c r="Z6">
-        <v>198732.6</v>
+        <v>2256419.1</v>
       </c>
       <c r="AA6">
         <v>1061011.12</v>
@@ -1125,7 +1125,7 @@
         <v>6.031522959779978</v>
       </c>
       <c r="Z7">
-        <v>194660.1</v>
+        <v>2271564</v>
       </c>
       <c r="AA7">
         <v>1066702.33</v>
@@ -1228,7 +1228,7 @@
         <v>4.125745800514569</v>
       </c>
       <c r="Z8">
-        <v>203497.8</v>
+        <v>2293390.2</v>
       </c>
       <c r="AA8">
         <v>1074058.79</v>
@@ -1331,7 +1331,7 @@
         <v>3.572707506505246</v>
       </c>
       <c r="Z9">
-        <v>208796.1</v>
+        <v>2315471.6</v>
       </c>
       <c r="AA9">
         <v>1079411.75</v>
@@ -1434,7 +1434,7 @@
         <v>3.916593043134031</v>
       </c>
       <c r="Z10">
-        <v>205553.8</v>
+        <v>2336552.6</v>
       </c>
       <c r="AA10">
         <v>1088215.74</v>
@@ -1537,7 +1537,7 @@
         <v>2.831770814488022</v>
       </c>
       <c r="Z11">
-        <v>219040.8</v>
+        <v>2362641.2</v>
       </c>
       <c r="AA11">
         <v>1090807.28</v>
@@ -1640,7 +1640,7 @@
         <v>4.188963634368825</v>
       </c>
       <c r="Z12">
-        <v>220983.2</v>
+        <v>2387208</v>
       </c>
       <c r="AA12">
         <v>1098243.73</v>
@@ -1743,7 +1743,7 @@
         <v>5.312380888049084</v>
       </c>
       <c r="Z13">
-        <v>215330.9</v>
+        <v>2409449.9</v>
       </c>
       <c r="AA13">
         <v>1120052.63</v>
@@ -1846,7 +1846,7 @@
         <v>4.197063809179302</v>
       </c>
       <c r="Z14">
-        <v>206665.4</v>
+        <v>2434411.5</v>
       </c>
       <c r="AA14">
         <v>1118604.96</v>
@@ -1949,7 +1949,7 @@
         <v>2.473136313262159</v>
       </c>
       <c r="Z15">
-        <v>201550.6</v>
+        <v>2458966.9</v>
       </c>
       <c r="AA15">
         <v>1127618.55</v>
@@ -2052,7 +2052,7 @@
         <v>3.192150093177903</v>
       </c>
       <c r="Z16">
-        <v>223206.9</v>
+        <v>2486602.5</v>
       </c>
       <c r="AA16">
         <v>1139113.87</v>
@@ -2155,7 +2155,7 @@
         <v>1.932461953498743</v>
       </c>
       <c r="Z17">
-        <v>218922.4</v>
+        <v>2516940.7</v>
       </c>
       <c r="AA17">
         <v>1134706.67</v>
@@ -2258,7 +2258,7 @@
         <v>0.07658804242725026</v>
       </c>
       <c r="Z18">
-        <v>227533.9</v>
+        <v>2545742</v>
       </c>
       <c r="AA18">
         <v>1151502.63</v>
@@ -2361,7 +2361,7 @@
         <v>-2.111277747214257</v>
       </c>
       <c r="Z19">
-        <v>224198.4</v>
+        <v>2575280.3</v>
       </c>
       <c r="AA19">
         <v>1153731.32</v>
@@ -2464,7 +2464,7 @@
         <v>-3.119472548182889</v>
       </c>
       <c r="Z20">
-        <v>230915</v>
+        <v>2602697.5</v>
       </c>
       <c r="AA20">
         <v>1164162.36</v>
@@ -2567,7 +2567,7 @@
         <v>0.9962117170522644</v>
       </c>
       <c r="Z21">
-        <v>233903</v>
+        <v>2627804.4</v>
       </c>
       <c r="AA21">
         <v>1158709.12</v>
@@ -2670,7 +2670,7 @@
         <v>-1.167746285813553</v>
       </c>
       <c r="Z22">
-        <v>227028</v>
+        <v>2649278.5</v>
       </c>
       <c r="AA22">
         <v>1181191.02</v>
@@ -2773,7 +2773,7 @@
         <v>-4.919011502511717</v>
       </c>
       <c r="Z23">
-        <v>245688.9</v>
+        <v>2675926.6</v>
       </c>
       <c r="AA23">
         <v>1193567.43</v>
@@ -2876,7 +2876,7 @@
         <v>-4.527176116206311</v>
       </c>
       <c r="Z24">
-        <v>243269.5</v>
+        <v>2698213</v>
       </c>
       <c r="AA24">
         <v>1190210.54</v>
@@ -2979,7 +2979,7 @@
         <v>-3.635803900798873</v>
       </c>
       <c r="Z25">
-        <v>237380.9</v>
+        <v>2720262.9</v>
       </c>
       <c r="AA25">
         <v>1211762.25</v>
@@ -3082,7 +3082,7 @@
         <v>-3.790990612836065</v>
       </c>
       <c r="Z26">
-        <v>232828.5</v>
+        <v>2746426</v>
       </c>
       <c r="AA26">
         <v>1200436.07</v>
@@ -3185,7 +3185,7 @@
         <v>-4.355101667025618</v>
       </c>
       <c r="Z27">
-        <v>231983.8</v>
+        <v>2776859.2</v>
       </c>
       <c r="AA27">
         <v>1216003.85</v>
@@ -3288,7 +3288,7 @@
         <v>-2.914768319848104</v>
       </c>
       <c r="Z28">
-        <v>247243</v>
+        <v>2800895.2</v>
       </c>
       <c r="AA28">
         <v>1204373.19</v>
@@ -3391,7 +3391,7 @@
         <v>-2.947208417488556</v>
       </c>
       <c r="Z29">
-        <v>253193.5</v>
+        <v>2835166.3</v>
       </c>
       <c r="AA29">
         <v>1213886.26</v>
@@ -3494,7 +3494,7 @@
         <v>-4.68437775826559</v>
       </c>
       <c r="Z30">
-        <v>255741</v>
+        <v>2863373.4</v>
       </c>
       <c r="AA30">
         <v>1232019.4</v>
@@ -3597,7 +3597,7 @@
         <v>-6.621183952619347</v>
       </c>
       <c r="Z31">
-        <v>260590.7</v>
+        <v>2899765.6</v>
       </c>
       <c r="AA31">
         <v>1243642.84</v>
@@ -3700,7 +3700,7 @@
         <v>-7.481254246384095</v>
       </c>
       <c r="Z32">
-        <v>271286.3</v>
+        <v>2940137</v>
       </c>
       <c r="AA32">
         <v>1256659.75</v>
@@ -3803,7 +3803,7 @@
         <v>-7.733799695745846</v>
       </c>
       <c r="Z33">
-        <v>268548.1</v>
+        <v>2974782.1</v>
       </c>
       <c r="AA33">
         <v>1250139.55</v>
@@ -3906,7 +3906,7 @@
         <v>0.7089100726747288</v>
       </c>
       <c r="Z34">
-        <v>272768.2</v>
+        <v>3020522.3</v>
       </c>
       <c r="AA34">
         <v>1206972.42</v>
@@ -4009,7 +4009,7 @@
         <v>15.63142437122076</v>
       </c>
       <c r="Z35">
-        <v>284924.2</v>
+        <v>3059757.6</v>
       </c>
       <c r="AA35">
         <v>1172000.25</v>
@@ -4112,7 +4112,7 @@
         <v>16.51882969367133</v>
       </c>
       <c r="Z36">
-        <v>272113.4</v>
+        <v>3088601.5</v>
       </c>
       <c r="AA36">
         <v>1141380.13</v>
@@ -4215,7 +4215,7 @@
         <v>24.50344500620496</v>
       </c>
       <c r="Z37">
-        <v>258582.5</v>
+        <v>3109803.1</v>
       </c>
       <c r="AA37">
         <v>1168238.34</v>
@@ -4318,7 +4318,7 @@
         <v>18.09616708402857</v>
       </c>
       <c r="Z38">
-        <v>244784.2</v>
+        <v>3121758.8</v>
       </c>
       <c r="AA38">
         <v>1187934.97</v>
@@ -4421,7 +4421,7 @@
         <v>16.39844809212296</v>
       </c>
       <c r="Z39">
-        <v>242501.2</v>
+        <v>3132276.3</v>
       </c>
       <c r="AA39">
         <v>1190973.6</v>
@@ -4524,7 +4524,7 @@
         <v>14.2718310905547</v>
       </c>
       <c r="Z40">
-        <v>268841.6</v>
+        <v>3153874.9</v>
       </c>
       <c r="AA40">
         <v>1199737.6</v>
@@ -4627,7 +4627,7 @@
         <v>12.26497346722946</v>
       </c>
       <c r="Z41">
-        <v>263428.8</v>
+        <v>3164110.3</v>
       </c>
       <c r="AA41">
         <v>1223041.86</v>
@@ -4730,7 +4730,7 @@
         <v>6.163297890381725</v>
       </c>
       <c r="Z42">
-        <v>268742.3</v>
+        <v>3177111.6</v>
       </c>
       <c r="AA42">
         <v>1260118.99</v>
@@ -4833,7 +4833,7 @@
         <v>3.496773238207385</v>
       </c>
       <c r="Z43">
-        <v>271406.4</v>
+        <v>3187927.3</v>
       </c>
       <c r="AA43">
         <v>1274406.16</v>
@@ -4936,7 +4936,7 @@
         <v>2.622176142211208</v>
       </c>
       <c r="Z44">
-        <v>281459.6</v>
+        <v>3198100.6</v>
       </c>
       <c r="AA44">
         <v>1299768.72</v>
@@ -5039,7 +5039,7 @@
         <v>-1.27051094750511</v>
       </c>
       <c r="Z45">
-        <v>282508.7</v>
+        <v>3212061.2</v>
       </c>
       <c r="AA45">
         <v>1305138.63</v>
@@ -5142,7 +5142,7 @@
         <v>-1.862702809012817</v>
       </c>
       <c r="Z46">
-        <v>288874.9</v>
+        <v>3228167.9</v>
       </c>
       <c r="AA46">
         <v>1341606.53</v>
@@ -5245,7 +5245,7 @@
         <v>-5.165675410664228</v>
       </c>
       <c r="Z47">
-        <v>309134.7</v>
+        <v>3252378.5</v>
       </c>
       <c r="AA47">
         <v>1347192.92</v>
@@ -5348,7 +5348,7 @@
         <v>-4.774417514157447</v>
       </c>
       <c r="Z48">
-        <v>307944.4</v>
+        <v>3288209.5</v>
       </c>
       <c r="AA48">
         <v>1346061.96</v>
@@ -5451,7 +5451,7 @@
         <v>-3.816128381642248</v>
       </c>
       <c r="Z49">
-        <v>303412.3</v>
+        <v>3333039.4</v>
       </c>
       <c r="AA49">
         <v>1362710.72</v>
@@ -5554,7 +5554,7 @@
         <v>-3.929395224130827</v>
       </c>
       <c r="Z50">
-        <v>284389.3</v>
+        <v>3372644.4</v>
       </c>
       <c r="AA50">
         <v>1335186.19</v>
@@ -5657,7 +5657,7 @@
         <v>-1.37234622135961</v>
       </c>
       <c r="Z51">
-        <v>283356.4</v>
+        <v>3413499.6</v>
       </c>
       <c r="AA51">
         <v>1359154.98</v>
@@ -5760,7 +5760,7 @@
         <v>-4.541828912072421</v>
       </c>
       <c r="Z52">
-        <v>318651.7</v>
+        <v>3463309.7</v>
       </c>
       <c r="AA52">
         <v>1382153.06</v>
@@ -5863,7 +5863,7 @@
         <v>-6.270357172976226</v>
       </c>
       <c r="Z53">
-        <v>311651</v>
+        <v>3511531.8</v>
       </c>
       <c r="AA53">
         <v>1385977.88</v>
@@ -5966,7 +5966,7 @@
         <v>-5.527798464134747</v>
       </c>
       <c r="Z54">
-        <v>315947.5</v>
+        <v>3558737</v>
       </c>
       <c r="AA54">
         <v>1387015.11</v>
@@ -6069,7 +6069,7 @@
         <v>-6.920083496181306</v>
       </c>
       <c r="Z55">
-        <v>316546.6</v>
+        <v>3603877.2</v>
       </c>
       <c r="AA55">
         <v>1401395.51</v>
@@ -6172,7 +6172,7 @@
         <v>-6.748098127896252</v>
       </c>
       <c r="Z56">
-        <v>328891.3</v>
+        <v>3651309</v>
       </c>
       <c r="AA56">
         <v>1423734.54</v>
@@ -6275,7 +6275,7 @@
         <v>-6.178732443211232</v>
       </c>
       <c r="Z57">
-        <v>332382.6</v>
+        <v>3701182.8</v>
       </c>
       <c r="AA57">
         <v>1434610.95</v>
@@ -6378,7 +6378,7 @@
         <v>-7.619694015577561</v>
       </c>
       <c r="Z58">
-        <v>336660.8</v>
+        <v>3748968.7</v>
       </c>
       <c r="AA58">
         <v>1432956.2</v>
@@ -6481,7 +6481,7 @@
         <v>-8.030047935645069</v>
       </c>
       <c r="Z59">
-        <v>350937.7</v>
+        <v>3790771.7</v>
       </c>
       <c r="AA59">
         <v>1436288.01</v>
@@ -6584,7 +6584,7 @@
         <v>-7.297538117934577</v>
       </c>
       <c r="Z60">
-        <v>358427.1</v>
+        <v>3841254.4</v>
       </c>
       <c r="AA60">
         <v>1450709.17</v>
@@ -6687,7 +6687,7 @@
         <v>-9.718577281455609</v>
       </c>
       <c r="Z61">
-        <v>348004.9</v>
+        <v>3885847</v>
       </c>
       <c r="AA61">
         <v>1475820.18</v>
@@ -6790,7 +6790,7 @@
         <v>-10.38475998876243</v>
       </c>
       <c r="Z62">
-        <v>327590.9</v>
+        <v>3929048.6</v>
       </c>
       <c r="AA62">
         <v>1476104.91</v>
@@ -6893,7 +6893,7 @@
         <v>-8.585371099370597</v>
       </c>
       <c r="Z63">
-        <v>332322.4</v>
+        <v>3978014.6</v>
       </c>
       <c r="AA63">
         <v>1491400.01</v>
@@ -6996,7 +6996,7 @@
         <v>-8.495950269179852</v>
       </c>
       <c r="Z64">
-        <v>356617.3</v>
+        <v>4015980.2</v>
       </c>
       <c r="AA64">
         <v>1507304.97</v>
@@ -7099,7 +7099,7 @@
         <v>-11.68034194410862</v>
       </c>
       <c r="Z65">
-        <v>354617.8</v>
+        <v>4058947.1</v>
       </c>
       <c r="AA65">
         <v>1518660.03</v>
@@ -7202,7 +7202,7 @@
         <v>-10.27254924666832</v>
       </c>
       <c r="Z66">
-        <v>368272.7</v>
+        <v>4111272.3</v>
       </c>
       <c r="AA66">
         <v>1531599.69</v>
@@ -7305,7 +7305,7 @@
         <v>-11.63407768693601</v>
       </c>
       <c r="Z67">
-        <v>363821.7</v>
+        <v>4158547.4</v>
       </c>
       <c r="AA67">
         <v>1542174.82</v>
@@ -7408,7 +7408,7 @@
         <v>-12.49975159643335</v>
       </c>
       <c r="Z68">
-        <v>367333.1</v>
+        <v>4196989.2</v>
       </c>
       <c r="AA68">
         <v>1545332.34</v>
@@ -7511,7 +7511,7 @@
         <v>-10.59377766216428</v>
       </c>
       <c r="Z69">
-        <v>374887.3</v>
+        <v>4239493.9</v>
       </c>
       <c r="AA69">
         <v>1549401.33</v>
@@ -7614,7 +7614,7 @@
         <v>-5.041808985789221</v>
       </c>
       <c r="Z70">
-        <v>370113.8</v>
+        <v>4272946.9</v>
       </c>
       <c r="AA70">
         <v>1481259.56</v>
@@ -7717,7 +7717,7 @@
         <v>-5.098103688251876</v>
       </c>
       <c r="Z71">
-        <v>383776.1</v>
+        <v>4305785.2</v>
       </c>
       <c r="AA71">
         <v>1534974.06</v>
@@ -7820,7 +7820,7 @@
         <v>-5.488230347732303</v>
       </c>
       <c r="Z72">
-        <v>391538</v>
+        <v>4338896</v>
       </c>
       <c r="AA72">
         <v>1508404.43</v>
@@ -7923,7 +7923,7 @@
         <v>-4.095386363823295</v>
       </c>
       <c r="Z73">
-        <v>385490.9</v>
+        <v>4376382</v>
       </c>
       <c r="AA73">
         <v>1508546.91</v>
@@ -8026,7 +8026,7 @@
         <v>-7.511568088971421</v>
       </c>
       <c r="Z74">
-        <v>364190.6</v>
+        <v>4412981.7</v>
       </c>
       <c r="AA74">
         <v>1544574.63</v>
@@ -8129,7 +8129,7 @@
         <v>-9.317046894137649</v>
       </c>
       <c r="Z75">
-        <v>367525.2</v>
+        <v>4448184.5</v>
       </c>
       <c r="AA75">
         <v>1563593.42</v>
@@ -8232,7 +8232,7 @@
         <v>-5.316075856691382</v>
       </c>
       <c r="Z76">
-        <v>397758.4</v>
+        <v>4489325.6</v>
       </c>
       <c r="AA76">
         <v>1538168.37</v>
@@ -8335,7 +8335,7 @@
         <v>-3.087060128384522</v>
       </c>
       <c r="Z77">
-        <v>385880</v>
+        <v>4520587.8</v>
       </c>
       <c r="AA77">
         <v>1514599.94</v>
@@ -8438,7 +8438,7 @@
         <v>1.888217820710536</v>
       </c>
       <c r="Z78">
-        <v>401862.3</v>
+        <v>4554177.4</v>
       </c>
       <c r="AA78">
         <v>1492214.36</v>
@@ -8541,7 +8541,7 @@
         <v>3.301363793839185</v>
       </c>
       <c r="Z79">
-        <v>395383.3</v>
+        <v>4585739</v>
       </c>
       <c r="AA79">
         <v>1503397.4</v>
@@ -8644,7 +8644,7 @@
         <v>1.67236666735322</v>
       </c>
       <c r="Z80">
-        <v>409021</v>
+        <v>4627426.9</v>
       </c>
       <c r="AA80">
         <v>1504539.2</v>
@@ -8747,7 +8747,7 @@
         <v>2.457692165065861</v>
       </c>
       <c r="Z81">
-        <v>418752</v>
+        <v>4671291.7</v>
       </c>
       <c r="AA81">
         <v>1522821.31</v>
@@ -8850,7 +8850,7 @@
         <v>2.953602481399353</v>
       </c>
       <c r="Z82">
-        <v>402675.8</v>
+        <v>4703853.6</v>
       </c>
       <c r="AA82">
         <v>1534581.04</v>
@@ -8953,7 +8953,7 @@
         <v>2.227383387886328</v>
       </c>
       <c r="Z83">
-        <v>431405.5</v>
+        <v>4751483.1</v>
       </c>
       <c r="AA83">
         <v>1541195.67</v>
@@ -9056,7 +9056,7 @@
         <v>2.590565591479854</v>
       </c>
       <c r="Z84">
-        <v>426600.4</v>
+        <v>4786545.6</v>
       </c>
       <c r="AA84">
         <v>1535545.95</v>
@@ -9159,7 +9159,7 @@
         <v>2.776877398363986</v>
       </c>
       <c r="Z85">
-        <v>413705.3</v>
+        <v>4814760</v>
       </c>
       <c r="AA85">
         <v>1550083.08</v>
@@ -9262,7 +9262,7 @@
         <v>-0.5305363253667927</v>
       </c>
       <c r="Z86">
-        <v>408889.7</v>
+        <v>4859459.1</v>
       </c>
       <c r="AA86">
         <v>1563259.53</v>
@@ -9365,7 +9365,7 @@
         <v>-3.728659369799026</v>
       </c>
       <c r="Z87">
-        <v>398093.6</v>
+        <v>4890027.5</v>
       </c>
       <c r="AA87">
         <v>1593717.75</v>
@@ -9468,7 +9468,7 @@
         <v>-4.833035342824521</v>
       </c>
       <c r="Z88">
-        <v>434630.1</v>
+        <v>4926899.2</v>
       </c>
       <c r="AA88">
         <v>1596279.86</v>
@@ -9571,7 +9571,7 @@
         <v>-4.862697700199292</v>
       </c>
       <c r="Z89">
-        <v>446504.9</v>
+        <v>4987524.1</v>
       </c>
       <c r="AA89">
         <v>1602821.35</v>
@@ -9674,7 +9674,7 @@
         <v>-4.103653176978705</v>
       </c>
       <c r="Z90">
-        <v>441335.2</v>
+        <v>5026997</v>
       </c>
       <c r="AA90">
         <v>1583776.42</v>
@@ -9777,7 +9777,7 @@
         <v>2.098901135269804</v>
       </c>
       <c r="Z91">
-        <v>434739.6</v>
+        <v>5066353.2</v>
       </c>
       <c r="AA91">
         <v>1580271.02</v>
@@ -9880,7 +9880,7 @@
         <v>5.332201034478001</v>
       </c>
       <c r="Z92">
-        <v>452597.5</v>
+        <v>5109929.7</v>
       </c>
       <c r="AA92">
         <v>1573789.35</v>
@@ -9983,7 +9983,7 @@
         <v>10.03432342403963</v>
       </c>
       <c r="Z93">
-        <v>453781.6</v>
+        <v>5144959.4</v>
       </c>
       <c r="AA93">
         <v>1573100.16</v>
@@ -10086,7 +10086,7 @@
         <v>5.886284548399434</v>
       </c>
       <c r="Z94">
-        <v>447755</v>
+        <v>5190038.5</v>
       </c>
       <c r="AA94">
         <v>1635596.72</v>
@@ -10189,7 +10189,7 @@
         <v>1.715206819062498</v>
       </c>
       <c r="Z95">
-        <v>475713.7</v>
+        <v>5234346.7</v>
       </c>
       <c r="AA95">
         <v>1654964.48</v>
@@ -10292,7 +10292,7 @@
         <v>4.839419579430193</v>
       </c>
       <c r="Z96">
-        <v>470325</v>
+        <v>5278071.3</v>
       </c>
       <c r="AA96">
         <v>1614086.67</v>
@@ -10395,7 +10395,7 @@
         <v>5.639643280082751</v>
       </c>
       <c r="Z97">
-        <v>467253</v>
+        <v>5331619</v>
       </c>
       <c r="AA97">
         <v>1626334.87</v>
@@ -10498,7 +10498,7 @@
         <v>4.860880721387617</v>
       </c>
       <c r="Z98">
-        <v>453279.4</v>
+        <v>5376008.7</v>
       </c>
       <c r="AA98">
         <v>1613202.98</v>
@@ -10601,7 +10601,7 @@
         <v>3.420488609747174</v>
       </c>
       <c r="Z99">
-        <v>455502.1</v>
+        <v>5433417.2</v>
       </c>
       <c r="AA99">
         <v>1649536.16</v>
@@ -10704,7 +10704,7 @@
         <v>-0.3566399665777986</v>
       </c>
       <c r="Z100">
-        <v>477200.7</v>
+        <v>5475987.8</v>
       </c>
       <c r="AA100">
         <v>1685681.28</v>
@@ -10807,7 +10807,7 @@
         <v>-5.193838101703552</v>
       </c>
       <c r="Z101">
-        <v>479721.5</v>
+        <v>5509204.3</v>
       </c>
       <c r="AA101">
         <v>1695977.59</v>
@@ -10910,7 +10910,7 @@
         <v>-6.412856113106069</v>
       </c>
       <c r="Z102">
-        <v>481273.9</v>
+        <v>5549143</v>
       </c>
       <c r="AA102">
         <v>1725869.16</v>
@@ -11013,7 +11013,7 @@
         <v>-6.678392995268667</v>
       </c>
       <c r="Z103">
-        <v>461327.5</v>
+        <v>5575730.9</v>
       </c>
       <c r="AA103">
         <v>1755147</v>
@@ -11116,7 +11116,7 @@
         <v>-6.632639022833198</v>
       </c>
       <c r="Z104">
-        <v>486905.3</v>
+        <v>5610038.7</v>
       </c>
       <c r="AA104">
         <v>1772880.41</v>
@@ -11219,7 +11219,7 @@
         <v>-5.695071212967006</v>
       </c>
       <c r="Z105">
-        <v>483778.7</v>
+        <v>5640035.7</v>
       </c>
       <c r="AA105">
         <v>1812495.49</v>
@@ -11322,7 +11322,7 @@
         <v>-5.252072490101634</v>
       </c>
       <c r="Z106">
-        <v>491441.5</v>
+        <v>5683722.3</v>
       </c>
       <c r="AA106">
         <v>1822791.46</v>
@@ -11425,7 +11425,7 @@
         <v>-2.222139495327757</v>
       </c>
       <c r="Z107">
-        <v>508969.4</v>
+        <v>5716978</v>
       </c>
       <c r="AA107">
         <v>1842091.09</v>
@@ -11528,7 +11528,7 @@
         <v>-0.4544541797541379</v>
       </c>
       <c r="Z108">
-        <v>498508.4</v>
+        <v>5745161.4</v>
       </c>
       <c r="AA108">
         <v>1848901.91</v>
@@ -11631,7 +11631,7 @@
         <v>0.8510857927217286</v>
       </c>
       <c r="Z109">
-        <v>501044.7</v>
+        <v>5778953</v>
       </c>
       <c r="AA109">
         <v>1883146.99</v>
@@ -11734,7 +11734,7 @@
         <v>-3.026369440409582</v>
       </c>
       <c r="Z110">
-        <v>474352.3</v>
+        <v>5800025.9</v>
       </c>
       <c r="AA110">
         <v>1885008.87</v>
@@ -11837,7 +11837,7 @@
         <v>2.185456745371317</v>
       </c>
       <c r="Z111">
-        <v>466742.3</v>
+        <v>5811266.1</v>
       </c>
       <c r="AA111">
         <v>1877063.34</v>
@@ -11940,7 +11940,7 @@
         <v>10.19007988772105</v>
       </c>
       <c r="Z112">
-        <v>515559.1</v>
+        <v>5849624.5</v>
       </c>
       <c r="AA112">
         <v>1847658.07</v>
@@ -12043,7 +12043,7 @@
         <v>6.375804253296802</v>
       </c>
       <c r="Z113">
-        <v>497118.1</v>
+        <v>5867021.2</v>
       </c>
       <c r="AA113">
         <v>1897703.27</v>
@@ -12146,7 +12146,7 @@
         <v>6.388958167210745</v>
       </c>
       <c r="Z114">
-        <v>492284.8</v>
+        <v>5878032.1</v>
       </c>
       <c r="AA114">
         <v>1903666.05</v>
@@ -12249,7 +12249,7 @@
         <v>6.916744425704624</v>
       </c>
       <c r="Z115">
-        <v>490562.1</v>
+        <v>5907266.7</v>
       </c>
       <c r="AA115">
         <v>1962809.11</v>
@@ -12352,7 +12352,7 @@
         <v>9.788054415703606</v>
       </c>
       <c r="Z116">
-        <v>507177.1</v>
+        <v>5927538.5</v>
       </c>
       <c r="AA116">
         <v>1950817.79</v>
@@ -12455,7 +12455,7 @@
         <v>17.91416056421728</v>
       </c>
       <c r="Z117">
-        <v>501392.9</v>
+        <v>5945152.7</v>
       </c>
       <c r="AA117">
         <v>1929929.33</v>
@@ -12558,7 +12558,7 @@
         <v>30.08954643450668</v>
       </c>
       <c r="Z118">
-        <v>499658.2</v>
+        <v>5953369.4</v>
       </c>
       <c r="AA118">
         <v>1906018.88</v>
@@ -12661,7 +12661,7 @@
         <v>27.73281345900443</v>
       </c>
       <c r="Z119">
-        <v>521312.9</v>
+        <v>5965712.9</v>
       </c>
       <c r="AA119">
         <v>1972513.56</v>
@@ -12764,7 +12764,7 @@
         <v>21.77763023190786</v>
       </c>
       <c r="Z120">
-        <v>513557</v>
+        <v>5980761.4</v>
       </c>
       <c r="AA120">
         <v>2027509.99</v>
@@ -12867,7 +12867,7 @@
         <v>21.47408823244434</v>
       </c>
       <c r="Z121">
-        <v>516070.2</v>
+        <v>5995787</v>
       </c>
       <c r="AA121">
         <v>2136888</v>
@@ -12970,7 +12970,7 @@
         <v>21.58635499540966</v>
       </c>
       <c r="Z122">
-        <v>481693.6</v>
+        <v>6003128.3</v>
       </c>
       <c r="AA122">
         <v>2121404.93</v>
@@ -13073,7 +13073,7 @@
         <v>18.82915354528982</v>
       </c>
       <c r="Z123">
-        <v>490472.5</v>
+        <v>6026858.5</v>
       </c>
       <c r="AA123">
         <v>2186771.34</v>
@@ -13176,7 +13176,7 @@
         <v>10.92630583781613</v>
       </c>
       <c r="Z124">
-        <v>528153.1</v>
+        <v>6039452.6</v>
       </c>
       <c r="AA124">
         <v>2314842.91</v>
@@ -13279,7 +13279,7 @@
         <v>7.997094463467169</v>
       </c>
       <c r="Z125">
-        <v>520834.3</v>
+        <v>6063168.7</v>
       </c>
       <c r="AA125">
         <v>2356611.04</v>
@@ -13382,7 +13382,7 @@
         <v>6.302938322231699</v>
       </c>
       <c r="Z126">
-        <v>516519.5</v>
+        <v>6087403.4</v>
       </c>
       <c r="AA126">
         <v>2379130.3</v>
@@ -13485,7 +13485,7 @@
         <v>2.261854633758187</v>
       </c>
       <c r="Z127">
-        <v>521717.1</v>
+        <v>6118558.5</v>
       </c>
       <c r="AA127">
         <v>2529703.02</v>
@@ -13588,7 +13588,7 @@
         <v>-3.24931380666833</v>
       </c>
       <c r="Z128">
-        <v>521950.5</v>
+        <v>6133331.9</v>
       </c>
       <c r="AA128">
         <v>2571874.66</v>
@@ -13691,7 +13691,7 @@
         <v>-4.899032020207839</v>
       </c>
       <c r="Z129">
-        <v>530769.9</v>
+        <v>6162708.9</v>
       </c>
       <c r="AA129">
         <v>2638317.45</v>
@@ -13794,7 +13794,7 @@
         <v>-4.309237181560476</v>
       </c>
       <c r="Z130">
-        <v>524451.1</v>
+        <v>6187501.9</v>
       </c>
       <c r="AA130">
         <v>2699869.47</v>
@@ -13897,7 +13897,7 @@
         <v>-7.652754669186357</v>
       </c>
       <c r="Z131">
-        <v>539677.7</v>
+        <v>6205866.7</v>
       </c>
       <c r="AA131">
         <v>2722939.68</v>
@@ -14000,7 +14000,7 @@
         <v>-5.183826056196783</v>
       </c>
       <c r="Z132">
-        <v>546104.7</v>
+        <v>6238414.5</v>
       </c>
       <c r="AA132">
         <v>2744106.91</v>
@@ -14103,7 +14103,7 @@
         <v>-6.732174679395952</v>
       </c>
       <c r="Z133">
-        <v>546983.8</v>
+        <v>6269328</v>
       </c>
       <c r="AA133">
         <v>2892913.46</v>
@@ -14206,7 +14206,7 @@
         <v>-11.30558507221372</v>
       </c>
       <c r="Z134">
-        <v>513809</v>
+        <v>6301443.4</v>
       </c>
       <c r="AA134">
         <v>2927556.63</v>
@@ -14309,7 +14309,7 @@
         <v>-13.10929962203355</v>
       </c>
       <c r="Z135">
-        <v>510855.7</v>
+        <v>6321826.6</v>
       </c>
       <c r="AA135">
         <v>2987815.94</v>
@@ -14412,7 +14412,7 @@
         <v>-12.82491115158944</v>
       </c>
       <c r="Z136">
-        <v>560919.8</v>
+        <v>6354593.3</v>
       </c>
       <c r="AA136">
         <v>3020614.7</v>
@@ -14515,7 +14515,7 @@
         <v>-12.05896596168763</v>
       </c>
       <c r="Z137">
-        <v>537601.8</v>
+        <v>6371360.8</v>
       </c>
       <c r="AA137">
         <v>3025028.72</v>
@@ -14618,7 +14618,7 @@
         <v>-10.14075514063294</v>
       </c>
       <c r="Z138">
-        <v>550968.2</v>
+        <v>6405809.5</v>
       </c>
       <c r="AA138">
         <v>3075139.11</v>
@@ -14721,7 +14721,7 @@
         <v>-7.111713238286055</v>
       </c>
       <c r="Z139">
-        <v>542067.6</v>
+        <v>6426159.9</v>
       </c>
       <c r="AA139">
         <v>3112891.52</v>
@@ -14824,7 +14824,7 @@
         <v>-9.121524204744214</v>
       </c>
       <c r="Z140">
-        <v>548377.8</v>
+        <v>6452587.2</v>
       </c>
       <c r="AA140">
         <v>3206073.41</v>
@@ -14927,7 +14927,7 @@
         <v>-9.554605273304951</v>
       </c>
       <c r="Z141">
-        <v>555963.1</v>
+        <v>6477780.4</v>
       </c>
       <c r="AA141">
         <v>3245655.22</v>
@@ -15030,7 +15030,7 @@
         <v>-9.770913312249741</v>
       </c>
       <c r="Z142">
-        <v>544289.7</v>
+        <v>6497619</v>
       </c>
       <c r="AA142">
         <v>3298061.18</v>
@@ -15133,7 +15133,7 @@
         <v>-9.763871665671731</v>
       </c>
       <c r="Z143">
-        <v>568786.8</v>
+        <v>6526728.1</v>
       </c>
       <c r="AA143">
         <v>3298564.73</v>
@@ -15236,7 +15236,7 @@
         <v>-8.333857713747939</v>
       </c>
       <c r="Z144">
-        <v>574055.9</v>
+        <v>6554679.3</v>
       </c>
       <c r="AA144">
         <v>3333547.33</v>
@@ -15339,7 +15339,7 @@
         <v>-7.692361920731338</v>
       </c>
       <c r="Z145">
-        <v>577783.5</v>
+        <v>6585479</v>
       </c>
       <c r="AA145">
         <v>3382942.2</v>
@@ -15442,7 +15442,7 @@
         <v>-9.458871728942453</v>
       </c>
       <c r="Z146">
-        <v>552723.9</v>
+        <v>6624394</v>
       </c>
       <c r="AA146">
         <v>3406935.83</v>
@@ -15545,7 +15545,7 @@
         <v>-7.666576289816163</v>
       </c>
       <c r="Z147">
-        <v>540123</v>
+        <v>6653661.3</v>
       </c>
       <c r="AA147">
         <v>3431816.32</v>
@@ -15648,7 +15648,7 @@
         <v>-7.459342148204263</v>
       </c>
       <c r="Z148">
-        <v>589613.5</v>
+        <v>6682355</v>
       </c>
       <c r="AA148">
         <v>3463387.26</v>
@@ -15751,7 +15751,7 @@
         <v>-4.127660865859461</v>
       </c>
       <c r="Z149">
-        <v>587792.3</v>
+        <v>6732545.5</v>
       </c>
       <c r="AA149">
         <v>3448113.19</v>
@@ -15854,7 +15854,7 @@
         <v>-1.6479447617754</v>
       </c>
       <c r="Z150">
-        <v>562245.6</v>
+        <v>6743822.8</v>
       </c>
       <c r="AA150">
         <v>3416686.82</v>
@@ -15957,7 +15957,7 @@
         <v>-1.352875210301896</v>
       </c>
       <c r="Z151">
-        <v>584415.9</v>
+        <v>6786171.2</v>
       </c>
       <c r="AA151">
         <v>3440673.55</v>
@@ -16060,7 +16060,7 @@
         <v>-0.9267080455887977</v>
       </c>
       <c r="Z152">
-        <v>592301.8</v>
+        <v>6830095.2</v>
       </c>
       <c r="AA152">
         <v>3503518.19</v>
@@ -16163,7 +16163,7 @@
         <v>0.3519342190114072</v>
       </c>
       <c r="Z153">
-        <v>599093.6</v>
+        <v>6873225.6</v>
       </c>
       <c r="AA153">
         <v>3459099.37</v>
@@ -16266,7 +16266,7 @@
         <v>2.067471019789879</v>
       </c>
       <c r="Z154">
-        <v>576472.5</v>
+        <v>6905408.5</v>
       </c>
       <c r="AA154">
         <v>3543584.89</v>
@@ -16369,7 +16369,7 @@
         <v>-7.156052154270343</v>
       </c>
       <c r="Z155">
-        <v>612061.4</v>
+        <v>6948683.1</v>
       </c>
       <c r="AA155">
         <v>3642499.34</v>
@@ -16472,7 +16472,7 @@
         <v>-7.259013848612394</v>
       </c>
       <c r="Z156">
-        <v>607491.4</v>
+        <v>6982118.5</v>
       </c>
       <c r="AA156">
         <v>3644411.63</v>
@@ -16575,7 +16575,7 @@
         <v>-5.343135203044048</v>
       </c>
       <c r="Z157">
-        <v>599806</v>
+        <v>7004141</v>
       </c>
       <c r="AA157">
         <v>3695837.31</v>
@@ -16678,7 +16678,7 @@
         <v>-8.631641596439311</v>
       </c>
       <c r="Z158">
-        <v>578214.5</v>
+        <v>7029631.6</v>
       </c>
       <c r="AA158">
         <v>3733471.76</v>
@@ -16781,7 +16781,7 @@
         <v>-9.546402178365177</v>
       </c>
       <c r="Z159">
-        <v>576089.7</v>
+        <v>7065598.2</v>
       </c>
       <c r="AA159">
         <v>3752832.97</v>
@@ -16884,7 +16884,7 @@
         <v>-8.190033560826359</v>
       </c>
       <c r="Z160">
-        <v>601749.8</v>
+        <v>7077734.5</v>
       </c>
       <c r="AA160">
         <v>3755155.04</v>
@@ -16987,7 +16987,7 @@
         <v>-7.630762015362135</v>
       </c>
       <c r="Z161">
-        <v>612918.4</v>
+        <v>7102860.6</v>
       </c>
       <c r="AA161">
         <v>3769698.56</v>
@@ -17090,7 +17090,7 @@
         <v>-6.633106976397485</v>
       </c>
       <c r="Z162">
-        <v>615304.9</v>
+        <v>7155920</v>
       </c>
       <c r="AA162">
         <v>3811585.12</v>
@@ -17193,7 +17193,7 @@
         <v>-9.600874046022511</v>
       </c>
       <c r="Z163">
-        <v>596919.2</v>
+        <v>7168423.2</v>
       </c>
       <c r="AA163">
         <v>3859838.72</v>
@@ -17296,7 +17296,7 @@
         <v>-10.68683704370246</v>
       </c>
       <c r="Z164">
-        <v>631911.8</v>
+        <v>7208033.2</v>
       </c>
       <c r="AA164">
         <v>3913722.79</v>
@@ -17399,7 +17399,7 @@
         <v>-8.081864042029762</v>
       </c>
       <c r="Z165">
-        <v>629532.3</v>
+        <v>7238471.9</v>
       </c>
       <c r="AA165">
         <v>3861651.68</v>
@@ -17502,7 +17502,7 @@
         <v>-6.875318265158947</v>
       </c>
       <c r="Z166">
-        <v>619104.3</v>
+        <v>7281103.7</v>
       </c>
       <c r="AA166">
         <v>3907735.44</v>
@@ -17605,7 +17605,7 @@
         <v>-7.777875790098832</v>
       </c>
       <c r="Z167">
-        <v>650359.4</v>
+        <v>7319401.7</v>
       </c>
       <c r="AA167">
         <v>3961846.89</v>
@@ -17708,7 +17708,7 @@
         <v>-7.065169188921406</v>
       </c>
       <c r="Z168">
-        <v>639124.2</v>
+        <v>7351034.6</v>
       </c>
       <c r="AA168">
         <v>3954511.42</v>
@@ -17811,7 +17811,7 @@
         <v>-8.898782504005997</v>
       </c>
       <c r="Z169">
-        <v>637902.4</v>
+        <v>7389131</v>
       </c>
       <c r="AA169">
         <v>4041768.78</v>
@@ -17914,7 +17914,7 @@
         <v>-8.205498231688901</v>
       </c>
       <c r="Z170">
-        <v>615542.8</v>
+        <v>7426459.3</v>
       </c>
       <c r="AA170">
         <v>3949023.95</v>
@@ -18017,7 +18017,7 @@
         <v>-4.713349698497216</v>
       </c>
       <c r="Z171">
-        <v>620048.3</v>
+        <v>7470417.9</v>
       </c>
       <c r="AA171">
         <v>3923142.28</v>
@@ -18120,7 +18120,7 @@
         <v>5.30816276810524</v>
       </c>
       <c r="Z172">
-        <v>637806.9</v>
+        <v>7506475</v>
       </c>
       <c r="AA172">
         <v>3797395.57</v>
@@ -18223,7 +18223,7 @@
         <v>12.87930954193179</v>
       </c>
       <c r="Z173">
-        <v>569278.8</v>
+        <v>7462835.4</v>
       </c>
       <c r="AA173">
         <v>3845300.44</v>
@@ -18326,7 +18326,7 @@
         <v>19.30226994403761</v>
       </c>
       <c r="Z174">
-        <v>579341.2</v>
+        <v>7426871.7</v>
       </c>
       <c r="AA174">
         <v>3983438.99</v>
@@ -18429,7 +18429,7 @@
         <v>10.60153649099382</v>
       </c>
       <c r="Z175">
-        <v>608897.5</v>
+        <v>7438850</v>
       </c>
       <c r="AA175">
         <v>4176167.86</v>
@@ -18532,7 +18532,7 @@
         <v>13.85290733998035</v>
       </c>
       <c r="Z176">
-        <v>645168</v>
+        <v>7452106.2</v>
       </c>
       <c r="AA176">
         <v>4322531.54</v>
@@ -18635,7 +18635,7 @@
         <v>18.99402573214228</v>
       </c>
       <c r="Z177">
-        <v>637698.5</v>
+        <v>7460272.4</v>
       </c>
       <c r="AA177">
         <v>4367482.2</v>
@@ -18738,7 +18738,7 @@
         <v>16.6207579403111</v>
       </c>
       <c r="Z178">
-        <v>646836.2</v>
+        <v>7488004.3</v>
       </c>
       <c r="AA178">
         <v>4432443.19</v>
@@ -18841,7 +18841,7 @@
         <v>20.39109951756357</v>
       </c>
       <c r="Z179">
-        <v>670157</v>
+        <v>7507801.8</v>
       </c>
       <c r="AA179">
         <v>4435610.16</v>
@@ -18944,7 +18944,7 @@
         <v>15.40208257343616</v>
       </c>
       <c r="Z180">
-        <v>676213.4</v>
+        <v>7544891</v>
       </c>
       <c r="AA180">
         <v>4568216.62</v>
@@ -19047,7 +19047,7 @@
         <v>9.262749830428586</v>
       </c>
       <c r="Z181">
-        <v>702608.4</v>
+        <v>7609597</v>
       </c>
       <c r="AA181">
         <v>4670004.31</v>
@@ -19150,7 +19150,7 @@
         <v>13.54490500629149</v>
       </c>
       <c r="Z182">
-        <v>677312.8</v>
+        <v>7671366.9</v>
       </c>
       <c r="AA182">
         <v>4582208.56</v>
@@ -19253,7 +19253,7 @@
         <v>14.3968598547122</v>
       </c>
       <c r="Z183">
-        <v>706456.2</v>
+        <v>7757774.9</v>
       </c>
       <c r="AA183">
         <v>4619592.61</v>
@@ -19356,7 +19356,7 @@
         <v>17.00972332521098</v>
       </c>
       <c r="Z184">
-        <v>768852.8</v>
+        <v>7888820.7</v>
       </c>
       <c r="AA184">
         <v>4622703.9</v>
@@ -19459,7 +19459,7 @@
         <v>15.54369832517941</v>
       </c>
       <c r="Z185">
-        <v>733617.9</v>
+        <v>8053159.9</v>
       </c>
       <c r="AA185">
         <v>4655456.01</v>
@@ -19562,7 +19562,7 @@
         <v>10.00980159659748</v>
       </c>
       <c r="Z186">
-        <v>724321</v>
+        <v>8198139.6</v>
       </c>
       <c r="AA186">
         <v>4730677.54</v>
@@ -19665,7 +19665,7 @@
         <v>4.116013261446883</v>
       </c>
       <c r="Z187">
-        <v>724110</v>
+        <v>8313352.1</v>
       </c>
       <c r="AA187">
         <v>4878735.48</v>
@@ -19768,7 +19768,7 @@
         <v>5.73906501651591</v>
       </c>
       <c r="Z188">
-        <v>754427.1</v>
+        <v>8422611.300000001</v>
       </c>
       <c r="AA188">
         <v>4893317.28</v>
@@ -19871,7 +19871,7 @@
         <v>6.852165280179778</v>
       </c>
       <c r="Z189">
-        <v>753685.9</v>
+        <v>8538598.6</v>
       </c>
       <c r="AA189">
         <v>4918228.96</v>
@@ -19974,7 +19974,7 @@
         <v>5.916152688917431</v>
       </c>
       <c r="Z190">
-        <v>746379.5</v>
+        <v>8638141.9</v>
       </c>
       <c r="AA190">
         <v>4895512.26</v>
@@ -20077,7 +20077,7 @@
         <v>9.682163536551247</v>
       </c>
       <c r="Z191">
-        <v>755392.8</v>
+        <v>8723377.800000001</v>
       </c>
       <c r="AA191">
         <v>4865837.1</v>
@@ -20180,7 +20180,7 @@
         <v>8.526832463664702</v>
       </c>
       <c r="Z192">
-        <v>771540.1</v>
+        <v>8818704.5</v>
       </c>
       <c r="AA192">
         <v>4905588.37</v>
@@ -20283,7 +20283,7 @@
         <v>9.49165346036156</v>
       </c>
       <c r="Z193">
-        <v>782631.4</v>
+        <v>8898727.5</v>
       </c>
       <c r="AA193">
         <v>4966921.42</v>
@@ -20386,7 +20386,7 @@
         <v>6.98870798750626</v>
       </c>
       <c r="Z194">
-        <v>722828.3</v>
+        <v>8944243</v>
       </c>
       <c r="AA194">
         <v>4964732.29</v>
@@ -20489,7 +20489,7 @@
         <v>0.6451145768360034</v>
       </c>
       <c r="Z195">
-        <v>754068.3</v>
+        <v>8991855.1</v>
       </c>
       <c r="AA195">
         <v>5047568.76</v>
@@ -20592,7 +20592,7 @@
         <v>-5.011957813860213</v>
       </c>
       <c r="Z196">
-        <v>838811.9</v>
+        <v>9061814.300000001</v>
       </c>
       <c r="AA196">
         <v>5198239.31</v>
@@ -20695,7 +20695,7 @@
         <v>-10.73467953673312</v>
       </c>
       <c r="Z197">
-        <v>819757.1</v>
+        <v>9147953.5</v>
       </c>
       <c r="AA197">
         <v>5227617.62</v>
@@ -20798,7 +20798,7 @@
         <v>-8.857943715468808</v>
       </c>
       <c r="Z198">
-        <v>826054.6</v>
+        <v>9249687.1</v>
       </c>
       <c r="AA198">
         <v>5338287.55</v>
@@ -20901,7 +20901,7 @@
         <v>-7.577507900150438</v>
       </c>
       <c r="Z199">
-        <v>826025.7</v>
+        <v>9351602.699999999</v>
       </c>
       <c r="AA199">
         <v>5316565.83</v>
@@ -21004,7 +21004,7 @@
         <v>-1.320667004136822</v>
       </c>
       <c r="Z200">
-        <v>852909.9</v>
+        <v>9450085.5</v>
       </c>
       <c r="AA200">
         <v>5331801.65</v>
@@ -21107,7 +21107,7 @@
         <v>-4.791816442904262</v>
       </c>
       <c r="Z201">
-        <v>854027.1</v>
+        <v>9550426.699999999</v>
       </c>
       <c r="AA201">
         <v>5435609.41</v>
@@ -21210,7 +21210,7 @@
         <v>-4.64544483988637</v>
       </c>
       <c r="Z202">
-        <v>836707.8</v>
+        <v>9640755</v>
       </c>
       <c r="AA202">
         <v>5487491.33</v>
@@ -21313,7 +21313,7 @@
         <v>-6.037725200986809</v>
       </c>
       <c r="Z203">
-        <v>856445.6</v>
+        <v>9741807.699999999</v>
       </c>
       <c r="AA203">
         <v>5542541.46</v>
@@ -21416,7 +21416,7 @@
         <v>-5.226463848240314</v>
       </c>
       <c r="Z204">
-        <v>859752.7</v>
+        <v>9830020.4</v>
       </c>
       <c r="AA204">
         <v>5578208.16</v>
@@ -21519,7 +21519,7 @@
         <v>-4.585262708670934</v>
       </c>
       <c r="Z205">
-        <v>867927.4</v>
+        <v>9915316.4</v>
       </c>
       <c r="AA205">
         <v>5658016.87</v>
@@ -21622,7 +21622,7 @@
         <v>-4.025278424845247</v>
       </c>
       <c r="Z206">
-        <v>804202.3</v>
+        <v>9996690.4</v>
       </c>
       <c r="AA206">
         <v>5613859.03</v>
@@ -21725,7 +21725,7 @@
         <v>-5.146743279290544</v>
       </c>
       <c r="Z207">
-        <v>824738.6</v>
+        <v>10067360.7</v>
       </c>
       <c r="AA207">
         <v>5706730.79</v>
@@ -21828,7 +21828,7 @@
         <v>-5.690287430297458</v>
       </c>
       <c r="Z208">
-        <v>927590.5</v>
+        <v>10156139.2</v>
       </c>
       <c r="AA208">
         <v>5788870.98</v>
@@ -21931,7 +21931,7 @@
         <v>-9.00574098382706</v>
       </c>
       <c r="Z209">
-        <v>886228.9</v>
+        <v>10222611</v>
       </c>
       <c r="AA209">
         <v>5826094.39</v>
@@ -22034,7 +22034,7 @@
         <v>-10.71866854471381</v>
       </c>
       <c r="Z210">
-        <v>884231</v>
+        <v>10280787.4</v>
       </c>
       <c r="AA210">
         <v>5935725.65</v>
@@ -22137,7 +22137,7 @@
         <v>-13.7709247487541</v>
       </c>
       <c r="Z211">
-        <v>880696.5</v>
+        <v>10335458.3</v>
       </c>
       <c r="AA211">
         <v>6096513.02</v>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH213"/>
+  <dimension ref="A1:AI213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,6 +535,11 @@
           <t>household_income_deflated_trend_diff_lag</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>consumer_confidence_index_lag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -641,6 +646,9 @@
       <c r="AH2">
         <v>2.755338549710884</v>
       </c>
+      <c r="AI2">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -747,6 +755,9 @@
       <c r="AH3">
         <v>2.489242740852671</v>
       </c>
+      <c r="AI3">
+        <v>93.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -853,6 +864,9 @@
       <c r="AH4">
         <v>2.064600239863745</v>
       </c>
+      <c r="AI4">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -959,6 +973,9 @@
       <c r="AH5">
         <v>1.70738055244759</v>
       </c>
+      <c r="AI5">
+        <v>93</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1065,6 +1082,9 @@
       <c r="AH6">
         <v>1.268676967225102</v>
       </c>
+      <c r="AI6">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1171,6 +1191,9 @@
       <c r="AH7">
         <v>0.9288673026567551</v>
       </c>
+      <c r="AI7">
+        <v>90.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1277,6 +1300,9 @@
       <c r="AH8">
         <v>0.6080113785920549</v>
       </c>
+      <c r="AI8">
+        <v>90.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1383,6 +1409,9 @@
       <c r="AH9">
         <v>0.3102202964087475</v>
       </c>
+      <c r="AI9">
+        <v>91.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1489,6 +1518,9 @@
       <c r="AH10">
         <v>0.0009953897558867553</v>
       </c>
+      <c r="AI10">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1595,6 +1627,9 @@
       <c r="AH11">
         <v>-0.1459482301413018</v>
       </c>
+      <c r="AI11">
+        <v>91.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1701,6 +1736,9 @@
       <c r="AH12">
         <v>-0.2288763941258987</v>
       </c>
+      <c r="AI12">
+        <v>94.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1807,6 +1845,9 @@
       <c r="AH13">
         <v>-0.2902115714840892</v>
       </c>
+      <c r="AI13">
+        <v>96</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1913,6 +1954,9 @@
       <c r="AH14">
         <v>-0.4492606725263859</v>
       </c>
+      <c r="AI14">
+        <v>98.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2019,6 +2063,9 @@
       <c r="AH15">
         <v>-0.6003020566347272</v>
       </c>
+      <c r="AI15">
+        <v>97.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2125,6 +2172,9 @@
       <c r="AH16">
         <v>-0.6510653621383589</v>
       </c>
+      <c r="AI16">
+        <v>98.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2231,6 +2281,9 @@
       <c r="AH17">
         <v>-0.5971534042225612</v>
       </c>
+      <c r="AI17">
+        <v>96</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -2337,6 +2390,9 @@
       <c r="AH18">
         <v>-0.4672747331846749</v>
       </c>
+      <c r="AI18">
+        <v>96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -2443,6 +2499,9 @@
       <c r="AH19">
         <v>-0.3582042551143694</v>
       </c>
+      <c r="AI19">
+        <v>98.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -2549,6 +2608,9 @@
       <c r="AH20">
         <v>-0.3348850506397993</v>
       </c>
+      <c r="AI20">
+        <v>100.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -2655,6 +2717,9 @@
       <c r="AH21">
         <v>-0.3816490585692112</v>
       </c>
+      <c r="AI21">
+        <v>98.59999999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -2761,6 +2826,9 @@
       <c r="AH22">
         <v>-0.4035766102805205</v>
       </c>
+      <c r="AI22">
+        <v>99.40000000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -2867,6 +2935,9 @@
       <c r="AH23">
         <v>-0.4644929856585045</v>
       </c>
+      <c r="AI23">
+        <v>99.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -2973,6 +3044,9 @@
       <c r="AH24">
         <v>-0.5382271666934391</v>
       </c>
+      <c r="AI24">
+        <v>101.6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -3079,6 +3153,9 @@
       <c r="AH25">
         <v>-0.6802625686985531</v>
       </c>
+      <c r="AI25">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -3185,6 +3262,9 @@
       <c r="AH26">
         <v>-0.5962621674728052</v>
       </c>
+      <c r="AI26">
+        <v>109</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -3291,6 +3371,9 @@
       <c r="AH27">
         <v>-0.5889116941841244</v>
       </c>
+      <c r="AI27">
+        <v>104.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -3397,6 +3480,9 @@
       <c r="AH28">
         <v>-0.5750861759136416</v>
       </c>
+      <c r="AI28">
+        <v>105.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -3503,6 +3589,9 @@
       <c r="AH29">
         <v>-0.7840237532056205</v>
       </c>
+      <c r="AI29">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -3609,6 +3698,9 @@
       <c r="AH30">
         <v>-0.9271041148154135</v>
       </c>
+      <c r="AI30">
+        <v>101.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -3715,6 +3807,9 @@
       <c r="AH31">
         <v>-1.031360955041327</v>
       </c>
+      <c r="AI31">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -3821,6 +3916,9 @@
       <c r="AH32">
         <v>-1.065518400303944</v>
       </c>
+      <c r="AI32">
+        <v>97.09999999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -3927,6 +4025,9 @@
       <c r="AH33">
         <v>-1.008508313562817</v>
       </c>
+      <c r="AI33">
+        <v>93.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -4033,6 +4134,9 @@
       <c r="AH34">
         <v>-0.8953433415675893</v>
       </c>
+      <c r="AI34">
+        <v>96.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -4139,6 +4243,9 @@
       <c r="AH35">
         <v>-0.7844524816167153</v>
       </c>
+      <c r="AI35">
+        <v>99.90000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -4245,6 +4352,9 @@
       <c r="AH36">
         <v>-0.7463244996626872</v>
       </c>
+      <c r="AI36">
+        <v>89.59999999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -4351,6 +4461,9 @@
       <c r="AH37">
         <v>-0.7300689301205754</v>
       </c>
+      <c r="AI37">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -4457,6 +4570,9 @@
       <c r="AH38">
         <v>-0.7600766265988934</v>
       </c>
+      <c r="AI38">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -4563,6 +4679,9 @@
       <c r="AH39">
         <v>-0.7502775365315406</v>
       </c>
+      <c r="AI39">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -4669,6 +4788,9 @@
       <c r="AH40">
         <v>-0.7899282471539149</v>
       </c>
+      <c r="AI40">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -4775,6 +4897,9 @@
       <c r="AH41">
         <v>-0.7260563393586272</v>
       </c>
+      <c r="AI41">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -4881,6 +5006,9 @@
       <c r="AH42">
         <v>-0.7126495007186207</v>
       </c>
+      <c r="AI42">
+        <v>88</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -4987,6 +5115,9 @@
       <c r="AH43">
         <v>-0.7570705935171396</v>
       </c>
+      <c r="AI43">
+        <v>90</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -5093,6 +5224,9 @@
       <c r="AH44">
         <v>-0.8719533594241269</v>
       </c>
+      <c r="AI44">
+        <v>94.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -5199,6 +5333,9 @@
       <c r="AH45">
         <v>-0.9533953276020357</v>
       </c>
+      <c r="AI45">
+        <v>96.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -5305,6 +5442,9 @@
       <c r="AH46">
         <v>-1.036326390053699</v>
       </c>
+      <c r="AI46">
+        <v>96.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -5411,6 +5551,9 @@
       <c r="AH47">
         <v>-1.123973487166308</v>
       </c>
+      <c r="AI47">
+        <v>97.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -5517,6 +5660,9 @@
       <c r="AH48">
         <v>-1.243624091336915</v>
       </c>
+      <c r="AI48">
+        <v>97.7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -5623,6 +5769,9 @@
       <c r="AH49">
         <v>-1.330162381756073</v>
       </c>
+      <c r="AI49">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -5729,6 +5878,9 @@
       <c r="AH50">
         <v>-1.385728271850972</v>
       </c>
+      <c r="AI50">
+        <v>97.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -5835,6 +5987,9 @@
       <c r="AH51">
         <v>-1.455523891470401</v>
       </c>
+      <c r="AI51">
+        <v>99.09999999999999</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -5941,6 +6096,9 @@
       <c r="AH52">
         <v>-1.47478526296948</v>
       </c>
+      <c r="AI52">
+        <v>96.3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -6047,6 +6205,9 @@
       <c r="AH53">
         <v>-1.473674008056036</v>
       </c>
+      <c r="AI53">
+        <v>98.90000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -6153,6 +6314,9 @@
       <c r="AH54">
         <v>-1.447529102961143</v>
       </c>
+      <c r="AI54">
+        <v>101.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -6259,6 +6423,9 @@
       <c r="AH55">
         <v>-1.447857340501313</v>
       </c>
+      <c r="AI55">
+        <v>103.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -6365,6 +6532,9 @@
       <c r="AH56">
         <v>-1.458099526702517</v>
       </c>
+      <c r="AI56">
+        <v>105.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -6471,6 +6641,9 @@
       <c r="AH57">
         <v>-1.418468970729947</v>
       </c>
+      <c r="AI57">
+        <v>104.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -6577,6 +6750,9 @@
       <c r="AH58">
         <v>-1.270339309146884</v>
       </c>
+      <c r="AI58">
+        <v>106.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -6683,6 +6859,9 @@
       <c r="AH59">
         <v>-1.046004707695913</v>
       </c>
+      <c r="AI59">
+        <v>107</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -6789,6 +6968,9 @@
       <c r="AH60">
         <v>-0.765683458782096</v>
       </c>
+      <c r="AI60">
+        <v>106</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -6895,6 +7077,9 @@
       <c r="AH61">
         <v>-0.5887167155218087</v>
       </c>
+      <c r="AI61">
+        <v>109.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -7001,6 +7186,9 @@
       <c r="AH62">
         <v>-0.5182345996428084</v>
       </c>
+      <c r="AI62">
+        <v>107</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -7107,6 +7295,9 @@
       <c r="AH63">
         <v>-0.502429958177053</v>
       </c>
+      <c r="AI63">
+        <v>107.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -7213,6 +7404,9 @@
       <c r="AH64">
         <v>-0.4320366999052472</v>
       </c>
+      <c r="AI64">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -7319,6 +7513,9 @@
       <c r="AH65">
         <v>-0.4199044823907094</v>
       </c>
+      <c r="AI65">
+        <v>105.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -7425,6 +7622,9 @@
       <c r="AH66">
         <v>-0.3656820526295679</v>
       </c>
+      <c r="AI66">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -7531,6 +7731,9 @@
       <c r="AH67">
         <v>-0.3102381520765585</v>
       </c>
+      <c r="AI67">
+        <v>102.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -7637,6 +7840,9 @@
       <c r="AH68">
         <v>-0.1363074391904529</v>
       </c>
+      <c r="AI68">
+        <v>104.8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -7743,6 +7949,9 @@
       <c r="AH69">
         <v>0.01808549144066696</v>
       </c>
+      <c r="AI69">
+        <v>109</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -7849,6 +8058,9 @@
       <c r="AH70">
         <v>0.07400022445367416</v>
       </c>
+      <c r="AI70">
+        <v>104.3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -7955,6 +8167,9 @@
       <c r="AH71">
         <v>0.00785725861047748</v>
       </c>
+      <c r="AI71">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -8061,6 +8276,9 @@
       <c r="AH72">
         <v>-0.1759263901662922</v>
       </c>
+      <c r="AI72">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -8167,6 +8385,9 @@
       <c r="AH73">
         <v>-0.2388247436599489</v>
       </c>
+      <c r="AI73">
+        <v>105.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -8273,6 +8494,9 @@
       <c r="AH74">
         <v>-0.2355020242659212</v>
       </c>
+      <c r="AI74">
+        <v>106.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -8379,6 +8603,9 @@
       <c r="AH75">
         <v>-0.1686375426447229</v>
       </c>
+      <c r="AI75">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -8485,6 +8712,9 @@
       <c r="AH76">
         <v>-0.1444929223306968</v>
       </c>
+      <c r="AI76">
+        <v>106.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -8591,6 +8821,9 @@
       <c r="AH77">
         <v>-0.08263703109309128</v>
       </c>
+      <c r="AI77">
+        <v>109.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -8697,6 +8930,9 @@
       <c r="AH78">
         <v>-0.01268881037966851</v>
       </c>
+      <c r="AI78">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -8803,6 +9039,9 @@
       <c r="AH79">
         <v>0.05865377634106661</v>
       </c>
+      <c r="AI79">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -8909,6 +9148,9 @@
       <c r="AH80">
         <v>0.07157011093323895</v>
       </c>
+      <c r="AI80">
+        <v>109.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -9015,6 +9257,9 @@
       <c r="AH81">
         <v>0.07709866444740587</v>
       </c>
+      <c r="AI81">
+        <v>108.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -9121,6 +9366,9 @@
       <c r="AH82">
         <v>0.1164602350923749</v>
       </c>
+      <c r="AI82">
+        <v>107</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -9227,6 +9475,9 @@
       <c r="AH83">
         <v>0.2387697347621565</v>
       </c>
+      <c r="AI83">
+        <v>107.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -9333,6 +9584,9 @@
       <c r="AH84">
         <v>0.4536957677491182</v>
       </c>
+      <c r="AI84">
+        <v>107.9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -9439,6 +9693,9 @@
       <c r="AH85">
         <v>0.6018426503020535</v>
       </c>
+      <c r="AI85">
+        <v>106.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -9545,6 +9802,9 @@
       <c r="AH86">
         <v>0.7275852809113248</v>
       </c>
+      <c r="AI86">
+        <v>105.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -9651,6 +9911,9 @@
       <c r="AH87">
         <v>0.7896123592728177</v>
       </c>
+      <c r="AI87">
+        <v>106</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -9757,6 +10020,9 @@
       <c r="AH88">
         <v>0.8135942400513851</v>
       </c>
+      <c r="AI88">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -9863,6 +10129,9 @@
       <c r="AH89">
         <v>0.8578640412241434</v>
       </c>
+      <c r="AI89">
+        <v>102.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -9969,6 +10238,9 @@
       <c r="AH90">
         <v>0.9141694012494428</v>
       </c>
+      <c r="AI90">
+        <v>103</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -10075,6 +10347,9 @@
       <c r="AH91">
         <v>1.069197066380978</v>
       </c>
+      <c r="AI91">
+        <v>102.7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -10181,6 +10456,9 @@
       <c r="AH92">
         <v>1.256039973778211</v>
       </c>
+      <c r="AI92">
+        <v>102.4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -10287,6 +10565,9 @@
       <c r="AH93">
         <v>1.427432286896058</v>
       </c>
+      <c r="AI93">
+        <v>99.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -10393,6 +10674,9 @@
       <c r="AH94">
         <v>1.570813471294263</v>
       </c>
+      <c r="AI94">
+        <v>102</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -10499,6 +10783,9 @@
       <c r="AH95">
         <v>1.756434740464186</v>
       </c>
+      <c r="AI95">
+        <v>102.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -10605,6 +10892,9 @@
       <c r="AH96">
         <v>1.97373743626823</v>
       </c>
+      <c r="AI96">
+        <v>101.1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -10711,6 +11001,9 @@
       <c r="AH97">
         <v>2.239576515688357</v>
       </c>
+      <c r="AI97">
+        <v>102.1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -10817,6 +11110,9 @@
       <c r="AH98">
         <v>2.48289208064465</v>
       </c>
+      <c r="AI98">
+        <v>100.6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -10923,6 +11219,9 @@
       <c r="AH99">
         <v>2.766097740955242</v>
       </c>
+      <c r="AI99">
+        <v>98.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -11029,6 +11328,9 @@
       <c r="AH100">
         <v>3.055322927783632</v>
       </c>
+      <c r="AI100">
+        <v>97</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -11135,6 +11437,9 @@
       <c r="AH101">
         <v>3.26041980975591</v>
       </c>
+      <c r="AI101">
+        <v>96.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -11241,6 +11546,9 @@
       <c r="AH102">
         <v>3.397832368891307</v>
       </c>
+      <c r="AI102">
+        <v>96.40000000000001</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -11347,6 +11655,9 @@
       <c r="AH103">
         <v>3.415403984662446</v>
       </c>
+      <c r="AI103">
+        <v>92.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -11453,6 +11764,9 @@
       <c r="AH104">
         <v>3.357348774339286</v>
       </c>
+      <c r="AI104">
+        <v>93.40000000000001</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -11559,6 +11873,9 @@
       <c r="AH105">
         <v>3.290714682100138</v>
       </c>
+      <c r="AI105">
+        <v>94.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -11665,6 +11982,9 @@
       <c r="AH106">
         <v>3.296797180426858</v>
       </c>
+      <c r="AI106">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -11771,6 +12091,9 @@
       <c r="AH107">
         <v>3.366196378525665</v>
       </c>
+      <c r="AI107">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -11877,6 +12200,9 @@
       <c r="AH108">
         <v>3.461243008347314</v>
       </c>
+      <c r="AI108">
+        <v>91.40000000000001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -11983,6 +12309,9 @@
       <c r="AH109">
         <v>3.547727595724637</v>
       </c>
+      <c r="AI109">
+        <v>86</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -12089,6 +12418,9 @@
       <c r="AH110">
         <v>3.638147565740391</v>
       </c>
+      <c r="AI110">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -12195,6 +12527,9 @@
       <c r="AH111">
         <v>3.557162840147465</v>
       </c>
+      <c r="AI111">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -12301,6 +12636,9 @@
       <c r="AH112">
         <v>3.360336738840997</v>
       </c>
+      <c r="AI112">
+        <v>76.09999999999999</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -12407,6 +12745,9 @@
       <c r="AH113">
         <v>3.111960167336281</v>
       </c>
+      <c r="AI113">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -12513,6 +12854,9 @@
       <c r="AH114">
         <v>2.811117955853404</v>
       </c>
+      <c r="AI114">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -12619,6 +12963,9 @@
       <c r="AH115">
         <v>2.531745893557802</v>
       </c>
+      <c r="AI115">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -12725,6 +13072,9 @@
       <c r="AH116">
         <v>2.214413690985895</v>
       </c>
+      <c r="AI116">
+        <v>74</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -12831,6 +13181,9 @@
       <c r="AH117">
         <v>1.831791979754405</v>
       </c>
+      <c r="AI117">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -12937,6 +13290,9 @@
       <c r="AH118">
         <v>1.322535269801062</v>
       </c>
+      <c r="AI118">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -13043,6 +13399,9 @@
       <c r="AH119">
         <v>0.6533591576242337</v>
       </c>
+      <c r="AI119">
+        <v>65.09999999999999</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -13149,6 +13508,9 @@
       <c r="AH120">
         <v>0.05436502190396819</v>
       </c>
+      <c r="AI120">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -13255,6 +13617,9 @@
       <c r="AH121">
         <v>-0.3120333325501656</v>
       </c>
+      <c r="AI121">
+        <v>66.09999999999999</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -13361,6 +13726,9 @@
       <c r="AH122">
         <v>-0.3360373031597419</v>
       </c>
+      <c r="AI122">
+        <v>64.90000000000001</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -13467,6 +13835,9 @@
       <c r="AH123">
         <v>-0.383183443592483</v>
       </c>
+      <c r="AI123">
+        <v>65.40000000000001</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -13573,6 +13944,9 @@
       <c r="AH124">
         <v>-0.4891258779980534</v>
       </c>
+      <c r="AI124">
+        <v>67.8</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -13679,6 +14053,9 @@
       <c r="AH125">
         <v>-0.804465751479988</v>
       </c>
+      <c r="AI125">
+        <v>66</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -13785,6 +14162,9 @@
       <c r="AH126">
         <v>-1.041582663923768</v>
       </c>
+      <c r="AI126">
+        <v>65.59999999999999</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -13891,6 +14271,9 @@
       <c r="AH127">
         <v>-1.366459040527512</v>
       </c>
+      <c r="AI127">
+        <v>70.40000000000001</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -13997,6 +14380,9 @@
       <c r="AH128">
         <v>-1.665073153490848</v>
       </c>
+      <c r="AI128">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -14103,6 +14489,9 @@
       <c r="AH129">
         <v>-1.913546509202912</v>
       </c>
+      <c r="AI129">
+        <v>76.7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -14209,6 +14598,9 @@
       <c r="AH130">
         <v>-2.123465579063755</v>
       </c>
+      <c r="AI130">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -14315,6 +14707,9 @@
       <c r="AH131">
         <v>-2.271057356655726</v>
       </c>
+      <c r="AI131">
+        <v>79.90000000000001</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -14421,6 +14816,9 @@
       <c r="AH132">
         <v>-2.478761963257137</v>
       </c>
+      <c r="AI132">
+        <v>80.59999999999999</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -14527,6 +14925,9 @@
       <c r="AH133">
         <v>-2.716907230275467</v>
       </c>
+      <c r="AI133">
+        <v>78.3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -14633,6 +15034,9 @@
       <c r="AH134">
         <v>-2.977833229025961</v>
       </c>
+      <c r="AI134">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -14739,6 +15143,9 @@
       <c r="AH135">
         <v>-3.090249108917431</v>
       </c>
+      <c r="AI135">
+        <v>78.3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -14845,6 +15252,9 @@
       <c r="AH136">
         <v>-3.151918245650409</v>
       </c>
+      <c r="AI136">
+        <v>80.5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -14951,6 +15361,9 @@
       <c r="AH137">
         <v>-3.133476298960314</v>
       </c>
+      <c r="AI137">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -15057,6 +15470,9 @@
       <c r="AH138">
         <v>-3.024912331326235</v>
       </c>
+      <c r="AI138">
+        <v>82.3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -15163,6 +15579,9 @@
       <c r="AH139">
         <v>-2.743140988690185</v>
       </c>
+      <c r="AI139">
+        <v>84</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -15269,6 +15688,9 @@
       <c r="AH140">
         <v>-2.398173354833721</v>
       </c>
+      <c r="AI140">
+        <v>83.09999999999999</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -15375,6 +15797,9 @@
       <c r="AH141">
         <v>-2.100506606186237</v>
       </c>
+      <c r="AI141">
+        <v>82.7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -15481,6 +15906,9 @@
       <c r="AH142">
         <v>-1.867431714765067</v>
       </c>
+      <c r="AI142">
+        <v>81.90000000000001</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -15587,6 +16015,9 @@
       <c r="AH143">
         <v>-1.672149077127782</v>
       </c>
+      <c r="AI143">
+        <v>84.2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -15693,6 +16124,9 @@
       <c r="AH144">
         <v>-1.474886161988576</v>
       </c>
+      <c r="AI144">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -15799,6 +16233,9 @@
       <c r="AH145">
         <v>-1.279300530066108</v>
       </c>
+      <c r="AI145">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -15905,6 +16342,9 @@
       <c r="AH146">
         <v>-1.055581198770827</v>
       </c>
+      <c r="AI146">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -16011,6 +16451,9 @@
       <c r="AH147">
         <v>-0.8303860219373238</v>
       </c>
+      <c r="AI147">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -16117,6 +16560,9 @@
       <c r="AH148">
         <v>-0.672533374355111</v>
       </c>
+      <c r="AI148">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -16223,6 +16669,9 @@
       <c r="AH149">
         <v>-0.5865260468280842</v>
       </c>
+      <c r="AI149">
+        <v>90.8</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -16329,6 +16778,9 @@
       <c r="AH150">
         <v>-0.6378618874566144</v>
       </c>
+      <c r="AI150">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -16435,6 +16887,9 @@
       <c r="AH151">
         <v>-0.7963915110612452</v>
       </c>
+      <c r="AI151">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -16541,6 +16996,9 @@
       <c r="AH152">
         <v>-0.9872223605815966</v>
       </c>
+      <c r="AI152">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -16647,6 +17105,9 @@
       <c r="AH153">
         <v>-1.06356792828507</v>
       </c>
+      <c r="AI153">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -16753,6 +17214,9 @@
       <c r="AH154">
         <v>-0.983509711102093</v>
       </c>
+      <c r="AI154">
+        <v>85</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -16859,6 +17323,9 @@
       <c r="AH155">
         <v>-0.8625201235248903</v>
       </c>
+      <c r="AI155">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -16965,6 +17432,9 @@
       <c r="AH156">
         <v>-0.7894556087903792</v>
       </c>
+      <c r="AI156">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -17071,6 +17541,9 @@
       <c r="AH157">
         <v>-0.8177258875071369</v>
       </c>
+      <c r="AI157">
+        <v>93</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -17177,6 +17650,9 @@
       <c r="AH158">
         <v>-0.9096034078683646</v>
       </c>
+      <c r="AI158">
+        <v>93</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -17283,6 +17759,9 @@
       <c r="AH159">
         <v>-1.016372721424097</v>
       </c>
+      <c r="AI159">
+        <v>95.3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -17389,6 +17868,9 @@
       <c r="AH160">
         <v>-1.097606058965639</v>
       </c>
+      <c r="AI160">
+        <v>94.5</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -17495,6 +17977,9 @@
       <c r="AH161">
         <v>-1.15308647414899</v>
       </c>
+      <c r="AI161">
+        <v>90.90000000000001</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -17601,6 +18086,9 @@
       <c r="AH162">
         <v>-1.215666611109656</v>
       </c>
+      <c r="AI162">
+        <v>89.7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -17707,6 +18195,9 @@
       <c r="AH163">
         <v>-1.245041855519013</v>
       </c>
+      <c r="AI163">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -17813,6 +18304,9 @@
       <c r="AH164">
         <v>-1.394407918687612</v>
       </c>
+      <c r="AI164">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -17919,6 +18413,9 @@
       <c r="AH165">
         <v>-1.412167050959467</v>
       </c>
+      <c r="AI165">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -18025,6 +18522,9 @@
       <c r="AH166">
         <v>-1.477929643210041</v>
       </c>
+      <c r="AI166">
+        <v>90.59999999999999</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -18131,6 +18631,9 @@
       <c r="AH167">
         <v>-1.283418215896015</v>
       </c>
+      <c r="AI167">
+        <v>89.90000000000001</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -18237,6 +18740,9 @@
       <c r="AH168">
         <v>-1.032561464169146</v>
       </c>
+      <c r="AI168">
+        <v>89.59999999999999</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -18343,6 +18849,9 @@
       <c r="AH169">
         <v>-0.6976227584927996</v>
       </c>
+      <c r="AI169">
+        <v>89.59999999999999</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -18449,6 +18958,9 @@
       <c r="AH170">
         <v>-0.2430471564587533</v>
       </c>
+      <c r="AI170">
+        <v>91.59999999999999</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -18555,6 +19067,9 @@
       <c r="AH171">
         <v>0.1300773551482948</v>
       </c>
+      <c r="AI171">
+        <v>90.40000000000001</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -18661,6 +19176,9 @@
       <c r="AH172">
         <v>0.4932686645988227</v>
       </c>
+      <c r="AI172">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -18767,6 +19285,9 @@
       <c r="AH173">
         <v>0.5229926214565417</v>
       </c>
+      <c r="AI173">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -18873,6 +19394,9 @@
       <c r="AH174">
         <v>0.66459241092649</v>
       </c>
+      <c r="AI174">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -18979,6 +19503,9 @@
       <c r="AH175">
         <v>1.094642706556881</v>
       </c>
+      <c r="AI175">
+        <v>62.1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -19085,6 +19612,9 @@
       <c r="AH176">
         <v>2.059679789780966</v>
       </c>
+      <c r="AI176">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -19191,6 +19721,9 @@
       <c r="AH177">
         <v>3.068478224239857</v>
       </c>
+      <c r="AI177">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -19297,6 +19830,9 @@
       <c r="AH178">
         <v>4.01363484224444</v>
       </c>
+      <c r="AI178">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -19403,6 +19939,9 @@
       <c r="AH179">
         <v>4.494827982741545</v>
       </c>
+      <c r="AI179">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -19509,6 +20048,9 @@
       <c r="AH180">
         <v>4.626565600366739</v>
       </c>
+      <c r="AI180">
+        <v>82.40000000000001</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -19615,6 +20157,9 @@
       <c r="AH181">
         <v>4.323387156185121</v>
       </c>
+      <c r="AI181">
+        <v>81.7</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -19721,6 +20266,9 @@
       <c r="AH182">
         <v>3.780328930999399</v>
       </c>
+      <c r="AI182">
+        <v>78.5</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -19827,6 +20375,9 @@
       <c r="AH183">
         <v>3.195667419629955</v>
       </c>
+      <c r="AI183">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -19933,6 +20484,9 @@
       <c r="AH184">
         <v>2.73857192186131</v>
       </c>
+      <c r="AI184">
+        <v>78</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -20039,6 +20593,9 @@
       <c r="AH185">
         <v>2.561327287284088</v>
       </c>
+      <c r="AI185">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -20145,6 +20702,9 @@
       <c r="AH186">
         <v>2.443403204728356</v>
       </c>
+      <c r="AI186">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -20251,6 +20811,9 @@
       <c r="AH187">
         <v>2.045553948223389</v>
       </c>
+      <c r="AI187">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -20357,6 +20920,9 @@
       <c r="AH188">
         <v>1.432284855469135</v>
       </c>
+      <c r="AI188">
+        <v>80.90000000000001</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -20463,6 +21029,9 @@
       <c r="AH189">
         <v>0.7016484890661978</v>
       </c>
+      <c r="AI189">
+        <v>82.2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -20569,6 +21138,9 @@
       <c r="AH190">
         <v>-0.1007831107786572</v>
       </c>
+      <c r="AI190">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -20675,6 +21247,9 @@
       <c r="AH191">
         <v>-1.042039914479531</v>
       </c>
+      <c r="AI191">
+        <v>75.3</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -20781,6 +21356,9 @@
       <c r="AH192">
         <v>-1.952578869641464</v>
       </c>
+      <c r="AI192">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -20887,6 +21465,9 @@
       <c r="AH193">
         <v>-2.632856164454722</v>
       </c>
+      <c r="AI193">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -20993,6 +21574,9 @@
       <c r="AH194">
         <v>-3.141171781514329</v>
       </c>
+      <c r="AI194">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -21099,6 +21683,9 @@
       <c r="AH195">
         <v>-3.526063814754743</v>
       </c>
+      <c r="AI195">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -21205,6 +21792,9 @@
       <c r="AH196">
         <v>-3.753806948989991</v>
       </c>
+      <c r="AI196">
+        <v>77.90000000000001</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -21311,6 +21901,9 @@
       <c r="AH197">
         <v>-3.755548425571664</v>
       </c>
+      <c r="AI197">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -21417,6 +22010,9 @@
       <c r="AH198">
         <v>-3.703552659000786</v>
       </c>
+      <c r="AI198">
+        <v>78.59999999999999</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -21523,6 +22119,9 @@
       <c r="AH199">
         <v>-3.426164065041071</v>
       </c>
+      <c r="AI199">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -21629,6 +22228,9 @@
       <c r="AH200">
         <v>-3.243639209937066</v>
       </c>
+      <c r="AI200">
+        <v>79</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -21735,6 +22337,9 @@
       <c r="AH201">
         <v>-3.078983643435129</v>
       </c>
+      <c r="AI201">
+        <v>79.5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -21841,6 +22446,9 @@
       <c r="AH202">
         <v>-2.863604502004014</v>
       </c>
+      <c r="AI202">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -21947,6 +22555,9 @@
       <c r="AH203">
         <v>-2.387840124914586</v>
       </c>
+      <c r="AI203">
+        <v>89</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -22053,6 +22664,9 @@
       <c r="AH204">
         <v>-1.705584229064538</v>
       </c>
+      <c r="AI204">
+        <v>88.59999999999999</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -22159,6 +22773,9 @@
       <c r="AH205">
         <v>-0.9520216626912603</v>
       </c>
+      <c r="AI205">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -22265,6 +22882,9 @@
       <c r="AH206">
         <v>-0.1752558763549406</v>
       </c>
+      <c r="AI206">
+        <v>88</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -22371,6 +22991,9 @@
       <c r="AH207">
         <v>0.6095941687840556</v>
       </c>
+      <c r="AI207">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -22477,6 +23100,9 @@
       <c r="AH208">
         <v>1.236760493739264</v>
       </c>
+      <c r="AI208">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -22583,6 +23209,9 @@
       <c r="AH209">
         <v>1.765435512307345</v>
       </c>
+      <c r="AI209">
+        <v>87</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -22689,6 +23318,9 @@
       <c r="AH210">
         <v>2.126456892018913</v>
       </c>
+      <c r="AI210">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -22795,6 +23427,9 @@
       <c r="AH211">
         <v>2.330644433005147</v>
       </c>
+      <c r="AI211">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -22901,6 +23536,9 @@
       <c r="AH212">
         <v>2.5745515883703</v>
       </c>
+      <c r="AI212">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -23006,6 +23644,9 @@
       </c>
       <c r="AH213">
         <v>3.042302915619777</v>
+      </c>
+      <c r="AI213">
+        <v>94.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE213"/>
+  <dimension ref="A1:AE214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,22 +573,22 @@
         <v>11.30558183538315</v>
       </c>
       <c r="Q2">
-        <v>3737681.037865287</v>
+        <v>3745246.970792329</v>
       </c>
       <c r="R2">
-        <v>3668878.155311643</v>
+        <v>3676311.421440727</v>
       </c>
       <c r="S2">
-        <v>1.875311188899387</v>
+        <v>1.8751281229757</v>
       </c>
       <c r="T2">
         <v>100.68</v>
       </c>
       <c r="U2">
-        <v>98.40491508705871</v>
+        <v>98.40567146911205</v>
       </c>
       <c r="V2">
-        <v>2.311962680856472</v>
+        <v>2.311176273617344</v>
       </c>
       <c r="W2">
         <v>2190643.1</v>
@@ -609,10 +609,10 @@
         <v>0.4654</v>
       </c>
       <c r="AC2">
-        <v>2.145932633629899</v>
+        <v>2.145091634584029</v>
       </c>
       <c r="AD2">
-        <v>2.009936600321405</v>
+        <v>2.011677725366612</v>
       </c>
       <c r="AE2">
         <v>88.7</v>
@@ -670,22 +670,22 @@
         <v>11.15534072599755</v>
       </c>
       <c r="Q3">
-        <v>3743544.84378103</v>
+        <v>3751121.560083637</v>
       </c>
       <c r="R3">
-        <v>3694953.072412763</v>
+        <v>3702449.92516587</v>
       </c>
       <c r="S3">
-        <v>1.315084939266553</v>
+        <v>1.314579154384821</v>
       </c>
       <c r="T3">
         <v>95.44</v>
       </c>
       <c r="U3">
-        <v>98.02960399051015</v>
+        <v>98.0303034533666</v>
       </c>
       <c r="V3">
-        <v>-2.641655056324455</v>
+        <v>-2.642349724642867</v>
       </c>
       <c r="W3">
         <v>2207671.2</v>
@@ -706,10 +706,10 @@
         <v>0.4668</v>
       </c>
       <c r="AC3">
-        <v>2.311962680856472</v>
+        <v>2.311176273617344</v>
       </c>
       <c r="AD3">
-        <v>1.875311188899387</v>
+        <v>1.8751281229757</v>
       </c>
       <c r="AE3">
         <v>93.3</v>
@@ -767,22 +767,22 @@
         <v>10.84314470186101</v>
       </c>
       <c r="Q4">
-        <v>3752327.551540879</v>
+        <v>3759979.288343356</v>
       </c>
       <c r="R4">
-        <v>3721029.650308455</v>
+        <v>3728590.093975915</v>
       </c>
       <c r="S4">
-        <v>0.8411086224435094</v>
+        <v>0.8418515732838472</v>
       </c>
       <c r="T4">
         <v>95.29000000000001</v>
       </c>
       <c r="U4">
-        <v>97.65434316093561</v>
+        <v>97.65498568620802</v>
       </c>
       <c r="V4">
-        <v>-2.421134671951186</v>
+        <v>-2.421776696386357</v>
       </c>
       <c r="W4">
         <v>2225144.6</v>
@@ -803,10 +803,10 @@
         <v>0.4638</v>
       </c>
       <c r="AC4">
-        <v>-2.641655056324455</v>
+        <v>-2.642349724642867</v>
       </c>
       <c r="AD4">
-        <v>1.315084939266553</v>
+        <v>1.314579154384821</v>
       </c>
       <c r="AE4">
         <v>92.8</v>
@@ -864,22 +864,22 @@
         <v>11.04845646564083</v>
       </c>
       <c r="Q5">
-        <v>3765904.21916499</v>
+        <v>3773571.4123274</v>
       </c>
       <c r="R5">
-        <v>3747109.35977573</v>
+        <v>3754733.401921101</v>
       </c>
       <c r="S5">
-        <v>0.5015828892270369</v>
+        <v>0.5017136608596706</v>
       </c>
       <c r="T5">
         <v>95.14</v>
       </c>
       <c r="U5">
-        <v>97.2791465276436</v>
+        <v>97.27973207943606</v>
       </c>
       <c r="V5">
-        <v>-2.198977482841846</v>
+        <v>-2.199566172415868</v>
       </c>
       <c r="W5">
         <v>2235812.9</v>
@@ -900,10 +900,10 @@
         <v>0.4638</v>
       </c>
       <c r="AC5">
-        <v>-2.421134671951186</v>
+        <v>-2.421776696386357</v>
       </c>
       <c r="AD5">
-        <v>0.8411086224435094</v>
+        <v>0.8418515732838472</v>
       </c>
       <c r="AE5">
         <v>93</v>
@@ -961,22 +961,22 @@
         <v>11.00450925837091</v>
       </c>
       <c r="Q6">
-        <v>3786602.513195418</v>
+        <v>3794289.295574054</v>
       </c>
       <c r="R6">
-        <v>3773193.913087754</v>
+        <v>3780881.565252244</v>
       </c>
       <c r="S6">
-        <v>0.3553647232694468</v>
+        <v>0.3546191566811352</v>
       </c>
       <c r="T6">
         <v>99.31</v>
       </c>
       <c r="U6">
-        <v>96.90400977655405</v>
+        <v>96.90453829650406</v>
       </c>
       <c r="V6">
-        <v>2.48285930478398</v>
+        <v>2.482300360521639</v>
       </c>
       <c r="W6">
         <v>2256419.1</v>
@@ -997,10 +997,10 @@
         <v>0.4559</v>
       </c>
       <c r="AC6">
-        <v>-2.198977482841846</v>
+        <v>-2.199566172415868</v>
       </c>
       <c r="AD6">
-        <v>0.5015828892270369</v>
+        <v>0.5017136608596706</v>
       </c>
       <c r="AE6">
         <v>91.8</v>
@@ -1058,22 +1058,22 @@
         <v>10.71806209747188</v>
       </c>
       <c r="Q7">
-        <v>3811099.632782334</v>
+        <v>3818831.166582901</v>
       </c>
       <c r="R7">
-        <v>3799285.167539752</v>
+        <v>3807036.445575176</v>
       </c>
       <c r="S7">
-        <v>0.3109654769671621</v>
+        <v>0.3098137140618462</v>
       </c>
       <c r="T7">
         <v>102.35</v>
       </c>
       <c r="U7">
-        <v>96.5289120878266</v>
+        <v>96.52938349058701</v>
       </c>
       <c r="V7">
-        <v>6.030408699599854</v>
+        <v>6.029890898433621</v>
       </c>
       <c r="W7">
         <v>2271564</v>
@@ -1094,10 +1094,10 @@
         <v>0.4621</v>
       </c>
       <c r="AC7">
-        <v>2.48285930478398</v>
+        <v>2.482300360521639</v>
       </c>
       <c r="AD7">
-        <v>0.3553647232694468</v>
+        <v>0.3546191566811352</v>
       </c>
       <c r="AE7">
         <v>90.7</v>
@@ -1155,22 +1155,22 @@
         <v>10.58959315187071</v>
       </c>
       <c r="Q8">
-        <v>3838057.959153361</v>
+        <v>3845856.579790197</v>
       </c>
       <c r="R8">
-        <v>3825385.083888374</v>
+        <v>3833200.007950441</v>
       </c>
       <c r="S8">
-        <v>0.3312836482361581</v>
+        <v>0.3301829232365883</v>
       </c>
       <c r="T8">
         <v>100.12</v>
       </c>
       <c r="U8">
-        <v>96.15385120636034</v>
+        <v>96.15426537552118</v>
       </c>
       <c r="V8">
-        <v>4.124794528643183</v>
+        <v>4.124346027699377</v>
       </c>
       <c r="W8">
         <v>2293390.2</v>
@@ -1191,10 +1191,10 @@
         <v>0.4569</v>
       </c>
       <c r="AC8">
-        <v>6.030408699599854</v>
+        <v>6.029890898433621</v>
       </c>
       <c r="AD8">
-        <v>0.3109654769671621</v>
+        <v>0.3098137140618462</v>
       </c>
       <c r="AE8">
         <v>90.7</v>
@@ -1252,22 +1252,22 @@
         <v>10.41987673343607</v>
       </c>
       <c r="Q9">
-        <v>3865109.799713153</v>
+        <v>3872965.434604204</v>
       </c>
       <c r="R9">
-        <v>3851495.714051263</v>
+        <v>3859374.308447228</v>
       </c>
       <c r="S9">
-        <v>0.3534752904494232</v>
+        <v>0.3521587975343188</v>
       </c>
       <c r="T9">
         <v>99.2</v>
       </c>
       <c r="U9">
-        <v>95.77886979285611</v>
+        <v>95.77922657730727</v>
       </c>
       <c r="V9">
-        <v>3.571904966662132</v>
+        <v>3.571519153928104</v>
       </c>
       <c r="W9">
         <v>2315471.6</v>
@@ -1288,10 +1288,10 @@
         <v>0.4558</v>
       </c>
       <c r="AC9">
-        <v>4.124794528643183</v>
+        <v>4.124346027699377</v>
       </c>
       <c r="AD9">
-        <v>0.3312836482361581</v>
+        <v>0.3301829232365883</v>
       </c>
       <c r="AE9">
         <v>91.2</v>
@@ -1349,22 +1349,22 @@
         <v>10.09643201542914</v>
       </c>
       <c r="Q10">
-        <v>3902325.098233307</v>
+        <v>3910254.948117658</v>
       </c>
       <c r="R10">
-        <v>3877619.207730596</v>
+        <v>3885561.500793463</v>
       </c>
       <c r="S10">
-        <v>0.6371407087486958</v>
+        <v>0.635518118015943</v>
       </c>
       <c r="T10">
         <v>99.14</v>
       </c>
       <c r="U10">
-        <v>95.40404111101336</v>
+        <v>95.40434032175042</v>
       </c>
       <c r="V10">
-        <v>3.915933586753884</v>
+        <v>3.915607681632816</v>
       </c>
       <c r="W10">
         <v>2336552.6</v>
@@ -1385,10 +1385,10 @@
         <v>0.4534</v>
       </c>
       <c r="AC10">
-        <v>3.571904966662132</v>
+        <v>3.571519153928104</v>
       </c>
       <c r="AD10">
-        <v>0.3534752904494232</v>
+        <v>0.3521587975343188</v>
       </c>
       <c r="AE10">
         <v>91.8</v>
@@ -1446,22 +1446,22 @@
         <v>10.35250823164826</v>
       </c>
       <c r="Q11">
-        <v>3927988.814913248</v>
+        <v>3935967.340017818</v>
       </c>
       <c r="R11">
-        <v>3903757.819675507</v>
+        <v>3911763.843586875</v>
       </c>
       <c r="S11">
-        <v>0.6207094896003351</v>
+        <v>0.6187361353785281</v>
       </c>
       <c r="T11">
         <v>97.72</v>
       </c>
       <c r="U11">
-        <v>95.02946482214384</v>
+        <v>95.02970622951196</v>
       </c>
       <c r="V11">
-        <v>2.831264158849822</v>
+        <v>2.831002932904525</v>
       </c>
       <c r="W11">
         <v>2362641.2</v>
@@ -1482,10 +1482,10 @@
         <v>0.4544</v>
       </c>
       <c r="AC11">
-        <v>3.915933586753884</v>
+        <v>3.915607681632816</v>
       </c>
       <c r="AD11">
-        <v>0.6371407087486958</v>
+        <v>0.635518118015943</v>
       </c>
       <c r="AE11">
         <v>91.5</v>
@@ -1543,22 +1543,22 @@
         <v>10.31838477965443</v>
       </c>
       <c r="Q12">
-        <v>3945168.804544919</v>
+        <v>3953181.805163076</v>
       </c>
       <c r="R12">
-        <v>3929913.995267002</v>
+        <v>3937983.785961045</v>
       </c>
       <c r="S12">
-        <v>0.3881715807594999</v>
+        <v>0.3859340217756024</v>
       </c>
       <c r="T12">
         <v>98.62</v>
       </c>
       <c r="U12">
-        <v>94.65526941440125</v>
+        <v>94.65545274578798</v>
       </c>
       <c r="V12">
-        <v>4.188599969264417</v>
+        <v>4.188398173805608</v>
       </c>
       <c r="W12">
         <v>2387208</v>
@@ -1579,10 +1579,10 @@
         <v>0.4494</v>
       </c>
       <c r="AC12">
-        <v>2.831264158849822</v>
+        <v>2.831002932904525</v>
       </c>
       <c r="AD12">
-        <v>0.6207094896003351</v>
+        <v>0.6187361353785281</v>
       </c>
       <c r="AE12">
         <v>94.3</v>
@@ -1640,22 +1640,22 @@
         <v>9.74403723094821</v>
       </c>
       <c r="Q13">
-        <v>3960649.702261783</v>
+        <v>3968693.10801109</v>
       </c>
       <c r="R13">
-        <v>3956090.366853642</v>
+        <v>3964223.963804936</v>
       </c>
       <c r="S13">
-        <v>0.1152485152094096</v>
+        <v>0.112736925233281</v>
       </c>
       <c r="T13">
         <v>99.29000000000001</v>
       </c>
       <c r="U13">
-        <v>94.28160413624167</v>
+        <v>94.28172907421418</v>
       </c>
       <c r="V13">
-        <v>5.312166577608246</v>
+        <v>5.312027022588373</v>
       </c>
       <c r="W13">
         <v>2409449.9</v>
@@ -1676,10 +1676,10 @@
         <v>0.45</v>
       </c>
       <c r="AC13">
-        <v>4.188599969264417</v>
+        <v>4.188398173805608</v>
       </c>
       <c r="AD13">
-        <v>0.3881715807594999</v>
+        <v>0.3859340217756024</v>
       </c>
       <c r="AE13">
         <v>96</v>
@@ -1737,22 +1737,22 @@
         <v>9.845616079230979</v>
       </c>
       <c r="Q14">
-        <v>3978007.846214812</v>
+        <v>3986089.332593596</v>
       </c>
       <c r="R14">
-        <v>3982289.684490848</v>
+        <v>3990487.13027617</v>
       </c>
       <c r="S14">
-        <v>-0.1075220191215975</v>
+        <v>-0.1102070383639853</v>
       </c>
       <c r="T14">
         <v>97.84999999999999</v>
       </c>
       <c r="U14">
-        <v>93.908648828178</v>
+        <v>93.90871500906864</v>
       </c>
       <c r="V14">
-        <v>4.19700551653488</v>
+        <v>4.196932085111316</v>
       </c>
       <c r="W14">
         <v>2434411.5</v>
@@ -1773,10 +1773,10 @@
         <v>0.4529</v>
       </c>
       <c r="AC14">
-        <v>5.312166577608246</v>
+        <v>5.312027022588373</v>
       </c>
       <c r="AD14">
-        <v>0.1152485152094096</v>
+        <v>0.112736925233281</v>
       </c>
       <c r="AE14">
         <v>98.3</v>
@@ -1834,22 +1834,22 @@
         <v>9.619491360900788</v>
       </c>
       <c r="Q15">
-        <v>3999619.222650904</v>
+        <v>4007762.576782244</v>
       </c>
       <c r="R15">
-        <v>4008514.733414098</v>
+        <v>4016776.073016512</v>
       </c>
       <c r="S15">
-        <v>-0.2219153815013697</v>
+        <v>-0.2243962837465086</v>
       </c>
       <c r="T15">
         <v>95.84999999999999</v>
       </c>
       <c r="U15">
-        <v>93.53662197575308</v>
+        <v>93.53662898869533</v>
       </c>
       <c r="V15">
-        <v>2.473232382549151</v>
+        <v>2.473224699581866</v>
       </c>
       <c r="W15">
         <v>2458966.9</v>
@@ -1870,10 +1870,10 @@
         <v>0.4529</v>
       </c>
       <c r="AC15">
-        <v>4.19700551653488</v>
+        <v>4.196932085111316</v>
       </c>
       <c r="AD15">
-        <v>-0.1075220191215975</v>
+        <v>-0.1102070383639853</v>
       </c>
       <c r="AE15">
         <v>97.5</v>
@@ -1931,22 +1931,22 @@
         <v>9.498834498834485</v>
       </c>
       <c r="Q16">
-        <v>4024836.882581967</v>
+        <v>4033013.065895785</v>
       </c>
       <c r="R16">
-        <v>4034768.26582</v>
+        <v>4043093.545734099</v>
       </c>
       <c r="S16">
-        <v>-0.2461450716306435</v>
+        <v>-0.2493259115646795</v>
       </c>
       <c r="T16">
         <v>96.14</v>
       </c>
       <c r="U16">
-        <v>93.16577247616999</v>
+        <v>93.16571986258751</v>
       </c>
       <c r="V16">
-        <v>3.192403652951792</v>
+        <v>3.19246192891478</v>
       </c>
       <c r="W16">
         <v>2486602.5</v>
@@ -1967,10 +1967,10 @@
         <v>0.452</v>
       </c>
       <c r="AC16">
-        <v>2.473232382549151</v>
+        <v>2.473224699581866</v>
       </c>
       <c r="AD16">
-        <v>-0.2219153815013697</v>
+        <v>-0.2243962837465086</v>
       </c>
       <c r="AE16">
         <v>98.5</v>
@@ -2028,22 +2028,22 @@
         <v>9.300970873786408</v>
       </c>
       <c r="Q17">
-        <v>4053212.913050212</v>
+        <v>4061438.053898397</v>
       </c>
       <c r="R17">
-        <v>4061052.965266956</v>
+        <v>4069442.232588491</v>
       </c>
       <c r="S17">
-        <v>-0.1930546654722032</v>
+        <v>-0.196689822157825</v>
       </c>
       <c r="T17">
         <v>94.59</v>
       </c>
       <c r="U17">
-        <v>92.79636707677076</v>
+        <v>92.79625433032382</v>
       </c>
       <c r="V17">
-        <v>1.932869766060308</v>
+        <v>1.932993613396339</v>
       </c>
       <c r="W17">
         <v>2516940.7</v>
@@ -2064,10 +2064,10 @@
         <v>0.4476</v>
       </c>
       <c r="AC17">
-        <v>3.192403652951792</v>
+        <v>3.19246192891478</v>
       </c>
       <c r="AD17">
-        <v>-0.2461450716306435</v>
+        <v>-0.2493259115646795</v>
       </c>
       <c r="AE17">
         <v>96</v>
@@ -2125,22 +2125,22 @@
         <v>8.964915681333597</v>
       </c>
       <c r="Q18">
-        <v>4079264.111417312</v>
+        <v>4087533.571650864</v>
       </c>
       <c r="R18">
-        <v>4087371.438682328</v>
+        <v>4095824.739957761</v>
       </c>
       <c r="S18">
-        <v>-0.1983506365066168</v>
+        <v>-0.2024297628267724</v>
       </c>
       <c r="T18">
         <v>92.5</v>
       </c>
       <c r="U18">
-        <v>92.42869547418415</v>
+        <v>92.42852204117503</v>
       </c>
       <c r="V18">
-        <v>0.07714544217034547</v>
+        <v>0.07733322706722223</v>
       </c>
       <c r="W18">
         <v>2545742</v>
@@ -2161,10 +2161,10 @@
         <v>0.4397</v>
       </c>
       <c r="AC18">
-        <v>1.932869766060308</v>
+        <v>1.932993613396339</v>
       </c>
       <c r="AD18">
-        <v>-0.1930546654722032</v>
+        <v>-0.196689822157825</v>
       </c>
       <c r="AE18">
         <v>96</v>
@@ -2222,22 +2222,22 @@
         <v>8.043205709325886</v>
       </c>
       <c r="Q19">
-        <v>4102776.883075326</v>
+        <v>4111119.594201765</v>
       </c>
       <c r="R19">
-        <v>4113726.232499245</v>
+        <v>4122243.612459348</v>
       </c>
       <c r="S19">
-        <v>-0.2661662153746747</v>
+        <v>-0.2698534900742233</v>
       </c>
       <c r="T19">
         <v>90.12</v>
       </c>
       <c r="U19">
-        <v>92.06306120479894</v>
+        <v>92.06282648504234</v>
       </c>
       <c r="V19">
-        <v>-2.110576358607608</v>
+        <v>-2.110326783588368</v>
       </c>
       <c r="W19">
         <v>2575280.3</v>
@@ -2258,10 +2258,10 @@
         <v>0.4342</v>
       </c>
       <c r="AC19">
-        <v>0.07714544217034547</v>
+        <v>0.07733322706722223</v>
       </c>
       <c r="AD19">
-        <v>-0.1983506365066168</v>
+        <v>-0.2024297628267724</v>
       </c>
       <c r="AE19">
         <v>98.7</v>
@@ -2319,22 +2319,22 @@
         <v>7.701947175631374</v>
       </c>
       <c r="Q20">
-        <v>4129043.214526499</v>
+        <v>4137414.172273347</v>
       </c>
       <c r="R20">
-        <v>4140119.8305943</v>
+        <v>4148701.330735626</v>
       </c>
       <c r="S20">
-        <v>-0.2675433688162254</v>
+        <v>-0.2720648598793618</v>
       </c>
       <c r="T20">
         <v>88.84</v>
       </c>
       <c r="U20">
-        <v>91.69976835519326</v>
+        <v>91.69947170335419</v>
       </c>
       <c r="V20">
-        <v>-3.118621133388388</v>
+        <v>-3.118307717850888</v>
       </c>
       <c r="W20">
         <v>2602697.5</v>
@@ -2355,10 +2355,10 @@
         <v>0.4303</v>
       </c>
       <c r="AC20">
-        <v>-2.110576358607608</v>
+        <v>-2.110326783588368</v>
       </c>
       <c r="AD20">
-        <v>-0.2661662153746747</v>
+        <v>-0.2698534900742233</v>
       </c>
       <c r="AE20">
         <v>100.1</v>
@@ -2416,22 +2416,22 @@
         <v>6.959109234018057</v>
       </c>
       <c r="Q21">
-        <v>4160289.179222915</v>
+        <v>4168714.861187822</v>
       </c>
       <c r="R21">
-        <v>4166554.632358367</v>
+        <v>4175200.289595497</v>
       </c>
       <c r="S21">
-        <v>-0.1503749185668313</v>
+        <v>-0.1553321507434591</v>
       </c>
       <c r="T21">
         <v>92.25</v>
       </c>
       <c r="U21">
-        <v>91.33910601918868</v>
+        <v>91.33874674659391</v>
       </c>
       <c r="V21">
-        <v>0.9972661442733566</v>
+        <v>0.9976634077695667</v>
       </c>
       <c r="W21">
         <v>2627804.4</v>
@@ -2452,10 +2452,10 @@
         <v>0.4268</v>
       </c>
       <c r="AC21">
-        <v>-3.118621133388388</v>
+        <v>-3.118307717850888</v>
       </c>
       <c r="AD21">
-        <v>-0.2675433688162254</v>
+        <v>-0.2720648598793618</v>
       </c>
       <c r="AE21">
         <v>98.59999999999999</v>
@@ -2513,22 +2513,22 @@
         <v>6.78828612578013</v>
       </c>
       <c r="Q22">
-        <v>4179392.793379354</v>
+        <v>4187882.026936877</v>
       </c>
       <c r="R22">
-        <v>4193032.951714595</v>
+        <v>4201742.796755589</v>
       </c>
       <c r="S22">
-        <v>-0.3253052979148019</v>
+        <v>-0.3298814441810793</v>
       </c>
       <c r="T22">
         <v>89.92</v>
       </c>
       <c r="U22">
-        <v>90.98134122449365</v>
+        <v>90.98091860142013</v>
       </c>
       <c r="V22">
-        <v>-1.166548228691</v>
+        <v>-1.166089129158965</v>
       </c>
       <c r="W22">
         <v>2649278.5</v>
@@ -2549,10 +2549,10 @@
         <v>0.4277</v>
       </c>
       <c r="AC22">
-        <v>0.9972661442733566</v>
+        <v>0.9976634077695667</v>
       </c>
       <c r="AD22">
-        <v>-0.1503749185668313</v>
+        <v>-0.1553321507434591</v>
       </c>
       <c r="AE22">
         <v>99.40000000000001</v>
@@ -2610,22 +2610,22 @@
         <v>6.780637725701122</v>
       </c>
       <c r="Q23">
-        <v>4203193.889678341</v>
+        <v>4211720.372457515</v>
       </c>
       <c r="R23">
-        <v>4219557.054241602</v>
+        <v>4228331.109890644</v>
       </c>
       <c r="S23">
-        <v>-0.387793418904292</v>
+        <v>-0.3928438194982675</v>
       </c>
       <c r="T23">
         <v>86.17</v>
       </c>
       <c r="U23">
-        <v>90.62674802731883</v>
+        <v>90.62626128576686</v>
       </c>
       <c r="V23">
-        <v>-4.917696071335764</v>
+        <v>-4.917185396973589</v>
       </c>
       <c r="W23">
         <v>2675926.6</v>
@@ -2646,10 +2646,10 @@
         <v>0.425</v>
       </c>
       <c r="AC23">
-        <v>-1.166548228691</v>
+        <v>-1.166089129158965</v>
       </c>
       <c r="AD23">
-        <v>-0.3253052979148019</v>
+        <v>-0.3298814441810793</v>
       </c>
       <c r="AE23">
         <v>99.7</v>
@@ -2707,22 +2707,22 @@
         <v>6.70889720702561</v>
       </c>
       <c r="Q24">
-        <v>4228161.127253829</v>
+        <v>4236737.217307</v>
       </c>
       <c r="R24">
-        <v>4246129.100269854</v>
+        <v>4254967.379725012</v>
       </c>
       <c r="S24">
-        <v>-0.4231612509116522</v>
+        <v>-0.4284442344935191</v>
       </c>
       <c r="T24">
         <v>86.19</v>
       </c>
       <c r="U24">
-        <v>90.2755922945136</v>
+        <v>90.27504063146684</v>
       </c>
       <c r="V24">
-        <v>-4.525688716818199</v>
+        <v>-4.525105281473484</v>
       </c>
       <c r="W24">
         <v>2698213</v>
@@ -2743,10 +2743,10 @@
         <v>0.4308</v>
       </c>
       <c r="AC24">
-        <v>-4.917696071335764</v>
+        <v>-4.917185396973589</v>
       </c>
       <c r="AD24">
-        <v>-0.387793418904292</v>
+        <v>-0.3928438194982675</v>
       </c>
       <c r="AE24">
         <v>101.6</v>
@@ -2804,22 +2804,22 @@
         <v>6.433084434233183</v>
       </c>
       <c r="Q25">
-        <v>4270232.839509032</v>
+        <v>4278903.600280478</v>
       </c>
       <c r="R25">
-        <v>4272751.123870839</v>
+        <v>4281653.628813786</v>
       </c>
       <c r="S25">
-        <v>-0.05893824116594004</v>
+        <v>-0.06422818779179273</v>
       </c>
       <c r="T25">
         <v>86.66</v>
       </c>
       <c r="U25">
-        <v>89.92810550443987</v>
+        <v>89.92748808562125</v>
       </c>
       <c r="V25">
-        <v>-3.634131383184225</v>
+        <v>-3.633469760114094</v>
       </c>
       <c r="W25">
         <v>2720262.9</v>
@@ -2840,10 +2840,10 @@
         <v>0.4304</v>
       </c>
       <c r="AC25">
-        <v>-4.525688716818199</v>
+        <v>-4.525105281473484</v>
       </c>
       <c r="AD25">
-        <v>-0.4231612509116522</v>
+        <v>-0.4284442344935191</v>
       </c>
       <c r="AE25">
         <v>103.1</v>
@@ -2901,22 +2901,22 @@
         <v>6.331293037490426</v>
       </c>
       <c r="Q26">
-        <v>4276143.613099202</v>
+        <v>4284807.628362547</v>
       </c>
       <c r="R26">
-        <v>4299425.020474282</v>
+        <v>4308391.739047225</v>
       </c>
       <c r="S26">
-        <v>-0.5415004858606021</v>
+        <v>-0.5473994036088614</v>
       </c>
       <c r="T26">
         <v>86.19</v>
       </c>
       <c r="U26">
-        <v>89.58448761082741</v>
+        <v>89.58380357495606</v>
       </c>
       <c r="V26">
-        <v>-3.789146649555819</v>
+        <v>-3.788412011459663</v>
       </c>
       <c r="W26">
         <v>2746426</v>
@@ -2937,10 +2937,10 @@
         <v>0.4343</v>
       </c>
       <c r="AC26">
-        <v>-3.634131383184225</v>
+        <v>-3.633469760114094</v>
       </c>
       <c r="AD26">
-        <v>-0.05893824116594004</v>
+        <v>-0.06422818779179273</v>
       </c>
       <c r="AE26">
         <v>109</v>
@@ -2998,22 +2998,22 @@
         <v>6.280470318325193</v>
       </c>
       <c r="Q27">
-        <v>4289944.270247273</v>
+        <v>4298678.356658007</v>
       </c>
       <c r="R27">
-        <v>4326152.666078698</v>
+        <v>4335183.571096222</v>
       </c>
       <c r="S27">
-        <v>-0.8369652813072004</v>
+        <v>-0.8420684808275403</v>
       </c>
       <c r="T27">
         <v>85.36</v>
       </c>
       <c r="U27">
-        <v>89.24491335054324</v>
+        <v>89.24416181409796</v>
       </c>
       <c r="V27">
-        <v>-4.353092187208219</v>
+        <v>-4.352286732423972</v>
       </c>
       <c r="W27">
         <v>2776859.2</v>
@@ -3034,10 +3034,10 @@
         <v>0.4272</v>
       </c>
       <c r="AC27">
-        <v>-3.789146649555819</v>
+        <v>-3.788412011459663</v>
       </c>
       <c r="AD27">
-        <v>-0.5415004858606021</v>
+        <v>-0.5473994036088614</v>
       </c>
       <c r="AE27">
         <v>104.1</v>
@@ -3095,22 +3095,22 @@
         <v>6.158693784016034</v>
       </c>
       <c r="Q28">
-        <v>4301325.630310721</v>
+        <v>4310077.024149454</v>
       </c>
       <c r="R28">
-        <v>4352935.757042109</v>
+        <v>4362030.803655514</v>
       </c>
       <c r="S28">
-        <v>-1.185639522657655</v>
+        <v>-1.19104568134919</v>
       </c>
       <c r="T28">
         <v>86.31999999999999</v>
       </c>
       <c r="U28">
-        <v>88.90953126841904</v>
+        <v>88.9087113309173</v>
       </c>
       <c r="V28">
-        <v>-2.912546305751207</v>
+        <v>-2.911650941921928</v>
       </c>
       <c r="W28">
         <v>2800895.2</v>
@@ -3131,10 +3131,10 @@
         <v>0.4276</v>
       </c>
       <c r="AC28">
-        <v>-4.353092187208219</v>
+        <v>-4.352286732423972</v>
       </c>
       <c r="AD28">
-        <v>-0.8369652813072004</v>
+        <v>-0.8420684808275403</v>
       </c>
       <c r="AE28">
         <v>105.9</v>
@@ -3192,22 +3192,22 @@
         <v>6.026275704493522</v>
       </c>
       <c r="Q29">
-        <v>4318704.239333007</v>
+        <v>4327473.392468486</v>
       </c>
       <c r="R29">
-        <v>4379775.710336776</v>
+        <v>4388934.833743796</v>
       </c>
       <c r="S29">
-        <v>-1.394397225858712</v>
+        <v>-1.400372609836242</v>
       </c>
       <c r="T29">
         <v>85.97</v>
       </c>
       <c r="U29">
-        <v>88.57845993310404</v>
+        <v>88.57757068290051</v>
       </c>
       <c r="V29">
-        <v>-2.94480163131533</v>
+        <v>-2.943827272296029</v>
       </c>
       <c r="W29">
         <v>2835166.3</v>
@@ -3228,10 +3228,10 @@
         <v>0.4198</v>
       </c>
       <c r="AC29">
-        <v>-2.912546305751207</v>
+        <v>-2.911650941921928</v>
       </c>
       <c r="AD29">
-        <v>-1.185639522657655</v>
+        <v>-1.19104568134919</v>
       </c>
       <c r="AE29">
         <v>109.7</v>
@@ -3289,22 +3289,22 @@
         <v>5.730251941655617</v>
       </c>
       <c r="Q30">
-        <v>4340247.322661441</v>
+        <v>4349071.882786545</v>
       </c>
       <c r="R30">
-        <v>4406673.544708668</v>
+        <v>4415896.657501839</v>
       </c>
       <c r="S30">
-        <v>-1.507400568099471</v>
+        <v>-1.513277594523654</v>
       </c>
       <c r="T30">
         <v>84.12</v>
       </c>
       <c r="U30">
-        <v>88.25179793229667</v>
+        <v>88.25083845290905</v>
       </c>
       <c r="V30">
-        <v>-4.681828618909744</v>
+        <v>-4.680792302175441</v>
       </c>
       <c r="W30">
         <v>2863373.4</v>
@@ -3325,10 +3325,10 @@
         <v>0.4187</v>
       </c>
       <c r="AC30">
-        <v>-2.94480163131533</v>
+        <v>-2.943827272296029</v>
       </c>
       <c r="AD30">
-        <v>-1.394397225858712</v>
+        <v>-1.400372609836242</v>
       </c>
       <c r="AE30">
         <v>101.3</v>
@@ -3386,22 +3386,22 @@
         <v>5.685461059777497</v>
       </c>
       <c r="Q31">
-        <v>4358122.494820847</v>
+        <v>4366980.418181818</v>
       </c>
       <c r="R31">
-        <v>4433629.807673264</v>
+        <v>4442916.796830896</v>
       </c>
       <c r="S31">
-        <v>-1.703058580166905</v>
+        <v>-1.709155991920519</v>
       </c>
       <c r="T31">
         <v>82.11</v>
       </c>
       <c r="U31">
-        <v>87.92962372668887</v>
+        <v>87.9285931036607</v>
       </c>
       <c r="V31">
-        <v>-6.618501797275944</v>
+        <v>-6.617407260003638</v>
       </c>
       <c r="W31">
         <v>2899765.6</v>
@@ -3422,10 +3422,10 @@
         <v>0.4209000000000001</v>
       </c>
       <c r="AC31">
-        <v>-4.681828618909744</v>
+        <v>-4.680792302175441</v>
       </c>
       <c r="AD31">
-        <v>-1.507400568099471</v>
+        <v>-1.513277594523654</v>
       </c>
       <c r="AE31">
         <v>103.1</v>
@@ -3483,22 +3483,22 @@
         <v>5.631287017016051</v>
       </c>
       <c r="Q32">
-        <v>4385476.056337346</v>
+        <v>4394369.856567245</v>
       </c>
       <c r="R32">
-        <v>4460644.534198031</v>
+        <v>4469995.258008963</v>
       </c>
       <c r="S32">
-        <v>-1.685148352091204</v>
+        <v>-1.69184522749144</v>
       </c>
       <c r="T32">
         <v>81.06</v>
       </c>
       <c r="U32">
-        <v>87.61198389581587</v>
+        <v>87.6108812241192</v>
       </c>
       <c r="V32">
-        <v>-7.478410606027575</v>
+        <v>-7.477246128093674</v>
       </c>
       <c r="W32">
         <v>2940137</v>
@@ -3519,10 +3519,10 @@
         <v>0.4295</v>
       </c>
       <c r="AC32">
-        <v>-6.618501797275944</v>
+        <v>-6.617407260003638</v>
       </c>
       <c r="AD32">
-        <v>-1.703058580166905</v>
+        <v>-1.709155991920519</v>
       </c>
       <c r="AE32">
         <v>97.09999999999999</v>
@@ -3580,22 +3580,22 @@
         <v>6.357728171799937</v>
       </c>
       <c r="Q33">
-        <v>4420992.050494826</v>
+        <v>4429967.45376092</v>
       </c>
       <c r="R33">
-        <v>4487717.176632301</v>
+        <v>4497131.46138518</v>
       </c>
       <c r="S33">
-        <v>-1.486838931938816</v>
+        <v>-1.493485529630767</v>
       </c>
       <c r="T33">
         <v>80.55</v>
       </c>
       <c r="U33">
-        <v>87.29888011470976</v>
+        <v>87.2977045066968</v>
       </c>
       <c r="V33">
-        <v>-7.730775132329082</v>
+        <v>-7.729532574569786</v>
       </c>
       <c r="W33">
         <v>2974782.1</v>
@@ -3616,10 +3616,10 @@
         <v>0.4281</v>
       </c>
       <c r="AC33">
-        <v>-7.478410606027575</v>
+        <v>-7.477246128093674</v>
       </c>
       <c r="AD33">
-        <v>-1.685148352091204</v>
+        <v>-1.69184522749144</v>
       </c>
       <c r="AE33">
         <v>93.3</v>
@@ -3677,22 +3677,22 @@
         <v>6.720000000000015</v>
       </c>
       <c r="Q34">
-        <v>4453694.614696079</v>
+        <v>4462738.902575759</v>
       </c>
       <c r="R34">
-        <v>4514846.607321694</v>
+        <v>4524324.243779359</v>
       </c>
       <c r="S34">
-        <v>-1.354464457916371</v>
+        <v>-1.361205295758272</v>
       </c>
       <c r="T34">
         <v>87.61</v>
       </c>
       <c r="U34">
-        <v>86.99026350296985</v>
+        <v>86.98901409688311</v>
       </c>
       <c r="V34">
-        <v>0.7124205308436382</v>
+        <v>0.7138670435157257</v>
       </c>
       <c r="W34">
         <v>3020522.3</v>
@@ -3713,10 +3713,10 @@
         <v>0.4211</v>
       </c>
       <c r="AC34">
-        <v>-7.730775132329082</v>
+        <v>-7.729532574569786</v>
       </c>
       <c r="AD34">
-        <v>-1.486838931938816</v>
+        <v>-1.493485529630767</v>
       </c>
       <c r="AE34">
         <v>96.8</v>
@@ -3774,22 +3774,22 @@
         <v>6.813269429564883</v>
       </c>
       <c r="Q35">
-        <v>4486675.375650051</v>
+        <v>4495762.565343774</v>
       </c>
       <c r="R35">
-        <v>4542031.183757477</v>
+        <v>4551571.923770512</v>
       </c>
       <c r="S35">
-        <v>-1.218745663952736</v>
+        <v>-1.226155696568787</v>
       </c>
       <c r="T35">
         <v>100.24</v>
       </c>
       <c r="U35">
-        <v>86.68603310550432</v>
+        <v>86.68470907454585</v>
       </c>
       <c r="V35">
-        <v>15.63569863440324</v>
+        <v>15.63746486568589</v>
       </c>
       <c r="W35">
         <v>3059757.6</v>
@@ -3810,10 +3810,10 @@
         <v>0.4006</v>
       </c>
       <c r="AC35">
-        <v>0.7124205308436382</v>
+        <v>0.7138670435157257</v>
       </c>
       <c r="AD35">
-        <v>-1.354464457916371</v>
+        <v>-1.361205295758272</v>
       </c>
       <c r="AE35">
         <v>99.90000000000001</v>
@@ -3871,22 +3871,22 @@
         <v>6.814550239684181</v>
       </c>
       <c r="Q36">
-        <v>4527502.144729802</v>
+        <v>4536670.064705232</v>
       </c>
       <c r="R36">
-        <v>4569268.79157911</v>
+        <v>4578872.344742116</v>
       </c>
       <c r="S36">
-        <v>-0.9140772573126066</v>
+        <v>-0.9216740904634313</v>
       </c>
       <c r="T36">
         <v>100.66</v>
       </c>
       <c r="U36">
-        <v>86.38609274913786</v>
+        <v>86.38469331111109</v>
       </c>
       <c r="V36">
-        <v>16.52338564763318</v>
+        <v>16.52527333456744</v>
       </c>
       <c r="W36">
         <v>3088601.5</v>
@@ -3907,10 +3907,10 @@
         <v>0.3821</v>
       </c>
       <c r="AC36">
-        <v>15.63569863440324</v>
+        <v>15.63746486568589</v>
       </c>
       <c r="AD36">
-        <v>-1.218745663952736</v>
+        <v>-1.226155696568787</v>
       </c>
       <c r="AE36">
         <v>89.59999999999999</v>
@@ -3968,22 +3968,22 @@
         <v>7.327667610953736</v>
       </c>
       <c r="Q37">
-        <v>4554159.664875638</v>
+        <v>4563423.949722853</v>
       </c>
       <c r="R37">
-        <v>4596556.889297922</v>
+        <v>4606222.919449884</v>
       </c>
       <c r="S37">
-        <v>-0.9223691872713879</v>
+        <v>-0.929155415955063</v>
       </c>
       <c r="T37">
         <v>107.19</v>
       </c>
       <c r="U37">
-        <v>86.09045084377397</v>
+        <v>86.08897527129889</v>
       </c>
       <c r="V37">
-        <v>24.5085824843859</v>
+        <v>24.51071657224841</v>
       </c>
       <c r="W37">
         <v>3109803.1</v>
@@ -4004,10 +4004,10 @@
         <v>0.3716</v>
       </c>
       <c r="AC37">
-        <v>16.52338564763318</v>
+        <v>16.52527333456744</v>
       </c>
       <c r="AD37">
-        <v>-0.9140772573126066</v>
+        <v>-0.9216740904634313</v>
       </c>
       <c r="AE37">
         <v>84.8</v>
@@ -4065,22 +4065,22 @@
         <v>7.067271352985638</v>
       </c>
       <c r="Q38">
-        <v>4588608.695325842</v>
+        <v>4597930.785619983</v>
       </c>
       <c r="R38">
-        <v>4623892.613151721</v>
+        <v>4633620.73501466</v>
       </c>
       <c r="S38">
-        <v>-0.7630782281906945</v>
+        <v>-0.7702389003265031</v>
       </c>
       <c r="T38">
         <v>101.33</v>
       </c>
       <c r="U38">
-        <v>85.79922593748911</v>
+        <v>85.7976735688012</v>
       </c>
       <c r="V38">
-        <v>18.10129857561438</v>
+        <v>18.10343542560442</v>
       </c>
       <c r="W38">
         <v>3121758.8</v>
@@ -4101,10 +4101,10 @@
         <v>0.3779</v>
       </c>
       <c r="AC38">
-        <v>24.5085824843859</v>
+        <v>24.51071657224841</v>
       </c>
       <c r="AD38">
-        <v>-0.9223691872713879</v>
+        <v>-0.929155415955063</v>
       </c>
       <c r="AE38">
         <v>85.09999999999999</v>
@@ -4162,22 +4162,22 @@
         <v>6.383380547686501</v>
       </c>
       <c r="Q39">
-        <v>4616149.429779023</v>
+        <v>4625535.314309134</v>
       </c>
       <c r="R39">
-        <v>4651272.772239239</v>
+        <v>4661062.54831831</v>
       </c>
       <c r="S39">
-        <v>-0.7551340069721801</v>
+        <v>-0.7622132001209425</v>
       </c>
       <c r="T39">
         <v>99.54000000000001</v>
       </c>
       <c r="U39">
-        <v>85.51269938352263</v>
+        <v>85.51106963385811</v>
       </c>
       <c r="V39">
-        <v>16.40376308735762</v>
+        <v>16.4059816187671</v>
       </c>
       <c r="W39">
         <v>3132276.3</v>
@@ -4198,10 +4198,10 @@
         <v>0.3821</v>
       </c>
       <c r="AC39">
-        <v>18.10129857561438</v>
+        <v>18.10343542560442</v>
       </c>
       <c r="AD39">
-        <v>-0.7630782281906945</v>
+        <v>-0.7702389003265031</v>
       </c>
       <c r="AE39">
         <v>86.40000000000001</v>
@@ -4259,22 +4259,22 @@
         <v>5.766499384527979</v>
       </c>
       <c r="Q40">
-        <v>4652105.866160638</v>
+        <v>4661562.260551117</v>
       </c>
       <c r="R40">
-        <v>4678693.903406752</v>
+        <v>4688544.840857295</v>
       </c>
       <c r="S40">
-        <v>-0.568279049560283</v>
+        <v>-0.5755001012477057</v>
       </c>
       <c r="T40">
         <v>97.40000000000001</v>
       </c>
       <c r="U40">
-        <v>85.231272371334</v>
+        <v>85.22956474490742</v>
       </c>
       <c r="V40">
-        <v>14.27730372914007</v>
+        <v>14.27959334477276</v>
       </c>
       <c r="W40">
         <v>3153874.9</v>
@@ -4295,10 +4295,10 @@
         <v>0.3826</v>
       </c>
       <c r="AC40">
-        <v>16.40376308735762</v>
+        <v>16.4059816187671</v>
       </c>
       <c r="AD40">
-        <v>-0.7551340069721801</v>
+        <v>-0.7622132001209425</v>
       </c>
       <c r="AE40">
         <v>84.8</v>
@@ -4356,22 +4356,22 @@
         <v>5.287595944281254</v>
       </c>
       <c r="Q41">
-        <v>4676398.333747777</v>
+        <v>4685871.063915082</v>
       </c>
       <c r="R41">
-        <v>4706152.2724871</v>
+        <v>4716063.819998182</v>
       </c>
       <c r="S41">
-        <v>-0.6322349345402434</v>
+        <v>-0.6402109308841331</v>
       </c>
       <c r="T41">
         <v>95.38</v>
       </c>
       <c r="U41">
-        <v>84.95545432572659</v>
+        <v>84.95366842830748</v>
       </c>
       <c r="V41">
-        <v>12.27060199608232</v>
+        <v>12.27296215052951</v>
       </c>
       <c r="W41">
         <v>3164110.3</v>
@@ -4392,10 +4392,10 @@
         <v>0.3794</v>
       </c>
       <c r="AC41">
-        <v>14.27730372914007</v>
+        <v>14.27959334477276</v>
       </c>
       <c r="AD41">
-        <v>-0.568279049560283</v>
+        <v>-0.5755001012477057</v>
       </c>
       <c r="AE41">
         <v>87.90000000000001</v>
@@ -4453,22 +4453,22 @@
         <v>4.714828897338386</v>
       </c>
       <c r="Q42">
-        <v>4696431.323801533</v>
+        <v>4705962.813274717</v>
       </c>
       <c r="R42">
-        <v>4733643.940158505</v>
+        <v>4743615.484908623</v>
       </c>
       <c r="S42">
-        <v>-0.7861304489185095</v>
+        <v>-0.7937547162853775</v>
       </c>
       <c r="T42">
         <v>89.91</v>
       </c>
       <c r="U42">
-        <v>84.68584856600708</v>
+        <v>84.68398411809473</v>
       </c>
       <c r="V42">
-        <v>6.168859995446629</v>
+        <v>6.171197465883771</v>
       </c>
       <c r="W42">
         <v>3177111.6</v>
@@ -4489,10 +4489,10 @@
         <v>0.3848</v>
       </c>
       <c r="AC42">
-        <v>12.27060199608232</v>
+        <v>12.27296215052951</v>
       </c>
       <c r="AD42">
-        <v>-0.6322349345402434</v>
+        <v>-0.6402109308841331</v>
       </c>
       <c r="AE42">
         <v>88</v>
@@ -4550,22 +4550,22 @@
         <v>4.522900763358773</v>
       </c>
       <c r="Q43">
-        <v>4719346.167876557</v>
+        <v>4728969.029453805</v>
       </c>
       <c r="R43">
-        <v>4761164.737516334</v>
+        <v>4771195.601787458</v>
       </c>
       <c r="S43">
-        <v>-0.8783264588654305</v>
+        <v>-0.8850312554327888</v>
       </c>
       <c r="T43">
         <v>87.38</v>
       </c>
       <c r="U43">
-        <v>84.42313884779179</v>
+        <v>84.42119569839586</v>
       </c>
       <c r="V43">
-        <v>3.502429775252947</v>
+        <v>3.50481212345628</v>
       </c>
       <c r="W43">
         <v>3187927.3</v>
@@ -4586,10 +4586,10 @@
         <v>0.3951</v>
       </c>
       <c r="AC43">
-        <v>6.168859995446629</v>
+        <v>6.171197465883771</v>
       </c>
       <c r="AD43">
-        <v>-0.7861304489185095</v>
+        <v>-0.7937547162853775</v>
       </c>
       <c r="AE43">
         <v>90</v>
@@ -4647,22 +4647,22 @@
         <v>4.315789473684228</v>
       </c>
       <c r="Q44">
-        <v>4748619.177848156</v>
+        <v>4758251.141157618</v>
       </c>
       <c r="R44">
-        <v>4788710.208521567</v>
+        <v>4798799.64630367</v>
       </c>
       <c r="S44">
-        <v>-0.837198930978722</v>
+        <v>-0.8449718290965635</v>
       </c>
       <c r="T44">
         <v>86.38</v>
       </c>
       <c r="U44">
-        <v>84.16804923650712</v>
+        <v>84.16602737753406</v>
       </c>
       <c r="V44">
-        <v>2.628017143747075</v>
+        <v>2.630482501609555</v>
       </c>
       <c r="W44">
         <v>3198100.6</v>
@@ -4683,10 +4683,10 @@
         <v>0.399</v>
       </c>
       <c r="AC44">
-        <v>3.502429775252947</v>
+        <v>3.50481212345628</v>
       </c>
       <c r="AD44">
-        <v>-0.8783264588654305</v>
+        <v>-0.8850312554327888</v>
       </c>
       <c r="AE44">
         <v>94.3</v>
@@ -4744,22 +4744,22 @@
         <v>4.110770410118803</v>
       </c>
       <c r="Q45">
-        <v>4772239.792179939</v>
+        <v>4781956.724521317</v>
       </c>
       <c r="R45">
-        <v>4816275.574461035</v>
+        <v>4826422.768303913</v>
       </c>
       <c r="S45">
-        <v>-0.9143119325356275</v>
+        <v>-0.9213043680013633</v>
       </c>
       <c r="T45">
         <v>82.86</v>
       </c>
       <c r="U45">
-        <v>83.92132661286558</v>
+        <v>83.91922619411199</v>
       </c>
       <c r="V45">
-        <v>-1.264668536236979</v>
+        <v>-1.26219728440049</v>
       </c>
       <c r="W45">
         <v>3212061.2</v>
@@ -4780,10 +4780,10 @@
         <v>0.4095</v>
       </c>
       <c r="AC45">
-        <v>2.628017143747075</v>
+        <v>2.630482501609555</v>
       </c>
       <c r="AD45">
-        <v>-0.837198930978722</v>
+        <v>-0.8449718290965635</v>
       </c>
       <c r="AE45">
         <v>96.8</v>
@@ -4841,22 +4841,22 @@
         <v>4.130726471152002</v>
       </c>
       <c r="Q46">
-        <v>4803176.415831999</v>
+        <v>4812945.394773376</v>
       </c>
       <c r="R46">
-        <v>4843855.747277199</v>
+        <v>4854059.80476058</v>
       </c>
       <c r="S46">
-        <v>-0.8398130243260638</v>
+        <v>-0.8470107835688578</v>
       </c>
       <c r="T46">
         <v>82.13</v>
       </c>
       <c r="U46">
-        <v>83.68373492510268</v>
+        <v>83.68155626985542</v>
       </c>
       <c r="V46">
-        <v>-1.85667492792152</v>
+        <v>-1.854119759498718</v>
       </c>
       <c r="W46">
         <v>3228167.9</v>
@@ -4877,10 +4877,10 @@
         <v>0.4095</v>
       </c>
       <c r="AC46">
-        <v>-1.264668536236979</v>
+        <v>-1.26219728440049</v>
       </c>
       <c r="AD46">
-        <v>-0.9143119325356275</v>
+        <v>-0.9213043680013633</v>
       </c>
       <c r="AE46">
         <v>96.3</v>
@@ -4938,22 +4938,22 @@
         <v>4.300662378803866</v>
       </c>
       <c r="Q47">
-        <v>4832201.264324889</v>
+        <v>4842005.078000599</v>
       </c>
       <c r="R47">
-        <v>4871445.299130248</v>
+        <v>4881705.249543871</v>
       </c>
       <c r="S47">
-        <v>-0.8055932561198187</v>
+        <v>-0.8132439283789594</v>
       </c>
       <c r="T47">
         <v>79.15000000000001</v>
       </c>
       <c r="U47">
-        <v>83.4560299322038</v>
+        <v>83.45377355344742</v>
       </c>
       <c r="V47">
-        <v>-5.159639076651312</v>
+        <v>-5.157074833399944</v>
       </c>
       <c r="W47">
         <v>3252378.5</v>
@@ -4974,10 +4974,10 @@
         <v>0.419</v>
       </c>
       <c r="AC47">
-        <v>-1.85667492792152</v>
+        <v>-1.854119759498718</v>
       </c>
       <c r="AD47">
-        <v>-0.8398130243260638</v>
+        <v>-0.8470107835688578</v>
       </c>
       <c r="AE47">
         <v>97.8</v>
@@ -5035,22 +5035,22 @@
         <v>4.250623680675503</v>
       </c>
       <c r="Q48">
-        <v>4857580.349934476</v>
+        <v>4867458.500697343</v>
       </c>
       <c r="R48">
-        <v>4899038.488296638</v>
+        <v>4909353.279283167</v>
       </c>
       <c r="S48">
-        <v>-0.8462505134671172</v>
+        <v>-0.8533665475372265</v>
       </c>
       <c r="T48">
         <v>79.27</v>
       </c>
       <c r="U48">
-        <v>83.23895540445936</v>
+        <v>83.23662202168536</v>
       </c>
       <c r="V48">
-        <v>-4.768146578935484</v>
+        <v>-4.765476932319479</v>
       </c>
       <c r="W48">
         <v>3288209.5</v>
@@ -5071,10 +5071,10 @@
         <v>0.4179</v>
       </c>
       <c r="AC48">
-        <v>-5.159639076651312</v>
+        <v>-5.157074833399944</v>
       </c>
       <c r="AD48">
-        <v>-0.8055932561198187</v>
+        <v>-0.8132439283789594</v>
       </c>
       <c r="AE48">
         <v>97.7</v>
@@ -5132,22 +5132,22 @@
         <v>4.160674911322038</v>
       </c>
       <c r="Q49">
-        <v>4887031.181961345</v>
+        <v>4896963.210880458</v>
       </c>
       <c r="R49">
-        <v>4926629.270243919</v>
+        <v>4936997.764279366</v>
       </c>
       <c r="S49">
-        <v>-0.8037562014608923</v>
+        <v>-0.8109088824906685</v>
       </c>
       <c r="T49">
         <v>79.87</v>
       </c>
       <c r="U49">
-        <v>83.03322188661912</v>
+        <v>83.03081244324149</v>
       </c>
       <c r="V49">
-        <v>-3.809585867857146</v>
+        <v>-3.806794550399184</v>
       </c>
       <c r="W49">
         <v>3333039.4</v>
@@ -5168,10 +5168,10 @@
         <v>0.4132</v>
       </c>
       <c r="AC49">
-        <v>-4.768146578935484</v>
+        <v>-4.765476932319479</v>
       </c>
       <c r="AD49">
-        <v>-0.8462505134671172</v>
+        <v>-0.8533665475372265</v>
       </c>
       <c r="AE49">
         <v>99.3</v>
@@ -5229,22 +5229,22 @@
         <v>3.881824266182243</v>
       </c>
       <c r="Q50">
-        <v>4901722.780035026</v>
+        <v>4911666.530864198</v>
       </c>
       <c r="R50">
-        <v>4954211.280546593</v>
+        <v>4964632.251571187</v>
       </c>
       <c r="S50">
-        <v>-1.059472387010818</v>
+        <v>-1.066860907778755</v>
       </c>
       <c r="T50">
         <v>79.59</v>
       </c>
       <c r="U50">
-        <v>82.8395092987806</v>
+        <v>82.8370249801317</v>
       </c>
       <c r="V50">
-        <v>-3.922656382548639</v>
+        <v>-3.919774980946611</v>
       </c>
       <c r="W50">
         <v>3372644.4</v>
@@ -5265,10 +5265,10 @@
         <v>0.4135</v>
       </c>
       <c r="AC50">
-        <v>-3.809585867857146</v>
+        <v>-3.806794550399184</v>
       </c>
       <c r="AD50">
-        <v>-0.8037562014608923</v>
+        <v>-0.8109088824906685</v>
       </c>
       <c r="AE50">
         <v>97.5</v>
@@ -5326,22 +5326,22 @@
         <v>3.643995039587899</v>
       </c>
       <c r="Q51">
-        <v>4920274.585225216</v>
+        <v>4930273.379541353</v>
       </c>
       <c r="R51">
-        <v>4981777.849238363</v>
+        <v>4992249.979288757</v>
       </c>
       <c r="S51">
-        <v>-1.234564564587115</v>
+        <v>-1.241456257289286</v>
       </c>
       <c r="T51">
         <v>81.53</v>
       </c>
       <c r="U51">
-        <v>82.65847315346021</v>
+        <v>82.65591540538976</v>
       </c>
       <c r="V51">
-        <v>-1.365223806354532</v>
+        <v>-1.362171600021189</v>
       </c>
       <c r="W51">
         <v>3413499.6</v>
@@ -5362,10 +5362,10 @@
         <v>0.4018</v>
       </c>
       <c r="AC51">
-        <v>-3.922656382548639</v>
+        <v>-3.919774980946611</v>
       </c>
       <c r="AD51">
-        <v>-1.059472387010818</v>
+        <v>-1.066860907778755</v>
       </c>
       <c r="AE51">
         <v>99.09999999999999</v>
@@ -5423,22 +5423,22 @@
         <v>3.308928401635436</v>
       </c>
       <c r="Q52">
-        <v>4938630.118058023</v>
+        <v>4948656.099363661</v>
       </c>
       <c r="R52">
-        <v>5009321.901349068</v>
+        <v>5019843.776876086</v>
       </c>
       <c r="S52">
-        <v>-1.41120464372646</v>
+        <v>-1.418125357612743</v>
       </c>
       <c r="T52">
         <v>78.75</v>
       </c>
       <c r="U52">
-        <v>82.49074388980277</v>
+        <v>82.48811443784376</v>
       </c>
       <c r="V52">
-        <v>-4.534743794770401</v>
+        <v>-4.531700673871619</v>
       </c>
       <c r="W52">
         <v>3463309.7</v>
@@ -5459,10 +5459,10 @@
         <v>0.4045</v>
       </c>
       <c r="AC52">
-        <v>-1.365223806354532</v>
+        <v>-1.362171600021189</v>
       </c>
       <c r="AD52">
-        <v>-1.234564564587115</v>
+        <v>-1.241456257289286</v>
       </c>
       <c r="AE52">
         <v>96.3</v>
@@ -5520,22 +5520,22 @@
         <v>3.287098612958395</v>
       </c>
       <c r="Q53">
-        <v>4953376.710640091</v>
+        <v>4963451.326348582</v>
       </c>
       <c r="R53">
-        <v>5036835.887346348</v>
+        <v>5047405.995562712</v>
       </c>
       <c r="S53">
-        <v>-1.656976295692392</v>
+        <v>-1.663323086907131</v>
       </c>
       <c r="T53">
         <v>77.18000000000001</v>
       </c>
       <c r="U53">
-        <v>82.33694323959834</v>
+        <v>82.33424410870212</v>
       </c>
       <c r="V53">
-        <v>-6.263219202335168</v>
+        <v>-6.260146266597411</v>
       </c>
       <c r="W53">
         <v>3511531.8</v>
@@ -5556,10 +5556,10 @@
         <v>0.4041</v>
       </c>
       <c r="AC53">
-        <v>-4.534743794770401</v>
+        <v>-4.531700673871619</v>
       </c>
       <c r="AD53">
-        <v>-1.41120464372646</v>
+        <v>-1.418125357612743</v>
       </c>
       <c r="AE53">
         <v>98.90000000000001</v>
@@ -5617,22 +5617,22 @@
         <v>3.972628777798892</v>
       </c>
       <c r="Q54">
-        <v>4975389.218645977</v>
+        <v>4985500.018621509</v>
       </c>
       <c r="R54">
-        <v>5064311.712236505</v>
+        <v>5074928.437290475</v>
       </c>
       <c r="S54">
-        <v>-1.755865330636575</v>
+        <v>-1.76216117673399</v>
       </c>
       <c r="T54">
         <v>77.66</v>
       </c>
       <c r="U54">
-        <v>82.19766407087177</v>
+        <v>82.19489760569996</v>
       </c>
       <c r="V54">
-        <v>-5.520429469819654</v>
+        <v>-5.517249534702851</v>
       </c>
       <c r="W54">
         <v>3558737</v>
@@ -5653,10 +5653,10 @@
         <v>0.4001</v>
       </c>
       <c r="AC54">
-        <v>-6.263219202335168</v>
+        <v>-6.260146266597411</v>
       </c>
       <c r="AD54">
-        <v>-1.656976295692392</v>
+        <v>-1.663323086907131</v>
       </c>
       <c r="AE54">
         <v>101.3</v>
@@ -5714,22 +5714,22 @@
         <v>4.864555513162916</v>
       </c>
       <c r="Q55">
-        <v>5008515.47323289</v>
+        <v>5018693.4494588</v>
       </c>
       <c r="R55">
-        <v>5091740.637050729</v>
+        <v>5102402.256202874</v>
       </c>
       <c r="S55">
-        <v>-1.634513023154416</v>
+        <v>-1.640576390117232</v>
       </c>
       <c r="T55">
         <v>76.40000000000001</v>
       </c>
       <c r="U55">
-        <v>82.07345946042005</v>
+        <v>82.07062834616782</v>
       </c>
       <c r="V55">
-        <v>-6.912660313966756</v>
+        <v>-6.909449166453951</v>
       </c>
       <c r="W55">
         <v>3603877.2</v>
@@ -5750,10 +5750,10 @@
         <v>0.3956</v>
       </c>
       <c r="AC55">
-        <v>-5.520429469819654</v>
+        <v>-5.517249534702851</v>
       </c>
       <c r="AD55">
-        <v>-1.755865330636575</v>
+        <v>-1.76216117673399</v>
       </c>
       <c r="AE55">
         <v>103.5</v>
@@ -5811,22 +5811,22 @@
         <v>5.468451242829819</v>
       </c>
       <c r="Q56">
-        <v>5053331.998088425</v>
+        <v>5063598.989143604</v>
       </c>
       <c r="R56">
-        <v>5119113.236689867</v>
+        <v>5129817.916409301</v>
       </c>
       <c r="S56">
-        <v>-1.285012375385097</v>
+        <v>-1.290863113364604</v>
       </c>
       <c r="T56">
         <v>76.44</v>
       </c>
       <c r="U56">
-        <v>81.96484747219984</v>
+        <v>81.9619547559434</v>
       </c>
       <c r="V56">
-        <v>-6.740508452814131</v>
+        <v>-6.737217008044794</v>
       </c>
       <c r="W56">
         <v>3651309</v>
@@ -5847,10 +5847,10 @@
         <v>0.3951</v>
       </c>
       <c r="AC56">
-        <v>-6.912660313966756</v>
+        <v>-6.909449166453951</v>
       </c>
       <c r="AD56">
-        <v>-1.634513023154416</v>
+        <v>-1.640576390117232</v>
       </c>
       <c r="AE56">
         <v>105.2</v>
@@ -5908,22 +5908,22 @@
         <v>5.904871279548285</v>
       </c>
       <c r="Q57">
-        <v>5114308.143792722</v>
+        <v>5124704.692790868</v>
       </c>
       <c r="R57">
-        <v>5146419.443885287</v>
+        <v>5157165.236117883</v>
       </c>
       <c r="S57">
-        <v>-0.6239541965573303</v>
+        <v>-0.6294260866353429</v>
       </c>
       <c r="T57">
         <v>76.81999999999999</v>
       </c>
       <c r="U57">
-        <v>81.87230239347538</v>
+        <v>81.86935150601809</v>
       </c>
       <c r="V57">
-        <v>-6.170954334707968</v>
+        <v>-6.16757237370682</v>
       </c>
       <c r="W57">
         <v>3701182.8</v>
@@ -5944,10 +5944,10 @@
         <v>0.3962</v>
       </c>
       <c r="AC57">
-        <v>-6.740508452814131</v>
+        <v>-6.737217008044794</v>
       </c>
       <c r="AD57">
-        <v>-1.285012375385097</v>
+        <v>-1.290863113364604</v>
       </c>
       <c r="AE57">
         <v>104.2</v>
@@ -6005,22 +6005,22 @@
         <v>5.692454632282717</v>
       </c>
       <c r="Q58">
-        <v>5167121.622073362</v>
+        <v>5177623.130713914</v>
       </c>
       <c r="R58">
-        <v>5173648.683797076</v>
+        <v>5184433.522588218</v>
       </c>
       <c r="S58">
-        <v>-0.1261597399173309</v>
+        <v>-0.1313623146025789</v>
       </c>
       <c r="T58">
         <v>75.56999999999999</v>
       </c>
       <c r="U58">
-        <v>81.79625588151384</v>
+        <v>81.79325065970404</v>
       </c>
       <c r="V58">
-        <v>-7.611908166717196</v>
+        <v>-7.608513672595696</v>
       </c>
       <c r="W58">
         <v>3748968.7</v>
@@ -6041,10 +6041,10 @@
         <v>0.3943</v>
       </c>
       <c r="AC58">
-        <v>-6.170954334707968</v>
+        <v>-6.16757237370682</v>
       </c>
       <c r="AD58">
-        <v>-0.6239541965573303</v>
+        <v>-0.6294260866353429</v>
       </c>
       <c r="AE58">
         <v>106.1</v>
@@ -6102,22 +6102,22 @@
         <v>5.190114068441054</v>
       </c>
       <c r="Q59">
-        <v>5209235.313048391</v>
+        <v>5219803.536580962</v>
       </c>
       <c r="R59">
-        <v>5200790.133812943</v>
+        <v>5211611.832612751</v>
       </c>
       <c r="S59">
-        <v>0.1623826191436084</v>
+        <v>0.1571817746853332</v>
       </c>
       <c r="T59">
         <v>75.18000000000001</v>
       </c>
       <c r="U59">
-        <v>81.73710060976711</v>
+        <v>81.73404531926971</v>
       </c>
       <c r="V59">
-        <v>-8.022184003164368</v>
+        <v>-8.018745791509863</v>
       </c>
       <c r="W59">
         <v>3790771.7</v>
@@ -6138,10 +6138,10 @@
         <v>0.3863</v>
       </c>
       <c r="AC59">
-        <v>-7.611908166717196</v>
+        <v>-7.608513672595696</v>
       </c>
       <c r="AD59">
-        <v>-0.1261597399173309</v>
+        <v>-0.1313623146025789</v>
       </c>
       <c r="AE59">
         <v>107</v>
@@ -6199,22 +6199,22 @@
         <v>4.761904761904767</v>
       </c>
       <c r="Q60">
-        <v>5225437.12574008</v>
+        <v>5236037.410087155</v>
       </c>
       <c r="R60">
-        <v>5227832.920957467</v>
+        <v>5238689.170434615</v>
       </c>
       <c r="S60">
-        <v>-0.04582769291998634</v>
+        <v>-0.05061877620884392</v>
       </c>
       <c r="T60">
         <v>75.73999999999999</v>
       </c>
       <c r="U60">
-        <v>81.69518120958907</v>
+        <v>81.69208056807263</v>
       </c>
       <c r="V60">
-        <v>-7.289513434471795</v>
+        <v>-7.285994586847211</v>
       </c>
       <c r="W60">
         <v>3841254.4</v>
@@ -6235,10 +6235,10 @@
         <v>0.3832</v>
       </c>
       <c r="AC60">
-        <v>-8.022184003164368</v>
+        <v>-8.018745791509863</v>
       </c>
       <c r="AD60">
-        <v>0.1623826191436084</v>
+        <v>0.1571817746853332</v>
       </c>
       <c r="AE60">
         <v>106</v>
@@ -6296,22 +6296,22 @@
         <v>4.484940043433117</v>
       </c>
       <c r="Q61">
-        <v>5238017.650699396</v>
+        <v>5248679.894052406</v>
       </c>
       <c r="R61">
-        <v>5254766.237418638</v>
+        <v>5265654.603504525</v>
       </c>
       <c r="S61">
-        <v>-0.3187313376564083</v>
+        <v>-0.3223665570624701</v>
       </c>
       <c r="T61">
         <v>73.73999999999999</v>
       </c>
       <c r="U61">
-        <v>81.67079171742276</v>
+        <v>81.66765091813546</v>
       </c>
       <c r="V61">
-        <v>-9.710683036920887</v>
+        <v>-9.707210662986054</v>
       </c>
       <c r="W61">
         <v>3885847</v>
@@ -6332,10 +6332,10 @@
         <v>0.3823</v>
       </c>
       <c r="AC61">
-        <v>-7.289513434471795</v>
+        <v>-7.285994586847211</v>
       </c>
       <c r="AD61">
-        <v>-0.04582769291998634</v>
+        <v>-0.05061877620884392</v>
       </c>
       <c r="AE61">
         <v>109.1</v>
@@ -6393,22 +6393,22 @@
         <v>4.585338239456549</v>
       </c>
       <c r="Q62">
-        <v>5255903.377244</v>
+        <v>5266571.098303727</v>
       </c>
       <c r="R62">
-        <v>5281579.256898387</v>
+        <v>5292497.178812094</v>
       </c>
       <c r="S62">
-        <v>-0.4861401941635424</v>
+        <v>-0.4898647960013935</v>
       </c>
       <c r="T62">
         <v>73.19</v>
       </c>
       <c r="U62">
-        <v>81.66418021923904</v>
+        <v>81.6610049549318</v>
       </c>
       <c r="V62">
-        <v>-10.37686314426828</v>
+        <v>-10.37337828453973</v>
       </c>
       <c r="W62">
         <v>3929048.6</v>
@@ -6429,10 +6429,10 @@
         <v>0.3848</v>
       </c>
       <c r="AC62">
-        <v>-9.710683036920887</v>
+        <v>-9.707210662986054</v>
       </c>
       <c r="AD62">
-        <v>-0.3187313376564083</v>
+        <v>-0.3223665570624701</v>
       </c>
       <c r="AE62">
         <v>107</v>
@@ -6490,22 +6490,22 @@
         <v>4.867465333459098</v>
       </c>
       <c r="Q63">
-        <v>5277050.526920802</v>
+        <v>5287783.204963878</v>
       </c>
       <c r="R63">
-        <v>5308261.023865705</v>
+        <v>5319205.812369233</v>
       </c>
       <c r="S63">
-        <v>-0.5879608558166716</v>
+        <v>-0.5907387026139355</v>
       </c>
       <c r="T63">
         <v>74.67</v>
       </c>
       <c r="U63">
-        <v>81.67553360662691</v>
+        <v>81.67233009378901</v>
       </c>
       <c r="V63">
-        <v>-8.577273140776276</v>
+        <v>-8.573687178690548</v>
       </c>
       <c r="W63">
         <v>3978014.6</v>
@@ -6526,10 +6526,10 @@
         <v>0.3808</v>
       </c>
       <c r="AC63">
-        <v>-10.37686314426828</v>
+        <v>-10.37337828453973</v>
       </c>
       <c r="AD63">
-        <v>-0.4861401941635424</v>
+        <v>-0.4898647960013935</v>
       </c>
       <c r="AE63">
         <v>107.8</v>
@@ -6587,22 +6587,22 @@
         <v>5.004703668861721</v>
       </c>
       <c r="Q64">
-        <v>5276331.995361655</v>
+        <v>5287055.566960429</v>
       </c>
       <c r="R64">
-        <v>5334800.384673249</v>
+        <v>5345769.220140927</v>
       </c>
       <c r="S64">
-        <v>-1.095980825816323</v>
+        <v>-1.098320012754872</v>
       </c>
       <c r="T64">
         <v>74.77</v>
       </c>
       <c r="U64">
-        <v>81.70497338398478</v>
+        <v>81.70174838734293</v>
       </c>
       <c r="V64">
-        <v>-8.48782282982069</v>
+        <v>-8.484210588101426</v>
       </c>
       <c r="W64">
         <v>4015980.2</v>
@@ -6623,10 +6623,10 @@
         <v>0.3807</v>
       </c>
       <c r="AC64">
-        <v>-8.577273140776276</v>
+        <v>-8.573687178690548</v>
       </c>
       <c r="AD64">
-        <v>-0.5879608558166716</v>
+        <v>-0.5907387026139355</v>
       </c>
       <c r="AE64">
         <v>108.5</v>
@@ -6684,22 +6684,22 @@
         <v>4.910337057553282</v>
       </c>
       <c r="Q65">
-        <v>5300671.700775788</v>
+        <v>5311428.397203554</v>
       </c>
       <c r="R65">
-        <v>5361185.944851928</v>
+        <v>5372175.875633789</v>
       </c>
       <c r="S65">
-        <v>-1.128747346177184</v>
+        <v>-1.130779777813362</v>
       </c>
       <c r="T65">
         <v>72.20999999999999</v>
       </c>
       <c r="U65">
-        <v>81.75256700066248</v>
+        <v>81.74932785790301</v>
       </c>
       <c r="V65">
-        <v>-11.67249830893403</v>
+        <v>-11.66899852006651</v>
       </c>
       <c r="W65">
         <v>4058947.1</v>
@@ -6720,10 +6720,10 @@
         <v>0.3802</v>
       </c>
       <c r="AC65">
-        <v>-8.48782282982069</v>
+        <v>-8.484210588101426</v>
       </c>
       <c r="AD65">
-        <v>-1.095980825816323</v>
+        <v>-1.098320012754872</v>
       </c>
       <c r="AE65">
         <v>105.4</v>
@@ -6781,22 +6781,22 @@
         <v>5.039887376818375</v>
       </c>
       <c r="Q66">
-        <v>5327418.627739639</v>
+        <v>5338236.306741288</v>
       </c>
       <c r="R66">
-        <v>5387405.858787677</v>
+        <v>5398413.799316972</v>
       </c>
       <c r="S66">
-        <v>-1.113471541227773</v>
+        <v>-1.114725451081544</v>
       </c>
       <c r="T66">
         <v>73.42</v>
       </c>
       <c r="U66">
-        <v>81.81832839541806</v>
+        <v>81.81508304206592</v>
       </c>
       <c r="V66">
-        <v>-10.26460520536421</v>
+        <v>-10.26104567754276</v>
       </c>
       <c r="W66">
         <v>4111272.3</v>
@@ -6817,10 +6817,10 @@
         <v>0.3794</v>
       </c>
       <c r="AC66">
-        <v>-11.67249830893403</v>
+        <v>-11.66899852006651</v>
       </c>
       <c r="AD66">
-        <v>-1.128747346177184</v>
+        <v>-1.130779777813362</v>
       </c>
       <c r="AE66">
         <v>103.4</v>
@@ -6878,22 +6878,22 @@
         <v>5.051073001593109</v>
       </c>
       <c r="Q67">
-        <v>5366188.887314315</v>
+        <v>5377115.261851807</v>
       </c>
       <c r="R67">
-        <v>5413447.813935524</v>
+        <v>5424470.5429291</v>
       </c>
       <c r="S67">
-        <v>-0.8729912662971073</v>
+        <v>-0.8729936074410305</v>
       </c>
       <c r="T67">
         <v>72.38</v>
       </c>
       <c r="U67">
-        <v>81.90219787609044</v>
+        <v>81.89895487050646</v>
       </c>
       <c r="V67">
-        <v>-11.62630322875651</v>
+        <v>-11.62280383865367</v>
       </c>
       <c r="W67">
         <v>4158547.4</v>
@@ -6914,10 +6914,10 @@
         <v>0.3784</v>
       </c>
       <c r="AC67">
-        <v>-10.26460520536421</v>
+        <v>-10.26104567754276</v>
       </c>
       <c r="AD67">
-        <v>-1.113471541227773</v>
+        <v>-1.114725451081544</v>
       </c>
       <c r="AE67">
         <v>102.5</v>
@@ -6975,22 +6975,22 @@
         <v>5.034153644614969</v>
       </c>
       <c r="Q68">
-        <v>5418172.411033183</v>
+        <v>5429181.14433581</v>
       </c>
       <c r="R68">
-        <v>5439299.034886049</v>
+        <v>5450333.193876247</v>
       </c>
       <c r="S68">
-        <v>-0.3884071038816939</v>
+        <v>-0.3880872744477792</v>
       </c>
       <c r="T68">
         <v>71.76000000000001</v>
       </c>
       <c r="U68">
-        <v>82.0040509486019</v>
+        <v>82.00081949702249</v>
       </c>
       <c r="V68">
-        <v>-12.49212792551262</v>
+        <v>-12.48867945447099</v>
       </c>
       <c r="W68">
         <v>4196989.2</v>
@@ -7011,10 +7011,10 @@
         <v>0.3773</v>
       </c>
       <c r="AC68">
-        <v>-11.62630322875651</v>
+        <v>-11.62280383865367</v>
       </c>
       <c r="AD68">
-        <v>-0.8729912662971073</v>
+        <v>-0.8729936074410305</v>
       </c>
       <c r="AE68">
         <v>104.8</v>
@@ -7072,22 +7072,22 @@
         <v>4.840063415089069</v>
       </c>
       <c r="Q69">
-        <v>5456334.54872133</v>
+        <v>5467407.86787616</v>
       </c>
       <c r="R69">
-        <v>5464946.381577649</v>
+        <v>5475988.474168834</v>
       </c>
       <c r="S69">
-        <v>-0.1575831171070519</v>
+        <v>-0.1566951123646576</v>
       </c>
       <c r="T69">
         <v>73.43000000000001</v>
       </c>
       <c r="U69">
-        <v>82.12368964512346</v>
+        <v>82.1204796266852</v>
       </c>
       <c r="V69">
-        <v>-10.58609237199524</v>
+        <v>-10.58259725977198</v>
       </c>
       <c r="W69">
         <v>4239493.9</v>
@@ -7108,10 +7108,10 @@
         <v>0.375</v>
       </c>
       <c r="AC69">
-        <v>-12.49212792551262</v>
+        <v>-12.48867945447099</v>
       </c>
       <c r="AD69">
-        <v>-0.3884071038816939</v>
+        <v>-0.3880872744477792</v>
       </c>
       <c r="AE69">
         <v>109</v>
@@ -7169,22 +7169,22 @@
         <v>4.286646165315444</v>
       </c>
       <c r="Q70">
-        <v>5482756.206438667</v>
+        <v>5493900.645145174</v>
       </c>
       <c r="R70">
-        <v>5490376.550934639</v>
+        <v>5501422.942607041</v>
       </c>
       <c r="S70">
-        <v>-0.138794569466727</v>
+        <v>-0.1367336694586663</v>
       </c>
       <c r="T70">
         <v>78.12</v>
       </c>
       <c r="U70">
-        <v>82.26083695422453</v>
+        <v>82.25765894589773</v>
       </c>
       <c r="V70">
-        <v>-5.033788990657562</v>
+        <v>-5.030119989944204</v>
       </c>
       <c r="W70">
         <v>4272946.9</v>
@@ -7205,10 +7205,10 @@
         <v>0.3699</v>
       </c>
       <c r="AC70">
-        <v>-10.58609237199524</v>
+        <v>-10.58259725977198</v>
       </c>
       <c r="AD70">
-        <v>-0.1575831171070519</v>
+        <v>-0.1566951123646576</v>
       </c>
       <c r="AE70">
         <v>104.3</v>
@@ -7266,22 +7266,22 @@
         <v>4.421800504814422</v>
       </c>
       <c r="Q71">
-        <v>5504211.897355429</v>
+        <v>5515394.554112084</v>
       </c>
       <c r="R71">
-        <v>5515576.173432005</v>
+        <v>5526623.091782643</v>
       </c>
       <c r="S71">
-        <v>-0.2060396904917439</v>
+        <v>-0.2031717648206088</v>
       </c>
       <c r="T71">
         <v>78.22</v>
       </c>
       <c r="U71">
-        <v>82.4151487835362</v>
+        <v>82.41201408489194</v>
       </c>
       <c r="V71">
-        <v>-5.090264163151337</v>
+        <v>-5.086654089746889</v>
       </c>
       <c r="W71">
         <v>4305785.2</v>
@@ -7302,10 +7302,10 @@
         <v>0.3515</v>
       </c>
       <c r="AC71">
-        <v>-5.033788990657562</v>
+        <v>-5.030119989944204</v>
       </c>
       <c r="AD71">
-        <v>-0.138794569466727</v>
+        <v>-0.1367336694586663</v>
       </c>
       <c r="AE71">
         <v>100.7</v>
@@ -7363,22 +7363,22 @@
         <v>4.463615903975993</v>
       </c>
       <c r="Q72">
-        <v>5544776.759426854</v>
+        <v>5556025.220784858</v>
       </c>
       <c r="R72">
-        <v>5540531.820745794</v>
+        <v>5551575.356245022</v>
       </c>
       <c r="S72">
-        <v>0.07661608701829969</v>
+        <v>0.08015498762581341</v>
       </c>
       <c r="T72">
         <v>78.06</v>
       </c>
       <c r="U72">
-        <v>82.58624908978588</v>
+        <v>82.5831697475185</v>
       </c>
       <c r="V72">
-        <v>-5.480632841025434</v>
+        <v>-5.477108424570265</v>
       </c>
       <c r="W72">
         <v>4338896</v>
@@ -7399,10 +7399,10 @@
         <v>0.3617</v>
       </c>
       <c r="AC72">
-        <v>-5.090264163151337</v>
+        <v>-5.086654089746889</v>
       </c>
       <c r="AD72">
-        <v>-0.2060396904917439</v>
+        <v>-0.2031717648206088</v>
       </c>
       <c r="AE72">
         <v>103.4</v>
@@ -7460,22 +7460,22 @@
         <v>4.131455399061035</v>
       </c>
       <c r="Q73">
-        <v>5572005.683390851</v>
+        <v>5583342.822526404</v>
       </c>
       <c r="R73">
-        <v>5565229.97686471</v>
+        <v>5576266.083903554</v>
       </c>
       <c r="S73">
-        <v>0.1217507013062891</v>
+        <v>0.1269081947735229</v>
       </c>
       <c r="T73">
         <v>79.39</v>
       </c>
       <c r="U73">
-        <v>82.77372945972662</v>
+        <v>82.7707182918426</v>
       </c>
       <c r="V73">
-        <v>-4.08792678765667</v>
+        <v>-4.084437542178221</v>
       </c>
       <c r="W73">
         <v>4376382</v>
@@ -7496,10 +7496,10 @@
         <v>0.3538</v>
       </c>
       <c r="AC73">
-        <v>-5.480632841025434</v>
+        <v>-5.477108424570265</v>
       </c>
       <c r="AD73">
-        <v>0.07661608701829969</v>
+        <v>0.08015498762581341</v>
       </c>
       <c r="AE73">
         <v>105.6</v>
@@ -7557,22 +7557,22 @@
         <v>4.217661457352651</v>
       </c>
       <c r="Q74">
-        <v>5595272.252517428</v>
+        <v>5606626.683591469</v>
       </c>
       <c r="R74">
-        <v>5589657.158531602</v>
+        <v>5600681.657003006</v>
       </c>
       <c r="S74">
-        <v>0.1004550695431261</v>
+        <v>0.1061482682385595</v>
       </c>
       <c r="T74">
         <v>76.75</v>
       </c>
       <c r="U74">
-        <v>82.97714655535148</v>
+        <v>82.97421717492836</v>
       </c>
       <c r="V74">
-        <v>-7.504652562615588</v>
+        <v>-7.501387041478558</v>
       </c>
       <c r="W74">
         <v>4412981.7</v>
@@ -7593,10 +7593,10 @@
         <v>0.351</v>
       </c>
       <c r="AC74">
-        <v>-4.08792678765667</v>
+        <v>-4.084437542178221</v>
       </c>
       <c r="AD74">
-        <v>0.1217507013062891</v>
+        <v>0.1269081947735229</v>
       </c>
       <c r="AE74">
         <v>106.8</v>
@@ -7654,22 +7654,22 @@
         <v>4.298535663675018</v>
       </c>
       <c r="Q75">
-        <v>5623075.827621965</v>
+        <v>5634502.471023914</v>
       </c>
       <c r="R75">
-        <v>5613799.934771035</v>
+        <v>5624808.512392679</v>
       </c>
       <c r="S75">
-        <v>0.165233762490824</v>
+        <v>0.1723429092719719</v>
       </c>
       <c r="T75">
         <v>75.45</v>
       </c>
       <c r="U75">
-        <v>83.19603092962885</v>
+        <v>83.19319776804866</v>
       </c>
       <c r="V75">
-        <v>-9.31057749158828</v>
+        <v>-9.307489044522011</v>
       </c>
       <c r="W75">
         <v>4448184.5</v>
@@ -7690,10 +7690,10 @@
         <v>0.3562</v>
       </c>
       <c r="AC75">
-        <v>-7.504652562615588</v>
+        <v>-7.501387041478558</v>
       </c>
       <c r="AD75">
-        <v>0.1004550695431261</v>
+        <v>0.1061482682385595</v>
       </c>
       <c r="AE75">
         <v>103.3</v>
@@ -7751,22 +7751,22 @@
         <v>4.351957430634745</v>
       </c>
       <c r="Q76">
-        <v>5652897.331366208</v>
+        <v>5664398.624866613</v>
       </c>
       <c r="R76">
-        <v>5637644.917933934</v>
+        <v>5648633.132793915</v>
       </c>
       <c r="S76">
-        <v>0.2705458334872235</v>
+        <v>0.2791027794170065</v>
       </c>
       <c r="T76">
         <v>79</v>
       </c>
       <c r="U76">
-        <v>83.42986508655518</v>
+        <v>83.42714341611057</v>
       </c>
       <c r="V76">
-        <v>-5.309687462588331</v>
+        <v>-5.306598350166746</v>
       </c>
       <c r="W76">
         <v>4489325.6</v>
@@ -7787,10 +7787,10 @@
         <v>0.3575</v>
       </c>
       <c r="AC76">
-        <v>-9.31057749158828</v>
+        <v>-9.307489044522011</v>
       </c>
       <c r="AD76">
-        <v>0.165233762490824</v>
+        <v>0.1723429092719719</v>
       </c>
       <c r="AE76">
         <v>106.1</v>
@@ -7848,22 +7848,22 @@
         <v>4.043767840152235</v>
       </c>
       <c r="Q77">
-        <v>5677055.853626167</v>
+        <v>5688588.45614536</v>
       </c>
       <c r="R77">
-        <v>5661178.791944455</v>
+        <v>5672142.075727134</v>
       </c>
       <c r="S77">
-        <v>0.2804550477067513</v>
+        <v>0.2899500788001275</v>
       </c>
       <c r="T77">
         <v>81.09999999999999</v>
       </c>
       <c r="U77">
-        <v>83.67807176137062</v>
+        <v>83.6754777171254</v>
       </c>
       <c r="V77">
-        <v>-3.080940689841238</v>
+        <v>-3.077936078037236</v>
       </c>
       <c r="W77">
         <v>4520587.8</v>
@@ -7884,10 +7884,10 @@
         <v>0.347</v>
       </c>
       <c r="AC77">
-        <v>-5.309687462588331</v>
+        <v>-5.306598350166746</v>
       </c>
       <c r="AD77">
-        <v>0.2705458334872235</v>
+        <v>0.2791027794170065</v>
       </c>
       <c r="AE77">
         <v>109.5</v>
@@ -7945,22 +7945,22 @@
         <v>3.695590056195819</v>
       </c>
       <c r="Q78">
-        <v>5706118.772477174</v>
+        <v>5717707.854578147</v>
       </c>
       <c r="R78">
-        <v>5684388.358415112</v>
+        <v>5695322.020360083</v>
       </c>
       <c r="S78">
-        <v>0.3822823616527415</v>
+        <v>0.3930565144172116</v>
       </c>
       <c r="T78">
         <v>85.53</v>
       </c>
       <c r="U78">
-        <v>83.94003950825994</v>
+        <v>83.93759010904446</v>
       </c>
       <c r="V78">
-        <v>1.894162191314663</v>
+        <v>1.897135584768184</v>
       </c>
       <c r="W78">
         <v>4554177.4</v>
@@ -7981,10 +7981,10 @@
         <v>0.3395</v>
       </c>
       <c r="AC78">
-        <v>-3.080940689841238</v>
+        <v>-3.077936078037236</v>
       </c>
       <c r="AD78">
-        <v>0.2804550477067513</v>
+        <v>0.2899500788001275</v>
       </c>
       <c r="AE78">
         <v>113.2</v>
@@ -8042,22 +8042,22 @@
         <v>3.307281738467416</v>
       </c>
       <c r="Q79">
-        <v>5727566.665402303</v>
+        <v>5739224.858603673</v>
       </c>
       <c r="R79">
-        <v>5707260.541466593</v>
+        <v>5718159.772761606</v>
       </c>
       <c r="S79">
-        <v>0.3557945846027755</v>
+        <v>0.3683892489749985</v>
       </c>
       <c r="T79">
         <v>87</v>
       </c>
       <c r="U79">
-        <v>84.21513698887483</v>
+        <v>84.21285015730747</v>
       </c>
       <c r="V79">
-        <v>3.306843770251255</v>
+        <v>3.309649106384827</v>
       </c>
       <c r="W79">
         <v>4585739</v>
@@ -8078,10 +8078,10 @@
         <v>0.333</v>
       </c>
       <c r="AC79">
-        <v>1.894162191314663</v>
+        <v>1.897135584768184</v>
       </c>
       <c r="AD79">
-        <v>0.3822823616527415</v>
+        <v>0.3930565144172116</v>
       </c>
       <c r="AE79">
         <v>112.3</v>
@@ -8139,22 +8139,22 @@
         <v>2.728136882129273</v>
       </c>
       <c r="Q80">
-        <v>5759604.396462884</v>
+        <v>5771305.973314159</v>
       </c>
       <c r="R80">
-        <v>5729782.432892604</v>
+        <v>5740642.311730772</v>
       </c>
       <c r="S80">
-        <v>0.5204728786748047</v>
+        <v>0.5341503601561604</v>
       </c>
       <c r="T80">
         <v>85.92</v>
       </c>
       <c r="U80">
-        <v>84.50274513308248</v>
+        <v>84.50063971446853</v>
       </c>
       <c r="V80">
-        <v>1.677170208713918</v>
+        <v>1.679703597898841</v>
       </c>
       <c r="W80">
         <v>4627426.9</v>
@@ -8175,10 +8175,10 @@
         <v>0.3342</v>
       </c>
       <c r="AC80">
-        <v>3.306843770251255</v>
+        <v>3.309649106384827</v>
       </c>
       <c r="AD80">
-        <v>0.3557945846027755</v>
+        <v>0.3683892489749985</v>
       </c>
       <c r="AE80">
         <v>109.6</v>
@@ -8236,22 +8236,22 @@
         <v>2.480045610034209</v>
       </c>
       <c r="Q81">
-        <v>5800735.092474511</v>
+        <v>5812524.387735578</v>
       </c>
       <c r="R81">
-        <v>5751941.281169859</v>
+        <v>5762756.778605817</v>
       </c>
       <c r="S81">
-        <v>0.8483016240862673</v>
+        <v>0.8636076628207423</v>
       </c>
       <c r="T81">
         <v>86.89</v>
       </c>
       <c r="U81">
-        <v>84.80226635889235</v>
+        <v>84.80036213886609</v>
       </c>
       <c r="V81">
-        <v>2.461884252328983</v>
+        <v>2.46418506764392</v>
       </c>
       <c r="W81">
         <v>4671291.7</v>
@@ -8272,10 +8272,10 @@
         <v>0.3317</v>
       </c>
       <c r="AC81">
-        <v>1.677170208713918</v>
+        <v>1.679703597898841</v>
       </c>
       <c r="AD81">
-        <v>0.5204728786748047</v>
+        <v>0.5341503601561604</v>
       </c>
       <c r="AE81">
         <v>108.3</v>
@@ -8333,22 +8333,22 @@
         <v>2.00417933130701</v>
       </c>
       <c r="Q82">
-        <v>5830510.614800297</v>
+        <v>5842392.570255347</v>
       </c>
       <c r="R82">
-        <v>5773724.56488282</v>
+        <v>5784490.551327324</v>
       </c>
       <c r="S82">
-        <v>0.9835254397631443</v>
+        <v>1.000987354275074</v>
       </c>
       <c r="T82">
         <v>87.63</v>
       </c>
       <c r="U82">
-        <v>85.11311401992032</v>
+        <v>85.1114317406939</v>
       </c>
       <c r="V82">
-        <v>2.957107149775551</v>
+        <v>2.959142159632955</v>
       </c>
       <c r="W82">
         <v>4703853.6</v>
@@ -8369,10 +8369,10 @@
         <v>0.3339</v>
       </c>
       <c r="AC82">
-        <v>2.461884252328983</v>
+        <v>2.46418506764392</v>
       </c>
       <c r="AD82">
-        <v>0.8483016240862673</v>
+        <v>0.8636076628207423</v>
       </c>
       <c r="AE82">
         <v>107</v>
@@ -8430,22 +8430,22 @@
         <v>1.688003793266946</v>
       </c>
       <c r="Q83">
-        <v>5864415.452855511</v>
+        <v>5876323.413737418</v>
       </c>
       <c r="R83">
-        <v>5795120.13911137</v>
+        <v>5805831.391845277</v>
       </c>
       <c r="S83">
-        <v>1.195752841713582</v>
+        <v>1.214158957339895</v>
       </c>
       <c r="T83">
         <v>87.34</v>
       </c>
       <c r="U83">
-        <v>85.4347175788387</v>
+        <v>85.43327895389413</v>
       </c>
       <c r="V83">
-        <v>2.230103259138327</v>
+        <v>2.231824728552056</v>
       </c>
       <c r="W83">
         <v>4751483.1</v>
@@ -8466,10 +8466,10 @@
         <v>0.3311</v>
       </c>
       <c r="AC83">
-        <v>2.957107149775551</v>
+        <v>2.959142159632955</v>
       </c>
       <c r="AD83">
-        <v>0.9835254397631443</v>
+        <v>1.000987354275074</v>
       </c>
       <c r="AE83">
         <v>107.7</v>
@@ -8527,22 +8527,22 @@
         <v>1.52563252155784</v>
       </c>
       <c r="Q84">
-        <v>5878592.441413802</v>
+        <v>5890531.460175248</v>
       </c>
       <c r="R84">
-        <v>5816116.297099464</v>
+        <v>5826767.508884395</v>
       </c>
       <c r="S84">
-        <v>1.074190080165627</v>
+        <v>1.094328050563687</v>
       </c>
       <c r="T84">
         <v>87.98999999999999</v>
       </c>
       <c r="U84">
-        <v>85.76652591873668</v>
+        <v>85.76535364580559</v>
       </c>
       <c r="V84">
-        <v>2.592473062707534</v>
+        <v>2.593875335000395</v>
       </c>
       <c r="W84">
         <v>4786545.6</v>
@@ -8563,10 +8563,10 @@
         <v>0.33</v>
       </c>
       <c r="AC84">
-        <v>2.230103259138327</v>
+        <v>2.231824728552056</v>
       </c>
       <c r="AD84">
-        <v>1.195752841713582</v>
+        <v>1.214158957339895</v>
       </c>
       <c r="AE84">
         <v>107.9</v>
@@ -8624,22 +8624,22 @@
         <v>1.247165532879824</v>
       </c>
       <c r="Q85">
-        <v>5895822.801882846</v>
+        <v>5907815.118158773</v>
       </c>
       <c r="R85">
-        <v>5836701.866776961</v>
+        <v>5847287.655089367</v>
       </c>
       <c r="S85">
-        <v>1.012916822810617</v>
+        <v>1.035137428491706</v>
       </c>
       <c r="T85">
         <v>88.5</v>
       </c>
       <c r="U85">
-        <v>86.10800262395644</v>
+        <v>86.10712039612176</v>
       </c>
       <c r="V85">
-        <v>2.777903682761851</v>
+        <v>2.778956714462399</v>
       </c>
       <c r="W85">
         <v>4814760</v>
@@ -8660,10 +8660,10 @@
         <v>0.3268</v>
       </c>
       <c r="AC85">
-        <v>2.592473062707534</v>
+        <v>2.593875335000395</v>
       </c>
       <c r="AD85">
-        <v>1.074190080165627</v>
+        <v>1.094328050563687</v>
       </c>
       <c r="AE85">
         <v>106.5</v>
@@ -8721,22 +8721,22 @@
         <v>0.904380593499754</v>
       </c>
       <c r="Q86">
-        <v>5906920.280313331</v>
+        <v>5918932.184005139</v>
       </c>
       <c r="R86">
-        <v>5856866.158142868</v>
+        <v>5867381.075110693</v>
       </c>
       <c r="S86">
-        <v>0.8546229471348088</v>
+        <v>0.8786050920252197</v>
       </c>
       <c r="T86">
         <v>86</v>
       </c>
       <c r="U86">
-        <v>86.45862843527622</v>
+        <v>86.45806095001659</v>
       </c>
       <c r="V86">
-        <v>-0.5304599940763044</v>
+        <v>-0.5298071052986075</v>
       </c>
       <c r="W86">
         <v>4859459.1</v>
@@ -8757,10 +8757,10 @@
         <v>0.3284</v>
       </c>
       <c r="AC86">
-        <v>2.777903682761851</v>
+        <v>2.778956714462399</v>
       </c>
       <c r="AD86">
-        <v>1.012916822810617</v>
+        <v>1.035137428491706</v>
       </c>
       <c r="AE86">
         <v>105.5</v>
@@ -8818,22 +8818,22 @@
         <v>0.7619226789577604</v>
       </c>
       <c r="Q87">
-        <v>5906065.079500478</v>
+        <v>5918081.444405335</v>
       </c>
       <c r="R87">
-        <v>5876598.937376175</v>
+        <v>5887037.480631744</v>
       </c>
       <c r="S87">
-        <v>0.5014148904546323</v>
+        <v>0.5273274355008795</v>
       </c>
       <c r="T87">
         <v>83.58</v>
       </c>
       <c r="U87">
-        <v>86.81790255024382</v>
+        <v>86.81767551624166</v>
       </c>
       <c r="V87">
-        <v>-3.729533258845963</v>
+        <v>-3.729281505165349</v>
       </c>
       <c r="W87">
         <v>4890027.5</v>
@@ -8854,10 +8854,10 @@
         <v>0.3292</v>
       </c>
       <c r="AC87">
-        <v>-0.5304599940763044</v>
+        <v>-0.5298071052986075</v>
       </c>
       <c r="AD87">
-        <v>0.8546229471348088</v>
+        <v>0.8786050920252197</v>
       </c>
       <c r="AE87">
         <v>106</v>
@@ -8915,22 +8915,22 @@
         <v>0.5253776151608713</v>
       </c>
       <c r="Q88">
-        <v>5928028.317856082</v>
+        <v>5940086.385355303</v>
       </c>
       <c r="R88">
-        <v>5895890.356875964</v>
+        <v>5906246.981106801</v>
       </c>
       <c r="S88">
-        <v>0.5450908859361281</v>
+        <v>0.5729425870057536</v>
       </c>
       <c r="T88">
         <v>82.97</v>
       </c>
       <c r="U88">
-        <v>87.18532062760788</v>
+        <v>87.18546076912644</v>
       </c>
       <c r="V88">
-        <v>-4.834897202033195</v>
+        <v>-4.83505016999255</v>
       </c>
       <c r="W88">
         <v>4926899.2</v>
@@ -8951,10 +8951,10 @@
         <v>0.3337</v>
       </c>
       <c r="AC88">
-        <v>-3.729533258845963</v>
+        <v>-3.729281505165349</v>
       </c>
       <c r="AD88">
-        <v>0.5014148904546323</v>
+        <v>0.5273274355008795</v>
       </c>
       <c r="AE88">
         <v>104.7</v>
@@ -9012,22 +9012,22 @@
         <v>0.7230725889755041</v>
       </c>
       <c r="Q89">
-        <v>5953340.660421158</v>
+        <v>5965466.64030491</v>
       </c>
       <c r="R89">
-        <v>5914730.796403598</v>
+        <v>5924999.925526925</v>
       </c>
       <c r="S89">
-        <v>0.6527746628982145</v>
+        <v>0.6829825364830899</v>
       </c>
       <c r="T89">
         <v>83.3</v>
       </c>
       <c r="U89">
-        <v>87.56035334229938</v>
+        <v>87.56088840093719</v>
       </c>
       <c r="V89">
-        <v>-4.865619175432512</v>
+        <v>-4.866200513437901</v>
       </c>
       <c r="W89">
         <v>4987524.1</v>
@@ -9048,10 +9048,10 @@
         <v>0.3296</v>
       </c>
       <c r="AC89">
-        <v>-4.834897202033195</v>
+        <v>-4.83505016999255</v>
       </c>
       <c r="AD89">
-        <v>0.5450908859361281</v>
+        <v>0.5729425870057536</v>
       </c>
       <c r="AE89">
         <v>102.2</v>
@@ -9109,22 +9109,22 @@
         <v>0.8638497652582178</v>
       </c>
       <c r="Q90">
-        <v>5986614.308795922</v>
+        <v>5998810.282768715</v>
       </c>
       <c r="R90">
-        <v>5933110.883698421</v>
+        <v>5943286.923989613</v>
       </c>
       <c r="S90">
-        <v>0.9017769286008948</v>
+        <v>0.9342197253675799</v>
       </c>
       <c r="T90">
         <v>84.33</v>
       </c>
       <c r="U90">
-        <v>87.94243884362922</v>
+        <v>87.94339757723709</v>
       </c>
       <c r="V90">
-        <v>-4.107731023985483</v>
+        <v>-4.108776413901449</v>
       </c>
       <c r="W90">
         <v>5026997</v>
@@ -9145,10 +9145,10 @@
         <v>0.3278</v>
       </c>
       <c r="AC90">
-        <v>-4.865619175432512</v>
+        <v>-4.866200513437901</v>
       </c>
       <c r="AD90">
-        <v>0.6527746628982145</v>
+        <v>0.6829825364830899</v>
       </c>
       <c r="AE90">
         <v>103</v>
@@ -9206,22 +9206,22 @@
         <v>1.124648547328966</v>
       </c>
       <c r="Q91">
-        <v>6029300.422263497</v>
+        <v>6041567.082310863</v>
       </c>
       <c r="R91">
-        <v>5951021.544415487</v>
+        <v>5961098.898835678</v>
       </c>
       <c r="S91">
-        <v>1.315385556307858</v>
+        <v>1.349888415555434</v>
       </c>
       <c r="T91">
         <v>90.18000000000001</v>
       </c>
       <c r="U91">
-        <v>88.33098240780996</v>
+        <v>88.33239458636206</v>
       </c>
       <c r="V91">
-        <v>2.09328317402091</v>
+        <v>2.091650998809458</v>
       </c>
       <c r="W91">
         <v>5066353.2</v>
@@ -9242,10 +9242,10 @@
         <v>0.3219</v>
       </c>
       <c r="AC91">
-        <v>-4.107731023985483</v>
+        <v>-4.108776413901449</v>
       </c>
       <c r="AD91">
-        <v>0.9017769286008948</v>
+        <v>0.9342197253675799</v>
       </c>
       <c r="AE91">
         <v>102.7</v>
@@ -9303,25 +9303,25 @@
         <v>1.844358708948901</v>
       </c>
       <c r="Q92">
-        <v>6070426.404794846</v>
+        <v>6082775.842985974</v>
       </c>
       <c r="R92">
-        <v>5968454.117044884</v>
+        <v>5978427.200826771</v>
       </c>
       <c r="S92">
-        <v>1.708520929376789</v>
+        <v>1.745419633859102</v>
       </c>
       <c r="T92">
         <v>93.45</v>
       </c>
       <c r="U92">
-        <v>88.72536143729886</v>
+        <v>88.72725783549646</v>
       </c>
       <c r="V92">
-        <v>5.325014726527755</v>
+        <v>5.322763578763667</v>
       </c>
       <c r="W92">
-        <v>5109929.7</v>
+        <v>5109929.8</v>
       </c>
       <c r="X92">
         <v>1614285.77</v>
@@ -9339,10 +9339,10 @@
         <v>0.3192</v>
       </c>
       <c r="AC92">
-        <v>2.09328317402091</v>
+        <v>2.091650998809458</v>
       </c>
       <c r="AD92">
-        <v>1.315385556307858</v>
+        <v>1.349888415555434</v>
       </c>
       <c r="AE92">
         <v>102.4</v>
@@ -9400,22 +9400,22 @@
         <v>2.224526345555677</v>
       </c>
       <c r="Q93">
-        <v>6113437.320556102</v>
+        <v>6125873.181437572</v>
       </c>
       <c r="R93">
-        <v>5985400.54408036</v>
+        <v>5995263.801621089</v>
       </c>
       <c r="S93">
-        <v>2.139151348899659</v>
+        <v>2.178542665314698</v>
       </c>
       <c r="T93">
         <v>98.06</v>
       </c>
       <c r="U93">
-        <v>89.1249676016636</v>
+        <v>89.12737998803789</v>
       </c>
       <c r="V93">
-        <v>10.02528543771344</v>
+        <v>10.02230741345813</v>
       </c>
       <c r="W93">
         <v>5144959.4</v>
@@ -9436,10 +9436,10 @@
         <v>0.3159</v>
       </c>
       <c r="AC93">
-        <v>5.325014726527755</v>
+        <v>5.322763578763667</v>
       </c>
       <c r="AD93">
-        <v>1.708520929376789</v>
+        <v>1.745419633859102</v>
       </c>
       <c r="AE93">
         <v>99.5</v>
@@ -9497,22 +9497,22 @@
         <v>2.871717362554316</v>
       </c>
       <c r="Q94">
-        <v>6169777.07987151</v>
+        <v>6182346.988115339</v>
       </c>
       <c r="R94">
-        <v>6001853.554838902</v>
+        <v>6011601.478036087</v>
       </c>
       <c r="S94">
-        <v>2.797861085717801</v>
+        <v>2.840266619520371</v>
       </c>
       <c r="T94">
         <v>94.79000000000001</v>
       </c>
       <c r="U94">
-        <v>89.52922902601675</v>
+        <v>89.53219014829615</v>
       </c>
       <c r="V94">
-        <v>5.876037391603695</v>
+        <v>5.872535724855066</v>
       </c>
       <c r="W94">
         <v>5190038.5</v>
@@ -9533,10 +9533,10 @@
         <v>0.3139</v>
       </c>
       <c r="AC94">
-        <v>10.02528543771344</v>
+        <v>10.02230741345813</v>
       </c>
       <c r="AD94">
-        <v>2.139151348899659</v>
+        <v>2.178542665314698</v>
       </c>
       <c r="AE94">
         <v>102</v>
@@ -9594,22 +9594,22 @@
         <v>3.221844293272857</v>
       </c>
       <c r="Q95">
-        <v>6202712.668533204</v>
+        <v>6215317.280019957</v>
       </c>
       <c r="R95">
-        <v>6017806.866575583</v>
+        <v>6027434.014677587</v>
       </c>
       <c r="S95">
-        <v>3.072644338000186</v>
+        <v>3.11713516705201</v>
       </c>
       <c r="T95">
         <v>91.47</v>
       </c>
       <c r="U95">
-        <v>89.93764277862205</v>
+        <v>89.94118634511781</v>
       </c>
       <c r="V95">
-        <v>1.703799626091818</v>
+        <v>1.699792627835595</v>
       </c>
       <c r="W95">
         <v>5234346.7</v>
@@ -9630,10 +9630,10 @@
         <v>0.3192</v>
       </c>
       <c r="AC95">
-        <v>5.876037391603695</v>
+        <v>5.872535724855066</v>
       </c>
       <c r="AD95">
-        <v>2.797861085717801</v>
+        <v>2.840266619520371</v>
       </c>
       <c r="AE95">
         <v>102.5</v>
@@ -9691,22 +9691,22 @@
         <v>3.479247423655085</v>
       </c>
       <c r="Q96">
-        <v>6233193.731531112</v>
+        <v>6245872.18807776</v>
       </c>
       <c r="R96">
-        <v>6033255.492251654</v>
+        <v>6042756.513632327</v>
       </c>
       <c r="S96">
-        <v>3.313936224584424</v>
+        <v>3.361308270277119</v>
       </c>
       <c r="T96">
         <v>94.70999999999999</v>
       </c>
       <c r="U96">
-        <v>90.34974652011121</v>
+        <v>90.35390717686991</v>
       </c>
       <c r="V96">
-        <v>4.825972011906221</v>
+        <v>4.821144939092603</v>
       </c>
       <c r="W96">
         <v>5278071.3</v>
@@ -9727,10 +9727,10 @@
         <v>0.3215999999999999</v>
       </c>
       <c r="AC96">
-        <v>1.703799626091818</v>
+        <v>1.699792627835595</v>
       </c>
       <c r="AD96">
-        <v>3.072644338000186</v>
+        <v>3.11713516705201</v>
       </c>
       <c r="AE96">
         <v>101.1</v>
@@ -9788,22 +9788,22 @@
         <v>3.767349636483819</v>
       </c>
       <c r="Q97">
-        <v>6256265.452954048</v>
+        <v>6268987.553610503</v>
       </c>
       <c r="R97">
-        <v>6048195.871570715</v>
+        <v>6057565.526703514</v>
       </c>
       <c r="S97">
-        <v>3.440192510321238</v>
+        <v>3.490214442996598</v>
       </c>
       <c r="T97">
         <v>95.87</v>
       </c>
       <c r="U97">
-        <v>90.76508973486068</v>
+        <v>90.76990303832132</v>
       </c>
       <c r="V97">
-        <v>5.624310271770327</v>
+        <v>5.6187092758329</v>
       </c>
       <c r="W97">
         <v>5331619</v>
@@ -9824,10 +9824,10 @@
         <v>0.3122</v>
       </c>
       <c r="AC97">
-        <v>4.825972011906221</v>
+        <v>4.821144939092603</v>
       </c>
       <c r="AD97">
-        <v>3.313936224584424</v>
+        <v>3.361308270277119</v>
       </c>
       <c r="AE97">
         <v>102.1</v>
@@ -9885,22 +9885,22 @@
         <v>4.337531963254082</v>
       </c>
       <c r="Q98">
-        <v>6275849.320145526</v>
+        <v>6288617.330977613</v>
       </c>
       <c r="R98">
-        <v>6062625.986969666</v>
+        <v>6071859.17294492</v>
       </c>
       <c r="S98">
-        <v>3.517012819760601</v>
+        <v>3.569881182332546</v>
       </c>
       <c r="T98">
         <v>95.59999999999999</v>
       </c>
       <c r="U98">
-        <v>91.18325555117762</v>
+        <v>91.18875793606831</v>
       </c>
       <c r="V98">
-        <v>4.843810875280075</v>
+        <v>4.837484536223613</v>
       </c>
       <c r="W98">
         <v>5376008.7</v>
@@ -9921,10 +9921,10 @@
         <v>0.3114</v>
       </c>
       <c r="AC98">
-        <v>5.624310271770327</v>
+        <v>5.6187092758329</v>
       </c>
       <c r="AD98">
-        <v>3.440192510321238</v>
+        <v>3.490214442996598</v>
       </c>
       <c r="AE98">
         <v>100.6</v>
@@ -9982,25 +9982,25 @@
         <v>4.494700984102962</v>
       </c>
       <c r="Q99">
-        <v>6289754.385736695</v>
+        <v>6302558.105961236</v>
       </c>
       <c r="R99">
-        <v>6076545.426360641</v>
+        <v>6085637.202753187</v>
       </c>
       <c r="S99">
-        <v>3.508719912651892</v>
+        <v>3.564473135367185</v>
       </c>
       <c r="T99">
         <v>94.72</v>
       </c>
       <c r="U99">
-        <v>91.60386648710895</v>
+        <v>91.61009522930675</v>
       </c>
       <c r="V99">
-        <v>3.401748891603362</v>
+        <v>3.394718412756736</v>
       </c>
       <c r="W99">
-        <v>5433417.2</v>
+        <v>5433417.3</v>
       </c>
       <c r="X99">
         <v>1686848.5</v>
@@ -10018,10 +10018,10 @@
         <v>0.3071</v>
       </c>
       <c r="AC99">
-        <v>4.843810875280075</v>
+        <v>4.837484536223613</v>
       </c>
       <c r="AD99">
-        <v>3.517012819760601</v>
+        <v>3.569881182332546</v>
       </c>
       <c r="AE99">
         <v>98.5</v>
@@ -10079,22 +10079,22 @@
         <v>4.239284032030133</v>
       </c>
       <c r="Q100">
-        <v>6292430.75352668</v>
+        <v>6305229.024066201</v>
       </c>
       <c r="R100">
-        <v>6089955.42289741</v>
+        <v>6098901.039041505</v>
       </c>
       <c r="S100">
-        <v>3.32474240891798</v>
+        <v>3.383035463338535</v>
       </c>
       <c r="T100">
         <v>91.68000000000001</v>
       </c>
       <c r="U100">
-        <v>92.02657914052007</v>
+        <v>92.03357231459458</v>
       </c>
       <c r="V100">
-        <v>-0.3766076537419227</v>
+        <v>-0.384177540545716</v>
       </c>
       <c r="W100">
         <v>5475987.8</v>
@@ -10115,10 +10115,10 @@
         <v>0.3105</v>
       </c>
       <c r="AC100">
-        <v>3.401748891603362</v>
+        <v>3.394718412756736</v>
       </c>
       <c r="AD100">
-        <v>3.508719912651892</v>
+        <v>3.564473135367185</v>
       </c>
       <c r="AE100">
         <v>97</v>
@@ -10176,25 +10176,25 @@
         <v>4.318780579601067</v>
       </c>
       <c r="Q101">
-        <v>6295152.902149993</v>
+        <v>6307940.349493985</v>
       </c>
       <c r="R101">
-        <v>6102858.854864721</v>
+        <v>6111653.778495572</v>
       </c>
       <c r="S101">
-        <v>3.150884722362379</v>
+        <v>3.211676873599512</v>
       </c>
       <c r="T101">
         <v>87.63</v>
       </c>
       <c r="U101">
-        <v>92.45107415351619</v>
+        <v>92.45887058466818</v>
       </c>
       <c r="V101">
-        <v>-5.214730275075807</v>
+        <v>-5.222722875731211</v>
       </c>
       <c r="W101">
-        <v>5509204.3</v>
+        <v>5509204.2</v>
       </c>
       <c r="X101">
         <v>1716892.6</v>
@@ -10212,10 +10212,10 @@
         <v>0.3117</v>
       </c>
       <c r="AC101">
-        <v>-0.3766076537419227</v>
+        <v>-0.384177540545716</v>
       </c>
       <c r="AD101">
-        <v>3.32474240891798</v>
+        <v>3.383035463338535</v>
       </c>
       <c r="AE101">
         <v>96.7</v>
@@ -10273,25 +10273,25 @@
         <v>4.258719563786761</v>
       </c>
       <c r="Q102">
-        <v>6291239.392502674</v>
+        <v>6304047.560371798</v>
       </c>
       <c r="R102">
-        <v>6115260.162856896</v>
+        <v>6123900.109837943</v>
       </c>
       <c r="S102">
-        <v>2.877706343789699</v>
+        <v>2.941711120409218</v>
       </c>
       <c r="T102">
         <v>86.90000000000001</v>
       </c>
       <c r="U102">
-        <v>92.87702949398113</v>
+        <v>92.88566870408269</v>
       </c>
       <c r="V102">
-        <v>-6.435422759045561</v>
+        <v>-6.444125113801968</v>
       </c>
       <c r="W102">
-        <v>5549143</v>
+        <v>5549142.8</v>
       </c>
       <c r="X102">
         <v>1750829.66</v>
@@ -10309,10 +10309,10 @@
         <v>0.3116</v>
       </c>
       <c r="AC102">
-        <v>-5.214730275075807</v>
+        <v>-5.222722875731211</v>
       </c>
       <c r="AD102">
-        <v>3.150884722362379</v>
+        <v>3.211676873599512</v>
       </c>
       <c r="AE102">
         <v>96.40000000000001</v>
@@ -10370,22 +10370,22 @@
         <v>4.111903867818256</v>
       </c>
       <c r="Q103">
-        <v>6294425.008760082</v>
+        <v>6307228.448070234</v>
       </c>
       <c r="R103">
-        <v>6127165.271218693</v>
+        <v>6135646.23634808</v>
       </c>
       <c r="S103">
-        <v>2.729806201361384</v>
+        <v>2.79648149702123</v>
       </c>
       <c r="T103">
         <v>87.05</v>
       </c>
       <c r="U103">
-        <v>93.30408593015206</v>
+        <v>93.31360807758938</v>
       </c>
       <c r="V103">
-        <v>-6.702906810355447</v>
+        <v>-6.712427272538058</v>
       </c>
       <c r="W103">
         <v>5575730.9</v>
@@ -10406,10 +10406,10 @@
         <v>0.3155</v>
       </c>
       <c r="AC103">
-        <v>-6.435422759045561</v>
+        <v>-6.444125113801968</v>
       </c>
       <c r="AD103">
-        <v>2.877706343789699</v>
+        <v>2.941711120409218</v>
       </c>
       <c r="AE103">
         <v>92.5</v>
@@ -10467,25 +10467,25 @@
         <v>4.131455399061035</v>
       </c>
       <c r="Q104">
-        <v>6325940.940034165</v>
+        <v>6338796.421990516</v>
       </c>
       <c r="R104">
-        <v>6138581.462159216</v>
+        <v>6146899.751332028</v>
       </c>
       <c r="S104">
-        <v>3.052162442250062</v>
+        <v>3.121844806675167</v>
       </c>
       <c r="T104">
         <v>87.48999999999999</v>
       </c>
       <c r="U104">
-        <v>93.73183811121167</v>
+        <v>93.7422839242242</v>
       </c>
       <c r="V104">
-        <v>-6.659250727384447</v>
+        <v>-6.669651796918219</v>
       </c>
       <c r="W104">
-        <v>5610038.7</v>
+        <v>5610039.3</v>
       </c>
       <c r="X104">
         <v>1799679.43</v>
@@ -10503,10 +10503,10 @@
         <v>0.3192</v>
       </c>
       <c r="AC104">
-        <v>-6.702906810355447</v>
+        <v>-6.712427272538058</v>
       </c>
       <c r="AD104">
-        <v>2.729806201361384</v>
+        <v>2.79648149702123</v>
       </c>
       <c r="AE104">
         <v>93.40000000000001</v>
@@ -10564,25 +10564,25 @@
         <v>4.121678715613553</v>
       </c>
       <c r="Q105">
-        <v>6364442.374410516</v>
+        <v>6377373.593869078</v>
       </c>
       <c r="R105">
-        <v>6149517.308471989</v>
+        <v>6157669.572032665</v>
       </c>
       <c r="S105">
-        <v>3.494990828669287</v>
+        <v>3.567973553408588</v>
       </c>
       <c r="T105">
         <v>88.77</v>
       </c>
       <c r="U105">
-        <v>94.15983242950672</v>
+        <v>94.17124313271376</v>
       </c>
       <c r="V105">
-        <v>-5.7241312887232</v>
+        <v>-5.735554669382337</v>
       </c>
       <c r="W105">
-        <v>5640035.7</v>
+        <v>5640036.7</v>
       </c>
       <c r="X105">
         <v>1838332.58</v>
@@ -10600,10 +10600,10 @@
         <v>0.3208</v>
       </c>
       <c r="AC105">
-        <v>-6.659250727384447</v>
+        <v>-6.669651796918219</v>
       </c>
       <c r="AD105">
-        <v>3.052162442250062</v>
+        <v>3.121844806675167</v>
       </c>
       <c r="AE105">
         <v>94.5</v>
@@ -10661,22 +10661,22 @@
         <v>3.88758782201406</v>
       </c>
       <c r="Q106">
-        <v>6394150.706169581</v>
+        <v>6407155.737077472</v>
       </c>
       <c r="R106">
-        <v>6159982.828625614</v>
+        <v>6167966.096377152</v>
       </c>
       <c r="S106">
-        <v>3.80143718024315</v>
+        <v>3.877933778540243</v>
       </c>
       <c r="T106">
         <v>89.59</v>
       </c>
       <c r="U106">
-        <v>94.58756711505281</v>
+        <v>94.59998434885328</v>
       </c>
       <c r="V106">
-        <v>-5.283534895208741</v>
+        <v>-5.295967418322311</v>
       </c>
       <c r="W106">
         <v>5683722.3</v>
@@ -10697,10 +10697,10 @@
         <v>0.3259</v>
       </c>
       <c r="AC106">
-        <v>-5.7241312887232</v>
+        <v>-5.735554669382337</v>
       </c>
       <c r="AD106">
-        <v>3.494990828669287</v>
+        <v>3.567973553408588</v>
       </c>
       <c r="AE106">
         <v>91.8</v>
@@ -10758,25 +10758,25 @@
         <v>4.062294774369057</v>
       </c>
       <c r="Q107">
-        <v>6421222.467828822</v>
+        <v>6434288.222558473</v>
       </c>
       <c r="R107">
-        <v>6169989.699460984</v>
+        <v>6177801.417539561</v>
       </c>
       <c r="S107">
-        <v>4.071850693523626</v>
+        <v>4.151748942442746</v>
       </c>
       <c r="T107">
         <v>92.87</v>
       </c>
       <c r="U107">
-        <v>95.01449880965234</v>
+        <v>95.02796454217909</v>
       </c>
       <c r="V107">
-        <v>-2.257022703396583</v>
+        <v>-2.270873160943332</v>
       </c>
       <c r="W107">
-        <v>5716978</v>
+        <v>5716974.9</v>
       </c>
       <c r="X107">
         <v>1878610.91</v>
@@ -10794,10 +10794,10 @@
         <v>0.3255</v>
       </c>
       <c r="AC107">
-        <v>-5.283534895208741</v>
+        <v>-5.295967418322311</v>
       </c>
       <c r="AD107">
-        <v>3.80143718024315</v>
+        <v>3.877933778540243</v>
       </c>
       <c r="AE107">
         <v>92.8</v>
@@ -10855,25 +10855,25 @@
         <v>4.307432432432434</v>
       </c>
       <c r="Q108">
-        <v>6439744.182555434</v>
+        <v>6452841.993612465</v>
       </c>
       <c r="R108">
-        <v>6179551.404669942</v>
+        <v>6187189.474293174</v>
       </c>
       <c r="S108">
-        <v>4.210544760398993</v>
+        <v>4.293589527572039</v>
       </c>
       <c r="T108">
         <v>94.97</v>
       </c>
       <c r="U108">
-        <v>95.44004559363343</v>
+        <v>95.45460202494108</v>
       </c>
       <c r="V108">
-        <v>-0.4925035300536229</v>
+        <v>-0.5076780109716017</v>
       </c>
       <c r="W108">
-        <v>5745161.4</v>
+        <v>5745157.1</v>
       </c>
       <c r="X108">
         <v>1891087.24</v>
@@ -10891,10 +10891,10 @@
         <v>0.3286</v>
       </c>
       <c r="AC108">
-        <v>-2.257022703396583</v>
+        <v>-2.270873160943332</v>
       </c>
       <c r="AD108">
-        <v>4.071850693523626</v>
+        <v>4.151748942442746</v>
       </c>
       <c r="AE108">
         <v>91.40000000000001</v>
@@ -10952,22 +10952,22 @@
         <v>4.85856592425522</v>
       </c>
       <c r="Q109">
-        <v>6449205.876457933</v>
+        <v>6462322.274625633</v>
       </c>
       <c r="R109">
-        <v>6188683.366468785</v>
+        <v>6196146.184476054</v>
       </c>
       <c r="S109">
-        <v>4.209659705660473</v>
+        <v>4.295832961728063</v>
       </c>
       <c r="T109">
         <v>96.64</v>
       </c>
       <c r="U109">
-        <v>95.86360900026456</v>
+        <v>95.87929845842787</v>
       </c>
       <c r="V109">
-        <v>0.809891269306684</v>
+        <v>0.7933949807757079</v>
       </c>
       <c r="W109">
         <v>5778953</v>
@@ -10988,10 +10988,10 @@
         <v>0.3292</v>
       </c>
       <c r="AC109">
-        <v>-0.4925035300536229</v>
+        <v>-0.5076780109716017</v>
       </c>
       <c r="AD109">
-        <v>4.210544760398993</v>
+        <v>4.293589527572039</v>
       </c>
       <c r="AE109">
         <v>86</v>
@@ -11049,25 +11049,25 @@
         <v>4.368116483106244</v>
       </c>
       <c r="Q110">
-        <v>6417246.180308597</v>
+        <v>6430312.829182491</v>
       </c>
       <c r="R110">
-        <v>6197403.014734119</v>
+        <v>6204689.515714294</v>
       </c>
       <c r="S110">
-        <v>3.547343379990098</v>
+        <v>3.636335273453595</v>
       </c>
       <c r="T110">
         <v>93.33</v>
       </c>
       <c r="U110">
-        <v>96.28458693592015</v>
+        <v>96.30145176471522</v>
       </c>
       <c r="V110">
-        <v>-3.068598027934111</v>
+        <v>-3.085573177001644</v>
       </c>
       <c r="W110">
-        <v>5800025.9</v>
+        <v>5800038.5</v>
       </c>
       <c r="X110">
         <v>1934268.91</v>
@@ -11085,10 +11085,10 @@
         <v>0.3315</v>
       </c>
       <c r="AC110">
-        <v>0.809891269306684</v>
+        <v>0.7933949807757079</v>
       </c>
       <c r="AD110">
-        <v>4.209659705660473</v>
+        <v>4.295832961728063</v>
       </c>
       <c r="AE110">
         <v>86.59999999999999</v>
@@ -11146,25 +11146,25 @@
         <v>4.131847725162485</v>
       </c>
       <c r="Q111">
-        <v>6379601.144011506</v>
+        <v>6392599.411016036</v>
       </c>
       <c r="R111">
-        <v>6205729.789547166</v>
+        <v>6212839.489461758</v>
       </c>
       <c r="S111">
-        <v>2.801787386186327</v>
+        <v>2.893361752853707</v>
       </c>
       <c r="T111">
         <v>98.77</v>
       </c>
       <c r="U111">
-        <v>96.70238329764541</v>
+        <v>96.72046573548958</v>
       </c>
       <c r="V111">
-        <v>2.138123830920025</v>
+        <v>2.119028531268108</v>
       </c>
       <c r="W111">
-        <v>5811266.1</v>
+        <v>5811292.2</v>
       </c>
       <c r="X111">
         <v>1927287.63</v>
@@ -11182,10 +11182,10 @@
         <v>0.3335</v>
       </c>
       <c r="AC111">
-        <v>-3.068598027934111</v>
+        <v>-3.085573177001644</v>
       </c>
       <c r="AD111">
-        <v>3.547343379990098</v>
+        <v>3.636335273453595</v>
       </c>
       <c r="AE111">
         <v>80.2</v>
@@ -11243,22 +11243,22 @@
         <v>4.115416628132795</v>
       </c>
       <c r="Q112">
-        <v>6339892.015205035</v>
+        <v>6352797.955747994</v>
       </c>
       <c r="R112">
-        <v>6213684.82730976</v>
+        <v>6220617.868092961</v>
       </c>
       <c r="S112">
-        <v>2.031116662701993</v>
+        <v>2.124870719563354</v>
       </c>
       <c r="T112">
         <v>106.96</v>
       </c>
       <c r="U112">
-        <v>97.116379184747</v>
+        <v>97.13572123456859</v>
       </c>
       <c r="V112">
-        <v>10.13590178905581</v>
+        <v>10.1139710917544</v>
       </c>
       <c r="W112">
         <v>5849624.5</v>
@@ -11279,10 +11279,10 @@
         <v>0.3316</v>
       </c>
       <c r="AC112">
-        <v>2.138123830920025</v>
+        <v>2.119028531268108</v>
       </c>
       <c r="AD112">
-        <v>2.801787386186327</v>
+        <v>2.893361752853707</v>
       </c>
       <c r="AE112">
         <v>76.09999999999999</v>
@@ -11340,25 +11340,25 @@
         <v>4.169363039659779</v>
       </c>
       <c r="Q113">
-        <v>6286675.307942589</v>
+        <v>6299484.780800516</v>
       </c>
       <c r="R113">
-        <v>6221290.606023821</v>
+        <v>6228047.801018933</v>
       </c>
       <c r="S113">
-        <v>1.050982923952448</v>
+        <v>1.147020415769706</v>
       </c>
       <c r="T113">
         <v>103.69</v>
       </c>
       <c r="U113">
-        <v>97.52597165036475</v>
+        <v>97.54661494007762</v>
       </c>
       <c r="V113">
-        <v>6.32039675721825</v>
+        <v>6.297896717068285</v>
       </c>
       <c r="W113">
-        <v>5867021.2</v>
+        <v>5867014.3</v>
       </c>
       <c r="X113">
         <v>1972169.01</v>
@@ -11376,10 +11376,10 @@
         <v>0.3282</v>
       </c>
       <c r="AC113">
-        <v>10.13590178905581</v>
+        <v>10.1139710917544</v>
       </c>
       <c r="AD113">
-        <v>2.031116662701993</v>
+        <v>2.124870719563354</v>
       </c>
       <c r="AE113">
         <v>74.09999999999999</v>
@@ -11437,25 +11437,25 @@
         <v>4.314557020374288</v>
       </c>
       <c r="Q114">
-        <v>6265916.345305609</v>
+        <v>6278688.75102508</v>
       </c>
       <c r="R114">
-        <v>6228570.57751208</v>
+        <v>6235153.457558703</v>
       </c>
       <c r="S114">
-        <v>0.599588096960213</v>
+        <v>0.6982232877299932</v>
       </c>
       <c r="T114">
         <v>104.13</v>
       </c>
       <c r="U114">
-        <v>97.93063370150158</v>
+        <v>97.95261933476212</v>
       </c>
       <c r="V114">
-        <v>6.33036473285209</v>
+        <v>6.306498700280905</v>
       </c>
       <c r="W114">
-        <v>5878032.1</v>
+        <v>5878046.3</v>
       </c>
       <c r="X114">
         <v>1984129.32</v>
@@ -11473,10 +11473,10 @@
         <v>0.3361</v>
       </c>
       <c r="AC114">
-        <v>6.32039675721825</v>
+        <v>6.297896717068285</v>
       </c>
       <c r="AD114">
-        <v>1.050982923952448</v>
+        <v>1.147020415769706</v>
       </c>
       <c r="AE114">
         <v>75.5</v>
@@ -11534,22 +11534,22 @@
         <v>4.307098907153994</v>
       </c>
       <c r="Q115">
-        <v>6254719.270259615</v>
+        <v>6267447.776564019</v>
       </c>
       <c r="R115">
-        <v>6235548.698108849</v>
+        <v>6241959.558242553</v>
       </c>
       <c r="S115">
-        <v>0.3074400197785376</v>
+        <v>0.4083368064730308</v>
       </c>
       <c r="T115">
         <v>105.07</v>
       </c>
       <c r="U115">
-        <v>98.32988590710805</v>
+        <v>98.35325430402986</v>
       </c>
       <c r="V115">
-        <v>6.854593627068084</v>
+        <v>6.829205340991873</v>
       </c>
       <c r="W115">
         <v>5907266.7</v>
@@ -11570,10 +11570,10 @@
         <v>0.3375</v>
       </c>
       <c r="AC115">
-        <v>6.33036473285209</v>
+        <v>6.306498700280905</v>
       </c>
       <c r="AD115">
-        <v>0.599588096960213</v>
+        <v>0.6982232877299932</v>
       </c>
       <c r="AE115">
         <v>75.09999999999999</v>
@@ -11631,25 +11631,25 @@
         <v>3.769623950346856</v>
       </c>
       <c r="Q116">
-        <v>6220257.071168233</v>
+        <v>6232940.584731707</v>
       </c>
       <c r="R116">
-        <v>6242249.212310246</v>
+        <v>6248491.159521281</v>
       </c>
       <c r="S116">
-        <v>-0.3523111685230895</v>
+        <v>-0.2488692772794954</v>
       </c>
       <c r="T116">
         <v>108.32</v>
       </c>
       <c r="U116">
-        <v>98.72329667075213</v>
+        <v>98.74808739826308</v>
       </c>
       <c r="V116">
-        <v>9.720809224243609</v>
+        <v>9.693263792677032</v>
       </c>
       <c r="W116">
-        <v>5927538.5</v>
+        <v>5927531.2</v>
       </c>
       <c r="X116">
         <v>2043298.54</v>
@@ -11667,10 +11667,10 @@
         <v>0.3442</v>
       </c>
       <c r="AC116">
-        <v>6.854593627068084</v>
+        <v>6.829205340991873</v>
       </c>
       <c r="AD116">
-        <v>0.3074400197785376</v>
+        <v>0.4083368064730308</v>
       </c>
       <c r="AE116">
         <v>74</v>
@@ -11728,25 +11728,25 @@
         <v>4.218022459600101</v>
       </c>
       <c r="Q117">
-        <v>6204864.014628449</v>
+        <v>6217508.351694506</v>
       </c>
       <c r="R117">
-        <v>6248696.512533487</v>
+        <v>6254773.514514052</v>
       </c>
       <c r="S117">
-        <v>-0.7014662628776924</v>
+        <v>-0.595787565018524</v>
       </c>
       <c r="T117">
         <v>116.79</v>
       </c>
       <c r="U117">
-        <v>99.1104864030529</v>
+        <v>99.13673799458481</v>
       </c>
       <c r="V117">
-        <v>17.83818669303041</v>
+        <v>17.80698292330285</v>
       </c>
       <c r="W117">
-        <v>5945152.7</v>
+        <v>5945145.4</v>
       </c>
       <c r="X117">
         <v>2034274.14</v>
@@ -11764,10 +11764,10 @@
         <v>0.3447</v>
       </c>
       <c r="AC117">
-        <v>9.720809224243609</v>
+        <v>9.693263792677032</v>
       </c>
       <c r="AD117">
-        <v>-0.3523111685230895</v>
+        <v>-0.2488692772794954</v>
       </c>
       <c r="AE117">
         <v>70.8</v>
@@ -11825,22 +11825,22 @@
         <v>4.256096447164115</v>
       </c>
       <c r="Q118">
-        <v>6184233.155008632</v>
+        <v>6196822.150905238</v>
       </c>
       <c r="R118">
-        <v>6254914.821503347</v>
+        <v>6260831.756350986</v>
       </c>
       <c r="S118">
-        <v>-1.130018049993631</v>
+        <v>-1.022381816614337</v>
       </c>
       <c r="T118">
         <v>129.34</v>
       </c>
       <c r="U118">
-        <v>99.49114956326838</v>
+        <v>99.51889932747032</v>
       </c>
       <c r="V118">
-        <v>30.00151326802205</v>
+        <v>29.96526375799469</v>
       </c>
       <c r="W118">
         <v>5953369.4</v>
@@ -11861,10 +11861,10 @@
         <v>0.3422</v>
       </c>
       <c r="AC118">
-        <v>17.83818669303041</v>
+        <v>17.80698292330285</v>
       </c>
       <c r="AD118">
-        <v>-0.7014662628776924</v>
+        <v>-0.595787565018524</v>
       </c>
       <c r="AE118">
         <v>69.7</v>
@@ -11922,25 +11922,25 @@
         <v>3.838806513235693</v>
       </c>
       <c r="Q119">
-        <v>6176034.384560913</v>
+        <v>6188604.695105772</v>
       </c>
       <c r="R119">
-        <v>6260928.023730835</v>
+        <v>6266690.730622382</v>
       </c>
       <c r="S119">
-        <v>-1.355927409613222</v>
+        <v>-1.246048973424518</v>
       </c>
       <c r="T119">
         <v>127.47</v>
       </c>
       <c r="U119">
-        <v>99.86511702665595</v>
+        <v>99.89440084483475</v>
       </c>
       <c r="V119">
-        <v>27.64216755083335</v>
+        <v>27.6047495374623</v>
       </c>
       <c r="W119">
-        <v>5965712.9</v>
+        <v>5965728.3</v>
       </c>
       <c r="X119">
         <v>2094869.64</v>
@@ -11958,10 +11958,10 @@
         <v>0.3409</v>
       </c>
       <c r="AC119">
-        <v>30.00151326802205</v>
+        <v>29.96526375799469</v>
       </c>
       <c r="AD119">
-        <v>-1.130018049993631</v>
+        <v>-1.022381816614337</v>
       </c>
       <c r="AE119">
         <v>65.09999999999999</v>
@@ -12019,25 +12019,25 @@
         <v>3.321868211440981</v>
       </c>
       <c r="Q120">
-        <v>6194951.804541047</v>
+        <v>6207566.830373841</v>
       </c>
       <c r="R120">
-        <v>6266759.458343778</v>
+        <v>6272374.789017262</v>
       </c>
       <c r="S120">
-        <v>-1.14584984919317</v>
+        <v>-1.033228415446374</v>
       </c>
       <c r="T120">
         <v>121.97</v>
       </c>
       <c r="U120">
-        <v>100.2324499836761</v>
+        <v>100.2633020956782</v>
       </c>
       <c r="V120">
-        <v>21.68713826696256</v>
+        <v>21.64969380682054</v>
       </c>
       <c r="W120">
-        <v>5980761.4</v>
+        <v>5980791.9</v>
       </c>
       <c r="X120">
         <v>2160879.33</v>
@@ -12055,10 +12055,10 @@
         <v>0.3512</v>
       </c>
       <c r="AC120">
-        <v>27.64216755083335</v>
+        <v>27.6047495374623</v>
       </c>
       <c r="AD120">
-        <v>-1.355927409613222</v>
+        <v>-1.246048973424518</v>
       </c>
       <c r="AE120">
         <v>65.3</v>
@@ -12116,22 +12116,22 @@
         <v>3.144483599891568</v>
       </c>
       <c r="Q121">
-        <v>6218203.498429319</v>
+        <v>6230865.432098765</v>
       </c>
       <c r="R121">
-        <v>6272431.809426459</v>
+        <v>6277907.680708919</v>
       </c>
       <c r="S121">
-        <v>-0.8645500285175411</v>
+        <v>-0.749330047568364</v>
       </c>
       <c r="T121">
         <v>122.1</v>
       </c>
       <c r="U121">
-        <v>100.5934226254304</v>
+        <v>100.6258754036872</v>
       </c>
       <c r="V121">
-        <v>21.37970536567932</v>
+        <v>21.34055928474026</v>
       </c>
       <c r="W121">
         <v>5995787</v>
@@ -12152,10 +12152,10 @@
         <v>0.3613</v>
       </c>
       <c r="AC121">
-        <v>21.68713826696256</v>
+        <v>21.64969380682054</v>
       </c>
       <c r="AD121">
-        <v>-1.14584984919317</v>
+        <v>-1.033228415446374</v>
       </c>
       <c r="AE121">
         <v>66.09999999999999</v>
@@ -12213,25 +12213,25 @@
         <v>3.10721705356336</v>
       </c>
       <c r="Q122">
-        <v>6172032.886632421</v>
+        <v>6184579.836165017</v>
       </c>
       <c r="R122">
-        <v>6277967.206991799</v>
+        <v>6283312.65480928</v>
       </c>
       <c r="S122">
-        <v>-1.687398434343501</v>
+        <v>-1.571349765138508</v>
       </c>
       <c r="T122">
         <v>122.64</v>
       </c>
       <c r="U122">
-        <v>100.9484768710293</v>
+        <v>100.9825605825003</v>
       </c>
       <c r="V122">
-        <v>21.48771710214463</v>
+        <v>21.44671247448329</v>
       </c>
       <c r="W122">
-        <v>6003128.3</v>
+        <v>6003121.3</v>
       </c>
       <c r="X122">
         <v>2286788.39</v>
@@ -12249,10 +12249,10 @@
         <v>0.379</v>
       </c>
       <c r="AC122">
-        <v>21.37970536567932</v>
+        <v>21.34055928474026</v>
       </c>
       <c r="AD122">
-        <v>-0.8645500285175411</v>
+        <v>-0.749330047568364</v>
       </c>
       <c r="AE122">
         <v>64.90000000000001</v>
@@ -12310,25 +12310,25 @@
         <v>3.434215295396892</v>
       </c>
       <c r="Q123">
-        <v>6158530.518088513</v>
+        <v>6171040.709354138</v>
       </c>
       <c r="R123">
-        <v>6283387.362624354</v>
+        <v>6288612.597449941</v>
       </c>
       <c r="S123">
-        <v>-1.987094497444641</v>
+        <v>-1.869599792861765</v>
       </c>
       <c r="T123">
         <v>120.27</v>
       </c>
       <c r="U123">
-        <v>101.2982205853976</v>
+        <v>101.3339631411618</v>
       </c>
       <c r="V123">
-        <v>18.72864035021093</v>
+        <v>18.68676233698629</v>
       </c>
       <c r="W123">
-        <v>6026858.5</v>
+        <v>6026838.2</v>
       </c>
       <c r="X123">
         <v>2360392.03</v>
@@ -12346,10 +12346,10 @@
         <v>0.3809</v>
       </c>
       <c r="AC123">
-        <v>21.48771710214463</v>
+        <v>21.44671247448329</v>
       </c>
       <c r="AD123">
-        <v>-1.687398434343501</v>
+        <v>-1.571349765138508</v>
       </c>
       <c r="AE123">
         <v>65.40000000000001</v>
@@ -12407,22 +12407,22 @@
         <v>4.351403236127593</v>
       </c>
       <c r="Q124">
-        <v>6133620.654014148</v>
+        <v>6146049.565152721</v>
       </c>
       <c r="R124">
-        <v>6288713.170514249</v>
+        <v>6293829.632935186</v>
       </c>
       <c r="S124">
-        <v>-2.466204329802801</v>
+        <v>-2.348015062389708</v>
       </c>
       <c r="T124">
         <v>112.65</v>
       </c>
       <c r="U124">
-        <v>101.6434290063219</v>
+        <v>101.680855698588</v>
       </c>
       <c r="V124">
-        <v>10.82861046826114</v>
+        <v>10.78781667015845</v>
       </c>
       <c r="W124">
         <v>6039452.6</v>
@@ -12443,10 +12443,10 @@
         <v>0.3915999999999999</v>
       </c>
       <c r="AC124">
-        <v>18.72864035021093</v>
+        <v>18.68676233698629</v>
       </c>
       <c r="AD124">
-        <v>-1.987094497444641</v>
+        <v>-1.869599792861765</v>
       </c>
       <c r="AE124">
         <v>67.8</v>
@@ -12504,25 +12504,25 @@
         <v>4.456442166910679</v>
       </c>
       <c r="Q125">
-        <v>6120937.096146038</v>
+        <v>6133352.122764577</v>
       </c>
       <c r="R125">
-        <v>6293964.561450029</v>
+        <v>6298984.978378813</v>
       </c>
       <c r="S125">
-        <v>-2.749101359161898</v>
+        <v>-2.629516599623083</v>
       </c>
       <c r="T125">
         <v>110.04</v>
       </c>
       <c r="U125">
-        <v>101.9850237587767</v>
+        <v>102.0241569850912</v>
       </c>
       <c r="V125">
-        <v>7.898195190183599</v>
+        <v>7.856808869374099</v>
       </c>
       <c r="W125">
-        <v>6063168.7</v>
+        <v>6063202.1</v>
       </c>
       <c r="X125">
         <v>2458650.72</v>
@@ -12540,10 +12540,10 @@
         <v>0.4012</v>
       </c>
       <c r="AC125">
-        <v>10.82861046826114</v>
+        <v>10.78781667015845</v>
       </c>
       <c r="AD125">
-        <v>-2.466204329802801</v>
+        <v>-2.348015062389708</v>
       </c>
       <c r="AE125">
         <v>66</v>
@@ -12601,25 +12601,25 @@
         <v>4.418221734357841</v>
       </c>
       <c r="Q126">
-        <v>6111867.988017162</v>
+        <v>6124230.929756049</v>
       </c>
       <c r="R126">
-        <v>6299160.269518721</v>
+        <v>6304098.710616315</v>
       </c>
       <c r="S126">
-        <v>-2.973289668590517</v>
+        <v>-2.853187888022157</v>
       </c>
       <c r="T126">
         <v>108.67</v>
       </c>
       <c r="U126">
-        <v>102.3240113949817</v>
+        <v>102.3648703694425</v>
       </c>
       <c r="V126">
-        <v>6.201856747505774</v>
+        <v>6.159466238565892</v>
       </c>
       <c r="W126">
-        <v>6087403.4</v>
+        <v>6087401.7</v>
       </c>
       <c r="X126">
         <v>2493775.18</v>
@@ -12637,10 +12637,10 @@
         <v>0.4055</v>
       </c>
       <c r="AC126">
-        <v>7.898195190183599</v>
+        <v>7.856808869374099</v>
       </c>
       <c r="AD126">
-        <v>-2.749101359161898</v>
+        <v>-2.629516599623083</v>
       </c>
       <c r="AE126">
         <v>65.59999999999999</v>
@@ -12698,22 +12698,22 @@
         <v>4.878721058434388</v>
       </c>
       <c r="Q127">
-        <v>6107272.053601963</v>
+        <v>6119617.218414377</v>
       </c>
       <c r="R127">
-        <v>6304317.693718889</v>
+        <v>6309189.628451891</v>
       </c>
       <c r="S127">
-        <v>-3.125566471899821</v>
+        <v>-3.00470299993234</v>
       </c>
       <c r="T127">
         <v>104.88</v>
       </c>
       <c r="U127">
-        <v>102.661460619751</v>
+        <v>102.7040610710535</v>
       </c>
       <c r="V127">
-        <v>2.16102456253402</v>
+        <v>2.118649356466173</v>
       </c>
       <c r="W127">
         <v>6118558.5</v>
@@ -12734,10 +12734,10 @@
         <v>0.4097</v>
       </c>
       <c r="AC127">
-        <v>6.201856747505774</v>
+        <v>6.159466238565892</v>
       </c>
       <c r="AD127">
-        <v>-2.973289668590517</v>
+        <v>-2.853187888022157</v>
       </c>
       <c r="AE127">
         <v>70.40000000000001</v>
@@ -12795,25 +12795,25 @@
         <v>4.975170130586726</v>
       </c>
       <c r="Q128">
-        <v>6109191.871454749</v>
+        <v>6121549.643033574</v>
       </c>
       <c r="R128">
-        <v>6309452.787892603</v>
+        <v>6314275.142821065</v>
       </c>
       <c r="S128">
-        <v>-3.173982327312774</v>
+        <v>-3.052218907606641</v>
       </c>
       <c r="T128">
         <v>99.55</v>
       </c>
       <c r="U128">
-        <v>102.99848910386</v>
+        <v>103.0428429600277</v>
       </c>
       <c r="V128">
-        <v>-3.348096786529275</v>
+        <v>-3.389699720710027</v>
       </c>
       <c r="W128">
-        <v>6133331.9</v>
+        <v>6133332.3</v>
       </c>
       <c r="X128">
         <v>2672668.3</v>
@@ -12831,10 +12831,10 @@
         <v>0.4294</v>
       </c>
       <c r="AC128">
-        <v>2.16102456253402</v>
+        <v>2.118649356466173</v>
       </c>
       <c r="AD128">
-        <v>-3.125566471899821</v>
+        <v>-3.00470299993234</v>
       </c>
       <c r="AE128">
         <v>73.09999999999999</v>
@@ -12892,25 +12892,25 @@
         <v>4.753601908782223</v>
       </c>
       <c r="Q129">
-        <v>6116522.630537622</v>
+        <v>6128892.612061314</v>
       </c>
       <c r="R129">
-        <v>6314579.985468042</v>
+        <v>6319371.201909282</v>
       </c>
       <c r="S129">
-        <v>-3.136508768377577</v>
+        <v>-3.01420163117524</v>
       </c>
       <c r="T129">
         <v>98.17</v>
       </c>
       <c r="U129">
-        <v>103.336231636444</v>
+        <v>103.3823466961208</v>
       </c>
       <c r="V129">
-        <v>-4.999438778278453</v>
+        <v>-5.041815031962715</v>
       </c>
       <c r="W129">
-        <v>6162708.9</v>
+        <v>6162709</v>
       </c>
       <c r="X129">
         <v>2742366.38</v>
@@ -12928,10 +12928,10 @@
         <v>0.4358</v>
       </c>
       <c r="AC129">
-        <v>-3.348096786529275</v>
+        <v>-3.389699720710027</v>
       </c>
       <c r="AD129">
-        <v>-3.173982327312774</v>
+        <v>-3.052218907606641</v>
       </c>
       <c r="AE129">
         <v>76.7</v>
@@ -12989,22 +12989,22 @@
         <v>5.226769911504414</v>
       </c>
       <c r="Q130">
-        <v>6135475.40329724</v>
+        <v>6147881.848639868</v>
       </c>
       <c r="R130">
-        <v>6319712.174650263</v>
+        <v>6324492.266822511</v>
       </c>
       <c r="S130">
-        <v>-2.915271554486876</v>
+        <v>-2.792483739906193</v>
       </c>
       <c r="T130">
         <v>99.09999999999999</v>
       </c>
       <c r="U130">
-        <v>103.6757963979256</v>
+        <v>103.7236759881393</v>
       </c>
       <c r="V130">
-        <v>-4.41356281495332</v>
+        <v>-4.457686197573651</v>
       </c>
       <c r="W130">
         <v>6187501.9</v>
@@ -13025,10 +13025,10 @@
         <v>0.445</v>
       </c>
       <c r="AC130">
-        <v>-4.999438778278453</v>
+        <v>-5.041815031962715</v>
       </c>
       <c r="AD130">
-        <v>-3.136508768377577</v>
+        <v>-3.01420163117524</v>
       </c>
       <c r="AE130">
         <v>78.8</v>
@@ -13086,25 +13086,25 @@
         <v>5.729118383239085</v>
       </c>
       <c r="Q131">
-        <v>6140269.158492882</v>
+        <v>6152695.126761634</v>
       </c>
       <c r="R131">
-        <v>6324860.715423994</v>
+        <v>6329651.328924517</v>
       </c>
       <c r="S131">
-        <v>-2.918507857113151</v>
+        <v>-2.795670613865398</v>
       </c>
       <c r="T131">
         <v>95.95</v>
       </c>
       <c r="U131">
-        <v>104.018251705829</v>
+        <v>104.0678943261656</v>
       </c>
       <c r="V131">
-        <v>-7.756573075893025</v>
+        <v>-7.800575171361512</v>
       </c>
       <c r="W131">
-        <v>6205866.7</v>
+        <v>6205867.9</v>
       </c>
       <c r="X131">
         <v>2824324.97</v>
@@ -13122,10 +13122,10 @@
         <v>0.4535</v>
       </c>
       <c r="AC131">
-        <v>-4.41356281495332</v>
+        <v>-4.457686197573651</v>
       </c>
       <c r="AD131">
-        <v>-2.915271554486876</v>
+        <v>-2.792483739906193</v>
       </c>
       <c r="AE131">
         <v>79.90000000000001</v>
@@ -13183,25 +13183,25 @@
         <v>6.458547527806324</v>
       </c>
       <c r="Q132">
-        <v>6152456.829057652</v>
+        <v>6164951.60691097</v>
       </c>
       <c r="R132">
-        <v>6330035.546193935</v>
+        <v>6334860.01684435</v>
       </c>
       <c r="S132">
-        <v>-2.805335228220895</v>
+        <v>-2.682117828674901</v>
       </c>
       <c r="T132">
         <v>98.84</v>
       </c>
       <c r="U132">
-        <v>104.3646305706075</v>
+        <v>104.4160295237699</v>
       </c>
       <c r="V132">
-        <v>-5.293585135502211</v>
+        <v>-5.340204515725722</v>
       </c>
       <c r="W132">
-        <v>6238414.5</v>
+        <v>6238417.3</v>
       </c>
       <c r="X132">
         <v>2831739.36</v>
@@ -13219,10 +13219,10 @@
         <v>0.4551</v>
       </c>
       <c r="AC132">
-        <v>-7.756573075893025</v>
+        <v>-7.800575171361512</v>
       </c>
       <c r="AD132">
-        <v>-2.918507857113151</v>
+        <v>-2.795670613865398</v>
       </c>
       <c r="AE132">
         <v>80.59999999999999</v>
@@ -13280,22 +13280,22 @@
         <v>6.924451971022694</v>
       </c>
       <c r="Q133">
-        <v>6167732.10586395</v>
+        <v>6180269.30568055</v>
       </c>
       <c r="R133">
-        <v>6335245.181047224</v>
+        <v>6340128.59380828</v>
       </c>
       <c r="S133">
-        <v>-2.64414510245653</v>
+        <v>-2.521388734667751</v>
       </c>
       <c r="T133">
         <v>97.55</v>
       </c>
       <c r="U133">
-        <v>104.7159037476859</v>
+        <v>104.7690467564482</v>
       </c>
       <c r="V133">
-        <v>-6.843185696942678</v>
+        <v>-6.890438521627463</v>
       </c>
       <c r="W133">
         <v>6269328</v>
@@ -13316,10 +13316,10 @@
         <v>0.4539</v>
       </c>
       <c r="AC133">
-        <v>-5.293585135502211</v>
+        <v>-5.340204515725722</v>
       </c>
       <c r="AD133">
-        <v>-2.805335228220895</v>
+        <v>-2.682117828674901</v>
       </c>
       <c r="AE133">
         <v>78.3</v>
@@ -13377,25 +13377,25 @@
         <v>7.422876127195055</v>
       </c>
       <c r="Q134">
-        <v>6184522.607180048</v>
+        <v>6197149.308762981</v>
       </c>
       <c r="R134">
-        <v>6340496.763864836</v>
+        <v>6345466.012020886</v>
       </c>
       <c r="S134">
-        <v>-2.459967451977918</v>
+        <v>-2.337365025309934</v>
       </c>
       <c r="T134">
         <v>93.08</v>
       </c>
       <c r="U134">
-        <v>105.0729993641668</v>
+        <v>105.1278681747783</v>
       </c>
       <c r="V134">
-        <v>-11.41396879953991</v>
+        <v>-11.46020402006858</v>
       </c>
       <c r="W134">
-        <v>6301443.4</v>
+        <v>6301441.6</v>
       </c>
       <c r="X134">
         <v>3047147.56</v>
@@ -13413,10 +13413,10 @@
         <v>0.4777</v>
       </c>
       <c r="AC134">
-        <v>-6.843185696942678</v>
+        <v>-6.890438521627463</v>
       </c>
       <c r="AD134">
-        <v>-2.64414510245653</v>
+        <v>-2.521388734667751</v>
       </c>
       <c r="AE134">
         <v>74.09999999999999</v>
@@ -13474,25 +13474,25 @@
         <v>7.693776250477291</v>
       </c>
       <c r="Q135">
-        <v>6182584.865766531</v>
+        <v>6195248.804809143</v>
       </c>
       <c r="R135">
-        <v>6345796.145988592</v>
+        <v>6350879.990204583</v>
       </c>
       <c r="S135">
-        <v>-2.571959080740926</v>
+        <v>-2.450545210041466</v>
       </c>
       <c r="T135">
         <v>91.5</v>
       </c>
       <c r="U135">
-        <v>105.4367902546855</v>
+        <v>105.493360226816</v>
       </c>
       <c r="V135">
-        <v>-13.21814730989133</v>
+        <v>-13.26468338550363</v>
       </c>
       <c r="W135">
-        <v>6321826.6</v>
+        <v>6321823.7</v>
       </c>
       <c r="X135">
         <v>3109156.92</v>
@@ -13510,10 +13510,10 @@
         <v>0.4836</v>
       </c>
       <c r="AC135">
-        <v>-11.41396879953991</v>
+        <v>-11.46020402006858</v>
       </c>
       <c r="AD135">
-        <v>-2.459967451977918</v>
+        <v>-2.337365025309934</v>
       </c>
       <c r="AE135">
         <v>78.3</v>
@@ -13571,22 +13571,22 @@
         <v>7.248732906187239</v>
       </c>
       <c r="Q136">
-        <v>6196339.878942679</v>
+        <v>6209090.98712196</v>
       </c>
       <c r="R136">
-        <v>6351147.975256018</v>
+        <v>6356377.102662783</v>
       </c>
       <c r="S136">
-        <v>-2.437482120027279</v>
+        <v>-2.3171393572468</v>
       </c>
       <c r="T136">
         <v>92.12</v>
       </c>
       <c r="U136">
-        <v>105.8080567153017</v>
+        <v>105.8662963986726</v>
       </c>
       <c r="V136">
-        <v>-12.93668661936792</v>
+        <v>-12.98458231400351</v>
       </c>
       <c r="W136">
         <v>6354593.3</v>
@@ -13607,10 +13607,10 @@
         <v>0.4918</v>
       </c>
       <c r="AC136">
-        <v>-13.21814730989133</v>
+        <v>-13.26468338550363</v>
       </c>
       <c r="AD136">
-        <v>-2.571959080740926</v>
+        <v>-2.450545210041466</v>
       </c>
       <c r="AE136">
         <v>80.5</v>
@@ -13668,25 +13668,25 @@
         <v>7.215603382013835</v>
       </c>
       <c r="Q137">
-        <v>6227302.672394117</v>
+        <v>6240151.31653626</v>
       </c>
       <c r="R137">
-        <v>6356555.640158345</v>
+        <v>6361962.722840995</v>
       </c>
       <c r="S137">
-        <v>-2.033380577173838</v>
+        <v>-1.914682804842638</v>
       </c>
       <c r="T137">
         <v>93.26000000000001</v>
       </c>
       <c r="U137">
-        <v>106.1874715051136</v>
+        <v>106.2473422029985</v>
       </c>
       <c r="V137">
-        <v>-12.17419656187129</v>
+        <v>-12.2236866670835</v>
       </c>
       <c r="W137">
-        <v>6371360.8</v>
+        <v>6371333</v>
       </c>
       <c r="X137">
         <v>3146590</v>
@@ -13704,10 +13704,10 @@
         <v>0.4939</v>
       </c>
       <c r="AC137">
-        <v>-12.93668661936792</v>
+        <v>-12.98458231400351</v>
       </c>
       <c r="AD137">
-        <v>-2.437482120027279</v>
+        <v>-2.3171393572468</v>
       </c>
       <c r="AE137">
         <v>83.40000000000001</v>
@@ -13765,25 +13765,25 @@
         <v>7.287644787644787</v>
       </c>
       <c r="Q138">
-        <v>6259488.031330722</v>
+        <v>6272465.780155452</v>
       </c>
       <c r="R138">
-        <v>6362021.334679886</v>
+        <v>6367641.087717767</v>
       </c>
       <c r="S138">
-        <v>-1.611646644286557</v>
+        <v>-1.494671358690336</v>
       </c>
       <c r="T138">
         <v>95.64</v>
       </c>
       <c r="U138">
-        <v>106.5756017654978</v>
+        <v>106.6370570853445</v>
       </c>
       <c r="V138">
-        <v>-10.26088671735561</v>
+        <v>-10.31260369136339</v>
       </c>
       <c r="W138">
-        <v>6405809.5</v>
+        <v>6405795.7</v>
       </c>
       <c r="X138">
         <v>3199139.69</v>
@@ -13801,10 +13801,10 @@
         <v>0.4939</v>
       </c>
       <c r="AC138">
-        <v>-12.17419656187129</v>
+        <v>-12.2236866670835</v>
       </c>
       <c r="AD138">
-        <v>-2.033380577173838</v>
+        <v>-1.914682804842638</v>
       </c>
       <c r="AE138">
         <v>82.3</v>
@@ -13862,22 +13862,22 @@
         <v>6.941747572815515</v>
       </c>
       <c r="Q139">
-        <v>6294032.051036201</v>
+        <v>6307093.460780713</v>
       </c>
       <c r="R139">
-        <v>6367546.255482666</v>
+        <v>6373415.494368837</v>
       </c>
       <c r="S139">
-        <v>-1.154513866046381</v>
+        <v>-1.04060426700131</v>
       </c>
       <c r="T139">
         <v>99.23</v>
       </c>
       <c r="U139">
-        <v>106.972914888822</v>
+        <v>107.0359002802861</v>
       </c>
       <c r="V139">
-        <v>-7.238201274471489</v>
+        <v>-7.292787055413619</v>
       </c>
       <c r="W139">
         <v>6426159.9</v>
@@ -13898,10 +13898,10 @@
         <v>0.4994</v>
       </c>
       <c r="AC139">
-        <v>-10.26088671735561</v>
+        <v>-10.31260369136339</v>
       </c>
       <c r="AD139">
-        <v>-1.611646644286557</v>
+        <v>-1.494671358690336</v>
       </c>
       <c r="AE139">
         <v>84</v>
@@ -13959,25 +13959,25 @@
         <v>7.107389738097569</v>
       </c>
       <c r="Q140">
-        <v>6318631.050974243</v>
+        <v>6331784.45074003</v>
       </c>
       <c r="R140">
-        <v>6373130.808076697</v>
+        <v>6379288.50549257</v>
       </c>
       <c r="S140">
-        <v>-0.8551488859037115</v>
+        <v>-0.7446607048989695</v>
       </c>
       <c r="T140">
         <v>97.45</v>
       </c>
       <c r="U140">
-        <v>107.3797938878124</v>
+        <v>107.4442461685647</v>
       </c>
       <c r="V140">
-        <v>-9.247357932337597</v>
+        <v>-9.301797467018535</v>
       </c>
       <c r="W140">
-        <v>6452587.2</v>
+        <v>6452596.4</v>
       </c>
       <c r="X140">
         <v>3323550.18</v>
@@ -13995,10 +13995,10 @@
         <v>0.5027</v>
       </c>
       <c r="AC140">
-        <v>-7.238201274471489</v>
+        <v>-7.292787055413619</v>
       </c>
       <c r="AD140">
-        <v>-1.154513866046381</v>
+        <v>-1.04060426700131</v>
       </c>
       <c r="AE140">
         <v>83.09999999999999</v>
@@ -14056,25 +14056,25 @@
         <v>6.529377317977736</v>
       </c>
       <c r="Q141">
-        <v>6343671.692653997</v>
+        <v>6356881.722314441</v>
       </c>
       <c r="R141">
-        <v>6378774.830732732</v>
+        <v>6385262.172043234</v>
       </c>
       <c r="S141">
-        <v>-0.5503116038774292</v>
+        <v>-0.4444680416264224</v>
       </c>
       <c r="T141">
         <v>97.36</v>
       </c>
       <c r="U141">
-        <v>107.796562030478</v>
+        <v>107.8624089002085</v>
       </c>
       <c r="V141">
-        <v>-9.681720672619566</v>
+        <v>-9.736857360496254</v>
       </c>
       <c r="W141">
-        <v>6477780.4</v>
+        <v>6477790.7</v>
       </c>
       <c r="X141">
         <v>3367257.37</v>
@@ -14092,10 +14092,10 @@
         <v>0.5151</v>
       </c>
       <c r="AC141">
-        <v>-9.247357932337597</v>
+        <v>-9.301797467018535</v>
       </c>
       <c r="AD141">
-        <v>-0.8551488859037115</v>
+        <v>-0.7446607048989695</v>
       </c>
       <c r="AE141">
         <v>82.7</v>
@@ -14153,22 +14153,22 @@
         <v>5.666081529159328</v>
       </c>
       <c r="Q142">
-        <v>6361200.951168515</v>
+        <v>6374403.895632248</v>
       </c>
       <c r="R142">
-        <v>6384477.74119872</v>
+        <v>6391338.178431474</v>
       </c>
       <c r="S142">
-        <v>-0.364584089314024</v>
+        <v>-0.264956763770885</v>
       </c>
       <c r="T142">
         <v>97.51000000000001</v>
       </c>
       <c r="U142">
-        <v>108.2234659660505</v>
+        <v>108.2906255091491</v>
       </c>
       <c r="V142">
-        <v>-9.89939277070585</v>
+        <v>-9.955271251285103</v>
       </c>
       <c r="W142">
         <v>6497619</v>
@@ -14189,10 +14189,10 @@
         <v>0.5197999999999999</v>
       </c>
       <c r="AC142">
-        <v>-9.681720672619566</v>
+        <v>-9.736857360496254</v>
       </c>
       <c r="AD142">
-        <v>-0.5503116038774292</v>
+        <v>-0.4444680416264224</v>
       </c>
       <c r="AE142">
         <v>81.90000000000001</v>
@@ -14250,25 +14250,25 @@
         <v>5.170399221032151</v>
       </c>
       <c r="Q143">
-        <v>6377050.835125099</v>
+        <v>6390224.028104087</v>
       </c>
       <c r="R143">
-        <v>6390238.686365068</v>
+        <v>6397517.990082979</v>
       </c>
       <c r="S143">
-        <v>-0.2063749397672399</v>
+        <v>-0.1140123715196784</v>
       </c>
       <c r="T143">
         <v>97.91</v>
       </c>
       <c r="U143">
-        <v>108.6606718147344</v>
+        <v>108.7290519922123</v>
       </c>
       <c r="V143">
-        <v>-9.893802086061266</v>
+        <v>-9.950470268964761</v>
       </c>
       <c r="W143">
-        <v>6526728.1</v>
+        <v>6526743.6</v>
       </c>
       <c r="X143">
         <v>3415082.17</v>
@@ -14286,10 +14286,10 @@
         <v>0.525</v>
       </c>
       <c r="AC143">
-        <v>-9.89939277070585</v>
+        <v>-9.955271251285103</v>
       </c>
       <c r="AD143">
-        <v>-0.364584089314024</v>
+        <v>-0.264956763770885</v>
       </c>
       <c r="AE143">
         <v>84.2</v>
@@ -14347,25 +14347,25 @@
         <v>4.474708171206232</v>
       </c>
       <c r="Q144">
-        <v>6391173.319370405</v>
+        <v>6404294.850190012</v>
       </c>
       <c r="R144">
-        <v>6396056.633517315</v>
+        <v>6403802.941757677</v>
       </c>
       <c r="S144">
-        <v>-0.07634882595191073</v>
+        <v>0.007681504830925334</v>
       </c>
       <c r="T144">
         <v>99.87</v>
       </c>
       <c r="U144">
-        <v>109.1082630310985</v>
+        <v>109.1777611623857</v>
       </c>
       <c r="V144">
-        <v>-8.467060857219721</v>
+        <v>-8.525327011003403</v>
       </c>
       <c r="W144">
-        <v>6554679.3</v>
+        <v>6554663.4</v>
       </c>
       <c r="X144">
         <v>3453857.69</v>
@@ -14383,10 +14383,10 @@
         <v>0.5232</v>
       </c>
       <c r="AC144">
-        <v>-9.893802086061266</v>
+        <v>-9.950470268964761</v>
       </c>
       <c r="AD144">
-        <v>-0.2063749397672399</v>
+        <v>-0.1140123715196784</v>
       </c>
       <c r="AE144">
         <v>85.8</v>
@@ -14444,22 +14444,22 @@
         <v>3.933948518698394</v>
       </c>
       <c r="Q145">
-        <v>6407061.360543433</v>
+        <v>6420104.747054284</v>
       </c>
       <c r="R145">
-        <v>6401930.448182889</v>
+        <v>6410194.311934925</v>
       </c>
       <c r="S145">
-        <v>0.08014633089303835</v>
+        <v>0.1546042855659957</v>
       </c>
       <c r="T145">
         <v>100.99</v>
       </c>
       <c r="U145">
-        <v>109.5662401170001</v>
+        <v>109.6367423523157</v>
       </c>
       <c r="V145">
-        <v>-7.827447677169486</v>
+        <v>-7.886719512815821</v>
       </c>
       <c r="W145">
         <v>6585479</v>
@@ -14480,10 +14480,10 @@
         <v>0.5268999999999999</v>
       </c>
       <c r="AC145">
-        <v>-8.467060857219721</v>
+        <v>-8.525327011003403</v>
       </c>
       <c r="AD145">
-        <v>-0.07634882595191073</v>
+        <v>0.007681504830925334</v>
       </c>
       <c r="AE145">
         <v>87.09999999999999</v>
@@ -14541,25 +14541,25 @@
         <v>3.927668675870111</v>
       </c>
       <c r="Q146">
-        <v>6418885.009481482</v>
+        <v>6431768.186440677</v>
       </c>
       <c r="R146">
-        <v>6407858.958209324</v>
+        <v>6416693.382889655</v>
       </c>
       <c r="S146">
-        <v>0.1720707547414602</v>
+        <v>0.2349310252414361</v>
       </c>
       <c r="T146">
         <v>99.48</v>
       </c>
       <c r="U146">
-        <v>110.0345322914005</v>
+        <v>110.1059130755058</v>
       </c>
       <c r="V146">
-        <v>-9.592018134315616</v>
+        <v>-9.650628906931624</v>
       </c>
       <c r="W146">
-        <v>6624394</v>
+        <v>6624386.2</v>
       </c>
       <c r="X146">
         <v>3532846.45</v>
@@ -14577,10 +14577,10 @@
         <v>0.5323</v>
       </c>
       <c r="AC146">
-        <v>-7.827447677169486</v>
+        <v>-7.886719512815821</v>
       </c>
       <c r="AD146">
-        <v>0.08014633089303835</v>
+        <v>0.1546042855659957</v>
       </c>
       <c r="AE146">
         <v>87.3</v>
@@ -14638,25 +14638,25 @@
         <v>3.772851030727331</v>
       </c>
       <c r="Q147">
-        <v>6415021.301154526</v>
+        <v>6427704.221099817</v>
       </c>
       <c r="R147">
-        <v>6413841.031034525</v>
+        <v>6423301.513366229</v>
       </c>
       <c r="S147">
-        <v>0.0184019235009103</v>
+        <v>0.06854275366690032</v>
       </c>
       <c r="T147">
         <v>101.89</v>
       </c>
       <c r="U147">
-        <v>110.5130025985702</v>
+        <v>110.5851241267678</v>
       </c>
       <c r="V147">
-        <v>-7.802704112467717</v>
+        <v>-7.862833446567574</v>
       </c>
       <c r="W147">
-        <v>6653661.3</v>
+        <v>6653655.4</v>
       </c>
       <c r="X147">
         <v>3560272.77</v>
@@ -14674,10 +14674,10 @@
         <v>0.5333</v>
       </c>
       <c r="AC147">
-        <v>-9.592018134315616</v>
+        <v>-9.650628906931624</v>
       </c>
       <c r="AD147">
-        <v>0.1720707547414602</v>
+        <v>0.2349310252414361</v>
       </c>
       <c r="AE147">
         <v>87.7</v>
@@ -14735,22 +14735,22 @@
         <v>3.798208024931848</v>
       </c>
       <c r="Q148">
-        <v>6422916.777848946</v>
+        <v>6435418.789783268</v>
       </c>
       <c r="R148">
-        <v>6419875.619173961</v>
+        <v>6430020.17842693</v>
       </c>
       <c r="S148">
-        <v>0.0473709905827846</v>
+        <v>0.08395947767707579</v>
       </c>
       <c r="T148">
         <v>102.57</v>
       </c>
       <c r="U148">
-        <v>111.0014326434858</v>
+        <v>111.0741443108428</v>
       </c>
       <c r="V148">
-        <v>-7.595787227869277</v>
+        <v>-7.656277132366506</v>
       </c>
       <c r="W148">
         <v>6682355</v>
@@ -14771,10 +14771,10 @@
         <v>0.5351</v>
       </c>
       <c r="AC148">
-        <v>-7.802704112467717</v>
+        <v>-7.862833446567574</v>
       </c>
       <c r="AD148">
-        <v>0.0184019235009103</v>
+        <v>0.06854275366690032</v>
       </c>
       <c r="AE148">
         <v>87.40000000000001</v>
@@ -14832,25 +14832,25 @@
         <v>3.542234332425065</v>
       </c>
       <c r="Q149">
-        <v>6415902.381892689</v>
+        <v>6428190.267980393</v>
       </c>
       <c r="R149">
-        <v>6425961.68425012</v>
+        <v>6436850.887105543</v>
       </c>
       <c r="S149">
-        <v>-0.1565415863291952</v>
+        <v>-0.1345474561559201</v>
       </c>
       <c r="T149">
         <v>106.74</v>
       </c>
       <c r="U149">
-        <v>111.4995374956114</v>
+        <v>111.5726753404659</v>
       </c>
       <c r="V149">
-        <v>-4.26866120031999</v>
+        <v>-4.33141477133081</v>
       </c>
       <c r="W149">
-        <v>6732545.5</v>
+        <v>6732547.8</v>
       </c>
       <c r="X149">
         <v>3566365.94</v>
@@ -14868,10 +14868,10 @@
         <v>0.5357</v>
       </c>
       <c r="AC149">
-        <v>-7.595787227869277</v>
+        <v>-7.656277132366506</v>
       </c>
       <c r="AD149">
-        <v>0.0473709905827846</v>
+        <v>0.08395947767707579</v>
       </c>
       <c r="AE149">
         <v>90.8</v>
@@ -14929,25 +14929,25 @@
         <v>3.441571067470361</v>
       </c>
       <c r="Q150">
-        <v>6398992.927339661</v>
+        <v>6411085.011024133</v>
       </c>
       <c r="R150">
-        <v>6432098.211351221</v>
+        <v>6443795.190091818</v>
       </c>
       <c r="S150">
-        <v>-0.514688720908163</v>
+        <v>-0.5076228853142406</v>
       </c>
       <c r="T150">
         <v>110</v>
       </c>
       <c r="U150">
-        <v>112.0069671670599</v>
+        <v>112.0803533099754</v>
       </c>
       <c r="V150">
-        <v>-1.791823506895318</v>
+        <v>-1.85612665247572</v>
       </c>
       <c r="W150">
-        <v>6743822.8</v>
+        <v>6743824.9</v>
       </c>
       <c r="X150">
         <v>3540645.07</v>
@@ -14965,10 +14965,10 @@
         <v>0.5296999999999999</v>
       </c>
       <c r="AC150">
-        <v>-4.26866120031999</v>
+        <v>-4.33141477133081</v>
       </c>
       <c r="AD150">
-        <v>-0.1565415863291952</v>
+        <v>-0.1345474561559201</v>
       </c>
       <c r="AE150">
         <v>88.90000000000001</v>
@@ -15026,22 +15026,22 @@
         <v>1.925471788485478</v>
       </c>
       <c r="Q151">
-        <v>6384949.793729099</v>
+        <v>6396895.192441065</v>
       </c>
       <c r="R151">
-        <v>6438284.107947407</v>
+        <v>6450854.571249728</v>
       </c>
       <c r="S151">
-        <v>-0.8283933005142297</v>
+        <v>-0.8364686912823993</v>
       </c>
       <c r="T151">
         <v>110.84</v>
       </c>
       <c r="U151">
-        <v>112.5233349451179</v>
+        <v>112.5967770245448</v>
       </c>
       <c r="V151">
-        <v>-1.495987428686596</v>
+        <v>-1.560237398413111</v>
       </c>
       <c r="W151">
         <v>6786171.2</v>
@@ -15062,10 +15062,10 @@
         <v>0.525</v>
       </c>
       <c r="AC151">
-        <v>-1.791823506895318</v>
+        <v>-1.85612665247572</v>
       </c>
       <c r="AD151">
-        <v>-0.514688720908163</v>
+        <v>-0.5076228853142406</v>
       </c>
       <c r="AE151">
         <v>88.09999999999999</v>
@@ -15123,25 +15123,25 @@
         <v>1.837672281776426</v>
       </c>
       <c r="Q152">
-        <v>6381540.827404909</v>
+        <v>6393388.244609187</v>
       </c>
       <c r="R152">
-        <v>6444518.026066815</v>
+        <v>6458030.262049905</v>
       </c>
       <c r="S152">
-        <v>-0.9772212352758602</v>
+        <v>-1.000955629158029</v>
       </c>
       <c r="T152">
         <v>111.84</v>
       </c>
       <c r="U152">
-        <v>113.0482386312161</v>
+        <v>113.1215292372424</v>
       </c>
       <c r="V152">
-        <v>-1.068781474037428</v>
+        <v>-1.132878282218686</v>
       </c>
       <c r="W152">
-        <v>6830095.2</v>
+        <v>6830092.3</v>
       </c>
       <c r="X152">
         <v>3641522.19</v>
@@ -15159,10 +15159,10 @@
         <v>0.5266</v>
       </c>
       <c r="AC152">
-        <v>-1.495987428686596</v>
+        <v>-1.560237398413111</v>
       </c>
       <c r="AD152">
-        <v>-0.8283933005142297</v>
+        <v>-0.8364686912823993</v>
       </c>
       <c r="AE152">
         <v>84.09999999999999</v>
@@ -15220,25 +15220,25 @@
         <v>2.121124868029556</v>
       </c>
       <c r="Q153">
-        <v>6386345.387072882</v>
+        <v>6398206.592250953</v>
       </c>
       <c r="R153">
-        <v>6450798.206207382</v>
+        <v>6465323.077609721</v>
       </c>
       <c r="S153">
-        <v>-0.9991448666380576</v>
+        <v>-1.038099481697996</v>
       </c>
       <c r="T153">
         <v>113.82</v>
       </c>
       <c r="U153">
-        <v>113.5812630380858</v>
+        <v>113.6541791457563</v>
       </c>
       <c r="V153">
-        <v>0.2101904447339153</v>
+        <v>0.1458994781274425</v>
       </c>
       <c r="W153">
-        <v>6873225.6</v>
+        <v>6873221.8</v>
       </c>
       <c r="X153">
         <v>3595765.86</v>
@@ -15256,10 +15256,10 @@
         <v>0.5332</v>
       </c>
       <c r="AC153">
-        <v>-1.068781474037428</v>
+        <v>-1.132878282218686</v>
       </c>
       <c r="AD153">
-        <v>-0.9772212352758602</v>
+        <v>-1.000955629158029</v>
       </c>
       <c r="AE153">
         <v>85.40000000000001</v>
@@ -15317,22 +15317,22 @@
         <v>1.788960107146287</v>
       </c>
       <c r="Q154">
-        <v>6405735.148805694</v>
+        <v>6417740.554113303</v>
       </c>
       <c r="R154">
-        <v>6457122.402931866</v>
+        <v>6472733.334265581</v>
       </c>
       <c r="S154">
-        <v>-0.7958228281817914</v>
+        <v>-0.8496067628980697</v>
       </c>
       <c r="T154">
         <v>116.32</v>
       </c>
       <c r="U154">
-        <v>114.1219836556322</v>
+        <v>114.1942860594314</v>
       </c>
       <c r="V154">
-        <v>1.926023605583671</v>
+        <v>1.861488883482565</v>
       </c>
       <c r="W154">
         <v>6905408.5</v>
@@ -15353,10 +15353,10 @@
         <v>0.5232</v>
       </c>
       <c r="AC154">
-        <v>0.2101904447339153</v>
+        <v>0.1458994781274425</v>
       </c>
       <c r="AD154">
-        <v>-0.9991448666380576</v>
+        <v>-1.038099481697996</v>
       </c>
       <c r="AE154">
         <v>85</v>
@@ -15414,25 +15414,25 @@
         <v>1.759755164498844</v>
       </c>
       <c r="Q155">
-        <v>6417759.617236886</v>
+        <v>6430012.369142033</v>
       </c>
       <c r="R155">
-        <v>6463487.873481901</v>
+        <v>6480260.830479769</v>
       </c>
       <c r="S155">
-        <v>-0.7074857590841477</v>
+        <v>-0.7754080067486346</v>
       </c>
       <c r="T155">
         <v>106.32</v>
       </c>
       <c r="U155">
-        <v>114.6699778158665</v>
+        <v>114.7414105670963</v>
       </c>
       <c r="V155">
-        <v>-7.281747127634953</v>
+        <v>-7.339469268744803</v>
       </c>
       <c r="W155">
-        <v>6948683.1</v>
+        <v>6948653.3</v>
       </c>
       <c r="X155">
         <v>3772984.29</v>
@@ -15450,10 +15450,10 @@
         <v>0.5318999999999999</v>
       </c>
       <c r="AC155">
-        <v>1.926023605583671</v>
+        <v>1.861488883482565</v>
       </c>
       <c r="AD155">
-        <v>-0.7958228281817914</v>
+        <v>-0.8496067628980697</v>
       </c>
       <c r="AE155">
         <v>83.7</v>
@@ -15511,25 +15511,25 @@
         <v>2.258529553099486</v>
       </c>
       <c r="Q156">
-        <v>6420463.612372304</v>
+        <v>6433035.289295695</v>
       </c>
       <c r="R156">
-        <v>6469891.478592517</v>
+        <v>6487904.940387531</v>
       </c>
       <c r="S156">
-        <v>-0.7639674696825915</v>
+        <v>-0.8457221799023307</v>
       </c>
       <c r="T156">
         <v>106.72</v>
       </c>
       <c r="U156">
-        <v>115.2248398108015</v>
+        <v>115.2951296596919</v>
       </c>
       <c r="V156">
-        <v>-7.381081913211041</v>
+        <v>-7.43754717567211</v>
       </c>
       <c r="W156">
-        <v>6982118.5</v>
+        <v>6982104.4</v>
       </c>
       <c r="X156">
         <v>3778639.62</v>
@@ -15547,10 +15547,10 @@
         <v>0.5429999999999999</v>
       </c>
       <c r="AC156">
-        <v>-7.281747127634953</v>
+        <v>-7.339469268744803</v>
       </c>
       <c r="AD156">
-        <v>-0.7074857590841477</v>
+        <v>-0.7754080067486346</v>
       </c>
       <c r="AE156">
         <v>85.7</v>
@@ -15608,22 +15608,22 @@
         <v>2.554216867469883</v>
       </c>
       <c r="Q157">
-        <v>6433706.643959688</v>
+        <v>6446797.061674715</v>
       </c>
       <c r="R157">
-        <v>6476329.726157266</v>
+        <v>6495664.650404546</v>
       </c>
       <c r="S157">
-        <v>-0.6581363827945164</v>
+        <v>-0.7523108312986526</v>
       </c>
       <c r="T157">
         <v>109.46</v>
       </c>
       <c r="U157">
-        <v>115.7860995036091</v>
+        <v>115.8549553481394</v>
       </c>
       <c r="V157">
-        <v>-5.463608784413676</v>
+        <v>-5.519794409244549</v>
       </c>
       <c r="W157">
         <v>7004141</v>
@@ -15644,10 +15644,10 @@
         <v>0.5412</v>
       </c>
       <c r="AC157">
-        <v>-7.381081913211041</v>
+        <v>-7.43754717567211</v>
       </c>
       <c r="AD157">
-        <v>-0.7639674696825915</v>
+        <v>-0.8457221799023307</v>
       </c>
       <c r="AE157">
         <v>93</v>
@@ -15705,25 +15705,25 @@
         <v>2.524571208325299</v>
       </c>
       <c r="Q158">
-        <v>6450704.819931161</v>
+        <v>6464470.028923261</v>
       </c>
       <c r="R158">
-        <v>6482798.742681846</v>
+        <v>6503538.523569527</v>
       </c>
       <c r="S158">
-        <v>-0.4950627657061668</v>
+        <v>-0.600726735217727</v>
       </c>
       <c r="T158">
         <v>106.18</v>
       </c>
       <c r="U158">
-        <v>116.3532211336981</v>
+        <v>116.4203334772367</v>
       </c>
       <c r="V158">
-        <v>-8.743394497010426</v>
+        <v>-8.796000811352178</v>
       </c>
       <c r="W158">
-        <v>7029631.6</v>
+        <v>7029638.4</v>
       </c>
       <c r="X158">
         <v>3867946.08</v>
@@ -15741,10 +15741,10 @@
         <v>0.5472</v>
       </c>
       <c r="AC158">
-        <v>-5.463608784413676</v>
+        <v>-5.519794409244549</v>
       </c>
       <c r="AD158">
-        <v>-0.6581363827945164</v>
+        <v>-0.7523108312986526</v>
       </c>
       <c r="AE158">
         <v>93</v>
@@ -15802,31 +15802,31 @@
         <v>2.416016940995291</v>
       </c>
       <c r="Q159">
-        <v>6451787.650537874</v>
+        <v>6466271.807217939</v>
       </c>
       <c r="R159">
-        <v>6489294.325790144</v>
+        <v>6511524.745856462</v>
       </c>
       <c r="S159">
-        <v>-0.5779777179039103</v>
+        <v>-0.6949668534596221</v>
       </c>
       <c r="T159">
         <v>105.64</v>
       </c>
       <c r="U159">
-        <v>116.9256201279798</v>
+        <v>116.9906605479901</v>
       </c>
       <c r="V159">
-        <v>-9.65196516864928</v>
+        <v>-9.702193743349262</v>
       </c>
       <c r="W159">
-        <v>7065598.2</v>
+        <v>7065605.3</v>
       </c>
       <c r="X159">
         <v>3899150.46</v>
       </c>
       <c r="Y159">
-        <v>0.5518999999999999</v>
+        <v>0.5518</v>
       </c>
       <c r="Z159">
         <v>3.78</v>
@@ -15838,10 +15838,10 @@
         <v>0.5502</v>
       </c>
       <c r="AC159">
-        <v>-8.743394497010426</v>
+        <v>-8.796000811352178</v>
       </c>
       <c r="AD159">
-        <v>-0.4950627657061668</v>
+        <v>-0.600726735217727</v>
       </c>
       <c r="AE159">
         <v>95.3</v>
@@ -15899,22 +15899,22 @@
         <v>1.740294511378848</v>
       </c>
       <c r="Q160">
-        <v>6447424.127414836</v>
+        <v>6462706.273752645</v>
       </c>
       <c r="R160">
-        <v>6495812.025467754</v>
+        <v>6519621.201784919</v>
       </c>
       <c r="S160">
-        <v>-0.7449091485900006</v>
+        <v>-0.8729790622911127</v>
       </c>
       <c r="T160">
         <v>107.76</v>
       </c>
       <c r="U160">
-        <v>117.5026334162899</v>
+        <v>117.5652540464861</v>
       </c>
       <c r="V160">
-        <v>-8.291417079797325</v>
+        <v>-8.34026526460705</v>
       </c>
       <c r="W160">
         <v>7077734.5</v>
@@ -15932,13 +15932,13 @@
         <v>2.416016940995291</v>
       </c>
       <c r="AB160">
-        <v>0.5518999999999999</v>
+        <v>0.5518</v>
       </c>
       <c r="AC160">
-        <v>-9.65196516864928</v>
+        <v>-9.702193743349262</v>
       </c>
       <c r="AD160">
-        <v>-0.5779777179039103</v>
+        <v>-0.6949668534596221</v>
       </c>
       <c r="AE160">
         <v>94.5</v>
@@ -15996,25 +15996,25 @@
         <v>1.391271202591948</v>
       </c>
       <c r="Q161">
-        <v>6436384.905562084</v>
+        <v>6452420.539857141</v>
       </c>
       <c r="R161">
-        <v>6502347.102296915</v>
+        <v>6527825.42670056</v>
       </c>
       <c r="S161">
-        <v>-1.014436721034628</v>
+        <v>-1.155130260300674</v>
       </c>
       <c r="T161">
         <v>108.96</v>
       </c>
       <c r="U161">
-        <v>118.0835108480615</v>
+        <v>118.1433438765556</v>
       </c>
       <c r="V161">
-        <v>-7.726320789869446</v>
+        <v>-7.773052272966807</v>
       </c>
       <c r="W161">
-        <v>7102860.6</v>
+        <v>7102889.9</v>
       </c>
       <c r="X161">
         <v>3898797.52</v>
@@ -16032,10 +16032,10 @@
         <v>0.5485</v>
       </c>
       <c r="AC161">
-        <v>-8.291417079797325</v>
+        <v>-8.34026526460705</v>
       </c>
       <c r="AD161">
-        <v>-0.7449091485900006</v>
+        <v>-0.8729790622911127</v>
       </c>
       <c r="AE161">
         <v>90.90000000000001</v>
@@ -16093,25 +16093,25 @@
         <v>1.662526275558962</v>
       </c>
       <c r="Q162">
-        <v>6436166.187684014</v>
+        <v>6452866.31644195</v>
       </c>
       <c r="R162">
-        <v>6508894.44349645</v>
+        <v>6536134.516790626</v>
       </c>
       <c r="S162">
-        <v>-1.117367264806468</v>
+        <v>-1.273967053994496</v>
       </c>
       <c r="T162">
         <v>110.69</v>
       </c>
       <c r="U162">
-        <v>118.6674270980871</v>
+        <v>118.7240842842042</v>
       </c>
       <c r="V162">
-        <v>-6.722507846650483</v>
+        <v>-6.767021478954527</v>
       </c>
       <c r="W162">
-        <v>7155920</v>
+        <v>7155932.6</v>
       </c>
       <c r="X162">
         <v>3941330.33</v>
@@ -16129,10 +16129,10 @@
         <v>0.5489000000000001</v>
       </c>
       <c r="AC162">
-        <v>-7.726320789869446</v>
+        <v>-7.773052272966807</v>
       </c>
       <c r="AD162">
-        <v>-1.014436721034628</v>
+        <v>-1.155130260300674</v>
       </c>
       <c r="AE162">
         <v>89.7</v>
@@ -16190,22 +16190,22 @@
         <v>2.931217954919219</v>
       </c>
       <c r="Q163">
-        <v>6419973.015374458</v>
+        <v>6437123.195100703</v>
       </c>
       <c r="R163">
-        <v>6515448.427317617</v>
+        <v>6544544.986414547</v>
       </c>
       <c r="S163">
-        <v>-1.465369774747272</v>
+        <v>-1.641394345013059</v>
       </c>
       <c r="T163">
         <v>107.71</v>
       </c>
       <c r="U163">
-        <v>119.2534864436989</v>
+        <v>119.3065586563027</v>
       </c>
       <c r="V163">
-        <v>-9.679789487034174</v>
+        <v>-9.719967440943423</v>
       </c>
       <c r="W163">
         <v>7168423.2</v>
@@ -16226,10 +16226,10 @@
         <v>0.5508</v>
       </c>
       <c r="AC163">
-        <v>-6.722507846650483</v>
+        <v>-6.767021478954527</v>
       </c>
       <c r="AD163">
-        <v>-1.117367264806468</v>
+        <v>-1.273967053994496</v>
       </c>
       <c r="AE163">
         <v>85.8</v>
@@ -16287,25 +16287,25 @@
         <v>3.080798294904086</v>
       </c>
       <c r="Q164">
-        <v>6458727.339320092</v>
+        <v>6476246.187659531</v>
       </c>
       <c r="R164">
-        <v>6522002.870836864</v>
+        <v>6553052.7074302</v>
       </c>
       <c r="S164">
-        <v>-0.9701855820963834</v>
+        <v>-1.172072363824905</v>
       </c>
       <c r="T164">
         <v>106.95</v>
       </c>
       <c r="U164">
-        <v>119.8407316080077</v>
+        <v>119.8897883883308</v>
       </c>
       <c r="V164">
-        <v>-10.75655283061238</v>
+        <v>-10.79306967030251</v>
       </c>
       <c r="W164">
-        <v>7208033.2</v>
+        <v>7208028.9</v>
       </c>
       <c r="X164">
         <v>4018959.15</v>
@@ -16323,10 +16323,10 @@
         <v>0.5572</v>
       </c>
       <c r="AC164">
-        <v>-9.679789487034174</v>
+        <v>-9.719967440943423</v>
       </c>
       <c r="AD164">
-        <v>-1.465369774747272</v>
+        <v>-1.641394345013059</v>
       </c>
       <c r="AE164">
         <v>88.2</v>
@@ -16384,25 +16384,25 @@
         <v>2.388088562312674</v>
       </c>
       <c r="Q165">
-        <v>6468185.890198338</v>
+        <v>6485703.137726957</v>
       </c>
       <c r="R165">
-        <v>6528550.854437642</v>
+        <v>6561652.722823624</v>
       </c>
       <c r="S165">
-        <v>-0.9246303748751905</v>
+        <v>-1.157476451511807</v>
       </c>
       <c r="T165">
         <v>110.62</v>
       </c>
       <c r="U165">
-        <v>120.4281162440131</v>
+        <v>120.472705396149</v>
       </c>
       <c r="V165">
-        <v>-8.144374046455837</v>
+        <v>-8.178371493983184</v>
       </c>
       <c r="W165">
-        <v>7238471.9</v>
+        <v>7238468.9</v>
       </c>
       <c r="X165">
         <v>4095014.42</v>
@@ -16420,10 +16420,10 @@
         <v>0.5576</v>
       </c>
       <c r="AC165">
-        <v>-10.75655283061238</v>
+        <v>-10.79306967030251</v>
       </c>
       <c r="AD165">
-        <v>-0.9701855820963834</v>
+        <v>-1.172072363824905</v>
       </c>
       <c r="AE165">
         <v>88.90000000000001</v>
@@ -16481,22 +16481,22 @@
         <v>2.740791136164833</v>
       </c>
       <c r="Q166">
-        <v>6511359.523010185</v>
+        <v>6528589.325029584</v>
       </c>
       <c r="R166">
-        <v>6535084.970266278</v>
+        <v>6570339.482937942</v>
       </c>
       <c r="S166">
-        <v>-0.3630472650935745</v>
+        <v>-0.6354338008983662</v>
       </c>
       <c r="T166">
         <v>112.63</v>
       </c>
       <c r="U166">
-        <v>121.0144945391927</v>
+        <v>121.0541417515715</v>
       </c>
       <c r="V166">
-        <v>-6.928504367282395</v>
+        <v>-6.958986805143486</v>
       </c>
       <c r="W166">
         <v>7281103.7</v>
@@ -16517,10 +16517,10 @@
         <v>0.5657</v>
       </c>
       <c r="AC166">
-        <v>-8.144374046455837</v>
+        <v>-8.178371493983184</v>
       </c>
       <c r="AD166">
-        <v>-0.9246303748751905</v>
+        <v>-1.157476451511807</v>
       </c>
       <c r="AE166">
         <v>90.59999999999999</v>
@@ -16578,25 +16578,25 @@
         <v>2.769650867953977</v>
       </c>
       <c r="Q167">
-        <v>6561188.196047636</v>
+        <v>6577661.630251706</v>
       </c>
       <c r="R167">
-        <v>6541597.344690054</v>
+        <v>6579106.852085543</v>
       </c>
       <c r="S167">
-        <v>0.2994811561351174</v>
+        <v>-0.02196683936481758</v>
       </c>
       <c r="T167">
         <v>112.09</v>
       </c>
       <c r="U167">
-        <v>121.598645001115</v>
+        <v>121.6328535024515</v>
       </c>
       <c r="V167">
-        <v>-7.819696511443686</v>
+        <v>-7.845621661962521</v>
       </c>
       <c r="W167">
-        <v>7319401.7</v>
+        <v>7319403.4</v>
       </c>
       <c r="X167">
         <v>4131475.84</v>
@@ -16614,10 +16614,10 @@
         <v>0.5657</v>
       </c>
       <c r="AC167">
-        <v>-6.928504367282395</v>
+        <v>-6.958986805143486</v>
       </c>
       <c r="AD167">
-        <v>-0.3630472650935745</v>
+        <v>-0.6354338008983662</v>
       </c>
       <c r="AE167">
         <v>89.90000000000001</v>
@@ -16675,25 +16675,25 @@
         <v>1.578386753171301</v>
       </c>
       <c r="Q168">
-        <v>6582158.817836256</v>
+        <v>6597331.939170944</v>
       </c>
       <c r="R168">
-        <v>6548079.921009525</v>
+        <v>6587948.372432525</v>
       </c>
       <c r="S168">
-        <v>0.5204410642177582</v>
+        <v>0.1424353411402679</v>
       </c>
       <c r="T168">
         <v>113.51</v>
       </c>
       <c r="U168">
-        <v>122.1792814421747</v>
+        <v>122.2075316955479</v>
       </c>
       <c r="V168">
-        <v>-7.095541355166457</v>
+        <v>-7.117017727856433</v>
       </c>
       <c r="W168">
-        <v>7351034.6</v>
+        <v>7351036.1</v>
       </c>
       <c r="X168">
         <v>4190113.83</v>
@@ -16711,10 +16711,10 @@
         <v>0.5645</v>
       </c>
       <c r="AC168">
-        <v>-7.819696511443686</v>
+        <v>-7.845621661962521</v>
       </c>
       <c r="AD168">
-        <v>0.2994811561351174</v>
+        <v>-0.02196683936481758</v>
       </c>
       <c r="AE168">
         <v>89.59999999999999</v>
@@ -16772,22 +16772,22 @@
         <v>0.2684306394401537</v>
       </c>
       <c r="Q169">
-        <v>6626663.036118817</v>
+        <v>6640144.733828152</v>
       </c>
       <c r="R169">
-        <v>6554524.793689226</v>
+        <v>6596857.574993593</v>
       </c>
       <c r="S169">
-        <v>1.100586918201096</v>
+        <v>0.6561784659205872</v>
       </c>
       <c r="T169">
         <v>111.81</v>
       </c>
       <c r="U169">
-        <v>122.7550443055918</v>
+        <v>122.7767937444914</v>
       </c>
       <c r="V169">
-        <v>-8.916166636985368</v>
+        <v>-8.932301789305708</v>
       </c>
       <c r="W169">
         <v>7389131</v>
@@ -16808,10 +16808,10 @@
         <v>0.57</v>
       </c>
       <c r="AC169">
-        <v>-7.095541355166457</v>
+        <v>-7.117017727856433</v>
       </c>
       <c r="AD169">
-        <v>0.5204410642177582</v>
+        <v>0.1424353411402679</v>
       </c>
       <c r="AE169">
         <v>89.59999999999999</v>
@@ -16869,25 +16869,25 @@
         <v>0.201554851713226</v>
       </c>
       <c r="Q170">
-        <v>6631866.905870299</v>
+        <v>6642856.630123571</v>
       </c>
       <c r="R170">
-        <v>6560924.320148146</v>
+        <v>6605828.063187514</v>
       </c>
       <c r="S170">
-        <v>1.081289499168481</v>
+        <v>0.5605439103449683</v>
       </c>
       <c r="T170">
         <v>113.2</v>
       </c>
       <c r="U170">
-        <v>123.3245071419827</v>
+        <v>123.3391899523279</v>
       </c>
       <c r="V170">
-        <v>-8.209647357703552</v>
+        <v>-8.220574463191133</v>
       </c>
       <c r="W170">
-        <v>7426459.3</v>
+        <v>7426456.3</v>
       </c>
       <c r="X170">
         <v>4222098.35</v>
@@ -16905,10 +16905,10 @@
         <v>0.5727</v>
       </c>
       <c r="AC170">
-        <v>-8.916166636985368</v>
+        <v>-8.932301789305708</v>
       </c>
       <c r="AD170">
-        <v>1.100586918201096</v>
+        <v>0.6561784659205872</v>
       </c>
       <c r="AE170">
         <v>91.59999999999999</v>
@@ -16966,25 +16966,25 @@
         <v>0.1730602826651273</v>
       </c>
       <c r="Q171">
-        <v>6630217.27346074</v>
+        <v>6638321.408960886</v>
       </c>
       <c r="R171">
-        <v>6567271.414427505</v>
+        <v>6614853.774438904</v>
       </c>
       <c r="S171">
-        <v>0.958478111547989</v>
+        <v>0.3547717806350548</v>
       </c>
       <c r="T171">
         <v>118.06</v>
       </c>
       <c r="U171">
-        <v>123.8861590494614</v>
+        <v>123.8931860017811</v>
       </c>
       <c r="V171">
-        <v>-4.702832902532162</v>
+        <v>-4.708237950791949</v>
       </c>
       <c r="W171">
-        <v>7470417.9</v>
+        <v>7470413.7</v>
       </c>
       <c r="X171">
         <v>4279750.33</v>
@@ -17002,10 +17002,10 @@
         <v>0.5685</v>
       </c>
       <c r="AC171">
-        <v>-8.209647357703552</v>
+        <v>-8.220574463191133</v>
       </c>
       <c r="AD171">
-        <v>1.081289499168481</v>
+        <v>0.5605439103449683</v>
       </c>
       <c r="AE171">
         <v>90.40000000000001</v>
@@ -17063,22 +17063,22 @@
         <v>0.629235237173309</v>
       </c>
       <c r="Q172">
-        <v>6625606.140421879</v>
+        <v>6630580.030422229</v>
       </c>
       <c r="R172">
-        <v>6573559.537965034</v>
+        <v>6623928.931886633</v>
       </c>
       <c r="S172">
-        <v>0.7917567667297343</v>
+        <v>0.1004101735388341</v>
       </c>
       <c r="T172">
         <v>131.08</v>
       </c>
       <c r="U172">
-        <v>124.438411004946</v>
+        <v>124.4371693410856</v>
       </c>
       <c r="V172">
-        <v>5.337249922606335</v>
+        <v>5.338301002899093</v>
       </c>
       <c r="W172">
         <v>7506475</v>
@@ -17099,10 +17099,10 @@
         <v>0.5729</v>
       </c>
       <c r="AC172">
-        <v>-4.702832902532162</v>
+        <v>-4.708237950791949</v>
       </c>
       <c r="AD172">
-        <v>0.958478111547989</v>
+        <v>0.3547717806350548</v>
       </c>
       <c r="AE172">
         <v>87.8</v>
@@ -17160,25 +17160,25 @@
         <v>1.220703125</v>
       </c>
       <c r="Q173">
-        <v>6684266.541110056</v>
+        <v>6686376.61001343</v>
       </c>
       <c r="R173">
-        <v>6579782.637891808</v>
+        <v>6633047.939747007</v>
       </c>
       <c r="S173">
-        <v>1.587953720789259</v>
+        <v>0.8039843937635904</v>
       </c>
       <c r="T173">
         <v>141.14</v>
       </c>
       <c r="U173">
-        <v>124.9796290304208</v>
+        <v>124.9694824093225</v>
       </c>
       <c r="V173">
-        <v>12.93040401459802</v>
+        <v>12.93957314931733</v>
       </c>
       <c r="W173">
-        <v>7462835.4</v>
+        <v>7462805.2</v>
       </c>
       <c r="X173">
         <v>4488713.15</v>
@@ -17196,10 +17196,10 @@
         <v>0.5807</v>
       </c>
       <c r="AC173">
-        <v>5.337249922606335</v>
+        <v>5.338301002899093</v>
       </c>
       <c r="AD173">
-        <v>0.7917567667297343</v>
+        <v>0.1004101735388341</v>
       </c>
       <c r="AE173">
         <v>80.2</v>
@@ -17257,25 +17257,25 @@
         <v>1.109148017275241</v>
       </c>
       <c r="Q174">
-        <v>6779122.068521085</v>
+        <v>6778662.325789715</v>
       </c>
       <c r="R174">
-        <v>6585935.062933049</v>
+        <v>6642205.253556527</v>
       </c>
       <c r="S174">
-        <v>2.933326911699008</v>
+        <v>2.054394090880018</v>
       </c>
       <c r="T174">
         <v>149.83</v>
       </c>
       <c r="U174">
-        <v>125.508230394701</v>
+        <v>125.4885189019833</v>
       </c>
       <c r="V174">
-        <v>19.37862523343001</v>
+        <v>19.39737699592214</v>
       </c>
       <c r="W174">
-        <v>7426871.7</v>
+        <v>7426858.4</v>
       </c>
       <c r="X174">
         <v>4638022.09</v>
@@ -17293,10 +17293,10 @@
         <v>0.6015</v>
       </c>
       <c r="AC174">
-        <v>12.93040401459802</v>
+        <v>12.93957314931733</v>
       </c>
       <c r="AD174">
-        <v>1.587953720789259</v>
+        <v>0.8039843937635904</v>
       </c>
       <c r="AE174">
         <v>58.2</v>
@@ -17354,22 +17354,22 @@
         <v>0.4406149025751427</v>
       </c>
       <c r="Q175">
-        <v>6897717.160702032</v>
+        <v>6895272.10348265</v>
       </c>
       <c r="R175">
-        <v>6592011.968016954</v>
+        <v>6651395.740338347</v>
       </c>
       <c r="S175">
-        <v>4.637509673348506</v>
+        <v>3.66654417606338</v>
       </c>
       <c r="T175">
         <v>139.5</v>
       </c>
       <c r="U175">
-        <v>126.0227570608224</v>
+        <v>125.9927972870746</v>
       </c>
       <c r="V175">
-        <v>10.69429304159177</v>
+        <v>10.72061499051351</v>
       </c>
       <c r="W175">
         <v>7438850</v>
@@ -17390,10 +17390,10 @@
         <v>0.6245000000000001</v>
       </c>
       <c r="AC175">
-        <v>19.37862523343001</v>
+        <v>19.39737699592214</v>
       </c>
       <c r="AD175">
-        <v>2.933326911699008</v>
+        <v>2.054394090880018</v>
       </c>
       <c r="AE175">
         <v>62.1</v>
@@ -17451,25 +17451,25 @@
         <v>-0.1563874499071249</v>
       </c>
       <c r="Q176">
-        <v>6961541.976277054</v>
+        <v>6957926.170249957</v>
       </c>
       <c r="R176">
-        <v>6598009.998712189</v>
+        <v>6660615.320025135</v>
       </c>
       <c r="S176">
-        <v>5.509721531731859</v>
+        <v>4.463714475912717</v>
       </c>
       <c r="T176">
         <v>144.2</v>
       </c>
       <c r="U176">
-        <v>126.5219386597946</v>
+        <v>126.4810238526683</v>
       </c>
       <c r="V176">
-        <v>13.97232885257951</v>
+        <v>14.00919727529382</v>
       </c>
       <c r="W176">
-        <v>7452106.2</v>
+        <v>7452110.5</v>
       </c>
       <c r="X176">
         <v>4947120.54</v>
@@ -17487,10 +17487,10 @@
         <v>0.6525</v>
       </c>
       <c r="AC176">
-        <v>10.69429304159177</v>
+        <v>10.72061499051351</v>
       </c>
       <c r="AD176">
-        <v>4.637509673348506</v>
+        <v>3.66654417606338</v>
       </c>
       <c r="AE176">
         <v>71.09999999999999</v>
@@ -17548,25 +17548,25 @@
         <v>-0.4880905896134213</v>
       </c>
       <c r="Q177">
-        <v>7014084.150702154</v>
+        <v>7010527.450641338</v>
       </c>
       <c r="R177">
-        <v>6603928.159423791</v>
+        <v>6669861.794311611</v>
       </c>
       <c r="S177">
-        <v>6.210788206305229</v>
+        <v>5.107536960065095</v>
       </c>
       <c r="T177">
         <v>151.32</v>
       </c>
       <c r="U177">
-        <v>127.0046088137004</v>
+        <v>126.9520091090848</v>
       </c>
       <c r="V177">
-        <v>19.14528253220098</v>
+        <v>19.19464769555299</v>
       </c>
       <c r="W177">
-        <v>7460272.4</v>
+        <v>7460275.4</v>
       </c>
       <c r="X177">
         <v>4730781.08</v>
@@ -17584,10 +17584,10 @@
         <v>0.6639</v>
       </c>
       <c r="AC177">
-        <v>13.97232885257951</v>
+        <v>14.00919727529382</v>
       </c>
       <c r="AD177">
-        <v>5.509721531731859</v>
+        <v>4.463714475912717</v>
       </c>
       <c r="AE177">
         <v>78.8</v>
@@ -17645,22 +17645,22 @@
         <v>-1.202249369788655</v>
       </c>
       <c r="Q178">
-        <v>7007403.974603007</v>
+        <v>7005315.078568363</v>
       </c>
       <c r="R178">
-        <v>6609768.259587464</v>
+        <v>6679135.258957705</v>
       </c>
       <c r="S178">
-        <v>6.015879822091685</v>
+        <v>4.883563619604847</v>
       </c>
       <c r="T178">
         <v>148.88</v>
       </c>
       <c r="U178">
-        <v>127.4697375494163</v>
+        <v>127.4047002871326</v>
       </c>
       <c r="V178">
-        <v>16.79634936275256</v>
+        <v>16.85597129812981</v>
       </c>
       <c r="W178">
         <v>7488004.3</v>
@@ -17681,10 +17681,10 @@
         <v>0.6341</v>
       </c>
       <c r="AC178">
-        <v>19.14528253220098</v>
+        <v>19.19464769555299</v>
       </c>
       <c r="AD178">
-        <v>6.210788206305229</v>
+        <v>5.107536960065095</v>
       </c>
       <c r="AE178">
         <v>80.2</v>
@@ -17742,25 +17742,25 @@
         <v>-1.943802925327176</v>
       </c>
       <c r="Q179">
-        <v>6974499.165406226</v>
+        <v>6975754.584598359</v>
       </c>
       <c r="R179">
-        <v>6615535.273422815</v>
+        <v>6688438.438316373</v>
       </c>
       <c r="S179">
-        <v>5.426074794363345</v>
+        <v>4.295713400545398</v>
       </c>
       <c r="T179">
         <v>154.27</v>
       </c>
       <c r="U179">
-        <v>127.9164825125786</v>
+        <v>127.8382326422481</v>
       </c>
       <c r="V179">
-        <v>20.60212802117189</v>
+        <v>20.67594866687539</v>
       </c>
       <c r="W179">
-        <v>7507801.8</v>
+        <v>7507800.8</v>
       </c>
       <c r="X179">
         <v>4881049.95</v>
@@ -17778,10 +17778,10 @@
         <v>0.6461</v>
       </c>
       <c r="AC179">
-        <v>16.79634936275256</v>
+        <v>16.85597129812981</v>
       </c>
       <c r="AD179">
-        <v>6.015879822091685</v>
+        <v>4.883563619604847</v>
       </c>
       <c r="AE179">
         <v>83.40000000000001</v>
@@ -17839,25 +17839,25 @@
         <v>-2.310420860895412</v>
       </c>
       <c r="Q180">
-        <v>6914830.589244484</v>
+        <v>6921401.500185475</v>
       </c>
       <c r="R180">
-        <v>6621237.243326265</v>
+        <v>6697776.573560172</v>
       </c>
       <c r="S180">
-        <v>4.434116089317586</v>
+        <v>3.338793466298573</v>
       </c>
       <c r="T180">
         <v>148.41</v>
       </c>
       <c r="U180">
-        <v>128.3441665514659</v>
+        <v>128.2519071343369</v>
       </c>
       <c r="V180">
-        <v>15.63439460295819</v>
+        <v>15.71757747395415</v>
       </c>
       <c r="W180">
-        <v>7544891</v>
+        <v>7544890.3</v>
       </c>
       <c r="X180">
         <v>4896226.11</v>
@@ -17875,10 +17875,10 @@
         <v>0.6501</v>
       </c>
       <c r="AC180">
-        <v>20.60212802117189</v>
+        <v>20.67594866687539</v>
       </c>
       <c r="AD180">
-        <v>5.426074794363345</v>
+        <v>4.295713400545398</v>
       </c>
       <c r="AE180">
         <v>82.40000000000001</v>
@@ -17936,22 +17936,22 @@
         <v>-2.506697282816683</v>
       </c>
       <c r="Q181">
-        <v>6828304.862304224</v>
+        <v>6842200.899847349</v>
       </c>
       <c r="R181">
-        <v>6626884.981477349</v>
+        <v>6707157.122807217</v>
       </c>
       <c r="S181">
-        <v>3.039435291088632</v>
+        <v>2.013427963107128</v>
       </c>
       <c r="T181">
         <v>141</v>
       </c>
       <c r="U181">
-        <v>128.7523158593982</v>
+        <v>128.6452286721273</v>
       </c>
       <c r="V181">
-        <v>9.512593275585534</v>
+        <v>9.603754026012744</v>
       </c>
       <c r="W181">
         <v>7609597</v>
@@ -17972,10 +17972,10 @@
         <v>0.6489</v>
       </c>
       <c r="AC181">
-        <v>15.63439460295819</v>
+        <v>15.71757747395415</v>
       </c>
       <c r="AD181">
-        <v>4.434116089317586</v>
+        <v>3.338793466298573</v>
       </c>
       <c r="AE181">
         <v>81.7</v>
@@ -18033,25 +18033,25 @@
         <v>-2.543993879112483</v>
       </c>
       <c r="Q182">
-        <v>6773012.696173779</v>
+        <v>6797863.746547726</v>
       </c>
       <c r="R182">
-        <v>6632491.565436346</v>
+        <v>6716589.269676615</v>
       </c>
       <c r="S182">
-        <v>2.118677865641394</v>
+        <v>1.210055782896235</v>
       </c>
       <c r="T182">
         <v>147.01</v>
       </c>
       <c r="U182">
-        <v>129.1406114586583</v>
+        <v>129.0178577051892</v>
       </c>
       <c r="V182">
-        <v>13.8371565222627</v>
+        <v>13.94546663138958</v>
       </c>
       <c r="W182">
-        <v>7671366.9</v>
+        <v>7671367.1</v>
       </c>
       <c r="X182">
         <v>4962494.67</v>
@@ -18069,10 +18069,10 @@
         <v>0.6535</v>
       </c>
       <c r="AC182">
-        <v>9.512593275585534</v>
+        <v>9.603754026012744</v>
       </c>
       <c r="AD182">
-        <v>3.039435291088632</v>
+        <v>2.013427963107128</v>
       </c>
       <c r="AE182">
         <v>78.5</v>
@@ -18130,25 +18130,25 @@
         <v>-3.136882129277585</v>
       </c>
       <c r="Q183">
-        <v>6741380.853623658</v>
+        <v>6779037.535329716</v>
       </c>
       <c r="R183">
-        <v>6638071.626929301</v>
+        <v>6726083.239791915</v>
       </c>
       <c r="S183">
-        <v>1.55631382878203</v>
+        <v>0.7872976537744991</v>
       </c>
       <c r="T183">
         <v>148.58</v>
       </c>
       <c r="U183">
-        <v>129.5088288752674</v>
+        <v>129.3695500131166</v>
       </c>
       <c r="V183">
-        <v>14.72576911578782</v>
+        <v>14.84928252818045</v>
       </c>
       <c r="W183">
-        <v>7757774.9</v>
+        <v>7757775</v>
       </c>
       <c r="X183">
         <v>5004301.39</v>
@@ -18166,10 +18166,10 @@
         <v>0.6469</v>
       </c>
       <c r="AC183">
-        <v>13.8371565222627</v>
+        <v>13.94546663138958</v>
       </c>
       <c r="AD183">
-        <v>2.118677865641394</v>
+        <v>1.210055782896235</v>
       </c>
       <c r="AE183">
         <v>75.8</v>
@@ -18227,22 +18227,22 @@
         <v>-3.647502356267673</v>
       </c>
       <c r="Q184">
-        <v>6737903.732683577</v>
+        <v>6791558.516109798</v>
       </c>
       <c r="R184">
-        <v>6643640.881950228</v>
+        <v>6735649.885894554</v>
       </c>
       <c r="S184">
-        <v>1.418843257910685</v>
+        <v>0.830040622098327</v>
       </c>
       <c r="T184">
         <v>152.43</v>
       </c>
       <c r="U184">
-        <v>129.8568815163234</v>
+        <v>129.7002002037615</v>
       </c>
       <c r="V184">
-        <v>17.38307452026642</v>
+        <v>17.52487641540221</v>
       </c>
       <c r="W184">
         <v>7888820.7</v>
@@ -18263,10 +18263,10 @@
         <v>0.6451</v>
       </c>
       <c r="AC184">
-        <v>14.72576911578782</v>
+        <v>14.84928252818045</v>
       </c>
       <c r="AD184">
-        <v>1.55631382878203</v>
+        <v>0.7872976537744991</v>
       </c>
       <c r="AE184">
         <v>78</v>
@@ -18324,25 +18324,25 @@
         <v>-3.8497564630948</v>
       </c>
       <c r="Q185">
-        <v>6714992.162442694</v>
+        <v>6785822.480338294</v>
       </c>
       <c r="R185">
-        <v>6649215.843632243</v>
+        <v>6745300.469323913</v>
       </c>
       <c r="S185">
-        <v>0.989234224866431</v>
+        <v>0.6007443433938331</v>
       </c>
       <c r="T185">
         <v>150.95</v>
       </c>
       <c r="U185">
-        <v>130.1848299430306</v>
+        <v>130.0098511137597</v>
       </c>
       <c r="V185">
-        <v>15.95052977067777</v>
+        <v>16.1065863139229</v>
       </c>
       <c r="W185">
-        <v>8053159.9</v>
+        <v>8053160</v>
       </c>
       <c r="X185">
         <v>5018717.97</v>
@@ -18360,10 +18360,10 @@
         <v>0.6395000000000001</v>
       </c>
       <c r="AC185">
-        <v>17.38307452026642</v>
+        <v>17.52487641540221</v>
       </c>
       <c r="AD185">
-        <v>1.418843257910685</v>
+        <v>0.830040622098327</v>
       </c>
       <c r="AE185">
         <v>68.2</v>
@@ -18421,25 +18421,25 @@
         <v>-4.414214325374799</v>
       </c>
       <c r="Q186">
-        <v>6652746.696475615</v>
+        <v>6741360.10152194</v>
       </c>
       <c r="R186">
-        <v>6654813.752445271</v>
+        <v>6755046.682813131</v>
       </c>
       <c r="S186">
-        <v>-0.03106106416421728</v>
+        <v>-0.2026126825446561</v>
       </c>
       <c r="T186">
         <v>144.11</v>
       </c>
       <c r="U186">
-        <v>130.4929088918853</v>
+        <v>130.2987209640038</v>
       </c>
       <c r="V186">
-        <v>10.43511959672585</v>
+        <v>10.59970422872509</v>
       </c>
       <c r="W186">
-        <v>8198139.6</v>
+        <v>8198139.8</v>
       </c>
       <c r="X186">
         <v>5053686.92</v>
@@ -18457,10 +18457,10 @@
         <v>0.6232</v>
       </c>
       <c r="AC186">
-        <v>15.95052977067777</v>
+        <v>16.1065863139229</v>
       </c>
       <c r="AD186">
-        <v>0.989234224866431</v>
+        <v>0.6007443433938331</v>
       </c>
       <c r="AE186">
         <v>72.5</v>
@@ -18518,22 +18518,22 @@
         <v>-4.236271342870312</v>
       </c>
       <c r="Q187">
-        <v>6631553.488784545</v>
+        <v>6737766.46431045</v>
       </c>
       <c r="R187">
-        <v>6660452.356392567</v>
+        <v>6764900.531765193</v>
       </c>
       <c r="S187">
-        <v>-0.4338874608161625</v>
+        <v>-0.4011007601269601</v>
       </c>
       <c r="T187">
         <v>136.74</v>
       </c>
       <c r="U187">
-        <v>130.7815133244639</v>
+        <v>130.5671895506048</v>
       </c>
       <c r="V187">
-        <v>4.556061880667617</v>
+        <v>4.727688840237176</v>
       </c>
       <c r="W187">
         <v>8313352.1</v>
@@ -18554,10 +18554,10 @@
         <v>0.6164000000000001</v>
       </c>
       <c r="AC187">
-        <v>10.43511959672585</v>
+        <v>10.59970422872509</v>
       </c>
       <c r="AD187">
-        <v>-0.03106106416421728</v>
+        <v>-0.2026126825446561</v>
       </c>
       <c r="AE187">
         <v>76.2</v>
@@ -18615,25 +18615,25 @@
         <v>-4.440774382970913</v>
       </c>
       <c r="Q188">
-        <v>6597422.329931392</v>
+        <v>6720839.563341513</v>
       </c>
       <c r="R188">
-        <v>6666149.387527873</v>
+        <v>6774873.915976748</v>
       </c>
       <c r="S188">
-        <v>-1.030985860068878</v>
+        <v>-0.7975698633713169</v>
       </c>
       <c r="T188">
         <v>139.21</v>
       </c>
       <c r="U188">
-        <v>131.0511432724872</v>
+        <v>130.81574323819</v>
       </c>
       <c r="V188">
-        <v>6.225704350055583</v>
+        <v>6.416855153684176</v>
       </c>
       <c r="W188">
-        <v>8422611.300000001</v>
+        <v>8422610.6</v>
       </c>
       <c r="X188">
         <v>5191114.72</v>
@@ -18651,10 +18651,10 @@
         <v>0.6175</v>
       </c>
       <c r="AC188">
-        <v>4.556061880667617</v>
+        <v>4.727688840237176</v>
       </c>
       <c r="AD188">
-        <v>-0.4338874608161625</v>
+        <v>-0.4011007601269601</v>
       </c>
       <c r="AE188">
         <v>80.90000000000001</v>
@@ -18712,25 +18712,25 @@
         <v>-4.257840991976658</v>
       </c>
       <c r="Q189">
-        <v>6524341.565043365</v>
+        <v>6665520.714710272</v>
       </c>
       <c r="R189">
-        <v>6671922.354919846</v>
+        <v>6784978.525876624</v>
       </c>
       <c r="S189">
-        <v>-2.211968035983758</v>
+        <v>-1.760621801686801</v>
       </c>
       <c r="T189">
         <v>141</v>
       </c>
       <c r="U189">
-        <v>131.302344743657</v>
+        <v>131.0449160210937</v>
       </c>
       <c r="V189">
-        <v>7.385744158092411</v>
+        <v>7.596696065113906</v>
       </c>
       <c r="W189">
-        <v>8538598.6</v>
+        <v>8538597.699999999</v>
       </c>
       <c r="X189">
         <v>5212554.57</v>
@@ -18748,10 +18748,10 @@
         <v>0.6163000000000001</v>
       </c>
       <c r="AC189">
-        <v>6.225704350055583</v>
+        <v>6.416855153684176</v>
       </c>
       <c r="AD189">
-        <v>-1.030985860068878</v>
+        <v>-0.7975698633713169</v>
       </c>
       <c r="AE189">
         <v>82.2</v>
@@ -18809,22 +18809,22 @@
         <v>-4.371882086167799</v>
       </c>
       <c r="Q190">
-        <v>6453221.440206952</v>
+        <v>6610866.318808392</v>
       </c>
       <c r="R190">
-        <v>6677788.23733576</v>
+        <v>6795225.634961927</v>
       </c>
       <c r="S190">
-        <v>-3.362891861009409</v>
+        <v>-2.713071295307601</v>
       </c>
       <c r="T190">
         <v>140.07</v>
       </c>
       <c r="U190">
-        <v>131.5357266998145</v>
+        <v>131.2553066641533</v>
       </c>
       <c r="V190">
-        <v>6.488178926218358</v>
+        <v>6.715685300557839</v>
       </c>
       <c r="W190">
         <v>8638141.9</v>
@@ -18845,10 +18845,10 @@
         <v>0.6104999999999999</v>
       </c>
       <c r="AC190">
-        <v>7.385744158092411</v>
+        <v>7.596696065113906</v>
       </c>
       <c r="AD190">
-        <v>-2.211968035983758</v>
+        <v>-1.760621801686801</v>
       </c>
       <c r="AE190">
         <v>81.8</v>
@@ -18906,25 +18906,25 @@
         <v>-3.948676244691429</v>
       </c>
       <c r="Q191">
-        <v>6407925.88695125</v>
+        <v>6580491.902208543</v>
       </c>
       <c r="R191">
-        <v>6683762.874802241</v>
+        <v>6805625.594987393</v>
       </c>
       <c r="S191">
-        <v>-4.126971483247788</v>
+        <v>-3.308052869447731</v>
       </c>
       <c r="T191">
         <v>145.35</v>
       </c>
       <c r="U191">
-        <v>131.751972930388</v>
+        <v>131.4475907461233</v>
       </c>
       <c r="V191">
-        <v>10.32092861091092</v>
+        <v>10.57638955188438</v>
       </c>
       <c r="W191">
-        <v>8723377.800000001</v>
+        <v>8723380.800000001</v>
       </c>
       <c r="X191">
         <v>5289723.28</v>
@@ -18942,10 +18942,10 @@
         <v>0.6093</v>
       </c>
       <c r="AC191">
-        <v>6.488178926218358</v>
+        <v>6.715685300557839</v>
       </c>
       <c r="AD191">
-        <v>-3.362891861009409</v>
+        <v>-2.713071295307601</v>
       </c>
       <c r="AE191">
         <v>75.3</v>
@@ -19003,25 +19003,25 @@
         <v>-2.790319667690078</v>
       </c>
       <c r="Q192">
-        <v>6364230.121299928</v>
+        <v>6549668.071619083</v>
       </c>
       <c r="R192">
-        <v>6689860.374577421</v>
+        <v>6816187.335182176</v>
       </c>
       <c r="S192">
-        <v>-4.867519425591327</v>
+        <v>-3.910092995646364</v>
       </c>
       <c r="T192">
         <v>144.1</v>
       </c>
       <c r="U192">
-        <v>131.9518330756813</v>
+        <v>131.6225118603689</v>
       </c>
       <c r="V192">
-        <v>9.206516227289585</v>
+        <v>9.479752333603674</v>
       </c>
       <c r="W192">
-        <v>8818704.5</v>
+        <v>8818708.9</v>
       </c>
       <c r="X192">
         <v>5316499.79</v>
@@ -19039,10 +19039,10 @@
         <v>0.6064000000000001</v>
       </c>
       <c r="AC192">
-        <v>10.32092861091092</v>
+        <v>10.57638955188438</v>
       </c>
       <c r="AD192">
-        <v>-4.126971483247788</v>
+        <v>-3.308052869447731</v>
       </c>
       <c r="AE192">
         <v>76.3</v>
@@ -19100,22 +19100,22 @@
         <v>-1.181173905142663</v>
       </c>
       <c r="Q193">
-        <v>6335159.788400576</v>
+        <v>6530676.409083039</v>
       </c>
       <c r="R193">
-        <v>6696092.715547588</v>
+        <v>6826918.047632715</v>
       </c>
       <c r="S193">
-        <v>-5.390202054833637</v>
+        <v>-4.339317338845161</v>
       </c>
       <c r="T193">
         <v>145.65</v>
       </c>
       <c r="U193">
-        <v>132.1361616990442</v>
+        <v>131.7809208719267</v>
       </c>
       <c r="V193">
-        <v>10.22720663835774</v>
+        <v>10.52434528178188</v>
       </c>
       <c r="W193">
         <v>8898727.5</v>
@@ -19136,10 +19136,10 @@
         <v>0.6029</v>
       </c>
       <c r="AC193">
-        <v>9.206516227289585</v>
+        <v>9.479752333603674</v>
       </c>
       <c r="AD193">
-        <v>-4.867519425591327</v>
+        <v>-3.910092995646364</v>
       </c>
       <c r="AE193">
         <v>74.90000000000001</v>
@@ -19197,25 +19197,25 @@
         <v>-1.114332306577293</v>
       </c>
       <c r="Q194">
-        <v>6333385.740555573</v>
+        <v>6533993.128211394</v>
       </c>
       <c r="R194">
-        <v>6702469.364019961</v>
+        <v>6837822.867949668</v>
       </c>
       <c r="S194">
-        <v>-5.506681245656919</v>
+        <v>-4.443369557909859</v>
       </c>
       <c r="T194">
         <v>142.57</v>
       </c>
       <c r="U194">
-        <v>132.3059070996836</v>
+        <v>131.9237649227543</v>
       </c>
       <c r="V194">
-        <v>7.757849309466636</v>
+        <v>8.06999033379574</v>
       </c>
       <c r="W194">
-        <v>8944243</v>
+        <v>8944229.800000001</v>
       </c>
       <c r="X194">
         <v>5290734.24</v>
@@ -19233,10 +19233,10 @@
         <v>0.6022999999999999</v>
       </c>
       <c r="AC194">
-        <v>10.22720663835774</v>
+        <v>10.52434528178188</v>
       </c>
       <c r="AD194">
-        <v>-5.390202054833637</v>
+        <v>-4.339317338845161</v>
       </c>
       <c r="AE194">
         <v>75.5</v>
@@ -19294,25 +19294,25 @@
         <v>-0.04523249502441651</v>
       </c>
       <c r="Q195">
-        <v>6341497.08055016</v>
+        <v>6545918.44813467</v>
       </c>
       <c r="R195">
-        <v>6708997.001325411</v>
+        <v>6848904.645928583</v>
       </c>
       <c r="S195">
-        <v>-5.477717767687906</v>
+        <v>-4.423863573192355</v>
       </c>
       <c r="T195">
         <v>134.34</v>
       </c>
       <c r="U195">
-        <v>132.4621218502523</v>
+        <v>132.0520981693056</v>
       </c>
       <c r="V195">
-        <v>1.417671801959086</v>
+        <v>1.732575144516857</v>
       </c>
       <c r="W195">
-        <v>8991855.1</v>
+        <v>8991877.699999999</v>
       </c>
       <c r="X195">
         <v>5245615.23</v>
@@ -19330,10 +19330,10 @@
         <v>0.5915</v>
       </c>
       <c r="AC195">
-        <v>7.757849309466636</v>
+        <v>8.06999033379574</v>
       </c>
       <c r="AD195">
-        <v>-5.506681245656919</v>
+        <v>-4.443369557909859</v>
       </c>
       <c r="AE195">
         <v>74.09999999999999</v>
@@ -19391,22 +19391,22 @@
         <v>-0.1347708894878785</v>
       </c>
       <c r="Q196">
-        <v>6351113.574410436</v>
+        <v>6557261.286940262</v>
       </c>
       <c r="R196">
-        <v>6715679.460927389</v>
+        <v>6860163.886999742</v>
       </c>
       <c r="S196">
-        <v>-5.428577832489479</v>
+        <v>-4.415384312224546</v>
       </c>
       <c r="T196">
         <v>126.99</v>
       </c>
       <c r="U196">
-        <v>132.6059377216467</v>
+        <v>132.1670569149118</v>
       </c>
       <c r="V196">
-        <v>-4.235057508084717</v>
+        <v>-3.917055456750307</v>
       </c>
       <c r="W196">
         <v>9061814.300000001</v>
@@ -19427,10 +19427,10 @@
         <v>0.5834</v>
       </c>
       <c r="AC196">
-        <v>1.417671801959086</v>
+        <v>1.732575144516857</v>
       </c>
       <c r="AD196">
-        <v>-5.477717767687906</v>
+        <v>-4.423863573192355</v>
       </c>
       <c r="AE196">
         <v>77.90000000000001</v>
@@ -19488,25 +19488,25 @@
         <v>-0.4280745563185473</v>
       </c>
       <c r="Q197">
-        <v>6339884.347243422</v>
+        <v>6544914.535809099</v>
       </c>
       <c r="R197">
-        <v>6722517.740641787</v>
+        <v>6871598.758736937</v>
       </c>
       <c r="S197">
-        <v>-5.691816788896054</v>
+        <v>-4.754122503332637</v>
       </c>
       <c r="T197">
         <v>119.52</v>
       </c>
       <c r="U197">
-        <v>132.738500974566</v>
+        <v>132.269795116465</v>
       </c>
       <c r="V197">
-        <v>-9.95830213353004</v>
+        <v>-9.639234040726109</v>
       </c>
       <c r="W197">
-        <v>9147953.5</v>
+        <v>9147992.4</v>
       </c>
       <c r="X197">
         <v>5298813.48</v>
@@ -19524,10 +19524,10 @@
         <v>0.5818</v>
       </c>
       <c r="AC197">
-        <v>-4.235057508084717</v>
+        <v>-3.917055456750307</v>
       </c>
       <c r="AD197">
-        <v>-5.428577832489479</v>
+        <v>-4.415384312224546</v>
       </c>
       <c r="AE197">
         <v>74.8</v>
@@ -19585,25 +19585,25 @@
         <v>0.6981115188400722</v>
       </c>
       <c r="Q198">
-        <v>6382530.287819261</v>
+        <v>6584948.969629863</v>
       </c>
       <c r="R198">
-        <v>6729510.025276134</v>
+        <v>6883205.091502562</v>
       </c>
       <c r="S198">
-        <v>-5.156092139748846</v>
+        <v>-4.333099448698707</v>
       </c>
       <c r="T198">
         <v>122.21</v>
       </c>
       <c r="U198">
-        <v>132.8609145368565</v>
+        <v>132.3614267844323</v>
       </c>
       <c r="V198">
-        <v>-8.016589810468233</v>
+        <v>-7.66947518703105</v>
       </c>
       <c r="W198">
-        <v>9249687.1</v>
+        <v>9249707.800000001</v>
       </c>
       <c r="X198">
         <v>5365999.75</v>
@@ -19621,10 +19621,10 @@
         <v>0.5792</v>
       </c>
       <c r="AC198">
-        <v>-9.95830213353004</v>
+        <v>-9.639234040726109</v>
       </c>
       <c r="AD198">
-        <v>-5.691816788896054</v>
+        <v>-4.754122503332637</v>
       </c>
       <c r="AE198">
         <v>78.59999999999999</v>
@@ -19682,22 +19682,22 @@
         <v>0.8937349182232657</v>
       </c>
       <c r="Q199">
-        <v>6401265.755426153</v>
+        <v>6601803.031470438</v>
       </c>
       <c r="R199">
-        <v>6736651.547219776</v>
+        <v>6894976.194947384</v>
       </c>
       <c r="S199">
-        <v>-4.978523669255797</v>
+        <v>-4.251982243126262</v>
       </c>
       <c r="T199">
         <v>124.1</v>
       </c>
       <c r="U199">
-        <v>132.9741793417573</v>
+        <v>132.4429675512318</v>
       </c>
       <c r="V199">
-        <v>-6.673610911295624</v>
+        <v>-6.299290710172722</v>
       </c>
       <c r="W199">
         <v>9351602.699999999</v>
@@ -19718,10 +19718,10 @@
         <v>0.5800999999999999</v>
       </c>
       <c r="AC199">
-        <v>-8.016589810468233</v>
+        <v>-7.66947518703105</v>
       </c>
       <c r="AD199">
-        <v>-5.156092139748846</v>
+        <v>-4.333099448698707</v>
       </c>
       <c r="AE199">
         <v>75.5</v>
@@ -19779,25 +19779,25 @@
         <v>2.798219314981365</v>
       </c>
       <c r="Q200">
-        <v>6449450.96895926</v>
+        <v>6648601.70833248</v>
       </c>
       <c r="R200">
-        <v>6743934.861549292</v>
+        <v>6906903.077363248</v>
       </c>
       <c r="S200">
-        <v>-4.366647938268786</v>
+        <v>-3.739756677306327</v>
       </c>
       <c r="T200">
         <v>132.68</v>
       </c>
       <c r="U200">
-        <v>133.0792141395264</v>
+        <v>132.5153547203709</v>
       </c>
       <c r="V200">
-        <v>-0.2999823391712009</v>
+        <v>0.1242461901690861</v>
       </c>
       <c r="W200">
-        <v>9450085.5</v>
+        <v>9450058.4</v>
       </c>
       <c r="X200">
         <v>5445972.49</v>
@@ -19815,10 +19815,10 @@
         <v>0.581</v>
       </c>
       <c r="AC200">
-        <v>-6.673610911295624</v>
+        <v>-6.299290710172722</v>
       </c>
       <c r="AD200">
-        <v>-4.978523669255797</v>
+        <v>-4.251982243126262</v>
       </c>
       <c r="AE200">
         <v>79</v>
@@ -19876,25 +19876,25 @@
         <v>4.460590453416713</v>
       </c>
       <c r="Q201">
-        <v>6560706.378295797</v>
+        <v>6758113.746623379</v>
       </c>
       <c r="R201">
-        <v>6751349.935487906</v>
+        <v>6918974.484903364</v>
       </c>
       <c r="S201">
-        <v>-2.823784265573437</v>
+        <v>-2.324921686457571</v>
       </c>
       <c r="T201">
         <v>128.18</v>
       </c>
       <c r="U201">
-        <v>133.1768692068143</v>
+        <v>132.5794612206074</v>
       </c>
       <c r="V201">
-        <v>-3.752054870019894</v>
+        <v>-3.318358047395298</v>
       </c>
       <c r="W201">
-        <v>9550426.699999999</v>
+        <v>9550376.9</v>
       </c>
       <c r="X201">
         <v>5511893.48</v>
@@ -19912,10 +19912,10 @@
         <v>0.5763</v>
       </c>
       <c r="AC201">
-        <v>-0.2999823391712009</v>
+        <v>0.1242461901690861</v>
       </c>
       <c r="AD201">
-        <v>-4.366647938268786</v>
+        <v>-3.739756677306327</v>
       </c>
       <c r="AE201">
         <v>79.5</v>
@@ -19973,22 +19973,22 @@
         <v>6.046468228048885</v>
       </c>
       <c r="Q202">
-        <v>6680783.781208014</v>
+        <v>6876265.977901143</v>
       </c>
       <c r="R202">
-        <v>6758884.464006604</v>
+        <v>6931177.170654839</v>
       </c>
       <c r="S202">
-        <v>-1.155526229431836</v>
+        <v>-0.7922347301433597</v>
       </c>
       <c r="T202">
         <v>128.54</v>
       </c>
       <c r="U202">
-        <v>133.2679917399166</v>
+        <v>132.6361612511101</v>
       </c>
       <c r="V202">
-        <v>-3.547732413604376</v>
+        <v>-3.088268849514675</v>
       </c>
       <c r="W202">
         <v>9640755</v>
@@ -20009,10 +20009,10 @@
         <v>0.5771000000000001</v>
       </c>
       <c r="AC202">
-        <v>-3.752054870019894</v>
+        <v>-3.318358047395298</v>
       </c>
       <c r="AD202">
-        <v>-2.823784265573437</v>
+        <v>-2.324921686457571</v>
       </c>
       <c r="AE202">
         <v>83.59999999999999</v>
@@ -20070,25 +20070,25 @@
         <v>6.743683666760591</v>
       </c>
       <c r="Q203">
-        <v>6762498.057207321</v>
+        <v>6955224.448247622</v>
       </c>
       <c r="R203">
-        <v>6766524.671061259</v>
+        <v>6943496.646495351</v>
       </c>
       <c r="S203">
-        <v>-0.05950785742582232</v>
+        <v>0.168903397659026</v>
       </c>
       <c r="T203">
         <v>126.82</v>
       </c>
       <c r="U203">
-        <v>133.3533903790391</v>
+        <v>132.6862950645894</v>
       </c>
       <c r="V203">
-        <v>-4.899305792277831</v>
+        <v>-4.421176325508036</v>
       </c>
       <c r="W203">
-        <v>9741807.699999999</v>
+        <v>9741944.699999999</v>
       </c>
       <c r="X203">
         <v>5556504.27</v>
@@ -20106,10 +20106,10 @@
         <v>0.5758</v>
       </c>
       <c r="AC203">
-        <v>-3.547732413604376</v>
+        <v>-3.088268849514675</v>
       </c>
       <c r="AD203">
-        <v>-1.155526229431836</v>
+        <v>-0.7922347301433597</v>
       </c>
       <c r="AE203">
         <v>89</v>
@@ -20167,25 +20167,25 @@
         <v>7.318224740321067</v>
       </c>
       <c r="Q204">
-        <v>6853257.35774346</v>
+        <v>7042861.024361509</v>
       </c>
       <c r="R204">
-        <v>6774256.177979022</v>
+        <v>6955918.000605131</v>
       </c>
       <c r="S204">
-        <v>1.166197109894451</v>
+        <v>1.249914443338973</v>
       </c>
       <c r="T204">
         <v>128.07</v>
       </c>
       <c r="U204">
-        <v>133.4338372829691</v>
+        <v>132.7306713075708</v>
       </c>
       <c r="V204">
-        <v>-4.019847882808114</v>
+        <v>-3.511374772429832</v>
       </c>
       <c r="W204">
-        <v>9830020.4</v>
+        <v>9830198.199999999</v>
       </c>
       <c r="X204">
         <v>5629273.99</v>
@@ -20203,10 +20203,10 @@
         <v>0.5704</v>
       </c>
       <c r="AC204">
-        <v>-4.899305792277831</v>
+        <v>-4.421176325508036</v>
       </c>
       <c r="AD204">
-        <v>-0.05950785742582232</v>
+        <v>0.168903397659026</v>
       </c>
       <c r="AE204">
         <v>88.59999999999999</v>
@@ -20264,22 +20264,22 @@
         <v>7.429813782020989</v>
       </c>
       <c r="Q205">
-        <v>6911467.044152725</v>
+        <v>7097418.824894975</v>
       </c>
       <c r="R205">
-        <v>6782064.575017497</v>
+        <v>6968426.411656694</v>
       </c>
       <c r="S205">
-        <v>1.908009982858272</v>
+        <v>1.851098162169085</v>
       </c>
       <c r="T205">
         <v>129.09</v>
       </c>
       <c r="U205">
-        <v>133.5100541985322</v>
+        <v>132.7700533619587</v>
       </c>
       <c r="V205">
-        <v>-3.310652688343219</v>
+        <v>-2.771749554039937</v>
       </c>
       <c r="W205">
         <v>9915316.4</v>
@@ -20300,10 +20300,10 @@
         <v>0.5727</v>
       </c>
       <c r="AC205">
-        <v>-4.019847882808114</v>
+        <v>-3.511374772429832</v>
       </c>
       <c r="AD205">
-        <v>1.166197109894451</v>
+        <v>1.249914443338973</v>
       </c>
       <c r="AE205">
         <v>85.3</v>
@@ -20361,25 +20361,25 @@
         <v>7.450127635435377</v>
       </c>
       <c r="Q206">
-        <v>6954388.972892744</v>
+        <v>7137118.723624913</v>
       </c>
       <c r="R206">
-        <v>6789936.062011287</v>
+        <v>6981007.729179226</v>
       </c>
       <c r="S206">
-        <v>2.422009712308593</v>
+        <v>2.236224346138083</v>
       </c>
       <c r="T206">
         <v>130</v>
       </c>
       <c r="U206">
-        <v>133.5827214849198</v>
+        <v>132.8051686476872</v>
       </c>
       <c r="V206">
-        <v>-2.682024624961865</v>
+        <v>-2.112243579260775</v>
       </c>
       <c r="W206">
-        <v>9996690.4</v>
+        <v>9996439.1</v>
       </c>
       <c r="X206">
         <v>5637180.19</v>
@@ -20397,10 +20397,10 @@
         <v>0.574</v>
       </c>
       <c r="AC206">
-        <v>-3.310652688343219</v>
+        <v>-2.771749554039937</v>
       </c>
       <c r="AD206">
-        <v>1.908009982858272</v>
+        <v>1.851098162169085</v>
       </c>
       <c r="AE206">
         <v>88</v>
@@ -20458,25 +20458,25 @@
         <v>7.623106060606055</v>
       </c>
       <c r="Q207">
-        <v>6981474.764609778</v>
+        <v>7161343.084908376</v>
       </c>
       <c r="R207">
-        <v>6797857.837270839</v>
+        <v>6993648.798013739</v>
       </c>
       <c r="S207">
-        <v>2.701099842544763</v>
+        <v>2.397808236270937</v>
       </c>
       <c r="T207">
         <v>128.63</v>
       </c>
       <c r="U207">
-        <v>133.6524853959674</v>
+        <v>132.8367161892173</v>
       </c>
       <c r="V207">
-        <v>-3.757869059514662</v>
+        <v>-3.1668324164421</v>
       </c>
       <c r="W207">
-        <v>10067360.7</v>
+        <v>10067221.3</v>
       </c>
       <c r="X207">
         <v>5719397.77</v>
@@ -20494,10 +20494,10 @@
         <v>0.5639</v>
       </c>
       <c r="AC207">
-        <v>-2.682024624961865</v>
+        <v>-2.112243579260775</v>
       </c>
       <c r="AD207">
-        <v>2.422009712308593</v>
+        <v>2.236224346138083</v>
       </c>
       <c r="AE207">
         <v>85.8</v>
@@ -20555,22 +20555,22 @@
         <v>8.600095556617294</v>
       </c>
       <c r="Q208">
-        <v>7000003.912744021</v>
+        <v>7177782.799257951</v>
       </c>
       <c r="R208">
-        <v>6805818.368033377</v>
+        <v>7006337.667561392</v>
       </c>
       <c r="S208">
-        <v>2.853228432053445</v>
+        <v>2.447000698957624</v>
       </c>
       <c r="T208">
         <v>128.04</v>
       </c>
       <c r="U208">
-        <v>133.7199645410541</v>
+        <v>132.8653733661897</v>
       </c>
       <c r="V208">
-        <v>-4.247656332058236</v>
+        <v>-3.631776469622794</v>
       </c>
       <c r="W208">
         <v>10156139.2</v>
@@ -20591,10 +20591,10 @@
         <v>0.5681</v>
       </c>
       <c r="AC208">
-        <v>-3.757869059514662</v>
+        <v>-3.1668324164421</v>
       </c>
       <c r="AD208">
-        <v>2.701099842544763</v>
+        <v>2.397808236270937</v>
       </c>
       <c r="AE208">
         <v>84.5</v>
@@ -20652,25 +20652,25 @@
         <v>9.090036475331154</v>
       </c>
       <c r="Q209">
-        <v>6987382.587878978</v>
+        <v>7162891.586738187</v>
       </c>
       <c r="R209">
-        <v>6813807.538333409</v>
+        <v>7019063.681160738</v>
       </c>
       <c r="S209">
-        <v>2.54740170703478</v>
+        <v>2.049103870698388</v>
       </c>
       <c r="T209">
         <v>123.68</v>
       </c>
       <c r="U209">
-        <v>133.7857387758143</v>
+        <v>132.8917850990159</v>
       </c>
       <c r="V209">
-        <v>-7.553674157115131</v>
+        <v>-6.931794235552092</v>
       </c>
       <c r="W209">
-        <v>10222611</v>
+        <v>10222745.5</v>
       </c>
       <c r="X209">
         <v>5817539.24</v>
@@ -20688,10 +20688,10 @@
         <v>0.5705</v>
       </c>
       <c r="AC209">
-        <v>-4.247656332058236</v>
+        <v>-3.631776469622794</v>
       </c>
       <c r="AD209">
-        <v>2.853228432053445</v>
+        <v>2.447000698957624</v>
       </c>
       <c r="AE209">
         <v>87</v>
@@ -20749,25 +20749,25 @@
         <v>9.341928035405033</v>
       </c>
       <c r="Q210">
-        <v>6985185.237910532</v>
+        <v>7159858.257085416</v>
       </c>
       <c r="R210">
-        <v>6821816.730550697</v>
+        <v>7031817.505029434</v>
       </c>
       <c r="S210">
-        <v>2.394794727161287</v>
+        <v>1.820877062927218</v>
       </c>
       <c r="T210">
         <v>121.49</v>
       </c>
       <c r="U210">
-        <v>133.8503441289949</v>
+        <v>132.9165590752872</v>
       </c>
       <c r="V210">
-        <v>-9.234450766210134</v>
+        <v>-8.596791216070343</v>
       </c>
       <c r="W210">
-        <v>10280787.4</v>
+        <v>10280931.2</v>
       </c>
       <c r="X210">
         <v>5922818.04</v>
@@ -20785,10 +20785,10 @@
         <v>0.5690999999999999</v>
       </c>
       <c r="AC210">
-        <v>-7.553674157115131</v>
+        <v>-6.931794235552092</v>
       </c>
       <c r="AD210">
-        <v>2.54740170703478</v>
+        <v>2.049103870698388</v>
       </c>
       <c r="AE210">
         <v>86.8</v>
@@ -20846,22 +20846,22 @@
         <v>10.1686700271423</v>
       </c>
       <c r="Q211">
-        <v>7035658.490623331</v>
+        <v>7209706.311657692</v>
       </c>
       <c r="R211">
-        <v>6829838.666378651</v>
+        <v>7044590.915168361</v>
       </c>
       <c r="S211">
-        <v>3.013538595836418</v>
+        <v>2.34386067945842</v>
       </c>
       <c r="T211">
         <v>117.47</v>
       </c>
       <c r="U211">
-        <v>133.9142386529637</v>
+        <v>132.9402319040073</v>
       </c>
       <c r="V211">
-        <v>-12.27967900827829</v>
+        <v>-11.6369827872558</v>
       </c>
       <c r="W211">
         <v>10335458.3</v>
@@ -20882,10 +20882,10 @@
         <v>0.5760999999999999</v>
       </c>
       <c r="AC211">
-        <v>-9.234450766210134</v>
+        <v>-8.596791216070343</v>
       </c>
       <c r="AD211">
-        <v>2.394794727161287</v>
+        <v>1.820877062927218</v>
       </c>
       <c r="AE211">
         <v>88.2</v>
@@ -20943,31 +20943,31 @@
         <v>9.289354745648627</v>
       </c>
       <c r="Q212">
-        <v>7114355.816148384</v>
+        <v>7287428.688314358</v>
       </c>
       <c r="R212">
-        <v>6837867.328070155</v>
+        <v>7057376.675547164</v>
       </c>
       <c r="S212">
-        <v>4.043490094392665</v>
+        <v>3.259738332577489</v>
       </c>
       <c r="T212">
-        <v>117.98</v>
+        <v>118.04</v>
       </c>
       <c r="U212">
-        <v>133.9777850270628</v>
+        <v>132.963252026285</v>
       </c>
       <c r="V212">
-        <v>-11.94062509977406</v>
+        <v>-11.22359132983215</v>
       </c>
       <c r="W212">
-        <v>10392130.8</v>
+        <v>10391461</v>
       </c>
       <c r="X212">
         <v>6067062.7</v>
       </c>
       <c r="Y212">
-        <v>0.5838</v>
+        <v>0.5839</v>
       </c>
       <c r="Z212">
         <v>3.16</v>
@@ -20979,10 +20979,10 @@
         <v>0.5798</v>
       </c>
       <c r="AC212">
-        <v>-12.27967900827829</v>
+        <v>-11.6369827872558</v>
       </c>
       <c r="AD212">
-        <v>3.013538595836418</v>
+        <v>2.34386067945842</v>
       </c>
       <c r="AE212">
         <v>92.3</v>
@@ -21040,31 +21040,31 @@
         <v>8.201892744479489</v>
       </c>
       <c r="Q213">
-        <v>7143490</v>
+        <v>7327496.123000341</v>
       </c>
       <c r="R213">
-        <v>6845898.28599402</v>
+        <v>7070168.824174042</v>
       </c>
       <c r="S213">
-        <v>4.347007530258229</v>
+        <v>3.639620286667777</v>
       </c>
       <c r="T213">
         <v>119.48</v>
       </c>
       <c r="U213">
-        <v>134.0412190460767</v>
+        <v>132.9859485141561</v>
       </c>
       <c r="V213">
-        <v>-10.86323979273216</v>
+        <v>-10.15592148272599</v>
       </c>
       <c r="W213">
-        <v>10450999.2</v>
+        <v>10456366</v>
       </c>
       <c r="X213">
         <v>6163293.13</v>
       </c>
       <c r="Y213">
-        <v>0.5897</v>
+        <v>0.5893999999999999</v>
       </c>
       <c r="Z213">
         <v>3.99</v>
@@ -21073,16 +21073,113 @@
         <v>9.289354745648627</v>
       </c>
       <c r="AB213">
-        <v>0.5838</v>
+        <v>0.5839</v>
       </c>
       <c r="AC213">
-        <v>-11.94062509977406</v>
+        <v>-11.22359132983215</v>
       </c>
       <c r="AD213">
-        <v>4.043490094392665</v>
+        <v>3.259738332577489</v>
       </c>
       <c r="AE213">
         <v>94.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>2023</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C214" s="2">
+        <v>45170</v>
+      </c>
+      <c r="D214">
+        <v>2023.666666666667</v>
+      </c>
+      <c r="E214">
+        <v>4.08</v>
+      </c>
+      <c r="F214">
+        <v>7.3</v>
+      </c>
+      <c r="G214">
+        <v>97</v>
+      </c>
+      <c r="H214">
+        <v>3.25</v>
+      </c>
+      <c r="I214">
+        <v>1.75</v>
+      </c>
+      <c r="J214">
+        <v>4.75</v>
+      </c>
+      <c r="K214">
+        <v>3.06</v>
+      </c>
+      <c r="L214">
+        <v>1.5625</v>
+      </c>
+      <c r="M214">
+        <v>4.5625</v>
+      </c>
+      <c r="N214">
+        <v>5.19</v>
+      </c>
+      <c r="O214">
+        <v>12.97</v>
+      </c>
+      <c r="P214">
+        <v>7.396140317520672</v>
+      </c>
+      <c r="Q214">
+        <v>7368258</v>
+      </c>
+      <c r="R214">
+        <v>7082963.174149885</v>
+      </c>
+      <c r="S214">
+        <v>4.02790214823272</v>
+      </c>
+      <c r="T214">
+        <v>118.79</v>
+      </c>
+      <c r="U214">
+        <v>133.0085352911068</v>
+      </c>
+      <c r="V214">
+        <v>-10.68994201010305</v>
+      </c>
+      <c r="W214">
+        <v>10524538.7</v>
+      </c>
+      <c r="X214">
+        <v>6211220.8</v>
+      </c>
+      <c r="Y214">
+        <v>0.5902000000000001</v>
+      </c>
+      <c r="Z214">
+        <v>4.61</v>
+      </c>
+      <c r="AA214">
+        <v>8.201892744479489</v>
+      </c>
+      <c r="AB214">
+        <v>0.5893999999999999</v>
+      </c>
+      <c r="AC214">
+        <v>-10.15592148272599</v>
+      </c>
+      <c r="AD214">
+        <v>3.639620286667777</v>
+      </c>
+      <c r="AE214">
+        <v>96.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/public_data.xlsx
+++ b/data/public_data.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE214"/>
+  <dimension ref="A1:AH214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,30 +492,45 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>search_term_ipca</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>search_term_selic</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>search_term_inflation</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>ipca_lag</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>selic_deflated_lag</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>primary_fiscal_result_to_gdp_lag</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>real_exchange_rate_gap_lag</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>real_household_income_gap_lag</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>consumer_confidence_index_lag</t>
         </is>
@@ -600,21 +615,30 @@
         <v>0.4668</v>
       </c>
       <c r="Z2">
+        <v>26</v>
+      </c>
+      <c r="AA2">
+        <v>37</v>
+      </c>
+      <c r="AB2">
+        <v>24</v>
+      </c>
+      <c r="AC2">
         <v>5.69</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <v>11.8743495127259</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <v>0.4654</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>2.145091634584029</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>2.011677725366612</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <v>88.7</v>
       </c>
     </row>
@@ -697,21 +721,30 @@
         <v>0.4638</v>
       </c>
       <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>38</v>
+      </c>
+      <c r="AB3">
+        <v>27</v>
+      </c>
+      <c r="AC3">
         <v>5.7</v>
       </c>
-      <c r="AA3">
+      <c r="AD3">
         <v>11.30558183538315</v>
       </c>
-      <c r="AB3">
+      <c r="AE3">
         <v>0.4668</v>
       </c>
-      <c r="AC3">
+      <c r="AF3">
         <v>2.311176273617344</v>
       </c>
-      <c r="AD3">
+      <c r="AG3">
         <v>1.8751281229757</v>
       </c>
-      <c r="AE3">
+      <c r="AH3">
         <v>93.3</v>
       </c>
     </row>
@@ -794,21 +827,30 @@
         <v>0.4638</v>
       </c>
       <c r="Z4">
+        <v>19</v>
+      </c>
+      <c r="AA4">
+        <v>56</v>
+      </c>
+      <c r="AB4">
+        <v>40</v>
+      </c>
+      <c r="AC4">
         <v>5.51</v>
       </c>
-      <c r="AA4">
+      <c r="AD4">
         <v>11.15534072599755</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>0.4638</v>
       </c>
-      <c r="AC4">
+      <c r="AF4">
         <v>-2.642349724642867</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>1.314579154384821</v>
       </c>
-      <c r="AE4">
+      <c r="AH4">
         <v>92.8</v>
       </c>
     </row>
@@ -891,21 +933,30 @@
         <v>0.4559</v>
       </c>
       <c r="Z5">
+        <v>19</v>
+      </c>
+      <c r="AA5">
+        <v>41</v>
+      </c>
+      <c r="AB5">
+        <v>47</v>
+      </c>
+      <c r="AC5">
         <v>5.32</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>10.84314470186101</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>0.4638</v>
       </c>
-      <c r="AC5">
+      <c r="AF5">
         <v>-2.421776696386357</v>
       </c>
-      <c r="AD5">
+      <c r="AG5">
         <v>0.8418515732838472</v>
       </c>
-      <c r="AE5">
+      <c r="AH5">
         <v>93</v>
       </c>
     </row>
@@ -988,21 +1039,30 @@
         <v>0.4621</v>
       </c>
       <c r="Z6">
+        <v>23</v>
+      </c>
+      <c r="AA6">
+        <v>42</v>
+      </c>
+      <c r="AB6">
+        <v>59</v>
+      </c>
+      <c r="AC6">
         <v>4.63</v>
       </c>
-      <c r="AA6">
+      <c r="AD6">
         <v>11.04845646564083</v>
       </c>
-      <c r="AB6">
+      <c r="AE6">
         <v>0.4559</v>
       </c>
-      <c r="AC6">
+      <c r="AF6">
         <v>-2.199566172415868</v>
       </c>
-      <c r="AD6">
+      <c r="AG6">
         <v>0.5017136608596706</v>
       </c>
-      <c r="AE6">
+      <c r="AH6">
         <v>91.8</v>
       </c>
     </row>
@@ -1085,21 +1145,30 @@
         <v>0.4569</v>
       </c>
       <c r="Z7">
+        <v>15</v>
+      </c>
+      <c r="AA7">
+        <v>45</v>
+      </c>
+      <c r="AB7">
+        <v>45</v>
+      </c>
+      <c r="AC7">
         <v>4.23</v>
       </c>
-      <c r="AA7">
+      <c r="AD7">
         <v>11.00450925837091</v>
       </c>
-      <c r="AB7">
+      <c r="AE7">
         <v>0.4621</v>
       </c>
-      <c r="AC7">
+      <c r="AF7">
         <v>2.482300360521639</v>
       </c>
-      <c r="AD7">
+      <c r="AG7">
         <v>0.3546191566811352</v>
       </c>
-      <c r="AE7">
+      <c r="AH7">
         <v>90.7</v>
       </c>
     </row>
@@ -1182,21 +1251,30 @@
         <v>0.4558</v>
       </c>
       <c r="Z8">
+        <v>16</v>
+      </c>
+      <c r="AA8">
+        <v>43</v>
+      </c>
+      <c r="AB8">
+        <v>21</v>
+      </c>
+      <c r="AC8">
         <v>4.03</v>
       </c>
-      <c r="AA8">
+      <c r="AD8">
         <v>10.71806209747188</v>
       </c>
-      <c r="AB8">
+      <c r="AE8">
         <v>0.4569</v>
       </c>
-      <c r="AC8">
+      <c r="AF8">
         <v>6.029890898433621</v>
       </c>
-      <c r="AD8">
+      <c r="AG8">
         <v>0.3098137140618462</v>
       </c>
-      <c r="AE8">
+      <c r="AH8">
         <v>90.7</v>
       </c>
     </row>
@@ -1279,21 +1357,30 @@
         <v>0.4534</v>
       </c>
       <c r="Z9">
+        <v>17</v>
+      </c>
+      <c r="AA9">
+        <v>38</v>
+      </c>
+      <c r="AB9">
+        <v>43</v>
+      </c>
+      <c r="AC9">
         <v>3.97</v>
       </c>
-      <c r="AA9">
+      <c r="AD9">
         <v>10.58959315187071</v>
       </c>
-      <c r="AB9">
+      <c r="AE9">
         <v>0.4558</v>
       </c>
-      <c r="AC9">
+      <c r="AF9">
         <v>4.124346027699377</v>
       </c>
-      <c r="AD9">
+      <c r="AG9">
         <v>0.3301829232365883</v>
       </c>
-      <c r="AE9">
+      <c r="AH9">
         <v>91.2</v>
       </c>
     </row>
@@ -1376,21 +1463,30 @@
         <v>0.4544</v>
       </c>
       <c r="Z10">
+        <v>15</v>
+      </c>
+      <c r="AA10">
+        <v>44</v>
+      </c>
+      <c r="AB10">
+        <v>30</v>
+      </c>
+      <c r="AC10">
         <v>3.84</v>
       </c>
-      <c r="AA10">
+      <c r="AD10">
         <v>10.41987673343607</v>
       </c>
-      <c r="AB10">
+      <c r="AE10">
         <v>0.4534</v>
       </c>
-      <c r="AC10">
+      <c r="AF10">
         <v>3.571519153928104</v>
       </c>
-      <c r="AD10">
+      <c r="AG10">
         <v>0.3521587975343188</v>
       </c>
-      <c r="AE10">
+      <c r="AH10">
         <v>91.8</v>
       </c>
     </row>
@@ -1473,21 +1569,30 @@
         <v>0.4494</v>
       </c>
       <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>43</v>
+      </c>
+      <c r="AB11">
+        <v>41</v>
+      </c>
+      <c r="AC11">
         <v>3.7</v>
       </c>
-      <c r="AA11">
+      <c r="AD11">
         <v>10.09643201542914</v>
       </c>
-      <c r="AB11">
+      <c r="AE11">
         <v>0.4544</v>
       </c>
-      <c r="AC11">
+      <c r="AF11">
         <v>3.915607681632816</v>
       </c>
-      <c r="AD11">
+      <c r="AG11">
         <v>0.635518118015943</v>
       </c>
-      <c r="AE11">
+      <c r="AH11">
         <v>91.5</v>
       </c>
     </row>
@@ -1570,21 +1675,30 @@
         <v>0.45</v>
       </c>
       <c r="Z12">
+        <v>17</v>
+      </c>
+      <c r="AA12">
+        <v>30</v>
+      </c>
+      <c r="AB12">
+        <v>50</v>
+      </c>
+      <c r="AC12">
         <v>3.26</v>
       </c>
-      <c r="AA12">
+      <c r="AD12">
         <v>10.35250823164826</v>
       </c>
-      <c r="AB12">
+      <c r="AE12">
         <v>0.4494</v>
       </c>
-      <c r="AC12">
+      <c r="AF12">
         <v>2.831002932904525</v>
       </c>
-      <c r="AD12">
+      <c r="AG12">
         <v>0.6187361353785281</v>
       </c>
-      <c r="AE12">
+      <c r="AH12">
         <v>94.3</v>
       </c>
     </row>
@@ -1667,21 +1781,30 @@
         <v>0.4529</v>
       </c>
       <c r="Z13">
+        <v>16</v>
+      </c>
+      <c r="AA13">
+        <v>28</v>
+      </c>
+      <c r="AB13">
+        <v>23</v>
+      </c>
+      <c r="AC13">
         <v>3.02</v>
       </c>
-      <c r="AA13">
+      <c r="AD13">
         <v>10.31838477965443</v>
       </c>
-      <c r="AB13">
+      <c r="AE13">
         <v>0.45</v>
       </c>
-      <c r="AC13">
+      <c r="AF13">
         <v>4.188398173805608</v>
       </c>
-      <c r="AD13">
+      <c r="AG13">
         <v>0.3859340217756024</v>
       </c>
-      <c r="AE13">
+      <c r="AH13">
         <v>96</v>
       </c>
     </row>
@@ -1764,21 +1887,30 @@
         <v>0.4529</v>
       </c>
       <c r="Z14">
+        <v>19</v>
+      </c>
+      <c r="AA14">
+        <v>28</v>
+      </c>
+      <c r="AB14">
+        <v>21</v>
+      </c>
+      <c r="AC14">
         <v>3.14</v>
       </c>
-      <c r="AA14">
+      <c r="AD14">
         <v>9.74403723094821</v>
       </c>
-      <c r="AB14">
+      <c r="AE14">
         <v>0.4529</v>
       </c>
-      <c r="AC14">
+      <c r="AF14">
         <v>5.312027022588373</v>
       </c>
-      <c r="AD14">
+      <c r="AG14">
         <v>0.112736925233281</v>
       </c>
-      <c r="AE14">
+      <c r="AH14">
         <v>98.3</v>
       </c>
     </row>
@@ -1861,21 +1993,30 @@
         <v>0.452</v>
       </c>
       <c r="Z15">
+        <v>15</v>
+      </c>
+      <c r="AA15">
+        <v>31</v>
+      </c>
+      <c r="AB15">
+        <v>20</v>
+      </c>
+      <c r="AC15">
         <v>2.99</v>
       </c>
-      <c r="AA15">
+      <c r="AD15">
         <v>9.845616079230979</v>
       </c>
-      <c r="AB15">
+      <c r="AE15">
         <v>0.4529</v>
       </c>
-      <c r="AC15">
+      <c r="AF15">
         <v>4.196932085111316</v>
       </c>
-      <c r="AD15">
+      <c r="AG15">
         <v>-0.1102070383639853</v>
       </c>
-      <c r="AE15">
+      <c r="AH15">
         <v>97.5</v>
       </c>
     </row>
@@ -1958,21 +2099,30 @@
         <v>0.4476</v>
       </c>
       <c r="Z16">
+        <v>15</v>
+      </c>
+      <c r="AA16">
+        <v>33</v>
+      </c>
+      <c r="AB16">
+        <v>38</v>
+      </c>
+      <c r="AC16">
         <v>3.02</v>
       </c>
-      <c r="AA16">
+      <c r="AD16">
         <v>9.619491360900788</v>
       </c>
-      <c r="AB16">
+      <c r="AE16">
         <v>0.452</v>
       </c>
-      <c r="AC16">
+      <c r="AF16">
         <v>2.473224699581866</v>
       </c>
-      <c r="AD16">
+      <c r="AG16">
         <v>-0.2243962837465086</v>
       </c>
-      <c r="AE16">
+      <c r="AH16">
         <v>98.5</v>
       </c>
     </row>
@@ -2055,21 +2205,30 @@
         <v>0.4397</v>
       </c>
       <c r="Z17">
+        <v>15</v>
+      </c>
+      <c r="AA17">
+        <v>38</v>
+      </c>
+      <c r="AB17">
+        <v>34</v>
+      </c>
+      <c r="AC17">
         <v>2.96</v>
       </c>
-      <c r="AA17">
+      <c r="AD17">
         <v>9.498834498834485</v>
       </c>
-      <c r="AB17">
+      <c r="AE17">
         <v>0.4476</v>
       </c>
-      <c r="AC17">
+      <c r="AF17">
         <v>3.19246192891478</v>
       </c>
-      <c r="AD17">
+      <c r="AG17">
         <v>-0.2493259115646795</v>
       </c>
-      <c r="AE17">
+      <c r="AH17">
         <v>96</v>
       </c>
     </row>
@@ -2152,21 +2311,30 @@
         <v>0.4342</v>
       </c>
       <c r="Z18">
+        <v>16</v>
+      </c>
+      <c r="AA18">
+        <v>38</v>
+      </c>
+      <c r="AB18">
+        <v>38</v>
+      </c>
+      <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AA18">
+      <c r="AD18">
         <v>9.300970873786408</v>
       </c>
-      <c r="AB18">
+      <c r="AE18">
         <v>0.4397</v>
       </c>
-      <c r="AC18">
+      <c r="AF18">
         <v>1.932993613396339</v>
       </c>
-      <c r="AD18">
+      <c r="AG18">
         <v>-0.196689822157825</v>
       </c>
-      <c r="AE18">
+      <c r="AH18">
         <v>96</v>
       </c>
     </row>
@@ -2249,21 +2417,30 @@
         <v>0.4303</v>
       </c>
       <c r="Z19">
+        <v>12</v>
+      </c>
+      <c r="AA19">
+        <v>40</v>
+      </c>
+      <c r="AB19">
+        <v>31</v>
+      </c>
+      <c r="AC19">
         <v>3.18</v>
       </c>
-      <c r="AA19">
+      <c r="AD19">
         <v>8.964915681333597</v>
       </c>
-      <c r="AB19">
+      <c r="AE19">
         <v>0.4342</v>
       </c>
-      <c r="AC19">
+      <c r="AF19">
         <v>0.07733322706722223</v>
       </c>
-      <c r="AD19">
+      <c r="AG19">
         <v>-0.2024297628267724</v>
       </c>
-      <c r="AE19">
+      <c r="AH19">
         <v>98.7</v>
       </c>
     </row>
@@ -2346,21 +2523,30 @@
         <v>0.4268</v>
       </c>
       <c r="Z20">
+        <v>13</v>
+      </c>
+      <c r="AA20">
+        <v>38</v>
+      </c>
+      <c r="AB20">
+        <v>19</v>
+      </c>
+      <c r="AC20">
         <v>3.69</v>
       </c>
-      <c r="AA20">
+      <c r="AD20">
         <v>8.043205709325886</v>
       </c>
-      <c r="AB20">
+      <c r="AE20">
         <v>0.4303</v>
       </c>
-      <c r="AC20">
+      <c r="AF20">
         <v>-2.110326783588368</v>
       </c>
-      <c r="AD20">
+      <c r="AG20">
         <v>-0.2698534900742233</v>
       </c>
-      <c r="AE20">
+      <c r="AH20">
         <v>100.1</v>
       </c>
     </row>
@@ -2443,21 +2629,30 @@
         <v>0.4277</v>
       </c>
       <c r="Z21">
+        <v>12</v>
+      </c>
+      <c r="AA21">
+        <v>34</v>
+      </c>
+      <c r="AB21">
+        <v>33</v>
+      </c>
+      <c r="AC21">
         <v>3.74</v>
       </c>
-      <c r="AA21">
+      <c r="AD21">
         <v>7.701947175631374</v>
       </c>
-      <c r="AB21">
+      <c r="AE21">
         <v>0.4268</v>
       </c>
-      <c r="AC21">
+      <c r="AF21">
         <v>-3.118307717850888</v>
       </c>
-      <c r="AD21">
+      <c r="AG21">
         <v>-0.2720648598793618</v>
       </c>
-      <c r="AE21">
+      <c r="AH21">
         <v>98.59999999999999</v>
       </c>
     </row>
@@ -2540,21 +2735,30 @@
         <v>0.425</v>
       </c>
       <c r="Z22">
+        <v>12</v>
+      </c>
+      <c r="AA22">
+        <v>36</v>
+      </c>
+      <c r="AB22">
+        <v>31</v>
+      </c>
+      <c r="AC22">
         <v>4.18</v>
       </c>
-      <c r="AA22">
+      <c r="AD22">
         <v>6.959109234018057</v>
       </c>
-      <c r="AB22">
+      <c r="AE22">
         <v>0.4277</v>
       </c>
-      <c r="AC22">
+      <c r="AF22">
         <v>0.9976634077695667</v>
       </c>
-      <c r="AD22">
+      <c r="AG22">
         <v>-0.1553321507434591</v>
       </c>
-      <c r="AE22">
+      <c r="AH22">
         <v>99.40000000000001</v>
       </c>
     </row>
@@ -2637,21 +2841,30 @@
         <v>0.4308</v>
       </c>
       <c r="Z23">
+        <v>14</v>
+      </c>
+      <c r="AA23">
+        <v>30</v>
+      </c>
+      <c r="AB23">
+        <v>31</v>
+      </c>
+      <c r="AC23">
         <v>4.15</v>
       </c>
-      <c r="AA23">
+      <c r="AD23">
         <v>6.78828612578013</v>
       </c>
-      <c r="AB23">
+      <c r="AE23">
         <v>0.425</v>
       </c>
-      <c r="AC23">
+      <c r="AF23">
         <v>-1.166089129158965</v>
       </c>
-      <c r="AD23">
+      <c r="AG23">
         <v>-0.3298814441810793</v>
       </c>
-      <c r="AE23">
+      <c r="AH23">
         <v>99.7</v>
       </c>
     </row>
@@ -2734,21 +2947,30 @@
         <v>0.4304</v>
       </c>
       <c r="Z24">
+        <v>10</v>
+      </c>
+      <c r="AA24">
+        <v>30</v>
+      </c>
+      <c r="AB24">
+        <v>34</v>
+      </c>
+      <c r="AC24">
         <v>4.12</v>
       </c>
-      <c r="AA24">
+      <c r="AD24">
         <v>6.780637725701122</v>
       </c>
-      <c r="AB24">
+      <c r="AE24">
         <v>0.4308</v>
       </c>
-      <c r="AC24">
+      <c r="AF24">
         <v>-4.917185396973589</v>
       </c>
-      <c r="AD24">
+      <c r="AG24">
         <v>-0.3928438194982675</v>
       </c>
-      <c r="AE24">
+      <c r="AH24">
         <v>101.6</v>
       </c>
     </row>
@@ -2831,21 +3053,30 @@
         <v>0.4343</v>
       </c>
       <c r="Z25">
+        <v>12</v>
+      </c>
+      <c r="AA25">
+        <v>23</v>
+      </c>
+      <c r="AB25">
+        <v>19</v>
+      </c>
+      <c r="AC25">
         <v>4.19</v>
       </c>
-      <c r="AA25">
+      <c r="AD25">
         <v>6.70889720702561</v>
       </c>
-      <c r="AB25">
+      <c r="AE25">
         <v>0.4304</v>
       </c>
-      <c r="AC25">
+      <c r="AF25">
         <v>-4.525105281473484</v>
       </c>
-      <c r="AD25">
+      <c r="AG25">
         <v>-0.4284442344935191</v>
       </c>
-      <c r="AE25">
+      <c r="AH25">
         <v>103.1</v>
       </c>
     </row>
@@ -2928,21 +3159,30 @@
         <v>0.4272</v>
       </c>
       <c r="Z26">
+        <v>16</v>
+      </c>
+      <c r="AA26">
+        <v>18</v>
+      </c>
+      <c r="AB26">
+        <v>19</v>
+      </c>
+      <c r="AC26">
         <v>4.46</v>
       </c>
-      <c r="AA26">
+      <c r="AD26">
         <v>6.433084434233183</v>
       </c>
-      <c r="AB26">
+      <c r="AE26">
         <v>0.4343</v>
       </c>
-      <c r="AC26">
+      <c r="AF26">
         <v>-3.633469760114094</v>
       </c>
-      <c r="AD26">
+      <c r="AG26">
         <v>-0.06422818779179273</v>
       </c>
-      <c r="AE26">
+      <c r="AH26">
         <v>109</v>
       </c>
     </row>
@@ -3025,21 +3265,30 @@
         <v>0.4276</v>
       </c>
       <c r="Z27">
+        <v>14</v>
+      </c>
+      <c r="AA27">
+        <v>21</v>
+      </c>
+      <c r="AB27">
+        <v>20</v>
+      </c>
+      <c r="AC27">
         <v>4.56</v>
       </c>
-      <c r="AA27">
+      <c r="AD27">
         <v>6.331293037490426</v>
       </c>
-      <c r="AB27">
+      <c r="AE27">
         <v>0.4272</v>
       </c>
-      <c r="AC27">
+      <c r="AF27">
         <v>-3.788412011459663</v>
       </c>
-      <c r="AD27">
+      <c r="AG27">
         <v>-0.5473994036088614</v>
       </c>
-      <c r="AE27">
+      <c r="AH27">
         <v>104.1</v>
       </c>
     </row>
@@ -3122,21 +3371,30 @@
         <v>0.4198</v>
       </c>
       <c r="Z28">
+        <v>15</v>
+      </c>
+      <c r="AA28">
+        <v>26</v>
+      </c>
+      <c r="AB28">
+        <v>27</v>
+      </c>
+      <c r="AC28">
         <v>4.61</v>
       </c>
-      <c r="AA28">
+      <c r="AD28">
         <v>6.280470318325193</v>
       </c>
-      <c r="AB28">
+      <c r="AE28">
         <v>0.4276</v>
       </c>
-      <c r="AC28">
+      <c r="AF28">
         <v>-4.352286732423972</v>
       </c>
-      <c r="AD28">
+      <c r="AG28">
         <v>-0.8420684808275403</v>
       </c>
-      <c r="AE28">
+      <c r="AH28">
         <v>105.9</v>
       </c>
     </row>
@@ -3219,21 +3477,30 @@
         <v>0.4187</v>
       </c>
       <c r="Z29">
+        <v>15</v>
+      </c>
+      <c r="AA29">
+        <v>37</v>
+      </c>
+      <c r="AB29">
+        <v>35</v>
+      </c>
+      <c r="AC29">
         <v>4.73</v>
       </c>
-      <c r="AA29">
+      <c r="AD29">
         <v>6.158693784016034</v>
       </c>
-      <c r="AB29">
+      <c r="AE29">
         <v>0.4198</v>
       </c>
-      <c r="AC29">
+      <c r="AF29">
         <v>-2.911650941921928</v>
       </c>
-      <c r="AD29">
+      <c r="AG29">
         <v>-1.19104568134919</v>
       </c>
-      <c r="AE29">
+      <c r="AH29">
         <v>109.7</v>
       </c>
     </row>
@@ -3316,21 +3583,30 @@
         <v>0.4209000000000001</v>
       </c>
       <c r="Z30">
+        <v>16</v>
+      </c>
+      <c r="AA30">
+        <v>32</v>
+      </c>
+      <c r="AB30">
+        <v>35</v>
+      </c>
+      <c r="AC30">
         <v>5.04</v>
       </c>
-      <c r="AA30">
+      <c r="AD30">
         <v>6.026275704493522</v>
       </c>
-      <c r="AB30">
+      <c r="AE30">
         <v>0.4187</v>
       </c>
-      <c r="AC30">
+      <c r="AF30">
         <v>-2.943827272296029</v>
       </c>
-      <c r="AD30">
+      <c r="AG30">
         <v>-1.400372609836242</v>
       </c>
-      <c r="AE30">
+      <c r="AH30">
         <v>101.3</v>
       </c>
     </row>
@@ -3413,21 +3689,30 @@
         <v>0.4295</v>
       </c>
       <c r="Z31">
+        <v>17</v>
+      </c>
+      <c r="AA31">
+        <v>40</v>
+      </c>
+      <c r="AB31">
+        <v>45</v>
+      </c>
+      <c r="AC31">
         <v>5.58</v>
       </c>
-      <c r="AA31">
+      <c r="AD31">
         <v>5.730251941655617</v>
       </c>
-      <c r="AB31">
+      <c r="AE31">
         <v>0.4209000000000001</v>
       </c>
-      <c r="AC31">
+      <c r="AF31">
         <v>-4.680792302175441</v>
       </c>
-      <c r="AD31">
+      <c r="AG31">
         <v>-1.513277594523654</v>
       </c>
-      <c r="AE31">
+      <c r="AH31">
         <v>103.1</v>
       </c>
     </row>
@@ -3510,21 +3795,30 @@
         <v>0.4281</v>
       </c>
       <c r="Z32">
+        <v>19</v>
+      </c>
+      <c r="AA32">
+        <v>31</v>
+      </c>
+      <c r="AB32">
+        <v>32</v>
+      </c>
+      <c r="AC32">
         <v>6.06</v>
       </c>
-      <c r="AA32">
+      <c r="AD32">
         <v>5.685461059777497</v>
       </c>
-      <c r="AB32">
+      <c r="AE32">
         <v>0.4295</v>
       </c>
-      <c r="AC32">
+      <c r="AF32">
         <v>-6.617407260003638</v>
       </c>
-      <c r="AD32">
+      <c r="AG32">
         <v>-1.709155991920519</v>
       </c>
-      <c r="AE32">
+      <c r="AH32">
         <v>97.09999999999999</v>
       </c>
     </row>
@@ -3607,21 +3901,30 @@
         <v>0.4211</v>
       </c>
       <c r="Z33">
+        <v>17</v>
+      </c>
+      <c r="AA33">
+        <v>32</v>
+      </c>
+      <c r="AB33">
+        <v>31</v>
+      </c>
+      <c r="AC33">
         <v>6.37</v>
       </c>
-      <c r="AA33">
+      <c r="AD33">
         <v>5.631287017016051</v>
       </c>
-      <c r="AB33">
+      <c r="AE33">
         <v>0.4281</v>
       </c>
-      <c r="AC33">
+      <c r="AF33">
         <v>-7.477246128093674</v>
       </c>
-      <c r="AD33">
+      <c r="AG33">
         <v>-1.69184522749144</v>
       </c>
-      <c r="AE33">
+      <c r="AH33">
         <v>93.3</v>
       </c>
     </row>
@@ -3704,21 +4007,30 @@
         <v>0.4006</v>
       </c>
       <c r="Z34">
+        <v>15</v>
+      </c>
+      <c r="AA34">
+        <v>33</v>
+      </c>
+      <c r="AB34">
+        <v>35</v>
+      </c>
+      <c r="AC34">
         <v>6.17</v>
       </c>
-      <c r="AA34">
+      <c r="AD34">
         <v>6.357728171799937</v>
       </c>
-      <c r="AB34">
+      <c r="AE34">
         <v>0.4211</v>
       </c>
-      <c r="AC34">
+      <c r="AF34">
         <v>-7.729532574569786</v>
       </c>
-      <c r="AD34">
+      <c r="AG34">
         <v>-1.493485529630767</v>
       </c>
-      <c r="AE34">
+      <c r="AH34">
         <v>96.8</v>
       </c>
     </row>
@@ -3801,21 +4113,30 @@
         <v>0.3821</v>
       </c>
       <c r="Z35">
+        <v>15</v>
+      </c>
+      <c r="AA35">
+        <v>29</v>
+      </c>
+      <c r="AB35">
+        <v>29</v>
+      </c>
+      <c r="AC35">
         <v>6.25</v>
       </c>
-      <c r="AA35">
+      <c r="AD35">
         <v>6.720000000000015</v>
       </c>
-      <c r="AB35">
+      <c r="AE35">
         <v>0.4006</v>
       </c>
-      <c r="AC35">
+      <c r="AF35">
         <v>0.7138670435157257</v>
       </c>
-      <c r="AD35">
+      <c r="AG35">
         <v>-1.361205295758272</v>
       </c>
-      <c r="AE35">
+      <c r="AH35">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -3898,21 +4219,30 @@
         <v>0.3716</v>
       </c>
       <c r="Z36">
+        <v>14</v>
+      </c>
+      <c r="AA36">
+        <v>25</v>
+      </c>
+      <c r="AB36">
+        <v>33</v>
+      </c>
+      <c r="AC36">
         <v>6.41</v>
       </c>
-      <c r="AA36">
+      <c r="AD36">
         <v>6.813269429564883</v>
       </c>
-      <c r="AB36">
+      <c r="AE36">
         <v>0.3821</v>
       </c>
-      <c r="AC36">
+      <c r="AF36">
         <v>15.63746486568589</v>
       </c>
-      <c r="AD36">
+      <c r="AG36">
         <v>-1.226155696568787</v>
       </c>
-      <c r="AE36">
+      <c r="AH36">
         <v>89.59999999999999</v>
       </c>
     </row>
@@ -3995,21 +4325,30 @@
         <v>0.3779</v>
       </c>
       <c r="Z37">
+        <v>13</v>
+      </c>
+      <c r="AA37">
+        <v>23</v>
+      </c>
+      <c r="AB37">
+        <v>18</v>
+      </c>
+      <c r="AC37">
         <v>6.39</v>
       </c>
-      <c r="AA37">
+      <c r="AD37">
         <v>6.814550239684181</v>
       </c>
-      <c r="AB37">
+      <c r="AE37">
         <v>0.3716</v>
       </c>
-      <c r="AC37">
+      <c r="AF37">
         <v>16.52527333456744</v>
       </c>
-      <c r="AD37">
+      <c r="AG37">
         <v>-0.9216740904634313</v>
       </c>
-      <c r="AE37">
+      <c r="AH37">
         <v>84.8</v>
       </c>
     </row>
@@ -4092,21 +4431,30 @@
         <v>0.3821</v>
       </c>
       <c r="Z38">
+        <v>18</v>
+      </c>
+      <c r="AA38">
+        <v>27</v>
+      </c>
+      <c r="AB38">
+        <v>21</v>
+      </c>
+      <c r="AC38">
         <v>5.9</v>
       </c>
-      <c r="AA38">
+      <c r="AD38">
         <v>7.327667610953736</v>
       </c>
-      <c r="AB38">
+      <c r="AE38">
         <v>0.3779</v>
       </c>
-      <c r="AC38">
+      <c r="AF38">
         <v>24.51071657224841</v>
       </c>
-      <c r="AD38">
+      <c r="AG38">
         <v>-0.929155415955063</v>
       </c>
-      <c r="AE38">
+      <c r="AH38">
         <v>85.09999999999999</v>
       </c>
     </row>
@@ -4189,21 +4537,30 @@
         <v>0.3826</v>
       </c>
       <c r="Z39">
+        <v>15</v>
+      </c>
+      <c r="AA39">
+        <v>24</v>
+      </c>
+      <c r="AB39">
+        <v>18</v>
+      </c>
+      <c r="AC39">
         <v>5.84</v>
       </c>
-      <c r="AA39">
+      <c r="AD39">
         <v>7.067271352985638</v>
       </c>
-      <c r="AB39">
+      <c r="AE39">
         <v>0.3821</v>
       </c>
-      <c r="AC39">
+      <c r="AF39">
         <v>18.10343542560442</v>
       </c>
-      <c r="AD39">
+      <c r="AG39">
         <v>-0.7702389003265031</v>
       </c>
-      <c r="AE39">
+      <c r="AH39">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -4286,21 +4643,30 @@
         <v>0.3794</v>
       </c>
       <c r="Z40">
+        <v>16</v>
+      </c>
+      <c r="AA40">
+        <v>36</v>
+      </c>
+      <c r="AB40">
+        <v>25</v>
+      </c>
+      <c r="AC40">
         <v>5.9</v>
       </c>
-      <c r="AA40">
+      <c r="AD40">
         <v>6.383380547686501</v>
       </c>
-      <c r="AB40">
+      <c r="AE40">
         <v>0.3826</v>
       </c>
-      <c r="AC40">
+      <c r="AF40">
         <v>16.4059816187671</v>
       </c>
-      <c r="AD40">
+      <c r="AG40">
         <v>-0.7622132001209425</v>
       </c>
-      <c r="AE40">
+      <c r="AH40">
         <v>84.8</v>
       </c>
     </row>
@@ -4383,21 +4749,30 @@
         <v>0.3848</v>
       </c>
       <c r="Z41">
+        <v>13</v>
+      </c>
+      <c r="AA41">
+        <v>33</v>
+      </c>
+      <c r="AB41">
+        <v>26</v>
+      </c>
+      <c r="AC41">
         <v>5.61</v>
       </c>
-      <c r="AA41">
+      <c r="AD41">
         <v>5.766499384527979</v>
       </c>
-      <c r="AB41">
+      <c r="AE41">
         <v>0.3794</v>
       </c>
-      <c r="AC41">
+      <c r="AF41">
         <v>14.27959334477276</v>
       </c>
-      <c r="AD41">
+      <c r="AG41">
         <v>-0.5755001012477057</v>
       </c>
-      <c r="AE41">
+      <c r="AH41">
         <v>87.90000000000001</v>
       </c>
     </row>
@@ -4480,21 +4855,30 @@
         <v>0.3951</v>
       </c>
       <c r="Z42">
+        <v>14</v>
+      </c>
+      <c r="AA42">
+        <v>34</v>
+      </c>
+      <c r="AB42">
+        <v>26</v>
+      </c>
+      <c r="AC42">
         <v>5.53</v>
       </c>
-      <c r="AA42">
+      <c r="AD42">
         <v>5.287595944281254</v>
       </c>
-      <c r="AB42">
+      <c r="AE42">
         <v>0.3848</v>
       </c>
-      <c r="AC42">
+      <c r="AF42">
         <v>12.27296215052951</v>
       </c>
-      <c r="AD42">
+      <c r="AG42">
         <v>-0.6402109308841331</v>
       </c>
-      <c r="AE42">
+      <c r="AH42">
         <v>88</v>
       </c>
     </row>
@@ -4577,21 +4961,30 @@
         <v>0.399</v>
       </c>
       <c r="Z43">
+        <v>14</v>
+      </c>
+      <c r="AA43">
+        <v>34</v>
+      </c>
+      <c r="AB43">
+        <v>26</v>
+      </c>
+      <c r="AC43">
         <v>5.2</v>
       </c>
-      <c r="AA43">
+      <c r="AD43">
         <v>4.714828897338386</v>
       </c>
-      <c r="AB43">
+      <c r="AE43">
         <v>0.3951</v>
       </c>
-      <c r="AC43">
+      <c r="AF43">
         <v>6.171197465883771</v>
       </c>
-      <c r="AD43">
+      <c r="AG43">
         <v>-0.7937547162853775</v>
       </c>
-      <c r="AE43">
+      <c r="AH43">
         <v>90</v>
       </c>
     </row>
@@ -4674,21 +5067,30 @@
         <v>0.4095</v>
       </c>
       <c r="Z44">
+        <v>11</v>
+      </c>
+      <c r="AA44">
+        <v>29</v>
+      </c>
+      <c r="AB44">
+        <v>15</v>
+      </c>
+      <c r="AC44">
         <v>4.8</v>
       </c>
-      <c r="AA44">
+      <c r="AD44">
         <v>4.522900763358773</v>
       </c>
-      <c r="AB44">
+      <c r="AE44">
         <v>0.399</v>
       </c>
-      <c r="AC44">
+      <c r="AF44">
         <v>3.50481212345628</v>
       </c>
-      <c r="AD44">
+      <c r="AG44">
         <v>-0.8850312554327888</v>
       </c>
-      <c r="AE44">
+      <c r="AH44">
         <v>94.3</v>
       </c>
     </row>
@@ -4771,21 +5173,30 @@
         <v>0.4095</v>
       </c>
       <c r="Z45">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="AA45">
+        <v>26</v>
+      </c>
+      <c r="AB45">
+        <v>17</v>
+      </c>
+      <c r="AC45">
+        <v>4.5</v>
+      </c>
+      <c r="AD45">
         <v>4.315789473684228</v>
       </c>
-      <c r="AB45">
+      <c r="AE45">
         <v>0.4095</v>
       </c>
-      <c r="AC45">
+      <c r="AF45">
         <v>2.630482501609555</v>
       </c>
-      <c r="AD45">
+      <c r="AG45">
         <v>-0.8449718290965635</v>
       </c>
-      <c r="AE45">
+      <c r="AH45">
         <v>96.8</v>
       </c>
     </row>
@@ -4868,21 +5279,30 @@
         <v>0.419</v>
       </c>
       <c r="Z46">
+        <v>15</v>
+      </c>
+      <c r="AA46">
+        <v>29</v>
+      </c>
+      <c r="AB46">
+        <v>23</v>
+      </c>
+      <c r="AC46">
         <v>4.36</v>
       </c>
-      <c r="AA46">
+      <c r="AD46">
         <v>4.110770410118803</v>
       </c>
-      <c r="AB46">
+      <c r="AE46">
         <v>0.4095</v>
       </c>
-      <c r="AC46">
+      <c r="AF46">
         <v>-1.26219728440049</v>
       </c>
-      <c r="AD46">
+      <c r="AG46">
         <v>-0.9213043680013633</v>
       </c>
-      <c r="AE46">
+      <c r="AH46">
         <v>96.3</v>
       </c>
     </row>
@@ -4965,21 +5385,30 @@
         <v>0.4179</v>
       </c>
       <c r="Z47">
+        <v>13</v>
+      </c>
+      <c r="AA47">
+        <v>29</v>
+      </c>
+      <c r="AB47">
+        <v>23</v>
+      </c>
+      <c r="AC47">
         <v>4.34</v>
       </c>
-      <c r="AA47">
+      <c r="AD47">
         <v>4.130726471152002</v>
       </c>
-      <c r="AB47">
+      <c r="AE47">
         <v>0.419</v>
       </c>
-      <c r="AC47">
+      <c r="AF47">
         <v>-1.854119759498718</v>
       </c>
-      <c r="AD47">
+      <c r="AG47">
         <v>-0.8470107835688578</v>
       </c>
-      <c r="AE47">
+      <c r="AH47">
         <v>97.8</v>
       </c>
     </row>
@@ -5062,21 +5491,30 @@
         <v>0.4132</v>
       </c>
       <c r="Z48">
+        <v>13</v>
+      </c>
+      <c r="AA48">
+        <v>25</v>
+      </c>
+      <c r="AB48">
+        <v>25</v>
+      </c>
+      <c r="AC48">
         <v>4.17</v>
       </c>
-      <c r="AA48">
+      <c r="AD48">
         <v>4.300662378803866</v>
       </c>
-      <c r="AB48">
+      <c r="AE48">
         <v>0.4179</v>
       </c>
-      <c r="AC48">
+      <c r="AF48">
         <v>-5.157074833399944</v>
       </c>
-      <c r="AD48">
+      <c r="AG48">
         <v>-0.8132439283789594</v>
       </c>
-      <c r="AE48">
+      <c r="AH48">
         <v>97.7</v>
       </c>
     </row>
@@ -5159,21 +5597,30 @@
         <v>0.4135</v>
       </c>
       <c r="Z49">
+        <v>13</v>
+      </c>
+      <c r="AA49">
+        <v>22</v>
+      </c>
+      <c r="AB49">
+        <v>21</v>
+      </c>
+      <c r="AC49">
         <v>4.22</v>
       </c>
-      <c r="AA49">
+      <c r="AD49">
         <v>4.250623680675503</v>
       </c>
-      <c r="AB49">
+      <c r="AE49">
         <v>0.4132</v>
       </c>
-      <c r="AC49">
+      <c r="AF49">
         <v>-4.765476932319479</v>
       </c>
-      <c r="AD49">
+      <c r="AG49">
         <v>-0.8533665475372265</v>
       </c>
-      <c r="AE49">
+      <c r="AH49">
         <v>99.3</v>
       </c>
     </row>
@@ -5256,21 +5703,30 @@
         <v>0.4018</v>
       </c>
       <c r="Z50">
+        <v>16</v>
+      </c>
+      <c r="AA50">
+        <v>20</v>
+      </c>
+      <c r="AB50">
+        <v>16</v>
+      </c>
+      <c r="AC50">
         <v>4.31</v>
       </c>
-      <c r="AA50">
+      <c r="AD50">
         <v>4.160674911322038</v>
       </c>
-      <c r="AB50">
+      <c r="AE50">
         <v>0.4135</v>
       </c>
-      <c r="AC50">
+      <c r="AF50">
         <v>-3.806794550399184</v>
       </c>
-      <c r="AD50">
+      <c r="AG50">
         <v>-0.8109088824906685</v>
       </c>
-      <c r="AE50">
+      <c r="AH50">
         <v>97.5</v>
       </c>
     </row>
@@ -5353,21 +5809,30 @@
         <v>0.4045</v>
       </c>
       <c r="Z51">
+        <v>13</v>
+      </c>
+      <c r="AA51">
+        <v>23</v>
+      </c>
+      <c r="AB51">
+        <v>16</v>
+      </c>
+      <c r="AC51">
         <v>4.59</v>
       </c>
-      <c r="AA51">
+      <c r="AD51">
         <v>3.881824266182243</v>
       </c>
-      <c r="AB51">
+      <c r="AE51">
         <v>0.4018</v>
       </c>
-      <c r="AC51">
+      <c r="AF51">
         <v>-3.919774980946611</v>
       </c>
-      <c r="AD51">
+      <c r="AG51">
         <v>-1.066860907778755</v>
       </c>
-      <c r="AE51">
+      <c r="AH51">
         <v>99.09999999999999</v>
       </c>
     </row>
@@ -5450,21 +5915,30 @@
         <v>0.4041</v>
       </c>
       <c r="Z52">
+        <v>14</v>
+      </c>
+      <c r="AA52">
+        <v>26</v>
+      </c>
+      <c r="AB52">
+        <v>22</v>
+      </c>
+      <c r="AC52">
         <v>4.83</v>
       </c>
-      <c r="AA52">
+      <c r="AD52">
         <v>3.643995039587899</v>
       </c>
-      <c r="AB52">
+      <c r="AE52">
         <v>0.4045</v>
       </c>
-      <c r="AC52">
+      <c r="AF52">
         <v>-1.362171600021189</v>
       </c>
-      <c r="AD52">
+      <c r="AG52">
         <v>-1.241456257289286</v>
       </c>
-      <c r="AE52">
+      <c r="AH52">
         <v>96.3</v>
       </c>
     </row>
@@ -5547,21 +6021,30 @@
         <v>0.4001</v>
       </c>
       <c r="Z53">
+        <v>14</v>
+      </c>
+      <c r="AA53">
+        <v>32</v>
+      </c>
+      <c r="AB53">
+        <v>24</v>
+      </c>
+      <c r="AC53">
         <v>5.17</v>
       </c>
-      <c r="AA53">
+      <c r="AD53">
         <v>3.308928401635436</v>
       </c>
-      <c r="AB53">
+      <c r="AE53">
         <v>0.4041</v>
       </c>
-      <c r="AC53">
+      <c r="AF53">
         <v>-4.531700673871619</v>
       </c>
-      <c r="AD53">
+      <c r="AG53">
         <v>-1.418125357612743</v>
       </c>
-      <c r="AE53">
+      <c r="AH53">
         <v>98.90000000000001</v>
       </c>
     </row>
@@ -5644,21 +6127,30 @@
         <v>0.3956</v>
       </c>
       <c r="Z54">
+        <v>15</v>
+      </c>
+      <c r="AA54">
+        <v>33</v>
+      </c>
+      <c r="AB54">
+        <v>30</v>
+      </c>
+      <c r="AC54">
         <v>5.26</v>
       </c>
-      <c r="AA54">
+      <c r="AD54">
         <v>3.287098612958395</v>
       </c>
-      <c r="AB54">
+      <c r="AE54">
         <v>0.4001</v>
       </c>
-      <c r="AC54">
+      <c r="AF54">
         <v>-6.260146266597411</v>
       </c>
-      <c r="AD54">
+      <c r="AG54">
         <v>-1.663323086907131</v>
       </c>
-      <c r="AE54">
+      <c r="AH54">
         <v>101.3</v>
       </c>
     </row>
@@ -5741,21 +6233,30 @@
         <v>0.3951</v>
       </c>
       <c r="Z55">
+        <v>13</v>
+      </c>
+      <c r="AA55">
+        <v>29</v>
+      </c>
+      <c r="AB55">
+        <v>23</v>
+      </c>
+      <c r="AC55">
         <v>5.22</v>
       </c>
-      <c r="AA55">
+      <c r="AD55">
         <v>3.972628777798892</v>
       </c>
-      <c r="AB55">
+      <c r="AE55">
         <v>0.3956</v>
       </c>
-      <c r="AC55">
+      <c r="AF55">
         <v>-5.517249534702851</v>
       </c>
-      <c r="AD55">
+      <c r="AG55">
         <v>-1.76216117673399</v>
       </c>
-      <c r="AE55">
+      <c r="AH55">
         <v>103.5</v>
       </c>
     </row>
@@ -5838,21 +6339,30 @@
         <v>0.3962</v>
       </c>
       <c r="Z56">
+        <v>13</v>
+      </c>
+      <c r="AA56">
+        <v>28</v>
+      </c>
+      <c r="AB56">
+        <v>14</v>
+      </c>
+      <c r="AC56">
         <v>4.84</v>
       </c>
-      <c r="AA56">
+      <c r="AD56">
         <v>4.864555513162916</v>
       </c>
-      <c r="AB56">
+      <c r="AE56">
         <v>0.3951</v>
       </c>
-      <c r="AC56">
+      <c r="AF56">
         <v>-6.909449166453951</v>
       </c>
-      <c r="AD56">
+      <c r="AG56">
         <v>-1.640576390117232</v>
       </c>
-      <c r="AE56">
+      <c r="AH56">
         <v>105.2</v>
       </c>
     </row>
@@ -5935,21 +6445,30 @@
         <v>0.3943</v>
       </c>
       <c r="Z57">
+        <v>16</v>
+      </c>
+      <c r="AA57">
+        <v>27</v>
+      </c>
+      <c r="AB57">
+        <v>19</v>
+      </c>
+      <c r="AC57">
         <v>4.6</v>
       </c>
-      <c r="AA57">
+      <c r="AD57">
         <v>5.468451242829819</v>
       </c>
-      <c r="AB57">
+      <c r="AE57">
         <v>0.3962</v>
       </c>
-      <c r="AC57">
+      <c r="AF57">
         <v>-6.737217008044794</v>
       </c>
-      <c r="AD57">
+      <c r="AG57">
         <v>-1.290863113364604</v>
       </c>
-      <c r="AE57">
+      <c r="AH57">
         <v>104.2</v>
       </c>
     </row>
@@ -6032,21 +6551,30 @@
         <v>0.3863</v>
       </c>
       <c r="Z58">
+        <v>15</v>
+      </c>
+      <c r="AA58">
+        <v>25</v>
+      </c>
+      <c r="AB58">
+        <v>22</v>
+      </c>
+      <c r="AC58">
         <v>4.49</v>
       </c>
-      <c r="AA58">
+      <c r="AD58">
         <v>5.904871279548285</v>
       </c>
-      <c r="AB58">
+      <c r="AE58">
         <v>0.3943</v>
       </c>
-      <c r="AC58">
+      <c r="AF58">
         <v>-6.16757237370682</v>
       </c>
-      <c r="AD58">
+      <c r="AG58">
         <v>-0.6294260866353429</v>
       </c>
-      <c r="AE58">
+      <c r="AH58">
         <v>106.1</v>
       </c>
     </row>
@@ -6129,21 +6657,30 @@
         <v>0.3832</v>
       </c>
       <c r="Z59">
+        <v>13</v>
+      </c>
+      <c r="AA59">
+        <v>24</v>
+      </c>
+      <c r="AB59">
+        <v>26</v>
+      </c>
+      <c r="AC59">
         <v>4.7</v>
       </c>
-      <c r="AA59">
+      <c r="AD59">
         <v>5.692454632282717</v>
       </c>
-      <c r="AB59">
+      <c r="AE59">
         <v>0.3863</v>
       </c>
-      <c r="AC59">
+      <c r="AF59">
         <v>-7.608513672595696</v>
       </c>
-      <c r="AD59">
+      <c r="AG59">
         <v>-0.1313623146025789</v>
       </c>
-      <c r="AE59">
+      <c r="AH59">
         <v>107</v>
       </c>
     </row>
@@ -6226,21 +6763,30 @@
         <v>0.3823</v>
       </c>
       <c r="Z60">
+        <v>15</v>
+      </c>
+      <c r="AA60">
+        <v>25</v>
+      </c>
+      <c r="AB60">
+        <v>31</v>
+      </c>
+      <c r="AC60">
         <v>5.2</v>
       </c>
-      <c r="AA60">
+      <c r="AD60">
         <v>5.190114068441054</v>
       </c>
-      <c r="AB60">
+      <c r="AE60">
         <v>0.3832</v>
       </c>
-      <c r="AC60">
+      <c r="AF60">
         <v>-8.018745791509863</v>
       </c>
-      <c r="AD60">
+      <c r="AG60">
         <v>0.1571817746853332</v>
       </c>
-      <c r="AE60">
+      <c r="AH60">
         <v>106</v>
       </c>
     </row>
@@ -6323,21 +6869,30 @@
         <v>0.3848</v>
       </c>
       <c r="Z61">
+        <v>13</v>
+      </c>
+      <c r="AA61">
+        <v>21</v>
+      </c>
+      <c r="AB61">
+        <v>20</v>
+      </c>
+      <c r="AC61">
         <v>5.63</v>
       </c>
-      <c r="AA61">
+      <c r="AD61">
         <v>4.761904761904767</v>
       </c>
-      <c r="AB61">
+      <c r="AE61">
         <v>0.3823</v>
       </c>
-      <c r="AC61">
+      <c r="AF61">
         <v>-7.285994586847211</v>
       </c>
-      <c r="AD61">
+      <c r="AG61">
         <v>-0.05061877620884392</v>
       </c>
-      <c r="AE61">
+      <c r="AH61">
         <v>109.1</v>
       </c>
     </row>
@@ -6420,21 +6975,30 @@
         <v>0.3808</v>
       </c>
       <c r="Z62">
+        <v>12</v>
+      </c>
+      <c r="AA62">
+        <v>20</v>
+      </c>
+      <c r="AB62">
+        <v>16</v>
+      </c>
+      <c r="AC62">
         <v>5.91</v>
       </c>
-      <c r="AA62">
+      <c r="AD62">
         <v>4.484940043433117</v>
       </c>
-      <c r="AB62">
+      <c r="AE62">
         <v>0.3848</v>
       </c>
-      <c r="AC62">
+      <c r="AF62">
         <v>-9.707210662986054</v>
       </c>
-      <c r="AD62">
+      <c r="AG62">
         <v>-0.3223665570624701</v>
       </c>
-      <c r="AE62">
+      <c r="AH62">
         <v>107</v>
       </c>
     </row>
@@ -6517,21 +7081,30 @@
         <v>0.3807</v>
       </c>
       <c r="Z63">
+        <v>12</v>
+      </c>
+      <c r="AA63">
+        <v>21</v>
+      </c>
+      <c r="AB63">
+        <v>19</v>
+      </c>
+      <c r="AC63">
         <v>5.99</v>
       </c>
-      <c r="AA63">
+      <c r="AD63">
         <v>4.585338239456549</v>
       </c>
-      <c r="AB63">
+      <c r="AE63">
         <v>0.3808</v>
       </c>
-      <c r="AC63">
+      <c r="AF63">
         <v>-10.37337828453973</v>
       </c>
-      <c r="AD63">
+      <c r="AG63">
         <v>-0.4898647960013935</v>
       </c>
-      <c r="AE63">
+      <c r="AH63">
         <v>107.8</v>
       </c>
     </row>
@@ -6614,21 +7187,30 @@
         <v>0.3802</v>
       </c>
       <c r="Z64">
+        <v>10</v>
+      </c>
+      <c r="AA64">
+        <v>21</v>
+      </c>
+      <c r="AB64">
+        <v>21</v>
+      </c>
+      <c r="AC64">
         <v>6.01</v>
       </c>
-      <c r="AA64">
+      <c r="AD64">
         <v>4.867465333459098</v>
       </c>
-      <c r="AB64">
+      <c r="AE64">
         <v>0.3807</v>
       </c>
-      <c r="AC64">
+      <c r="AF64">
         <v>-8.573687178690548</v>
       </c>
-      <c r="AD64">
+      <c r="AG64">
         <v>-0.5907387026139355</v>
       </c>
-      <c r="AE64">
+      <c r="AH64">
         <v>108.5</v>
       </c>
     </row>
@@ -6711,21 +7293,30 @@
         <v>0.3794</v>
       </c>
       <c r="Z65">
+        <v>11</v>
+      </c>
+      <c r="AA65">
+        <v>23</v>
+      </c>
+      <c r="AB65">
+        <v>28</v>
+      </c>
+      <c r="AC65">
         <v>6.3</v>
       </c>
-      <c r="AA65">
+      <c r="AD65">
         <v>5.004703668861721</v>
       </c>
-      <c r="AB65">
+      <c r="AE65">
         <v>0.3802</v>
       </c>
-      <c r="AC65">
+      <c r="AF65">
         <v>-8.484210588101426</v>
       </c>
-      <c r="AD65">
+      <c r="AG65">
         <v>-1.098320012754872</v>
       </c>
-      <c r="AE65">
+      <c r="AH65">
         <v>105.4</v>
       </c>
     </row>
@@ -6808,21 +7399,30 @@
         <v>0.3784</v>
       </c>
       <c r="Z66">
+        <v>14</v>
+      </c>
+      <c r="AA66">
+        <v>22</v>
+      </c>
+      <c r="AB66">
+        <v>34</v>
+      </c>
+      <c r="AC66">
         <v>6.51</v>
       </c>
-      <c r="AA66">
+      <c r="AD66">
         <v>4.910337057553282</v>
       </c>
-      <c r="AB66">
+      <c r="AE66">
         <v>0.3794</v>
       </c>
-      <c r="AC66">
+      <c r="AF66">
         <v>-11.66899852006651</v>
       </c>
-      <c r="AD66">
+      <c r="AG66">
         <v>-1.130779777813362</v>
       </c>
-      <c r="AE66">
+      <c r="AH66">
         <v>103.4</v>
       </c>
     </row>
@@ -6905,21 +7505,30 @@
         <v>0.3773</v>
       </c>
       <c r="Z67">
+        <v>10</v>
+      </c>
+      <c r="AA67">
+        <v>24</v>
+      </c>
+      <c r="AB67">
+        <v>27</v>
+      </c>
+      <c r="AC67">
         <v>6.55</v>
       </c>
-      <c r="AA67">
+      <c r="AD67">
         <v>5.039887376818375</v>
       </c>
-      <c r="AB67">
+      <c r="AE67">
         <v>0.3784</v>
       </c>
-      <c r="AC67">
+      <c r="AF67">
         <v>-10.26104567754276</v>
       </c>
-      <c r="AD67">
+      <c r="AG67">
         <v>-1.114725451081544</v>
       </c>
-      <c r="AE67">
+      <c r="AH67">
         <v>102.5</v>
       </c>
     </row>
@@ -7002,21 +7611,30 @@
         <v>0.375</v>
       </c>
       <c r="Z68">
+        <v>10</v>
+      </c>
+      <c r="AA68">
+        <v>22</v>
+      </c>
+      <c r="AB68">
+        <v>14</v>
+      </c>
+      <c r="AC68">
         <v>6.71</v>
       </c>
-      <c r="AA68">
+      <c r="AD68">
         <v>5.051073001593109</v>
       </c>
-      <c r="AB68">
+      <c r="AE68">
         <v>0.3773</v>
       </c>
-      <c r="AC68">
+      <c r="AF68">
         <v>-11.62280383865367</v>
       </c>
-      <c r="AD68">
+      <c r="AG68">
         <v>-0.8729936074410305</v>
       </c>
-      <c r="AE68">
+      <c r="AH68">
         <v>104.8</v>
       </c>
     </row>
@@ -7099,21 +7717,30 @@
         <v>0.3699</v>
       </c>
       <c r="Z69">
+        <v>11</v>
+      </c>
+      <c r="AA69">
+        <v>22</v>
+      </c>
+      <c r="AB69">
+        <v>18</v>
+      </c>
+      <c r="AC69">
         <v>6.87</v>
       </c>
-      <c r="AA69">
+      <c r="AD69">
         <v>5.034153644614969</v>
       </c>
-      <c r="AB69">
+      <c r="AE69">
         <v>0.375</v>
       </c>
-      <c r="AC69">
+      <c r="AF69">
         <v>-12.48867945447099</v>
       </c>
-      <c r="AD69">
+      <c r="AG69">
         <v>-0.3880872744477792</v>
       </c>
-      <c r="AE69">
+      <c r="AH69">
         <v>109</v>
       </c>
     </row>
@@ -7196,21 +7823,30 @@
         <v>0.3515</v>
       </c>
       <c r="Z70">
+        <v>11</v>
+      </c>
+      <c r="AA70">
+        <v>25</v>
+      </c>
+      <c r="AB70">
+        <v>23</v>
+      </c>
+      <c r="AC70">
         <v>7.23</v>
       </c>
-      <c r="AA70">
+      <c r="AD70">
         <v>4.840063415089069</v>
       </c>
-      <c r="AB70">
+      <c r="AE70">
         <v>0.3699</v>
       </c>
-      <c r="AC70">
+      <c r="AF70">
         <v>-10.58259725977198</v>
       </c>
-      <c r="AD70">
+      <c r="AG70">
         <v>-0.1566951123646576</v>
       </c>
-      <c r="AE70">
+      <c r="AH70">
         <v>104.3</v>
       </c>
     </row>
@@ -7293,21 +7929,30 @@
         <v>0.3617</v>
       </c>
       <c r="Z71">
+        <v>10</v>
+      </c>
+      <c r="AA71">
+        <v>24</v>
+      </c>
+      <c r="AB71">
+        <v>21</v>
+      </c>
+      <c r="AC71">
         <v>7.31</v>
       </c>
-      <c r="AA71">
+      <c r="AD71">
         <v>4.286646165315444</v>
       </c>
-      <c r="AB71">
+      <c r="AE71">
         <v>0.3515</v>
       </c>
-      <c r="AC71">
+      <c r="AF71">
         <v>-5.030119989944204</v>
       </c>
-      <c r="AD71">
+      <c r="AG71">
         <v>-0.1367336694586663</v>
       </c>
-      <c r="AE71">
+      <c r="AH71">
         <v>100.7</v>
       </c>
     </row>
@@ -7390,21 +8035,30 @@
         <v>0.3538</v>
       </c>
       <c r="Z72">
+        <v>12</v>
+      </c>
+      <c r="AA72">
+        <v>24</v>
+      </c>
+      <c r="AB72">
+        <v>23</v>
+      </c>
+      <c r="AC72">
         <v>6.97</v>
       </c>
-      <c r="AA72">
+      <c r="AD72">
         <v>4.421800504814422</v>
       </c>
-      <c r="AB72">
+      <c r="AE72">
         <v>0.3617</v>
       </c>
-      <c r="AC72">
+      <c r="AF72">
         <v>-5.086654089746889</v>
       </c>
-      <c r="AD72">
+      <c r="AG72">
         <v>-0.2031717648206088</v>
       </c>
-      <c r="AE72">
+      <c r="AH72">
         <v>103.4</v>
       </c>
     </row>
@@ -7487,21 +8141,30 @@
         <v>0.351</v>
       </c>
       <c r="Z73">
+        <v>11</v>
+      </c>
+      <c r="AA73">
+        <v>19</v>
+      </c>
+      <c r="AB73">
+        <v>16</v>
+      </c>
+      <c r="AC73">
         <v>6.64</v>
       </c>
-      <c r="AA73">
+      <c r="AD73">
         <v>4.463615903975993</v>
       </c>
-      <c r="AB73">
+      <c r="AE73">
         <v>0.3538</v>
       </c>
-      <c r="AC73">
+      <c r="AF73">
         <v>-5.477108424570265</v>
       </c>
-      <c r="AD73">
+      <c r="AG73">
         <v>0.08015498762581341</v>
       </c>
-      <c r="AE73">
+      <c r="AH73">
         <v>105.6</v>
       </c>
     </row>
@@ -7584,21 +8247,30 @@
         <v>0.3562</v>
       </c>
       <c r="Z74">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AA74">
+        <v>19</v>
+      </c>
+      <c r="AB74">
+        <v>16</v>
+      </c>
+      <c r="AC74">
+        <v>6.5</v>
+      </c>
+      <c r="AD74">
         <v>4.131455399061035</v>
       </c>
-      <c r="AB74">
+      <c r="AE74">
         <v>0.351</v>
       </c>
-      <c r="AC74">
+      <c r="AF74">
         <v>-4.084437542178221</v>
       </c>
-      <c r="AD74">
+      <c r="AG74">
         <v>0.1269081947735229</v>
       </c>
-      <c r="AE74">
+      <c r="AH74">
         <v>106.8</v>
       </c>
     </row>
@@ -7681,21 +8353,30 @@
         <v>0.3575</v>
       </c>
       <c r="Z75">
+        <v>12</v>
+      </c>
+      <c r="AA75">
+        <v>20</v>
+      </c>
+      <c r="AB75">
+        <v>13</v>
+      </c>
+      <c r="AC75">
         <v>6.22</v>
       </c>
-      <c r="AA75">
+      <c r="AD75">
         <v>4.217661457352651</v>
       </c>
-      <c r="AB75">
+      <c r="AE75">
         <v>0.3562</v>
       </c>
-      <c r="AC75">
+      <c r="AF75">
         <v>-7.501387041478558</v>
       </c>
-      <c r="AD75">
+      <c r="AG75">
         <v>0.1061482682385595</v>
       </c>
-      <c r="AE75">
+      <c r="AH75">
         <v>103.3</v>
       </c>
     </row>
@@ -7778,21 +8459,30 @@
         <v>0.347</v>
       </c>
       <c r="Z76">
+        <v>12</v>
+      </c>
+      <c r="AA76">
+        <v>27</v>
+      </c>
+      <c r="AB76">
+        <v>18</v>
+      </c>
+      <c r="AC76">
         <v>5.85</v>
       </c>
-      <c r="AA76">
+      <c r="AD76">
         <v>4.298535663675018</v>
       </c>
-      <c r="AB76">
+      <c r="AE76">
         <v>0.3575</v>
       </c>
-      <c r="AC76">
+      <c r="AF76">
         <v>-9.307489044522011</v>
       </c>
-      <c r="AD76">
+      <c r="AG76">
         <v>0.1723429092719719</v>
       </c>
-      <c r="AE76">
+      <c r="AH76">
         <v>106.1</v>
       </c>
     </row>
@@ -7875,21 +8565,30 @@
         <v>0.3395</v>
       </c>
       <c r="Z77">
+        <v>11</v>
+      </c>
+      <c r="AA77">
+        <v>25</v>
+      </c>
+      <c r="AB77">
+        <v>17</v>
+      </c>
+      <c r="AC77">
         <v>5.24</v>
       </c>
-      <c r="AA77">
+      <c r="AD77">
         <v>4.351957430634745</v>
       </c>
-      <c r="AB77">
+      <c r="AE77">
         <v>0.347</v>
       </c>
-      <c r="AC77">
+      <c r="AF77">
         <v>-5.306598350166746</v>
       </c>
-      <c r="AD77">
+      <c r="AG77">
         <v>0.2791027794170065</v>
       </c>
-      <c r="AE77">
+      <c r="AH77">
         <v>109.5</v>
       </c>
     </row>
@@ -7972,21 +8671,30 @@
         <v>0.333</v>
       </c>
       <c r="Z78">
+        <v>12</v>
+      </c>
+      <c r="AA78">
+        <v>34</v>
+      </c>
+      <c r="AB78">
+        <v>22</v>
+      </c>
+      <c r="AC78">
         <v>5.1</v>
       </c>
-      <c r="AA78">
+      <c r="AD78">
         <v>4.043767840152235</v>
       </c>
-      <c r="AB78">
+      <c r="AE78">
         <v>0.3395</v>
       </c>
-      <c r="AC78">
+      <c r="AF78">
         <v>-3.077936078037236</v>
       </c>
-      <c r="AD78">
+      <c r="AG78">
         <v>0.2899500788001275</v>
       </c>
-      <c r="AE78">
+      <c r="AH78">
         <v>113.2</v>
       </c>
     </row>
@@ -8069,21 +8777,30 @@
         <v>0.3342</v>
       </c>
       <c r="Z79">
+        <v>10</v>
+      </c>
+      <c r="AA79">
+        <v>22</v>
+      </c>
+      <c r="AB79">
+        <v>18</v>
+      </c>
+      <c r="AC79">
         <v>4.99</v>
       </c>
-      <c r="AA79">
+      <c r="AD79">
         <v>3.695590056195819</v>
       </c>
-      <c r="AB79">
+      <c r="AE79">
         <v>0.333</v>
       </c>
-      <c r="AC79">
+      <c r="AF79">
         <v>1.897135584768184</v>
       </c>
-      <c r="AD79">
+      <c r="AG79">
         <v>0.3930565144172116</v>
       </c>
-      <c r="AE79">
+      <c r="AH79">
         <v>112.3</v>
       </c>
     </row>
@@ -8166,21 +8883,30 @@
         <v>0.3317</v>
       </c>
       <c r="Z80">
+        <v>9</v>
+      </c>
+      <c r="AA80">
+        <v>21</v>
+      </c>
+      <c r="AB80">
+        <v>11</v>
+      </c>
+      <c r="AC80">
         <v>4.92</v>
       </c>
-      <c r="AA80">
+      <c r="AD80">
         <v>3.307281738467416</v>
       </c>
-      <c r="AB80">
+      <c r="AE80">
         <v>0.3342</v>
       </c>
-      <c r="AC80">
+      <c r="AF80">
         <v>3.309649106384827</v>
       </c>
-      <c r="AD80">
+      <c r="AG80">
         <v>0.3683892489749985</v>
       </c>
-      <c r="AE80">
+      <c r="AH80">
         <v>109.6</v>
       </c>
     </row>
@@ -8263,21 +8989,30 @@
         <v>0.3339</v>
       </c>
       <c r="Z81">
+        <v>11</v>
+      </c>
+      <c r="AA81">
+        <v>21</v>
+      </c>
+      <c r="AB81">
+        <v>16</v>
+      </c>
+      <c r="AC81">
         <v>5.2</v>
       </c>
-      <c r="AA81">
+      <c r="AD81">
         <v>2.728136882129273</v>
       </c>
-      <c r="AB81">
+      <c r="AE81">
         <v>0.3317</v>
       </c>
-      <c r="AC81">
+      <c r="AF81">
         <v>1.679703597898841</v>
       </c>
-      <c r="AD81">
+      <c r="AG81">
         <v>0.5341503601561604</v>
       </c>
-      <c r="AE81">
+      <c r="AH81">
         <v>108.3</v>
       </c>
     </row>
@@ -8360,21 +9095,30 @@
         <v>0.3311</v>
       </c>
       <c r="Z82">
+        <v>10</v>
+      </c>
+      <c r="AA82">
+        <v>21</v>
+      </c>
+      <c r="AB82">
+        <v>16</v>
+      </c>
+      <c r="AC82">
         <v>5.24</v>
       </c>
-      <c r="AA82">
+      <c r="AD82">
         <v>2.480045610034209</v>
       </c>
-      <c r="AB82">
+      <c r="AE82">
         <v>0.3339</v>
       </c>
-      <c r="AC82">
+      <c r="AF82">
         <v>2.46418506764392</v>
       </c>
-      <c r="AD82">
+      <c r="AG82">
         <v>0.8636076628207423</v>
       </c>
-      <c r="AE82">
+      <c r="AH82">
         <v>107</v>
       </c>
     </row>
@@ -8457,21 +9201,30 @@
         <v>0.33</v>
       </c>
       <c r="Z83">
+        <v>10</v>
+      </c>
+      <c r="AA83">
+        <v>19</v>
+      </c>
+      <c r="AB83">
+        <v>17</v>
+      </c>
+      <c r="AC83">
         <v>5.28</v>
       </c>
-      <c r="AA83">
+      <c r="AD83">
         <v>2.00417933130701</v>
       </c>
-      <c r="AB83">
+      <c r="AE83">
         <v>0.3311</v>
       </c>
-      <c r="AC83">
+      <c r="AF83">
         <v>2.959142159632955</v>
       </c>
-      <c r="AD83">
+      <c r="AG83">
         <v>1.000987354275074</v>
       </c>
-      <c r="AE83">
+      <c r="AH83">
         <v>107.7</v>
       </c>
     </row>
@@ -8554,21 +9307,30 @@
         <v>0.3268</v>
       </c>
       <c r="Z84">
+        <v>9</v>
+      </c>
+      <c r="AA84">
+        <v>18</v>
+      </c>
+      <c r="AB84">
+        <v>20</v>
+      </c>
+      <c r="AC84">
         <v>5.45</v>
       </c>
-      <c r="AA84">
+      <c r="AD84">
         <v>1.688003793266946</v>
       </c>
-      <c r="AB84">
+      <c r="AE84">
         <v>0.33</v>
       </c>
-      <c r="AC84">
+      <c r="AF84">
         <v>2.231824728552056</v>
       </c>
-      <c r="AD84">
+      <c r="AG84">
         <v>1.214158957339895</v>
       </c>
-      <c r="AE84">
+      <c r="AH84">
         <v>107.9</v>
       </c>
     </row>
@@ -8651,21 +9413,30 @@
         <v>0.3284</v>
       </c>
       <c r="Z85">
+        <v>9</v>
+      </c>
+      <c r="AA85">
+        <v>15</v>
+      </c>
+      <c r="AB85">
+        <v>15</v>
+      </c>
+      <c r="AC85">
         <v>5.53</v>
       </c>
-      <c r="AA85">
+      <c r="AD85">
         <v>1.52563252155784</v>
       </c>
-      <c r="AB85">
+      <c r="AE85">
         <v>0.3268</v>
       </c>
-      <c r="AC85">
+      <c r="AF85">
         <v>2.593875335000395</v>
       </c>
-      <c r="AD85">
+      <c r="AG85">
         <v>1.094328050563687</v>
       </c>
-      <c r="AE85">
+      <c r="AH85">
         <v>106.5</v>
       </c>
     </row>
@@ -8748,21 +9519,30 @@
         <v>0.3292</v>
       </c>
       <c r="Z86">
+        <v>13</v>
+      </c>
+      <c r="AA86">
+        <v>18</v>
+      </c>
+      <c r="AB86">
+        <v>15</v>
+      </c>
+      <c r="AC86">
         <v>5.84</v>
       </c>
-      <c r="AA86">
+      <c r="AD86">
         <v>1.247165532879824</v>
       </c>
-      <c r="AB86">
+      <c r="AE86">
         <v>0.3284</v>
       </c>
-      <c r="AC86">
+      <c r="AF86">
         <v>2.778956714462399</v>
       </c>
-      <c r="AD86">
+      <c r="AG86">
         <v>1.035137428491706</v>
       </c>
-      <c r="AE86">
+      <c r="AH86">
         <v>105.5</v>
       </c>
     </row>
@@ -8845,21 +9625,30 @@
         <v>0.3337</v>
       </c>
       <c r="Z87">
+        <v>11</v>
+      </c>
+      <c r="AA87">
+        <v>17</v>
+      </c>
+      <c r="AB87">
+        <v>17</v>
+      </c>
+      <c r="AC87">
         <v>6.15</v>
       </c>
-      <c r="AA87">
+      <c r="AD87">
         <v>0.904380593499754</v>
       </c>
-      <c r="AB87">
+      <c r="AE87">
         <v>0.3292</v>
       </c>
-      <c r="AC87">
+      <c r="AF87">
         <v>-0.5298071052986075</v>
       </c>
-      <c r="AD87">
+      <c r="AG87">
         <v>0.8786050920252197</v>
       </c>
-      <c r="AE87">
+      <c r="AH87">
         <v>106</v>
       </c>
     </row>
@@ -8942,21 +9731,30 @@
         <v>0.3296</v>
       </c>
       <c r="Z88">
+        <v>11</v>
+      </c>
+      <c r="AA88">
+        <v>18</v>
+      </c>
+      <c r="AB88">
+        <v>18</v>
+      </c>
+      <c r="AC88">
         <v>6.31</v>
       </c>
-      <c r="AA88">
+      <c r="AD88">
         <v>0.7619226789577604</v>
       </c>
-      <c r="AB88">
+      <c r="AE88">
         <v>0.3337</v>
       </c>
-      <c r="AC88">
+      <c r="AF88">
         <v>-3.729281505165349</v>
       </c>
-      <c r="AD88">
+      <c r="AG88">
         <v>0.5273274355008795</v>
       </c>
-      <c r="AE88">
+      <c r="AH88">
         <v>104.7</v>
       </c>
     </row>
@@ -9039,21 +9837,30 @@
         <v>0.3278</v>
       </c>
       <c r="Z89">
+        <v>12</v>
+      </c>
+      <c r="AA89">
+        <v>24</v>
+      </c>
+      <c r="AB89">
+        <v>26</v>
+      </c>
+      <c r="AC89">
         <v>6.59</v>
       </c>
-      <c r="AA89">
+      <c r="AD89">
         <v>0.5253776151608713</v>
       </c>
-      <c r="AB89">
+      <c r="AE89">
         <v>0.3296</v>
       </c>
-      <c r="AC89">
+      <c r="AF89">
         <v>-4.83505016999255</v>
       </c>
-      <c r="AD89">
+      <c r="AG89">
         <v>0.5729425870057536</v>
       </c>
-      <c r="AE89">
+      <c r="AH89">
         <v>102.2</v>
       </c>
     </row>
@@ -9136,21 +9943,30 @@
         <v>0.3219</v>
       </c>
       <c r="Z90">
+        <v>12</v>
+      </c>
+      <c r="AA90">
+        <v>22</v>
+      </c>
+      <c r="AB90">
+        <v>24</v>
+      </c>
+      <c r="AC90">
         <v>6.49</v>
       </c>
-      <c r="AA90">
+      <c r="AD90">
         <v>0.7230725889755041</v>
       </c>
-      <c r="AB90">
+      <c r="AE90">
         <v>0.3278</v>
       </c>
-      <c r="AC90">
+      <c r="AF90">
         <v>-4.866200513437901</v>
       </c>
-      <c r="AD90">
+      <c r="AG90">
         <v>0.6829825364830899</v>
       </c>
-      <c r="AE90">
+      <c r="AH90">
         <v>103</v>
       </c>
     </row>
@@ -9233,21 +10049,30 @@
         <v>0.3192</v>
       </c>
       <c r="Z91">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AA91">
+        <v>22</v>
+      </c>
+      <c r="AB91">
+        <v>29</v>
+      </c>
+      <c r="AC91">
+        <v>6.5</v>
+      </c>
+      <c r="AD91">
         <v>0.8638497652582178</v>
       </c>
-      <c r="AB91">
+      <c r="AE91">
         <v>0.3219</v>
       </c>
-      <c r="AC91">
+      <c r="AF91">
         <v>-4.108776413901449</v>
       </c>
-      <c r="AD91">
+      <c r="AG91">
         <v>0.9342197253675799</v>
       </c>
-      <c r="AE91">
+      <c r="AH91">
         <v>102.7</v>
       </c>
     </row>
@@ -9330,21 +10155,30 @@
         <v>0.3159</v>
       </c>
       <c r="Z92">
+        <v>10</v>
+      </c>
+      <c r="AA92">
+        <v>22</v>
+      </c>
+      <c r="AB92">
+        <v>15</v>
+      </c>
+      <c r="AC92">
         <v>6.7</v>
       </c>
-      <c r="AA92">
+      <c r="AD92">
         <v>1.124648547328966</v>
       </c>
-      <c r="AB92">
+      <c r="AE92">
         <v>0.3192</v>
       </c>
-      <c r="AC92">
+      <c r="AF92">
         <v>2.091650998809458</v>
       </c>
-      <c r="AD92">
+      <c r="AG92">
         <v>1.349888415555434</v>
       </c>
-      <c r="AE92">
+      <c r="AH92">
         <v>102.4</v>
       </c>
     </row>
@@ -9427,21 +10261,30 @@
         <v>0.3139</v>
       </c>
       <c r="Z93">
+        <v>12</v>
+      </c>
+      <c r="AA93">
+        <v>22</v>
+      </c>
+      <c r="AB93">
+        <v>17</v>
+      </c>
+      <c r="AC93">
         <v>6.27</v>
       </c>
-      <c r="AA93">
+      <c r="AD93">
         <v>1.844358708948901</v>
       </c>
-      <c r="AB93">
+      <c r="AE93">
         <v>0.3159</v>
       </c>
-      <c r="AC93">
+      <c r="AF93">
         <v>5.322763578763667</v>
       </c>
-      <c r="AD93">
+      <c r="AG93">
         <v>1.745419633859102</v>
       </c>
-      <c r="AE93">
+      <c r="AH93">
         <v>99.5</v>
       </c>
     </row>
@@ -9524,21 +10367,30 @@
         <v>0.3192</v>
       </c>
       <c r="Z94">
+        <v>12</v>
+      </c>
+      <c r="AA94">
+        <v>21</v>
+      </c>
+      <c r="AB94">
+        <v>21</v>
+      </c>
+      <c r="AC94">
         <v>6.09</v>
       </c>
-      <c r="AA94">
+      <c r="AD94">
         <v>2.224526345555677</v>
       </c>
-      <c r="AB94">
+      <c r="AE94">
         <v>0.3139</v>
       </c>
-      <c r="AC94">
+      <c r="AF94">
         <v>10.02230741345813</v>
       </c>
-      <c r="AD94">
+      <c r="AG94">
         <v>2.178542665314698</v>
       </c>
-      <c r="AE94">
+      <c r="AH94">
         <v>102</v>
       </c>
     </row>
@@ -9621,21 +10473,30 @@
         <v>0.3215999999999999</v>
       </c>
       <c r="Z95">
+        <v>11</v>
+      </c>
+      <c r="AA95">
+        <v>22</v>
+      </c>
+      <c r="AB95">
+        <v>23</v>
+      </c>
+      <c r="AC95">
         <v>5.86</v>
       </c>
-      <c r="AA95">
+      <c r="AD95">
         <v>2.871717362554316</v>
       </c>
-      <c r="AB95">
+      <c r="AE95">
         <v>0.3192</v>
       </c>
-      <c r="AC95">
+      <c r="AF95">
         <v>5.872535724855066</v>
       </c>
-      <c r="AD95">
+      <c r="AG95">
         <v>2.840266619520371</v>
       </c>
-      <c r="AE95">
+      <c r="AH95">
         <v>102.5</v>
       </c>
     </row>
@@ -9718,21 +10579,30 @@
         <v>0.3122</v>
       </c>
       <c r="Z96">
+        <v>10</v>
+      </c>
+      <c r="AA96">
+        <v>21</v>
+      </c>
+      <c r="AB96">
+        <v>21</v>
+      </c>
+      <c r="AC96">
         <v>5.84</v>
       </c>
-      <c r="AA96">
+      <c r="AD96">
         <v>3.221844293272857</v>
       </c>
-      <c r="AB96">
+      <c r="AE96">
         <v>0.3215999999999999</v>
       </c>
-      <c r="AC96">
+      <c r="AF96">
         <v>1.699792627835595</v>
       </c>
-      <c r="AD96">
+      <c r="AG96">
         <v>3.11713516705201</v>
       </c>
-      <c r="AE96">
+      <c r="AH96">
         <v>101.1</v>
       </c>
     </row>
@@ -9815,21 +10685,30 @@
         <v>0.3114</v>
       </c>
       <c r="Z97">
+        <v>9</v>
+      </c>
+      <c r="AA97">
+        <v>18</v>
+      </c>
+      <c r="AB97">
+        <v>14</v>
+      </c>
+      <c r="AC97">
         <v>5.77</v>
       </c>
-      <c r="AA97">
+      <c r="AD97">
         <v>3.479247423655085</v>
       </c>
-      <c r="AB97">
+      <c r="AE97">
         <v>0.3122</v>
       </c>
-      <c r="AC97">
+      <c r="AF97">
         <v>4.821144939092603</v>
       </c>
-      <c r="AD97">
+      <c r="AG97">
         <v>3.361308270277119</v>
       </c>
-      <c r="AE97">
+      <c r="AH97">
         <v>102.1</v>
       </c>
     </row>
@@ -9912,21 +10791,30 @@
         <v>0.3071</v>
       </c>
       <c r="Z98">
+        <v>15</v>
+      </c>
+      <c r="AA98">
+        <v>23</v>
+      </c>
+      <c r="AB98">
+        <v>18</v>
+      </c>
+      <c r="AC98">
         <v>5.91</v>
       </c>
-      <c r="AA98">
+      <c r="AD98">
         <v>3.767349636483819</v>
       </c>
-      <c r="AB98">
+      <c r="AE98">
         <v>0.3114</v>
       </c>
-      <c r="AC98">
+      <c r="AF98">
         <v>5.6187092758329</v>
       </c>
-      <c r="AD98">
+      <c r="AG98">
         <v>3.490214442996598</v>
       </c>
-      <c r="AE98">
+      <c r="AH98">
         <v>100.6</v>
       </c>
     </row>
@@ -10009,21 +10897,30 @@
         <v>0.3105</v>
       </c>
       <c r="Z99">
+        <v>12</v>
+      </c>
+      <c r="AA99">
+        <v>25</v>
+      </c>
+      <c r="AB99">
+        <v>18</v>
+      </c>
+      <c r="AC99">
         <v>5.59</v>
       </c>
-      <c r="AA99">
+      <c r="AD99">
         <v>4.337531963254082</v>
       </c>
-      <c r="AB99">
+      <c r="AE99">
         <v>0.3071</v>
       </c>
-      <c r="AC99">
+      <c r="AF99">
         <v>4.837484536223613</v>
       </c>
-      <c r="AD99">
+      <c r="AG99">
         <v>3.569881182332546</v>
       </c>
-      <c r="AE99">
+      <c r="AH99">
         <v>98.5</v>
       </c>
     </row>
@@ -10106,21 +11003,30 @@
         <v>0.3117</v>
       </c>
       <c r="Z100">
+        <v>11</v>
+      </c>
+      <c r="AA100">
+        <v>21</v>
+      </c>
+      <c r="AB100">
+        <v>20</v>
+      </c>
+      <c r="AC100">
         <v>5.68</v>
       </c>
-      <c r="AA100">
+      <c r="AD100">
         <v>4.494700984102962</v>
       </c>
-      <c r="AB100">
+      <c r="AE100">
         <v>0.3105</v>
       </c>
-      <c r="AC100">
+      <c r="AF100">
         <v>3.394718412756736</v>
       </c>
-      <c r="AD100">
+      <c r="AG100">
         <v>3.564473135367185</v>
       </c>
-      <c r="AE100">
+      <c r="AH100">
         <v>97</v>
       </c>
     </row>
@@ -10203,21 +11109,30 @@
         <v>0.3116</v>
       </c>
       <c r="Z101">
+        <v>13</v>
+      </c>
+      <c r="AA101">
+        <v>22</v>
+      </c>
+      <c r="AB101">
+        <v>23</v>
+      </c>
+      <c r="AC101">
         <v>6.15</v>
       </c>
-      <c r="AA101">
+      <c r="AD101">
         <v>4.239284032030133</v>
       </c>
-      <c r="AB101">
+      <c r="AE101">
         <v>0.3117</v>
       </c>
-      <c r="AC101">
+      <c r="AF101">
         <v>-0.384177540545716</v>
       </c>
-      <c r="AD101">
+      <c r="AG101">
         <v>3.383035463338535</v>
       </c>
-      <c r="AE101">
+      <c r="AH101">
         <v>96.7</v>
       </c>
     </row>
@@ -10300,21 +11215,30 @@
         <v>0.3155</v>
       </c>
       <c r="Z102">
+        <v>12</v>
+      </c>
+      <c r="AA102">
+        <v>21</v>
+      </c>
+      <c r="AB102">
+        <v>26</v>
+      </c>
+      <c r="AC102">
         <v>6.28</v>
       </c>
-      <c r="AA102">
+      <c r="AD102">
         <v>4.318780579601067</v>
       </c>
-      <c r="AB102">
+      <c r="AE102">
         <v>0.3116</v>
       </c>
-      <c r="AC102">
+      <c r="AF102">
         <v>-5.222722875731211</v>
       </c>
-      <c r="AD102">
+      <c r="AG102">
         <v>3.211676873599512</v>
       </c>
-      <c r="AE102">
+      <c r="AH102">
         <v>96.40000000000001</v>
       </c>
     </row>
@@ -10397,21 +11321,30 @@
         <v>0.3192</v>
       </c>
       <c r="Z103">
+        <v>9</v>
+      </c>
+      <c r="AA103">
+        <v>17</v>
+      </c>
+      <c r="AB103">
+        <v>19</v>
+      </c>
+      <c r="AC103">
         <v>6.37</v>
       </c>
-      <c r="AA103">
+      <c r="AD103">
         <v>4.258719563786761</v>
       </c>
-      <c r="AB103">
+      <c r="AE103">
         <v>0.3155</v>
       </c>
-      <c r="AC103">
+      <c r="AF103">
         <v>-6.444125113801968</v>
       </c>
-      <c r="AD103">
+      <c r="AG103">
         <v>2.941711120409218</v>
       </c>
-      <c r="AE103">
+      <c r="AH103">
         <v>92.5</v>
       </c>
     </row>
@@ -10494,21 +11427,30 @@
         <v>0.3208</v>
       </c>
       <c r="Z104">
+        <v>11</v>
+      </c>
+      <c r="AA104">
+        <v>18</v>
+      </c>
+      <c r="AB104">
+        <v>17</v>
+      </c>
+      <c r="AC104">
         <v>6.52</v>
       </c>
-      <c r="AA104">
+      <c r="AD104">
         <v>4.111903867818256</v>
       </c>
-      <c r="AB104">
+      <c r="AE104">
         <v>0.3192</v>
       </c>
-      <c r="AC104">
+      <c r="AF104">
         <v>-6.712427272538058</v>
       </c>
-      <c r="AD104">
+      <c r="AG104">
         <v>2.79648149702123</v>
       </c>
-      <c r="AE104">
+      <c r="AH104">
         <v>93.40000000000001</v>
       </c>
     </row>
@@ -10591,21 +11533,30 @@
         <v>0.3259</v>
       </c>
       <c r="Z105">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AA105">
+        <v>20</v>
+      </c>
+      <c r="AB105">
+        <v>22</v>
+      </c>
+      <c r="AC105">
+        <v>6.5</v>
+      </c>
+      <c r="AD105">
         <v>4.131455399061035</v>
       </c>
-      <c r="AB105">
+      <c r="AE105">
         <v>0.3208</v>
       </c>
-      <c r="AC105">
+      <c r="AF105">
         <v>-6.669651796918219</v>
       </c>
-      <c r="AD105">
+      <c r="AG105">
         <v>3.121844806675167</v>
       </c>
-      <c r="AE105">
+      <c r="AH105">
         <v>94.5</v>
       </c>
     </row>
@@ -10688,21 +11639,30 @@
         <v>0.3255</v>
       </c>
       <c r="Z106">
+        <v>13</v>
+      </c>
+      <c r="AA106">
+        <v>21</v>
+      </c>
+      <c r="AB106">
+        <v>26</v>
+      </c>
+      <c r="AC106">
         <v>6.51</v>
       </c>
-      <c r="AA106">
+      <c r="AD106">
         <v>4.121678715613553</v>
       </c>
-      <c r="AB106">
+      <c r="AE106">
         <v>0.3259</v>
       </c>
-      <c r="AC106">
+      <c r="AF106">
         <v>-5.735554669382337</v>
       </c>
-      <c r="AD106">
+      <c r="AG106">
         <v>3.567973553408588</v>
       </c>
-      <c r="AE106">
+      <c r="AH106">
         <v>91.8</v>
       </c>
     </row>
@@ -10785,21 +11745,30 @@
         <v>0.3286</v>
       </c>
       <c r="Z107">
+        <v>13</v>
+      </c>
+      <c r="AA107">
+        <v>27</v>
+      </c>
+      <c r="AB107">
+        <v>55</v>
+      </c>
+      <c r="AC107">
         <v>6.75</v>
       </c>
-      <c r="AA107">
+      <c r="AD107">
         <v>3.88758782201406</v>
       </c>
-      <c r="AB107">
+      <c r="AE107">
         <v>0.3255</v>
       </c>
-      <c r="AC107">
+      <c r="AF107">
         <v>-5.295967418322311</v>
       </c>
-      <c r="AD107">
+      <c r="AG107">
         <v>3.877933778540243</v>
       </c>
-      <c r="AE107">
+      <c r="AH107">
         <v>92.8</v>
       </c>
     </row>
@@ -10882,21 +11851,30 @@
         <v>0.3292</v>
       </c>
       <c r="Z108">
+        <v>12</v>
+      </c>
+      <c r="AA108">
+        <v>21</v>
+      </c>
+      <c r="AB108">
+        <v>30</v>
+      </c>
+      <c r="AC108">
         <v>6.59</v>
       </c>
-      <c r="AA108">
+      <c r="AD108">
         <v>4.062294774369057</v>
       </c>
-      <c r="AB108">
+      <c r="AE108">
         <v>0.3286</v>
       </c>
-      <c r="AC108">
+      <c r="AF108">
         <v>-2.270873160943332</v>
       </c>
-      <c r="AD108">
+      <c r="AG108">
         <v>4.151748942442746</v>
       </c>
-      <c r="AE108">
+      <c r="AH108">
         <v>91.40000000000001</v>
       </c>
     </row>
@@ -10979,21 +11957,30 @@
         <v>0.3315</v>
       </c>
       <c r="Z109">
+        <v>12</v>
+      </c>
+      <c r="AA109">
+        <v>21</v>
+      </c>
+      <c r="AB109">
+        <v>17</v>
+      </c>
+      <c r="AC109">
         <v>6.56</v>
       </c>
-      <c r="AA109">
+      <c r="AD109">
         <v>4.307432432432434</v>
       </c>
-      <c r="AB109">
+      <c r="AE109">
         <v>0.3292</v>
       </c>
-      <c r="AC109">
+      <c r="AF109">
         <v>-0.5076780109716017</v>
       </c>
-      <c r="AD109">
+      <c r="AG109">
         <v>4.293589527572039</v>
       </c>
-      <c r="AE109">
+      <c r="AH109">
         <v>86</v>
       </c>
     </row>
@@ -11076,21 +12063,30 @@
         <v>0.3335</v>
       </c>
       <c r="Z110">
+        <v>16</v>
+      </c>
+      <c r="AA110">
+        <v>24</v>
+      </c>
+      <c r="AB110">
+        <v>21</v>
+      </c>
+      <c r="AC110">
         <v>6.41</v>
       </c>
-      <c r="AA110">
+      <c r="AD110">
         <v>4.85856592425522</v>
       </c>
-      <c r="AB110">
+      <c r="AE110">
         <v>0.3315</v>
       </c>
-      <c r="AC110">
+      <c r="AF110">
         <v>0.7933949807757079</v>
       </c>
-      <c r="AD110">
+      <c r="AG110">
         <v>4.295832961728063</v>
       </c>
-      <c r="AE110">
+      <c r="AH110">
         <v>86.59999999999999</v>
       </c>
     </row>
@@ -11173,21 +12169,30 @@
         <v>0.3316</v>
       </c>
       <c r="Z111">
+        <v>16</v>
+      </c>
+      <c r="AA111">
+        <v>26</v>
+      </c>
+      <c r="AB111">
+        <v>25</v>
+      </c>
+      <c r="AC111">
         <v>7.14</v>
       </c>
-      <c r="AA111">
+      <c r="AD111">
         <v>4.368116483106244</v>
       </c>
-      <c r="AB111">
+      <c r="AE111">
         <v>0.3335</v>
       </c>
-      <c r="AC111">
+      <c r="AF111">
         <v>-3.085573177001644</v>
       </c>
-      <c r="AD111">
+      <c r="AG111">
         <v>3.636335273453595</v>
       </c>
-      <c r="AE111">
+      <c r="AH111">
         <v>80.2</v>
       </c>
     </row>
@@ -11270,21 +12275,30 @@
         <v>0.3282</v>
       </c>
       <c r="Z112">
+        <v>18</v>
+      </c>
+      <c r="AA112">
+        <v>31</v>
+      </c>
+      <c r="AB112">
+        <v>30</v>
+      </c>
+      <c r="AC112">
         <v>7.7</v>
       </c>
-      <c r="AA112">
+      <c r="AD112">
         <v>4.131847725162485</v>
       </c>
-      <c r="AB112">
+      <c r="AE112">
         <v>0.3316</v>
       </c>
-      <c r="AC112">
+      <c r="AF112">
         <v>2.119028531268108</v>
       </c>
-      <c r="AD112">
+      <c r="AG112">
         <v>2.893361752853707</v>
       </c>
-      <c r="AE112">
+      <c r="AH112">
         <v>76.09999999999999</v>
       </c>
     </row>
@@ -11367,21 +12381,30 @@
         <v>0.3361</v>
       </c>
       <c r="Z113">
+        <v>17</v>
+      </c>
+      <c r="AA113">
+        <v>29</v>
+      </c>
+      <c r="AB113">
+        <v>26</v>
+      </c>
+      <c r="AC113">
         <v>8.130000000000001</v>
       </c>
-      <c r="AA113">
+      <c r="AD113">
         <v>4.115416628132795</v>
       </c>
-      <c r="AB113">
+      <c r="AE113">
         <v>0.3282</v>
       </c>
-      <c r="AC113">
+      <c r="AF113">
         <v>10.1139710917544</v>
       </c>
-      <c r="AD113">
+      <c r="AG113">
         <v>2.124870719563354</v>
       </c>
-      <c r="AE113">
+      <c r="AH113">
         <v>74.09999999999999</v>
       </c>
     </row>
@@ -11464,21 +12487,30 @@
         <v>0.3375</v>
       </c>
       <c r="Z114">
+        <v>18</v>
+      </c>
+      <c r="AA114">
+        <v>27</v>
+      </c>
+      <c r="AB114">
+        <v>26</v>
+      </c>
+      <c r="AC114">
         <v>8.17</v>
       </c>
-      <c r="AA114">
+      <c r="AD114">
         <v>4.169363039659779</v>
       </c>
-      <c r="AB114">
+      <c r="AE114">
         <v>0.3361</v>
       </c>
-      <c r="AC114">
+      <c r="AF114">
         <v>6.297896717068285</v>
       </c>
-      <c r="AD114">
+      <c r="AG114">
         <v>1.147020415769706</v>
       </c>
-      <c r="AE114">
+      <c r="AH114">
         <v>75.5</v>
       </c>
     </row>
@@ -11561,21 +12593,30 @@
         <v>0.3442</v>
       </c>
       <c r="Z115">
+        <v>18</v>
+      </c>
+      <c r="AA115">
+        <v>30</v>
+      </c>
+      <c r="AB115">
+        <v>32</v>
+      </c>
+      <c r="AC115">
         <v>8.470000000000001</v>
       </c>
-      <c r="AA115">
+      <c r="AD115">
         <v>4.314557020374288</v>
       </c>
-      <c r="AB115">
+      <c r="AE115">
         <v>0.3375</v>
       </c>
-      <c r="AC115">
+      <c r="AF115">
         <v>6.306498700280905</v>
       </c>
-      <c r="AD115">
+      <c r="AG115">
         <v>0.6982232877299932</v>
       </c>
-      <c r="AE115">
+      <c r="AH115">
         <v>75.09999999999999</v>
       </c>
     </row>
@@ -11658,21 +12699,30 @@
         <v>0.3447</v>
       </c>
       <c r="Z116">
+        <v>18</v>
+      </c>
+      <c r="AA116">
+        <v>29</v>
+      </c>
+      <c r="AB116">
+        <v>24</v>
+      </c>
+      <c r="AC116">
         <v>8.890000000000001</v>
       </c>
-      <c r="AA116">
+      <c r="AD116">
         <v>4.307098907153994</v>
       </c>
-      <c r="AB116">
+      <c r="AE116">
         <v>0.3442</v>
       </c>
-      <c r="AC116">
+      <c r="AF116">
         <v>6.829205340991873</v>
       </c>
-      <c r="AD116">
+      <c r="AG116">
         <v>0.4083368064730308</v>
       </c>
-      <c r="AE116">
+      <c r="AH116">
         <v>74</v>
       </c>
     </row>
@@ -11755,21 +12805,30 @@
         <v>0.3422</v>
       </c>
       <c r="Z117">
+        <v>19</v>
+      </c>
+      <c r="AA117">
+        <v>29</v>
+      </c>
+      <c r="AB117">
+        <v>24</v>
+      </c>
+      <c r="AC117">
         <v>9.56</v>
       </c>
-      <c r="AA117">
+      <c r="AD117">
         <v>3.769623950346856</v>
       </c>
-      <c r="AB117">
+      <c r="AE117">
         <v>0.3447</v>
       </c>
-      <c r="AC117">
+      <c r="AF117">
         <v>9.693263792677032</v>
       </c>
-      <c r="AD117">
+      <c r="AG117">
         <v>-0.2488692772794954</v>
       </c>
-      <c r="AE117">
+      <c r="AH117">
         <v>70.8</v>
       </c>
     </row>
@@ -11852,21 +12911,30 @@
         <v>0.3409</v>
       </c>
       <c r="Z118">
+        <v>19</v>
+      </c>
+      <c r="AA118">
+        <v>29</v>
+      </c>
+      <c r="AB118">
+        <v>28</v>
+      </c>
+      <c r="AC118">
         <v>9.529999999999999</v>
       </c>
-      <c r="AA118">
+      <c r="AD118">
         <v>4.218022459600101</v>
       </c>
-      <c r="AB118">
+      <c r="AE118">
         <v>0.3422</v>
       </c>
-      <c r="AC118">
+      <c r="AF118">
         <v>17.80698292330285</v>
       </c>
-      <c r="AD118">
+      <c r="AG118">
         <v>-0.595787565018524</v>
       </c>
-      <c r="AE118">
+      <c r="AH118">
         <v>69.7</v>
       </c>
     </row>
@@ -11949,21 +13017,30 @@
         <v>0.3512</v>
       </c>
       <c r="Z119">
+        <v>18</v>
+      </c>
+      <c r="AA119">
+        <v>26</v>
+      </c>
+      <c r="AB119">
+        <v>30</v>
+      </c>
+      <c r="AC119">
         <v>9.49</v>
       </c>
-      <c r="AA119">
+      <c r="AD119">
         <v>4.256096447164115</v>
       </c>
-      <c r="AB119">
+      <c r="AE119">
         <v>0.3409</v>
       </c>
-      <c r="AC119">
+      <c r="AF119">
         <v>29.96526375799469</v>
       </c>
-      <c r="AD119">
+      <c r="AG119">
         <v>-1.022381816614337</v>
       </c>
-      <c r="AE119">
+      <c r="AH119">
         <v>65.09999999999999</v>
       </c>
     </row>
@@ -12046,21 +13123,30 @@
         <v>0.3613</v>
       </c>
       <c r="Z120">
+        <v>17</v>
+      </c>
+      <c r="AA120">
+        <v>26</v>
+      </c>
+      <c r="AB120">
+        <v>26</v>
+      </c>
+      <c r="AC120">
         <v>9.93</v>
       </c>
-      <c r="AA120">
+      <c r="AD120">
         <v>3.838806513235693</v>
       </c>
-      <c r="AB120">
+      <c r="AE120">
         <v>0.3512</v>
       </c>
-      <c r="AC120">
+      <c r="AF120">
         <v>27.6047495374623</v>
       </c>
-      <c r="AD120">
+      <c r="AG120">
         <v>-1.246048973424518</v>
       </c>
-      <c r="AE120">
+      <c r="AH120">
         <v>65.3</v>
       </c>
     </row>
@@ -12143,21 +13229,30 @@
         <v>0.379</v>
       </c>
       <c r="Z121">
+        <v>17</v>
+      </c>
+      <c r="AA121">
+        <v>25</v>
+      </c>
+      <c r="AB121">
+        <v>23</v>
+      </c>
+      <c r="AC121">
         <v>10.48</v>
       </c>
-      <c r="AA121">
+      <c r="AD121">
         <v>3.321868211440981</v>
       </c>
-      <c r="AB121">
+      <c r="AE121">
         <v>0.3613</v>
       </c>
-      <c r="AC121">
+      <c r="AF121">
         <v>21.64969380682054</v>
       </c>
-      <c r="AD121">
+      <c r="AG121">
         <v>-1.033228415446374</v>
       </c>
-      <c r="AE121">
+      <c r="AH121">
         <v>66.09999999999999</v>
       </c>
     </row>
@@ -12240,21 +13335,30 @@
         <v>0.3809</v>
       </c>
       <c r="Z122">
+        <v>18</v>
+      </c>
+      <c r="AA122">
+        <v>24</v>
+      </c>
+      <c r="AB122">
+        <v>24</v>
+      </c>
+      <c r="AC122">
         <v>10.67</v>
       </c>
-      <c r="AA122">
+      <c r="AD122">
         <v>3.144483599891568</v>
       </c>
-      <c r="AB122">
+      <c r="AE122">
         <v>0.379</v>
       </c>
-      <c r="AC122">
+      <c r="AF122">
         <v>21.34055928474026</v>
       </c>
-      <c r="AD122">
+      <c r="AG122">
         <v>-0.749330047568364</v>
       </c>
-      <c r="AE122">
+      <c r="AH122">
         <v>64.90000000000001</v>
       </c>
     </row>
@@ -12337,21 +13441,30 @@
         <v>0.3915999999999999</v>
       </c>
       <c r="Z123">
+        <v>17</v>
+      </c>
+      <c r="AA123">
+        <v>21</v>
+      </c>
+      <c r="AB123">
+        <v>21</v>
+      </c>
+      <c r="AC123">
         <v>10.71</v>
       </c>
-      <c r="AA123">
+      <c r="AD123">
         <v>3.10721705356336</v>
       </c>
-      <c r="AB123">
+      <c r="AE123">
         <v>0.3809</v>
       </c>
-      <c r="AC123">
+      <c r="AF123">
         <v>21.44671247448329</v>
       </c>
-      <c r="AD123">
+      <c r="AG123">
         <v>-1.571349765138508</v>
       </c>
-      <c r="AE123">
+      <c r="AH123">
         <v>65.40000000000001</v>
       </c>
     </row>
@@ -12434,21 +13547,30 @@
         <v>0.4012</v>
       </c>
       <c r="Z124">
+        <v>17</v>
+      </c>
+      <c r="AA124">
+        <v>22</v>
+      </c>
+      <c r="AB124">
+        <v>25</v>
+      </c>
+      <c r="AC124">
         <v>10.36</v>
       </c>
-      <c r="AA124">
+      <c r="AD124">
         <v>3.434215295396892</v>
       </c>
-      <c r="AB124">
+      <c r="AE124">
         <v>0.3915999999999999</v>
       </c>
-      <c r="AC124">
+      <c r="AF124">
         <v>18.68676233698629</v>
       </c>
-      <c r="AD124">
+      <c r="AG124">
         <v>-1.869599792861765</v>
       </c>
-      <c r="AE124">
+      <c r="AH124">
         <v>67.8</v>
       </c>
     </row>
@@ -12531,21 +13653,30 @@
         <v>0.4055</v>
       </c>
       <c r="Z125">
+        <v>16</v>
+      </c>
+      <c r="AA125">
+        <v>22</v>
+      </c>
+      <c r="AB125">
+        <v>23</v>
+      </c>
+      <c r="AC125">
         <v>9.390000000000001</v>
       </c>
-      <c r="AA125">
+      <c r="AD125">
         <v>4.351403236127593</v>
       </c>
-      <c r="AB125">
+      <c r="AE125">
         <v>0.4012</v>
       </c>
-      <c r="AC125">
+      <c r="AF125">
         <v>10.78781667015845</v>
       </c>
-      <c r="AD125">
+      <c r="AG125">
         <v>-2.348015062389708</v>
       </c>
-      <c r="AE125">
+      <c r="AH125">
         <v>66</v>
       </c>
     </row>
@@ -12628,21 +13759,30 @@
         <v>0.4097</v>
       </c>
       <c r="Z126">
+        <v>17</v>
+      </c>
+      <c r="AA126">
+        <v>22</v>
+      </c>
+      <c r="AB126">
+        <v>27</v>
+      </c>
+      <c r="AC126">
         <v>9.279999999999999</v>
       </c>
-      <c r="AA126">
+      <c r="AD126">
         <v>4.456442166910679</v>
       </c>
-      <c r="AB126">
+      <c r="AE126">
         <v>0.4055</v>
       </c>
-      <c r="AC126">
+      <c r="AF126">
         <v>7.856808869374099</v>
       </c>
-      <c r="AD126">
+      <c r="AG126">
         <v>-2.629516599623083</v>
       </c>
-      <c r="AE126">
+      <c r="AH126">
         <v>65.59999999999999</v>
       </c>
     </row>
@@ -12725,21 +13865,30 @@
         <v>0.4294</v>
       </c>
       <c r="Z127">
+        <v>18</v>
+      </c>
+      <c r="AA127">
+        <v>22</v>
+      </c>
+      <c r="AB127">
+        <v>27</v>
+      </c>
+      <c r="AC127">
         <v>9.32</v>
       </c>
-      <c r="AA127">
+      <c r="AD127">
         <v>4.418221734357841</v>
       </c>
-      <c r="AB127">
+      <c r="AE127">
         <v>0.4097</v>
       </c>
-      <c r="AC127">
+      <c r="AF127">
         <v>6.159466238565892</v>
       </c>
-      <c r="AD127">
+      <c r="AG127">
         <v>-2.853187888022157</v>
       </c>
-      <c r="AE127">
+      <c r="AH127">
         <v>70.40000000000001</v>
       </c>
     </row>
@@ -12822,21 +13971,30 @@
         <v>0.4358</v>
       </c>
       <c r="Z128">
+        <v>16</v>
+      </c>
+      <c r="AA128">
+        <v>19</v>
+      </c>
+      <c r="AB128">
+        <v>17</v>
+      </c>
+      <c r="AC128">
         <v>8.84</v>
       </c>
-      <c r="AA128">
+      <c r="AD128">
         <v>4.878721058434388</v>
       </c>
-      <c r="AB128">
+      <c r="AE128">
         <v>0.4294</v>
       </c>
-      <c r="AC128">
+      <c r="AF128">
         <v>2.118649356466173</v>
       </c>
-      <c r="AD128">
+      <c r="AG128">
         <v>-3.00470299993234</v>
       </c>
-      <c r="AE128">
+      <c r="AH128">
         <v>73.09999999999999</v>
       </c>
     </row>
@@ -12919,21 +14077,30 @@
         <v>0.445</v>
       </c>
       <c r="Z129">
+        <v>17</v>
+      </c>
+      <c r="AA129">
+        <v>20</v>
+      </c>
+      <c r="AB129">
+        <v>19</v>
+      </c>
+      <c r="AC129">
         <v>8.74</v>
       </c>
-      <c r="AA129">
+      <c r="AD129">
         <v>4.975170130586726</v>
       </c>
-      <c r="AB129">
+      <c r="AE129">
         <v>0.4358</v>
       </c>
-      <c r="AC129">
+      <c r="AF129">
         <v>-3.389699720710027</v>
       </c>
-      <c r="AD129">
+      <c r="AG129">
         <v>-3.052218907606641</v>
       </c>
-      <c r="AE129">
+      <c r="AH129">
         <v>76.7</v>
       </c>
     </row>
@@ -13016,21 +14183,30 @@
         <v>0.4535</v>
       </c>
       <c r="Z130">
+        <v>17</v>
+      </c>
+      <c r="AA130">
+        <v>23</v>
+      </c>
+      <c r="AB130">
+        <v>24</v>
+      </c>
+      <c r="AC130">
         <v>8.970000000000001</v>
       </c>
-      <c r="AA130">
+      <c r="AD130">
         <v>4.753601908782223</v>
       </c>
-      <c r="AB130">
+      <c r="AE130">
         <v>0.445</v>
       </c>
-      <c r="AC130">
+      <c r="AF130">
         <v>-5.041815031962715</v>
       </c>
-      <c r="AD130">
+      <c r="AG130">
         <v>-3.01420163117524</v>
       </c>
-      <c r="AE130">
+      <c r="AH130">
         <v>78.8</v>
       </c>
     </row>
@@ -13113,21 +14289,30 @@
         <v>0.4551</v>
       </c>
       <c r="Z131">
+        <v>19</v>
+      </c>
+      <c r="AA131">
+        <v>27</v>
+      </c>
+      <c r="AB131">
+        <v>27</v>
+      </c>
+      <c r="AC131">
         <v>8.48</v>
       </c>
-      <c r="AA131">
+      <c r="AD131">
         <v>5.226769911504414</v>
       </c>
-      <c r="AB131">
+      <c r="AE131">
         <v>0.4535</v>
       </c>
-      <c r="AC131">
+      <c r="AF131">
         <v>-4.457686197573651</v>
       </c>
-      <c r="AD131">
+      <c r="AG131">
         <v>-2.792483739906193</v>
       </c>
-      <c r="AE131">
+      <c r="AH131">
         <v>79.90000000000001</v>
       </c>
     </row>
@@ -13210,21 +14395,30 @@
         <v>0.4539</v>
       </c>
       <c r="Z132">
+        <v>19</v>
+      </c>
+      <c r="AA132">
+        <v>26</v>
+      </c>
+      <c r="AB132">
+        <v>25</v>
+      </c>
+      <c r="AC132">
         <v>7.87</v>
       </c>
-      <c r="AA132">
+      <c r="AD132">
         <v>5.729118383239085</v>
       </c>
-      <c r="AB132">
+      <c r="AE132">
         <v>0.4551</v>
       </c>
-      <c r="AC132">
+      <c r="AF132">
         <v>-7.800575171361512</v>
       </c>
-      <c r="AD132">
+      <c r="AG132">
         <v>-2.795670613865398</v>
       </c>
-      <c r="AE132">
+      <c r="AH132">
         <v>80.59999999999999</v>
       </c>
     </row>
@@ -13307,21 +14501,30 @@
         <v>0.4777</v>
       </c>
       <c r="Z133">
+        <v>20</v>
+      </c>
+      <c r="AA133">
+        <v>26</v>
+      </c>
+      <c r="AB133">
+        <v>23</v>
+      </c>
+      <c r="AC133">
         <v>6.99</v>
       </c>
-      <c r="AA133">
+      <c r="AD133">
         <v>6.458547527806324</v>
       </c>
-      <c r="AB133">
+      <c r="AE133">
         <v>0.4539</v>
       </c>
-      <c r="AC133">
+      <c r="AF133">
         <v>-5.340204515725722</v>
       </c>
-      <c r="AD133">
+      <c r="AG133">
         <v>-2.682117828674901</v>
       </c>
-      <c r="AE133">
+      <c r="AH133">
         <v>78.3</v>
       </c>
     </row>
@@ -13404,21 +14607,30 @@
         <v>0.4836</v>
       </c>
       <c r="Z134">
+        <v>26</v>
+      </c>
+      <c r="AA134">
+        <v>33</v>
+      </c>
+      <c r="AB134">
+        <v>26</v>
+      </c>
+      <c r="AC134">
         <v>6.29</v>
       </c>
-      <c r="AA134">
+      <c r="AD134">
         <v>6.924451971022694</v>
       </c>
-      <c r="AB134">
+      <c r="AE134">
         <v>0.4777</v>
       </c>
-      <c r="AC134">
+      <c r="AF134">
         <v>-6.890438521627463</v>
       </c>
-      <c r="AD134">
+      <c r="AG134">
         <v>-2.521388734667751</v>
       </c>
-      <c r="AE134">
+      <c r="AH134">
         <v>74.09999999999999</v>
       </c>
     </row>
@@ -13501,21 +14713,30 @@
         <v>0.4918</v>
       </c>
       <c r="Z135">
+        <v>20</v>
+      </c>
+      <c r="AA135">
+        <v>32</v>
+      </c>
+      <c r="AB135">
+        <v>21</v>
+      </c>
+      <c r="AC135">
         <v>5.35</v>
       </c>
-      <c r="AA135">
+      <c r="AD135">
         <v>7.422876127195055</v>
       </c>
-      <c r="AB135">
+      <c r="AE135">
         <v>0.4836</v>
       </c>
-      <c r="AC135">
+      <c r="AF135">
         <v>-11.46020402006858</v>
       </c>
-      <c r="AD135">
+      <c r="AG135">
         <v>-2.337365025309934</v>
       </c>
-      <c r="AE135">
+      <c r="AH135">
         <v>78.3</v>
       </c>
     </row>
@@ -13598,21 +14819,30 @@
         <v>0.4939</v>
       </c>
       <c r="Z136">
+        <v>20</v>
+      </c>
+      <c r="AA136">
+        <v>37</v>
+      </c>
+      <c r="AB136">
+        <v>24</v>
+      </c>
+      <c r="AC136">
         <v>4.76</v>
       </c>
-      <c r="AA136">
+      <c r="AD136">
         <v>7.693776250477291</v>
       </c>
-      <c r="AB136">
+      <c r="AE136">
         <v>0.4918</v>
       </c>
-      <c r="AC136">
+      <c r="AF136">
         <v>-13.26468338550363</v>
       </c>
-      <c r="AD136">
+      <c r="AG136">
         <v>-2.450545210041466</v>
       </c>
-      <c r="AE136">
+      <c r="AH136">
         <v>80.5</v>
       </c>
     </row>
@@ -13695,21 +14925,30 @@
         <v>0.4939</v>
       </c>
       <c r="Z137">
+        <v>17</v>
+      </c>
+      <c r="AA137">
+        <v>31</v>
+      </c>
+      <c r="AB137">
+        <v>23</v>
+      </c>
+      <c r="AC137">
         <v>4.57</v>
       </c>
-      <c r="AA137">
+      <c r="AD137">
         <v>7.248732906187239</v>
       </c>
-      <c r="AB137">
+      <c r="AE137">
         <v>0.4939</v>
       </c>
-      <c r="AC137">
+      <c r="AF137">
         <v>-12.98458231400351</v>
       </c>
-      <c r="AD137">
+      <c r="AG137">
         <v>-2.3171393572468</v>
       </c>
-      <c r="AE137">
+      <c r="AH137">
         <v>83.40000000000001</v>
       </c>
     </row>
@@ -13792,21 +15031,30 @@
         <v>0.4994</v>
       </c>
       <c r="Z138">
+        <v>20</v>
+      </c>
+      <c r="AA138">
+        <v>35</v>
+      </c>
+      <c r="AB138">
+        <v>26</v>
+      </c>
+      <c r="AC138">
         <v>4.08</v>
       </c>
-      <c r="AA138">
+      <c r="AD138">
         <v>7.215603382013835</v>
       </c>
-      <c r="AB138">
+      <c r="AE138">
         <v>0.4939</v>
       </c>
-      <c r="AC138">
+      <c r="AF138">
         <v>-12.2236866670835</v>
       </c>
-      <c r="AD138">
+      <c r="AG138">
         <v>-1.914682804842638</v>
       </c>
-      <c r="AE138">
+      <c r="AH138">
         <v>82.3</v>
       </c>
     </row>
@@ -13889,21 +15137,30 @@
         <v>0.5027</v>
       </c>
       <c r="Z139">
+        <v>18</v>
+      </c>
+      <c r="AA139">
+        <v>32</v>
+      </c>
+      <c r="AB139">
+        <v>23</v>
+      </c>
+      <c r="AC139">
         <v>3.6</v>
       </c>
-      <c r="AA139">
+      <c r="AD139">
         <v>7.287644787644787</v>
       </c>
-      <c r="AB139">
+      <c r="AE139">
         <v>0.4994</v>
       </c>
-      <c r="AC139">
+      <c r="AF139">
         <v>-10.31260369136339</v>
       </c>
-      <c r="AD139">
+      <c r="AG139">
         <v>-1.494671358690336</v>
       </c>
-      <c r="AE139">
+      <c r="AH139">
         <v>84</v>
       </c>
     </row>
@@ -13986,21 +15243,30 @@
         <v>0.5151</v>
       </c>
       <c r="Z140">
+        <v>19</v>
+      </c>
+      <c r="AA140">
+        <v>32</v>
+      </c>
+      <c r="AB140">
+        <v>19</v>
+      </c>
+      <c r="AC140">
         <v>3</v>
       </c>
-      <c r="AA140">
+      <c r="AD140">
         <v>6.941747572815515</v>
       </c>
-      <c r="AB140">
+      <c r="AE140">
         <v>0.5027</v>
       </c>
-      <c r="AC140">
+      <c r="AF140">
         <v>-7.292787055413619</v>
       </c>
-      <c r="AD140">
+      <c r="AG140">
         <v>-1.04060426700131</v>
       </c>
-      <c r="AE140">
+      <c r="AH140">
         <v>83.09999999999999</v>
       </c>
     </row>
@@ -14083,21 +15349,30 @@
         <v>0.5197999999999999</v>
       </c>
       <c r="Z141">
+        <v>21</v>
+      </c>
+      <c r="AA141">
+        <v>33</v>
+      </c>
+      <c r="AB141">
+        <v>23</v>
+      </c>
+      <c r="AC141">
         <v>2.71</v>
       </c>
-      <c r="AA141">
+      <c r="AD141">
         <v>7.107389738097569</v>
       </c>
-      <c r="AB141">
+      <c r="AE141">
         <v>0.5151</v>
       </c>
-      <c r="AC141">
+      <c r="AF141">
         <v>-9.301797467018535</v>
       </c>
-      <c r="AD141">
+      <c r="AG141">
         <v>-0.7446607048989695</v>
       </c>
-      <c r="AE141">
+      <c r="AH141">
         <v>82.7</v>
       </c>
     </row>
@@ -14180,21 +15455,30 @@
         <v>0.525</v>
       </c>
       <c r="Z142">
+        <v>21</v>
+      </c>
+      <c r="AA142">
+        <v>36</v>
+      </c>
+      <c r="AB142">
+        <v>25</v>
+      </c>
+      <c r="AC142">
         <v>2.46</v>
       </c>
-      <c r="AA142">
+      <c r="AD142">
         <v>6.529377317977736</v>
       </c>
-      <c r="AB142">
+      <c r="AE142">
         <v>0.5197999999999999</v>
       </c>
-      <c r="AC142">
+      <c r="AF142">
         <v>-9.736857360496254</v>
       </c>
-      <c r="AD142">
+      <c r="AG142">
         <v>-0.4444680416264224</v>
       </c>
-      <c r="AE142">
+      <c r="AH142">
         <v>81.90000000000001</v>
       </c>
     </row>
@@ -14277,21 +15561,30 @@
         <v>0.5232</v>
       </c>
       <c r="Z143">
+        <v>19</v>
+      </c>
+      <c r="AA143">
+        <v>33</v>
+      </c>
+      <c r="AB143">
+        <v>21</v>
+      </c>
+      <c r="AC143">
         <v>2.54</v>
       </c>
-      <c r="AA143">
+      <c r="AD143">
         <v>5.666081529159328</v>
       </c>
-      <c r="AB143">
+      <c r="AE143">
         <v>0.525</v>
       </c>
-      <c r="AC143">
+      <c r="AF143">
         <v>-9.955271251285103</v>
       </c>
-      <c r="AD143">
+      <c r="AG143">
         <v>-0.264956763770885</v>
       </c>
-      <c r="AE143">
+      <c r="AH143">
         <v>84.2</v>
       </c>
     </row>
@@ -14374,21 +15667,30 @@
         <v>0.5268999999999999</v>
       </c>
       <c r="Z144">
+        <v>18</v>
+      </c>
+      <c r="AA144">
+        <v>28</v>
+      </c>
+      <c r="AB144">
+        <v>25</v>
+      </c>
+      <c r="AC144">
         <v>2.7</v>
       </c>
-      <c r="AA144">
+      <c r="AD144">
         <v>5.170399221032151</v>
       </c>
-      <c r="AB144">
+      <c r="AE144">
         <v>0.5232</v>
       </c>
-      <c r="AC144">
+      <c r="AF144">
         <v>-9.950470268964761</v>
       </c>
-      <c r="AD144">
+      <c r="AG144">
         <v>-0.1140123715196784</v>
       </c>
-      <c r="AE144">
+      <c r="AH144">
         <v>85.8</v>
       </c>
     </row>
@@ -14471,21 +15773,30 @@
         <v>0.5323</v>
       </c>
       <c r="Z145">
+        <v>18</v>
+      </c>
+      <c r="AA145">
+        <v>33</v>
+      </c>
+      <c r="AB145">
+        <v>21</v>
+      </c>
+      <c r="AC145">
         <v>2.8</v>
       </c>
-      <c r="AA145">
+      <c r="AD145">
         <v>4.474708171206232</v>
       </c>
-      <c r="AB145">
+      <c r="AE145">
         <v>0.5268999999999999</v>
       </c>
-      <c r="AC145">
+      <c r="AF145">
         <v>-8.525327011003403</v>
       </c>
-      <c r="AD145">
+      <c r="AG145">
         <v>0.007681504830925334</v>
       </c>
-      <c r="AE145">
+      <c r="AH145">
         <v>87.09999999999999</v>
       </c>
     </row>
@@ -14568,21 +15879,30 @@
         <v>0.5333</v>
       </c>
       <c r="Z146">
+        <v>24</v>
+      </c>
+      <c r="AA146">
+        <v>32</v>
+      </c>
+      <c r="AB146">
+        <v>24</v>
+      </c>
+      <c r="AC146">
         <v>2.95</v>
       </c>
-      <c r="AA146">
+      <c r="AD146">
         <v>3.933948518698394</v>
       </c>
-      <c r="AB146">
+      <c r="AE146">
         <v>0.5323</v>
       </c>
-      <c r="AC146">
+      <c r="AF146">
         <v>-7.886719512815821</v>
       </c>
-      <c r="AD146">
+      <c r="AG146">
         <v>0.1546042855659957</v>
       </c>
-      <c r="AE146">
+      <c r="AH146">
         <v>87.3</v>
       </c>
     </row>
@@ -14665,21 +15985,30 @@
         <v>0.5351</v>
       </c>
       <c r="Z147">
+        <v>19</v>
+      </c>
+      <c r="AA147">
+        <v>33</v>
+      </c>
+      <c r="AB147">
+        <v>18</v>
+      </c>
+      <c r="AC147">
         <v>2.86</v>
       </c>
-      <c r="AA147">
+      <c r="AD147">
         <v>3.927668675870111</v>
       </c>
-      <c r="AB147">
+      <c r="AE147">
         <v>0.5333</v>
       </c>
-      <c r="AC147">
+      <c r="AF147">
         <v>-9.650628906931624</v>
       </c>
-      <c r="AD147">
+      <c r="AG147">
         <v>0.2349310252414361</v>
       </c>
-      <c r="AE147">
+      <c r="AH147">
         <v>87.7</v>
       </c>
     </row>
@@ -14762,21 +16091,30 @@
         <v>0.5357</v>
       </c>
       <c r="Z148">
+        <v>19</v>
+      </c>
+      <c r="AA148">
+        <v>31</v>
+      </c>
+      <c r="AB148">
+        <v>20</v>
+      </c>
+      <c r="AC148">
         <v>2.84</v>
       </c>
-      <c r="AA148">
+      <c r="AD148">
         <v>3.772851030727331</v>
       </c>
-      <c r="AB148">
+      <c r="AE148">
         <v>0.5351</v>
       </c>
-      <c r="AC148">
+      <c r="AF148">
         <v>-7.862833446567574</v>
       </c>
-      <c r="AD148">
+      <c r="AG148">
         <v>0.06854275366690032</v>
       </c>
-      <c r="AE148">
+      <c r="AH148">
         <v>87.40000000000001</v>
       </c>
     </row>
@@ -14859,21 +16197,30 @@
         <v>0.5296999999999999</v>
       </c>
       <c r="Z149">
+        <v>18</v>
+      </c>
+      <c r="AA149">
+        <v>31</v>
+      </c>
+      <c r="AB149">
+        <v>22</v>
+      </c>
+      <c r="AC149">
         <v>2.68</v>
       </c>
-      <c r="AA149">
+      <c r="AD149">
         <v>3.798208024931848</v>
       </c>
-      <c r="AB149">
+      <c r="AE149">
         <v>0.5357</v>
       </c>
-      <c r="AC149">
+      <c r="AF149">
         <v>-7.656277132366506</v>
       </c>
-      <c r="AD149">
+      <c r="AG149">
         <v>0.08395947767707579</v>
       </c>
-      <c r="AE149">
+      <c r="AH149">
         <v>90.8</v>
       </c>
     </row>
@@ -14956,21 +16303,30 @@
         <v>0.525</v>
       </c>
       <c r="Z150">
+        <v>20</v>
+      </c>
+      <c r="AA150">
+        <v>32</v>
+      </c>
+      <c r="AB150">
+        <v>26</v>
+      </c>
+      <c r="AC150">
         <v>2.76</v>
       </c>
-      <c r="AA150">
+      <c r="AD150">
         <v>3.542234332425065</v>
       </c>
-      <c r="AB150">
+      <c r="AE150">
         <v>0.5296999999999999</v>
       </c>
-      <c r="AC150">
+      <c r="AF150">
         <v>-4.33141477133081</v>
       </c>
-      <c r="AD150">
+      <c r="AG150">
         <v>-0.1345474561559201</v>
       </c>
-      <c r="AE150">
+      <c r="AH150">
         <v>88.90000000000001</v>
       </c>
     </row>
@@ -15053,21 +16409,30 @@
         <v>0.5266</v>
       </c>
       <c r="Z151">
+        <v>19</v>
+      </c>
+      <c r="AA151">
+        <v>29</v>
+      </c>
+      <c r="AB151">
+        <v>23</v>
+      </c>
+      <c r="AC151">
         <v>2.86</v>
       </c>
-      <c r="AA151">
+      <c r="AD151">
         <v>3.441571067470361</v>
       </c>
-      <c r="AB151">
+      <c r="AE151">
         <v>0.525</v>
       </c>
-      <c r="AC151">
+      <c r="AF151">
         <v>-1.85612665247572</v>
       </c>
-      <c r="AD151">
+      <c r="AG151">
         <v>-0.5076228853142406</v>
       </c>
-      <c r="AE151">
+      <c r="AH151">
         <v>88.09999999999999</v>
       </c>
     </row>
@@ -15150,21 +16515,30 @@
         <v>0.5332</v>
       </c>
       <c r="Z152">
+        <v>19</v>
+      </c>
+      <c r="AA152">
+        <v>31</v>
+      </c>
+      <c r="AB152">
+        <v>19</v>
+      </c>
+      <c r="AC152">
         <v>4.39</v>
       </c>
-      <c r="AA152">
+      <c r="AD152">
         <v>1.925471788485478</v>
       </c>
-      <c r="AB152">
+      <c r="AE152">
         <v>0.5266</v>
       </c>
-      <c r="AC152">
+      <c r="AF152">
         <v>-1.560237398413111</v>
       </c>
-      <c r="AD152">
+      <c r="AG152">
         <v>-0.8364686912823993</v>
       </c>
-      <c r="AE152">
+      <c r="AH152">
         <v>84.09999999999999</v>
       </c>
     </row>
@@ -15247,21 +16621,30 @@
         <v>0.5232</v>
       </c>
       <c r="Z153">
+        <v>22</v>
+      </c>
+      <c r="AA153">
+        <v>31</v>
+      </c>
+      <c r="AB153">
+        <v>23</v>
+      </c>
+      <c r="AC153">
         <v>4.48</v>
       </c>
-      <c r="AA153">
+      <c r="AD153">
         <v>1.837672281776426</v>
       </c>
-      <c r="AB153">
+      <c r="AE153">
         <v>0.5332</v>
       </c>
-      <c r="AC153">
+      <c r="AF153">
         <v>-1.132878282218686</v>
       </c>
-      <c r="AD153">
+      <c r="AG153">
         <v>-1.000955629158029</v>
       </c>
-      <c r="AE153">
+      <c r="AH153">
         <v>85.40000000000001</v>
       </c>
     </row>
@@ -15344,21 +16727,30 @@
         <v>0.5318999999999999</v>
       </c>
       <c r="Z154">
+        <v>22</v>
+      </c>
+      <c r="AA154">
+        <v>34</v>
+      </c>
+      <c r="AB154">
+        <v>25</v>
+      </c>
+      <c r="AC154">
         <v>4.19</v>
       </c>
-      <c r="AA154">
+      <c r="AD154">
         <v>2.121124868029556</v>
       </c>
-      <c r="AB154">
+      <c r="AE154">
         <v>0.5232</v>
       </c>
-      <c r="AC154">
+      <c r="AF154">
         <v>0.1458994781274425</v>
       </c>
-      <c r="AD154">
+      <c r="AG154">
         <v>-1.038099481697996</v>
       </c>
-      <c r="AE154">
+      <c r="AH154">
         <v>85</v>
       </c>
     </row>
@@ -15441,21 +16833,30 @@
         <v>0.5429999999999999</v>
       </c>
       <c r="Z155">
+        <v>20</v>
+      </c>
+      <c r="AA155">
+        <v>30</v>
+      </c>
+      <c r="AB155">
+        <v>28</v>
+      </c>
+      <c r="AC155">
         <v>4.53</v>
       </c>
-      <c r="AA155">
+      <c r="AD155">
         <v>1.788960107146287</v>
       </c>
-      <c r="AB155">
+      <c r="AE155">
         <v>0.5318999999999999</v>
       </c>
-      <c r="AC155">
+      <c r="AF155">
         <v>1.861488883482565</v>
       </c>
-      <c r="AD155">
+      <c r="AG155">
         <v>-0.8496067628980697</v>
       </c>
-      <c r="AE155">
+      <c r="AH155">
         <v>83.7</v>
       </c>
     </row>
@@ -15538,21 +16939,30 @@
         <v>0.5412</v>
       </c>
       <c r="Z156">
+        <v>20</v>
+      </c>
+      <c r="AA156">
+        <v>29</v>
+      </c>
+      <c r="AB156">
+        <v>25</v>
+      </c>
+      <c r="AC156">
         <v>4.56</v>
       </c>
-      <c r="AA156">
+      <c r="AD156">
         <v>1.759755164498844</v>
       </c>
-      <c r="AB156">
+      <c r="AE156">
         <v>0.5429999999999999</v>
       </c>
-      <c r="AC156">
+      <c r="AF156">
         <v>-7.339469268744803</v>
       </c>
-      <c r="AD156">
+      <c r="AG156">
         <v>-0.7754080067486346</v>
       </c>
-      <c r="AE156">
+      <c r="AH156">
         <v>85.7</v>
       </c>
     </row>
@@ -15635,21 +17045,30 @@
         <v>0.5472</v>
       </c>
       <c r="Z157">
+        <v>21</v>
+      </c>
+      <c r="AA157">
+        <v>32</v>
+      </c>
+      <c r="AB157">
+        <v>21</v>
+      </c>
+      <c r="AC157">
         <v>4.05</v>
       </c>
-      <c r="AA157">
+      <c r="AD157">
         <v>2.258529553099486</v>
       </c>
-      <c r="AB157">
+      <c r="AE157">
         <v>0.5412</v>
       </c>
-      <c r="AC157">
+      <c r="AF157">
         <v>-7.43754717567211</v>
       </c>
-      <c r="AD157">
+      <c r="AG157">
         <v>-0.8457221799023307</v>
       </c>
-      <c r="AE157">
+      <c r="AH157">
         <v>93</v>
       </c>
     </row>
@@ -15732,21 +17151,30 @@
         <v>0.5502</v>
       </c>
       <c r="Z158">
+        <v>29</v>
+      </c>
+      <c r="AA158">
+        <v>42</v>
+      </c>
+      <c r="AB158">
+        <v>28</v>
+      </c>
+      <c r="AC158">
         <v>3.75</v>
       </c>
-      <c r="AA158">
+      <c r="AD158">
         <v>2.554216867469883</v>
       </c>
-      <c r="AB158">
+      <c r="AE158">
         <v>0.5472</v>
       </c>
-      <c r="AC158">
+      <c r="AF158">
         <v>-5.519794409244549</v>
       </c>
-      <c r="AD158">
+      <c r="AG158">
         <v>-0.7523108312986526</v>
       </c>
-      <c r="AE158">
+      <c r="AH158">
         <v>93</v>
       </c>
     </row>
@@ -15829,21 +17257,30 @@
         <v>0.5518</v>
       </c>
       <c r="Z159">
+        <v>24</v>
+      </c>
+      <c r="AA159">
+        <v>38</v>
+      </c>
+      <c r="AB159">
+        <v>22</v>
+      </c>
+      <c r="AC159">
         <v>3.78</v>
       </c>
-      <c r="AA159">
+      <c r="AD159">
         <v>2.524571208325299</v>
       </c>
-      <c r="AB159">
+      <c r="AE159">
         <v>0.5502</v>
       </c>
-      <c r="AC159">
+      <c r="AF159">
         <v>-8.796000811352178</v>
       </c>
-      <c r="AD159">
+      <c r="AG159">
         <v>-0.600726735217727</v>
       </c>
-      <c r="AE159">
+      <c r="AH159">
         <v>95.3</v>
       </c>
     </row>
@@ -15926,21 +17363,30 @@
         <v>0.5485</v>
       </c>
       <c r="Z160">
+        <v>24</v>
+      </c>
+      <c r="AA160">
+        <v>36</v>
+      </c>
+      <c r="AB160">
+        <v>24</v>
+      </c>
+      <c r="AC160">
         <v>3.89</v>
       </c>
-      <c r="AA160">
+      <c r="AD160">
         <v>2.416016940995291</v>
       </c>
-      <c r="AB160">
+      <c r="AE160">
         <v>0.5518</v>
       </c>
-      <c r="AC160">
+      <c r="AF160">
         <v>-9.702193743349262</v>
       </c>
-      <c r="AD160">
+      <c r="AG160">
         <v>-0.6949668534596221</v>
       </c>
-      <c r="AE160">
+      <c r="AH160">
         <v>94.5</v>
       </c>
     </row>
@@ -16023,21 +17469,30 @@
         <v>0.5489000000000001</v>
       </c>
       <c r="Z161">
+        <v>24</v>
+      </c>
+      <c r="AA161">
+        <v>38</v>
+      </c>
+      <c r="AB161">
+        <v>25</v>
+      </c>
+      <c r="AC161">
         <v>4.58</v>
       </c>
-      <c r="AA161">
+      <c r="AD161">
         <v>1.740294511378848</v>
       </c>
-      <c r="AB161">
+      <c r="AE161">
         <v>0.5485</v>
       </c>
-      <c r="AC161">
+      <c r="AF161">
         <v>-8.34026526460705</v>
       </c>
-      <c r="AD161">
+      <c r="AG161">
         <v>-0.8729790622911127</v>
       </c>
-      <c r="AE161">
+      <c r="AH161">
         <v>90.90000000000001</v>
       </c>
     </row>
@@ -16120,21 +17575,30 @@
         <v>0.5508</v>
       </c>
       <c r="Z162">
+        <v>26</v>
+      </c>
+      <c r="AA162">
+        <v>37</v>
+      </c>
+      <c r="AB162">
+        <v>27</v>
+      </c>
+      <c r="AC162">
         <v>4.94</v>
       </c>
-      <c r="AA162">
+      <c r="AD162">
         <v>1.391271202591948</v>
       </c>
-      <c r="AB162">
+      <c r="AE162">
         <v>0.5489000000000001</v>
       </c>
-      <c r="AC162">
+      <c r="AF162">
         <v>-7.773052272966807</v>
       </c>
-      <c r="AD162">
+      <c r="AG162">
         <v>-1.155130260300674</v>
       </c>
-      <c r="AE162">
+      <c r="AH162">
         <v>89.7</v>
       </c>
     </row>
@@ -16217,21 +17681,30 @@
         <v>0.5572</v>
       </c>
       <c r="Z163">
+        <v>24</v>
+      </c>
+      <c r="AA163">
+        <v>34</v>
+      </c>
+      <c r="AB163">
+        <v>23</v>
+      </c>
+      <c r="AC163">
         <v>4.66</v>
       </c>
-      <c r="AA163">
+      <c r="AD163">
         <v>1.662526275558962</v>
       </c>
-      <c r="AB163">
+      <c r="AE163">
         <v>0.5508</v>
       </c>
-      <c r="AC163">
+      <c r="AF163">
         <v>-6.767021478954527</v>
       </c>
-      <c r="AD163">
+      <c r="AG163">
         <v>-1.273967053994496</v>
       </c>
-      <c r="AE163">
+      <c r="AH163">
         <v>85.8</v>
       </c>
     </row>
@@ -16314,21 +17787,30 @@
         <v>0.5576</v>
       </c>
       <c r="Z164">
+        <v>24</v>
+      </c>
+      <c r="AA164">
+        <v>43</v>
+      </c>
+      <c r="AB164">
+        <v>19</v>
+      </c>
+      <c r="AC164">
         <v>3.37</v>
       </c>
-      <c r="AA164">
+      <c r="AD164">
         <v>2.931217954919219</v>
       </c>
-      <c r="AB164">
+      <c r="AE164">
         <v>0.5572</v>
       </c>
-      <c r="AC164">
+      <c r="AF164">
         <v>-9.719967440943423</v>
       </c>
-      <c r="AD164">
+      <c r="AG164">
         <v>-1.641394345013059</v>
       </c>
-      <c r="AE164">
+      <c r="AH164">
         <v>88.2</v>
       </c>
     </row>
@@ -16411,21 +17893,30 @@
         <v>0.5657</v>
       </c>
       <c r="Z165">
+        <v>31</v>
+      </c>
+      <c r="AA165">
+        <v>48</v>
+      </c>
+      <c r="AB165">
+        <v>24</v>
+      </c>
+      <c r="AC165">
         <v>3.22</v>
       </c>
-      <c r="AA165">
+      <c r="AD165">
         <v>3.080798294904086</v>
       </c>
-      <c r="AB165">
+      <c r="AE165">
         <v>0.5576</v>
       </c>
-      <c r="AC165">
+      <c r="AF165">
         <v>-10.79306967030251</v>
       </c>
-      <c r="AD165">
+      <c r="AG165">
         <v>-1.172072363824905</v>
       </c>
-      <c r="AE165">
+      <c r="AH165">
         <v>88.90000000000001</v>
       </c>
     </row>
@@ -16508,21 +17999,30 @@
         <v>0.5657</v>
       </c>
       <c r="Z166">
+        <v>23</v>
+      </c>
+      <c r="AA166">
+        <v>49</v>
+      </c>
+      <c r="AB166">
+        <v>24</v>
+      </c>
+      <c r="AC166">
         <v>3.43</v>
       </c>
-      <c r="AA166">
+      <c r="AD166">
         <v>2.388088562312674</v>
       </c>
-      <c r="AB166">
+      <c r="AE166">
         <v>0.5657</v>
       </c>
-      <c r="AC166">
+      <c r="AF166">
         <v>-8.178371493983184</v>
       </c>
-      <c r="AD166">
+      <c r="AG166">
         <v>-1.157476451511807</v>
       </c>
-      <c r="AE166">
+      <c r="AH166">
         <v>90.59999999999999</v>
       </c>
     </row>
@@ -16605,21 +18105,30 @@
         <v>0.5645</v>
       </c>
       <c r="Z167">
+        <v>26</v>
+      </c>
+      <c r="AA167">
+        <v>47</v>
+      </c>
+      <c r="AB167">
+        <v>24</v>
+      </c>
+      <c r="AC167">
         <v>2.89</v>
       </c>
-      <c r="AA167">
+      <c r="AD167">
         <v>2.740791136164833</v>
       </c>
-      <c r="AB167">
+      <c r="AE167">
         <v>0.5657</v>
       </c>
-      <c r="AC167">
+      <c r="AF167">
         <v>-6.958986805143486</v>
       </c>
-      <c r="AD167">
+      <c r="AG167">
         <v>-0.6354338008983662</v>
       </c>
-      <c r="AE167">
+      <c r="AH167">
         <v>89.90000000000001</v>
       </c>
     </row>
@@ -16702,21 +18211,30 @@
         <v>0.57</v>
       </c>
       <c r="Z168">
+        <v>24</v>
+      </c>
+      <c r="AA168">
+        <v>39</v>
+      </c>
+      <c r="AB168">
+        <v>29</v>
+      </c>
+      <c r="AC168">
         <v>2.54</v>
       </c>
-      <c r="AA168">
+      <c r="AD168">
         <v>2.769650867953977</v>
       </c>
-      <c r="AB168">
+      <c r="AE168">
         <v>0.5645</v>
       </c>
-      <c r="AC168">
+      <c r="AF168">
         <v>-7.845621661962521</v>
       </c>
-      <c r="AD168">
+      <c r="AG168">
         <v>-0.02196683936481758</v>
       </c>
-      <c r="AE168">
+      <c r="AH168">
         <v>89.59999999999999</v>
       </c>
     </row>
@@ -16799,21 +18317,30 @@
         <v>0.5727</v>
       </c>
       <c r="Z169">
+        <v>24</v>
+      </c>
+      <c r="AA169">
+        <v>42</v>
+      </c>
+      <c r="AB169">
+        <v>22</v>
+      </c>
+      <c r="AC169">
         <v>3.27</v>
       </c>
-      <c r="AA169">
+      <c r="AD169">
         <v>1.578386753171301</v>
       </c>
-      <c r="AB169">
+      <c r="AE169">
         <v>0.57</v>
       </c>
-      <c r="AC169">
+      <c r="AF169">
         <v>-7.117017727856433</v>
       </c>
-      <c r="AD169">
+      <c r="AG169">
         <v>0.1424353411402679</v>
       </c>
-      <c r="AE169">
+      <c r="AH169">
         <v>89.59999999999999</v>
       </c>
     </row>
@@ -16896,21 +18423,30 @@
         <v>0.5685</v>
       </c>
       <c r="Z170">
+        <v>30</v>
+      </c>
+      <c r="AA170">
+        <v>35</v>
+      </c>
+      <c r="AB170">
+        <v>24</v>
+      </c>
+      <c r="AC170">
         <v>4.31</v>
       </c>
-      <c r="AA170">
+      <c r="AD170">
         <v>0.2684306394401537</v>
       </c>
-      <c r="AB170">
+      <c r="AE170">
         <v>0.5727</v>
       </c>
-      <c r="AC170">
+      <c r="AF170">
         <v>-8.932301789305708</v>
       </c>
-      <c r="AD170">
+      <c r="AG170">
         <v>0.6561784659205872</v>
       </c>
-      <c r="AE170">
+      <c r="AH170">
         <v>91.59999999999999</v>
       </c>
     </row>
@@ -16993,21 +18529,30 @@
         <v>0.5729</v>
       </c>
       <c r="Z171">
+        <v>26</v>
+      </c>
+      <c r="AA171">
+        <v>42</v>
+      </c>
+      <c r="AB171">
+        <v>21</v>
+      </c>
+      <c r="AC171">
         <v>4.19</v>
       </c>
-      <c r="AA171">
+      <c r="AD171">
         <v>0.201554851713226</v>
       </c>
-      <c r="AB171">
+      <c r="AE171">
         <v>0.5685</v>
       </c>
-      <c r="AC171">
+      <c r="AF171">
         <v>-8.220574463191133</v>
       </c>
-      <c r="AD171">
+      <c r="AG171">
         <v>0.5605439103449683</v>
       </c>
-      <c r="AE171">
+      <c r="AH171">
         <v>90.40000000000001</v>
       </c>
     </row>
@@ -17090,21 +18635,30 @@
         <v>0.5807</v>
       </c>
       <c r="Z172">
+        <v>22</v>
+      </c>
+      <c r="AA172">
+        <v>46</v>
+      </c>
+      <c r="AB172">
+        <v>20</v>
+      </c>
+      <c r="AC172">
         <v>4.01</v>
       </c>
-      <c r="AA172">
+      <c r="AD172">
         <v>0.1730602826651273</v>
       </c>
-      <c r="AB172">
+      <c r="AE172">
         <v>0.5729</v>
       </c>
-      <c r="AC172">
+      <c r="AF172">
         <v>-4.708237950791949</v>
       </c>
-      <c r="AD172">
+      <c r="AG172">
         <v>0.3547717806350548</v>
       </c>
-      <c r="AE172">
+      <c r="AH172">
         <v>87.8</v>
       </c>
     </row>
@@ -17187,21 +18741,30 @@
         <v>0.6015</v>
       </c>
       <c r="Z173">
+        <v>18</v>
+      </c>
+      <c r="AA173">
+        <v>36</v>
+      </c>
+      <c r="AB173">
+        <v>19</v>
+      </c>
+      <c r="AC173">
         <v>3.3</v>
       </c>
-      <c r="AA173">
+      <c r="AD173">
         <v>0.629235237173309</v>
       </c>
-      <c r="AB173">
+      <c r="AE173">
         <v>0.5807</v>
       </c>
-      <c r="AC173">
+      <c r="AF173">
         <v>5.338301002899093</v>
       </c>
-      <c r="AD173">
+      <c r="AG173">
         <v>0.1004101735388341</v>
       </c>
-      <c r="AE173">
+      <c r="AH173">
         <v>80.2</v>
       </c>
     </row>
@@ -17284,21 +18847,30 @@
         <v>0.6245000000000001</v>
       </c>
       <c r="Z174">
+        <v>22</v>
+      </c>
+      <c r="AA174">
+        <v>49</v>
+      </c>
+      <c r="AB174">
+        <v>20</v>
+      </c>
+      <c r="AC174">
         <v>2.4</v>
       </c>
-      <c r="AA174">
+      <c r="AD174">
         <v>1.220703125</v>
       </c>
-      <c r="AB174">
+      <c r="AE174">
         <v>0.6015</v>
       </c>
-      <c r="AC174">
+      <c r="AF174">
         <v>12.93957314931733</v>
       </c>
-      <c r="AD174">
+      <c r="AG174">
         <v>0.8039843937635904</v>
       </c>
-      <c r="AE174">
+      <c r="AH174">
         <v>58.2</v>
       </c>
     </row>
@@ -17381,21 +18953,30 @@
         <v>0.6525</v>
       </c>
       <c r="Z175">
+        <v>23</v>
+      </c>
+      <c r="AA175">
+        <v>61</v>
+      </c>
+      <c r="AB175">
+        <v>19</v>
+      </c>
+      <c r="AC175">
         <v>1.88</v>
       </c>
-      <c r="AA175">
+      <c r="AD175">
         <v>1.109148017275241</v>
       </c>
-      <c r="AB175">
+      <c r="AE175">
         <v>0.6245000000000001</v>
       </c>
-      <c r="AC175">
+      <c r="AF175">
         <v>19.39737699592214</v>
       </c>
-      <c r="AD175">
+      <c r="AG175">
         <v>2.054394090880018</v>
       </c>
-      <c r="AE175">
+      <c r="AH175">
         <v>62.1</v>
       </c>
     </row>
@@ -17478,21 +19059,30 @@
         <v>0.6639</v>
       </c>
       <c r="Z176">
+        <v>24</v>
+      </c>
+      <c r="AA176">
+        <v>55</v>
+      </c>
+      <c r="AB176">
+        <v>20</v>
+      </c>
+      <c r="AC176">
         <v>2.13</v>
       </c>
-      <c r="AA176">
+      <c r="AD176">
         <v>0.4406149025751427</v>
       </c>
-      <c r="AB176">
+      <c r="AE176">
         <v>0.6525</v>
       </c>
-      <c r="AC176">
+      <c r="AF176">
         <v>10.72061499051351</v>
       </c>
-      <c r="AD176">
+      <c r="AG176">
         <v>3.66654417606338</v>
       </c>
-      <c r="AE176">
+      <c r="AH176">
         <v>71.09999999999999</v>
       </c>
     </row>
@@ -17575,21 +19165,30 @@
         <v>0.6341</v>
       </c>
       <c r="Z177">
+        <v>24</v>
+      </c>
+      <c r="AA177">
+        <v>47</v>
+      </c>
+      <c r="AB177">
+        <v>23</v>
+      </c>
+      <c r="AC177">
         <v>2.31</v>
       </c>
-      <c r="AA177">
+      <c r="AD177">
         <v>-0.1563874499071249</v>
       </c>
-      <c r="AB177">
+      <c r="AE177">
         <v>0.6639</v>
       </c>
-      <c r="AC177">
+      <c r="AF177">
         <v>14.00919727529382</v>
       </c>
-      <c r="AD177">
+      <c r="AG177">
         <v>4.463714475912717</v>
       </c>
-      <c r="AE177">
+      <c r="AH177">
         <v>78.8</v>
       </c>
     </row>
@@ -17672,21 +19271,30 @@
         <v>0.6461</v>
       </c>
       <c r="Z178">
+        <v>24</v>
+      </c>
+      <c r="AA178">
+        <v>36</v>
+      </c>
+      <c r="AB178">
+        <v>26</v>
+      </c>
+      <c r="AC178">
         <v>2.44</v>
       </c>
-      <c r="AA178">
+      <c r="AD178">
         <v>-0.4880905896134213</v>
       </c>
-      <c r="AB178">
+      <c r="AE178">
         <v>0.6341</v>
       </c>
-      <c r="AC178">
+      <c r="AF178">
         <v>19.19464769555299</v>
       </c>
-      <c r="AD178">
+      <c r="AG178">
         <v>5.107536960065095</v>
       </c>
-      <c r="AE178">
+      <c r="AH178">
         <v>80.2</v>
       </c>
     </row>
@@ -17769,21 +19377,30 @@
         <v>0.6501</v>
       </c>
       <c r="Z179">
+        <v>21</v>
+      </c>
+      <c r="AA179">
+        <v>29</v>
+      </c>
+      <c r="AB179">
+        <v>20</v>
+      </c>
+      <c r="AC179">
         <v>3.14</v>
       </c>
-      <c r="AA179">
+      <c r="AD179">
         <v>-1.202249369788655</v>
       </c>
-      <c r="AB179">
+      <c r="AE179">
         <v>0.6461</v>
       </c>
-      <c r="AC179">
+      <c r="AF179">
         <v>16.85597129812981</v>
       </c>
-      <c r="AD179">
+      <c r="AG179">
         <v>4.883563619604847</v>
       </c>
-      <c r="AE179">
+      <c r="AH179">
         <v>83.40000000000001</v>
       </c>
     </row>
@@ -17866,21 +19483,30 @@
         <v>0.6489</v>
       </c>
       <c r="Z180">
+        <v>22</v>
+      </c>
+      <c r="AA180">
+        <v>25</v>
+      </c>
+      <c r="AB180">
+        <v>22</v>
+      </c>
+      <c r="AC180">
         <v>3.92</v>
       </c>
-      <c r="AA180">
+      <c r="AD180">
         <v>-1.943802925327176</v>
       </c>
-      <c r="AB180">
+      <c r="AE180">
         <v>0.6501</v>
       </c>
-      <c r="AC180">
+      <c r="AF180">
         <v>20.67594866687539</v>
       </c>
-      <c r="AD180">
+      <c r="AG180">
         <v>4.295713400545398</v>
       </c>
-      <c r="AE180">
+      <c r="AH180">
         <v>82.40000000000001</v>
       </c>
     </row>
@@ -17963,21 +19589,30 @@
         <v>0.6535</v>
       </c>
       <c r="Z181">
+        <v>25</v>
+      </c>
+      <c r="AA181">
+        <v>24</v>
+      </c>
+      <c r="AB181">
+        <v>23</v>
+      </c>
+      <c r="AC181">
         <v>4.31</v>
       </c>
-      <c r="AA181">
+      <c r="AD181">
         <v>-2.310420860895412</v>
       </c>
-      <c r="AB181">
+      <c r="AE181">
         <v>0.6489</v>
       </c>
-      <c r="AC181">
+      <c r="AF181">
         <v>15.71757747395415</v>
       </c>
-      <c r="AD181">
+      <c r="AG181">
         <v>3.338793466298573</v>
       </c>
-      <c r="AE181">
+      <c r="AH181">
         <v>81.7</v>
       </c>
     </row>
@@ -18060,21 +19695,30 @@
         <v>0.6469</v>
       </c>
       <c r="Z182">
+        <v>35</v>
+      </c>
+      <c r="AA182">
+        <v>30</v>
+      </c>
+      <c r="AB182">
+        <v>21</v>
+      </c>
+      <c r="AC182">
         <v>4.52</v>
       </c>
-      <c r="AA182">
+      <c r="AD182">
         <v>-2.506697282816683</v>
       </c>
-      <c r="AB182">
+      <c r="AE182">
         <v>0.6535</v>
       </c>
-      <c r="AC182">
+      <c r="AF182">
         <v>9.603754026012744</v>
       </c>
-      <c r="AD182">
+      <c r="AG182">
         <v>2.013427963107128</v>
       </c>
-      <c r="AE182">
+      <c r="AH182">
         <v>78.5</v>
       </c>
     </row>
@@ -18157,21 +19801,30 @@
         <v>0.6451</v>
       </c>
       <c r="Z183">
+        <v>27</v>
+      </c>
+      <c r="AA183">
+        <v>29</v>
+      </c>
+      <c r="AB183">
+        <v>19</v>
+      </c>
+      <c r="AC183">
         <v>4.56</v>
       </c>
-      <c r="AA183">
+      <c r="AD183">
         <v>-2.543993879112483</v>
       </c>
-      <c r="AB183">
+      <c r="AE183">
         <v>0.6469</v>
       </c>
-      <c r="AC183">
+      <c r="AF183">
         <v>13.94546663138958</v>
       </c>
-      <c r="AD183">
+      <c r="AG183">
         <v>1.210055782896235</v>
       </c>
-      <c r="AE183">
+      <c r="AH183">
         <v>75.8</v>
       </c>
     </row>
@@ -18254,21 +19907,30 @@
         <v>0.6395000000000001</v>
       </c>
       <c r="Z184">
+        <v>29</v>
+      </c>
+      <c r="AA184">
+        <v>53</v>
+      </c>
+      <c r="AB184">
+        <v>24</v>
+      </c>
+      <c r="AC184">
         <v>5.2</v>
       </c>
-      <c r="AA184">
+      <c r="AD184">
         <v>-3.136882129277585</v>
       </c>
-      <c r="AB184">
+      <c r="AE184">
         <v>0.6451</v>
       </c>
-      <c r="AC184">
+      <c r="AF184">
         <v>14.84928252818045</v>
       </c>
-      <c r="AD184">
+      <c r="AG184">
         <v>0.7872976537744991</v>
       </c>
-      <c r="AE184">
+      <c r="AH184">
         <v>78</v>
       </c>
     </row>
@@ -18351,21 +20013,30 @@
         <v>0.6232</v>
       </c>
       <c r="Z185">
+        <v>29</v>
+      </c>
+      <c r="AA185">
+        <v>31</v>
+      </c>
+      <c r="AB185">
+        <v>21</v>
+      </c>
+      <c r="AC185">
         <v>6.1</v>
       </c>
-      <c r="AA185">
+      <c r="AD185">
         <v>-3.647502356267673</v>
       </c>
-      <c r="AB185">
+      <c r="AE185">
         <v>0.6395000000000001</v>
       </c>
-      <c r="AC185">
+      <c r="AF185">
         <v>17.52487641540221</v>
       </c>
-      <c r="AD185">
+      <c r="AG185">
         <v>0.830040622098327</v>
       </c>
-      <c r="AE185">
+      <c r="AH185">
         <v>68.2</v>
       </c>
     </row>
@@ -18448,21 +20119,30 @@
         <v>0.6164000000000001</v>
       </c>
       <c r="Z186">
+        <v>33</v>
+      </c>
+      <c r="AA186">
+        <v>51</v>
+      </c>
+      <c r="AB186">
+        <v>24</v>
+      </c>
+      <c r="AC186">
         <v>6.76</v>
       </c>
-      <c r="AA186">
+      <c r="AD186">
         <v>-3.8497564630948</v>
       </c>
-      <c r="AB186">
+      <c r="AE186">
         <v>0.6232</v>
       </c>
-      <c r="AC186">
+      <c r="AF186">
         <v>16.1065863139229</v>
       </c>
-      <c r="AD186">
+      <c r="AG186">
         <v>0.6007443433938331</v>
       </c>
-      <c r="AE186">
+      <c r="AH186">
         <v>72.5</v>
       </c>
     </row>
@@ -18545,21 +20225,30 @@
         <v>0.6175</v>
       </c>
       <c r="Z187">
+        <v>40</v>
+      </c>
+      <c r="AA187">
+        <v>57</v>
+      </c>
+      <c r="AB187">
+        <v>27</v>
+      </c>
+      <c r="AC187">
         <v>8.06</v>
       </c>
-      <c r="AA187">
+      <c r="AD187">
         <v>-4.414214325374799</v>
       </c>
-      <c r="AB187">
+      <c r="AE187">
         <v>0.6164000000000001</v>
       </c>
-      <c r="AC187">
+      <c r="AF187">
         <v>10.59970422872509</v>
       </c>
-      <c r="AD187">
+      <c r="AG187">
         <v>-0.2026126825446561</v>
       </c>
-      <c r="AE187">
+      <c r="AH187">
         <v>76.2</v>
       </c>
     </row>
@@ -18642,21 +20331,30 @@
         <v>0.6163000000000001</v>
       </c>
       <c r="Z188">
+        <v>37</v>
+      </c>
+      <c r="AA188">
+        <v>48</v>
+      </c>
+      <c r="AB188">
+        <v>23</v>
+      </c>
+      <c r="AC188">
         <v>8.35</v>
       </c>
-      <c r="AA188">
+      <c r="AD188">
         <v>-4.236271342870312</v>
       </c>
-      <c r="AB188">
+      <c r="AE188">
         <v>0.6175</v>
       </c>
-      <c r="AC188">
+      <c r="AF188">
         <v>4.727688840237176</v>
       </c>
-      <c r="AD188">
+      <c r="AG188">
         <v>-0.4011007601269601</v>
       </c>
-      <c r="AE188">
+      <c r="AH188">
         <v>80.90000000000001</v>
       </c>
     </row>
@@ -18739,21 +20437,30 @@
         <v>0.6104999999999999</v>
       </c>
       <c r="Z189">
+        <v>48</v>
+      </c>
+      <c r="AA189">
+        <v>60</v>
+      </c>
+      <c r="AB189">
+        <v>34</v>
+      </c>
+      <c r="AC189">
         <v>8.99</v>
       </c>
-      <c r="AA189">
+      <c r="AD189">
         <v>-4.440774382970913</v>
       </c>
-      <c r="AB189">
+      <c r="AE189">
         <v>0.6163000000000001</v>
       </c>
-      <c r="AC189">
+      <c r="AF189">
         <v>6.416855153684176</v>
       </c>
-      <c r="AD189">
+      <c r="AG189">
         <v>-0.7975698633713169</v>
       </c>
-      <c r="AE189">
+      <c r="AH189">
         <v>82.2</v>
       </c>
     </row>
@@ -18836,21 +20543,30 @@
         <v>0.6093</v>
       </c>
       <c r="Z190">
+        <v>44</v>
+      </c>
+      <c r="AA190">
+        <v>59</v>
+      </c>
+      <c r="AB190">
+        <v>45</v>
+      </c>
+      <c r="AC190">
         <v>9.68</v>
       </c>
-      <c r="AA190">
+      <c r="AD190">
         <v>-4.257840991976658</v>
       </c>
-      <c r="AB190">
+      <c r="AE190">
         <v>0.6104999999999999</v>
       </c>
-      <c r="AC190">
+      <c r="AF190">
         <v>7.596696065113906</v>
       </c>
-      <c r="AD190">
+      <c r="AG190">
         <v>-1.760621801686801</v>
       </c>
-      <c r="AE190">
+      <c r="AH190">
         <v>81.8</v>
       </c>
     </row>
@@ -18933,21 +20649,30 @@
         <v>0.6064000000000001</v>
       </c>
       <c r="Z191">
+        <v>46</v>
+      </c>
+      <c r="AA191">
+        <v>64</v>
+      </c>
+      <c r="AB191">
+        <v>40</v>
+      </c>
+      <c r="AC191">
         <v>10.25</v>
       </c>
-      <c r="AA191">
+      <c r="AD191">
         <v>-4.371882086167799</v>
       </c>
-      <c r="AB191">
+      <c r="AE191">
         <v>0.6093</v>
       </c>
-      <c r="AC191">
+      <c r="AF191">
         <v>6.715685300557839</v>
       </c>
-      <c r="AD191">
+      <c r="AG191">
         <v>-2.713071295307601</v>
       </c>
-      <c r="AE191">
+      <c r="AH191">
         <v>75.3</v>
       </c>
     </row>
@@ -19030,21 +20755,30 @@
         <v>0.6029</v>
       </c>
       <c r="Z192">
+        <v>39</v>
+      </c>
+      <c r="AA192">
+        <v>47</v>
+      </c>
+      <c r="AB192">
+        <v>36</v>
+      </c>
+      <c r="AC192">
         <v>10.67</v>
       </c>
-      <c r="AA192">
+      <c r="AD192">
         <v>-3.948676244691429</v>
       </c>
-      <c r="AB192">
+      <c r="AE192">
         <v>0.6064000000000001</v>
       </c>
-      <c r="AC192">
+      <c r="AF192">
         <v>10.57638955188438</v>
       </c>
-      <c r="AD192">
+      <c r="AG192">
         <v>-3.308052869447731</v>
       </c>
-      <c r="AE192">
+      <c r="AH192">
         <v>76.3</v>
       </c>
     </row>
@@ -19127,21 +20861,30 @@
         <v>0.6022999999999999</v>
       </c>
       <c r="Z193">
+        <v>41</v>
+      </c>
+      <c r="AA193">
+        <v>62</v>
+      </c>
+      <c r="AB193">
+        <v>30</v>
+      </c>
+      <c r="AC193">
         <v>10.74</v>
       </c>
-      <c r="AA193">
+      <c r="AD193">
         <v>-2.790319667690078</v>
       </c>
-      <c r="AB193">
+      <c r="AE193">
         <v>0.6029</v>
       </c>
-      <c r="AC193">
+      <c r="AF193">
         <v>9.479752333603674</v>
       </c>
-      <c r="AD193">
+      <c r="AG193">
         <v>-3.910092995646364</v>
       </c>
-      <c r="AE193">
+      <c r="AH193">
         <v>74.90000000000001</v>
       </c>
     </row>
@@ -19224,21 +20967,30 @@
         <v>0.5915</v>
       </c>
       <c r="Z194">
+        <v>60</v>
+      </c>
+      <c r="AA194">
+        <v>62</v>
+      </c>
+      <c r="AB194">
+        <v>42</v>
+      </c>
+      <c r="AC194">
         <v>10.06</v>
       </c>
-      <c r="AA194">
+      <c r="AD194">
         <v>-1.181173905142663</v>
       </c>
-      <c r="AB194">
+      <c r="AE194">
         <v>0.6022999999999999</v>
       </c>
-      <c r="AC194">
+      <c r="AF194">
         <v>10.52434528178188</v>
       </c>
-      <c r="AD194">
+      <c r="AG194">
         <v>-4.339317338845161</v>
       </c>
-      <c r="AE194">
+      <c r="AH194">
         <v>75.5</v>
       </c>
     </row>
@@ -19321,21 +21073,30 @@
         <v>0.5834</v>
       </c>
       <c r="Z195">
+        <v>53</v>
+      </c>
+      <c r="AA195">
+        <v>75</v>
+      </c>
+      <c r="AB195">
+        <v>30</v>
+      </c>
+      <c r="AC195">
         <v>10.38</v>
       </c>
-      <c r="AA195">
+      <c r="AD195">
         <v>-1.114332306577293</v>
       </c>
-      <c r="AB195">
+      <c r="AE195">
         <v>0.5915</v>
       </c>
-      <c r="AC195">
+      <c r="AF195">
         <v>8.06999033379574</v>
       </c>
-      <c r="AD195">
+      <c r="AG195">
         <v>-4.443369557909859</v>
       </c>
-      <c r="AE195">
+      <c r="AH195">
         <v>74.09999999999999</v>
       </c>
     </row>
@@ -19418,21 +21179,30 @@
         <v>0.5818</v>
       </c>
       <c r="Z196">
+        <v>55</v>
+      </c>
+      <c r="AA196">
+        <v>88</v>
+      </c>
+      <c r="AB196">
+        <v>46</v>
+      </c>
+      <c r="AC196">
         <v>10.54</v>
       </c>
-      <c r="AA196">
+      <c r="AD196">
         <v>-0.04523249502441651</v>
       </c>
-      <c r="AB196">
+      <c r="AE196">
         <v>0.5834</v>
       </c>
-      <c r="AC196">
+      <c r="AF196">
         <v>1.732575144516857</v>
       </c>
-      <c r="AD196">
+      <c r="AG196">
         <v>-4.423863573192355</v>
       </c>
-      <c r="AE196">
+      <c r="AH196">
         <v>77.90000000000001</v>
       </c>
     </row>
@@ -19515,21 +21285,30 @@
         <v>0.5792</v>
       </c>
       <c r="Z197">
+        <v>48</v>
+      </c>
+      <c r="AA197">
+        <v>59</v>
+      </c>
+      <c r="AB197">
+        <v>46</v>
+      </c>
+      <c r="AC197">
         <v>11.3</v>
       </c>
-      <c r="AA197">
+      <c r="AD197">
         <v>-0.1347708894878785</v>
       </c>
-      <c r="AB197">
+      <c r="AE197">
         <v>0.5818</v>
       </c>
-      <c r="AC197">
+      <c r="AF197">
         <v>-3.917055456750307</v>
       </c>
-      <c r="AD197">
+      <c r="AG197">
         <v>-4.415384312224546</v>
       </c>
-      <c r="AE197">
+      <c r="AH197">
         <v>74.8</v>
       </c>
     </row>
@@ -19612,21 +21391,30 @@
         <v>0.5800999999999999</v>
       </c>
       <c r="Z198">
+        <v>51</v>
+      </c>
+      <c r="AA198">
+        <v>83</v>
+      </c>
+      <c r="AB198">
+        <v>56</v>
+      </c>
+      <c r="AC198">
         <v>12.13</v>
       </c>
-      <c r="AA198">
+      <c r="AD198">
         <v>-0.4280745563185473</v>
       </c>
-      <c r="AB198">
+      <c r="AE198">
         <v>0.5792</v>
       </c>
-      <c r="AC198">
+      <c r="AF198">
         <v>-9.639234040726109</v>
       </c>
-      <c r="AD198">
+      <c r="AG198">
         <v>-4.754122503332637</v>
       </c>
-      <c r="AE198">
+      <c r="AH198">
         <v>78.59999999999999</v>
       </c>
     </row>
@@ -19709,21 +21497,30 @@
         <v>0.581</v>
       </c>
       <c r="Z199">
+        <v>54</v>
+      </c>
+      <c r="AA199">
+        <v>77</v>
+      </c>
+      <c r="AB199">
+        <v>50</v>
+      </c>
+      <c r="AC199">
         <v>11.73</v>
       </c>
-      <c r="AA199">
+      <c r="AD199">
         <v>0.6981115188400722</v>
       </c>
-      <c r="AB199">
+      <c r="AE199">
         <v>0.5800999999999999</v>
       </c>
-      <c r="AC199">
+      <c r="AF199">
         <v>-7.66947518703105</v>
       </c>
-      <c r="AD199">
+      <c r="AG199">
         <v>-4.333099448698707</v>
       </c>
-      <c r="AE199">
+      <c r="AH199">
         <v>75.5</v>
       </c>
     </row>
@@ -19806,21 +21603,30 @@
         <v>0.5763</v>
       </c>
       <c r="Z200">
+        <v>56</v>
+      </c>
+      <c r="AA200">
+        <v>68</v>
+      </c>
+      <c r="AB200">
+        <v>50</v>
+      </c>
+      <c r="AC200">
         <v>11.89</v>
       </c>
-      <c r="AA200">
+      <c r="AD200">
         <v>0.8937349182232657</v>
       </c>
-      <c r="AB200">
+      <c r="AE200">
         <v>0.581</v>
       </c>
-      <c r="AC200">
+      <c r="AF200">
         <v>-6.299290710172722</v>
       </c>
-      <c r="AD200">
+      <c r="AG200">
         <v>-4.251982243126262</v>
       </c>
-      <c r="AE200">
+      <c r="AH200">
         <v>79</v>
       </c>
     </row>
@@ -19903,21 +21709,30 @@
         <v>0.5771000000000001</v>
       </c>
       <c r="Z201">
+        <v>54</v>
+      </c>
+      <c r="AA201">
+        <v>79</v>
+      </c>
+      <c r="AB201">
+        <v>57</v>
+      </c>
+      <c r="AC201">
         <v>10.07</v>
       </c>
-      <c r="AA201">
+      <c r="AD201">
         <v>2.798219314981365</v>
       </c>
-      <c r="AB201">
+      <c r="AE201">
         <v>0.5763</v>
       </c>
-      <c r="AC201">
+      <c r="AF201">
         <v>0.1242461901690861</v>
       </c>
-      <c r="AD201">
+      <c r="AG201">
         <v>-3.739756677306327</v>
       </c>
-      <c r="AE201">
+      <c r="AH201">
         <v>79.5</v>
       </c>
     </row>
@@ -20000,21 +21815,30 @@
         <v>0.5758</v>
       </c>
       <c r="Z202">
+        <v>46</v>
+      </c>
+      <c r="AA202">
+        <v>68</v>
+      </c>
+      <c r="AB202">
+        <v>62</v>
+      </c>
+      <c r="AC202">
         <v>8.73</v>
       </c>
-      <c r="AA202">
+      <c r="AD202">
         <v>4.460590453416713</v>
       </c>
-      <c r="AB202">
+      <c r="AE202">
         <v>0.5771000000000001</v>
       </c>
-      <c r="AC202">
+      <c r="AF202">
         <v>-3.318358047395298</v>
       </c>
-      <c r="AD202">
+      <c r="AG202">
         <v>-2.324921686457571</v>
       </c>
-      <c r="AE202">
+      <c r="AH202">
         <v>83.59999999999999</v>
       </c>
     </row>
@@ -20097,21 +21921,30 @@
         <v>0.5704</v>
       </c>
       <c r="Z203">
+        <v>43</v>
+      </c>
+      <c r="AA203">
+        <v>51</v>
+      </c>
+      <c r="AB203">
+        <v>100</v>
+      </c>
+      <c r="AC203">
         <v>7.17</v>
       </c>
-      <c r="AA203">
+      <c r="AD203">
         <v>6.046468228048885</v>
       </c>
-      <c r="AB203">
+      <c r="AE203">
         <v>0.5758</v>
       </c>
-      <c r="AC203">
+      <c r="AF203">
         <v>-3.088268849514675</v>
       </c>
-      <c r="AD203">
+      <c r="AG203">
         <v>-0.7922347301433597</v>
       </c>
-      <c r="AE203">
+      <c r="AH203">
         <v>89</v>
       </c>
     </row>
@@ -20194,21 +22027,30 @@
         <v>0.5727</v>
       </c>
       <c r="Z204">
+        <v>43</v>
+      </c>
+      <c r="AA204">
+        <v>48</v>
+      </c>
+      <c r="AB204">
+        <v>64</v>
+      </c>
+      <c r="AC204">
         <v>6.47</v>
       </c>
-      <c r="AA204">
+      <c r="AD204">
         <v>6.743683666760591</v>
       </c>
-      <c r="AB204">
+      <c r="AE204">
         <v>0.5704</v>
       </c>
-      <c r="AC204">
+      <c r="AF204">
         <v>-4.421176325508036</v>
       </c>
-      <c r="AD204">
+      <c r="AG204">
         <v>0.168903397659026</v>
       </c>
-      <c r="AE204">
+      <c r="AH204">
         <v>88.59999999999999</v>
       </c>
     </row>
@@ -20291,21 +22133,30 @@
         <v>0.574</v>
       </c>
       <c r="Z205">
+        <v>45</v>
+      </c>
+      <c r="AA205">
+        <v>52</v>
+      </c>
+      <c r="AB205">
+        <v>37</v>
+      </c>
+      <c r="AC205">
         <v>5.9</v>
       </c>
-      <c r="AA205">
+      <c r="AD205">
         <v>7.318224740321067</v>
       </c>
-      <c r="AB205">
+      <c r="AE205">
         <v>0.5727</v>
       </c>
-      <c r="AC205">
+      <c r="AF205">
         <v>-3.511374772429832</v>
       </c>
-      <c r="AD205">
+      <c r="AG205">
         <v>1.249914443338973</v>
       </c>
-      <c r="AE205">
+      <c r="AH205">
         <v>85.3</v>
       </c>
     </row>
@@ -20388,21 +22239,30 @@
         <v>0.5639</v>
       </c>
       <c r="Z206">
+        <v>61</v>
+      </c>
+      <c r="AA206">
+        <v>71</v>
+      </c>
+      <c r="AB206">
+        <v>50</v>
+      </c>
+      <c r="AC206">
         <v>5.79</v>
       </c>
-      <c r="AA206">
+      <c r="AD206">
         <v>7.429813782020989</v>
       </c>
-      <c r="AB206">
+      <c r="AE206">
         <v>0.574</v>
       </c>
-      <c r="AC206">
+      <c r="AF206">
         <v>-2.771749554039937</v>
       </c>
-      <c r="AD206">
+      <c r="AG206">
         <v>1.851098162169085</v>
       </c>
-      <c r="AE206">
+      <c r="AH206">
         <v>88</v>
       </c>
     </row>
@@ -20485,21 +22345,30 @@
         <v>0.5681</v>
       </c>
       <c r="Z207">
+        <v>49</v>
+      </c>
+      <c r="AA207">
+        <v>65</v>
+      </c>
+      <c r="AB207">
+        <v>39</v>
+      </c>
+      <c r="AC207">
         <v>5.77</v>
       </c>
-      <c r="AA207">
+      <c r="AD207">
         <v>7.450127635435377</v>
       </c>
-      <c r="AB207">
+      <c r="AE207">
         <v>0.5639</v>
       </c>
-      <c r="AC207">
+      <c r="AF207">
         <v>-2.112243579260775</v>
       </c>
-      <c r="AD207">
+      <c r="AG207">
         <v>2.236224346138083</v>
       </c>
-      <c r="AE207">
+      <c r="AH207">
         <v>85.8</v>
       </c>
     </row>
@@ -20582,21 +22451,30 @@
         <v>0.5705</v>
       </c>
       <c r="Z208">
+        <v>51</v>
+      </c>
+      <c r="AA208">
+        <v>71</v>
+      </c>
+      <c r="AB208">
+        <v>43</v>
+      </c>
+      <c r="AC208">
         <v>5.6</v>
       </c>
-      <c r="AA208">
+      <c r="AD208">
         <v>7.623106060606055</v>
       </c>
-      <c r="AB208">
+      <c r="AE208">
         <v>0.5681</v>
       </c>
-      <c r="AC208">
+      <c r="AF208">
         <v>-3.1668324164421</v>
       </c>
-      <c r="AD208">
+      <c r="AG208">
         <v>2.397808236270937</v>
       </c>
-      <c r="AE208">
+      <c r="AH208">
         <v>84.5</v>
       </c>
     </row>
@@ -20679,21 +22557,30 @@
         <v>0.5690999999999999</v>
       </c>
       <c r="Z209">
+        <v>47</v>
+      </c>
+      <c r="AA209">
+        <v>58</v>
+      </c>
+      <c r="AB209">
+        <v>43</v>
+      </c>
+      <c r="AC209">
         <v>4.65</v>
       </c>
-      <c r="AA209">
+      <c r="AD209">
         <v>8.600095556617294</v>
       </c>
-      <c r="AB209">
+      <c r="AE209">
         <v>0.5705</v>
       </c>
-      <c r="AC209">
+      <c r="AF209">
         <v>-3.631776469622794</v>
       </c>
-      <c r="AD209">
+      <c r="AG209">
         <v>2.447000698957624</v>
       </c>
-      <c r="AE209">
+      <c r="AH209">
         <v>87</v>
       </c>
     </row>
@@ -20776,21 +22663,30 @@
         <v>0.5760999999999999</v>
       </c>
       <c r="Z210">
+        <v>50</v>
+      </c>
+      <c r="AA210">
+        <v>61</v>
+      </c>
+      <c r="AB210">
+        <v>42</v>
+      </c>
+      <c r="AC210">
         <v>4.18</v>
       </c>
-      <c r="AA210">
+      <c r="AD210">
         <v>9.090036475331154</v>
       </c>
-      <c r="AB210">
+      <c r="AE210">
         <v>0.5690999999999999</v>
       </c>
-      <c r="AC210">
+      <c r="AF210">
         <v>-6.931794235552092</v>
       </c>
-      <c r="AD210">
+      <c r="AG210">
         <v>2.049103870698388</v>
       </c>
-      <c r="AE210">
+      <c r="AH210">
         <v>86.8</v>
       </c>
     </row>
@@ -20873,21 +22769,30 @@
         <v>0.5798</v>
       </c>
       <c r="Z211">
+        <v>46</v>
+      </c>
+      <c r="AA211">
+        <v>65</v>
+      </c>
+      <c r="AB211">
+        <v>39</v>
+      </c>
+      <c r="AC211">
         <v>3.94</v>
       </c>
-      <c r="AA211">
+      <c r="AD211">
         <v>9.341928035405033</v>
       </c>
-      <c r="AB211">
+      <c r="AE211">
         <v>0.5760999999999999</v>
       </c>
-      <c r="AC211">
+      <c r="AF211">
         <v>-8.596791216070343</v>
       </c>
-      <c r="AD211">
+      <c r="AG211">
         <v>1.820877062927218</v>
       </c>
-      <c r="AE211">
+      <c r="AH211">
         <v>88.2</v>
       </c>
     </row>
@@ -20970,21 +22875,30 @@
         <v>0.5839</v>
       </c>
       <c r="Z212">
+        <v>45</v>
+      </c>
+      <c r="AA212">
+        <v>56</v>
+      </c>
+      <c r="AB212">
+        <v>28</v>
+      </c>
+      <c r="AC212">
         <v>3.16</v>
       </c>
-      <c r="AA212">
+      <c r="AD212">
         <v>10.1686700271423</v>
       </c>
-      <c r="AB212">
+      <c r="AE212">
         <v>0.5798</v>
       </c>
-      <c r="AC212">
+      <c r="AF212">
         <v>-11.6369827872558</v>
       </c>
-      <c r="AD212">
+      <c r="AG212">
         <v>2.34386067945842</v>
       </c>
-      <c r="AE212">
+      <c r="AH212">
         <v>92.3</v>
       </c>
     </row>
@@ -21067,21 +22981,30 @@
         <v>0.5893999999999999</v>
       </c>
       <c r="Z213">
+        <v>49</v>
+      </c>
+      <c r="AA213">
+        <v>88</v>
+      </c>
+      <c r="AB213">
+        <v>32</v>
+      </c>
+      <c r="AC213">
         <v>3.99</v>
       </c>
-      <c r="AA213">
+      <c r="AD213">
         <v>9.289354745648627</v>
       </c>
-      <c r="AB213">
+      <c r="AE213">
         <v>0.5839</v>
       </c>
-      <c r="AC213">
+      <c r="AF213">
         <v>-11.22359132983215</v>
       </c>
-      <c r="AD213">
+      <c r="AG213">
         <v>3.259738332577489</v>
       </c>
-      <c r="AE213">
+      <c r="AH213">
         <v>94.8</v>
       </c>
     </row>
@@ -21164,21 +23087,30 @@
         <v>0.5902000000000001</v>
       </c>
       <c r="Z214">
+        <v>46</v>
+      </c>
+      <c r="AA214">
+        <v>76</v>
+      </c>
+      <c r="AB214">
+        <v>29</v>
+      </c>
+      <c r="AC214">
         <v>4.61</v>
       </c>
-      <c r="AA214">
+      <c r="AD214">
         <v>8.201892744479489</v>
       </c>
-      <c r="AB214">
+      <c r="AE214">
         <v>0.5893999999999999</v>
       </c>
-      <c r="AC214">
+      <c r="AF214">
         <v>-10.15592148272599</v>
       </c>
-      <c r="AD214">
+      <c r="AG214">
         <v>3.639620286667777</v>
       </c>
-      <c r="AE214">
+      <c r="AH214">
         <v>96.8</v>
       </c>
     </row>
